--- a/Scraping_Results.xlsx
+++ b/Scraping_Results.xlsx
@@ -46,8 +46,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,34 +425,54 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Website Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Result</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Results</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Latest_Results</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Comparison</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Last Simulation Time</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Netztransparenz</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>https://www.netztransparenz.de/de-de/</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>ÜBER UNS
 Wer wir sind
@@ -693,19 +716,517 @@
 Konsultation Bilanzkreisvertrag 2019</t>
         </is>
       </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>ÜBER UNS
+Wer wir sind
+Verantwortlich für die überregionale Versorgung und Übertragung im Höchstspannungsbereich sind in Deutschland die vier Übertragungsnetzbetreiber (ÜNB) 50Hertz, Amprion, TenneT und TransnetBW.
+Mehr erfahren
+Zahlen &amp; Fakten
+News
+NUTZEN STATT ABREGELN / USE INSTEAD OF CURTAIL
+01. August 2024
+Nutzen statt Abregeln: Veröffentlichung von Vertragsunterlagen und Parametern
+01. August 2024 - Bayreuth, Berlin, Dortmund, Stuttgart.
+Die vier ÜNB haben heute Vertragsunterlagen, ÜNB-Parameter und FAQ zum Instrument "Nutzen statt Abregeln" (§ 13k EnWG) veröffentlicht. Diese Dokumente bieten umfassende Informationen für potenzielle Teilnehmer und Interessenten.
+Zum Inhalt
+SONSTIGE THEMEN / OTHER TOPICS
+15. Juli 2024
+Veröffentlichung der 1. Ergänzung zum Maßnahmenkatalog zum Netzwiederaufbauplan
+15. Juli 2024 - Bayreuth, Berlin, Dortmund, Stuttgart.
+Die erste Ergänzung zum Maßnahmenkatalog zum Netzwiederaufbauplan wurde durch die vier ÜNB fertiggestellt und tritt zum 1. August 2024 in Kraft. Bitte beachten Sie, dass damit auch die Umsetzungsfristen der einzelnen Maßnahmen starten.
+Netztransparenz &gt; Strommarktdesign &gt; ER-Verordnung &gt; Maßnahmenkatalog Netzwiederaufbauplan
+01. Juli 2024
+Update Anbieterfragen zur Ausschreibung Schwarzstartfähigkeit
+01. Juli 2024 - Bayreuth, Berlin, Dortmund, Stuttgart.
+Die Anbieterfragen (Q&amp;A) zum Beschaffungsverfahren Schwarzstartfähigkeit wurden aktualisiert und sind hier zu finden.
+15. Mai 2024
+4ÜNB-Studie zur Ausarbeitung eines Kapazitätsmechanismus für den deutschen Strommarkt
+Die von der Bundesregierung angekündigte Kraftwerksstrategie zur Förderung von 10,5 GW Kraftwerksneubauten leistet einen unverzichtbaren Beitrag zur Versorgungssicherheit in Deutschland und muss aus diesem Grund so schnell wie möglich umgesetzt werden.
+Aktuelles
+Hier finden Sie aktuelle Meldungen und Pressemitteilungen
+Pressebereich
+Eine Übersicht aller Kontaktpersonen für Presseanfragen
+NRV-Saldo-Ampel
+Hier finden Sie eine visuelle Darstellung des aktuellen Systembilanzzustands
+NRV-Saldo
+Hier finden Sie alle Daten rund um den Netzregelverbund-Saldo (NRV-Saldo)
+Marktwerte
+Hier finden Sie die monatlich berechneten Marktwerte nach den aktuellen EEG-Vorschriften
+RZ-Saldo
+Hier finden Sie alle Daten rund um das Regelzonen-Saldo (RZ-Saldo)
+Karte der Regelzonen in Deutschland
+Suchbegriff eingebenAlleSuchen
+const loadSearchApp33 = () =&gt; {
+const moduleContext = {"moduleId":33,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
+window.lotes.searchApp.create(moduleContext);
+}
+$(document).ready(function () { loadSearchApp33(); } );
+Suche
+Kontakt
+Glossar
+Web API
+DE
+EN
+Extranet
+TAM-Meldeportal
+Über uns
+Aufgaben
+Aufgabe der SG HoBA
+Planung und Betrieb des deutschen Übertragungsnetzes
+Netzentgelte
+Studien und Positionspapiere
+Informationsplattformen
+Veröffentlichungspflichten gemäß EU-Transparenzverordnung
+Erneuerbare Energien und Umlagen
+EEG
+EEG-Finanzierung
+EEG-Abrechnungen
+Transparenzanforderungen
+Archiv
+KWKG
+KWKG-Umlage
+KWKG-Abrechnung
+Sonstige Umlagen
+Offshore-Netzumlage
+§ 19 StromNEV-Umlage
+§ 18 AbLaV-Umlage
+Freiwillige Veröffentlichungen
+Wind- und Solarenergie Hochrechnung
+Wind- und Solarenergie Prognose (bis 15.12.2022)
+Regelenergie
+Ausgleichsenergiepreis
+reBAP
+AEP-Module
+Finanzielle Wirkung der AEP-Module
+AEP-Schätzer
+Index Ausgleichsenergiepreis
+Value of Avoided Activation (VoAA)
+NRV- und RZ-Saldo
+Daten Regelreserve
+Aktivierte Regelleistung
+Optimierte Regelleistung
+Difference (ungewollter Austausch)
+Sondermaßnahmen zum Bilanzausgleich
+Sekündliche Daten
+MOL-Abweichungen
+Altdaten-Archiv
+Abschaltbare Lasten (AbLaV)
+aFRR AT/DE-Kooperation
+mFRR AT/DE-Kooperation „GAMMA“
+IGCC-Datenpunkte
+Systemdienstleistungen
+Frequenzhaltung
+Spannungshaltung
+Blindleistung
+Betriebsfuehrung
+Redispatch
+Kapazitätsreserve
+Elektrolyseanlagen
+Freiwillige Lastreduktion
+Nutzen statt Abregeln
+Fahrplanmanagement
+Versorgungswiederaufbau
+Marktgestützte Beschaffung von Schwarzstartfähigkeit
+Strommarktdesign
+Strommarkt-Forum
+CACM-Verordnung
+Generation and load data provision methodology - GLDPM
+Clean Energy Package
+Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Electricity Balancing (EB)
+Bilanzkreisvertrag
+ER-Verordnung
+FCA-Verordnung
+SO-Verordnung
+CGMMv3
+Datenaustausch
+RfG-Verordnung
+Strompreisbremse
+Impressum
+Datenschutz
+FAQ
+Login
+Suchbegriff eingeben
+Alle
+EEG-Finanzierungsbedarf
+EEG-Finanzierungsbedarf 2024
+EEG-Finanzierungsbedarf 2023
+EEG-Umlagen
+EEG-Umlage 2022
+EEG-Umlage 2021
+EEG-Umlage 2020
+EEG-Umlage 2019
+EEG-Umlagen der Vorjahre
+Mittelfristprognosen
+Mittelfristprognose 2024-2028
+Mittelfristprognose 2023-2027
+Mittelfristprognose 2022-2026
+Mittelfristprognose 2021-2025
+Mittelfristprognose 2020-2024
+Mittelfristprognose Vorjahre
+EEG-Jahresabrechnungen
+EEG-Anlagenstammdaten
+EEG-Jahresabrechnungen 2022-2000
+IDW-Prüfungshinweis
+Archiv IDW-Prüfungshinweise
+Hinweis Korrekturen Jahresabrechnung EEG Umlage
+Abwicklungshinweise und Umsetzungshilfen
+Messen und Schätzen
+Besondere Ausgleichsregelung
+Ausgeförderte Anlagen
+Abzugsbetrag 2024
+Abzugsbetrag 2023
+Abzugsbetrag 2022
+Aufschlag 2021 für Windenergieanlagen
+Umlageprivileg für Stromspeicher
+Marktprämie
+Online-Hochrechnung der tatsächlichen Erzeugung von Strom aus Windenergie Onshore
+Online-Hochrechnung der tatsächlichen Erzeugung von Strom aus Windenergie Offshore
+Online-Hochrechnung der tatsächlichen Erzeugung von Strom aus Solarenergie
+Marktwertübersicht
+Negativer Spotmarktpreis – Übersichtstabellen
+Spotmarktpreis nach § 3 Nr. 42a EEG
+ÜNB-Vermarktung
+EEG-Kontenübersicht
+Ausfall- und Direktvermarktung
+Datenmeldung EEG-Umlage
+Hinweis zu § 104 Abs. 4 EEG 2017 – Amnestieregelung
+Systemstabilitätsverordnung
+Abwicklung vor 2010
+Monatsprognosen 2009
+Monatsprognosen 2008
+Monatsprognosen 2007
+Monatsprognosen 2006
+Monatsprognosen bis 2005
+Profilwälzung
+KWKG-Umlagen-Übersicht
+KWKG-Umlage 2024
+KWKG-Umlage 2023
+KWKG-Umlage 2022
+KWKG-Umlage 2021
+KWKG-Umlage 2020
+KWKG-Aufschläge Vorjahre
+KWKG-Jahresabrechnungen
+IDW-Prüfungshinweis KWKG
+Archiv-IDW-Prüfungshinweise KWKG
+Tool zur Berechnung der reduzierten KWKG-Umlage
+Negative Preise
+KWKG-Kontenübersicht
+Offshore-Netzumlagen-Übersicht
+Offshore Netzumlage 2024
+Offshore Netzumlage 2023
+Offshore Netzumlage 2022
+Offshore Netzumlage 2021
+Offshore Netzumlage 2020
+Offshore Netzumlage der Vorjahre
+Jahresabrechnungen der Offshore-Netzumlage
+Tool zur Berechnung der reduzierten Offshore-Netzumlage
+§ 19 StromNEV-Umlagen-Übersicht
+§ 19 StromNEV-Umlage 2024
+§ 19 StromNEV-Umlage 2023
+§ 19 StromNEV-Umlage 2022
+§ 19 StromNEV-Umlage 2021
+§ 19 StromNEV-Umlage 2020
+§ 19 StromNEV-Umlage Vorjahre
+Terminkette zur Abwicklung der § 19 StromNEV-Umlage
+Jahresabrechnung
+Tool zur Berechnung der reduzierten StromNEV-Umlage
+AbLaV-Umlagen-Übersicht
+Umlage nach § 18 AbLaV für das Jahr 2022
+Umlage nach § 18 AbLaV für das Jahr 2021
+Umlage nach § 18 AbLaV für das Jahr 2020
+Umlage nach § 18 AbLaV für das Jahr 2019
+Umlage nach § 18 AbLaV für das Jahr 2018
+AbLaV-Umlage der Jahre 2014 bis 2022
+Jahresabrechnungen der Abschaltbare Lasten-Umlage
+Einheitliche Auslegung von E-STATCOM
+Abrechnung BDEW-Übergangslösung
+Redispatch 2.0 an der Schnittstelle ÜNB-VNB
+Kalkulatorische Preise
+Harmonisierter Aktivierungsprozess
+Veröffentlichungen zum Erbringungszeitraum 2024-2026
+Veröffentlichungen zum Erbringungszeitraum 2022-2024
+Veröffentlichungen zum Erbringungszeitraum 2020-2022
+ÜNB-Umsetzungskonzept
+Informationsveranstaltungen für potenzielle Teilnehmer
+Koordination mit VNB
+Vertragsunterlagen
+ÜNB-Parameter
+Implementierungsvorschriften
+Beschlüsse
+Konsultation
+Konsultation Bilanzkreisvertrag 2023
+Konsultation Bilanzkreisvertrag 2019</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>ÜBER UNS
+Wer wir sind
+Verantwortlich für die überregionale Versorgung und Übertragung im Höchstspannungsbereich sind in Deutschland die vier Übertragungsnetzbetreiber (ÜNB) 50Hertz, Amprion, TenneT und TransnetBW.
+Mehr erfahren
+Zahlen &amp; Fakten
+News
+NUTZEN STATT ABREGELN / USE INSTEAD OF CURTAIL
+01. August 2024
+Nutzen statt Abregeln: Veröffentlichung von Vertragsunterlagen und Parametern
+01. August 2024 - Bayreuth, Berlin, Dortmund, Stuttgart.
+Die vier ÜNB haben heute Vertragsunterlagen, ÜNB-Parameter und FAQ zum Instrument "Nutzen statt Abregeln" (§ 13k EnWG) veröffentlicht. Diese Dokumente bieten umfassende Informationen für potenzielle Teilnehmer und Interessenten.
+Zum Inhalt
+SONSTIGE THEMEN / OTHER TOPICS
+15. Juli 2024
+Veröffentlichung der 1. Ergänzung zum Maßnahmenkatalog zum Netzwiederaufbauplan
+15. Juli 2024 - Bayreuth, Berlin, Dortmund, Stuttgart.
+Die erste Ergänzung zum Maßnahmenkatalog zum Netzwiederaufbauplan wurde durch die vier ÜNB fertiggestellt und tritt zum 1. August 2024 in Kraft. Bitte beachten Sie, dass damit auch die Umsetzungsfristen der einzelnen Maßnahmen starten.
+Netztransparenz &gt; Strommarktdesign &gt; ER-Verordnung &gt; Maßnahmenkatalog Netzwiederaufbauplan
+01. Juli 2024
+Update Anbieterfragen zur Ausschreibung Schwarzstartfähigkeit
+01. Juli 2024 - Bayreuth, Berlin, Dortmund, Stuttgart.
+Die Anbieterfragen (Q&amp;A) zum Beschaffungsverfahren Schwarzstartfähigkeit wurden aktualisiert und sind hier zu finden.
+15. Mai 2024
+4ÜNB-Studie zur Ausarbeitung eines Kapazitätsmechanismus für den deutschen Strommarkt
+Die von der Bundesregierung angekündigte Kraftwerksstrategie zur Förderung von 10,5 GW Kraftwerksneubauten leistet einen unverzichtbaren Beitrag zur Versorgungssicherheit in Deutschland und muss aus diesem Grund so schnell wie möglich umgesetzt werden.
+Aktuelles
+Hier finden Sie aktuelle Meldungen und Pressemitteilungen
+Pressebereich
+Eine Übersicht aller Kontaktpersonen für Presseanfragen
+NRV-Saldo-Ampel
+Hier finden Sie eine visuelle Darstellung des aktuellen Systembilanzzustands
+NRV-Saldo
+Hier finden Sie alle Daten rund um den Netzregelverbund-Saldo (NRV-Saldo)
+Marktwerte
+Hier finden Sie die monatlich berechneten Marktwerte nach den aktuellen EEG-Vorschriften
+RZ-Saldo
+Hier finden Sie alle Daten rund um das Regelzonen-Saldo (RZ-Saldo)
+Karte der Regelzonen in Deutschland
+Suchbegriff eingebenAlleSuchen
+const loadSearchApp33 = () =&gt; {
+const moduleContext = {"moduleId":33,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
+window.lotes.searchApp.create(moduleContext);
+}
+$(document).ready(function () { loadSearchApp33(); } );
+Suche
+Kontakt
+Glossar
+Web API
+DE
+EN
+Extranet
+TAM-Meldeportal
+Über uns
+Aufgaben
+Aufgabe der SG HoBA
+Planung und Betrieb des deutschen Übertragungsnetzes
+Netzentgelte
+Studien und Positionspapiere
+Informationsplattformen
+Veröffentlichungspflichten gemäß EU-Transparenzverordnung
+Erneuerbare Energien und Umlagen
+EEG
+EEG-Finanzierung
+EEG-Abrechnungen
+Transparenzanforderungen
+Archiv
+KWKG
+KWKG-Umlage
+KWKG-Abrechnung
+Sonstige Umlagen
+Offshore-Netzumlage
+§ 19 StromNEV-Umlage
+§ 18 AbLaV-Umlage
+Freiwillige Veröffentlichungen
+Wind- und Solarenergie Hochrechnung
+Wind- und Solarenergie Prognose (bis 15.12.2022)
+Regelenergie
+Ausgleichsenergiepreis
+reBAP
+AEP-Module
+Finanzielle Wirkung der AEP-Module
+AEP-Schätzer
+Index Ausgleichsenergiepreis
+Value of Avoided Activation (VoAA)
+NRV- und RZ-Saldo
+Daten Regelreserve
+Aktivierte Regelleistung
+Optimierte Regelleistung
+Difference (ungewollter Austausch)
+Sondermaßnahmen zum Bilanzausgleich
+Sekündliche Daten
+MOL-Abweichungen
+Altdaten-Archiv
+Abschaltbare Lasten (AbLaV)
+aFRR AT/DE-Kooperation
+mFRR AT/DE-Kooperation „GAMMA“
+IGCC-Datenpunkte
+Systemdienstleistungen
+Frequenzhaltung
+Spannungshaltung
+Blindleistung
+Betriebsfuehrung
+Redispatch
+Kapazitätsreserve
+Elektrolyseanlagen
+Freiwillige Lastreduktion
+Nutzen statt Abregeln
+Fahrplanmanagement
+Versorgungswiederaufbau
+Marktgestützte Beschaffung von Schwarzstartfähigkeit
+Strommarktdesign
+Strommarkt-Forum
+CACM-Verordnung
+Generation and load data provision methodology - GLDPM
+Clean Energy Package
+Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Electricity Balancing (EB)
+Bilanzkreisvertrag
+ER-Verordnung
+FCA-Verordnung
+SO-Verordnung
+CGMMv3
+Datenaustausch
+RfG-Verordnung
+Strompreisbremse
+Impressum
+Datenschutz
+FAQ
+Login
+Suchbegriff eingeben
+Alle
+EEG-Finanzierungsbedarf
+EEG-Finanzierungsbedarf 2024
+EEG-Finanzierungsbedarf 2023
+EEG-Umlagen
+EEG-Umlage 2022
+EEG-Umlage 2021
+EEG-Umlage 2020
+EEG-Umlage 2019
+EEG-Umlagen der Vorjahre
+Mittelfristprognosen
+Mittelfristprognose 2024-2028
+Mittelfristprognose 2023-2027
+Mittelfristprognose 2022-2026
+Mittelfristprognose 2021-2025
+Mittelfristprognose 2020-2024
+Mittelfristprognose Vorjahre
+EEG-Jahresabrechnungen
+EEG-Anlagenstammdaten
+EEG-Jahresabrechnungen 2022-2000
+IDW-Prüfungshinweis
+Archiv IDW-Prüfungshinweise
+Hinweis Korrekturen Jahresabrechnung EEG Umlage
+Abwicklungshinweise und Umsetzungshilfen
+Messen und Schätzen
+Besondere Ausgleichsregelung
+Ausgeförderte Anlagen
+Abzugsbetrag 2024
+Abzugsbetrag 2023
+Abzugsbetrag 2022
+Aufschlag 2021 für Windenergieanlagen
+Umlageprivileg für Stromspeicher
+Marktprämie
+Online-Hochrechnung der tatsächlichen Erzeugung von Strom aus Windenergie Onshore
+Online-Hochrechnung der tatsächlichen Erzeugung von Strom aus Windenergie Offshore
+Online-Hochrechnung der tatsächlichen Erzeugung von Strom aus Solarenergie
+Marktwertübersicht
+Negativer Spotmarktpreis – Übersichtstabellen
+Spotmarktpreis nach § 3 Nr. 42a EEG
+ÜNB-Vermarktung
+EEG-Kontenübersicht
+Ausfall- und Direktvermarktung
+Datenmeldung EEG-Umlage
+Hinweis zu § 104 Abs. 4 EEG 2017 – Amnestieregelung
+Systemstabilitätsverordnung
+Abwicklung vor 2010
+Monatsprognosen 2009
+Monatsprognosen 2008
+Monatsprognosen 2007
+Monatsprognosen 2006
+Monatsprognosen bis 2005
+Profilwälzung
+KWKG-Umlagen-Übersicht
+KWKG-Umlage 2024
+KWKG-Umlage 2023
+KWKG-Umlage 2022
+KWKG-Umlage 2021
+KWKG-Umlage 2020
+KWKG-Aufschläge Vorjahre
+KWKG-Jahresabrechnungen
+IDW-Prüfungshinweis KWKG
+Archiv-IDW-Prüfungshinweise KWKG
+Tool zur Berechnung der reduzierten KWKG-Umlage
+Negative Preise
+KWKG-Kontenübersicht
+Offshore-Netzumlagen-Übersicht
+Offshore Netzumlage 2024
+Offshore Netzumlage 2023
+Offshore Netzumlage 2022
+Offshore Netzumlage 2021
+Offshore Netzumlage 2020
+Offshore Netzumlage der Vorjahre
+Jahresabrechnungen der Offshore-Netzumlage
+Tool zur Berechnung der reduzierten Offshore-Netzumlage
+§ 19 StromNEV-Umlagen-Übersicht
+§ 19 StromNEV-Umlage 2024
+§ 19 StromNEV-Umlage 2023
+§ 19 StromNEV-Umlage 2022
+§ 19 StromNEV-Umlage 2021
+§ 19 StromNEV-Umlage 2020
+§ 19 StromNEV-Umlage Vorjahre
+Terminkette zur Abwicklung der § 19 StromNEV-Umlage
+Jahresabrechnung
+Tool zur Berechnung der reduzierten StromNEV-Umlage
+AbLaV-Umlagen-Übersicht
+Umlage nach § 18 AbLaV für das Jahr 2022
+Umlage nach § 18 AbLaV für das Jahr 2021
+Umlage nach § 18 AbLaV für das Jahr 2020
+Umlage nach § 18 AbLaV für das Jahr 2019
+Umlage nach § 18 AbLaV für das Jahr 2018
+AbLaV-Umlage der Jahre 2014 bis 2022
+Jahresabrechnungen der Abschaltbare Lasten-Umlage
+Einheitliche Auslegung von E-STATCOM
+Abrechnung BDEW-Übergangslösung
+Redispatch 2.0 an der Schnittstelle ÜNB-VNB
+Kalkulatorische Preise
+Harmonisierter Aktivierungsprozess
+Veröffentlichungen zum Erbringungszeitraum 2024-2026
+Veröffentlichungen zum Erbringungszeitraum 2022-2024
+Veröffentlichungen zum Erbringungszeitraum 2020-2022
+ÜNB-Umsetzungskonzept
+Informationsveranstaltungen für potenzielle Teilnehmer
+Koordination mit VNB
+Vertragsunterlagen
+ÜNB-Parameter
+Implementierungsvorschriften
+Beschlüsse
+Konsultation
+Konsultation Bilanzkreisvertrag 2023
+Konsultation Bilanzkreisvertrag 2019</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-28 08:22:27</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>PV Magazine Germany</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>https://www.pv-magazine.de/</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>­.fluid-width-video-wrapper{width:100%;position:relative;padding:0;}.fluid-width-video-wrapper iframe,.fluid-width-video-wrapper object,.fluid-width-video-wrapper embed {position:absolute;top:0;left:0;width:100%;height:100%;}
 Zustimmung
@@ -726,19 +1247,71 @@
 Technisch notwendig  32 Technisch notwendige Cookies helfen dabei, eine Webseite nutzbar zu machen, indem sie Grundfunktionen wie Seitennavigation und Zugriff auf sichere Bereiche der Webseite ermöglichen. Die Webseite kann ohne diese Cookies nicht richtig funktionieren. Cookiebot1Erfahren Sie mehr über diesen Anbieter1.gifWird verwendet, um die Anzahl der Sitzungen auf der Website zu zählen, was für die Optimierung der Bereitstellung von CMP-Produkten erforderlich ist. Ablauf: SitzungTyp: Pixel-TrackerGoogle1Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness.rc::eDieser Cookie wird verwendet, um zwischen Menschen und Bots zu unterscheiden.Ablauf: SitzungTyp: HTML Local StorageLinkedIn4Erfahren Sie mehr über diesen AnbieterbcookieWird verwendet, um Spam zu erkennen und die Sicherheit der Webseite zu verbessern.Ablauf: 1 JahrTyp: HTTP-Cookieli_gcSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 180 TageTyp: HTTP-CookiebscookieDieser Cookie wird verwendet, um den Besucher über eine Anwendung zu identifizieren. Dadurch kann sich der Besucher beispielsweise über seine LinkedIn-Anwendung bei einer webseite anmelden.Ablauf: 1 JahrTyp: HTTP-CookieJSESSIONIDBehält die Zustände des Benutzers bei allen Seitenanfragen bei.Ablauf: SitzungTyp: HTTP-CookieStripe3Erfahren Sie mehr über diesen AnbietermBestimmt das Gerät, mit dem auf die Webseite zugegriffen wird. Dadurch kann die Webseite entsprechend formatiert werden.Ablauf: 400 TageTyp: HTTP-Cookie__stripe_midDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: 1 JahrTyp: HTTP-Cookie__stripe_sidDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: 1 TagTyp: HTTP-CookieWordPress.com1Erfahren Sie mehr über diesen Anbietert.gifStellt sicher, dass die Produktbilder auf der Website korrekt dargestellt werden.Ablauf: SitzungTyp: Pixel-Trackerapp.involve.me2lvapp_sessionWird verwendet, um Formulare auf der Website zu implementieren.Ablauf: 1 TagTyp: HTTP-CookieXSRF-TOKENGewährleistet die Sicherheit beim Browsen für Besucher durch Verhinderung von Cross-Site Request Forgery. Dieser Cookie ist wesentlich für die Sicherheit der Website und des Besuchers.Ablauf: 1 TagTyp: HTTP-Cookiebranchenbuch.pv-magazine.deshop.pv-magazine.comwww.pv-magazine.de3wpEmojiSettingsSupports [x3]Dieses Cookie ist mit einem Bündel von Cookies verbunden, die dem Zweck der Bereitstellung und Präsentation von Inhalten dienen. Die Cookies behalten den korrekten Zustand von Schriftart, Blog-/Bildschiebereglern, Farbthemen und anderen Website-Einstellungen bei.Ablauf: SitzungTyp: HTML Local Storagecdn.consentmanager.net2__cmp#_.#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storage__cmp#_expire_#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storagecdn.consentmanager.netb.delivery.consentmanager.net2__cmp# [x2]Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 1 TagTyp: HTTP-Cookieconsent.cookiebot.comshop.pv-magazine.com3CookieConsent [x3]Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 1 JahrTyp: HTTP-Cookiem.stripe.com3Erfahren Sie mehr über diesen Anbieter_abDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: SitzungTyp: HTML Local Storage_mfDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: SitzungTyp: HTML Local StorageidAnstehendAblauf: SitzungTyp: HTML Local Storagewidget.sndcdn.com1sc_anonymous_idWird im Zusammenhang mit der 3D-Ansichtsfunktion auf der Website verwendet.Ablauf: 10 JahreTyp: HTTP-Cookiewww.selfmade-energy.com6uc_settingsSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storageuc_ui_versionSpeichert die Versionsnummer des Consent-Banners UI, die auf der aktuellen Domain verwendet wirdAblauf: BeständigTyp: HTML Local Storageuc_user_countryWird verwendet, um zu bestimmen, wo sich der Benutzer befindet, um festzustellen, ob der Benutzer der DSGVO oder anderen ePrivacy-Gesetzen unterliegt.Ablauf: SitzungTyp: HTML Local Storagetest_cookieVerwendet, um zu überprüfen, ob der Browser des Benutzers Cookies unterstützt.Ablauf: 1 TagTyp: HTTP-CookiecsrftokenHilft, Cross-Site Request Forgery- (CSRF-) Angriffe zu verhindern.Ablauf: 1 JahrTyp: HTTP-CookieSESS#Behält die Zustände des Benutzers bei allen Seitenanfragen bei.Ablauf: 14 TageTyp: HTTP-CookiePräferenzen  6 Präferenz-Cookies ermöglichen einer Webseite sich an Informationen zu erinnern, die die Art beeinflussen, wie sich eine Webseite verhält oder aussieht, wie z. B. Ihre bevorzugte Sprache oder die Region in der Sie sich befinden. LinkedIn3Erfahren Sie mehr über diesen AnbieterlangNotwendig für die Pflege von Spracheinstellungen für Unterseiten auf der Webseite.Ablauf: SitzungTyp: HTTP-CookielidcRegistriert, welcher Server-Cluster den Besucher bedient. Dies wird im Zusammenhang mit Load Balancing verwendet, um die Nutzererfahrung zu optimieren.Ablauf: 1 TagTyp: HTTP-Cookieli_alertsWird verwendet, um zu bestimmen, wann und wo bestimmte Pop-ups auf der Website für den Benutzer angezeigt werden sollen, und um sich zu merken, ob der Benutzer diese geschlossen hat, damit sie nicht mehrfach angezeigt werden.Ablauf: 1 JahrTyp: HTTP-Cookiem.stripe.com1Erfahren Sie mehr über diesen Anbieter1Dieser Cookie wird in Verbindung mit dem Zahlungsfenster verwendet. - Der Cookie ist für sichere Transaktionen auf der webseite erforderlich.Ablauf: SitzungTyp: HTM</t>
         </is>
       </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>­.fluid-width-video-wrapper{width:100%;position:relative;padding:0;}.fluid-width-video-wrapper iframe,.fluid-width-video-wrapper object,.fluid-width-video-wrapper embed {position:absolute;top:0;left:0;width:100%;height:100%;}
+Zustimmung
+Details
+Über Cookies
+pv magazine respektiert Ihre Privatsphäre
+Wir verwenden auf unserer Webseite Cookies und ähnliche Technologien um Ihnen eine benutzerfreundliche, sichere und effektive Website zur Verfügung zu stellen. Zusätzlich nutzen wir diese Technologien, um Ihnen persönliche Werbung bereitstellen zu können. Wenn Sie damit einverstanden sind, klicken Sie bitte auf „Cookies akzeptieren“. Um persönliche Einstellung der Cookies vorzunehmen, wählen Sie „Cookie-Einstellungen“. Bitte berücksichtigen Sie, dass die Darstellung unserer Webseite durch Ihre Auswahl der Cookies beeinflusst wird. Ihre erteilte Einwilligung zur Verwendung von Cookies können Sie jederzeit über unseren Cookie-Banner widerrufen bzw. ändern. Weitere Informationen dazu wie wir Daten verarbeiten, finden Sie in unserer Datenschutzerklärung. Bei weiteren Fragen können Sie sich an dataprivacy@pv-magazine.com wenden.
+Consent Selection
+Technisch notwendig
+Präferenzen
+Statistiken
+Marketing
+Cookies ablehnen
+Auswahl erlauben
+Cookies akzeptieren
+Cookie-Einstellungen
+Technisch notwendig  32 Technisch notwendige Cookies helfen dabei, eine Webseite nutzbar zu machen, indem sie Grundfunktionen wie Seitennavigation und Zugriff auf sichere Bereiche der Webseite ermöglichen. Die Webseite kann ohne diese Cookies nicht richtig funktionieren. Cookiebot1Erfahren Sie mehr über diesen Anbieter1.gifWird verwendet, um die Anzahl der Sitzungen auf der Website zu zählen, was für die Optimierung der Bereitstellung von CMP-Produkten erforderlich ist. Ablauf: SitzungTyp: Pixel-TrackerGoogle1Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness.rc::eDieser Cookie wird verwendet, um zwischen Menschen und Bots zu unterscheiden.Ablauf: SitzungTyp: HTML Local StorageLinkedIn4Erfahren Sie mehr über diesen AnbieterbcookieWird verwendet, um Spam zu erkennen und die Sicherheit der Webseite zu verbessern.Ablauf: 1 JahrTyp: HTTP-Cookieli_gcSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 180 TageTyp: HTTP-CookiebscookieDieser Cookie wird verwendet, um den Besucher über eine Anwendung zu identifizieren. Dadurch kann sich der Besucher beispielsweise über seine LinkedIn-Anwendung bei einer webseite anmelden.Ablauf: 1 JahrTyp: HTTP-CookieJSESSIONIDBehält die Zustände des Benutzers bei allen Seitenanfragen bei.Ablauf: SitzungTyp: HTTP-CookieStripe3Erfahren Sie mehr über diesen AnbietermBestimmt das Gerät, mit dem auf die Webseite zugegriffen wird. Dadurch kann die Webseite entsprechend formatiert werden.Ablauf: 400 TageTyp: HTTP-Cookie__stripe_midDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: 1 JahrTyp: HTTP-Cookie__stripe_sidDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: 1 TagTyp: HTTP-CookieWordPress.com1Erfahren Sie mehr über diesen Anbietert.gifStellt sicher, dass die Produktbilder auf der Website korrekt dargestellt werden.Ablauf: SitzungTyp: Pixel-Trackerapp.involve.me2lvapp_sessionWird verwendet, um Formulare auf der Website zu implementieren.Ablauf: 1 TagTyp: HTTP-CookieXSRF-TOKENGewährleistet die Sicherheit beim Browsen für Besucher durch Verhinderung von Cross-Site Request Forgery. Dieser Cookie ist wesentlich für die Sicherheit der Website und des Besuchers.Ablauf: 1 TagTyp: HTTP-Cookiebranchenbuch.pv-magazine.deshop.pv-magazine.comwww.pv-magazine.de3wpEmojiSettingsSupports [x3]Dieses Cookie ist mit einem Bündel von Cookies verbunden, die dem Zweck der Bereitstellung und Präsentation von Inhalten dienen. Die Cookies behalten den korrekten Zustand von Schriftart, Blog-/Bildschiebereglern, Farbthemen und anderen Website-Einstellungen bei.Ablauf: SitzungTyp: HTML Local Storagecdn.consentmanager.net2__cmp#_.#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storage__cmp#_expire_#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storagecdn.consentmanager.netb.delivery.consentmanager.net2__cmp# [x2]Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 1 TagTyp: HTTP-Cookieconsent.cookiebot.comshop.pv-magazine.com3CookieConsent [x3]Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 1 JahrTyp: HTTP-Cookiem.stripe.com3Erfahren Sie mehr über diesen Anbieter_abDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: SitzungTyp: HTML Local Storage_mfDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: SitzungTyp: HTML Local StorageidAnstehendAblauf: SitzungTyp: HTML Local Storagewidget.sndcdn.com1sc_anonymous_idWird im Zusammenhang mit der 3D-Ansichtsfunktion auf der Website verwendet.Ablauf: 10 JahreTyp: HTTP-Cookiewww.selfmade-energy.com6uc_settingsSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storageuc_ui_versionSpeichert die Versionsnummer des Consent-Banners UI, die auf der aktuellen Domain verwendet wirdAblauf: BeständigTyp: HTML Local Storageuc_user_countryWird verwendet, um zu bestimmen, wo sich der Benutzer befindet, um festzustellen, ob der Benutzer der DSGVO oder anderen ePrivacy-Gesetzen unterliegt.Ablauf: SitzungTyp: HTML Local Storagetest_cookieVerwendet, um zu überprüfen, ob der Browser des Benutzers Cookies unterstützt.Ablauf: 1 TagTyp: HTTP-CookiecsrftokenHilft, Cross-Site Request Forgery- (CSRF-) Angriffe zu verhindern.Ablauf: 1 JahrTyp: HTTP-CookieSESS#Behält die Zustände des Benutzers bei allen Seitenanfragen bei.Ablauf: 14 TageTyp: HTTP-CookiePräferenzen  6 Präferenz-Cookies ermöglichen einer Webseite sich an Informationen zu erinnern, die die Art beeinflussen, wie sich eine Webseite verhält oder aussieht, wie z. B. Ihre bevorzugte Sprache oder die Region in der Sie sich befinden. LinkedIn3Erfahren Sie mehr über diesen AnbieterlangNotwendig für die Pflege von Spracheinstellungen für Unterseiten auf der Webseite.Ablauf: SitzungTyp: HTTP-CookielidcRegistriert, welcher Server-Cluster den Besucher bedient. Dies wird im Zusammenhang mit Load Balancing verwendet, um die Nutzererfahrung zu optimieren.Ablauf: 1 TagTyp: HTTP-Cookieli_alertsWird verwendet, um zu bestimmen, wann und wo bestimmte Pop-ups auf der Website für den Benutzer angezeigt werden sollen, und um sich zu merken, ob der Benutzer diese geschlossen hat, damit sie nicht mehrfach angezeigt werden.Ablauf: 1 JahrTyp: HTTP-Cookiem.stripe.com1Erfahren Sie mehr über diesen Anbieter1Dieser Cookie wird in Verbindung mit dem Zahlungsfenster verwendet. - Der Cookie ist für sichere Transaktionen auf der webseite erforderlich.Ablauf: SitzungTyp: HTML Local Storageshop.pv-magazine.com1qtrans_front_languageBestimmt die bevorzugte Sprache des Besuchers. Ermöglicht der Webseite, beim erneuten Besuch des Besuchers die bevorzugte Sprache festzulegen.Ablauf: 1 JahrTyp: HTTP-Cookiewww.selfmade-energy.com1uc_cross_domain_data_#AnstehendAblauf: BeständigTyp: HTML Local StorageStatistiken  36 Statistik-Cookies helfen Webseiten-Besitzern zu verstehen, wie Besucher mit Webseiten interagieren, indem Informationen anonym gesammelt und gemeldet werden. Google15Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness._ga [x7]Registriert eine eindeutige ID, die verwendet wird, um statistische Daten dazu, wie der Besucher die Website nutzt, zu generieren.Ablauf: 2 JahreTyp: HTTP-Cookie_gid [x4]Registriert eine eindeutige ID, die verwendet wird, um statistische Daten dazu, wie der Besucher die Website nutzt, zu generieren.Ablauf: 1 TagTyp: HTTP-Cookie_gatWird von Google Analytics verwendet, um die Anforderungsrate einzuschränkenAblauf: 1 TagTyp: HTTP-Cookie_ga_# [x3]Sammelt Daten dazu, wie oft ein Benutzer eine Website besucht hat, sowie Daten für den ersten und letzten Besuch. Von Google Analytics verwendet.Ablauf: 2 JahreTyp: HTTP-CookieHotjar3Erfahren Sie mehr über diesen Anbieter_hjSession_#Erfasst Statistiken über Besuche des Benutzers auf der Website, wie z. B. die Anzahl der Besuche, durchschnittliche Verweildauer auf der Website und welche Seiten gelesen wurden.Ablauf: 1 TagTyp: HTTP-Cookie_hjSessionUser_#Erfasst Statistiken über Besuche des Benutzers auf der Website, wie z. B. die Anzahl der Besuche, durchschnittliche Verweildauer auf der Website und welche Seiten gelesen wurden.Ablauf: 1 JahrTyp: HTTP-Cookie_hjTLDTestRegistriert statistische Daten über das Verhalten der Besucher auf der Website. Wird vom Website-Betreiber für internes Analytics verwendet.Ablauf: SitzungTyp: HTTP-CookieMicrosoft2Erfahren Sie mehr über diesen Anbieterc.gifSammelt Daten über die Navigation und das Verhalten des Benutzers auf der Website - Daraus werden statistische Berichte und Heatmaps für den Website-Besitzer erstellt.Ablauf: SitzungTyp: Pixel-TrackerCLIDSammelt Daten über die Navigation und das Verhalten des Benutzers auf der Website - Daraus werden statistische Berichte und Heatmaps für den Website-Besitzer erstellt.Ablauf: 1 JahrTyp: HTTP-CookieScribd2Erfahren Sie mehr über diesen Anbieter__CJ_session_metadataEnthält Daten über die Interaktion des Benutzers mit dem Hörbuch- und Dokumentenpräsentationstool für statistische Zwecke.Ablauf: SitzungTyp: HTTP-Cookie_scribd_sessionWird verwendet, um Audiodateien auf den Websites zu implementieren - Wird weiterhin verwendet, um festzustellen, wie viele und wer diese Dateien gehört hat.	Ablauf: 3 JahreTyp: HTTP-CookieSoundcloud1Erfahren Sie mehr über diesen Anbieternumber(#)Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: SitzungTyp: HTML Local StorageWordPress.com5Erfahren Sie mehr über diesen Anbieterg.gifRegistriert statistische Daten über das Verhalten der Besucher auf der Website. Wird vom Website-Betreiber für internes Analytics verwendet.Ablauf: SitzungTyp: Pixel-Trackertk_aiRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: 5 JahreTyp: HTTP-Cookietk_qsRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: 1 TagTyp: HTTP-Cookietk_rlRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: SitzungTyp: HTTP-Cookietk_roRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: SitzungTyp: HTTP-Cookiebranchenbuch.pv-magazine.de1gd_recently_viewedAnstehendAblauf: BeständigTyp: HTML Local Storagewww.bigmarker.com1time_zone_detectionDieses Cookie trägt zur Verbesserung der Benutzerfreundlichkeit bei, indem es die Funktionen der Website an die Zeitzone des Benutzers anpasst, z. B. die Anzeige von Veranstaltungszeiten, die Planung von Terminen oder die Anzeige relevanter Inhalte zur richtigen Zeit.Ablauf: SitzungTyp: HTTP-Cookiewww.selfmade-energy.com6uc_gcmRegistriert statistische Daten über das Verhalten der Besucher auf der Website. Wird vom Website-Betreiber für internes Analytics verwendet.Ablauf: BeständigTyp: HTML Local Storageuc_user_interactionRegistriert statistische Daten über das Verhalten der Besucher auf der Website. Wird vom Website-Betreiber für internes Analytics verwendet.Ablauf: BeständigTyp: HTML Local StoragehjActiveViewportIdsDieses Cookie enthält einen ID-String über die aktuelle Sitzung. Dieser beinhaltet nicht personenbezogene Informationen über die Unterseiten, die der Besucher aufruft – diese Informationen werden benutzt, um die Nutzererfahrung des Besuchers zu optimieren.Ablauf: BeständigTyp: HTML Local StoragehjViewportIdSpeichert die Bildschirmgröße des Nutzers, um die Größe der Bilder auf der Website einzustellen.Ablauf: SitzungTyp: HTML Local StorageuctTeil der Consent Management-Plattform (CMP) - Die Cookies sammeln Daten über die Interaktion des Benutzers mit dem Zustimmungstool der Website, um die Funktion des Zustimmungstools zu optimieren. Ablauf: SitzungTyp: Pixel-TrackersentryReplaySessionRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: SitzungTyp: HTML Local StorageMarketing  86 Marketing-Cookies werden verwendet, um Besuchern auf Webseiten zu folgen. Die Absicht ist, Anzeigen zu zeigen, die relevant und ansprechend für den einzelnen Benutzer sind und daher wertvoller für Publisher und werbetreibende Drittparteien sind.  Meta Platforms, Inc.3Erfahren Sie mehr über diesen Anbieter_fbp [x2]Wird von Facebook genutzt, um eine Reihe von Werbeprodukten anzuzeigen, zum Beispiel Echtzeitgebote dritter Werbetreibender.Ablauf: 3 MonateTyp: HTTP-Cookiefbsr_#Wird verwendet, um die Interaktion des Benutzers mit dem Facebook-Chat-Widget der Website zu verfolgen. Ablauf: SitzungTyp: HTTP-CookieGoogle10Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness.IDEVerwendet von Google DoubleClick, um die Handlungen des Benutzers auf der Webseite nach der Anzeige oder dem Klicken auf eine der Anzeigen des Anbieters zu registrieren und zu melden, mit dem Zweck der Messung der Wirksamkeit einer Werbung und der Anzeige zielgerichteter Werbung für den Benutzer.Ablauf: 400 TageTyp: HTTP-CookieNIDAnstehendAblauf: 6 MonateTyp: HTTP-Cookierc::hDieser Cookie wird verwendet, um zwischen Menschen und Bots zu unterscheiden.Ablauf: BeständigTyp: HTML Local Storagepagead/gen_204Sammelt Daten zum Besucherverhalten auf mehreren Websites, um relevantere Werbung zu präsentieren - Dies ermöglicht es der Website auch, die Anzahl der gleichen Werbeanzeige zu begrenzen.Ablauf: SitzungTyp: Pixel-Trackerpcs/activeviewWird von DoubleClick verwendet, um festzustellen, ob Website-Werbung richtig angezeigt wurde - Dies geschieht, um ihre Marketingaktivitäten effizienter zu gestalten.Ablauf: SitzungTyp: Pixel-Trackerpcs/viewDieses Cookie wird verwendet, um zu verfolgen, wie oft eine bestimmte Anzeige von einem Nutzer angesehen wird. Ablauf: SitzungTyp: Pixel-TrackercsiSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: SitzungTyp: Pixel-Tracker__eoiDas Cookie wird verwendet, um die Interaktionen und Präferenzen der Nutzer auf der Website zu verfolgen.Ablauf: 180 TageTyp: HTTP-Cookie_gcl_au [x2]Wird von Google AdSense zum Experimentieren mit Werbewirkung auf Websites verwendet, die ihre Services nutzen.Ablauf: 3 MonateTyp: HTTP-CookieLinkedIn1Erfahren Sie mehr über diesen AnbietersequenceNumber#sequenceNumberAnstehendAblauf: BeständigTyp: IndexedDBMas Capital1Erfahren Sie mehr über diesen Anbieterskeleton.gifWird verwendet, um Popup-Werbung auf der Website zu implementieren.  Ablauf: SitzungTyp: Pixel-TrackerMicrosoft10Erfahren Sie mehr über diesen AnbieterMR [x2]Wird verwendet, um Besucher auf mehreren Websites zu tracken, um relevante Werbung basierend auf den Präferenzen des Besuchers zu präsentieren.Ablauf: 7 TageTyp: HTTP-CookieMUID [x2]Weitgehend von Microsoft als eindeutige Benutzer-ID verwendet. Der Cookie ermöglicht Benutzer-Tracking durch Synchronisieren der ID in vielen Microsoft-Domänen.Ablauf: 1 JahrTyp: HTTP-CookieSRM_BWird verwendet, um die Interaktion des Benutzers mit der Suchleistenfunktion der Website zu verfolgen. Diese Daten können verwendet werden, um dem Benutzer relevante Produkte oder Dienstleistungen anzubieten.Ablauf: 1 JahrTyp: HTTP-CookieANONCHKRegistriert Daten über Besucher von mehreren Besuchen und auf mehreren Websites. Diese Informationen werden verwendet, um die Werbewirkung auf Websites zu messen.Ablauf: 1 TagTyp: HTTP-CookieSMRegistriert eine eindeutige ID, die das Gerät des Benutzers während der erneuten Besuche auf Websites identifiziert, die das gleiche Anzeige-Netzwerk verwenden. Die ID wird für die Ermöglichung gezielter Werbung genutzt.Ablauf: SitzungTyp: HTTP-Cookie_uetsid [x2]Sammelt Daten zum Besucherverhalten auf mehreren Websites, um relevantere Werbung zu präsentieren - Dies ermöglicht es der Website auch, die Anzahl der gleichen Werbeanzeige zu begrenzen.Ablauf: 1 TagTyp: HTTP-Cookie_uetvidWird verwendet, um Besucher auf mehreren Websites zu tracken, um relevante Werbung basierend auf den Präferenzen des Besuchers zu präsentieren.Ablauf: 1 JahrTyp: HTTP-CookieOptimizely2Erfahren Sie mehr über diesen AnbieteroptimizelyOptOut [x2]Erfasst Daten zu Besuchen des Benutzers auf der Website, wie z. B. die Anzahl der Besuche, durchschnittliche Verweildauer auf der Website und welche Seiten geladen wurden, mit dem Ziel der Darstellung zielgerichteter Anzeigen.Ablauf: SitzungTyp: HTTP-CookieScribd3Erfahren Sie mehr über diesen Anbieterfbssls_#Sammelt Daten über die Nutzung des Kommentarsystems auf der Website durch den Besucher, außerdem registriert es, welche Blogs/Artikel der Besucher gelesen hat - dies kann für Marketingzwecke verwendet werden. Ablauf: SitzungTyp: HTML Local Storagescribd_ubtcSammelt Informationen zum Besucherverhalten auf mehreren Websites. Diese Informationen werden auf der Website verwendet, um die Relevanz der Werbung zu optimieren.Ablauf: 400 TageTyp: HTTP-Cookie_fs_sample_userWird verwendet, um dem Besucher relevante Inhalte und Werbung zu präsentieren - Der Dienst wird von Drittanbietern bereitgestellt, die Echtzeitgebote für Werbetreibende ermöglichen.Ablauf: 30 TageTyp: HTTP-CookieSoundcloud1Erfahren Sie mehr über diesen AnbieterWIDGET::local::assignmentsWird von der Audio-Plattform SoundCloud verwendet, um ihre eingebetteten Inhalte/Dienste auf der Website zu implementieren, zu messen und zu verbessern - Die Datensammlung umfasst auch die Interaktion der Besucher mit eingebetteten Inhalten/Diensten. Dies kann für Statistiken oder Marketingzwecke genutzt werden.  Ablauf: BeständigTyp: HTML Local StorageTwitter Inc.1Erfahren Sie mehr über diesen Anbieteri/jot/embedsLegt eine eindeutige ID für den Besucher fest, die es Third-Party-Advertisern ermöglicht, den Besucher mit relevanter Werbung anzusprechen. Dieser Pairing-Service wird von Werbe-Hubs von Third Parties bereitgestellt, die Echtzeitgebote für Advertiser ermöglichen.Ablauf: SitzungTyp: Pixel-TrackerWordPress.com4Erfahren Sie mehr über diesen Anbietertk_lrSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: 1 JahrTyp: HTTP-Cookietk_orSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: 5 JahreTyp: HTTP-Cookietk_r3dSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: 3 TageTyp: HTTP-Cookietk_tcSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: SitzungTyp: HTTP-CookieYouTube37Erfahren Sie mehr über diesen Anbieter#-# [x2]AnstehendAblauf: SitzungTyp: HTML Local StorageiU5q-!O9@[#COOKIETABLE_ADVERTISING#]nbsp;[x2]Registriert eine eindeutige ID, um Statistiken der Videos von YouTube, die der Benutzer gesehen hat, zu behalten.Ablauf: SitzungTyp: HTML Local StorageLAST_RESULT_ENTRY_KEY [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: SitzungTyp: HTTP-CookienextId [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: SitzungTyp: HTTP-Cookierequests [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: SitzungTyp: HTTP-Cookieyt.innertube::nextId [x2]Registriert eine eindeutige ID, um Statistiken der Videos von YouTube, die der Benutzer gesehen hat, zu behalten.Ablauf: BeständigTyp: HTML Local Storageytidb::LAST_RESULT_ENTRY_KEY [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: BeständigTyp: HTML Local StorageYtIdbMeta#databases [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: BeständigTyp: IndexedDByt-remote-cast-available [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storageyt-remote-cast-installed [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storageyt-remote-connected-devices [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: BeständigTyp: HTML Local Storageyt-remote-device-id [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: BeständigTyp: HTML Local Storageyt-remote-fast-check-period [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storageyt-remote-session-app [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storageyt-remote-session-name [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storage-28724b-43be89d6AnstehendAblauf: SitzungTyp: HTML Local StorageLogsDatabaseV2:V#||LogsRequestsStoreDieses Cookie wird verwendet, um Nutzerinteraktionen für Tracking- und Analysezwecke zu speichern und zu verwalten.Ablauf: BeständigTyp: IndexedDBremote_sidNotwendig für die Implementierung und Funktionalität von YouTube-Videoinhalten auf der Website. Ablauf: SitzungTyp: HTTP-CookieServiceWorkerLogsDatabase#SWHealthLogNotwendig für die Implementierung und Funktionalität von YouTube-Videoinhalten auf der Website. Ablauf: BeständigTyp: IndexedDBTESTCOOKIESENABLEDWird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: 1 TagTyp: HTTP-CookieVISITOR_INFO1_LIVEVersucht, die Benutzerbandbreite auf Seiten mit integrierten YouTube-Videos zu schätzen.Ablauf: 180 TageTyp: HTTP-CookieYSCRegistriert eine eindeutige ID, um Statistiken der Videos von YouTube, die der Benutzer gesehen hat, zu behalten.Ablauf: SitzungTyp: HTTP-Cookiedoubleclick.netwww.selfmade-energy.com2pagead/landing [x2]Sammelt Daten zum Besucherverhalten auf mehreren Websites, um relevantere Werbung zu präsentieren - Dies ermöglicht es der Website auch, die Anzahl der gleichen Werbeanzeige zu begrenzen.Ablauf: SitzungTyp: Pixel-Trackerpv-magazine.de1_awlSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: 13 MonateTyp: HTTP-Cookiewww.bigmarker.com1_session_idSpeichert die Navigation der Besucher durch die Registrierung von Landing Pages - Dies ermöglicht der Webseite, relevante Produkte zu präsentieren und / oder ihre Werbeeffizienz auf anderen Webseiten zu messen.Ablauf: 3 TageTyp: HTTP-Cookiewww.pv-magazine.de2c4YGUxxz5aNu6NODlhMDgAnstehend. Ablauf: SitzungTyp: HTTP-CookieQ7Z0zw63hK0VBvRLy5LzFAnstehend.Ablauf: 7 TageTyp: HTTP-Cookiewww.selfmade-energy.com7_uetsidWird verwendet, um Besucher auf mehreren Websites zu tracken, um relevante Werbung basierend auf den Präferenzen des Besuchers zu präsentieren.Ablauf: BeständigTyp: HTML Local Storage_uetsid_expEnthält das Verfallsdatum für das Cookie mit entsprechendem Namen. Ablauf: BeständigTyp: HTML Local Storage_uetvidWird verwendet, um Besucher auf mehreren Websites zu tracken, um relevante Werbung basierend auf den Präferenzen des Besuchers zu präsentieren.Ablauf: BeständigTyp: HTML Local Storage_uetvid_expEnthält das Verfallsdatum für das Cookie mit entsprechendem Namen. Ablauf: BeständigTyp: HTML Local StoragelastExternalReferrerErmittelt, wie der Nutzer die Website erreicht hat, indem seine letzte URL-Adresse registriert wird.Ablauf: BeständigTyp: HTML Local StoragelastExternalReferrerTimeErmittelt, wie der Nutzer die Website erreicht hat, indem seine letzte URL-Adresse registriert wird.Ablauf: BeständigTyp: HTML Local Storagepagead/1p-user-list/#Wird verwendet, um zu tracken, ob der Besucher Interesse an bestimmten Produkten oder Ereignissen auf mehreren Websites gezeigt hat und wie der Besucher zwischen den Websites navigiert - Dies wird zur Messung des Werbeaufwands verwendet und erleichtert die Zahlung von Empfehlungsgebühren zwischen Websites.Ablauf: SitzungTyp: Pixel-TrackerNicht klassifiziert  1Nicht klassifizierte Cookies sind Cookies, die wir gerade versuchen zu klassifizieren, zusammen mit Anbietern von individuellen Cookies. cdn.consentmanager.net1delivery/info/AnstehendAblauf: SitzungTyp: Pixel-TrackerDomainübergreifende Zustimmung3 Ihre Einwilligung trifft auf die folgenden Domains zu: Liste der Domains, für die Ihre Zustimmung gilt: branchenbuch.pv-magazine.de shop.pv-magazine.com www.pv-magazine.deDie Cookie-Erklärung wurde das letzte Mal am 7/22/24 von Cookiebot aktualisiert
+Technisch notwendig  32 Technisch notwendige Cookies helfen dabei, eine Webseite nutzbar zu machen, indem sie Grundfunktionen wie Seitennavigation und Zugriff auf sichere Bereiche der Webseite ermöglichen. Die Webseite kann ohne diese Cookies nicht richtig funktionieren. Cookiebot1Erfahren Sie mehr über diesen Anbieter1.gifWird verwendet, um die Anzahl der Sitzungen auf der Website zu zählen, was für die Optimierung der Bereitstellung von CMP-Produkten erforderlich ist. Ablauf: SitzungTyp: Pixel-TrackerGoogle1Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness.rc::eDieser Cookie wird verwendet, um zwischen Menschen und Bots zu unterscheiden.Ablauf: SitzungTyp: HTML Local StorageLinkedIn4Erfahren Sie mehr über diesen AnbieterbcookieWird verwendet, um Spam zu erkennen und die Sicherheit der Webseite zu verbessern.Ablauf: 1 JahrTyp: HTTP-Cookieli_gcSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 180 TageTyp: HTTP-CookiebscookieDieser Cookie wird verwendet, um den Besucher über eine Anwendung zu identifizieren. Dadurch kann sich der Besucher beispielsweise über seine LinkedIn-Anwendung bei einer webseite anmelden.Ablauf: 1 JahrTyp: HTTP-CookieJSESSIONIDBehält die Zustände des Benutzers bei allen Seitenanfragen bei.Ablauf: SitzungTyp: HTTP-CookieStripe3Erfahren Sie mehr über diesen AnbietermBestimmt das Gerät, mit dem auf die Webseite zugegriffen wird. Dadurch kann die Webseite entsprechend formatiert werden.Ablauf: 400 TageTyp: HTTP-Cookie__stripe_midDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: 1 JahrTyp: HTTP-Cookie__stripe_sidDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: 1 TagTyp: HTTP-CookieWordPress.com1Erfahren Sie mehr über diesen Anbietert.gifStellt sicher, dass die Produktbilder auf der Website korrekt dargestellt werden.Ablauf: SitzungTyp: Pixel-Trackerapp.involve.me2lvapp_sessionWird verwendet, um Formulare auf der Website zu implementieren.Ablauf: 1 TagTyp: HTTP-CookieXSRF-TOKENGewährleistet die Sicherheit beim Browsen für Besucher durch Verhinderung von Cross-Site Request Forgery. Dieser Cookie ist wesentlich für die Sicherheit der Website und des Besuchers.Ablauf: 1 TagTyp: HTTP-Cookiebranchenbuch.pv-magazine.deshop.pv-magazine.comwww.pv-magazine.de3wpEmojiSettingsSupports [x3]Dieses Cookie ist mit einem Bündel von Cookies verbunden, die dem Zweck der Bereitstellung und Präsentation von Inhalten dienen. Die Cookies behalten den korrekten Zustand von Schriftart, Blog-/Bildschiebereglern, Farbthemen und anderen Website-Einstellungen bei.Ablauf: SitzungTyp: HTML Local Storagecdn.consentmanager.net2__cmp#_.#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storage__cmp#_expire_#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storagecdn.consentmanager.netb.delivery.consentmanager.net2__cmp# [x2]Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 1 TagTyp: HTTP-Cookieconsent.cookiebot.comshop.pv-magazine.com3CookieConsent [x3]Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 1 JahrTyp: HTTP-Cookiem.stripe.com3Erfahren Sie mehr über diesen Anbieter_abDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: SitzungTyp: HTML Local Storage_mfDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: SitzungTyp: HTML Local StorageidAnstehendAblauf: SitzungTyp: HTML Local Storagewidget.sndcdn.com1sc_anonymous_idWird im Zusammenhang mit der 3D-Ansichtsfunktion auf der Website verwendet.Ablauf: 10 JahreTyp: HTTP-Cookiewww.selfmade-energy.com6uc_settingsSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storageuc_ui_versionSpeichert die Versionsnummer des Consent-Banners UI, die auf der aktuellen Domain verwendet wirdAblauf: BeständigTyp: HTML Local Storageuc_user_countryWird verwendet, um zu bestimmen, wo sich der Benutzer befindet, um festzustellen, ob der Benutzer der DSGVO oder anderen ePrivacy-Gesetzen unterliegt.Ablauf: SitzungTyp: HTML Local Storagetest_cookieVerwendet, um zu überprüfen, ob der Browser des Benutzers Cookies unterstützt.Ablauf: 1 TagTyp: HTTP-CookiecsrftokenHilft, Cross-Site Request Forgery- (CSRF-) Angriffe zu verhindern.Ablauf: 1 JahrTyp: HTTP-CookieSESS#Behält die Zustände des Benutzers bei allen Seitenanfragen bei.Ablauf: 14 TageTyp: HTTP-CookiePräferenzen  6 Präferenz-Cookies ermöglichen einer Webseite sich an Informationen zu erinnern, die die Art beeinflussen, wie sich eine Webseite verhält oder aussieht, wie z. B. Ihre bevorzugte Sprache oder die Region in der Sie sich befinden. LinkedIn3Erfahren Sie mehr über diesen AnbieterlangNotwendig für die Pflege von Spracheinstellungen für Unterseiten auf der Webseite.Ablauf: SitzungTyp: HTTP-CookielidcRegistriert, welcher Server-Cluster den Besucher bedient. Dies wird im Zusammenhang mit Load Balancing verwendet, um die Nutzererfahrung zu optimieren.Ablauf: 1 TagTyp: HTTP-Cookieli_alertsWird verwendet, um zu bestimmen, wann und wo bestimmte Pop-ups auf der Website für den Benutzer angezeigt werden sollen, und um sich zu merken, ob der Benutzer diese geschlossen hat, damit sie nicht mehrfach angezeigt werden.Ablauf: 1 JahrTyp: HTTP-Cookiem.stripe.com1Erfahren Sie mehr über diesen Anbieter1Dieser Cookie wird in Verbindung mit dem Zahlungsfenster verwendet. - Der Cookie ist für sichere Transaktionen auf der webseite erforderlich.Ablauf: SitzungTyp: HTM</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>­.fluid-width-video-wrapper{width:100%;position:relative;padding:0;}.fluid-width-video-wrapper iframe,.fluid-width-video-wrapper object,.fluid-width-video-wrapper embed {position:absolute;top:0;left:0;width:100%;height:100%;}
+Zustimmung
+Details
+Über Cookies
+pv magazine respektiert Ihre Privatsphäre
+Wir verwenden auf unserer Webseite Cookies und ähnliche Technologien um Ihnen eine benutzerfreundliche, sichere und effektive Website zur Verfügung zu stellen. Zusätzlich nutzen wir diese Technologien, um Ihnen persönliche Werbung bereitstellen zu können. Wenn Sie damit einverstanden sind, klicken Sie bitte auf „Cookies akzeptieren“. Um persönliche Einstellung der Cookies vorzunehmen, wählen Sie „Cookie-Einstellungen“. Bitte berücksichtigen Sie, dass die Darstellung unserer Webseite durch Ihre Auswahl der Cookies beeinflusst wird. Ihre erteilte Einwilligung zur Verwendung von Cookies können Sie jederzeit über unseren Cookie-Banner widerrufen bzw. ändern. Weitere Informationen dazu wie wir Daten verarbeiten, finden Sie in unserer Datenschutzerklärung. Bei weiteren Fragen können Sie sich an dataprivacy@pv-magazine.com wenden.
+Consent Selection
+Technisch notwendig
+Präferenzen
+Statistiken
+Marketing
+Cookies ablehnen
+Auswahl erlauben
+Cookies akzeptieren
+Cookie-Einstellungen
+Technisch notwendig  32 Technisch notwendige Cookies helfen dabei, eine Webseite nutzbar zu machen, indem sie Grundfunktionen wie Seitennavigation und Zugriff auf sichere Bereiche der Webseite ermöglichen. Die Webseite kann ohne diese Cookies nicht richtig funktionieren. Cookiebot1Erfahren Sie mehr über diesen Anbieter1.gifWird verwendet, um die Anzahl der Sitzungen auf der Website zu zählen, was für die Optimierung der Bereitstellung von CMP-Produkten erforderlich ist. Ablauf: SitzungTyp: Pixel-TrackerGoogle1Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness.rc::eDieser Cookie wird verwendet, um zwischen Menschen und Bots zu unterscheiden.Ablauf: SitzungTyp: HTML Local StorageLinkedIn4Erfahren Sie mehr über diesen AnbieterbcookieWird verwendet, um Spam zu erkennen und die Sicherheit der Webseite zu verbessern.Ablauf: 1 JahrTyp: HTTP-Cookieli_gcSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 180 TageTyp: HTTP-CookiebscookieDieser Cookie wird verwendet, um den Besucher über eine Anwendung zu identifizieren. Dadurch kann sich der Besucher beispielsweise über seine LinkedIn-Anwendung bei einer webseite anmelden.Ablauf: 1 JahrTyp: HTTP-CookieJSESSIONIDBehält die Zustände des Benutzers bei allen Seitenanfragen bei.Ablauf: SitzungTyp: HTTP-CookieStripe3Erfahren Sie mehr über diesen AnbietermBestimmt das Gerät, mit dem auf die Webseite zugegriffen wird. Dadurch kann die Webseite entsprechend formatiert werden.Ablauf: 400 TageTyp: HTTP-Cookie__stripe_midDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: 1 JahrTyp: HTTP-Cookie__stripe_sidDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: 1 TagTyp: HTTP-CookieWordPress.com1Erfahren Sie mehr über diesen Anbietert.gifStellt sicher, dass die Produktbilder auf der Website korrekt dargestellt werden.Ablauf: SitzungTyp: Pixel-Trackerapp.involve.me2lvapp_sessionWird verwendet, um Formulare auf der Website zu implementieren.Ablauf: 1 TagTyp: HTTP-CookieXSRF-TOKENGewährleistet die Sicherheit beim Browsen für Besucher durch Verhinderung von Cross-Site Request Forgery. Dieser Cookie ist wesentlich für die Sicherheit der Website und des Besuchers.Ablauf: 1 TagTyp: HTTP-Cookiebranchenbuch.pv-magazine.deshop.pv-magazine.comwww.pv-magazine.de3wpEmojiSettingsSupports [x3]Dieses Cookie ist mit einem Bündel von Cookies verbunden, die dem Zweck der Bereitstellung und Präsentation von Inhalten dienen. Die Cookies behalten den korrekten Zustand von Schriftart, Blog-/Bildschiebereglern, Farbthemen und anderen Website-Einstellungen bei.Ablauf: SitzungTyp: HTML Local Storagecdn.consentmanager.net2__cmp#_.#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storage__cmp#_expire_#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storagecdn.consentmanager.netb.delivery.consentmanager.net2__cmp# [x2]Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 1 TagTyp: HTTP-Cookieconsent.cookiebot.comshop.pv-magazine.com3CookieConsent [x3]Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 1 JahrTyp: HTTP-Cookiem.stripe.com3Erfahren Sie mehr über diesen Anbieter_abDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: SitzungTyp: HTML Local Storage_mfDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: SitzungTyp: HTML Local StorageidAnstehendAblauf: SitzungTyp: HTML Local Storagewidget.sndcdn.com1sc_anonymous_idWird im Zusammenhang mit der 3D-Ansichtsfunktion auf der Website verwendet.Ablauf: 10 JahreTyp: HTTP-Cookiewww.selfmade-energy.com6uc_settingsSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storageuc_ui_versionSpeichert die Versionsnummer des Consent-Banners UI, die auf der aktuellen Domain verwendet wirdAblauf: BeständigTyp: HTML Local Storageuc_user_countryWird verwendet, um zu bestimmen, wo sich der Benutzer befindet, um festzustellen, ob der Benutzer der DSGVO oder anderen ePrivacy-Gesetzen unterliegt.Ablauf: SitzungTyp: HTML Local Storagetest_cookieVerwendet, um zu überprüfen, ob der Browser des Benutzers Cookies unterstützt.Ablauf: 1 TagTyp: HTTP-CookiecsrftokenHilft, Cross-Site Request Forgery- (CSRF-) Angriffe zu verhindern.Ablauf: 1 JahrTyp: HTTP-CookieSESS#Behält die Zustände des Benutzers bei allen Seitenanfragen bei.Ablauf: 14 TageTyp: HTTP-CookiePräferenzen  6 Präferenz-Cookies ermöglichen einer Webseite sich an Informationen zu erinnern, die die Art beeinflussen, wie sich eine Webseite verhält oder aussieht, wie z. B. Ihre bevorzugte Sprache oder die Region in der Sie sich befinden. LinkedIn3Erfahren Sie mehr über diesen AnbieterlangNotwendig für die Pflege von Spracheinstellungen für Unterseiten auf der Webseite.Ablauf: SitzungTyp: HTTP-CookielidcRegistriert, welcher Server-Cluster den Besucher bedient. Dies wird im Zusammenhang mit Load Balancing verwendet, um die Nutzererfahrung zu optimieren.Ablauf: 1 TagTyp: HTTP-Cookieli_alertsWird verwendet, um zu bestimmen, wann und wo bestimmte Pop-ups auf der Website für den Benutzer angezeigt werden sollen, und um sich zu merken, ob der Benutzer diese geschlossen hat, damit sie nicht mehrfach angezeigt werden.Ablauf: 1 JahrTyp: HTTP-Cookiem.stripe.com1Erfahren Sie mehr über diesen Anbieter1Dieser Cookie wird in Verbindung mit dem Zahlungsfenster verwendet. - Der Cookie ist für sichere Transaktionen auf der webseite erforderlich.Ablauf: SitzungTyp: HTML Local Storageshop.pv-magazine.com1qtrans_front_languageBestimmt die bevorzugte Sprache des Besuchers. Ermöglicht der Webseite, beim erneuten Besuch des Besuchers die bevorzugte Sprache festzulegen.Ablauf: 1 JahrTyp: HTTP-Cookiewww.selfmade-energy.com1uc_cross_domain_data_#AnstehendAblauf: BeständigTyp: HTML Local StorageStatistiken  36 Statistik-Cookies helfen Webseiten-Besitzern zu verstehen, wie Besucher mit Webseiten interagieren, indem Informationen anonym gesammelt und gemeldet werden. Google15Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness._ga [x7]Registriert eine eindeutige ID, die verwendet wird, um statistische Daten dazu, wie der Besucher die Website nutzt, zu generieren.Ablauf: 2 JahreTyp: HTTP-Cookie_gid [x4]Registriert eine eindeutige ID, die verwendet wird, um statistische Daten dazu, wie der Besucher die Website nutzt, zu generieren.Ablauf: 1 TagTyp: HTTP-Cookie_gatWird von Google Analytics verwendet, um die Anforderungsrate einzuschränkenAblauf: 1 TagTyp: HTTP-Cookie_ga_# [x3]Sammelt Daten dazu, wie oft ein Benutzer eine Website besucht hat, sowie Daten für den ersten und letzten Besuch. Von Google Analytics verwendet.Ablauf: 2 JahreTyp: HTTP-CookieHotjar3Erfahren Sie mehr über diesen Anbieter_hjSession_#Erfasst Statistiken über Besuche des Benutzers auf der Website, wie z. B. die Anzahl der Besuche, durchschnittliche Verweildauer auf der Website und welche Seiten gelesen wurden.Ablauf: 1 TagTyp: HTTP-Cookie_hjSessionUser_#Erfasst Statistiken über Besuche des Benutzers auf der Website, wie z. B. die Anzahl der Besuche, durchschnittliche Verweildauer auf der Website und welche Seiten gelesen wurden.Ablauf: 1 JahrTyp: HTTP-Cookie_hjTLDTestRegistriert statistische Daten über das Verhalten der Besucher auf der Website. Wird vom Website-Betreiber für internes Analytics verwendet.Ablauf: SitzungTyp: HTTP-CookieMicrosoft2Erfahren Sie mehr über diesen Anbieterc.gifSammelt Daten über die Navigation und das Verhalten des Benutzers auf der Website - Daraus werden statistische Berichte und Heatmaps für den Website-Besitzer erstellt.Ablauf: SitzungTyp: Pixel-TrackerCLIDSammelt Daten über die Navigation und das Verhalten des Benutzers auf der Website - Daraus werden statistische Berichte und Heatmaps für den Website-Besitzer erstellt.Ablauf: 1 JahrTyp: HTTP-CookieScribd2Erfahren Sie mehr über diesen Anbieter__CJ_session_metadataEnthält Daten über die Interaktion des Benutzers mit dem Hörbuch- und Dokumentenpräsentationstool für statistische Zwecke.Ablauf: SitzungTyp: HTTP-Cookie_scribd_sessionWird verwendet, um Audiodateien auf den Websites zu implementieren - Wird weiterhin verwendet, um festzustellen, wie viele und wer diese Dateien gehört hat.	Ablauf: 3 JahreTyp: HTTP-CookieSoundcloud1Erfahren Sie mehr über diesen Anbieternumber(#)Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: SitzungTyp: HTML Local StorageWordPress.com5Erfahren Sie mehr über diesen Anbieterg.gifRegistriert statistische Daten über das Verhalten der Besucher auf der Website. Wird vom Website-Betreiber für internes Analytics verwendet.Ablauf: SitzungTyp: Pixel-Trackertk_aiRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: 5 JahreTyp: HTTP-Cookietk_qsRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: 1 TagTyp: HTTP-Cookietk_rlRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: SitzungTyp: HTTP-Cookietk_roRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: SitzungTyp: HTTP-Cookiebranchenbuch.pv-magazine.de1gd_recently_viewedAnstehendAblauf: BeständigTyp: HTML Local Storagewww.bigmarker.com1time_zone_detectionDieses Cookie trägt zur Verbesserung der Benutzerfreundlichkeit bei, indem es die Funktionen der Website an die Zeitzone des Benutzers anpasst, z. B. die Anzeige von Veranstaltungszeiten, die Planung von Terminen oder die Anzeige relevanter Inhalte zur richtigen Zeit.Ablauf: SitzungTyp: HTTP-Cookiewww.selfmade-energy.com6uc_gcmRegistriert statistische Daten über das Verhalten der Besucher auf der Website. Wird vom Website-Betreiber für internes Analytics verwendet.Ablauf: BeständigTyp: HTML Local Storageuc_user_interactionRegistriert statistische Daten über das Verhalten der Besucher auf der Website. Wird vom Website-Betreiber für internes Analytics verwendet.Ablauf: BeständigTyp: HTML Local StoragehjActiveViewportIdsDieses Cookie enthält einen ID-String über die aktuelle Sitzung. Dieser beinhaltet nicht personenbezogene Informationen über die Unterseiten, die der Besucher aufruft – diese Informationen werden benutzt, um die Nutzererfahrung des Besuchers zu optimieren.Ablauf: BeständigTyp: HTML Local StoragehjViewportIdSpeichert die Bildschirmgröße des Nutzers, um die Größe der Bilder auf der Website einzustellen.Ablauf: SitzungTyp: HTML Local StorageuctTeil der Consent Management-Plattform (CMP) - Die Cookies sammeln Daten über die Interaktion des Benutzers mit dem Zustimmungstool der Website, um die Funktion des Zustimmungstools zu optimieren. Ablauf: SitzungTyp: Pixel-TrackersentryReplaySessionRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: SitzungTyp: HTML Local StorageMarketing  86 Marketing-Cookies werden verwendet, um Besuchern auf Webseiten zu folgen. Die Absicht ist, Anzeigen zu zeigen, die relevant und ansprechend für den einzelnen Benutzer sind und daher wertvoller für Publisher und werbetreibende Drittparteien sind.  Meta Platforms, Inc.3Erfahren Sie mehr über diesen Anbieter_fbp [x2]Wird von Facebook genutzt, um eine Reihe von Werbeprodukten anzuzeigen, zum Beispiel Echtzeitgebote dritter Werbetreibender.Ablauf: 3 MonateTyp: HTTP-Cookiefbsr_#Wird verwendet, um die Interaktion des Benutzers mit dem Facebook-Chat-Widget der Website zu verfolgen. Ablauf: SitzungTyp: HTTP-CookieGoogle10Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness.IDEVerwendet von Google DoubleClick, um die Handlungen des Benutzers auf der Webseite nach der Anzeige oder dem Klicken auf eine der Anzeigen des Anbieters zu registrieren und zu melden, mit dem Zweck der Messung der Wirksamkeit einer Werbung und der Anzeige zielgerichteter Werbung für den Benutzer.Ablauf: 400 TageTyp: HTTP-CookieNIDAnstehendAblauf: 6 MonateTyp: HTTP-Cookierc::hDieser Cookie wird verwendet, um zwischen Menschen und Bots zu unterscheiden.Ablauf: BeständigTyp: HTML Local Storagepagead/gen_204Sammelt Daten zum Besucherverhalten auf mehreren Websites, um relevantere Werbung zu präsentieren - Dies ermöglicht es der Website auch, die Anzahl der gleichen Werbeanzeige zu begrenzen.Ablauf: SitzungTyp: Pixel-Trackerpcs/activeviewWird von DoubleClick verwendet, um festzustellen, ob Website-Werbung richtig angezeigt wurde - Dies geschieht, um ihre Marketingaktivitäten effizienter zu gestalten.Ablauf: SitzungTyp: Pixel-Trackerpcs/viewDieses Cookie wird verwendet, um zu verfolgen, wie oft eine bestimmte Anzeige von einem Nutzer angesehen wird. Ablauf: SitzungTyp: Pixel-TrackercsiSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: SitzungTyp: Pixel-Tracker__eoiDas Cookie wird verwendet, um die Interaktionen und Präferenzen der Nutzer auf der Website zu verfolgen.Ablauf: 180 TageTyp: HTTP-Cookie_gcl_au [x2]Wird von Google AdSense zum Experimentieren mit Werbewirkung auf Websites verwendet, die ihre Services nutzen.Ablauf: 3 MonateTyp: HTTP-CookieLinkedIn1Erfahren Sie mehr über diesen AnbietersequenceNumber#sequenceNumberAnstehendAblauf: BeständigTyp: IndexedDBMas Capital1Erfahren Sie mehr über diesen Anbieterskeleton.gifWird verwendet, um Popup-Werbung auf der Website zu implementieren.  Ablauf: SitzungTyp: Pixel-TrackerMicrosoft10Erfahren Sie mehr über diesen AnbieterMR [x2]Wird verwendet, um Besucher auf mehreren Websites zu tracken, um relevante Werbung basierend auf den Präferenzen des Besuchers zu präsentieren.Ablauf: 7 TageTyp: HTTP-CookieMUID [x2]Weitgehend von Microsoft als eindeutige Benutzer-ID verwendet. Der Cookie ermöglicht Benutzer-Tracking durch Synchronisieren der ID in vielen Microsoft-Domänen.Ablauf: 1 JahrTyp: HTTP-CookieSRM_BWird verwendet, um die Interaktion des Benutzers mit der Suchleistenfunktion der Website zu verfolgen. Diese Daten können verwendet werden, um dem Benutzer relevante Produkte oder Dienstleistungen anzubieten.Ablauf: 1 JahrTyp: HTTP-CookieANONCHKRegistriert Daten über Besucher von mehreren Besuchen und auf mehreren Websites. Diese Informationen werden verwendet, um die Werbewirkung auf Websites zu messen.Ablauf: 1 TagTyp: HTTP-CookieSMRegistriert eine eindeutige ID, die das Gerät des Benutzers während der erneuten Besuche auf Websites identifiziert, die das gleiche Anzeige-Netzwerk verwenden. Die ID wird für die Ermöglichung gezielter Werbung genutzt.Ablauf: SitzungTyp: HTTP-Cookie_uetsid [x2]Sammelt Daten zum Besucherverhalten auf mehreren Websites, um relevantere Werbung zu präsentieren - Dies ermöglicht es der Website auch, die Anzahl der gleichen Werbeanzeige zu begrenzen.Ablauf: 1 TagTyp: HTTP-Cookie_uetvidWird verwendet, um Besucher auf mehreren Websites zu tracken, um relevante Werbung basierend auf den Präferenzen des Besuchers zu präsentieren.Ablauf: 1 JahrTyp: HTTP-CookieOptimizely2Erfahren Sie mehr über diesen AnbieteroptimizelyOptOut [x2]Erfasst Daten zu Besuchen des Benutzers auf der Website, wie z. B. die Anzahl der Besuche, durchschnittliche Verweildauer auf der Website und welche Seiten geladen wurden, mit dem Ziel der Darstellung zielgerichteter Anzeigen.Ablauf: SitzungTyp: HTTP-CookieScribd3Erfahren Sie mehr über diesen Anbieterfbssls_#Sammelt Daten über die Nutzung des Kommentarsystems auf der Website durch den Besucher, außerdem registriert es, welche Blogs/Artikel der Besucher gelesen hat - dies kann für Marketingzwecke verwendet werden. Ablauf: SitzungTyp: HTML Local Storagescribd_ubtcSammelt Informationen zum Besucherverhalten auf mehreren Websites. Diese Informationen werden auf der Website verwendet, um die Relevanz der Werbung zu optimieren.Ablauf: 400 TageTyp: HTTP-Cookie_fs_sample_userWird verwendet, um dem Besucher relevante Inhalte und Werbung zu präsentieren - Der Dienst wird von Drittanbietern bereitgestellt, die Echtzeitgebote für Werbetreibende ermöglichen.Ablauf: 30 TageTyp: HTTP-CookieSoundcloud1Erfahren Sie mehr über diesen AnbieterWIDGET::local::assignmentsWird von der Audio-Plattform SoundCloud verwendet, um ihre eingebetteten Inhalte/Dienste auf der Website zu implementieren, zu messen und zu verbessern - Die Datensammlung umfasst auch die Interaktion der Besucher mit eingebetteten Inhalten/Diensten. Dies kann für Statistiken oder Marketingzwecke genutzt werden.  Ablauf: BeständigTyp: HTML Local StorageTwitter Inc.1Erfahren Sie mehr über diesen Anbieteri/jot/embedsLegt eine eindeutige ID für den Besucher fest, die es Third-Party-Advertisern ermöglicht, den Besucher mit relevanter Werbung anzusprechen. Dieser Pairing-Service wird von Werbe-Hubs von Third Parties bereitgestellt, die Echtzeitgebote für Advertiser ermöglichen.Ablauf: SitzungTyp: Pixel-TrackerWordPress.com4Erfahren Sie mehr über diesen Anbietertk_lrSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: 1 JahrTyp: HTTP-Cookietk_orSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: 5 JahreTyp: HTTP-Cookietk_r3dSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: 3 TageTyp: HTTP-Cookietk_tcSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: SitzungTyp: HTTP-CookieYouTube37Erfahren Sie mehr über diesen Anbieter#-# [x2]AnstehendAblauf: SitzungTyp: HTML Local StorageiU5q-!O9@[#COOKIETABLE_ADVERTISING#]nbsp;[x2]Registriert eine eindeutige ID, um Statistiken der Videos von YouTube, die der Benutzer gesehen hat, zu behalten.Ablauf: SitzungTyp: HTML Local StorageLAST_RESULT_ENTRY_KEY [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: SitzungTyp: HTTP-CookienextId [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: SitzungTyp: HTTP-Cookierequests [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: SitzungTyp: HTTP-Cookieyt.innertube::nextId [x2]Registriert eine eindeutige ID, um Statistiken der Videos von YouTube, die der Benutzer gesehen hat, zu behalten.Ablauf: BeständigTyp: HTML Local Storageytidb::LAST_RESULT_ENTRY_KEY [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: BeständigTyp: HTML Local StorageYtIdbMeta#databases [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: BeständigTyp: IndexedDByt-remote-cast-available [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storageyt-remote-cast-installed [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storageyt-remote-connected-devices [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: BeständigTyp: HTML Local Storageyt-remote-device-id [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: BeständigTyp: HTML Local Storageyt-remote-fast-check-period [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storageyt-remote-session-app [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storageyt-remote-session-name [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storage-28724b-43be89d6AnstehendAblauf: SitzungTyp: HTML Local StorageLogsDatabaseV2:V#||LogsRequestsStoreDieses Cookie wird verwendet, um Nutzerinteraktionen für Tracking- und Analysezwecke zu speichern und zu verwalten.Ablauf: BeständigTyp: IndexedDBremote_sidNotwendig für die Implementierung und Funktionalität von YouTube-Videoinhalten auf der Website. Ablauf: SitzungTyp: HTTP-CookieServiceWorkerLogsDatabase#SWHealthLogNotwendig für die Implementierung und Funktionalität von YouTube-Videoinhalten auf der Website. Ablauf: BeständigTyp: IndexedDBTESTCOOKIESENABLEDWird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: 1 TagTyp: HTTP-CookieVISITOR_INFO1_LIVEVersucht, die Benutzerbandbreite auf Seiten mit integrierten YouTube-Videos zu schätzen.Ablauf: 180 TageTyp: HTTP-CookieYSCRegistriert eine eindeutige ID, um Statistiken der Videos von YouTube, die der Benutzer gesehen hat, zu behalten.Ablauf: SitzungTyp: HTTP-Cookiedoubleclick.netwww.selfmade-energy.com2pagead/landing [x2]Sammelt Daten zum Besucherverhalten auf mehreren Websites, um relevantere Werbung zu präsentieren - Dies ermöglicht es der Website auch, die Anzahl der gleichen Werbeanzeige zu begrenzen.Ablauf: SitzungTyp: Pixel-Trackerpv-magazine.de1_awlSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: 13 MonateTyp: HTTP-Cookiewww.bigmarker.com1_session_idSpeichert die Navigation der Besucher durch die Registrierung von Landing Pages - Dies ermöglicht der Webseite, relevante Produkte zu präsentieren und / oder ihre Werbeeffizienz auf anderen Webseiten zu messen.Ablauf: 3 TageTyp: HTTP-Cookiewww.pv-magazine.de2c4YGUxxz5aNu6NODlhMDgAnstehend. Ablauf: SitzungTyp: HTTP-CookieQ7Z0zw63hK0VBvRLy5LzFAnstehend.Ablauf: 7 TageTyp: HTTP-Cookiewww.selfmade-energy.com7_uetsidWird verwendet, um Besucher auf mehreren Websites zu tracken, um relevante Werbung basierend auf den Präferenzen des Besuchers zu präsentieren.Ablauf: BeständigTyp: HTML Local Storage_uetsid_expEnthält das Verfallsdatum für das Cookie mit entsprechendem Namen. Ablauf: BeständigTyp: HTML Local Storage_uetvidWird verwendet, um Besucher auf mehreren Websites zu tracken, um relevante Werbung basierend auf den Präferenzen des Besuchers zu präsentieren.Ablauf: BeständigTyp: HTML Local Storage_uetvid_expEnthält das Verfallsdatum für das Cookie mit entsprechendem Namen. Ablauf: BeständigTyp: HTML Local StoragelastExternalReferrerErmittelt, wie der Nutzer die Website erreicht hat, indem seine letzte URL-Adresse registriert wird.Ablauf: BeständigTyp: HTML Local StoragelastExternalReferrerTimeErmittelt, wie der Nutzer die Website erreicht hat, indem seine letzte URL-Adresse registriert wird.Ablauf: BeständigTyp: HTML Local Storagepagead/1p-user-list/#Wird verwendet, um zu tracken, ob der Besucher Interesse an bestimmten Produkten oder Ereignissen auf mehreren Websites gezeigt hat und wie der Besucher zwischen den Websites navigiert - Dies wird zur Messung des Werbeaufwands verwendet und erleichtert die Zahlung von Empfehlungsgebühren zwischen Websites.Ablauf: SitzungTyp: Pixel-TrackerNicht klassifiziert  1Nicht klassifizierte Cookies sind Cookies, die wir gerade versuchen zu klassifizieren, zusammen mit Anbietern von individuellen Cookies. cdn.consentmanager.net1delivery/info/AnstehendAblauf: SitzungTyp: Pixel-TrackerDomainübergreifende Zustimmung3 Ihre Einwilligung trifft auf die folgenden Domains zu: Liste der Domains, für die Ihre Zustimmung gilt: branchenbuch.pv-magazine.de shop.pv-magazine.com www.pv-magazine.deDie Cookie-Erklärung wurde das letzte Mal am 7/22/24 von Cookiebot aktualisiert
+Technisch notwendig  32 Technisch notwendige Cookies helfen dabei, eine Webseite nutzbar zu machen, indem sie Grundfunktionen wie Seitennavigation und Zugriff auf sichere Bereiche der Webseite ermöglichen. Die Webseite kann ohne diese Cookies nicht richtig funktionieren. Cookiebot1Erfahren Sie mehr über diesen Anbieter1.gifWird verwendet, um die Anzahl der Sitzungen auf der Website zu zählen, was für die Optimierung der Bereitstellung von CMP-Produkten erforderlich ist. Ablauf: SitzungTyp: Pixel-TrackerGoogle1Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness.rc::eDieser Cookie wird verwendet, um zwischen Menschen und Bots zu unterscheiden.Ablauf: SitzungTyp: HTML Local StorageLinkedIn4Erfahren Sie mehr über diesen AnbieterbcookieWird verwendet, um Spam zu erkennen und die Sicherheit der Webseite zu verbessern.Ablauf: 1 JahrTyp: HTTP-Cookieli_gcSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 180 TageTyp: HTTP-CookiebscookieDieser Cookie wird verwendet, um den Besucher über eine Anwendung zu identifizieren. Dadurch kann sich der Besucher beispielsweise über seine LinkedIn-Anwendung bei einer webseite anmelden.Ablauf: 1 JahrTyp: HTTP-CookieJSESSIONIDBehält die Zustände des Benutzers bei allen Seitenanfragen bei.Ablauf: SitzungTyp: HTTP-CookieStripe3Erfahren Sie mehr über diesen AnbietermBestimmt das Gerät, mit dem auf die Webseite zugegriffen wird. Dadurch kann die Webseite entsprechend formatiert werden.Ablauf: 400 TageTyp: HTTP-Cookie__stripe_midDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: 1 JahrTyp: HTTP-Cookie__stripe_sidDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: 1 TagTyp: HTTP-CookieWordPress.com1Erfahren Sie mehr über diesen Anbietert.gifStellt sicher, dass die Produktbilder auf der Website korrekt dargestellt werden.Ablauf: SitzungTyp: Pixel-Trackerapp.involve.me2lvapp_sessionWird verwendet, um Formulare auf der Website zu implementieren.Ablauf: 1 TagTyp: HTTP-CookieXSRF-TOKENGewährleistet die Sicherheit beim Browsen für Besucher durch Verhinderung von Cross-Site Request Forgery. Dieser Cookie ist wesentlich für die Sicherheit der Website und des Besuchers.Ablauf: 1 TagTyp: HTTP-Cookiebranchenbuch.pv-magazine.deshop.pv-magazine.comwww.pv-magazine.de3wpEmojiSettingsSupports [x3]Dieses Cookie ist mit einem Bündel von Cookies verbunden, die dem Zweck der Bereitstellung und Präsentation von Inhalten dienen. Die Cookies behalten den korrekten Zustand von Schriftart, Blog-/Bildschiebereglern, Farbthemen und anderen Website-Einstellungen bei.Ablauf: SitzungTyp: HTML Local Storagecdn.consentmanager.net2__cmp#_.#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storage__cmp#_expire_#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storagecdn.consentmanager.netb.delivery.consentmanager.net2__cmp# [x2]Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 1 TagTyp: HTTP-Cookieconsent.cookiebot.comshop.pv-magazine.com3CookieConsent [x3]Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 1 JahrTyp: HTTP-Cookiem.stripe.com3Erfahren Sie mehr über diesen Anbieter_abDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: SitzungTyp: HTML Local Storage_mfDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: SitzungTyp: HTML Local StorageidAnstehendAblauf: SitzungTyp: HTML Local Storagewidget.sndcdn.com1sc_anonymous_idWird im Zusammenhang mit der 3D-Ansichtsfunktion auf der Website verwendet.Ablauf: 10 JahreTyp: HTTP-Cookiewww.selfmade-energy.com6uc_settingsSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storageuc_ui_versionSpeichert die Versionsnummer des Consent-Banners UI, die auf der aktuellen Domain verwendet wirdAblauf: BeständigTyp: HTML Local Storageuc_user_countryWird verwendet, um zu bestimmen, wo sich der Benutzer befindet, um festzustellen, ob der Benutzer der DSGVO oder anderen ePrivacy-Gesetzen unterliegt.Ablauf: SitzungTyp: HTML Local Storagetest_cookieVerwendet, um zu überprüfen, ob der Browser des Benutzers Cookies unterstützt.Ablauf: 1 TagTyp: HTTP-CookiecsrftokenHilft, Cross-Site Request Forgery- (CSRF-) Angriffe zu verhindern.Ablauf: 1 JahrTyp: HTTP-CookieSESS#Behält die Zustände des Benutzers bei allen Seitenanfragen bei.Ablauf: 14 TageTyp: HTTP-CookiePräferenzen  6 Präferenz-Cookies ermöglichen einer Webseite sich an Informationen zu erinnern, die die Art beeinflussen, wie sich eine Webseite verhält oder aussieht, wie z. B. Ihre bevorzugte Sprache oder die Region in der Sie sich befinden. LinkedIn3Erfahren Sie mehr über diesen AnbieterlangNotwendig für die Pflege von Spracheinstellungen für Unterseiten auf der Webseite.Ablauf: SitzungTyp: HTTP-CookielidcRegistriert, welcher Server-Cluster den Besucher bedient. Dies wird im Zusammenhang mit Load Balancing verwendet, um die Nutzererfahrung zu optimieren.Ablauf: 1 TagTyp: HTTP-Cookieli_alertsWird verwendet, um zu bestimmen, wann und wo bestimmte Pop-ups auf der Website für den Benutzer angezeigt werden sollen, und um sich zu merken, ob der Benutzer diese geschlossen hat, damit sie nicht mehrfach angezeigt werden.Ablauf: 1 JahrTyp: HTTP-Cookiem.stripe.com1Erfahren Sie mehr über diesen Anbieter1Dieser Cookie wird in Verbindung mit dem Zahlungsfenster verwendet. - Der Cookie ist für sichere Transaktionen auf der webseite erforderlich.Ablauf: SitzungTyp: HTM</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-28 08:22:27</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Regelleistung</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>https://www.regelleistung.net/de-de/</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Herzlich willkommen auf der Plattform für Regelenergie!
 Die vier deutschen Übertragungsnetzbetreiber betreiben gemeinsam den deutschen Markt für Regelreserve. Über die Plattform regelleistung.net werden alle Produkte der Regelleistung und Regelarbeit in einem regelzonenübergreifenden, transparenten und diskriminierungsfreien Ausschreibungsprozess beschafft. Auf dieser Seite erfahren Sie alles zum Thema Regelreserve und erhalten zahlreiche Daten und Informationen zu allen laufenden und abgeschlossenen Ausschreibungen.
@@ -844,19 +1417,241 @@
 ALPACA - aFRR Kooperation</t>
         </is>
       </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>Herzlich willkommen auf der Plattform für Regelenergie!
+Die vier deutschen Übertragungsnetzbetreiber betreiben gemeinsam den deutschen Markt für Regelreserve. Über die Plattform regelleistung.net werden alle Produkte der Regelleistung und Regelarbeit in einem regelzonenübergreifenden, transparenten und diskriminierungsfreien Ausschreibungsprozess beschafft. Auf dieser Seite erfahren Sie alles zum Thema Regelreserve und erhalten zahlreiche Daten und Informationen zu allen laufenden und abgeschlossenen Ausschreibungen.
+News
+05.08.2024
+Erfolgreiche Inbetriebnahme ACER Decision 9/2024
+Wie bereits angekündigt, haben die Übertragungsnetzbetreiber des PICASSO Projektes basierend auf der ACER Decision 9/2024 die angepasste Methode zur Berechnung des „Cross-border marginal price“ (CBMP) erfolgreich in Betrieb genommen.
+Weiterlesen
+01.08.2024
+Geplante Inbetriebnahme ACER Decision 9/2024
+Basierend auf der ACER Decision 9/2024 informieren die Übertragungsnetzbetreiber des PICASSO Projekts über die geplante Inbetriebnahme der angepassten Methode zur Berechnung des „Cross-border marginal price“ (CBMP).
+31.07.2024
+Leitfaden zur Präqualifikation von Windkraftanlagen für Regelreserve
+Die deutschen Übertragungsnetzbetreiber stellen einen Kurzleitfaden zur Präqualifikation von Windkraftanlagen für Regelreserve zur Verfügung.
+25.07.2024
+Fehlerhafte Ausgabe von Fristen im Datencenter und BSP API
+Regelleistungsausschreibungen FCR, aFRR und mFRR bis 31.07.2024 betroffen
+17.07.2024
+Wartungsarbeiten am 24.07.2024 11:30 bis 14:00 Uhr
+Ankündigung von möglichen Unterbrechungen
+Wartungsarbeiten am 18.07.2024 17:30 bis 18:00 Uhr
+05.06.2024
+ACER Konsultation zur Studie über Co-Optimierung
+31.05.2024
+Wartungsarbeiten am 04.06.2024 12:00 bis 13:00 Uhr
+Details
+22.05.2024
+Wartungsarbeiten am 22.05.2024 13:30 bis 13:30 Uhr
+Kurze Unterbrechungen möglich
+08.05.2024
+Bestätigung Starttermin zur Einführung der FSV SEAL
+Erster Erbringungstag im Rahmen der Einführung der freiwilligen Selbstverpflichtung für das Systemdienstleistungsprodukt im Echtzeitbereich aus abschaltbaren Lasten („FSV SEAL“)
+weitere Meldungen
+Weitere Informationen
+Anbieterliste
+Im Folgenden können Sie eine Liste aller präqualifizierten Anbieter herunterladen. Als Anbieter gilt, wer einen gültigen Rahmenvertrag zur Regelleistungserbringung mit mindestens einem Anschluss-ÜNB abgeschlossen hat und gleichzeitig eine präqualifizierte Leistung der Mindestangebotsgröße aufweist.
+Anbieterliste (Stand: 01.02.2024)
+PQ-Leistungen in Deutschland
+Im Folgenden können Sie eine Aufstellung der präqualifizierten Leistungen für Primär-, Sekundär- und Minutenreserveleistung in Deutschland herunterladen.
+PQ-Leistung in Deutschland (Stand 01.02.2024)
+FAQ
+Im Folgenden können Sie eine Liste der häufig gestellten Fragen ansehen. Haben Sie darüber hinaus Fragen oder konnten Sie keine Antwort auf Ihre Frage finden, so stehen wir Ihnen gerne zur Verfügung. Senden Sie uns hierzu bitte Ihre Fragen über unser Kontaktformular zu:
+Kontaktformular
+Suchbegriff eingebenAlle
+const loadSearchApp115 = () =&gt; {
+const moduleContext = {"moduleId":115,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.regelleistung.net/de-de/Search-Results","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"regelleistung"}
+window.lotes.searchApp.create(moduleContext);
+}
+$(document).ready(function () { loadSearchApp115(); } );
+Startseite Allgemeine Infos
+Was ist Regelenergie?
+Arten der Regelreserve
+Deutscher Netzregelverbund
+Infos für Anbieter
+Wie werde ich Regelenergieanbieter? (Präqualifikation)
+Regelenergiebedarf (Dimensionierung)
+Beschaffung Regelleistung &amp; Regelarbeit
+Aktivierung der Reserven
+Anbieterabrechnung der Regelenergie
+Abschaltbare Lasten
+Abgeschlossene Konsultationen
+Workshops
+Marktinformationen
+Der Regelreservemarkt
+Modalitäten &amp; Rechtlicher Rahmen
+Europäische Kooperationen
+FCR Cooperation
+ALPACA (aFRR Leistungsmarkt)
+PICASSO &amp; IGCC (aFRR Arbeitsmarkt)
+MARI (mFRR Arbeitsmarkt)
+Daten
+Datencenter
+Abrufdaten auf Netztransparenz
+Historische Ausschreibungsdaten
+MOL-Abweichungen
+Hilfe
+BSP Support-Portal
+Suche Login
+DE
+EN
+FR
+Startseite
+Regelleistung.net
+Impressum
+Kontakt
+Datenschutz
+Suchbegriff eingeben
+Alle
+Allgemeine Infos
+Zurück
+Frequency Containment Reserve
+automatic Frequency Restoration Reserve
+manual Frequency Restoration Reserve
+PQ-Bedingungen
+aFRR-Abrechnungsmodell
+Bestimmung Regelleistungsistwerte
+Ausgleichsenergiepreis (AEP)
+SO GL Maßnahmen zu FRCE Reduktion
+SO GL Rampenbeschränkungen
+SO GL Dimensionierungsverfahren
+Modalitäten für Regelreserveanbieter (Ergebnisse Jan/Feb 2018)_NEU
+aFRR-Kooperation AT/DE
+ALPACA - aFRR Kooperation</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>Herzlich willkommen auf der Plattform für Regelenergie!
+Die vier deutschen Übertragungsnetzbetreiber betreiben gemeinsam den deutschen Markt für Regelreserve. Über die Plattform regelleistung.net werden alle Produkte der Regelleistung und Regelarbeit in einem regelzonenübergreifenden, transparenten und diskriminierungsfreien Ausschreibungsprozess beschafft. Auf dieser Seite erfahren Sie alles zum Thema Regelreserve und erhalten zahlreiche Daten und Informationen zu allen laufenden und abgeschlossenen Ausschreibungen.
+News
+05.08.2024
+Erfolgreiche Inbetriebnahme ACER Decision 9/2024
+Wie bereits angekündigt, haben die Übertragungsnetzbetreiber des PICASSO Projektes basierend auf der ACER Decision 9/2024 die angepasste Methode zur Berechnung des „Cross-border marginal price“ (CBMP) erfolgreich in Betrieb genommen.
+Weiterlesen
+01.08.2024
+Geplante Inbetriebnahme ACER Decision 9/2024
+Basierend auf der ACER Decision 9/2024 informieren die Übertragungsnetzbetreiber des PICASSO Projekts über die geplante Inbetriebnahme der angepassten Methode zur Berechnung des „Cross-border marginal price“ (CBMP).
+31.07.2024
+Leitfaden zur Präqualifikation von Windkraftanlagen für Regelreserve
+Die deutschen Übertragungsnetzbetreiber stellen einen Kurzleitfaden zur Präqualifikation von Windkraftanlagen für Regelreserve zur Verfügung.
+25.07.2024
+Fehlerhafte Ausgabe von Fristen im Datencenter und BSP API
+Regelleistungsausschreibungen FCR, aFRR und mFRR bis 31.07.2024 betroffen
+17.07.2024
+Wartungsarbeiten am 24.07.2024 11:30 bis 14:00 Uhr
+Ankündigung von möglichen Unterbrechungen
+Wartungsarbeiten am 18.07.2024 17:30 bis 18:00 Uhr
+05.06.2024
+ACER Konsultation zur Studie über Co-Optimierung
+31.05.2024
+Wartungsarbeiten am 04.06.2024 12:00 bis 13:00 Uhr
+Details
+22.05.2024
+Wartungsarbeiten am 22.05.2024 13:30 bis 13:30 Uhr
+Kurze Unterbrechungen möglich
+08.05.2024
+Bestätigung Starttermin zur Einführung der FSV SEAL
+Erster Erbringungstag im Rahmen der Einführung der freiwilligen Selbstverpflichtung für das Systemdienstleistungsprodukt im Echtzeitbereich aus abschaltbaren Lasten („FSV SEAL“)
+weitere Meldungen
+Weitere Informationen
+Anbieterliste
+Im Folgenden können Sie eine Liste aller präqualifizierten Anbieter herunterladen. Als Anbieter gilt, wer einen gültigen Rahmenvertrag zur Regelleistungserbringung mit mindestens einem Anschluss-ÜNB abgeschlossen hat und gleichzeitig eine präqualifizierte Leistung der Mindestangebotsgröße aufweist.
+Anbieterliste (Stand: 01.02.2024)
+PQ-Leistungen in Deutschland
+Im Folgenden können Sie eine Aufstellung der präqualifizierten Leistungen für Primär-, Sekundär- und Minutenreserveleistung in Deutschland herunterladen.
+PQ-Leistung in Deutschland (Stand 01.02.2024)
+FAQ
+Im Folgenden können Sie eine Liste der häufig gestellten Fragen ansehen. Haben Sie darüber hinaus Fragen oder konnten Sie keine Antwort auf Ihre Frage finden, so stehen wir Ihnen gerne zur Verfügung. Senden Sie uns hierzu bitte Ihre Fragen über unser Kontaktformular zu:
+Kontaktformular
+Suchbegriff eingebenAlle
+const loadSearchApp115 = () =&gt; {
+const moduleContext = {"moduleId":115,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.regelleistung.net/de-de/Search-Results","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"regelleistung"}
+window.lotes.searchApp.create(moduleContext);
+}
+$(document).ready(function () { loadSearchApp115(); } );
+Startseite Allgemeine Infos
+Was ist Regelenergie?
+Arten der Regelreserve
+Deutscher Netzregelverbund
+Infos für Anbieter
+Wie werde ich Regelenergieanbieter? (Präqualifikation)
+Regelenergiebedarf (Dimensionierung)
+Beschaffung Regelleistung &amp; Regelarbeit
+Aktivierung der Reserven
+Anbieterabrechnung der Regelenergie
+Abschaltbare Lasten
+Abgeschlossene Konsultationen
+Workshops
+Marktinformationen
+Der Regelreservemarkt
+Modalitäten &amp; Rechtlicher Rahmen
+Europäische Kooperationen
+FCR Cooperation
+ALPACA (aFRR Leistungsmarkt)
+PICASSO &amp; IGCC (aFRR Arbeitsmarkt)
+MARI (mFRR Arbeitsmarkt)
+Daten
+Datencenter
+Abrufdaten auf Netztransparenz
+Historische Ausschreibungsdaten
+MOL-Abweichungen
+Hilfe
+BSP Support-Portal
+Suche Login
+DE
+EN
+FR
+Startseite
+Regelleistung.net
+Impressum
+Kontakt
+Datenschutz
+Suchbegriff eingeben
+Alle
+Allgemeine Infos
+Zurück
+Frequency Containment Reserve
+automatic Frequency Restoration Reserve
+manual Frequency Restoration Reserve
+PQ-Bedingungen
+aFRR-Abrechnungsmodell
+Bestimmung Regelleistungsistwerte
+Ausgleichsenergiepreis (AEP)
+SO GL Maßnahmen zu FRCE Reduktion
+SO GL Rampenbeschränkungen
+SO GL Dimensionierungsverfahren
+Modalitäten für Regelreserveanbieter (Ergebnisse Jan/Feb 2018)_NEU
+aFRR-Kooperation AT/DE
+ALPACA - aFRR Kooperation</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-28 08:22:27</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>ENTSOE</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>https://www.entsoe.eu/network_codes/eb/</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Home
 Network Codes
@@ -1042,19 +1837,401 @@
 Sitemap Suppliers Disclaimer Privacy Policy Cookie Policy Website feedback to info@entsoe.eu</t>
         </is>
       </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Home
+Network Codes
+Electricity Balancing
+The Electricity Balancing Guideline is about creating a market where countries can share the resources used by their transmission system operators to make generation equal demand always. It is also about allowing new players such as demand response and renewables to take part in this market. All in all, the Balancing Guideline should help increase security of supply, limit emissions and diminish costs to customers.
+CURRENT STATUS
+Entered into force
+Current consolidated version: 15/03/2021
+Read the guideline
+Published Regulation
+The published network codes become regulations. Use this section for a handy way to jump to a particular article of the network code.
+Commission Regulation (EU) 2017/2195
+of 23 November 2017
+establishing a guideline on electricity balancing
+Article 1 - Subject matter and scope
+Article 2 - Definitions
+Article 3 - Objectives and regulatory aspects
+Article 4 - Adoption of terms and conditions or methodologies of TSOs
+Article 5 - Approval of terms and conditions or methodologies of TSOs
+Article 6 - Amendments to terms and conditions or methodologies of TSOs
+Article 7 - Publication of terms and conditions or methodologies on the internet
+Article 8 - Recovery of costs
+Article 9 - Stakeholder involvement
+Article 10 - Public consultation
+Article 11 - Confidentiality obligations
+Article 12 - Publication of information
+Article 13 - Delegation and assignment of tasks
+Article 14 - Role of the TSOs
+Article 15 - Cooperation with DSOs
+Article 16 - Role of balancing service providers
+Article 17 - Role of balance responsible parties
+Article 18 - Terms and conditions related to balancing
+Article 19 - European platform for the exchange of balancing energy from replacement reserves
+Article 20 - European platform for the exchange of balancing energy from frequency restoration reserves with manual activation
+Article 21 - European platform for the exchange of balancing energy from frequency restoration reserves with automatic activation
+Article 22 - European platform for imbalance netting process
+Article 23 - Cost sharing between TSOs in different Member States
+Article 24 - Balancing energy gate closure time
+Article 25 - Requirements for standard products
+Article 26 - Requirements for specific products
+Article 27 - Conversion of bids in a central dispatching model
+Article 28 - Fall-back procedures
+Article 29 - Activation of balancing energy bids from common merit order list
+Article 30 - Pricing for balancing energy and cross-zonal capacity used for exchange of balancing energy or for operating the imbalance netting process
+Article 31 - Activation optimisation function
+Article 32 - Procurement rules
+Article 33 - Exchange of balancing capacity
+Article 34 - Transfer of balancing capacity
+Article 35 - Exchange of balancing services
+Article 36 - Use of cross-zonal capacity
+Article 37 - Cross-zonal capacity calculation
+Article 38 - General requirements
+Article 39 - Calculation of market value of cross-zonal capacity
+Article 40 - Co-optimised allocation process
+Article 41 - Market-based allocation process
+Article 42 - Allocation process based on economic efficiency analysis
+Article 43 - Use of cross-zonal capacity by balancing service providers
+Article 44 - General principles
+Article 45 - Balancing energy calculation
+Article 46 - Balancing energy for frequency containment process
+Article 47 - Balancing energy for frequency restoration process
+Article 48 - Balancing energy for reserve replacement process
+Article 49 - Imbalance adjustment to the balance responsible party
+Article 50 - Intended exchanges of energy
+Article 51 - Unintended exchanges of energy
+Article 52 - Imbalance settlement
+Article 53 - Imbalance settlement period
+Article 54 - Imbalance calculation
+Article 55 - Imbalance price
+Article 56 - Procurement within a scheduling area
+Article 57 - Procurement outside a scheduling area
+Article 58 - Balancing algorithms
+Article 59 - European report on integration of balancing markets
+Article 60 - TSO report on balancing
+Article 61 - Cost-benefit analysis
+Article 62 - Derogations
+Article 63 - Monitoring
+Article 64 - Transitional provisions for Ireland and Northern Ireland
+Article 65 - Entry into force
+Implementation - Making the code a reality
+Automatic Frequency Restoration Reserves (aFRR) - PICASSO
+The Platform for the International Coordination of Automated Frequency Restoration and Stable System Operation (PICASSO) is the implementation project for the establishment of the European aFRR-Platform.
+View
+Imbalance Netting (IN) – IGCC
+The International Grid Control Cooperation (IGCC) is the implementation project for the establishment of the European IN-Platform.
+Replacement Reserves (RR) – TERRE
+The Trans-European Replacement Reserves Exchange (TERRE) is the implementation project for the establishment of the European RR-Platform.
+Manual Frequency Restoration Reserves (mFRR) – MARI
+The Manually Activated Reserves Initiative (MARI) is the implementation project for the establishment of the European mFRR-Platform.
+Frequency Containment Reserves (FCR)
+The common market for procurement and exchange of FCR (FCR Cooperation) aims at the integration of balancing markets.
+Nordic aFRR capacity market
+The Nordic TSOs will establish a regional balancing capacity market for aFRR balancing capacity.
+ALPACA
+The Allocation of Cross-zonal Capacity and Procurement of aFRR Cooperation Agreement
+A voluntary TSO cooperation based on the current Austrian-German aFRR balancing capacity cooperation.
+Quarterly Pricing Reporting
+Reporting obligations from the amended Pricing Methodology
+According to Article 9(4) of the Common Methodology for the Pricing of Balancing Energy and Cross-Border Capacity.
+EB related Deliverables
+A 12.5 Update manual of procedures of Transparency Regulation
+A 19.1 Proposal for implementation framework for RR Platform
+A 19.4 Designation of RR entity
+A 19.5 Implementation of RR Platform
+A 20.1 Proposal for implementation framework for European mFRR Platform
+A 20.4 Designate mFRR entity
+A 20.5 Proposal for modifications to European mFRR Platform
+A 20.6 Implementation of mFRR Platform
+A 21.1 Proposal for implementation framework for European aFRR Platform
+A 21.4 Designation of aFRR entity
+A 21.5 Proposal for modifications to European aFRR Platform
+A 21.6 Implementation of aFRR Platform
+A 22.1 Proposal for implementation framework for European IN Platform
+A 22.4 Designation of IN entity
+A 22.5 Implementation and making operational European IN Platform
+A 23.1 Electricity Balancing Cost Report
+A 25.2 Proposal for list of standard balancing capacity products
+A 29.3 Proposal for classifying the activation purposes of balancing energy bids
+A 30.1 Proposal for pricing of balancing energy and CZC used for exchange of balancing energy (RR, FRR, IN)
+A 37.3 Methodology for calculating CZC for balancing (per CCR)
+A 38.3 Proposal to harmonise the methodology for the allocation process of cross-zonal capacity for the exchange of balancing capacity
+A 40.1 Proposal for a methodology for co-optimised CZC allocation
+A 41.1 Proposal for a methodology for market-based CZC allocation (voluntary, each CCR to decide)
+A 42.1 Proposal for a methodology for the allocation of cross-zonal capacity based on an economic efficiency analysis (voluntary, each CCR to decide)
+A 50.1 Proposal for TSO-TSO settlement of intended exchanges of energy
+A 50.3.a Proposal for TSO-TSO settlement of intended exchanges of energy due to ramps and FCR within synchronous area continental Europe
+A 50.3.b Proposal for TSO-TSO settlement of intended exchanges of energy due to ramps and FCR within synchronous area Nordics
+A 50.4 Proposal of TSO-TSO settlement of intended exchanges of energy due to ramp restrictions and FCR between synchronous areas
+A 51.1.a Proposal for TSO-TSO settlement of unintended exchanges within synchronous area continental Europe
+A 51.1.b Proposal for TSO-TSO settlement of unintended exchanges within synchronous area Nordics
+A 51.2 Proposal for TSO-TSO settlement of unintended exchanges between synchronous areas
+A 52.2 Proposal for imbalance settlement harmonisation
+A 59.2.a European report on integration of balancing markets (Detailed)
+A 59.2.b European report on integration of balancing markets (High-level)
+A 63.2 ENTSO-E monitoring plan
+European Stakeholder Committee
+Balancing Stakeholder Group
+View Committee
+To committee meetings
+Issue logger
+Last Meeting Documents
+Documents from 22nd Stakeholders Group Meeting 17 April 2024
+View Document List
+Agenda
+Materials
+Minutes
+History &amp; Development of the network code
+GET THE MOST POWERFUL NEWSLETTER IN BRUSSELS
+ENTSO-E
+Network Codes &amp; CEP
+Data &amp; Standardisation
+Innovation
+Outlooks
+Regions
+Publications
+About
+Login
+Network Codes &amp; CEPData &amp; StandardisationInnovationOutlooksRegionsPublicationsAboutTransparency PlatformCommon Information ModelStandardisationEU Grid MapNewsEventsCareersOur StaffExtranet
+Transparency PlatformCommon Information ModelStandardisationEU Grid MapNewsEventsCareersOur StaffExtranet
+Button
+News &amp; EventsDeliverablesStakeholder CommitteeImplementationDevelopment HistoryConsultations
+Our Work
+Transparency Platform
+Power Regions
+Common Information Model
+Position Papers
+Standardisation
+EU Grid Map
+Association
+News
+Events
+Members
+Careers
+Governance
+Our Staff
+Contact
+Extranet
+Stay updated
+Twitter
+YouTube
+LinkedIn
+© 2009-2024  ENTSO-E
+Sitemap Suppliers Disclaimer Privacy Policy Cookie Policy Website feedback to info@entsoe.eu</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>Home
+Network Codes
+Electricity Balancing
+The Electricity Balancing Guideline is about creating a market where countries can share the resources used by their transmission system operators to make generation equal demand always. It is also about allowing new players such as demand response and renewables to take part in this market. All in all, the Balancing Guideline should help increase security of supply, limit emissions and diminish costs to customers.
+CURRENT STATUS
+Entered into force
+Current consolidated version: 15/03/2021
+Read the guideline
+Published Regulation
+The published network codes become regulations. Use this section for a handy way to jump to a particular article of the network code.
+Commission Regulation (EU) 2017/2195
+of 23 November 2017
+establishing a guideline on electricity balancing
+Article 1 - Subject matter and scope
+Article 2 - Definitions
+Article 3 - Objectives and regulatory aspects
+Article 4 - Adoption of terms and conditions or methodologies of TSOs
+Article 5 - Approval of terms and conditions or methodologies of TSOs
+Article 6 - Amendments to terms and conditions or methodologies of TSOs
+Article 7 - Publication of terms and conditions or methodologies on the internet
+Article 8 - Recovery of costs
+Article 9 - Stakeholder involvement
+Article 10 - Public consultation
+Article 11 - Confidentiality obligations
+Article 12 - Publication of information
+Article 13 - Delegation and assignment of tasks
+Article 14 - Role of the TSOs
+Article 15 - Cooperation with DSOs
+Article 16 - Role of balancing service providers
+Article 17 - Role of balance responsible parties
+Article 18 - Terms and conditions related to balancing
+Article 19 - European platform for the exchange of balancing energy from replacement reserves
+Article 20 - European platform for the exchange of balancing energy from frequency restoration reserves with manual activation
+Article 21 - European platform for the exchange of balancing energy from frequency restoration reserves with automatic activation
+Article 22 - European platform for imbalance netting process
+Article 23 - Cost sharing between TSOs in different Member States
+Article 24 - Balancing energy gate closure time
+Article 25 - Requirements for standard products
+Article 26 - Requirements for specific products
+Article 27 - Conversion of bids in a central dispatching model
+Article 28 - Fall-back procedures
+Article 29 - Activation of balancing energy bids from common merit order list
+Article 30 - Pricing for balancing energy and cross-zonal capacity used for exchange of balancing energy or for operating the imbalance netting process
+Article 31 - Activation optimisation function
+Article 32 - Procurement rules
+Article 33 - Exchange of balancing capacity
+Article 34 - Transfer of balancing capacity
+Article 35 - Exchange of balancing services
+Article 36 - Use of cross-zonal capacity
+Article 37 - Cross-zonal capacity calculation
+Article 38 - General requirements
+Article 39 - Calculation of market value of cross-zonal capacity
+Article 40 - Co-optimised allocation process
+Article 41 - Market-based allocation process
+Article 42 - Allocation process based on economic efficiency analysis
+Article 43 - Use of cross-zonal capacity by balancing service providers
+Article 44 - General principles
+Article 45 - Balancing energy calculation
+Article 46 - Balancing energy for frequency containment process
+Article 47 - Balancing energy for frequency restoration process
+Article 48 - Balancing energy for reserve replacement process
+Article 49 - Imbalance adjustment to the balance responsible party
+Article 50 - Intended exchanges of energy
+Article 51 - Unintended exchanges of energy
+Article 52 - Imbalance settlement
+Article 53 - Imbalance settlement period
+Article 54 - Imbalance calculation
+Article 55 - Imbalance price
+Article 56 - Procurement within a scheduling area
+Article 57 - Procurement outside a scheduling area
+Article 58 - Balancing algorithms
+Article 59 - European report on integration of balancing markets
+Article 60 - TSO report on balancing
+Article 61 - Cost-benefit analysis
+Article 62 - Derogations
+Article 63 - Monitoring
+Article 64 - Transitional provisions for Ireland and Northern Ireland
+Article 65 - Entry into force
+Implementation - Making the code a reality
+Automatic Frequency Restoration Reserves (aFRR) - PICASSO
+The Platform for the International Coordination of Automated Frequency Restoration and Stable System Operation (PICASSO) is the implementation project for the establishment of the European aFRR-Platform.
+View
+Imbalance Netting (IN) – IGCC
+The International Grid Control Cooperation (IGCC) is the implementation project for the establishment of the European IN-Platform.
+Replacement Reserves (RR) – TERRE
+The Trans-European Replacement Reserves Exchange (TERRE) is the implementation project for the establishment of the European RR-Platform.
+Manual Frequency Restoration Reserves (mFRR) – MARI
+The Manually Activated Reserves Initiative (MARI) is the implementation project for the establishment of the European mFRR-Platform.
+Frequency Containment Reserves (FCR)
+The common market for procurement and exchange of FCR (FCR Cooperation) aims at the integration of balancing markets.
+Nordic aFRR capacity market
+The Nordic TSOs will establish a regional balancing capacity market for aFRR balancing capacity.
+ALPACA
+The Allocation of Cross-zonal Capacity and Procurement of aFRR Cooperation Agreement
+A voluntary TSO cooperation based on the current Austrian-German aFRR balancing capacity cooperation.
+Quarterly Pricing Reporting
+Reporting obligations from the amended Pricing Methodology
+According to Article 9(4) of the Common Methodology for the Pricing of Balancing Energy and Cross-Border Capacity.
+EB related Deliverables
+A 12.5 Update manual of procedures of Transparency Regulation
+A 19.1 Proposal for implementation framework for RR Platform
+A 19.4 Designation of RR entity
+A 19.5 Implementation of RR Platform
+A 20.1 Proposal for implementation framework for European mFRR Platform
+A 20.4 Designate mFRR entity
+A 20.5 Proposal for modifications to European mFRR Platform
+A 20.6 Implementation of mFRR Platform
+A 21.1 Proposal for implementation framework for European aFRR Platform
+A 21.4 Designation of aFRR entity
+A 21.5 Proposal for modifications to European aFRR Platform
+A 21.6 Implementation of aFRR Platform
+A 22.1 Proposal for implementation framework for European IN Platform
+A 22.4 Designation of IN entity
+A 22.5 Implementation and making operational European IN Platform
+A 23.1 Electricity Balancing Cost Report
+A 25.2 Proposal for list of standard balancing capacity products
+A 29.3 Proposal for classifying the activation purposes of balancing energy bids
+A 30.1 Proposal for pricing of balancing energy and CZC used for exchange of balancing energy (RR, FRR, IN)
+A 37.3 Methodology for calculating CZC for balancing (per CCR)
+A 38.3 Proposal to harmonise the methodology for the allocation process of cross-zonal capacity for the exchange of balancing capacity
+A 40.1 Proposal for a methodology for co-optimised CZC allocation
+A 41.1 Proposal for a methodology for market-based CZC allocation (voluntary, each CCR to decide)
+A 42.1 Proposal for a methodology for the allocation of cross-zonal capacity based on an economic efficiency analysis (voluntary, each CCR to decide)
+A 50.1 Proposal for TSO-TSO settlement of intended exchanges of energy
+A 50.3.a Proposal for TSO-TSO settlement of intended exchanges of energy due to ramps and FCR within synchronous area continental Europe
+A 50.3.b Proposal for TSO-TSO settlement of intended exchanges of energy due to ramps and FCR within synchronous area Nordics
+A 50.4 Proposal of TSO-TSO settlement of intended exchanges of energy due to ramp restrictions and FCR between synchronous areas
+A 51.1.a Proposal for TSO-TSO settlement of unintended exchanges within synchronous area continental Europe
+A 51.1.b Proposal for TSO-TSO settlement of unintended exchanges within synchronous area Nordics
+A 51.2 Proposal for TSO-TSO settlement of unintended exchanges between synchronous areas
+A 52.2 Proposal for imbalance settlement harmonisation
+A 59.2.a European report on integration of balancing markets (Detailed)
+A 59.2.b European report on integration of balancing markets (High-level)
+A 63.2 ENTSO-E monitoring plan
+European Stakeholder Committee
+Balancing Stakeholder Group
+View Committee
+To committee meetings
+Issue logger
+Last Meeting Documents
+Documents from 22nd Stakeholders Group Meeting 17 April 2024
+View Document List
+Agenda
+Materials
+Minutes
+History &amp; Development of the network code
+GET THE MOST POWERFUL NEWSLETTER IN BRUSSELS
+ENTSO-E
+Network Codes &amp; CEP
+Data &amp; Standardisation
+Innovation
+Outlooks
+Regions
+Publications
+About
+Login
+Network Codes &amp; CEPData &amp; StandardisationInnovationOutlooksRegionsPublicationsAboutTransparency PlatformCommon Information ModelStandardisationEU Grid MapNewsEventsCareersOur StaffExtranet
+Transparency PlatformCommon Information ModelStandardisationEU Grid MapNewsEventsCareersOur StaffExtranet
+Button
+News &amp; EventsDeliverablesStakeholder CommitteeImplementationDevelopment HistoryConsultations
+Our Work
+Transparency Platform
+Power Regions
+Common Information Model
+Position Papers
+Standardisation
+EU Grid Map
+Association
+News
+Events
+Members
+Careers
+Governance
+Our Staff
+Contact
+Extranet
+Stay updated
+Twitter
+YouTube
+LinkedIn
+© 2009-2024  ENTSO-E
+Sitemap Suppliers Disclaimer Privacy Policy Cookie Policy Website feedback to info@entsoe.eu</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-28 08:22:27</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>LinkedIN</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/in/lars-stephan/recent-activity/all/</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>Join LinkedIn
 Email
@@ -1092,19 +2269,147 @@
 New to Linkedin?  Join now</t>
         </is>
       </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>Sign in
+Stay updated on your professional world.
+Email or phone
+Password
+Show
+Forgot password?
+or
+By clicking Continue, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
+Sign in with Apple
+Sign in with a passkey
+New to LinkedIn? Join now
+LinkedIn
+© 2024
+User Agreement
+Privacy Policy
+Community Guidelines
+Cookie Policy
+Copyright Policy
+Send Feedback
+Language
+We’ve emailed a one-time link to your primary email address
+Click on the link to sign in instantly to your LinkedIn account.
+If you don’t see the email in your inbox, check your spam folder.
+Resend email
+Back
+Agree &amp; Join LinkedIn
+العربية (Arabic)
+বাংলা (Bangla)
+Čeština (Czech)
+Dansk (Danish)
+Deutsch (German)
+English (English)
+Español (Spanish)
+Français (French)
+हिंदी (Hindi)
+Magyar (Hungarian)
+Bahasa Indonesia (Indonesian)
+Italiano (Italian)
+日本語 (Japanese)
+한국어 (Korean)
+Bahasa Malaysia (Malay)
+Nederlands (Dutch)
+Norsk (Norwegian)
+ਪੰਜਾਬੀ (Punjabi)
+Polski (Polish)
+Português (Portuguese)
+Română (Romanian)
+Русский (Russian)
+Svenska (Swedish)
+ภาษาไทย (Thai)
+Tagalog (Tagalog)
+Türkçe (Turkish)
+Українська (Ukrainian)
+简体中文 (Chinese (Simplified))
+正體中文 (Chinese (Traditional))</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>Sign in
+Stay updated on your professional world.
+Email or phone
+Password
+Show
+Forgot password?
+or
+By clicking Continue, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
+Sign in with Apple
+Sign in with a passkey
+New to LinkedIn? Join now
+LinkedIn
+© 2024
+User Agreement
+Privacy Policy
+Community Guidelines
+Cookie Policy
+Copyright Policy
+Send Feedback
+Language
+We’ve emailed a one-time link to your primary email address
+Click on the link to sign in instantly to your LinkedIn account.
+If you don’t see the email in your inbox, check your spam folder.
+Resend email
+Back
+Agree &amp; Join LinkedIn
+العربية (Arabic)
+বাংলা (Bangla)
+Čeština (Czech)
+Dansk (Danish)
+Deutsch (German)
+English (English)
+Español (Spanish)
+Français (French)
+हिंदी (Hindi)
+Magyar (Hungarian)
+Bahasa Indonesia (Indonesian)
+Italiano (Italian)
+日本語 (Japanese)
+한국어 (Korean)
+Bahasa Malaysia (Malay)
+Nederlands (Dutch)
+Norsk (Norwegian)
+ਪੰਜਾਬੀ (Punjabi)
+Polski (Polish)
+Português (Portuguese)
+Română (Romanian)
+Русский (Russian)
+Svenska (Swedish)
+ภาษาไทย (Thai)
+Tagalog (Tagalog)
+Türkçe (Turkish)
+Українська (Ukrainian)
+简体中文 (Chinese (Simplified))
+正體中文 (Chinese (Traditional))</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-28 08:22:27</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>BMWK</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>https://www.bmwk.de/Redaktion/DE/Artikel/Energie/Energiespeicher/stromspeicher-strategie.html</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>Seite empfehlen
 ARTIKEL
@@ -1341,19 +2646,503 @@
 Die Live-Übertragung von Pressekonferenzen des Ministeriums erfolgt über die Infrastruktur des amerikanischen Dienstleisters Vimeo.com. Bitte willigen Sie in die Übertragung Ihrer IP-Adresse und anderer technischer Daten an Vimeo ein, und erlauben Sie Vimeo, Cookies auf Ihrem Endgerät zu setzen, wenn Sie unseren Livestream-Videodienst nutzen wollen. Verantwortlich für diese Verarbeitung Ihrer Daten ist das Bundesministerium für Wirtschaft und Klimaschutz. Unsere Datenschutzbeauftragte erreichen Sie unter datenschutzbeauftragte@bmwk.bund.de. Als Rechtsgrundlage dient uns Ihre Einwilligung nach § 25 Abs. 1 TTDSG i. V. m. Artikel 6 Abs. 1 lit. a) DSGVO und § 3 Abs. 1 EGovG. Wir haben sichergestellt, dass Sie Ihre Einwilligung jederzeit für die Zukunft widerrufen können. Über die Einwilligungsverwaltung am Ende der Seite können Sie steuern, ob Sie den Videodienst Vimeo zur Live-Übertragung freigeben wird oder nicht.</t>
         </is>
       </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>Seite empfehlen
+ARTIKEL
+-
+Stromspeicher-Strategie des BMWK vorgelegt
+Einleitung
+Die Stromspeicher-Strategie des BMWK zielt darauf ab, den Hochlauf der Stromspeicher zu unterstützen und eine optimale Integration der Stromspeicher als Kurzzeitspeicher in das Stromsystem zu erreichen.
+Hintergrund
+Um die stark wachsenden Anteile der Stromerzeugung aus Windenergie (Ziele: 115 GW Wind Onshore und 30 GW Wind Offshore in 2030) sowie Photovoltaik (Ziel: 215 GW in 2030) zu integrieren, wird künftig viel Flexibilität im Energiesystem erforderlich sein. Neben der Bedeutung des europaweiten Netzausbaus und Strombinnenmarkts zum grenzüberschreitenden Ausgleich von Erzeugungsspitzen und der Flexibilisierung von Verbrauchseinrichtungen wächst damit auch der Bedarf an Energiespeichern (Strom, Wärme, Wasserstoff).
+Rolle der Stromspeicher
+Stromspeicher spielen dabei sowohl für die Energiespeicherung als auch für die Stabilität der Stromversorgung eine wichtige Rolle. Aktuell ist ein starker marktgetriebener Hochlauf bei Batteriespeichern zu beobachten – so gibt es mittlerweile über eine Million Heimspeicher. Diese positive Entwicklung beruht neben dem günstigen Marktumfeld auch auf bisher ergriffenen Maßnahmen (z.B. Netzentgelt- und Umlagenbefreiungen, überragendes öffentliches Interesse der Stromspeicher).
+In der Strategie werden die zusätzlich in dieser Legislaturperiode beabsichtigten Maßnahmen des BMWK im Bereich der Stromspeicher dargestellt. Dort, wo das BMWK nicht federführend zuständig ist, verfolgt die Strategie das Ziel, die Position des BMWK zu formulieren und eine Debatte mit allen Beteiligten anzustoßen.
+Folgende Maßnahmen sind aus Sicht des BMWK für den Hochlauf der Stromspeicherung relevant:
+Hemmnisanalyse
+Stromspeicher im Kontext des EEG
+Netzentgelte
+Baukostenzuschüsse und Netzanschlusskostenbeiträge
+Beschleunigung von Netzanschlüssen
+Stärkung von Standortgemeinden
+Abbau von genehmigungsrechtlichen Hemmnissen
+Sicherung der Systemstabilität
+Verbesserungen bei der Regelleistung
+Evaluierung von „Netzboostern“
+Aktivierung der Potenziale des bidirektionalen Ladens
+Erörterung von Hemmnissen bei Pumpspeicherkraftwerken
+Stromspeicher als Flexibilitätsoption
+Stromspeicher-Potenziale im Energiesystem ermitteln
+Entwicklung einer Speicherstatistik
+Unterstützung von Innovation und Forschung
+Förderung der Fertigung von Batteriezellen und Systemkomponenten
+Branchenabfrage
+Die Stromspeicher-Strategie wurde mit der Branche konsultiert. Die zur Veröffentlichung freigegebenen Stellungnahmen finden Sie hier (ZIP, 11 MB).
+FAQ
+Fragen und Antworten (FAQ) zur Stromspeicher-Strategie
+Öffnet Einzelsicht
+Newsletter "Energiewende direkt"
+abonnieren:
+Stromspeicher werden immer wichtiger (Ausgabe 01/2024)
+ABONNIEREN
+Stellungnahmen
+19.02.2024
+STELLUNGNAHME
+Energiespeicher
+Publikation:
+Stellungnahmen zur Konsultation der Stromspeicher-Strategie
+ZIP, 11 MB
+Öffnet ZIP "Stellungnahmen zur Konsultation der Stromspeicher-Strategie" in neuem Fenster.
+Weiterführende Informationen
+08.12.2023
+DOWNLOAD
+Stromspeicher-Strategie
+­Handlungsfelder und Maßnahmen für eine anhaltende Ausbaudynamik und optimale Systemintegration von Stromspeichern – barrierefrei
+PDF, 2 MB
+Öffnet PDF "Stromspeicher-Strategie" in neuem Fenster.
+PUBLIKATION
+Electricity Storage Strategy
+Fields of action and measures to ensure a persistent and dynamic expansion of electricity storage facilities and their optimal systems integration – barrier-free
+Öffnet PDF "Electricity Storage Strategy" in neuem Fenster.
+Tracking-Einwilligung
+Einwilligung zum Videodienst JW-Player
+Das Ministerium präsentiert seine Arbeit auf dieser Webseite auch in Form von Videos. Diese werden vom deutschen Anbieter TV1 mit Hilfe des JW-Players mit Sitz in den USA ausgeliefert. Bitte willigen Sie in die Übertragung Ihrer IP-Adresse und anderer technischer Daten an den JW-Player ein, und erlauben Sie JW-Player, Cookies auf Ihrem Endgerät zu setzen, wenn Sie unser Video-Angebot nutzen wollen. Verantwortlich für diese Verarbeitung Ihrer Daten ist das Bundesministerium für Wirtschaft und Klimaschutz. Unsere Datenschutzbeauftragte erreichen Sie unter datenschutzbeauftragte@bmwk.bund.de. Als Rechtsgrundlage dient uns Ihre Einwilligung nach § 25 Abs. 1 TTDSG i. V. m. Artikel 6 Abs. 1 lit. a) DSGVO und § 3 Abs. 1 EGovG. Wir haben sichergestellt, dass Sie Ihre Einwilligung jederzeit für die Zukunft widerrufen können. Über die Einwilligungsverwaltung am Ende der Seite können Sie jederzeit steuern, ob Sie den Videodienst JW-Player zur Übertragung freigeben oder nicht.
+Einwilligen
+Link direkt zur Hauptnavigation und Suche
+Link direkt zum Inhalt
+Link direkt zur Servicenavigation
+Menü
+SUCHE STARTEN
+EN
+FR
+Suche
+Suche starten
+Themen
+Service
+Ministerium
+Medienraum
+Kontakt
+Pressekontakt
+Bürgerdialog
+BMWK A bis Z
+BMWK
+Leitbild
+Schwerpunkte
+Wirtschaft
+Wettbewerbs- und Ordnungspolitik
+Regionale Wirtschafts- und Strukturpolitik
+Konjunktur und Wachstum
+Öffentliche Aufträge und Vergabe
+Wirtschaftspolitische Forschung und Analyse
+Frauen in der Wirtschaft
+Wirtschaft verstehen, Zukunft gestalten!
+Klimaschutz
+Nationale Klimaschutzpolitik
+Systementwicklungsstrategie
+Emissionshandel
+Europäische Klimaschutzpolitik
+Internationale Klimaschutzpolitik
+Klimaneutrale Bundesverwaltung
+Motive und Ziele
+Europa
+Das BMWK als Europaministerium
+Europäische Wirtschaftspolitik
+Beihilfen
+EU-Finanzen und Europäisches Semester
+Kompetenzzentrum Europarecht
+Bilaterale Beziehungen
+Ausfuhr- und Rüstungsexportkontrolle
+Sanktionen
+Energie
+Energieeffizienz
+Energiewende
+Energiepreisbremsen
+Energiewende im Gebäudebereich
+Wasserstoffstrategie
+Erneuerbare Energien
+Netze und Netzausbau
+Strommarkt der Zukunft
+Roadmap Systemstabilität
+Energieforschung und Innovation
+Europäische und internationale Energiepolitik
+Bilaterale Klima- und Energiepartnerschaften und Energiedialoge
+Industrie
+Moderne Industriepolitik
+Industrie 4.0
+Bündnis "Zukunft der Industrie"
+Elektromobilität
+Luft- und Raumfahrt
+Maritime Wirtschaft
+Rohstoffe und Ressourcen
+Industrielle Bioökonomie
+Mikroelektronik
+Gesundheitswirtschaft
+Außenwirtschaft
+Russland-Sanktionen: Fragen und Antworten
+Handelspolitik
+Investitionsschutz
+Außenwirtschaftsförderung
+Rüstungsexportkontrolle
+OECD-Leitsätze für multinationale Unternehmen
+Digitale Welt und Innovation
+Digitalisierung
+„Digital Jetzt“– Eine Förderung für die Digitalisierung des Mittelstands
+Mittelstand digitalisieren
+Innovationspolitik
+Transferinitiative
+Kultur- und Kreativwirtschaft
+Games
+Mittelstand
+Politik für den Mittelstand
+Bürokratieabbau
+Cybersicherheit im Mittelstand
+Mittelstandsfinanzierung
+Existenzgründung
+Fachkräftesicherung
+Handwerkspolitik und -förderung
+Tourismuspolitik
+Ausbildung &amp; Beruf
+Ausbildung und Beruf
+Publikationen
+Evaluationen
+Veranstaltungen
+Wettbewerbe
+Ausschreibungen
+Parlamentarische Anfragen
+Themenportale
+Presse
+Presseservice
+Pressemitteilungen
+Pressefotos
+Beratungsangebote
+Informationsfreiheit
+Soziale Netzwerke
+Gesetzesvorhaben
+Laufende Gesetzgebungsverfahren
+Gesetze und Verordnungen
+Informationsdienste
+Abo-Service: Newsletter hier abonnieren
+RSS-Newsfeed
+Open Data
+Hilfe und Support
+Benutzerhinweise
+Datenschutzerklärung
+Gebärdensprache
+Leichte Sprache
+Minister
+Die Staatssekretärinnen und Staatssekretäre
+Koordinatoren und Beauftragte
+Aufgaben und Struktur
+Geschäftsbereich
+Organigramm
+Haushalt
+Gremien
+Beiräte
+Initiativen
+Zuwendungsempfänger
+Willkommen im BMWK
+Besuch im BMWK
+Anfahrtsplan des BMWK
+BMWK als Arbeitgeber
+Gute Gründe für eine Bewerbung im BMWK
+Bewerbung
+Ausbildung
+Referendariat und Praktikum
+Stellenangebote und Ausbildungsplätze
+Fragen und Antworten
+Geschichte
+Wirtschaftspolitik 1949 bis heute
+Ministergalerie
+Geschichtskommission
+Architektur
+Geschichte des BMWK
+Schliessen
+facebook
+youtube
+x
+instagram
+linkedin
+threads
+tiktok
+© 2024 Bundesministerium für Wirtschaft und Klimaschutz
+Impressum
+Barrierefreiheit
+Datenschutz
+Einwilligungsverwaltung
+Zum Seitenanfang
+Einwilligung in Tracking und / oder Videodienste
+Wir bitten Sie an dieser Stelle um Ihre Einwilligung für verschiedene Zusatzdienste unserer Webseite: Wir möchten die Nutzeraktivität mit Hilfe datenschutzfreundlicher Statistiken verstehen, um unsere Öffentlichkeitsarbeit zu verbessern. Zusätzlich können Sie in die Nutzung zweier Videodienste einwilligen. Nähere Informationen zu allen Diensten finden Sie, wenn Sie die Pluszeichen rechts aufklappen. Sie können Ihre Einwilligungen jederzeit erteilen oder für die Zukunft widerrufen. Rufen Sie dazu bitte diese Einwilligungsverwaltung über den Link am Ende der Seite erneut auf.
+Auswahl bestätigenAlle bestätigen
+Technisch notwendig (nicht abwählbar)
+Statistik
+Einwilligung zum Videodienst Live-Pressekonferenzen über Vimeo
+Ausführliche Informationen über Ihre Betroffenenrechte und darüber, wie wir Ihre Privatsphäre schützen, entnehmen Sie bitte unserer Datenschutzerklärung.
+Diese Webseite setzt temporäre Session Cookies. Diese sind technisch notwendig und deshalb nicht abwählbar. Sie dienen ausschließlich dazu, Ihnen die Nutzung der Webseite zu ermöglichen.
+Unsere Datenerhebung zu statistischen Zwecken funktioniert so: Ihre Zustimmung vorausgesetzt, leitet ein Skript auf unserer Webseite automatisch Ihre IP-Adresse und den sog. User Agent an die etracker GmbH weiter. Hier wird Ihre IP-Adresse unmittelbar und automatisch gekürzt. Anschließend pseudonymisiert die Software die übermittelten Daten ausschließlich zu dem Zweck, Mehrfachnutzungen in der Sitzung feststellen zu können. Nach Ablauf von 7 Tagen wird jede Zuordnung zur Sitzung gelöscht, und Ihre statistischen Daten liegen gänzlich anonymisiert vor. Etracker ist ein deutsches Unternehmen, und verarbeitet Ihre Daten ausschließlich in unserem Auftrag auf geschützten Servern. An weitere Dritte werden sie nicht übermittelt. Verantwortlich für diese Verarbeitung Ihrer Daten ist das Bundesministerium für Wirtschaft und Klimaschutz. Unsere Datenschutzbeauftragte erreichen Sie unter datenschutzbeauftragte@bmwk.bund.de. Als Rechtsgrundlage dient uns Ihre Einwilligung nach § 25 Abs. 1 TTDSG i. V. m. Artikel 6 Abs. 1 lit. a) DSGVO und § 3 Abs. 1 EGovG. Wir haben sichergestellt, dass Sie Ihre Einwilligung jederzeit für die Zukunft widerrufen können. Rufen Sie dazu bitte diese Einwilligungsverwaltung über den Link am Ende der Seite erneut auf.
+Die Live-Übertragung von Pressekonferenzen des Ministeriums erfolgt über die Infrastruktur des amerikanischen Dienstleisters Vimeo.com. Bitte willigen Sie in die Übertragung Ihrer IP-Adresse und anderer technischer Daten an Vimeo ein, und erlauben Sie Vimeo, Cookies auf Ihrem Endgerät zu setzen, wenn Sie unseren Livestream-Videodienst nutzen wollen. Verantwortlich für diese Verarbeitung Ihrer Daten ist das Bundesministerium für Wirtschaft und Klimaschutz. Unsere Datenschutzbeauftragte erreichen Sie unter datenschutzbeauftragte@bmwk.bund.de. Als Rechtsgrundlage dient uns Ihre Einwilligung nach § 25 Abs. 1 TTDSG i. V. m. Artikel 6 Abs. 1 lit. a) DSGVO und § 3 Abs. 1 EGovG. Wir haben sichergestellt, dass Sie Ihre Einwilligung jederzeit für die Zukunft widerrufen können. Über die Einwilligungsverwaltung am Ende der Seite können Sie steuern, ob Sie den Videodienst Vimeo zur Live-Übertragung freigeben wird oder nicht.</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>Seite empfehlen
+ARTIKEL
+-
+Stromspeicher-Strategie des BMWK vorgelegt
+Einleitung
+Die Stromspeicher-Strategie des BMWK zielt darauf ab, den Hochlauf der Stromspeicher zu unterstützen und eine optimale Integration der Stromspeicher als Kurzzeitspeicher in das Stromsystem zu erreichen.
+Hintergrund
+Um die stark wachsenden Anteile der Stromerzeugung aus Windenergie (Ziele: 115 GW Wind Onshore und 30 GW Wind Offshore in 2030) sowie Photovoltaik (Ziel: 215 GW in 2030) zu integrieren, wird künftig viel Flexibilität im Energiesystem erforderlich sein. Neben der Bedeutung des europaweiten Netzausbaus und Strombinnenmarkts zum grenzüberschreitenden Ausgleich von Erzeugungsspitzen und der Flexibilisierung von Verbrauchseinrichtungen wächst damit auch der Bedarf an Energiespeichern (Strom, Wärme, Wasserstoff).
+Rolle der Stromspeicher
+Stromspeicher spielen dabei sowohl für die Energiespeicherung als auch für die Stabilität der Stromversorgung eine wichtige Rolle. Aktuell ist ein starker marktgetriebener Hochlauf bei Batteriespeichern zu beobachten – so gibt es mittlerweile über eine Million Heimspeicher. Diese positive Entwicklung beruht neben dem günstigen Marktumfeld auch auf bisher ergriffenen Maßnahmen (z.B. Netzentgelt- und Umlagenbefreiungen, überragendes öffentliches Interesse der Stromspeicher).
+In der Strategie werden die zusätzlich in dieser Legislaturperiode beabsichtigten Maßnahmen des BMWK im Bereich der Stromspeicher dargestellt. Dort, wo das BMWK nicht federführend zuständig ist, verfolgt die Strategie das Ziel, die Position des BMWK zu formulieren und eine Debatte mit allen Beteiligten anzustoßen.
+Folgende Maßnahmen sind aus Sicht des BMWK für den Hochlauf der Stromspeicherung relevant:
+Hemmnisanalyse
+Stromspeicher im Kontext des EEG
+Netzentgelte
+Baukostenzuschüsse und Netzanschlusskostenbeiträge
+Beschleunigung von Netzanschlüssen
+Stärkung von Standortgemeinden
+Abbau von genehmigungsrechtlichen Hemmnissen
+Sicherung der Systemstabilität
+Verbesserungen bei der Regelleistung
+Evaluierung von „Netzboostern“
+Aktivierung der Potenziale des bidirektionalen Ladens
+Erörterung von Hemmnissen bei Pumpspeicherkraftwerken
+Stromspeicher als Flexibilitätsoption
+Stromspeicher-Potenziale im Energiesystem ermitteln
+Entwicklung einer Speicherstatistik
+Unterstützung von Innovation und Forschung
+Förderung der Fertigung von Batteriezellen und Systemkomponenten
+Branchenabfrage
+Die Stromspeicher-Strategie wurde mit der Branche konsultiert. Die zur Veröffentlichung freigegebenen Stellungnahmen finden Sie hier (ZIP, 11 MB).
+FAQ
+Fragen und Antworten (FAQ) zur Stromspeicher-Strategie
+Öffnet Einzelsicht
+Newsletter "Energiewende direkt"
+abonnieren:
+Stromspeicher werden immer wichtiger (Ausgabe 01/2024)
+ABONNIEREN
+Stellungnahmen
+19.02.2024
+STELLUNGNAHME
+Energiespeicher
+Publikation:
+Stellungnahmen zur Konsultation der Stromspeicher-Strategie
+ZIP, 11 MB
+Öffnet ZIP "Stellungnahmen zur Konsultation der Stromspeicher-Strategie" in neuem Fenster.
+Weiterführende Informationen
+08.12.2023
+DOWNLOAD
+Stromspeicher-Strategie
+­Handlungsfelder und Maßnahmen für eine anhaltende Ausbaudynamik und optimale Systemintegration von Stromspeichern – barrierefrei
+PDF, 2 MB
+Öffnet PDF "Stromspeicher-Strategie" in neuem Fenster.
+PUBLIKATION
+Electricity Storage Strategy
+Fields of action and measures to ensure a persistent and dynamic expansion of electricity storage facilities and their optimal systems integration – barrier-free
+Öffnet PDF "Electricity Storage Strategy" in neuem Fenster.
+Tracking-Einwilligung
+Einwilligung zum Videodienst JW-Player
+Das Ministerium präsentiert seine Arbeit auf dieser Webseite auch in Form von Videos. Diese werden vom deutschen Anbieter TV1 mit Hilfe des JW-Players mit Sitz in den USA ausgeliefert. Bitte willigen Sie in die Übertragung Ihrer IP-Adresse und anderer technischer Daten an den JW-Player ein, und erlauben Sie JW-Player, Cookies auf Ihrem Endgerät zu setzen, wenn Sie unser Video-Angebot nutzen wollen. Verantwortlich für diese Verarbeitung Ihrer Daten ist das Bundesministerium für Wirtschaft und Klimaschutz. Unsere Datenschutzbeauftragte erreichen Sie unter datenschutzbeauftragte@bmwk.bund.de. Als Rechtsgrundlage dient uns Ihre Einwilligung nach § 25 Abs. 1 TTDSG i. V. m. Artikel 6 Abs. 1 lit. a) DSGVO und § 3 Abs. 1 EGovG. Wir haben sichergestellt, dass Sie Ihre Einwilligung jederzeit für die Zukunft widerrufen können. Über die Einwilligungsverwaltung am Ende der Seite können Sie jederzeit steuern, ob Sie den Videodienst JW-Player zur Übertragung freigeben oder nicht.
+Einwilligen
+Link direkt zur Hauptnavigation und Suche
+Link direkt zum Inhalt
+Link direkt zur Servicenavigation
+Menü
+SUCHE STARTEN
+EN
+FR
+Suche
+Suche starten
+Themen
+Service
+Ministerium
+Medienraum
+Kontakt
+Pressekontakt
+Bürgerdialog
+BMWK A bis Z
+BMWK
+Leitbild
+Schwerpunkte
+Wirtschaft
+Wettbewerbs- und Ordnungspolitik
+Regionale Wirtschafts- und Strukturpolitik
+Konjunktur und Wachstum
+Öffentliche Aufträge und Vergabe
+Wirtschaftspolitische Forschung und Analyse
+Frauen in der Wirtschaft
+Wirtschaft verstehen, Zukunft gestalten!
+Klimaschutz
+Nationale Klimaschutzpolitik
+Systementwicklungsstrategie
+Emissionshandel
+Europäische Klimaschutzpolitik
+Internationale Klimaschutzpolitik
+Klimaneutrale Bundesverwaltung
+Motive und Ziele
+Europa
+Das BMWK als Europaministerium
+Europäische Wirtschaftspolitik
+Beihilfen
+EU-Finanzen und Europäisches Semester
+Kompetenzzentrum Europarecht
+Bilaterale Beziehungen
+Ausfuhr- und Rüstungsexportkontrolle
+Sanktionen
+Energie
+Energieeffizienz
+Energiewende
+Energiepreisbremsen
+Energiewende im Gebäudebereich
+Wasserstoffstrategie
+Erneuerbare Energien
+Netze und Netzausbau
+Strommarkt der Zukunft
+Roadmap Systemstabilität
+Energieforschung und Innovation
+Europäische und internationale Energiepolitik
+Bilaterale Klima- und Energiepartnerschaften und Energiedialoge
+Industrie
+Moderne Industriepolitik
+Industrie 4.0
+Bündnis "Zukunft der Industrie"
+Elektromobilität
+Luft- und Raumfahrt
+Maritime Wirtschaft
+Rohstoffe und Ressourcen
+Industrielle Bioökonomie
+Mikroelektronik
+Gesundheitswirtschaft
+Außenwirtschaft
+Russland-Sanktionen: Fragen und Antworten
+Handelspolitik
+Investitionsschutz
+Außenwirtschaftsförderung
+Rüstungsexportkontrolle
+OECD-Leitsätze für multinationale Unternehmen
+Digitale Welt und Innovation
+Digitalisierung
+„Digital Jetzt“– Eine Förderung für die Digitalisierung des Mittelstands
+Mittelstand digitalisieren
+Innovationspolitik
+Transferinitiative
+Kultur- und Kreativwirtschaft
+Games
+Mittelstand
+Politik für den Mittelstand
+Bürokratieabbau
+Cybersicherheit im Mittelstand
+Mittelstandsfinanzierung
+Existenzgründung
+Fachkräftesicherung
+Handwerkspolitik und -förderung
+Tourismuspolitik
+Ausbildung &amp; Beruf
+Ausbildung und Beruf
+Publikationen
+Evaluationen
+Veranstaltungen
+Wettbewerbe
+Ausschreibungen
+Parlamentarische Anfragen
+Themenportale
+Presse
+Presseservice
+Pressemitteilungen
+Pressefotos
+Beratungsangebote
+Informationsfreiheit
+Soziale Netzwerke
+Gesetzesvorhaben
+Laufende Gesetzgebungsverfahren
+Gesetze und Verordnungen
+Informationsdienste
+Abo-Service: Newsletter hier abonnieren
+RSS-Newsfeed
+Open Data
+Hilfe und Support
+Benutzerhinweise
+Datenschutzerklärung
+Gebärdensprache
+Leichte Sprache
+Minister
+Die Staatssekretärinnen und Staatssekretäre
+Koordinatoren und Beauftragte
+Aufgaben und Struktur
+Geschäftsbereich
+Organigramm
+Haushalt
+Gremien
+Beiräte
+Initiativen
+Zuwendungsempfänger
+Willkommen im BMWK
+Besuch im BMWK
+Anfahrtsplan des BMWK
+BMWK als Arbeitgeber
+Gute Gründe für eine Bewerbung im BMWK
+Bewerbung
+Ausbildung
+Referendariat und Praktikum
+Stellenangebote und Ausbildungsplätze
+Fragen und Antworten
+Geschichte
+Wirtschaftspolitik 1949 bis heute
+Ministergalerie
+Geschichtskommission
+Architektur
+Geschichte des BMWK
+Schliessen
+facebook
+youtube
+x
+instagram
+linkedin
+threads
+tiktok
+© 2024 Bundesministerium für Wirtschaft und Klimaschutz
+Impressum
+Barrierefreiheit
+Datenschutz
+Einwilligungsverwaltung
+Zum Seitenanfang
+Einwilligung in Tracking und / oder Videodienste
+Wir bitten Sie an dieser Stelle um Ihre Einwilligung für verschiedene Zusatzdienste unserer Webseite: Wir möchten die Nutzeraktivität mit Hilfe datenschutzfreundlicher Statistiken verstehen, um unsere Öffentlichkeitsarbeit zu verbessern. Zusätzlich können Sie in die Nutzung zweier Videodienste einwilligen. Nähere Informationen zu allen Diensten finden Sie, wenn Sie die Pluszeichen rechts aufklappen. Sie können Ihre Einwilligungen jederzeit erteilen oder für die Zukunft widerrufen. Rufen Sie dazu bitte diese Einwilligungsverwaltung über den Link am Ende der Seite erneut auf.
+Auswahl bestätigenAlle bestätigen
+Technisch notwendig (nicht abwählbar)
+Statistik
+Einwilligung zum Videodienst Live-Pressekonferenzen über Vimeo
+Ausführliche Informationen über Ihre Betroffenenrechte und darüber, wie wir Ihre Privatsphäre schützen, entnehmen Sie bitte unserer Datenschutzerklärung.
+Diese Webseite setzt temporäre Session Cookies. Diese sind technisch notwendig und deshalb nicht abwählbar. Sie dienen ausschließlich dazu, Ihnen die Nutzung der Webseite zu ermöglichen.
+Unsere Datenerhebung zu statistischen Zwecken funktioniert so: Ihre Zustimmung vorausgesetzt, leitet ein Skript auf unserer Webseite automatisch Ihre IP-Adresse und den sog. User Agent an die etracker GmbH weiter. Hier wird Ihre IP-Adresse unmittelbar und automatisch gekürzt. Anschließend pseudonymisiert die Software die übermittelten Daten ausschließlich zu dem Zweck, Mehrfachnutzungen in der Sitzung feststellen zu können. Nach Ablauf von 7 Tagen wird jede Zuordnung zur Sitzung gelöscht, und Ihre statistischen Daten liegen gänzlich anonymisiert vor. Etracker ist ein deutsches Unternehmen, und verarbeitet Ihre Daten ausschließlich in unserem Auftrag auf geschützten Servern. An weitere Dritte werden sie nicht übermittelt. Verantwortlich für diese Verarbeitung Ihrer Daten ist das Bundesministerium für Wirtschaft und Klimaschutz. Unsere Datenschutzbeauftragte erreichen Sie unter datenschutzbeauftragte@bmwk.bund.de. Als Rechtsgrundlage dient uns Ihre Einwilligung nach § 25 Abs. 1 TTDSG i. V. m. Artikel 6 Abs. 1 lit. a) DSGVO und § 3 Abs. 1 EGovG. Wir haben sichergestellt, dass Sie Ihre Einwilligung jederzeit für die Zukunft widerrufen können. Rufen Sie dazu bitte diese Einwilligungsverwaltung über den Link am Ende der Seite erneut auf.
+Die Live-Übertragung von Pressekonferenzen des Ministeriums erfolgt über die Infrastruktur des amerikanischen Dienstleisters Vimeo.com. Bitte willigen Sie in die Übertragung Ihrer IP-Adresse und anderer technischer Daten an Vimeo ein, und erlauben Sie Vimeo, Cookies auf Ihrem Endgerät zu setzen, wenn Sie unseren Livestream-Videodienst nutzen wollen. Verantwortlich für diese Verarbeitung Ihrer Daten ist das Bundesministerium für Wirtschaft und Klimaschutz. Unsere Datenschutzbeauftragte erreichen Sie unter datenschutzbeauftragte@bmwk.bund.de. Als Rechtsgrundlage dient uns Ihre Einwilligung nach § 25 Abs. 1 TTDSG i. V. m. Artikel 6 Abs. 1 lit. a) DSGVO und § 3 Abs. 1 EGovG. Wir haben sichergestellt, dass Sie Ihre Einwilligung jederzeit für die Zukunft widerrufen können. Über die Einwilligungsverwaltung am Ende der Seite können Sie steuern, ob Sie den Videodienst Vimeo zur Live-Übertragung freigeben wird oder nicht.</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-28 08:22:27</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Bundesnetzagentur</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>https://www.bundesnetzagentur.de/DE/Home/home_node.html</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>Energieregulierung
 Aktuelles zum EnWG
@@ -1612,19 +3401,549 @@
 Genehmigungsverfahren für die Leitung von Grafenrheinfeld nach Großgartach abgeschlossen</t>
         </is>
       </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>Energieregulierung
+Aktuelles zum EnWG
+Zu den Informationen
+Gasversorgung
+Aktuelle Lage der Gasversorgung und Hintergrundinformationen
+Aktuelle Lage der Gasversorgung
+Beschlusskammern
+In den Beschlusskammern werden Regulierungsentscheidungen getroffen.
+Zu den Beschlusskammern
+Insight Blog
+Der Blog der Netze - Lesenswertes zu den Themen der Zukunft und der Arbeit der BNetzA.
+Zum Blog
+Updates per E-Mail
+Mailadresse
+BNetzA Aktuell
+27.08.2024 Elektrizität und Gas
+Ausschreibung Biomasse: Gebotstermin 1. Oktober 2024
+Ausschreibung Solaranlagen zweites Segment: Gebotstermin 1. Oktober 2024
+26.08.2024 Telekommunikation
+Termine für Amateurfunkprüfungen (Stand 26. August 2024) (pdf, 45 KB)
+23.08.2024
+Wir sind auf der #gamescom2024! Besucht uns im Bereich "Jobs &amp; Career" und entdeckt spannende Karrieremöglichkeiten in IT &amp; Verwaltung. Noch bis Sonntag, 25. August, könnt ihr uns besuchen. Startet mit uns ins nächste Level eurer Karriere!
+23.08.2024 Insight Blog
+Der Feuerteufel in der Steckdose
+Funksteckdose fängt in Abwesenheit Feuer: Manche Geräte sind brandgefährlich. Dennoch geraten sie in den Handel. Wie sich die Online-Kundschaft schützen kann und wie wir Verbraucherinnen und Verbraucher schützen, berichten wir im #Insight-Blog 👉bundesnetzagentur.de/1024670
+22.08.2024
+In manchen Teilen Deutschlands gibt es mehr Windkraftanlagen, in anderen mehr PV-Anlagen. Welche Energieträge in deiner Nähe zur Stromerzeugung genutzt werden, verraten wir auf #SMARD: smard.de/page/home/topic-artic
+21.08.2024 Pressemitteilung
+Fortschritt beim Netzausbau: Bundesnetzagentur legt zweiten Trassenabschnitt für A-Nord fest
+Fortschritt beim Netzausbau:Trassenkorridor für Fulda-Main-Leitung festgelegt
+21.08.2024 Allgemeines
+Amtsblatt_16 (pdf, 397 KB)
+20.08.2024 Pressemitteilung
+Bundesnetzagentur leitet Verfahren gegen Energielieferanten ein
+20.08.2024
+Wir haben ein #Aufsichtsverfahren gegen die Elektrizitätsversorgung Berlin ElVeBe GmbH eingeleitet. Es besteht der Verdacht, dass das Unternehmen einige gesetzliche Voraussetzungen nicht einhält. Worum es genau geht ➡️➡️➡️ bundesnetzagentur.de/1023924
+16.08.2024 Pressemitteilung
+Fortschritt beim Netzausbau: Bundesnetzagentur schließt das Genehmigungsverfahren für die Leitung von Grafenrheinfeld nach Großgartach ab
+14.08.2024 Pressemitteilung
+Bundesnetzagentur legt Trasse für einen Abschnitt der Leitung Vieselbach - Mecklar fest
+14.08.2024
+Wolkenloser Himmel und strahlender Sonnenschein: Das gute Wetter hat am Wochenende für besonders gute Ergebnisse bei der Einspeisung durch #Erneuerbare gesorgt. In 11,5 Stunden konnten die Erneuerbaren die gesamte Netzlast in 🇩🇪 decken: smard.de/sharing/page/6526
+#SMARD
+13.08.2024 Elektrizität und Gas
+Engpasserlösbericht
+13.08.2024 Pressemitteilung
+Bundesnetzagentur genehmigt Verstärkung der Leitung zwischen Wullenstetten und Niederwangen
+12.08.2024
+Die Ergebnisse der #Offshore-Ausschreibungen für zentral voruntersuchte Flächen zum Gebotstermin 1. August 2024 sind veröffentlicht. Es handelt sich um Flächen in der Nordsee mit einer Gesamtleistung von 5.500 MW. Details zur Bekanntgabe 👉 bundesnetzagentur.de/1021880
+Die erste außergerichtliche Streitbeilegungsstelle in 🇩🇪 nach dem #DSA ist zertifiziert: Es ist die User Rights GmbH mit Sitz in Berlin. Die Stelle konzentriert sich auf Streitschlichtungen bei Social-Media-Plattformen. ➡️➡️➡️bundesnetzagentur.de/1019662
+12.08.2024 Pressemitteilung
+Ergebnisse der Offshore-Ausschreibungen für zentral voruntersuchte Flächen
+09.08.2024
+Die Zahl der Beschwerden zu Rufnummernmissbrauch erreichte auch 2023 ein hohes Niveau. Ein großer Teil betraf Belästigungen über Kurznachrichten, insbesondere im Zusammenhang mit dem sog. #Enkeltrick.
+#JahresberichtTK
+➡️www.bundesnetzagentur.de/berichte
+07.08.2024
+Wie hoch ist aktuell der deutsche Großhandelspreis für #Strom an der Börse? Die Antwort findet ihr in interaktiven Dashboards auf #SMARD. Dort gibt es auch viele weitere Daten rund um den Energiemarkt:
+smard.de/sharing/page/6519
+youtu.be/LBWNN_9LAis?si=Y2VSkn
+07.08.2024 Allgemeines
+Amtsblatt_15 (pdf, 1.020 KB)
+31.07.2024
+Störungsfreie Übertragung bei der Vorrunde im #Beachvolleyball: ✅. Dieses Mal war unser Prüf- und Messdienst beim Spiel des 🇩🇪 Duos Ludwig/Lippmann im Einsatz. Den beiden Athletinnen wünschen wir im weiteren Turnierverlauf viel 🍀. #Paris2024 #TeamD
+Die Verbreitung aktiver Glasfaseranschlüsse stieg 2023 auf 4,3 Mio. und übertraf den Bestand Ende 2022 um ca. 900.000. Infos im #JahresberichtTK unter bundesnetzagentur.de/berichte
+29.07.2024
+Im 🇩🇪 #Stromnetz gibt es vier Netzebenen. Aber was ist eigentlich der Unterschied? Das erläutern wir im neuesten Artikel auf unserer Energiemarkt-Plattform #SMARD: smard.de/page/home/wiki-articl
+26.07.2024 Elektrizität und Gas
+Innovationsausschreibungen: Gebotstermin 1. September 2024
+12.08.2024 Elektrizität und Gas
+Biomethan: Gebotstermin 1. September 2024
+24.07.2024 Pressemitteilung
+Bundesnetzagentur plant Reform der Netzentgelte für Industrie
+24.07.2024 Allgemeines
+Amtsblatt_14 (pdf, 2 MB)
+23.07.2024 Pressemitteilung
+Ergebnisse der Ausschreibung für Solar auf Gebäuden und Lärmschutzwänden
+23.07.2024 Elektrizität und Gas
+Ausschreibung Solaranlagen zweites Segment: Gebotstermin 1. Juni 2024
+Verbraucherportal
+Der direkte Weg zu den häufigsten Verbraucherfragen.
+Wählen Sie Ihr Thema
+Bitte auswählen
+Entlastungen bei Energiepreisen
+Ärger mit Rufnummern und Anrufen
+Internet und Telefon
+Internetgeschwindigkeit
+Lieferantenwechsel / Kündigung
+Post
+Schlichtung
+Los
+Fachthemen
+Auswahl der Themenbereiche für unser Fachpublikum
+Energie
+Telekom­munikation
+Digitalisierung
+Eisenbahnen
+Datenportal
+Zahlen und Daten der Bundesnetzagentur
+Zum Datenportal
+Ausbildung &amp; Studium
+Eine solide Ausbildung, gute Aufstiegsmöglichkeiten, spannende Aufgaben und ein tolles Team warten auf dich!
+Zu den Informationen und Angeboten
+Karriere
+Verwaltungstalent oder Techniker*in (w/m/d) im Frequenzmanagement
+Ingenieur*innen (w/m/d) für unseren Prüf- und Messdienst
+Alle 25 Einträge ansehen
+Mediathek
+In der Mediathek finden Sie Berichte, Interviews, Bilder, Videos und weitere Informationen der Bundesnetzagentur.
+Zur Mediathek
+Interessante Links
+Pfeil nach links
+Pfeil nach rechts
+Navigation und Service
+Springe direkt zu:
+Inhalt
+Hauptmenu
+Suche
+Service
+KONTAKT
+ENGLISH
+LEICHTE SPRACHE
+GEBÄRDENSPRACHE VIDEOS
+RSS
+Fachthemen Verbraucherportal Datenportal Bundesnetzagentur Presse
+Startseite der Bundesnetzagentur
+Offshore Windenergie
+Ergebnisse der Ausschreibungen für zentral voruntersuchte Flächen veröffentlicht
+Zurück und Pause
+4 / 5
+Vor und Pause
+Pause
+Seite drucken Seite teilen Kurzlink
+Folgen Sie uns
+© BUNDESNETZAGENTUR - 2024
+ServiceMenu
+IMPRESSUM
+BARRIEREFREIHEIT
+DATENSCHUTZ
+INHALTSVERZEICHNIS
+Breitbandversorgung
+Funk und Frequenzen
+Marktregulierung
+Nummerierung
+Unternehmenspflichten
+Technik und Produktsicherheit
+Öffentliche Sicherheit
+Marktdaten
+Grundversorgung
+Unterversorgungsfeststellung
+Resilienz der Netze
+Beschlusskammer 2
+Beschlusskammer 3
+Beschlusskammer 11
+Digital Services Coordinator
+Platform-to-Business-Verordnung
+Technologien und Geschäftsmodelle
+Blockchain Infoportal
+Künstliche Intelligenz
+Online-Kommunikationsdienste
+Digitale Transformation
+Internet
+Netzneutralität
+Geoblocking
+Bekämpfung terroristischer Inhalte
+Internet of Things
+Peering- und Transitmärkte
+Digitale Transformation Mittelstand
+Kennzahlen
+Anlaufstellen für KMU (Datenbank)
+Best-Practice Übersicht
+Förderprogramme Bund
+Daten
+Förderwettbewerb Gaia-X
+Datenökonomie
+Datennutzungsgesetz
+Nachhaltigkeit
+Digitale Geschäftsmodelle
+Anreizsysteme KMU
+Indikatorenstudie
+Veranstaltungen
+Aktuelles
+Anbieterverzeichnis
+Marktbeobachtung
+Jährliche Datenerhebung
+Marktuntersuchungen
+Internationaler Briefpreisvergleich
+Paketpreisvergleich
+Meldestelle für Hinweisgebende
+Postgeheimnis und Datenschutz
+Postmarktprüfungen
+Qualitätsmonitoring
+Regelungen zur Postversorgung
+Sicherstellung des Postwesens
+Standardisierung
+Teilleistungen - Zugang und Entgelte
+Digitales und Telekommunikation
+Anfragen und Beschwerden
+Verbraucher-Radar
+Bundesnetzagentur
+Über uns
+Präsidium
+Aufgaben und Struktur
+Ausbildung und Studium
+Podcast Akte Tulpenfeld
+Beiräte, Gremien, Beauftragte
+Beirat
+Eisenbahninfrastrukturbeirat
+Bundesfachplanungsbeirat
+Länderausschuss
+Wissenschaftlicher Arbeitskreis für Regulierungsfragen
+Korruptionsprävention
+Internationales und Europa
+Energie (Internationales)
+ACER
+CEER
+PCI
+Telekommunikation
+BEREC
+IRG
+CEPT
+ITU
+RSPG
+RSC
+ERGP
+CEPT - CERP
+CEN
+UPU
+ISO
+IRG-Rail
+ENRRB
+Qualifizierte elektronische Signatur
+Shared Service Center
+Ausschreibungen
+Standorte
+Öffentliche Zustellung
+Kontakt
+Presse
+Pressemitteilungen
+Pressekontakt
+Amtsblatt
+Navigation
+Fortschritt beim Netzausbau      Bundesnetzagentur legt zweiten Trassenabschnitt für A-Nord fest
+Digital Services Coordinator      DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen
+Stromnetzausbau      Genehmigungsverfahren für die Leitung von Grafenrheinfeld nach Großgartach abgeschlossen
+Wasserstoff      Bundesnetzagentur erhält den Antrag für das Wasserstoff-Kernnetz
+Inhalte teilen
+per E-Mail schicken
+×
+Fortschritt beim Netzausbau
+Bundesnetzagentur legt zweiten Trassenabschnitt für A-Nord fest
+DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen
+Stromnetzausbau
+Genehmigungsverfahren für die Leitung von Grafenrheinfeld nach Großgartach abgeschlossen
+Wasserstoff
+Bundesnetzagentur erhält den Antrag für das Wasserstoff-Kernnetz</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>Energieregulierung
+Aktuelles zum EnWG
+Zu den Informationen
+Gasversorgung
+Aktuelle Lage der Gasversorgung und Hintergrundinformationen
+Aktuelle Lage der Gasversorgung
+Beschlusskammern
+In den Beschlusskammern werden Regulierungsentscheidungen getroffen.
+Zu den Beschlusskammern
+Insight Blog
+Der Blog der Netze - Lesenswertes zu den Themen der Zukunft und der Arbeit der BNetzA.
+Zum Blog
+Updates per E-Mail
+Mailadresse
+BNetzA Aktuell
+27.08.2024 Elektrizität und Gas
+Ausschreibung Biomasse: Gebotstermin 1. Oktober 2024
+Ausschreibung Solaranlagen zweites Segment: Gebotstermin 1. Oktober 2024
+26.08.2024 Telekommunikation
+Termine für Amateurfunkprüfungen (Stand 26. August 2024) (pdf, 45 KB)
+23.08.2024
+Wir sind auf der #gamescom2024! Besucht uns im Bereich "Jobs &amp; Career" und entdeckt spannende Karrieremöglichkeiten in IT &amp; Verwaltung. Noch bis Sonntag, 25. August, könnt ihr uns besuchen. Startet mit uns ins nächste Level eurer Karriere!
+23.08.2024 Insight Blog
+Der Feuerteufel in der Steckdose
+Funksteckdose fängt in Abwesenheit Feuer: Manche Geräte sind brandgefährlich. Dennoch geraten sie in den Handel. Wie sich die Online-Kundschaft schützen kann und wie wir Verbraucherinnen und Verbraucher schützen, berichten wir im #Insight-Blog 👉bundesnetzagentur.de/1024670
+22.08.2024
+In manchen Teilen Deutschlands gibt es mehr Windkraftanlagen, in anderen mehr PV-Anlagen. Welche Energieträge in deiner Nähe zur Stromerzeugung genutzt werden, verraten wir auf #SMARD: smard.de/page/home/topic-artic
+21.08.2024 Pressemitteilung
+Fortschritt beim Netzausbau: Bundesnetzagentur legt zweiten Trassenabschnitt für A-Nord fest
+Fortschritt beim Netzausbau:Trassenkorridor für Fulda-Main-Leitung festgelegt
+21.08.2024 Allgemeines
+Amtsblatt_16 (pdf, 397 KB)
+20.08.2024 Pressemitteilung
+Bundesnetzagentur leitet Verfahren gegen Energielieferanten ein
+20.08.2024
+Wir haben ein #Aufsichtsverfahren gegen die Elektrizitätsversorgung Berlin ElVeBe GmbH eingeleitet. Es besteht der Verdacht, dass das Unternehmen einige gesetzliche Voraussetzungen nicht einhält. Worum es genau geht ➡️➡️➡️ bundesnetzagentur.de/1023924
+16.08.2024 Pressemitteilung
+Fortschritt beim Netzausbau: Bundesnetzagentur schließt das Genehmigungsverfahren für die Leitung von Grafenrheinfeld nach Großgartach ab
+14.08.2024 Pressemitteilung
+Bundesnetzagentur legt Trasse für einen Abschnitt der Leitung Vieselbach - Mecklar fest
+14.08.2024
+Wolkenloser Himmel und strahlender Sonnenschein: Das gute Wetter hat am Wochenende für besonders gute Ergebnisse bei der Einspeisung durch #Erneuerbare gesorgt. In 11,5 Stunden konnten die Erneuerbaren die gesamte Netzlast in 🇩🇪 decken: smard.de/sharing/page/6526
+#SMARD
+13.08.2024 Elektrizität und Gas
+Engpasserlösbericht
+13.08.2024 Pressemitteilung
+Bundesnetzagentur genehmigt Verstärkung der Leitung zwischen Wullenstetten und Niederwangen
+12.08.2024
+Die Ergebnisse der #Offshore-Ausschreibungen für zentral voruntersuchte Flächen zum Gebotstermin 1. August 2024 sind veröffentlicht. Es handelt sich um Flächen in der Nordsee mit einer Gesamtleistung von 5.500 MW. Details zur Bekanntgabe 👉 bundesnetzagentur.de/1021880
+Die erste außergerichtliche Streitbeilegungsstelle in 🇩🇪 nach dem #DSA ist zertifiziert: Es ist die User Rights GmbH mit Sitz in Berlin. Die Stelle konzentriert sich auf Streitschlichtungen bei Social-Media-Plattformen. ➡️➡️➡️bundesnetzagentur.de/1019662
+12.08.2024 Pressemitteilung
+Ergebnisse der Offshore-Ausschreibungen für zentral voruntersuchte Flächen
+09.08.2024
+Die Zahl der Beschwerden zu Rufnummernmissbrauch erreichte auch 2023 ein hohes Niveau. Ein großer Teil betraf Belästigungen über Kurznachrichten, insbesondere im Zusammenhang mit dem sog. #Enkeltrick.
+#JahresberichtTK
+➡️www.bundesnetzagentur.de/berichte
+07.08.2024
+Wie hoch ist aktuell der deutsche Großhandelspreis für #Strom an der Börse? Die Antwort findet ihr in interaktiven Dashboards auf #SMARD. Dort gibt es auch viele weitere Daten rund um den Energiemarkt:
+smard.de/sharing/page/6519
+youtu.be/LBWNN_9LAis?si=Y2VSkn
+07.08.2024 Allgemeines
+Amtsblatt_15 (pdf, 1.020 KB)
+31.07.2024
+Störungsfreie Übertragung bei der Vorrunde im #Beachvolleyball: ✅. Dieses Mal war unser Prüf- und Messdienst beim Spiel des 🇩🇪 Duos Ludwig/Lippmann im Einsatz. Den beiden Athletinnen wünschen wir im weiteren Turnierverlauf viel 🍀. #Paris2024 #TeamD
+Die Verbreitung aktiver Glasfaseranschlüsse stieg 2023 auf 4,3 Mio. und übertraf den Bestand Ende 2022 um ca. 900.000. Infos im #JahresberichtTK unter bundesnetzagentur.de/berichte
+29.07.2024
+Im 🇩🇪 #Stromnetz gibt es vier Netzebenen. Aber was ist eigentlich der Unterschied? Das erläutern wir im neuesten Artikel auf unserer Energiemarkt-Plattform #SMARD: smard.de/page/home/wiki-articl
+26.07.2024 Elektrizität und Gas
+Innovationsausschreibungen: Gebotstermin 1. September 2024
+12.08.2024 Elektrizität und Gas
+Biomethan: Gebotstermin 1. September 2024
+24.07.2024 Pressemitteilung
+Bundesnetzagentur plant Reform der Netzentgelte für Industrie
+24.07.2024 Allgemeines
+Amtsblatt_14 (pdf, 2 MB)
+23.07.2024 Pressemitteilung
+Ergebnisse der Ausschreibung für Solar auf Gebäuden und Lärmschutzwänden
+23.07.2024 Elektrizität und Gas
+Ausschreibung Solaranlagen zweites Segment: Gebotstermin 1. Juni 2024
+Verbraucherportal
+Der direkte Weg zu den häufigsten Verbraucherfragen.
+Wählen Sie Ihr Thema
+Bitte auswählen
+Entlastungen bei Energiepreisen
+Ärger mit Rufnummern und Anrufen
+Internet und Telefon
+Internetgeschwindigkeit
+Lieferantenwechsel / Kündigung
+Post
+Schlichtung
+Los
+Fachthemen
+Auswahl der Themenbereiche für unser Fachpublikum
+Energie
+Telekom­munikation
+Digitalisierung
+Eisenbahnen
+Datenportal
+Zahlen und Daten der Bundesnetzagentur
+Zum Datenportal
+Ausbildung &amp; Studium
+Eine solide Ausbildung, gute Aufstiegsmöglichkeiten, spannende Aufgaben und ein tolles Team warten auf dich!
+Zu den Informationen und Angeboten
+Karriere
+Verwaltungstalent oder Techniker*in (w/m/d) im Frequenzmanagement
+Ingenieur*innen (w/m/d) für unseren Prüf- und Messdienst
+Alle 25 Einträge ansehen
+Mediathek
+In der Mediathek finden Sie Berichte, Interviews, Bilder, Videos und weitere Informationen der Bundesnetzagentur.
+Zur Mediathek
+Interessante Links
+Pfeil nach links
+Pfeil nach rechts
+Navigation und Service
+Springe direkt zu:
+Inhalt
+Hauptmenu
+Suche
+Service
+KONTAKT
+ENGLISH
+LEICHTE SPRACHE
+GEBÄRDENSPRACHE VIDEOS
+RSS
+Fachthemen Verbraucherportal Datenportal Bundesnetzagentur Presse
+Startseite der Bundesnetzagentur
+Offshore Windenergie
+Ergebnisse der Ausschreibungen für zentral voruntersuchte Flächen veröffentlicht
+Zurück und Pause
+4 / 5
+Vor und Pause
+Pause
+Seite drucken Seite teilen Kurzlink
+Folgen Sie uns
+© BUNDESNETZAGENTUR - 2024
+ServiceMenu
+IMPRESSUM
+BARRIEREFREIHEIT
+DATENSCHUTZ
+INHALTSVERZEICHNIS
+Breitbandversorgung
+Funk und Frequenzen
+Marktregulierung
+Nummerierung
+Unternehmenspflichten
+Technik und Produktsicherheit
+Öffentliche Sicherheit
+Marktdaten
+Grundversorgung
+Unterversorgungsfeststellung
+Resilienz der Netze
+Beschlusskammer 2
+Beschlusskammer 3
+Beschlusskammer 11
+Digital Services Coordinator
+Platform-to-Business-Verordnung
+Technologien und Geschäftsmodelle
+Blockchain Infoportal
+Künstliche Intelligenz
+Online-Kommunikationsdienste
+Digitale Transformation
+Internet
+Netzneutralität
+Geoblocking
+Bekämpfung terroristischer Inhalte
+Internet of Things
+Peering- und Transitmärkte
+Digitale Transformation Mittelstand
+Kennzahlen
+Anlaufstellen für KMU (Datenbank)
+Best-Practice Übersicht
+Förderprogramme Bund
+Daten
+Förderwettbewerb Gaia-X
+Datenökonomie
+Datennutzungsgesetz
+Nachhaltigkeit
+Digitale Geschäftsmodelle
+Anreizsysteme KMU
+Indikatorenstudie
+Veranstaltungen
+Aktuelles
+Anbieterverzeichnis
+Marktbeobachtung
+Jährliche Datenerhebung
+Marktuntersuchungen
+Internationaler Briefpreisvergleich
+Paketpreisvergleich
+Meldestelle für Hinweisgebende
+Postgeheimnis und Datenschutz
+Postmarktprüfungen
+Qualitätsmonitoring
+Regelungen zur Postversorgung
+Sicherstellung des Postwesens
+Standardisierung
+Teilleistungen - Zugang und Entgelte
+Digitales und Telekommunikation
+Anfragen und Beschwerden
+Verbraucher-Radar
+Bundesnetzagentur
+Über uns
+Präsidium
+Aufgaben und Struktur
+Ausbildung und Studium
+Podcast Akte Tulpenfeld
+Beiräte, Gremien, Beauftragte
+Beirat
+Eisenbahninfrastrukturbeirat
+Bundesfachplanungsbeirat
+Länderausschuss
+Wissenschaftlicher Arbeitskreis für Regulierungsfragen
+Korruptionsprävention
+Internationales und Europa
+Energie (Internationales)
+ACER
+CEER
+PCI
+Telekommunikation
+BEREC
+IRG
+CEPT
+ITU
+RSPG
+RSC
+ERGP
+CEPT - CERP
+CEN
+UPU
+ISO
+IRG-Rail
+ENRRB
+Qualifizierte elektronische Signatur
+Shared Service Center
+Ausschreibungen
+Standorte
+Öffentliche Zustellung
+Kontakt
+Presse
+Pressemitteilungen
+Pressekontakt
+Amtsblatt
+Navigation
+Fortschritt beim Netzausbau      Bundesnetzagentur legt zweiten Trassenabschnitt für A-Nord fest
+Digital Services Coordinator      DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen
+Stromnetzausbau      Genehmigungsverfahren für die Leitung von Grafenrheinfeld nach Großgartach abgeschlossen
+Wasserstoff      Bundesnetzagentur erhält den Antrag für das Wasserstoff-Kernnetz
+Inhalte teilen
+per E-Mail schicken
+×
+Fortschritt beim Netzausbau
+Bundesnetzagentur legt zweiten Trassenabschnitt für A-Nord fest
+DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen
+Stromnetzausbau
+Genehmigungsverfahren für die Leitung von Grafenrheinfeld nach Großgartach abgeschlossen
+Wasserstoff
+Bundesnetzagentur erhält den Antrag für das Wasserstoff-Kernnetz</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-28 08:22:27</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>BVES</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>https://www.bves.de/</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>Der BVES
 AUFGABEN &amp;
@@ -1754,19 +4073,289 @@
 previousnextslideshow</t>
         </is>
       </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>Der BVES
+AUFGABEN &amp;
+MISSION DES BVES
+Der Bundesverband Energiespeicher Systeme e.V. (BVES) vertritt die Interessen von Unternehmen und Institutionen mit dem gemeinsamen Ziel der Entwicklung, Vermarktung und dem Einsatz von Energiespeichersystemen in den Sektoren Strom, Wärme und Mobilität. Als technologieoffener Industrie-Verband ist der BVES Dialogpartner für Politik, Verwaltung, Wissenschaft und die breite Öffentlichkeit.
+Mehr erfahren
+Energiespeicher
+ENERGIESPEICHER
+UND IHRE MÄRKTE
+HAUSHALTE
+SELBSTVERSORGUNG UND KOSTENREDUKTION
+INDUSTRIE &amp; GEWERBE
+DEKARBONISIERUNG UND STEIGERUNG DER ENERGIEEFFIZIENZ
+SYSTEMINFRASTRUKTUR
+NETZSTABILITÄT UND VERSORGUNGSSICHERHEIT
+Aktuelles
+BVES
+BRANCHENNEWS
+Wir behalten den Markt, die Forschung und die Politik für Sie im Auge. Und fassen unsere Beobachtungen für Sie zusammen! In unseren Branchennews informieren wir Sie über die aktuellsten Entwicklungen.
+Alle Branchennews
+Verbandsnachricht
+AwSV-Hin­weis­pa­pier: Aus­wir­kun­gen auf Lithium-Ionen-Bat­te­rien
+BVES bei EEW-Stake­hol­der­kon­sul­ta­tion: Strom­ba­sierte Pro­zess­wär­me­er­zeu­gung mit­den­ken!
+KOMMENDE
+TERMINE
+03.09.2024
+BVES Sta­tus­kon­fe­renz Stan­dards und Nor­mung 2024
+Online — Nur für BVES-Mit­glie­der
+17.09.2024
+BVES AG Finan­zen
+18.09.2024
+BVES Brand­schutz­leit­fa­den Über­ar­bei­tung 2024
+BVES AG Ener­gie­recht
+19.09.2024
+BVES AG Was­ser­stoff &amp; PtX
+Event in Ber­lin — Nur für BVES-Mit­glie­der
+Alle Termine
+Mitglieder
+WER IST SCHON DABEI?
+Mitglied werden
+WERDEN SIE TEIL DES NETZWERKS NUMMER 1
+Kontakt
+WIR SIND FÜR SIE DA
+Name
+E-Mail-Adresse
+Telefon
+Nachricht
+Ich akzeptiere die Datenschutzbedingungen
+Nach oben
+Ener­gie­spei­cher
+Aktu­el­les
+Mit­glied wer­den
+EN
+Leitfaden
+BVES IN BRUSSEL
+WORKSHOP ZUR FÖRDERUNG DER NET-ZERO-TECHNOLOGIEHERSTELLUNG DER EU
+1
+2
+3
+4
+5
+BRAN­CHEN­NEWS
+PUBLI­KA­TIO­NEN
+PRES­SE­MIT­TEI­LUN­GEN
+VER­AN­STAL­TUN­GEN
+Auf­ga­ben &amp; Arbeit
+Per­so­nen &amp; Posi­tio­nen
+Bei­räte &amp; Fach­be­rei­che
+Haus­halte
+Indus­trie &amp; Gewerbe
+Sys­tem­in­fra­struk­tur
+Presse
+Kon­takt
+Daten­schutz
+Impres­sum
+© 2012 – 2023 • BVES – Bun­des­ver­band Ener­gie­spei­cher Sys­teme e.V.
+MITGLIED WERDEN
+GESTALTEN SIE AKTIV DIE ZUKUNFT DER ENERGIESPEICHER­BRANCHE MIT
+Veranstaltung
+BVES STATUSKONFERENZ
+STANDARDS &amp; NORMUNG 2024
+AWSV-HINWEISPAPIER:
+AUSWIRKUNGEN AUF LITHIUM-IONEN-BATTERIEN
+Pressemitteilung
+BVES STATUSKONFERENZ:
+WÄRMEWENDE BRAUCHT SPEICHER -  BREITER APPEL FÜR EINE SCHNELLE WÄRMESPEICHERSTRATEGIE
+×
+Datenschutzeinstellungen
+↓
+Wir benötigen Ihre Zustimmung, bevor Sie unsere Website weiter besuchen können.
+Wir verwenden Cookies und andere Technologien auf unserer Website. Einige von ihnen sind essenziell, während andere uns helfen, diese Website und Ihre Erfahrung zu verbessern. Personenbezogene Daten können verarbeitet werden (z. B. IP-Adressen), z. B. für personalisierte Anzeigen und Inhalte oder Anzeigen- und Inhaltsmessung. Weitere Informationen über die Verwendung Ihrer Daten finden Sie in unserer Datenschutzerklärung. Sie können Ihre Auswahl jederzeit unter Einstellungen widerrufen oder anpassen.
+Essenziell
+Statistiken
+Ich akzeptiere
+Nur essenzielle Cookies akzeptieren
+Individuelle Datenschutzeinstellungen
+Cookie-Details  Datenschutzerklärung  Impressum
+Wir verwenden Cookies und andere Technologien auf unserer Website. Einige von ihnen sind essenziell, während andere uns helfen, diese Website und Ihre Erfahrung zu verbessern. Personenbezogene Daten können verarbeitet werden (z. B. IP-Adressen), z. B. für personalisierte Anzeigen und Inhalte oder Anzeigen- und Inhaltsmessung. Weitere Informationen über die Verwendung Ihrer Daten finden Sie in unserer Datenschutzerklärung.
+Hier finden Sie eine Übersicht über alle verwendeten Cookies. Sie können Ihre Einwilligung zu ganzen Kategorien geben oder sich weitere Informationen anzeigen lassen und so nur bestimmte Cookies auswählen.
+Alle akzeptieren Speichern Nur essenzielle Cookies akzeptieren
+Zurück
+Essenziell (1)
+Essenzielle Cookies ermöglichen grundlegende Funktionen und sind für die einwandfreie Funktion der Website erforderlich.
+Cookie-Informationen anzeigen
+Statistiken (1)
+Statistik Cookies erfassen Informationen anonym. Diese Informationen helfen uns zu verstehen, wie unsere Besucher unsere Website nutzen.
+Datenschutzerklärung  Impressum
+Borlabs Cookie
+Anbieter
+Eigentümer dieser Website, Impressum
+Zweck
+Speichert die Einstellungen der Besucher, die in der Cookie Box von Borlabs Cookie ausgewählt wurden.
+Cookie Name
+borlabs-cookie
+Cookie Laufzeit
+1 Jahr
+Akzeptieren
+Matomo
+Cookie von Matomo für Website-Analysen. Erzeugt statistische Daten darüber, wie der Besucher die Website nutzt.
+Datenschutzerklärung
+https://www.bves.de/datenschutz/
+_pk_*.*
+13 Monate
+This website uses cookies and third party services.
+OK
+DE
+previousnextslideshow</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>Der BVES
+AUFGABEN &amp;
+MISSION DES BVES
+Der Bundesverband Energiespeicher Systeme e.V. (BVES) vertritt die Interessen von Unternehmen und Institutionen mit dem gemeinsamen Ziel der Entwicklung, Vermarktung und dem Einsatz von Energiespeichersystemen in den Sektoren Strom, Wärme und Mobilität. Als technologieoffener Industrie-Verband ist der BVES Dialogpartner für Politik, Verwaltung, Wissenschaft und die breite Öffentlichkeit.
+Mehr erfahren
+Energiespeicher
+ENERGIESPEICHER
+UND IHRE MÄRKTE
+HAUSHALTE
+SELBSTVERSORGUNG UND KOSTENREDUKTION
+INDUSTRIE &amp; GEWERBE
+DEKARBONISIERUNG UND STEIGERUNG DER ENERGIEEFFIZIENZ
+SYSTEMINFRASTRUKTUR
+NETZSTABILITÄT UND VERSORGUNGSSICHERHEIT
+Aktuelles
+BVES
+BRANCHENNEWS
+Wir behalten den Markt, die Forschung und die Politik für Sie im Auge. Und fassen unsere Beobachtungen für Sie zusammen! In unseren Branchennews informieren wir Sie über die aktuellsten Entwicklungen.
+Alle Branchennews
+Verbandsnachricht
+AwSV-Hin­weis­pa­pier: Aus­wir­kun­gen auf Lithium-Ionen-Bat­te­rien
+BVES bei EEW-Stake­hol­der­kon­sul­ta­tion: Strom­ba­sierte Pro­zess­wär­me­er­zeu­gung mit­den­ken!
+KOMMENDE
+TERMINE
+03.09.2024
+BVES Sta­tus­kon­fe­renz Stan­dards und Nor­mung 2024
+Online — Nur für BVES-Mit­glie­der
+17.09.2024
+BVES AG Finan­zen
+18.09.2024
+BVES Brand­schutz­leit­fa­den Über­ar­bei­tung 2024
+BVES AG Ener­gie­recht
+19.09.2024
+BVES AG Was­ser­stoff &amp; PtX
+Event in Ber­lin — Nur für BVES-Mit­glie­der
+Alle Termine
+Mitglieder
+WER IST SCHON DABEI?
+Mitglied werden
+WERDEN SIE TEIL DES NETZWERKS NUMMER 1
+Kontakt
+WIR SIND FÜR SIE DA
+Name
+E-Mail-Adresse
+Telefon
+Nachricht
+Ich akzeptiere die Datenschutzbedingungen
+Nach oben
+Ener­gie­spei­cher
+Aktu­el­les
+Mit­glied wer­den
+EN
+Leitfaden
+BVES IN BRUSSEL
+WORKSHOP ZUR FÖRDERUNG DER NET-ZERO-TECHNOLOGIEHERSTELLUNG DER EU
+1
+2
+3
+4
+5
+BRAN­CHEN­NEWS
+PUBLI­KA­TIO­NEN
+PRES­SE­MIT­TEI­LUN­GEN
+VER­AN­STAL­TUN­GEN
+Auf­ga­ben &amp; Arbeit
+Per­so­nen &amp; Posi­tio­nen
+Bei­räte &amp; Fach­be­rei­che
+Haus­halte
+Indus­trie &amp; Gewerbe
+Sys­tem­in­fra­struk­tur
+Presse
+Kon­takt
+Daten­schutz
+Impres­sum
+© 2012 – 2023 • BVES – Bun­des­ver­band Ener­gie­spei­cher Sys­teme e.V.
+MITGLIED WERDEN
+GESTALTEN SIE AKTIV DIE ZUKUNFT DER ENERGIESPEICHER­BRANCHE MIT
+Veranstaltung
+BVES STATUSKONFERENZ
+STANDARDS &amp; NORMUNG 2024
+AWSV-HINWEISPAPIER:
+AUSWIRKUNGEN AUF LITHIUM-IONEN-BATTERIEN
+Pressemitteilung
+BVES STATUSKONFERENZ:
+WÄRMEWENDE BRAUCHT SPEICHER -  BREITER APPEL FÜR EINE SCHNELLE WÄRMESPEICHERSTRATEGIE
+×
+Datenschutzeinstellungen
+↓
+Wir benötigen Ihre Zustimmung, bevor Sie unsere Website weiter besuchen können.
+Wir verwenden Cookies und andere Technologien auf unserer Website. Einige von ihnen sind essenziell, während andere uns helfen, diese Website und Ihre Erfahrung zu verbessern. Personenbezogene Daten können verarbeitet werden (z. B. IP-Adressen), z. B. für personalisierte Anzeigen und Inhalte oder Anzeigen- und Inhaltsmessung. Weitere Informationen über die Verwendung Ihrer Daten finden Sie in unserer Datenschutzerklärung. Sie können Ihre Auswahl jederzeit unter Einstellungen widerrufen oder anpassen.
+Essenziell
+Statistiken
+Ich akzeptiere
+Nur essenzielle Cookies akzeptieren
+Individuelle Datenschutzeinstellungen
+Cookie-Details  Datenschutzerklärung  Impressum
+Wir verwenden Cookies und andere Technologien auf unserer Website. Einige von ihnen sind essenziell, während andere uns helfen, diese Website und Ihre Erfahrung zu verbessern. Personenbezogene Daten können verarbeitet werden (z. B. IP-Adressen), z. B. für personalisierte Anzeigen und Inhalte oder Anzeigen- und Inhaltsmessung. Weitere Informationen über die Verwendung Ihrer Daten finden Sie in unserer Datenschutzerklärung.
+Hier finden Sie eine Übersicht über alle verwendeten Cookies. Sie können Ihre Einwilligung zu ganzen Kategorien geben oder sich weitere Informationen anzeigen lassen und so nur bestimmte Cookies auswählen.
+Alle akzeptieren Speichern Nur essenzielle Cookies akzeptieren
+Zurück
+Essenziell (1)
+Essenzielle Cookies ermöglichen grundlegende Funktionen und sind für die einwandfreie Funktion der Website erforderlich.
+Cookie-Informationen anzeigen
+Statistiken (1)
+Statistik Cookies erfassen Informationen anonym. Diese Informationen helfen uns zu verstehen, wie unsere Besucher unsere Website nutzen.
+Datenschutzerklärung  Impressum
+Borlabs Cookie
+Anbieter
+Eigentümer dieser Website, Impressum
+Zweck
+Speichert die Einstellungen der Besucher, die in der Cookie Box von Borlabs Cookie ausgewählt wurden.
+Cookie Name
+borlabs-cookie
+Cookie Laufzeit
+1 Jahr
+Akzeptieren
+Matomo
+Cookie von Matomo für Website-Analysen. Erzeugt statistische Daten darüber, wie der Besucher die Website nutzt.
+Datenschutzerklärung
+https://www.bves.de/datenschutz/
+_pk_*.*
+13 Monate
+This website uses cookies and third party services.
+OK
+DE
+previousnextslideshow</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-28 08:22:27</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>BDEW</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>https://www.bdew.de/</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>Menu
 Verband
@@ -1912,6 +4501,310 @@
 Sie übernehmen die  Interessenvertretung und bearbeiten länderspezifische Themen.</t>
         </is>
       </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>Menu
+Verband
+Energie
+Wasser/Abwasser
+Presse
+MAGAZIN
+Service
+Übersicht
+Erdgas, Strom und Heizwärme sowie Wasser und Abwasser. Der BDEW vertritt über 2000 Unternehmen.
+Zum Verband
+Über uns
+KMU-Vertretung
+BDEW-Vertretung bei der EU
+Landesorganisationen
+Mitglieder
+Mitglied werden
+Karriere
+Kontakt und Anfahrt
+Zum Magazin
+Dossiers
+Ausgewählte Themen der Energiewirtschaft auf einen Blick.
+Wasserstoff
+Digitalisierung
+Gas
+Themen
+Elektromobilität
+Energieeffizienz
+Energiepolitik
+Erneuerbare Energien
+Sektorkopplung
+Stromerzeugung
+Wärme
+Weitere Energiethemen
+Ausführliche Informationen und Hintergründe zu aktuellen Entwicklungen in der Trinkwasser- und Abwasserwirtschaft.
+Spurenstoffe in Gewässern
+Nitrat im Grundwasser
+Abwasser
+Benchmarking und Branchenbild
+Digitalisierung der Wasserwirtschaft
+Entgelte/Gebühren
+Kommunikation
+Ordnungspolitik
+Trinkwasser
+Weitere Wasser-/Abwasserthemen
+Informationen für Journalisten
+Zum Pressecenter
+Presseinformationen
+Pressemappen
+Pressefotos
+Ansprechpartner
+"Zweitausend50" - das Online-Magazin
+STARTSEITE
+Schnittstelle
+Schulden bremsen?
+Asia Calling
+Mobilität
+ZUR ÜBERSICHT
+Der BDEW erarbeitet Branchenpositionen, findet Lösungen, erstellt Zahlenmaterial und Grafiken und bereitet diverse Informationen rund um die Themen der Energie- und Wasserwirtschaft auf.
+Anwendungshilfen
+BDEW Codes
+Bildung und Schule
+Datenplattform Stromkennzeichnung
+EDI@Energy
+Standardverträge
+Stellungnahmen
+Marktprozesse im Überblick
+Veranstaltungen
+Zu Daten und Grafiken
+Suche
+Anmelden
+BDEW-Anwendungshilfen im Überblick
+Gewusst wie: Aktuelle Leitfäden und Umsetzungshilfen des BDEW zu den Themen der Energie- und Wasserwirtschaft.
+MEHR ERFAHREN
+BDEW-Strompreisanalyse Juli 2024
+Detallierte Infos zu Steuern, Abgaben und Umlagen: So haben sich die Preise für Haushalte und Industrie entwickelt.
+ZUR ANALYSE
+Trinkwassergebrauch in Hitzeperioden:
+BDEW-Tipps für einen schonenden Umgang mit Trinkwasser in Hitzeperioden
+ZUR PRESSEINFORMATION
+BDEW-Gaspreisanalyse
+Einfamilien- und Mehrfamilienhäuser: Aktuelle Entwicklung der Gaspreise für Haushaltskunden in Deutschland.
+Der BDEW in Zahlen 2024
+38
+51
+165
+Fachartikel
+&gt;2000
+Alles Wasser Volt
+Deine Zukunft für eine nachhaltige Zukunft: Bewirb Dich jetzt in der Energie- und Wasserwirtschaft
+Die wichtigsten Themen der Energie- und Wasserwirtschaft im Überblick.
+Elek­tro­mo­bi­li­tät
+Wir bringen die En­er­gie­wen­de in den Ver­kehrs­sek­tor
+En­er­gie­ef­fi­zi­enz
+Eine wichtige Säule der En­er­gie­wen­de und Zu­kunfts­bran­che der En­er­gie­wirt­schaft.
+EU DSO Entity (EUDE)
+EUDE wird neue VNB-Or­ga­ni­sa­ti­on in der Eu­ro­päi­schen Union
+Di­gi­ta­li­sie­rung
+Eine Branche erfindet sich neu. Im Fokus der di­gi­ta­li­sier­ten En­er­gie­welt steht der Kunde.
+Der Wär­me­markt ist mit rund 59 Prozent größte End­ener­gie­ver­brauchs­sek­tor Deutsch­lands.
+Mul­ti­ta­lent für die En­er­gie­wen­de und Partner der Er­neu­er­ba­ren Energien
+Trink­was­ser­schutz
+For­de­run­gen der Was­ser­wirt­schaft zum richtigen Umgang mit Me­di­ka­men­ten.
+Re­dis­patch 2.0
+Ziel ist das ef­fi­zi­en­te Beheben von Net­z­eng­päs­sen über alle Netz­ebe­nen hinweg - Die Bran­chen­lö­sung im BDEW
+Der Verband
+Strom, Erdgas und Wärme sowie Wasser und Abwasser. Der BDEW vertritt über 2.000 Unternehmen der Branche.
+Services des Verbandes
+Daten und Grafiken
+BDEW-Magazin
+ÜBER UNS
+NEUE MITGLIEDER
+LANDESORGANISATIONEN
+Der BDEW ist die "eine Stimme" der Energie- und Wasserwirtschaft
+Wir gestalten die Energiewende und sind verlässlicher Partner für Politik, Kunden und Gesellschaft.
+Daten/Grafiken
+Bereiche und Abteilungen
+Der BDEW in den sozialen Netzwerken:
+Zum Mitgliederbereich
+LOGIN
+2024 BDEW
+Rechtliches | Impressum | Datenschutz
+0
+BDEW-Ver­an­stal­tun­gen
+BDEW Kongress, Treffpunkt Netze und mehr – Seien Sie dabei!
+Mehr erfahren
+An­bie­ter­lis­te Dienst­leis­ter Re­dis­patch 2.0
+Auf der Website des BDEW finden Sie eine offene Liste mit Unternehmen, die Dienstleistungen für Anlagenbetreiber im Rahmen des neuen Redispatchregimes erbringen.
+Zur Anbieterliste
+Unterrichtsmaterialien zu aktuellen Energie- und Wasser/Abwasser-Themen
+Mehr
+BDEW-We­bi­na­re
+Die aktuellen Themen der Energie- und Wasserwirtschaft - kostenfrei für Mitgliedsunternehmen.
+Zu den Webinaren
+In­stal­la­teur­ver­zeich­nis Strom/ Gas/ Wasser
+So gelangen Sie zu Ihren AnsprechpartnerInnen in den Landesinstallateurausschüssen
+Zur Übersicht
+VN­Bdi­gi­tal
+Netzanschluss, Netzausbaupläne und Regionalszenarien: Das Netzportal der Verteilnetzbetreiber
+Zum Portal
+Der BDEW begrüßt seine neuen Mitglieder
+Verstärkung für den BDEW: Erfahren Sie mehr über unsere neuen Mitglieder.
+Für Sie vor Ort: Die Landesorganisationen sind Ihr regionaler Ansprechpartner.
+Sie übernehmen die  Interessenvertretung und bearbeiten länderspezifische Themen.</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>Menu
+Verband
+Energie
+Wasser/Abwasser
+Presse
+MAGAZIN
+Service
+Übersicht
+Erdgas, Strom und Heizwärme sowie Wasser und Abwasser. Der BDEW vertritt über 2000 Unternehmen.
+Zum Verband
+Über uns
+KMU-Vertretung
+BDEW-Vertretung bei der EU
+Landesorganisationen
+Mitglieder
+Mitglied werden
+Karriere
+Kontakt und Anfahrt
+Zum Magazin
+Dossiers
+Ausgewählte Themen der Energiewirtschaft auf einen Blick.
+Wasserstoff
+Digitalisierung
+Gas
+Themen
+Elektromobilität
+Energieeffizienz
+Energiepolitik
+Erneuerbare Energien
+Sektorkopplung
+Stromerzeugung
+Wärme
+Weitere Energiethemen
+Ausführliche Informationen und Hintergründe zu aktuellen Entwicklungen in der Trinkwasser- und Abwasserwirtschaft.
+Spurenstoffe in Gewässern
+Nitrat im Grundwasser
+Abwasser
+Benchmarking und Branchenbild
+Digitalisierung der Wasserwirtschaft
+Entgelte/Gebühren
+Kommunikation
+Ordnungspolitik
+Trinkwasser
+Weitere Wasser-/Abwasserthemen
+Informationen für Journalisten
+Zum Pressecenter
+Presseinformationen
+Pressemappen
+Pressefotos
+Ansprechpartner
+"Zweitausend50" - das Online-Magazin
+STARTSEITE
+Schnittstelle
+Schulden bremsen?
+Asia Calling
+Mobilität
+ZUR ÜBERSICHT
+Der BDEW erarbeitet Branchenpositionen, findet Lösungen, erstellt Zahlenmaterial und Grafiken und bereitet diverse Informationen rund um die Themen der Energie- und Wasserwirtschaft auf.
+Anwendungshilfen
+BDEW Codes
+Bildung und Schule
+Datenplattform Stromkennzeichnung
+EDI@Energy
+Standardverträge
+Stellungnahmen
+Marktprozesse im Überblick
+Veranstaltungen
+Zu Daten und Grafiken
+Suche
+Anmelden
+BDEW-Anwendungshilfen im Überblick
+Gewusst wie: Aktuelle Leitfäden und Umsetzungshilfen des BDEW zu den Themen der Energie- und Wasserwirtschaft.
+MEHR ERFAHREN
+BDEW-Strompreisanalyse Juli 2024
+Detallierte Infos zu Steuern, Abgaben und Umlagen: So haben sich die Preise für Haushalte und Industrie entwickelt.
+ZUR ANALYSE
+Trinkwassergebrauch in Hitzeperioden:
+BDEW-Tipps für einen schonenden Umgang mit Trinkwasser in Hitzeperioden
+ZUR PRESSEINFORMATION
+BDEW-Gaspreisanalyse
+Einfamilien- und Mehrfamilienhäuser: Aktuelle Entwicklung der Gaspreise für Haushaltskunden in Deutschland.
+Der BDEW in Zahlen 2024
+38
+51
+165
+Fachartikel
+&gt;2000
+Alles Wasser Volt
+Deine Zukunft für eine nachhaltige Zukunft: Bewirb Dich jetzt in der Energie- und Wasserwirtschaft
+Die wichtigsten Themen der Energie- und Wasserwirtschaft im Überblick.
+Elek­tro­mo­bi­li­tät
+Wir bringen die En­er­gie­wen­de in den Ver­kehrs­sek­tor
+En­er­gie­ef­fi­zi­enz
+Eine wichtige Säule der En­er­gie­wen­de und Zu­kunfts­bran­che der En­er­gie­wirt­schaft.
+EU DSO Entity (EUDE)
+EUDE wird neue VNB-Or­ga­ni­sa­ti­on in der Eu­ro­päi­schen Union
+Di­gi­ta­li­sie­rung
+Eine Branche erfindet sich neu. Im Fokus der di­gi­ta­li­sier­ten En­er­gie­welt steht der Kunde.
+Der Wär­me­markt ist mit rund 59 Prozent größte End­ener­gie­ver­brauchs­sek­tor Deutsch­lands.
+Mul­ti­ta­lent für die En­er­gie­wen­de und Partner der Er­neu­er­ba­ren Energien
+Trink­was­ser­schutz
+For­de­run­gen der Was­ser­wirt­schaft zum richtigen Umgang mit Me­di­ka­men­ten.
+Re­dis­patch 2.0
+Ziel ist das ef­fi­zi­en­te Beheben von Net­z­eng­päs­sen über alle Netz­ebe­nen hinweg - Die Bran­chen­lö­sung im BDEW
+Der Verband
+Strom, Erdgas und Wärme sowie Wasser und Abwasser. Der BDEW vertritt über 2.000 Unternehmen der Branche.
+Services des Verbandes
+Daten und Grafiken
+BDEW-Magazin
+ÜBER UNS
+NEUE MITGLIEDER
+LANDESORGANISATIONEN
+Der BDEW ist die "eine Stimme" der Energie- und Wasserwirtschaft
+Wir gestalten die Energiewende und sind verlässlicher Partner für Politik, Kunden und Gesellschaft.
+Daten/Grafiken
+Bereiche und Abteilungen
+Der BDEW in den sozialen Netzwerken:
+Zum Mitgliederbereich
+LOGIN
+2024 BDEW
+Rechtliches | Impressum | Datenschutz
+0
+BDEW-Ver­an­stal­tun­gen
+BDEW Kongress, Treffpunkt Netze und mehr – Seien Sie dabei!
+Mehr erfahren
+An­bie­ter­lis­te Dienst­leis­ter Re­dis­patch 2.0
+Auf der Website des BDEW finden Sie eine offene Liste mit Unternehmen, die Dienstleistungen für Anlagenbetreiber im Rahmen des neuen Redispatchregimes erbringen.
+Zur Anbieterliste
+Unterrichtsmaterialien zu aktuellen Energie- und Wasser/Abwasser-Themen
+Mehr
+BDEW-We­bi­na­re
+Die aktuellen Themen der Energie- und Wasserwirtschaft - kostenfrei für Mitgliedsunternehmen.
+Zu den Webinaren
+In­stal­la­teur­ver­zeich­nis Strom/ Gas/ Wasser
+So gelangen Sie zu Ihren AnsprechpartnerInnen in den Landesinstallateurausschüssen
+Zur Übersicht
+VN­Bdi­gi­tal
+Netzanschluss, Netzausbaupläne und Regionalszenarien: Das Netzportal der Verteilnetzbetreiber
+Zum Portal
+Der BDEW begrüßt seine neuen Mitglieder
+Verstärkung für den BDEW: Erfahren Sie mehr über unsere neuen Mitglieder.
+Für Sie vor Ort: Die Landesorganisationen sind Ihr regionaler Ansprechpartner.
+Sie übernehmen die  Interessenvertretung und bearbeiten länderspezifische Themen.</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-28 08:22:27</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Scraping_Results.xlsx
+++ b/Scraping_Results.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:22:27</t>
+          <t>2024-08-28 08:47:26</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:22:27</t>
+          <t>2024-08-28 08:47:26</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:22:27</t>
+          <t>2024-08-28 08:47:26</t>
         </is>
       </c>
     </row>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:22:27</t>
+          <t>2024-08-28 08:47:26</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:22:27</t>
+          <t>2024-08-28 08:47:26</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:22:27</t>
+          <t>2024-08-28 08:47:26</t>
         </is>
       </c>
     </row>
@@ -3928,7 +3928,7 @@
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:22:27</t>
+          <t>2024-08-28 08:47:26</t>
         </is>
       </c>
     </row>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:22:27</t>
+          <t>2024-08-28 08:47:26</t>
         </is>
       </c>
     </row>
@@ -4802,7 +4802,479 @@
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:22:27</t>
+          <t>2024-08-28 08:47:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>BBC</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v/>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>LIVE
+Starmer meets Scholz in Berlin as he aims to 'reset' UK-EU relations
+The prime minister is in Berlin to meet German Chancellor Olaf Scholz, before meeting French President Emmanuel Macron on Thursday.
+Trump faces revised 2020 election interference charges
+The charges are in response to a Supreme Court ruling that presidents enjoy broad immunity for official acts.
+1 hr ago
+US &amp; Canada
+Israeli military launches major West Bank operation
+At least nine Palestinians have been killed by Israeli forces in the north of the occupied West Bank, officials say.
+Israeli settlers are seizing Palestinian land under cover of war - they hope permanently
+World's police in technological arms race with Nigerian mafia
+A series of covert operations target a feared Nigerian cyber-crime network with a global reach.
+10 hrs ago
+World
+Paralysed by an ex-boyfriend, Otto rises as Paralympian
+Tracy Otto's ex-boyfriend thought he had killed her. Instead, Otto used his attack as the launchpad for an extraordinary second act in her life.
+9 hrs ago
+Disability Sport
+Why badminton has become code for teen sex in Hong Kong
+The education bureau suggests teens who want to have sex could "go out to play badminton together" instead.
+22 mins ago
+Asia
+Tanker attacked by Houthis could be leaking oil - US
+The Greek-flagged MV Sounion is on fire after being attacked several times last week, the Pentagon says.
+Middle East
+Only from the BBC
+Can Barbie help beat teen smartphone addiction?
+Manufacturer HMD says it is trying to help people who want less 'digital impact' in their lives.
+Technology
+The burger that fuelled the Manhattan Project
+If New Mexico could have one state food, it would be the green chile cheeseburger, with each restaurant, diner and roadhouse cafe claiming to have the ultimate version.
+21 hrs ago
+Travel
+More news
+Sabina Shoal: The new flashpoint between China and the Philippines
+Both countries blame each other for repeated boat collisions near the shoal in recent days.
+5 hrs ago
+Man posing as YouTube star jailed for global sextortion
+Muhammad Zain Ul Abideen Rasheed blackmailed 286 people - majority of them children - from 20 countries.
+7 hrs ago
+Australia
+Israel rescues Bedouin hostage held by Hamas in Gaza
+Commandos free Kaid Farhan Elkadi in a "complex operation" in southern Gaza, the military says.
+14 hrs ago
+Starmer in Berlin to 'turn corner on Brexit'
+The UK is set to start talks on a treaty with Germany, as the government looks to reset relations with Europe.
+32 mins ago
+Politics
+South Korea faces deepfake porn 'emergency'
+The president has addressed the growing epidemic after Telegram users were found exchanging doctored photos of underage girls.
+Watch: High-speed chase between Mexican navy and drug boats
+Around 7,200kg of drugs were seized by the navy, in two separate raids.
+13 hrs ago
+Boy accidentally smashes 3,500-year-old jar on museum visit
+It was on display near the entrance of the museum without glass when the accident happened.
+Harris and Walz to sit for first interview of campaign
+Vice-President Kamala Harris and Minnesota Governor Tim Walz will be interviewed by CNN on Thursday in Georgia.
+Must watch
+See how to reconstruct a Bronze Age necklace
+A Bronze Age necklace is back on show in all its glory for the first time in thousands of years after a painstaking reconstruction process.
+11 hrs ago
+Tayside &amp; Central Scotland
+Lightning strikes and a rainbow forms during Minnesota storm
+Lightning flickered through the orange skies at the same time as a rainbow, after a summer storm.
+16 hrs ago
+Music fans react to Oasis' reunion in Cardiff
+The 2025 reunion tour will kick off in Cardiff 15 years after the band's split - but opinion is mixed.
+Wales
+'Devastated': Bride-to-be lost wedding dress in tower block fire
+Lukasz and Agnieszka say they "lost everything" in the fire in Dagenham, two weeks ahead of their wedding in Poland.
+15 hrs ago
+London
+People trapped in mid-air after ride malfunctions in Australia
+The ride was stopped due to a "sensor communication fault", according to a theme park official.
+18 hrs ago
+Appeal over Bible verse bottles bears fruit
+An appeal to whoever was dumping plastic bottles leads to a dramatic drop in their numbers.
+UK
+Inside the world's largest hurricane simulator
+At the University of Miami, a large indoor air-sea interaction test facility measures the impact of storms.
+1 day ago
+Earth
+Lake Tahoe sees first August snow in 20 years
+The unseasonable weather comes months before the local ski season in the Sierra Nevada is due to start.
+Culture
+Why Oasis defined the spirit of the 90s
+Thirty years after the release of their captivating debut album, Oasis have announced they are reuniting – news that has delighted middle-aged fans and a whole new generation alike.
+See more
+Esports champ wants to get into real world of motorsport
+Luke Bennett won a cash prize after winning the sim racing event at the Esports World Cup in Riyadh.
+News
+SA billionaire overtakes Dangote as Africa’s richest man
+31 mins ago
+Africa
+36 mins ago
+Sport
+Football latest: Transfer updates with Man Utd and Arsenal active, plus EFL Cup reaction
+Former champion Raducanu out in US Open first round
+4 hrs ago
+Tennis
+Nacional's Izquierdo dies aged 27 after collapse
+2 hrs ago
+Football
+Liverpool agree deal for Valencia keeper Mamardashvili
+Liverpool agree to sign Georgia goalkeeper Giorgi Mamardashvili from Valencia in a deal worth up to £29m.
+Premier League
+Business
+Innovation
+The people being infected with diseases on purpose
+Scientists are turning to a controversial approach to test new vaccines and treatments by deliberately infecting volunteers with potentially deadly viruses, parasites and bacteria.
+23 hrs ago
+Future
+The Bahamas: The last lighthouse of its kind
+Reece Parkinson heads to the Bahamas, where he meets a community adapting to unpredictable weather patterns.
+17 hrs ago
+Oasis tickets and pre-sale ballot - everything you need to know about reunion
+The US blockbuster that pioneered a Muslim hero
+Mariah Carey's mother and sister die on the same day
+The Grammy-winning singer says her "heart is broken" after the two deaths and she asks for privacy.
+How a Spanish isle escaped mass tourism
+2 days ago
+How do restaurants actually get a Michelin star?
+3 days ago
+A Dutch F1 expert's guide to Amsterdam
+Former Formula 1 and IndyCar driver Robert Doornbos has called Amsterdam home since 2018. This is the Dutch speedster's guide to enjoying the Dutch capital, during F1 and beyond.
+4 days ago
+The people working to help Scotland's bats bounce back
+3 hrs ago
+Scotland
+Surging seas are coming for us all, warns UN chief
+Speaking to the BBC at the Pacific Islands Forum, António Guterres says these islands are the "most vulnerable".
+Climate
+World of Wonder
+World of wonder
+Protecting Thailand's famous 'paradise beach'
+19 Aug 2024
+Natural wonders
+Earth's spectacular and remote 'capital' of lightning
+6 Aug 2024
+How climate chaos is threatening the real 'Paddington bear'
+Drought forces the real Paddington Bear into deadly conflict with cattle farmers in the Andes.
+21 Jul 2024
+Sign up for our newsletters
+The Essential List
+The week's best stories, handpicked by BBC editors, in your inbox every Tuesday and Friday.
+US Election Unspun
+Cut through the spin with North America correspondent Anthony Zurcher - in your inbox every Wednesday.
+In History
+Discover the headlines from this week in history. See the past come to life through the BBC's unique archive, in your inbox every Thursday.
+Latest on the US election
+Why Harris campaign is fighting for unmuted debate mics
+Trump adds ex-Democrats Gabbard and RFK Jr to transition team
+The former progressives have endorsed Trump, while a group of former Republicans has declared support for Kamala Harris.
+Latest on the Israel-Gaza war
+Namibia blocks ship over Israel war-crime concerns
+Who are the released hostages?
+Stories of the hostages taken by Hamas from Israel
+It is thought 104 hostages remain unaccounted for after the 7 October attacks.
+19 hrs ago
+Latest on the Ukraine war
+Ukraine to present 'victory plan' to US - Zelensky
+Europe
+Russian woman's killer released for second time to fight in Ukraine
+Tributes paid to 'gentle giant' killed in Ukraine
+Massive Russian strikes hit Ukraine for second day
+Local officials say at least three people have been killed in Russian attacks on Ukraine overnight.
+BBC InDepth
+Riots show how the UK's far right has changed
+7 days ago
+Power, oil and a $450m painting - insiders on the rise of Saudi's Crown Prince
+Why does the Church of England struggle to deal with child abuse allegations?
+The case of Andrew Hindley raises serious questions for the church, after the BBC revealed worrying shortcomings in how it dealt with abuse allegations.
+15 Aug 2024
+Home
+Video
+Live
+Audio
+Weather
+BBC Shop
+BBC in other languages
+Terms of Use
+About the BBC
+Privacy Policy
+Cookies
+Accessibility Help
+Contact the BBC
+Advertise with us
+Do not share or sell my info
+Contact technical support
+Skip to content
+Watch Live
+Register
+Sign In
+Follow BBC on:
+Copyright 2024 BBC. All rights reserved.  The BBC is not responsible for the content of external sites. Read about our approach to external linking.
+Advertisement
+RegisterSign In
+LIVEStarmer meets Scholz in Berlin as he aims to 'reset' UK-EU relations The prime minister is in Berlin to meet German Chancellor Olaf Scholz, before meeting French President Emmanuel Macron on Thursday.Trump faces revised 2020 election interference chargesThe charges are in response to a Supreme Court ruling that presidents enjoy broad immunity for official acts.1 hr agoUS &amp; Canada
+LIVEStarmer meets Scholz in Berlin as he aims to 'reset' UK-EU relations The prime minister is in Berlin to meet German Chancellor Olaf Scholz, before meeting French President Emmanuel Macron on Thursday.
+LIVEStarmer meets Scholz in Berlin as he aims to 'reset' UK-EU relations
+Trump faces revised 2020 election interference chargesThe charges are in response to a Supreme Court ruling that presidents enjoy broad immunity for official acts.1 hr agoUS &amp; Canada
+1 hr agoUS &amp; Canada
+Harris and Walz to sit for first interview of campaignVice-President Kamala Harris and Minnesota Governor Tim Walz will be interviewed by CNN on Thursday in Georgia.9 hrs agoUS &amp; Canada
+9 hrs agoUS &amp; Canada
+Man posing as YouTube star jailed for global sextortionMuhammad Zain Ul Abideen Rasheed blackmailed 286 people - majority of them children - from 20 countries.7 hrs agoAustralia
+7 hrs agoAustralia</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>LIVE
+Starmer meets Scholz in Berlin as he aims to 'reset' UK-EU relations
+The prime minister is in Berlin to meet German Chancellor Olaf Scholz, before meeting French President Emmanuel Macron on Thursday.
+Trump faces revised 2020 election interference charges
+The charges are in response to a Supreme Court ruling that presidents enjoy broad immunity for official acts.
+1 hr ago
+US &amp; Canada
+Israeli military launches major West Bank operation
+At least nine Palestinians have been killed by Israeli forces in the north of the occupied West Bank, officials say.
+Israeli settlers are seizing Palestinian land under cover of war - they hope permanently
+World's police in technological arms race with Nigerian mafia
+A series of covert operations target a feared Nigerian cyber-crime network with a global reach.
+10 hrs ago
+World
+Paralysed by an ex-boyfriend, Otto rises as Paralympian
+Tracy Otto's ex-boyfriend thought he had killed her. Instead, Otto used his attack as the launchpad for an extraordinary second act in her life.
+9 hrs ago
+Disability Sport
+Why badminton has become code for teen sex in Hong Kong
+The education bureau suggests teens who want to have sex could "go out to play badminton together" instead.
+22 mins ago
+Asia
+Tanker attacked by Houthis could be leaking oil - US
+The Greek-flagged MV Sounion is on fire after being attacked several times last week, the Pentagon says.
+Middle East
+Only from the BBC
+Can Barbie help beat teen smartphone addiction?
+Manufacturer HMD says it is trying to help people who want less 'digital impact' in their lives.
+Technology
+The burger that fuelled the Manhattan Project
+If New Mexico could have one state food, it would be the green chile cheeseburger, with each restaurant, diner and roadhouse cafe claiming to have the ultimate version.
+21 hrs ago
+Travel
+More news
+Sabina Shoal: The new flashpoint between China and the Philippines
+Both countries blame each other for repeated boat collisions near the shoal in recent days.
+5 hrs ago
+Man posing as YouTube star jailed for global sextortion
+Muhammad Zain Ul Abideen Rasheed blackmailed 286 people - majority of them children - from 20 countries.
+7 hrs ago
+Australia
+Israel rescues Bedouin hostage held by Hamas in Gaza
+Commandos free Kaid Farhan Elkadi in a "complex operation" in southern Gaza, the military says.
+14 hrs ago
+Starmer in Berlin to 'turn corner on Brexit'
+The UK is set to start talks on a treaty with Germany, as the government looks to reset relations with Europe.
+32 mins ago
+Politics
+South Korea faces deepfake porn 'emergency'
+The president has addressed the growing epidemic after Telegram users were found exchanging doctored photos of underage girls.
+Watch: High-speed chase between Mexican navy and drug boats
+Around 7,200kg of drugs were seized by the navy, in two separate raids.
+13 hrs ago
+Boy accidentally smashes 3,500-year-old jar on museum visit
+It was on display near the entrance of the museum without glass when the accident happened.
+Harris and Walz to sit for first interview of campaign
+Vice-President Kamala Harris and Minnesota Governor Tim Walz will be interviewed by CNN on Thursday in Georgia.
+Must watch
+See how to reconstruct a Bronze Age necklace
+A Bronze Age necklace is back on show in all its glory for the first time in thousands of years after a painstaking reconstruction process.
+11 hrs ago
+Tayside &amp; Central Scotland
+Lightning strikes and a rainbow forms during Minnesota storm
+Lightning flickered through the orange skies at the same time as a rainbow, after a summer storm.
+16 hrs ago
+Music fans react to Oasis' reunion in Cardiff
+The 2025 reunion tour will kick off in Cardiff 15 years after the band's split - but opinion is mixed.
+Wales
+'Devastated': Bride-to-be lost wedding dress in tower block fire
+Lukasz and Agnieszka say they "lost everything" in the fire in Dagenham, two weeks ahead of their wedding in Poland.
+15 hrs ago
+London
+People trapped in mid-air after ride malfunctions in Australia
+The ride was stopped due to a "sensor communication fault", according to a theme park official.
+18 hrs ago
+Appeal over Bible verse bottles bears fruit
+An appeal to whoever was dumping plastic bottles leads to a dramatic drop in their numbers.
+UK
+Inside the world's largest hurricane simulator
+At the University of Miami, a large indoor air-sea interaction test facility measures the impact of storms.
+1 day ago
+Earth
+Lake Tahoe sees first August snow in 20 years
+The unseasonable weather comes months before the local ski season in the Sierra Nevada is due to start.
+Culture
+Why Oasis defined the spirit of the 90s
+Thirty years after the release of their captivating debut album, Oasis have announced they are reuniting – news that has delighted middle-aged fans and a whole new generation alike.
+See more
+Esports champ wants to get into real world of motorsport
+Luke Bennett won a cash prize after winning the sim racing event at the Esports World Cup in Riyadh.
+News
+SA billionaire overtakes Dangote as Africa’s richest man
+31 mins ago
+Africa
+36 mins ago
+Sport
+Football latest: Transfer updates with Man Utd and Arsenal active, plus EFL Cup reaction
+Former champion Raducanu out in US Open first round
+4 hrs ago
+Tennis
+Nacional's Izquierdo dies aged 27 after collapse
+2 hrs ago
+Football
+Liverpool agree deal for Valencia keeper Mamardashvili
+Liverpool agree to sign Georgia goalkeeper Giorgi Mamardashvili from Valencia in a deal worth up to £29m.
+Premier League
+Business
+Innovation
+The people being infected with diseases on purpose
+Scientists are turning to a controversial approach to test new vaccines and treatments by deliberately infecting volunteers with potentially deadly viruses, parasites and bacteria.
+23 hrs ago
+Future
+The Bahamas: The last lighthouse of its kind
+Reece Parkinson heads to the Bahamas, where he meets a community adapting to unpredictable weather patterns.
+17 hrs ago
+Oasis tickets and pre-sale ballot - everything you need to know about reunion
+The US blockbuster that pioneered a Muslim hero
+Mariah Carey's mother and sister die on the same day
+The Grammy-winning singer says her "heart is broken" after the two deaths and she asks for privacy.
+How a Spanish isle escaped mass tourism
+2 days ago
+How do restaurants actually get a Michelin star?
+3 days ago
+A Dutch F1 expert's guide to Amsterdam
+Former Formula 1 and IndyCar driver Robert Doornbos has called Amsterdam home since 2018. This is the Dutch speedster's guide to enjoying the Dutch capital, during F1 and beyond.
+4 days ago
+The people working to help Scotland's bats bounce back
+3 hrs ago
+Scotland
+Surging seas are coming for us all, warns UN chief
+Speaking to the BBC at the Pacific Islands Forum, António Guterres says these islands are the "most vulnerable".
+Climate
+World of Wonder
+World of wonder
+Protecting Thailand's famous 'paradise beach'
+19 Aug 2024
+Natural wonders
+Earth's spectacular and remote 'capital' of lightning
+6 Aug 2024
+How climate chaos is threatening the real 'Paddington bear'
+Drought forces the real Paddington Bear into deadly conflict with cattle farmers in the Andes.
+21 Jul 2024
+Sign up for our newsletters
+The Essential List
+The week's best stories, handpicked by BBC editors, in your inbox every Tuesday and Friday.
+US Election Unspun
+Cut through the spin with North America correspondent Anthony Zurcher - in your inbox every Wednesday.
+In History
+Discover the headlines from this week in history. See the past come to life through the BBC's unique archive, in your inbox every Thursday.
+Latest on the US election
+Why Harris campaign is fighting for unmuted debate mics
+Trump adds ex-Democrats Gabbard and RFK Jr to transition team
+The former progressives have endorsed Trump, while a group of former Republicans has declared support for Kamala Harris.
+Latest on the Israel-Gaza war
+Namibia blocks ship over Israel war-crime concerns
+Who are the released hostages?
+Stories of the hostages taken by Hamas from Israel
+It is thought 104 hostages remain unaccounted for after the 7 October attacks.
+19 hrs ago
+Latest on the Ukraine war
+Ukraine to present 'victory plan' to US - Zelensky
+Europe
+Russian woman's killer released for second time to fight in Ukraine
+Tributes paid to 'gentle giant' killed in Ukraine
+Massive Russian strikes hit Ukraine for second day
+Local officials say at least three people have been killed in Russian attacks on Ukraine overnight.
+BBC InDepth
+Riots show how the UK's far right has changed
+7 days ago
+Power, oil and a $450m painting - insiders on the rise of Saudi's Crown Prince
+Why does the Church of England struggle to deal with child abuse allegations?
+The case of Andrew Hindley raises serious questions for the church, after the BBC revealed worrying shortcomings in how it dealt with abuse allegations.
+15 Aug 2024
+Home
+Video
+Live
+Audio
+Weather
+BBC Shop
+BBC in other languages
+Terms of Use
+About the BBC
+Privacy Policy
+Cookies
+Accessibility Help
+Contact the BBC
+Advertise with us
+Do not share or sell my info
+Contact technical support
+Skip to content
+Watch Live
+Register
+Sign In
+Follow BBC on:
+Copyright 2024 BBC. All rights reserved.  The BBC is not responsible for the content of external sites. Read about our approach to external linking.
+Advertisement
+RegisterSign In
+LIVEStarmer meets Scholz in Berlin as he aims to 'reset' UK-EU relations The prime minister is in Berlin to meet German Chancellor Olaf Scholz, before meeting French President Emmanuel Macron on Thursday.Trump faces revised 2020 election interference chargesThe charges are in response to a Supreme Court ruling that presidents enjoy broad immunity for official acts.1 hr agoUS &amp; Canada
+LIVEStarmer meets Scholz in Berlin as he aims to 'reset' UK-EU relations The prime minister is in Berlin to meet German Chancellor Olaf Scholz, before meeting French President Emmanuel Macron on Thursday.
+LIVEStarmer meets Scholz in Berlin as he aims to 'reset' UK-EU relations
+Trump faces revised 2020 election interference chargesThe charges are in response to a Supreme Court ruling that presidents enjoy broad immunity for official acts.1 hr agoUS &amp; Canada
+1 hr agoUS &amp; Canada
+Harris and Walz to sit for first interview of campaignVice-President Kamala Harris and Minnesota Governor Tim Walz will be interviewed by CNN on Thursday in Georgia.9 hrs agoUS &amp; Canada
+9 hrs agoUS &amp; Canada
+Man posing as YouTube star jailed for global sextortionMuhammad Zain Ul Abideen Rasheed blackmailed 286 people - majority of them children - from 20 countries.7 hrs agoAustralia
+7 hrs agoAustralia</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>New one</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-28 08:47:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>https://edition.cnn.com/</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v/>
+      </c>
+      <c r="D12" s="1" t="inlineStr"/>
+      <c r="E12" s="1" t="inlineStr"/>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>New one</t>
+        </is>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-28 08:47:26</t>
         </is>
       </c>
     </row>

--- a/Scraping_Results.xlsx
+++ b/Scraping_Results.xlsx
@@ -1211,7 +1211,7 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:47:26</t>
+          <t>2024-08-28 08:54:33</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:47:26</t>
+          <t>2024-08-28 08:54:33</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:47:26</t>
+          <t>2024-08-28 08:54:33</t>
         </is>
       </c>
     </row>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:47:26</t>
+          <t>2024-08-28 08:54:33</t>
         </is>
       </c>
     </row>
@@ -2330,71 +2330,180 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>Sign in
-Stay updated on your professional world.
-Email or phone
-Password
-Show
-Forgot password?
-or
-By clicking Continue, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
-Sign in with Apple
-Sign in with a passkey
+          <t>Welcome to your professional community
+Sign in with email
+By clicking Continue to join or sign in, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
 New to LinkedIn? Join now
-LinkedIn
-© 2024
-User Agreement
-Privacy Policy
-Community Guidelines
-Cookie Policy
-Copyright Policy
-Send Feedback
-Language
-We’ve emailed a one-time link to your primary email address
-Click on the link to sign in instantly to your LinkedIn account.
-If you don’t see the email in your inbox, check your spam folder.
-Resend email
-Back
+Explore collaborative articles
+We’re unlocking community knowledge in a new way. Experts add insights directly into each article, started with the help of AI.
+Marketing
+Public Administration
+Healthcare
+Engineering
+IT Services
+Sustainability
+Business Administration
+Telecommunications
+HR Management
+Show all
+Find the right job or internship for you
+Business Development
+Finance
+Administrative Assistant
+Retail Associate
+Customer Service
+Operations
+Information Technology
+Human Resources
+Show more
+Post your job for millions of people to see
+Post a job
+Discover the best software tools
+Connect with buyers who have first-hand experience to find the best products for you.
+E-Commerce Platforms
+CRM Software
+Human Resources Management Systems
+Recruiting Software
+Sales Intelligence Software
+Project Management Software
+Help Desk Software
+Social Networking Software
+Desktop Publishing Software
+Keep your mind sharp with games
+Take a break and reconnect with your network through quick daily games.
+Pinpoint
+Queens
+Crossclimb
+Let the right people know you’re open to work
+With the Open To Work feature, you can privately tell recruiters or publicly share with the LinkedIn community that you are looking for new job opportunities.
+Conversations today could lead to opportunity tomorrow
+Sending messages to people you know is a great way to strengthen relationships as you take the next step in your career.
+Stay up to date on your industry
+From live videos, to stories, to newsletters and more, LinkedIn is full of ways to stay up to date on the latest discussions in your industry.
+Connect with people who can help
+Find people you know
+Learn the skills you need to succeed
+Choose a topic to learn about
+Who is LinkedIn for?
+Anyone looking to navigate their professional life.
+Find a coworker or classmate
+Find a new job
+Find a course or training
+Join your colleagues, classmates, and friends on LinkedIn.
+Get started
+General
+Sign Up
+Help Center
+About
+Press
+Blog
+Careers
+Developers
+Browse LinkedIn
+Learning
+Jobs
+Games
+Salary
+Mobile
+Services
+Products
+Top Companies Hub
+Business Solutions
+Talent
+Sales
+Directories
+Members
+Companies
+Featured
+Posts
+Articles
+Schools
+News
+News Letters
+Advice
+People Search
 Agree &amp; Join LinkedIn
-العربية (Arabic)
-বাংলা (Bangla)
-Čeština (Czech)
-Dansk (Danish)
-Deutsch (German)
-English (English)
-Español (Spanish)
-Français (French)
-हिंदी (Hindi)
-Magyar (Hungarian)
-Bahasa Indonesia (Indonesian)
-Italiano (Italian)
-日本語 (Japanese)
-한국어 (Korean)
-Bahasa Malaysia (Malay)
-Nederlands (Dutch)
-Norsk (Norwegian)
-ਪੰਜਾਬੀ (Punjabi)
-Polski (Polish)
-Português (Portuguese)
-Română (Romanian)
-Русский (Russian)
-Svenska (Swedish)
-ภาษาไทย (Thai)
-Tagalog (Tagalog)
-Türkçe (Turkish)
-Українська (Ukrainian)
-简体中文 (Chinese (Simplified))
-正體中文 (Chinese (Traditional))</t>
+Join now
+Sign in
+No more previous content
+No more next content
+Business Analysis and Strategy
+1,540+ course
+Business Software and Tools
+2,510+ courses
+Career Development
+590+ courses
+230+ courses
+Diversity, Equity, and Inclusion (DEI)
+310+ courses
+Finance and Accounting
+280+ courses
+520+ courses
+Leadership and Management
+1,910+ course
+990+ courses
+Professional Development
+1,850+ course
+Project Management
+540+ courses
+300+ courses
+Small Business and Entrepreneurship
+350+ courses
+Training and Education
+AEC
+1,470+ course
+Animation and Illustration
+1,800+ course
+Audio and Music
+420+ courses
+Graphic Design
+1,040+ course
+Motion Graphics and VFX
+910+ courses
+Photography
+1,230+ course
+Product and Manufacturing
+1,480+ course
+User Experience
+570+ courses
+Video
+680+ courses
+Visualization and Real-Time
+1,330+ course
+Web Design
+Artificial Intelligence (AI)
+620+ courses
+Cloud Computing
+Cybersecurity
+1,000+ course
+Data Science
+1,420+ course
+Database Management
+490+ courses
+DevOps
+340+ courses
+Hardware
+80+ courses
+IT Help Desk
+370+ courses
+Mobile Development
+Network and System Administration
+1,550+ course
+Software Development
+2,810+ courses
+Web Development
+1,780+ course
+Language</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:47:26</t>
+          <t>2024-08-28 08:54:33</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3236,7 @@
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:47:26</t>
+          <t>2024-08-28 08:54:33</t>
         </is>
       </c>
     </row>
@@ -3791,8 +3900,10 @@
 Startseite der Bundesnetzagentur
 Offshore Windenergie
 Ergebnisse der Ausschreibungen für zentral voruntersuchte Flächen veröffentlicht
+Wasserstoff
+Bundesnetzagentur erhält den Antrag für das Wasserstoff-Kernnetz
 Zurück und Pause
-4 / 5
+5 / 5
 Vor und Pause
 Pause
 Seite drucken Seite teilen Kurzlink
@@ -3908,7 +4019,6 @@
 Fortschritt beim Netzausbau      Bundesnetzagentur legt zweiten Trassenabschnitt für A-Nord fest
 Digital Services Coordinator      DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen
 Stromnetzausbau      Genehmigungsverfahren für die Leitung von Grafenrheinfeld nach Großgartach abgeschlossen
-Wasserstoff      Bundesnetzagentur erhält den Antrag für das Wasserstoff-Kernnetz
 Inhalte teilen
 per E-Mail schicken
 ×
@@ -3916,19 +4026,17 @@
 Bundesnetzagentur legt zweiten Trassenabschnitt für A-Nord fest
 DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen
 Stromnetzausbau
-Genehmigungsverfahren für die Leitung von Grafenrheinfeld nach Großgartach abgeschlossen
-Wasserstoff
-Bundesnetzagentur erhält den Antrag für das Wasserstoff-Kernnetz</t>
+Genehmigungsverfahren für die Leitung von Grafenrheinfeld nach Großgartach abgeschlossen</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:47:26</t>
+          <t>2024-08-28 08:54:33</t>
         </is>
       </c>
     </row>
@@ -4340,7 +4448,7 @@
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:47:26</t>
+          <t>2024-08-28 08:54:33</t>
         </is>
       </c>
     </row>
@@ -4737,8 +4845,8 @@
 165
 Fachartikel
 &gt;2000
-Alles Wasser Volt
-Deine Zukunft für eine nachhaltige Zukunft: Bewirb Dich jetzt in der Energie- und Wasserwirtschaft
+BDEW-Ver­an­stal­tun­gen
+BDEW Kongress, Treffpunkt Netze und mehr – Seien Sie dabei!
 Die wichtigsten Themen der Energie- und Wasserwirtschaft im Überblick.
 Elek­tro­mo­bi­li­tät
 Wir bringen die En­er­gie­wen­de in den Ver­kehrs­sek­tor
@@ -4772,9 +4880,6 @@
 2024 BDEW
 Rechtliches | Impressum | Datenschutz
 0
-BDEW-Ver­an­stal­tun­gen
-BDEW Kongress, Treffpunkt Netze und mehr – Seien Sie dabei!
-Mehr erfahren
 An­bie­ter­lis­te Dienst­leis­ter Re­dis­patch 2.0
 Auf der Website des BDEW finden Sie eine offene Liste mit Unternehmen, die Dienstleistungen für Anlagenbetreiber im Rahmen des neuen Redispatchregimes erbringen.
 Zur Anbieterliste
@@ -4789,6 +4894,9 @@
 VN­Bdi­gi­tal
 Netzanschluss, Netzausbaupläne und Regionalszenarien: Das Netzportal der Verteilnetzbetreiber
 Zum Portal
+Alles Wasser Volt
+Deine Zukunft für eine nachhaltige Zukunft: Bewirb Dich jetzt in der Energie- und Wasserwirtschaft
+Mehr erfahren
 Der BDEW begrüßt seine neuen Mitglieder
 Verstärkung für den BDEW: Erfahren Sie mehr über unsere neuen Mitglieder.
 Für Sie vor Ort: Die Landesorganisationen sind Ihr regionaler Ansprechpartner.
@@ -4797,12 +4905,12 @@
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:47:26</t>
+          <t>2024-08-28 08:54:33</t>
         </is>
       </c>
     </row>
@@ -4817,9 +4925,7 @@
           <t>https://www.bbc.com/</t>
         </is>
       </c>
-      <c r="C11" s="1" t="n">
-        <v/>
-      </c>
+      <c r="C11" s="1" t="n"/>
       <c r="D11" s="1" t="inlineStr">
         <is>
           <t>LIVE
@@ -5039,8 +5145,8 @@
 The charges are in response to a Supreme Court ruling that presidents enjoy broad immunity for official acts.
 1 hr ago
 US &amp; Canada
-Israeli military launches major West Bank operation
-At least nine Palestinians have been killed by Israeli forces in the north of the occupied West Bank, officials say.
+Israel raids four West Bank cities with several Palestinians reported killed
+At least nine Palestinians have been killed by Israeli forces in the north of the occupied West Bank, health officials say.
 Israeli settlers are seizing Palestinian land under cover of war - they hope permanently
 World's police in technological arms race with Nigerian mafia
 A series of covert operations target a feared Nigerian cyber-crime network with a global reach.
@@ -5052,7 +5158,7 @@
 Disability Sport
 Why badminton has become code for teen sex in Hong Kong
 The education bureau suggests teens who want to have sex could "go out to play badminton together" instead.
-22 mins ago
+29 mins ago
 Asia
 Tanker attacked by Houthis could be leaking oil - US
 The Greek-flagged MV Sounion is on fire after being attacked several times last week, the Pentagon says.
@@ -5075,13 +5181,14 @@
 Australia
 Israel rescues Bedouin hostage held by Hamas in Gaza
 Commandos free Kaid Farhan Elkadi in a "complex operation" in southern Gaza, the military says.
-14 hrs ago
+15 hrs ago
 Starmer in Berlin to 'turn corner on Brexit'
 The UK is set to start talks on a treaty with Germany, as the government looks to reset relations with Europe.
-32 mins ago
+39 mins ago
 Politics
 South Korea faces deepfake porn 'emergency'
 The president has addressed the growing epidemic after Telegram users were found exchanging doctored photos of underage girls.
+2 hrs ago
 Watch: High-speed chase between Mexican navy and drug boats
 Around 7,200kg of drugs were seized by the navy, in two separate raids.
 13 hrs ago
@@ -5102,7 +5209,6 @@
 Wales
 'Devastated': Bride-to-be lost wedding dress in tower block fire
 Lukasz and Agnieszka say they "lost everything" in the fire in Dagenham, two weeks ahead of their wedding in Poland.
-15 hrs ago
 London
 People trapped in mid-air after ride malfunctions in Australia
 The ride was stopped due to a "sensor communication fault", according to a theme park official.
@@ -5124,16 +5230,16 @@
 Luke Bennett won a cash prize after winning the sim racing event at the Esports World Cup in Riyadh.
 News
 SA billionaire overtakes Dangote as Africa’s richest man
-31 mins ago
+38 mins ago
 Africa
-36 mins ago
+Israeli military launches major West Bank operation
+43 mins ago
 Sport
 Football latest: Transfer updates with Man Utd and Arsenal active, plus EFL Cup reaction
 Former champion Raducanu out in US Open first round
 4 hrs ago
 Tennis
 Nacional's Izquierdo dies aged 27 after collapse
-2 hrs ago
 Football
 Liverpool agree deal for Valencia keeper Mamardashvili
 Liverpool agree to sign Georgia goalkeeper Giorgi Mamardashvili from Valencia in a deal worth up to £29m.
@@ -5159,7 +5265,6 @@
 Former Formula 1 and IndyCar driver Robert Doornbos has called Amsterdam home since 2018. This is the Dutch speedster's guide to enjoying the Dutch capital, during F1 and beyond.
 4 days ago
 The people working to help Scotland's bats bounce back
-3 hrs ago
 Scotland
 Surging seas are coming for us all, warns UN chief
 Speaking to the BBC at the Pacific Islands Forum, António Guterres says these islands are the "most vulnerable".
@@ -5188,9 +5293,9 @@
 Latest on the Israel-Gaza war
 Namibia blocks ship over Israel war-crime concerns
 Who are the released hostages?
+19 hrs ago
 Stories of the hostages taken by Hamas from Israel
 It is thought 104 hostages remain unaccounted for after the 7 October attacks.
-19 hrs ago
 Latest on the Ukraine war
 Ukraine to present 'victory plan' to US - Zelensky
 Europe
@@ -5242,12 +5347,12 @@
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:47:26</t>
+          <t>2024-08-28 08:54:33</t>
         </is>
       </c>
     </row>
@@ -5262,19 +5367,17 @@
           <t>https://edition.cnn.com/</t>
         </is>
       </c>
-      <c r="C12" s="1" t="n">
-        <v/>
-      </c>
-      <c r="D12" s="1" t="inlineStr"/>
+      <c r="C12" s="1" t="n"/>
+      <c r="D12" s="1" t="n"/>
       <c r="E12" s="1" t="inlineStr"/>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:47:26</t>
+          <t>2024-08-28 08:54:33</t>
         </is>
       </c>
     </row>

--- a/Scraping_Results.xlsx
+++ b/Scraping_Results.xlsx
@@ -1211,7 +1211,7 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:54:33</t>
+          <t>2024-08-28 09:08:19</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:54:33</t>
+          <t>2024-08-28 09:08:19</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:54:33</t>
+          <t>2024-08-28 09:08:19</t>
         </is>
       </c>
     </row>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:54:33</t>
+          <t>2024-08-28 09:08:19</t>
         </is>
       </c>
     </row>
@@ -2330,180 +2330,71 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>Welcome to your professional community
-Sign in with email
-By clicking Continue to join or sign in, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
+          <t>Sign in
+Stay updated on your professional world.
+Email or phone
+Password
+Show
+Forgot password?
+or
+By clicking Continue, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
+Sign in with Apple
+Sign in with a passkey
 New to LinkedIn? Join now
-Explore collaborative articles
-We’re unlocking community knowledge in a new way. Experts add insights directly into each article, started with the help of AI.
-Marketing
-Public Administration
-Healthcare
-Engineering
-IT Services
-Sustainability
-Business Administration
-Telecommunications
-HR Management
-Show all
-Find the right job or internship for you
-Business Development
-Finance
-Administrative Assistant
-Retail Associate
-Customer Service
-Operations
-Information Technology
-Human Resources
-Show more
-Post your job for millions of people to see
-Post a job
-Discover the best software tools
-Connect with buyers who have first-hand experience to find the best products for you.
-E-Commerce Platforms
-CRM Software
-Human Resources Management Systems
-Recruiting Software
-Sales Intelligence Software
-Project Management Software
-Help Desk Software
-Social Networking Software
-Desktop Publishing Software
-Keep your mind sharp with games
-Take a break and reconnect with your network through quick daily games.
-Pinpoint
-Queens
-Crossclimb
-Let the right people know you’re open to work
-With the Open To Work feature, you can privately tell recruiters or publicly share with the LinkedIn community that you are looking for new job opportunities.
-Conversations today could lead to opportunity tomorrow
-Sending messages to people you know is a great way to strengthen relationships as you take the next step in your career.
-Stay up to date on your industry
-From live videos, to stories, to newsletters and more, LinkedIn is full of ways to stay up to date on the latest discussions in your industry.
-Connect with people who can help
-Find people you know
-Learn the skills you need to succeed
-Choose a topic to learn about
-Who is LinkedIn for?
-Anyone looking to navigate their professional life.
-Find a coworker or classmate
-Find a new job
-Find a course or training
-Join your colleagues, classmates, and friends on LinkedIn.
-Get started
-General
-Sign Up
-Help Center
-About
-Press
-Blog
-Careers
-Developers
-Browse LinkedIn
-Learning
-Jobs
-Games
-Salary
-Mobile
-Services
-Products
-Top Companies Hub
-Business Solutions
-Talent
-Sales
-Directories
-Members
-Companies
-Featured
-Posts
-Articles
-Schools
-News
-News Letters
-Advice
-People Search
+LinkedIn
+© 2024
+User Agreement
+Privacy Policy
+Community Guidelines
+Cookie Policy
+Copyright Policy
+Send Feedback
+Language
+We’ve emailed a one-time link to your primary email address
+Click on the link to sign in instantly to your LinkedIn account.
+If you don’t see the email in your inbox, check your spam folder.
+Resend email
+Back
 Agree &amp; Join LinkedIn
-Join now
-Sign in
-No more previous content
-No more next content
-Business Analysis and Strategy
-1,540+ course
-Business Software and Tools
-2,510+ courses
-Career Development
-590+ courses
-230+ courses
-Diversity, Equity, and Inclusion (DEI)
-310+ courses
-Finance and Accounting
-280+ courses
-520+ courses
-Leadership and Management
-1,910+ course
-990+ courses
-Professional Development
-1,850+ course
-Project Management
-540+ courses
-300+ courses
-Small Business and Entrepreneurship
-350+ courses
-Training and Education
-AEC
-1,470+ course
-Animation and Illustration
-1,800+ course
-Audio and Music
-420+ courses
-Graphic Design
-1,040+ course
-Motion Graphics and VFX
-910+ courses
-Photography
-1,230+ course
-Product and Manufacturing
-1,480+ course
-User Experience
-570+ courses
-Video
-680+ courses
-Visualization and Real-Time
-1,330+ course
-Web Design
-Artificial Intelligence (AI)
-620+ courses
-Cloud Computing
-Cybersecurity
-1,000+ course
-Data Science
-1,420+ course
-Database Management
-490+ courses
-DevOps
-340+ courses
-Hardware
-80+ courses
-IT Help Desk
-370+ courses
-Mobile Development
-Network and System Administration
-1,550+ course
-Software Development
-2,810+ courses
-Web Development
-1,780+ course
-Language</t>
+العربية (Arabic)
+বাংলা (Bangla)
+Čeština (Czech)
+Dansk (Danish)
+Deutsch (German)
+English (English)
+Español (Spanish)
+Français (French)
+हिंदी (Hindi)
+Magyar (Hungarian)
+Bahasa Indonesia (Indonesian)
+Italiano (Italian)
+日本語 (Japanese)
+한국어 (Korean)
+Bahasa Malaysia (Malay)
+Nederlands (Dutch)
+Norsk (Norwegian)
+ਪੰਜਾਬੀ (Punjabi)
+Polski (Polish)
+Português (Portuguese)
+Română (Romanian)
+Русский (Russian)
+Svenska (Swedish)
+ภาษาไทย (Thai)
+Tagalog (Tagalog)
+Türkçe (Turkish)
+Українська (Ukrainian)
+简体中文 (Chinese (Simplified))
+正體中文 (Chinese (Traditional))</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>There is a change</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:54:33</t>
+          <t>2024-08-28 09:08:19</t>
         </is>
       </c>
     </row>
@@ -3236,7 +3127,7 @@
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:54:33</t>
+          <t>2024-08-28 09:08:19</t>
         </is>
       </c>
     </row>
@@ -4036,7 +3927,7 @@
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:54:33</t>
+          <t>2024-08-28 09:08:19</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4339,7 @@
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:54:33</t>
+          <t>2024-08-28 09:08:19</t>
         </is>
       </c>
     </row>
@@ -4845,8 +4736,9 @@
 165
 Fachartikel
 &gt;2000
-BDEW-Ver­an­stal­tun­gen
-BDEW Kongress, Treffpunkt Netze und mehr – Seien Sie dabei!
+An­bie­ter­lis­te Dienst­leis­ter Re­dis­patch 2.0
+Auf der Website des BDEW finden Sie eine offene Liste mit Unternehmen, die Dienstleistungen für Anlagenbetreiber im Rahmen des neuen Redispatchregimes erbringen.
+ZUR ANBIETERLISTE
 Die wichtigsten Themen der Energie- und Wasserwirtschaft im Überblick.
 Elek­tro­mo­bi­li­tät
 Wir bringen die En­er­gie­wen­de in den Ver­kehrs­sek­tor
@@ -4880,9 +4772,9 @@
 2024 BDEW
 Rechtliches | Impressum | Datenschutz
 0
-An­bie­ter­lis­te Dienst­leis­ter Re­dis­patch 2.0
-Auf der Website des BDEW finden Sie eine offene Liste mit Unternehmen, die Dienstleistungen für Anlagenbetreiber im Rahmen des neuen Redispatchregimes erbringen.
-Zur Anbieterliste
+BDEW-Ver­an­stal­tun­gen
+BDEW Kongress, Treffpunkt Netze und mehr – Seien Sie dabei!
+Mehr erfahren
 Unterrichtsmaterialien zu aktuellen Energie- und Wasser/Abwasser-Themen
 Mehr
 BDEW-We­bi­na­re
@@ -4896,7 +4788,6 @@
 Zum Portal
 Alles Wasser Volt
 Deine Zukunft für eine nachhaltige Zukunft: Bewirb Dich jetzt in der Energie- und Wasserwirtschaft
-Mehr erfahren
 Der BDEW begrüßt seine neuen Mitglieder
 Verstärkung für den BDEW: Erfahren Sie mehr über unsere neuen Mitglieder.
 Für Sie vor Ort: Die Landesorganisationen sind Ihr regionaler Ansprechpartner.
@@ -4910,7 +4801,7 @@
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:54:33</t>
+          <t>2024-08-28 09:08:19</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5034,7 @@
 The prime minister is in Berlin to meet German Chancellor Olaf Scholz, before meeting French President Emmanuel Macron on Thursday.
 Trump faces revised 2020 election interference charges
 The charges are in response to a Supreme Court ruling that presidents enjoy broad immunity for official acts.
-1 hr ago
+2 hrs ago
 US &amp; Canada
 Israel raids four West Bank cities with several Palestinians reported killed
 At least nine Palestinians have been killed by Israeli forces in the north of the occupied West Bank, health officials say.
@@ -5158,7 +5049,7 @@
 Disability Sport
 Why badminton has become code for teen sex in Hong Kong
 The education bureau suggests teens who want to have sex could "go out to play badminton together" instead.
-29 mins ago
+43 mins ago
 Asia
 Tanker attacked by Houthis could be leaking oil - US
 The Greek-flagged MV Sounion is on fire after being attacked several times last week, the Pentagon says.
@@ -5184,16 +5075,16 @@
 15 hrs ago
 Starmer in Berlin to 'turn corner on Brexit'
 The UK is set to start talks on a treaty with Germany, as the government looks to reset relations with Europe.
-39 mins ago
+52 mins ago
 Politics
 South Korea faces deepfake porn 'emergency'
 The president has addressed the growing epidemic after Telegram users were found exchanging doctored photos of underage girls.
-2 hrs ago
 Watch: High-speed chase between Mexican navy and drug boats
 Around 7,200kg of drugs were seized by the navy, in two separate raids.
-13 hrs ago
+14 hrs ago
 Boy accidentally smashes 3,500-year-old jar on museum visit
 It was on display near the entrance of the museum without glass when the accident happened.
+13 hrs ago
 Harris and Walz to sit for first interview of campaign
 Vice-President Kamala Harris and Minnesota Governor Tim Walz will be interviewed by CNN on Thursday in Georgia.
 Must watch
@@ -5207,21 +5098,19 @@
 Music fans react to Oasis' reunion in Cardiff
 The 2025 reunion tour will kick off in Cardiff 15 years after the band's split - but opinion is mixed.
 Wales
+'Table tennis makes all my worries go away'
+Bly Twomey will be the youngest member of Great Britain's Paralympic table tennis team in Paris, aiming to add to the seven medals won three years ago in Tokyo.
+13 Aug 2024
 'Devastated': Bride-to-be lost wedding dress in tower block fire
 Lukasz and Agnieszka say they "lost everything" in the fire in Dagenham, two weeks ahead of their wedding in Poland.
 London
 People trapped in mid-air after ride malfunctions in Australia
 The ride was stopped due to a "sensor communication fault", according to a theme park official.
 18 hrs ago
-Appeal over Bible verse bottles bears fruit
-An appeal to whoever was dumping plastic bottles leads to a dramatic drop in their numbers.
-UK
 Inside the world's largest hurricane simulator
 At the University of Miami, a large indoor air-sea interaction test facility measures the impact of storms.
 1 day ago
 Earth
-Lake Tahoe sees first August snow in 20 years
-The unseasonable weather comes months before the local ski season in the Sierra Nevada is due to start.
 Culture
 Why Oasis defined the spirit of the 90s
 Thirty years after the release of their captivating debut album, Oasis have announced they are reuniting – news that has delighted middle-aged fans and a whole new generation alike.
@@ -5230,33 +5119,31 @@
 Luke Bennett won a cash prize after winning the sim racing event at the Esports World Cup in Riyadh.
 News
 SA billionaire overtakes Dangote as Africa’s richest man
-38 mins ago
 Africa
 Israeli military launches major West Bank operation
-43 mins ago
+56 mins ago
 Sport
 Football latest: Transfer updates with Man Utd and Arsenal active, plus EFL Cup reaction
 Former champion Raducanu out in US Open first round
 4 hrs ago
 Tennis
 Nacional's Izquierdo dies aged 27 after collapse
+3 hrs ago
 Football
 Liverpool agree deal for Valencia keeper Mamardashvili
 Liverpool agree to sign Georgia goalkeeper Giorgi Mamardashvili from Valencia in a deal worth up to £29m.
 Premier League
 Business
 Innovation
-The people being infected with diseases on purpose
-Scientists are turning to a controversial approach to test new vaccines and treatments by deliberately infecting volunteers with potentially deadly viruses, parasites and bacteria.
-23 hrs ago
+Why your dog loves to roll in poo
+Just now
 Future
 The Bahamas: The last lighthouse of its kind
 Reece Parkinson heads to the Bahamas, where he meets a community adapting to unpredictable weather patterns.
-17 hrs ago
 Oasis tickets and pre-sale ballot - everything you need to know about reunion
 The US blockbuster that pioneered a Muslim hero
-Mariah Carey's mother and sister die on the same day
-The Grammy-winning singer says her "heart is broken" after the two deaths and she asks for privacy.
+The 13th Warrior starring Antonio Banderas was a big flop upon its release in 1999. But now, it's been rehabilitated – among Muslim fans in particular.
+23 hrs ago
 How a Spanish isle escaped mass tourism
 2 days ago
 How do restaurants actually get a Michelin star?
@@ -5264,6 +5151,7 @@
 A Dutch F1 expert's guide to Amsterdam
 Former Formula 1 and IndyCar driver Robert Doornbos has called Amsterdam home since 2018. This is the Dutch speedster's guide to enjoying the Dutch capital, during F1 and beyond.
 4 days ago
+Lake Tahoe sees first August snow in 20 years
 The people working to help Scotland's bats bounce back
 Scotland
 Surging seas are coming for us all, warns UN chief
@@ -5298,9 +5186,11 @@
 It is thought 104 hostages remain unaccounted for after the 7 October attacks.
 Latest on the Ukraine war
 Ukraine to present 'victory plan' to US - Zelensky
+17 hrs ago
 Europe
 Russian woman's killer released for second time to fight in Ukraine
 Tributes paid to 'gentle giant' killed in Ukraine
+24 hrs ago
 Massive Russian strikes hit Ukraine for second day
 Local officials say at least three people have been killed in Russian attacks on Ukraine overnight.
 BBC InDepth
@@ -5334,11 +5224,11 @@
 Copyright 2024 BBC. All rights reserved.  The BBC is not responsible for the content of external sites. Read about our approach to external linking.
 Advertisement
 RegisterSign In
-LIVEStarmer meets Scholz in Berlin as he aims to 'reset' UK-EU relations The prime minister is in Berlin to meet German Chancellor Olaf Scholz, before meeting French President Emmanuel Macron on Thursday.Trump faces revised 2020 election interference chargesThe charges are in response to a Supreme Court ruling that presidents enjoy broad immunity for official acts.1 hr agoUS &amp; Canada
+LIVEStarmer meets Scholz in Berlin as he aims to 'reset' UK-EU relations The prime minister is in Berlin to meet German Chancellor Olaf Scholz, before meeting French President Emmanuel Macron on Thursday.Trump faces revised 2020 election interference chargesThe charges are in response to a Supreme Court ruling that presidents enjoy broad immunity for official acts.2 hrs agoUS &amp; Canada
 LIVEStarmer meets Scholz in Berlin as he aims to 'reset' UK-EU relations The prime minister is in Berlin to meet German Chancellor Olaf Scholz, before meeting French President Emmanuel Macron on Thursday.
 LIVEStarmer meets Scholz in Berlin as he aims to 'reset' UK-EU relations
-Trump faces revised 2020 election interference chargesThe charges are in response to a Supreme Court ruling that presidents enjoy broad immunity for official acts.1 hr agoUS &amp; Canada
-1 hr agoUS &amp; Canada
+Trump faces revised 2020 election interference chargesThe charges are in response to a Supreme Court ruling that presidents enjoy broad immunity for official acts.2 hrs agoUS &amp; Canada
+2 hrs agoUS &amp; Canada
 Harris and Walz to sit for first interview of campaignVice-President Kamala Harris and Minnesota Governor Tim Walz will be interviewed by CNN on Thursday in Georgia.9 hrs agoUS &amp; Canada
 9 hrs agoUS &amp; Canada
 Man posing as YouTube star jailed for global sextortionMuhammad Zain Ul Abideen Rasheed blackmailed 286 people - majority of them children - from 20 countries.7 hrs agoAustralia
@@ -5352,7 +5242,7 @@
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:54:33</t>
+          <t>2024-08-28 09:08:19</t>
         </is>
       </c>
     </row>
@@ -5377,7 +5267,7 @@
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 08:54:33</t>
+          <t>2024-08-28 09:08:19</t>
         </is>
       </c>
     </row>

--- a/Scraping_Results.xlsx
+++ b/Scraping_Results.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,11 @@
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Last Simulation Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Differences</t>
         </is>
       </c>
     </row>
@@ -1211,9 +1216,10 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 09:08:19</t>
-        </is>
-      </c>
+          <t>2024-08-28 09:33:22</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1296,7 +1302,14 @@
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 09:08:19</t>
+          <t>2024-08-28 09:33:22</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>+ Technisch notwendig  32 Technisch notwendige Cookies helfen dabei, eine Webseite nutzbar zu machen, indem sie Grundfunktionen wie Seitennavigation und Zugriff auf sichere Bereiche der Webseite ermöglichen. Die Webseite kann ohne diese Cookies nicht richtig funktionieren. Cookiebot1Erfahren Sie mehr über diesen Anbieter1.gifWird verwendet, um die Anzahl der Sitzungen auf der Website zu zählen, was für die Optimierung der Bereitstellung von CMP-Produkten erforderlich ist. Ablauf: SitzungTyp: Pixel-TrackerGoogle1Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness.rc::eDieser Cookie wird verwendet, um zwischen Menschen und Bots zu unterscheiden.Ablauf: SitzungTyp: HTML Local StorageLinkedIn4Erfahren Sie mehr über diesen AnbieterbcookieWird verwendet, um Spam zu erkennen und die Sicherheit der Webseite zu verbessern.Ablauf: 1 JahrTyp: HTTP-Cookieli_gcSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 180 TageTyp: HTTP-CookiebscookieDieser Cookie wird verwendet, um den Besucher über eine Anwendung zu identifizieren. Dadurch kann sich der Besucher beispielsweise über seine LinkedIn-Anwendung bei einer webseite anmelden.Ablauf: 1 JahrTyp: HTTP-CookieJSESSIONIDBehält die Zustände des Benutzers bei allen Seitenanfragen bei.Ablauf: SitzungTyp: HTTP-CookieStripe3Erfahren Sie mehr über diesen AnbietermBestimmt das Gerät, mit dem auf die Webseite zugegriffen wird. Dadurch kann die Webseite entsprechend formatiert werden.Ablauf: 400 TageTyp: HTTP-Cookie__stripe_midDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: 1 JahrTyp: HTTP-Cookie__stripe_sidDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: 1 TagTyp: HTTP-CookieWordPress.com1Erfahren Sie mehr über diesen Anbietert.gifStellt sicher, dass die Produktbilder auf der Website korrekt dargestellt werden.Ablauf: SitzungTyp: Pixel-Trackerapp.involve.me2lvapp_sessionWird verwendet, um Formulare auf der Website zu implementieren.Ablauf: 1 TagTyp: HTTP-CookieXSRF-TOKENGewährleistet die Sicherheit beim Browsen für Besucher durch Verhinderung von Cross-Site Request Forgery. Dieser Cookie ist wesentlich für die Sicherheit der Website und des Besuchers.Ablauf: 1 TagTyp: HTTP-Cookiebranchenbuch.pv-magazine.deshop.pv-magazine.comwww.pv-magazine.de3wpEmojiSettingsSupports [x3]Dieses Cookie ist mit einem Bündel von Cookies verbunden, die dem Zweck der Bereitstellung und Präsentation von Inhalten dienen. Die Cookies behalten den korrekten Zustand von Schriftart, Blog-/Bildschiebereglern, Farbthemen und anderen Website-Einstellungen bei.Ablauf: SitzungTyp: HTML Local Storagecdn.consentmanager.net2__cmp#_.#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storage__cmp#_expire_#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storagecdn.consentmanager.netb.delivery.consentmanager.net2__cmp# [x2]Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 1 TagTyp: HTTP-Cookieconsent.cookiebot.comshop.pv-magazine.com3CookieConsent [x3]Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 1 JahrTyp: HTTP-Cookiem.stripe.com3Erfahren Sie mehr über diesen Anbieter_abDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: SitzungTyp: HTML Local Storage_mfDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: SitzungTyp: HTML Local StorageidAnstehendAblauf: SitzungTyp: HTML Local Storagewidget.sndcdn.com1sc_anonymous_idWird im Zusammenhang mit der 3D-Ansichtsfunktion auf der Website verwendet.Ablauf: 10 JahreTyp: HTTP-Cookiewww.selfmade-energy.com6uc_settingsSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storageuc_ui_versionSpeichert die Versionsnummer des Consent-Banners UI, die auf der aktuellen Domain verwendet wirdAblauf: BeständigTyp: HTML Local Storageuc_user_countryWird verwendet, um zu bestimmen, wo sich der Benutzer befindet, um festzustellen, ob der Benutzer der DSGVO oder anderen ePrivacy-Gesetzen unterliegt.Ablauf: SitzungTyp: HTML Local Storagetest_cookieVerwendet, um zu überprüfen, ob der Browser des Benutzers Cookies unterstützt.Ablauf: 1 TagTyp: HTTP-CookiecsrftokenHilft, Cross-Site Request Forgery- (CSRF-) Angriffe zu verhindern.Ablauf: 1 JahrTyp: HTTP-CookieSESS#Behält die Zustände des Benutzers bei allen Seitenanfragen bei.Ablauf: 14 TageTyp: HTTP-CookiePräferenzen  6 Präferenz-Cookies ermöglichen einer Webseite sich an Informationen zu erinnern, die die Art beeinflussen, wie sich eine Webseite verhält oder aussieht, wie z. B. Ihre bevorzugte Sprache oder die Region in der Sie sich befinden. LinkedIn3Erfahren Sie mehr über diesen AnbieterlangNotwendig für die Pflege von Spracheinstellungen für Unterseiten auf der Webseite.Ablauf: SitzungTyp: HTTP-CookielidcRegistriert, welcher Server-Cluster den Besucher bedient. Dies wird im Zusammenhang mit Load Balancing verwendet, um die Nutzererfahrung zu optimieren.Ablauf: 1 TagTyp: HTTP-Cookieli_alertsWird verwendet, um zu bestimmen, wann und wo bestimmte Pop-ups auf der Website für den Benutzer angezeigt werden sollen, und um sich zu merken, ob der Benutzer diese geschlossen hat, damit sie nicht mehrfach angezeigt werden.Ablauf: 1 JahrTyp: HTTP-Cookiem.stripe.com1Erfahren Sie mehr über diesen Anbieter1Dieser Cookie wird in Verbindung mit dem Zahlungsfenster verwendet. - Der Cookie ist für sichere Transaktionen auf der webseite erforderlich.Ablauf: SitzungTyp: HTML Local Storageshop.pv-magazine.com1qtrans_front_languageBestimmt die bevorzugte Sprache des Besuchers. Ermöglicht der Webseite, beim erneuten Besuch des Besuchers die bevorzugte Sprache festzulegen.Ablauf: 1 JahrTyp: HTTP-Cookiewww.selfmade-energy.com1uc_cross_domain_data_#AnstehendAblauf: BeständigTyp: HTML Local StorageStatistiken  36 Statistik-Cookies helfen Webseiten-Besitzern zu verstehen, wie Besucher mit Webseiten interagieren, indem Informationen anonym gesammelt und gemeldet werden. Google15Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness._ga [x7]Registriert eine eindeutige ID, die verwendet wird, um statistische Daten dazu, wie der Besucher die Website nutzt, zu generieren.Ablauf: 2 JahreTyp: HTTP-Cookie_gid [x4]Registriert eine eindeutige ID, die verwendet wird, um statistische Daten dazu, wie der Besucher die Website nutzt, zu generieren.Ablauf: 1 TagTyp: HTTP-Cookie_gatWird von Google Analytics verwendet, um die Anforderungsrate einzuschränkenAblauf: 1 TagTyp: HTTP-Cookie_ga_# [x3]Sammelt Daten dazu, wie oft ein Benutzer eine Website besucht hat, sowie Daten für den ersten und letzten Besuch. Von Google Analytics verwendet.Ablauf: 2 JahreTyp: HTTP-CookieHotjar3Erfahren Sie mehr über diesen Anbieter_hjSession_#Erfasst Statistiken über Besuche des Benutzers auf der Website, wie z. B. die Anzahl der Besuche, durchschnittliche Verweildauer auf der Website und welche Seiten gelesen wurden.Ablauf: 1 TagTyp: HTTP-Cookie_hjSessionUser_#Erfasst Statistiken über Besuche des Benutzers auf der Website, wie z. B. die Anzahl der Besuche, durchschnittliche Verweildauer auf der Website und welche Seiten gelesen wurden.Ablauf: 1 JahrTyp: HTTP-Cookie_hjTLDTestRegistriert statistische Daten über das Verhalten der Besucher auf der Website. Wird vom Website-Betreiber für internes Analytics verwendet.Ablauf: SitzungTyp: HTTP-CookieMicrosoft2Erfahren Sie mehr über diesen Anbieterc.gifSammelt Daten über die Navigation und das Verhalten des Benutzers auf der Website - Daraus werden statistische Berichte und Heatmaps für den Website-Besitzer erstellt.Ablauf: SitzungTyp: Pixel-TrackerCLIDSammelt Daten über die Navigation und das Verhalten des Benutzers auf der Website - Daraus werden statistische Berichte und Heatmaps für den Website-Besitzer erstellt.Ablauf: 1 JahrTyp: HTTP-CookieScribd2Erfahren Sie mehr über diesen Anbieter__CJ_session_metadataEnthält Daten über die Interaktion des Benutzers mit dem Hörbuch- und Dokumentenpräsentationstool für statistische Zwecke.Ablauf: SitzungTyp: HTTP-Cookie_scribd_sessionWird verwendet, um Audiodateien auf den Websites zu implementieren - Wird weiterhin verwendet, um festzustellen, wie viele und wer diese Dateien gehört hat.	Ablauf: 3 JahreTyp: HTTP-CookieSoundcloud1Erfahren Sie mehr über diesen Anbieternumber(#)Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: SitzungTyp: HTML Local StorageWordPress.com5Erfahren Sie mehr über diesen Anbieterg.gifRegistriert statistische Daten über das Verhalten der Besucher auf der Website. Wird vom Website-Betreiber für internes Analytics verwendet.Ablauf: SitzungTyp: Pixel-Trackertk_aiRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: 5 JahreTyp: HTTP-Cookietk_qsRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: 1 TagTyp: HTTP-Cookietk_rlRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: SitzungTyp: HTTP-Cookietk_roRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: SitzungTyp: HTTP-Cookiebranchenbuch.pv-magazine.de1gd_recently_viewedAnstehendAblauf: BeständigTyp: HTML Local Storagewww.bigmarker.com1time_zone_detectionDieses Cookie trägt zur Verbesserung der Benutzerfreundlichkeit bei, indem es die Funktionen der Website an die Zeitzone des Benutzers anpasst, z. B. die Anzeige von Veranstaltungszeiten, die Planung von Terminen oder die Anzeige relevanter Inhalte zur richtigen Zeit.Ablauf: SitzungTyp: HTTP-Cookiewww.selfmade-energy.com6uc_gcmRegistriert statistische Daten über das Verhalten der Besucher auf der Website. Wird vom Website-Betreiber für internes Analytics verwendet.Ablauf: BeständigTyp: HTML Local Storageuc_user_interactionRegistriert statistische Daten über das Verhalten der Besucher auf der Website. Wird vom Website-Betreiber für internes Analytics verwendet.Ablauf: BeständigTyp: HTML Local StoragehjActiveViewportIdsDieses Cookie enthält einen ID-String über die aktuelle Sitzung. Dieser beinhaltet nicht personenbezogene Informationen über die Unterseiten, die der Besucher aufruft – diese Informationen werden benutzt, um die Nutzererfahrung des Besuchers zu optimieren.Ablauf: BeständigTyp: HTML Local StoragehjViewportIdSpeichert die Bildschirmgröße des Nutzers, um die Größe der Bilder auf der Website einzustellen.Ablauf: SitzungTyp: HTML Local StorageuctTeil der Consent Management-Plattform (CMP) - Die Cookies sammeln Daten über die Interaktion des Benutzers mit dem Zustimmungstool der Website, um die Funktion des Zustimmungstools zu optimieren. Ablauf: SitzungTyp: Pixel-TrackersentryReplaySessionRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: SitzungTyp: HTML Local StorageMarketing  86 Marketing-Cookies werden verwendet, um Besuchern auf Webseiten zu folgen. Die Absicht ist, Anzeigen zu zeigen, die relevant und ansprechend für den einzelnen Benutzer sind und daher wertvoller für Publisher und werbetreibende Drittparteien sind.  Meta Platforms, Inc.3Erfahren Sie mehr über diesen Anbieter_fbp [x2]Wird von Facebook genutzt, um eine Reihe von Werbeprodukten anzuzeigen, zum Beispiel Echtzeitgebote dritter Werbetreibender.Ablauf: 3 MonateTyp: HTTP-Cookiefbsr_#Wird verwendet, um die Interaktion des Benutzers mit dem Facebook-Chat-Widget der Website zu verfolgen. Ablauf: SitzungTyp: HTTP-CookieGoogle10Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness.IDEVerwendet von Google DoubleClick, um die Handlungen des Benutzers auf der Webseite nach der Anzeige oder dem Klicken auf eine der Anzeigen des Anbieters zu registrieren und zu melden, mit dem Zweck der Messung der Wirksamkeit einer Werbung und der Anzeige zielgerichteter Werbung für den Benutzer.Ablauf: 400 TageTyp: HTTP-CookieNIDAnstehendAblauf: 6 MonateTyp: HTTP-Cookierc::hDieser Cookie wird verwendet, um zwischen Menschen und Bots zu unterscheiden.Ablauf: BeständigTyp: HTML Local Storagepagead/gen_204Sammelt Daten zum Besucherverhalten auf mehreren Websites, um relevantere Werbung zu präsentieren - Dies ermöglicht es der Website auch, die Anzahl der gleichen Werbeanzeige zu begrenzen.Ablauf: SitzungTyp: Pixel-Trackerpcs/activeviewWird von DoubleClick verwendet, um festzustellen, ob Website-Werbung richtig angezeigt wurde - Dies geschieht, um ihre Marketingaktivitäten effizienter zu gestalten.Ablauf: SitzungTyp: Pixel-Trackerpcs/viewDieses Cookie wird verwendet, um zu verfolgen, wie oft eine bestimmte Anzeige von einem Nutzer angesehen wird. Ablauf: SitzungTyp: Pixel-TrackercsiSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: SitzungTyp: Pixel-Tracker__eoiDas Cookie wird verwendet, um die Interaktionen und Präferenzen der Nutzer auf der Website zu verfolgen.Ablauf: 180 TageTyp: HTTP-Cookie_gcl_au [x2]Wird von Google AdSense zum Experimentieren mit Werbewirkung auf Websites verwendet, die ihre Services nutzen.Ablauf: 3 MonateTyp: HTTP-CookieLinkedIn1Erfahren Sie mehr über diesen AnbietersequenceNumber#sequenceNumberAnstehendAblauf: BeständigTyp: IndexedDBMas Capital1Erfahren Sie mehr über diesen Anbieterskeleton.gifWird verwendet, um Popup-Werbung auf der Website zu implementieren.  Ablauf: SitzungTyp: Pixel-TrackerMicrosoft10Erfahren Sie mehr über diesen AnbieterMR [x2]Wird verwendet, um Besucher auf mehreren Websites zu tracken, um relevante Werbung basierend auf den Präferenzen des Besuchers zu präsentieren.Ablauf: 7 TageTyp: HTTP-CookieMUID [x2]Weitgehend von Microsoft als eindeutige Benutzer-ID verwendet. Der Cookie ermöglicht Benutzer-Tracking durch Synchronisieren der ID in vielen Microsoft-Domänen.Ablauf: 1 JahrTyp: HTTP-CookieSRM_BWird verwendet, um die Interaktion des Benutzers mit der Suchleistenfunktion der Website zu verfolgen. Diese Daten können verwendet werden, um dem Benutzer relevante Produkte oder Dienstleistungen anzubieten.Ablauf: 1 JahrTyp: HTTP-CookieANONCHKRegistriert Daten über Besucher von mehreren Besuchen und auf mehreren Websites. Diese Informationen werden verwendet, um die Werbewirkung auf Websites zu messen.Ablauf: 1 TagTyp: HTTP-CookieSMRegistriert eine eindeutige ID, die das Gerät des Benutzers während der erneuten Besuche auf Websites identifiziert, die das gleiche Anzeige-Netzwerk verwenden. Die ID wird für die Ermöglichung gezielter Werbung genutzt.Ablauf: SitzungTyp: HTTP-Cookie_uetsid [x2]Sammelt Daten zum Besucherverhalten auf mehreren Websites, um relevantere Werbung zu präsentieren - Dies ermöglicht es der Website auch, die Anzahl der gleichen Werbeanzeige zu begrenzen.Ablauf: 1 TagTyp: HTTP-Cookie_uetvidWird verwendet, um Besucher auf mehreren Websites zu tracken, um relevante Werbung basierend auf den Präferenzen des Besuchers zu präsentieren.Ablauf: 1 JahrTyp: HTTP-CookieOptimizely2Erfahren Sie mehr über diesen AnbieteroptimizelyOptOut [x2]Erfasst Daten zu Besuchen des Benutzers auf der Website, wie z. B. die Anzahl der Besuche, durchschnittliche Verweildauer auf der Website und welche Seiten geladen wurden, mit dem Ziel der Darstellung zielgerichteter Anzeigen.Ablauf: SitzungTyp: HTTP-CookieScribd3Erfahren Sie mehr über diesen Anbieterfbssls_#Sammelt Daten über die Nutzung des Kommentarsystems auf der Website durch den Besucher, außerdem registriert es, welche Blogs/Artikel der Besucher gelesen hat - dies kann für Marketingzwecke verwendet werden. Ablauf: SitzungTyp: HTML Local Storagescribd_ubtcSammelt Informationen zum Besucherverhalten auf mehreren Websites. Diese Informationen werden auf der Website verwendet, um die Relevanz der Werbung zu optimieren.Ablauf: 400 TageTyp: HTTP-Cookie_fs_sample_userWird verwendet, um dem Besucher relevante Inhalte und Werbung zu präsentieren - Der Dienst wird von Drittanbietern bereitgestellt, die Echtzeitgebote für Werbetreibende ermöglichen.Ablauf: 30 TageTyp: HTTP-CookieSoundcloud1Erfahren Sie mehr über diesen AnbieterWIDGET::local::assignmentsWird von der Audio-Plattform SoundCloud verwendet, um ihre eingebetteten Inhalte/Dienste auf der Website zu implementieren, zu messen und zu verbessern - Die Datensammlung umfasst auch die Interaktion der Besucher mit eingebetteten Inhalten/Diensten. Dies kann für Statistiken oder Marketingzwecke genutzt werden.  Ablauf: BeständigTyp: HTML Local StorageTwitter Inc.1Erfahren Sie mehr über diesen Anbieteri/jot/embedsLegt eine eindeutige ID für den Besucher fest, die es Third-Party-Advertisern ermöglicht, den Besucher mit relevanter Werbung anzusprechen. Dieser Pairing-Service wird von Werbe-Hubs von Third Parties bereitgestellt, die Echtzeitgebote für Advertiser ermöglichen.Ablauf: SitzungTyp: Pixel-TrackerWordPress.com4Erfahren Sie mehr über diesen Anbietertk_lrSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: 1 JahrTyp: HTTP-Cookietk_orSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: 5 JahreTyp: HTTP-Cookietk_r3dSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: 3 TageTyp: HTTP-Cookietk_tcSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: SitzungTyp: HTTP-CookieYouTube37Erfahren Sie mehr über diesen Anbieter#-# [x2]AnstehendAblauf: SitzungTyp: HTML Local StorageiU5q-!O9@[#COOKIETABLE_ADVERTISING#]nbsp;[x2]Registriert eine eindeutige ID, um Statistiken der Videos von YouTube, die der Benutzer gesehen hat, zu behalten.Ablauf: SitzungTyp: HTML Local StorageLAST_RESULT_ENTRY_KEY [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: SitzungTyp: HTTP-CookienextId [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: SitzungTyp: HTTP-Cookierequests [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: SitzungTyp: HTTP-Cookieyt.innertube::nextId [x2]Registriert eine eindeutige ID, um Statistiken der Videos von YouTube, die der Benutzer gesehen hat, zu behalten.Ablauf: BeständigTyp: HTML Local Storageytidb::LAST_RESULT_ENTRY_KEY [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: BeständigTyp: HTML Local StorageYtIdbMeta#databases [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: BeständigTyp: IndexedDByt-remote-cast-available [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storageyt-remote-cast-installed [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storageyt-remote-connected-devices [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: BeständigTyp: HTML Local Storageyt-remote-device-id [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: BeständigTyp: HTML Local Storageyt-remote-fast-check-period [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storageyt-remote-session-app [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storageyt-remote-session-name [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storage-28724b-43be89d6AnstehendAblauf: SitzungTyp: HTML Local StorageLogsDatabaseV2:V#||LogsRequestsStoreDieses Cookie wird verwendet, um Nutzerinteraktionen für Tracking- und Analysezwecke zu speichern und zu verwalten.Ablauf: BeständigTyp: IndexedDBremote_sidNotwendig für die Implementierung und Funktionalität von YouTube-Videoinhalten auf der Website. Ablauf: SitzungTyp: HTTP-CookieServiceWorkerLogsDatabase#SWHealthLogNotwendig für die Implementierung und Funktionalität von YouTube-Videoinhalten auf der Website. Ablauf: BeständigTyp: IndexedDBTESTCOOKIESENABLEDWird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: 1 TagTyp: HTTP-CookieVISITOR_INFO1_LIVEVersucht, die Benutzerbandbreite auf Seiten mit integrierten YouTube-Videos zu schätzen.Ablauf: 180 TageTyp: HTTP-CookieYSCRegistriert eine eindeutige ID, um Statistiken der Videos von YouTube, die der Benutzer gesehen hat, zu behalten.Ablauf: SitzungTyp: HTTP-Cookiedoubleclick.netwww.selfmade-energy.com2pagead/landing [x2]Sammelt Daten zum Besucherverhalten auf mehreren Websites, um relevantere Werbung zu präsentieren - Dies ermöglicht es der Website auch, die Anzahl der gleichen Werbeanzeige zu begrenzen.Ablauf: SitzungTyp: Pixel-Trackerpv-magazine.de1_awlSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: 13 MonateTyp: HTTP-Cookiewww.bigmarker.com1_session_idSpeichert die Navigation der Besucher durch die Registrierung von Landing Pages - Dies ermöglicht der Webseite, relevante Produkte zu präsentieren und / oder ihre Werbeeffizienz auf anderen Webseiten zu messen.Ablauf: 3 TageTyp: HTTP-Cookiewww.pv-magazine.de2c4YGUxxz5aNu6NODlhMDgAnstehend. Ablauf: SitzungTyp: HTTP-CookieQ7Z0zw63hK0VBvRLy5LzFAnstehend.Ablauf: 7 TageTyp: HTTP-Cookiewww.selfmade-energy.com7_uetsidWird verwendet, um Besucher auf mehreren Websites zu tracken, um relevante Werbung basierend auf den Präferenzen des Besuchers zu präsentieren.Ablauf: BeständigTyp: HTML Local Storage_uetsid_expEnthält das Verfallsdatum für das Cookie mit entsprechendem Namen. Ablauf: BeständigTyp: HTML Local Storage_uetvidWird verwendet, um Besucher auf mehreren Websites zu tracken, um relevante Werbung basierend auf den Präferenzen des Besuchers zu präsentieren.Ablauf: BeständigTyp: HTML Local Storage_uetvid_expEnthält das Verfallsdatum für das Cookie mit entsprechendem Namen. Ablauf: BeständigTyp: HTML Local StoragelastExternalReferrerErmittelt, wie der Nutzer die Website erreicht hat, indem seine letzte URL-Adresse registriert wird.Ablauf: BeständigTyp: HTML Local StoragelastExternalReferrerTimeErmittelt, wie der Nutzer die Website erreicht hat, indem seine letzte URL-Adresse registriert wird.Ablauf: BeständigTyp: HTML Local Storagepagead/1p-user-list/#Wird verwendet, um zu tracken, ob der Besucher Interesse an bestimmten Produkten oder Ereignissen auf mehreren Websites gezeigt hat und wie der Besucher zwischen den Websites navigiert - Dies wird zur Messung des Werbeaufwands verwendet und erleichtert die Zahlung von Empfehlungsgebühren zwischen Websites.Ablauf: SitzungTyp: Pixel-TrackerNicht klassifiziert  1Nicht klassifizierte Cookies sind Cookies, die wir gerade versuchen zu klassifizieren, zusammen mit Anbietern von individuellen Cookies. cdn.consentmanager.net1delivery/info/AnstehendAblauf: SitzungTyp: Pixel-Tracker
+- Technisch notwendig  32 Technisch notwendige Cookies helfen dabei, eine Webseite nutzbar zu machen, indem sie Grundfunktionen wie Seitennavigation und Zugriff auf sichere Bereiche der Webseite ermöglichen. Die Webseite kann ohne diese Cookies nicht richtig funktionieren. Cookiebot1Erfahren Sie mehr über diesen Anbieter1.gifWird verwendet, um die Anzahl der Sitzungen auf der Website zu zählen, was für die Optimierung der Bereitstellung von CMP-Produkten erforderlich ist. Ablauf: SitzungTyp: Pixel-TrackerGoogle1Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness.rc::eDieser Cookie wird verwendet, um zwischen Menschen und Bots zu unterscheiden.Ablauf: SitzungTyp: HTML Local StorageLinkedIn4Erfahren Sie mehr über diesen AnbieterbcookieWird verwendet, um Spam zu erkennen und die Sicherheit der Webseite zu verbessern.Ablauf: 1 JahrTyp: HTTP-Cookieli_gcSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 180 TageTyp: HTTP-CookiebscookieDieser Cookie wird verwendet, um den Besucher über eine Anwendung zu identifizieren. Dadurch kann sich der Besucher beispielsweise über seine LinkedIn-Anwendung bei einer webseite anmelden.Ablauf: 1 JahrTyp: HTTP-CookieJSESSIONIDBehält die Zustände des Benutzers bei allen Seitenanfragen bei.Ablauf: SitzungTyp: HTTP-CookieStripe3Erfahren Sie mehr über diesen AnbietermBestimmt das Gerät, mit dem auf die Webseite zugegriffen wird. Dadurch kann die Webseite entsprechend formatiert werden.Ablauf: 400 TageTyp: HTTP-Cookie__stripe_midDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: 1 JahrTyp: HTTP-Cookie__stripe_sidDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: 1 TagTyp: HTTP-CookieWordPress.com1Erfahren Sie mehr über diesen Anbietert.gifStellt sicher, dass die Produktbilder auf der Website korrekt dargestellt werden.Ablauf: SitzungTyp: Pixel-Trackerapp.involve.me2lvapp_sessionWird verwendet, um Formulare auf der Website zu implementieren.Ablauf: 1 TagTyp: HTTP-CookieXSRF-TOKENGewährleistet die Sicherheit beim Browsen für Besucher durch Verhinderung von Cross-Site Request Forgery. Dieser Cookie ist wesentlich für die Sicherheit der Website und des Besuchers.Ablauf: 1 TagTyp: HTTP-Cookiebranchenbuch.pv-magazine.deshop.pv-magazine.comwww.pv-magazine.de3wpEmojiSettingsSupports [x3]Dieses Cookie ist mit einem Bündel von Cookies verbunden, die dem Zweck der Bereitstellung und Präsentation von Inhalten dienen. Die Cookies behalten den korrekten Zustand von Schriftart, Blog-/Bildschiebereglern, Farbthemen und anderen Website-Einstellungen bei.Ablauf: SitzungTyp: HTML Local Storagecdn.consentmanager.net2__cmp#_.#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storage__cmp#_expire_#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storagecdn.consentmanager.netb.delivery.consentmanager.net2__cmp# [x2]Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 1 TagTyp: HTTP-Cookieconsent.cookiebot.comshop.pv-magazine.com3CookieConsent [x3]Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 1 JahrTyp: HTTP-Cookiem.stripe.com3Erfahren Sie mehr über diesen Anbieter_abDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: SitzungTyp: HTML Local Storage_mfDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: SitzungTyp: HTML Local StorageidAnstehendAblauf: SitzungTyp: HTML Local Storagewidget.sndcdn.com1sc_anonymous_idWird im Zusammenhang mit der 3D-Ansichtsfunktion auf der Website verwendet.Ablauf: 10 JahreTyp: HTTP-Cookiewww.selfmade-energy.com6uc_settingsSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storageuc_ui_versionSpeichert die Versionsnummer des Consent-Banners UI, die auf der aktuellen Domain verwendet wirdAblauf: BeständigTyp: HTML Local Storageuc_user_countryWird verwendet, um zu bestimmen, wo sich der Benutzer befindet, um festzustellen, ob der Benutzer der DSGVO oder anderen ePrivacy-Gesetzen unterliegt.Ablauf: SitzungTyp: HTML Local Storagetest_cookieVerwendet, um zu überprüfen, ob der Browser des Benutzers Cookies unterstützt.Ablauf: 1 TagTyp: HTTP-CookiecsrftokenHilft, Cross-Site Request Forgery- (CSRF-) Angriffe zu verhindern.Ablauf: 1 JahrTyp: HTTP-CookieSESS#Behält die Zustände des Benutzers bei allen Seitenanfragen bei.Ablauf: 14 TageTyp: HTTP-CookiePräferenzen  6 Präferenz-Cookies ermöglichen einer Webseite sich an Informationen zu erinnern, die die Art beeinflussen, wie sich eine Webseite verhält oder aussieht, wie z. B. Ihre bevorzugte Sprache oder die Region in der Sie sich befinden. LinkedIn3Erfahren Sie mehr über diesen AnbieterlangNotwendig für die Pflege von Spracheinstellungen für Unterseiten auf der Webseite.Ablauf: SitzungTyp: HTTP-CookielidcRegistriert, welcher Server-Cluster den Besucher bedient. Dies wird im Zusammenhang mit Load Balancing verwendet, um die Nutzererfahrung zu optimieren.Ablauf: 1 TagTyp: HTTP-Cookieli_alertsWird verwendet, um zu bestimmen, wann und wo bestimmte Pop-ups auf der Website für den Benutzer angezeigt werden sollen, und um sich zu merken, ob der Benutzer diese geschlossen hat, damit sie nicht mehrfach angezeigt werden.Ablauf: 1 JahrTyp: HTTP-Cookiem.stripe.com1Erfahren Sie mehr über diesen Anbieter1Dieser Cookie wird in Verbindung mit dem Zahlungsfenster verwendet. - Der Cookie ist für sichere Transaktionen auf der webseite erforderlich.Ablauf: SitzungTyp: HTM
++ Technisch notwendig  32 Technisch notwendige Cookies helfen dabei, eine Webseite nutzbar zu machen, indem sie Grundfunktionen wie Seitennavigation und Zugriff auf sichere Bereiche der Webseite ermöglichen. Die Webseite kann ohne diese Cookies nicht richtig funktionieren. Cookiebot1Erfahren Sie mehr über diesen Anbieter1.gifWird verwendet, um die Anzahl der Sitzungen auf der Website zu zählen, was für die Optimierung der Bereitstellung von CMP-Produkten erforderlich ist. Ablauf: SitzungTyp: Pixel-TrackerGoogle1Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness.rc::eDieser Cookie wird verwendet, um zwischen Menschen und Bots zu unterscheiden.Ablauf: SitzungTyp: HTML Local StorageLinkedIn4Erfahren Sie mehr über diesen AnbieterbcookieWird verwendet, um Spam zu erkennen und die Sicherheit der Webseite zu verbessern.Ablauf: 1 JahrTyp: HTTP-Cookieli_gcSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 180 TageTyp: HTTP-CookiebscookieDieser Cookie wird verwendet, um den Besucher über eine Anwendung zu identifizieren. Dadurch kann sich der Besucher beispielsweise über seine LinkedIn-Anwendung bei einer webseite anmelden.Ablauf: 1 JahrTyp: HTTP-CookieJSESSIONIDBehält die Zustände des Benutzers bei allen Seitenanfragen bei.Ablauf: SitzungTyp: HTTP-CookieStripe3Erfahren Sie mehr über diesen AnbietermBestimmt das Gerät, mit dem auf die Webseite zugegriffen wird. Dadurch kann die Webseite entspreche</t>
         </is>
       </c>
     </row>
@@ -1636,9 +1649,10 @@
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 09:08:19</t>
-        </is>
-      </c>
+          <t>2024-08-28 09:33:22</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2216,9 +2230,10 @@
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 09:08:19</t>
-        </is>
-      </c>
+          <t>2024-08-28 09:33:22</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2330,71 +2345,133 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>Sign in
-Stay updated on your professional world.
+          <t>Join LinkedIn
+Email
+Password (6+ characters)
+By clicking Agree &amp; Join, you agree to the LinkedIn User Agreement, Privacy Policy, and Cookie Policy.
+Agree &amp; Join
+or
+Already on Linkedin? Sign in
+Agree &amp; Join LinkedIn
+By clicking Continue to join or sign in, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
+Skip to main content
+LinkedIn
+© 2024
+About
+Accessibility
+User Agreement
+Privacy Policy
+Your California Privacy Choices
+Cookie Policy
+Copyright Policy
+Brand Policy
+Guest Controls
+Community Guidelines
+Language
+Not you?
+Remove photo
+First name
+Last name
+Sign in
 Email or phone
 Password
 Show
 Forgot password?
-or
-By clicking Continue, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
-Sign in with Apple
-Sign in with a passkey
-New to LinkedIn? Join now
-LinkedIn
-© 2024
-User Agreement
-Privacy Policy
-Community Guidelines
-Cookie Policy
-Copyright Policy
-Send Feedback
-Language
-We’ve emailed a one-time link to your primary email address
-Click on the link to sign in instantly to your LinkedIn account.
-If you don’t see the email in your inbox, check your spam folder.
-Resend email
-Back
-Agree &amp; Join LinkedIn
-العربية (Arabic)
-বাংলা (Bangla)
-Čeština (Czech)
-Dansk (Danish)
-Deutsch (German)
-English (English)
-Español (Spanish)
-Français (French)
-हिंदी (Hindi)
-Magyar (Hungarian)
-Bahasa Indonesia (Indonesian)
-Italiano (Italian)
-日本語 (Japanese)
-한국어 (Korean)
-Bahasa Malaysia (Malay)
-Nederlands (Dutch)
-Norsk (Norwegian)
-ਪੰਜਾਬੀ (Punjabi)
-Polski (Polish)
-Português (Portuguese)
-Română (Romanian)
-Русский (Russian)
-Svenska (Swedish)
-ภาษาไทย (Thai)
-Tagalog (Tagalog)
-Türkçe (Turkish)
-Українська (Ukrainian)
-简体中文 (Chinese (Simplified))
-正體中文 (Chinese (Traditional))</t>
+Continue with GoogleContinue with Google
+New to Linkedin?  Join now</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 09:08:19</t>
+          <t>2024-08-28 09:33:22</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>+ Join LinkedIn
++ Email
++ Password (6+ characters)
++ By clicking Agree &amp; Join, you agree to the LinkedIn User Agreement, Privacy Policy, and Cookie Policy.
++ Agree &amp; Join
++ or
++ Already on Linkedin? Sign in
++ Agree &amp; Join LinkedIn
++ By clicking Continue to join or sign in, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
++ Skip to main content
++ LinkedIn
++ © 2024
++ About
++ Accessibility
++ User Agreement
++ Privacy Policy
++ Your California Privacy Choices
++ Cookie Policy
++ Copyright Policy
++ Brand Policy
++ Guest Controls
++ Community Guidelines
++ Language
++ Not you?
++ Remove photo
++ First name
++ Last name
+- Stay updated on your professional world.
++ Continue with GoogleContinue with Google
+- or
+- By clicking Continue, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
+- Sign in with Apple
+- Sign in with a passkey
+- New to LinkedIn? Join now
++ New to Linkedin?  Join now
+- LinkedIn
+- © 2024
+- User Agreement
+- Privacy Policy
+- Community Guidelines
+- Cookie Policy
+- Copyright Policy
+- Send Feedback
+- Language
+- We’ve emailed a one-time link to your primary email address
+- Click on the link to sign in instantly to your LinkedIn account.
+- If you don’t see the email in your inbox, check your spam folder.
+- Resend email
+- Back
+- Agree &amp; Join LinkedIn
+- العربية (Arabic)
+- বাংলা (Bangla)
+- Čeština (Czech)
+- Dansk (Danish)
+- Deutsch (German)
+- English (English)
+- Español (Spanish)
+- Français (French)
+- हिंदी (Hindi)
+- Magyar (Hungarian)
+- Bahasa Indonesia (Indonesian)
+- Italiano (Italian)
+- 日本語 (Japanese)
+- 한국어 (Korean)
+- Bahasa Malaysia (Malay)
+- Nederlands (Dutch)
+- Norsk (Norwegian)
+- ਪੰਜਾਬੀ (Punjabi)
+- Polski (Polish)
+- Português (Portuguese)
+- Română (Romanian)
+- Русский (Russian)
+- Svenska (Swedish)
+- ภาษาไทย (Thai)
+- Tagalog (Tagalog)
+- Türkçe (Turkish)
+- Українська (Ukrainian)
+- 简体中文 (Chinese (Simplified))
+- 正體中文 (Chinese (Traditional))</t>
         </is>
       </c>
     </row>
@@ -3127,9 +3204,10 @@
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 09:08:19</t>
-        </is>
-      </c>
+          <t>2024-08-28 09:33:22</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3767,9 +3845,9 @@
 Eine solide Ausbildung, gute Aufstiegsmöglichkeiten, spannende Aufgaben und ein tolles Team warten auf dich!
 Zu den Informationen und Angeboten
 Karriere
+Verwaltungstalente oder Ökonom*innen (w/m/d) im Bereich der Digitalisierung
 Verwaltungstalent oder Techniker*in (w/m/d) im Frequenzmanagement
-Ingenieur*innen (w/m/d) für unseren Prüf- und Messdienst
-Alle 25 Einträge ansehen
+Alle 26 Einträge ansehen
 Mediathek
 In der Mediathek finden Sie Berichte, Interviews, Bilder, Videos und weitere Informationen der Bundesnetzagentur.
 Zur Mediathek
@@ -3927,7 +4005,22 @@
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 09:08:19</t>
+          <t>2024-08-28 09:33:22</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>+ Verwaltungstalente oder Ökonom*innen (w/m/d) im Bereich der Digitalisierung
+- Ingenieur*innen (w/m/d) für unseren Prüf- und Messdienst
+- Alle 25 Einträge ansehen
++ Alle 26 Einträge ansehen
++ Wasserstoff
++ Bundesnetzagentur erhält den Antrag für das Wasserstoff-Kernnetz
+- 4 / 5
++ 5 / 5
+- Wasserstoff      Bundesnetzagentur erhält den Antrag für das Wasserstoff-Kernnetz
+- Wasserstoff
+- Bundesnetzagentur erhält den Antrag für das Wasserstoff-Kernnetz</t>
         </is>
       </c>
     </row>
@@ -4339,9 +4432,10 @@
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 09:08:19</t>
-        </is>
-      </c>
+          <t>2024-08-28 09:33:22</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -4736,9 +4830,9 @@
 165
 Fachartikel
 &gt;2000
-An­bie­ter­lis­te Dienst­leis­ter Re­dis­patch 2.0
-Auf der Website des BDEW finden Sie eine offene Liste mit Unternehmen, die Dienstleistungen für Anlagenbetreiber im Rahmen des neuen Redispatchregimes erbringen.
-ZUR ANBIETERLISTE
+BDEW-We­bi­na­re
+Die aktuellen Themen der Energie- und Wasserwirtschaft - kostenfrei für Mitgliedsunternehmen.
+ZU DEN WEBINAREN
 Die wichtigsten Themen der Energie- und Wasserwirtschaft im Überblick.
 Elek­tro­mo­bi­li­tät
 Wir bringen die En­er­gie­wen­de in den Ver­kehrs­sek­tor
@@ -4775,11 +4869,11 @@
 BDEW-Ver­an­stal­tun­gen
 BDEW Kongress, Treffpunkt Netze und mehr – Seien Sie dabei!
 Mehr erfahren
+An­bie­ter­lis­te Dienst­leis­ter Re­dis­patch 2.0
+Auf der Website des BDEW finden Sie eine offene Liste mit Unternehmen, die Dienstleistungen für Anlagenbetreiber im Rahmen des neuen Redispatchregimes erbringen.
+Zur Anbieterliste
 Unterrichtsmaterialien zu aktuellen Energie- und Wasser/Abwasser-Themen
 Mehr
-BDEW-We­bi­na­re
-Die aktuellen Themen der Energie- und Wasserwirtschaft - kostenfrei für Mitgliedsunternehmen.
-Zu den Webinaren
 In­stal­la­teur­ver­zeich­nis Strom/ Gas/ Wasser
 So gelangen Sie zu Ihren AnsprechpartnerInnen in den Landesinstallateurausschüssen
 Zur Übersicht
@@ -4801,7 +4895,21 @@
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 09:08:19</t>
+          <t>2024-08-28 09:33:22</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>- Alles Wasser Volt
+- Deine Zukunft für eine nachhaltige Zukunft: Bewirb Dich jetzt in der Energie- und Wasserwirtschaft
++ BDEW-We­bi­na­re
++ Die aktuellen Themen der Energie- und Wasserwirtschaft - kostenfrei für Mitgliedsunternehmen.
++ ZU DEN WEBINAREN
+- BDEW-We­bi­na­re
+- Die aktuellen Themen der Energie- und Wasserwirtschaft - kostenfrei für Mitgliedsunternehmen.
+- Zu den Webinaren
++ Alles Wasser Volt
++ Deine Zukunft für eine nachhaltige Zukunft: Bewirb Dich jetzt in der Energie- und Wasserwirtschaft</t>
         </is>
       </c>
     </row>
@@ -5045,14 +5153,14 @@
 World
 Paralysed by an ex-boyfriend, Otto rises as Paralympian
 Tracy Otto's ex-boyfriend thought he had killed her. Instead, Otto used his attack as the launchpad for an extraordinary second act in her life.
-9 hrs ago
 Disability Sport
 Why badminton has become code for teen sex in Hong Kong
 The education bureau suggests teens who want to have sex could "go out to play badminton together" instead.
-43 mins ago
+1 hr ago
 Asia
 Tanker attacked by Houthis could be leaking oil - US
 The Greek-flagged MV Sounion is on fire after being attacked several times last week, the Pentagon says.
+11 hrs ago
 Middle East
 Only from the BBC
 Can Barbie help beat teen smartphone addiction?
@@ -5060,12 +5168,12 @@
 Technology
 The burger that fuelled the Manhattan Project
 If New Mexico could have one state food, it would be the green chile cheeseburger, with each restaurant, diner and roadhouse cafe claiming to have the ultimate version.
-21 hrs ago
+22 hrs ago
 Travel
 More news
 Sabina Shoal: The new flashpoint between China and the Philippines
 Both countries blame each other for repeated boat collisions near the shoal in recent days.
-5 hrs ago
+6 hrs ago
 Man posing as YouTube star jailed for global sextortion
 Muhammad Zain Ul Abideen Rasheed blackmailed 286 people - majority of them children - from 20 countries.
 7 hrs ago
@@ -5075,7 +5183,6 @@
 15 hrs ago
 Starmer in Berlin to 'turn corner on Brexit'
 The UK is set to start talks on a treaty with Germany, as the government looks to reset relations with Europe.
-52 mins ago
 Politics
 South Korea faces deepfake porn 'emergency'
 The president has addressed the growing epidemic after Telegram users were found exchanging doctored photos of underage girls.
@@ -5088,15 +5195,19 @@
 Harris and Walz to sit for first interview of campaign
 Vice-President Kamala Harris and Minnesota Governor Tim Walz will be interviewed by CNN on Thursday in Georgia.
 Must watch
-See how to reconstruct a Bronze Age necklace
-A Bronze Age necklace is back on show in all its glory for the first time in thousands of years after a painstaking reconstruction process.
-11 hrs ago
-Tayside &amp; Central Scotland
+The 3,000-year-old history of the passport
+The modern passport was introduced after World War One, but its history spans thousands of years.
+36 mins ago
 Lightning strikes and a rainbow forms during Minnesota storm
 Lightning flickered through the orange skies at the same time as a rainbow, after a summer storm.
 16 hrs ago
+See how to reconstruct a Bronze Age necklace
+A Bronze Age necklace is back on show in all its glory for the first time in thousands of years after a painstaking reconstruction process.
+12 hrs ago
+Tayside &amp; Central Scotland
 Music fans react to Oasis' reunion in Cardiff
 The 2025 reunion tour will kick off in Cardiff 15 years after the band's split - but opinion is mixed.
+17 hrs ago
 Wales
 'Table tennis makes all my worries go away'
 Bly Twomey will be the youngest member of Great Britain's Paralympic table tennis team in Paris, aiming to add to the seven medals won three years ago in Tokyo.
@@ -5106,26 +5217,27 @@
 London
 People trapped in mid-air after ride malfunctions in Australia
 The ride was stopped due to a "sensor communication fault", according to a theme park official.
-18 hrs ago
-Inside the world's largest hurricane simulator
-At the University of Miami, a large indoor air-sea interaction test facility measures the impact of storms.
-1 day ago
-Earth
+19 hrs ago
 Culture
 Why Oasis defined the spirit of the 90s
 Thirty years after the release of their captivating debut album, Oasis have announced they are reuniting – news that has delighted middle-aged fans and a whole new generation alike.
 See more
-Esports champ wants to get into real world of motorsport
-Luke Bennett won a cash prize after winning the sim racing event at the Esports World Cup in Riyadh.
+Science and health
+Why your dog loves to roll in poo
+Dogs have a baffling obsession with rolling in foul-smelling substances. It may be part of a form of communication we are only just starting to understand.
 News
+St Kitts and Nevis media guide
+8 mins ago
+Latin America &amp; Caribbean
+St Kitts and Nevis country profile
+14 mins ago
 SA billionaire overtakes Dangote as Africa’s richest man
+South African Johann Rupert controls Richemont, one of the world's largest luxury goods firms.
 Africa
-Israeli military launches major West Bank operation
-56 mins ago
 Sport
 Football latest: Transfer updates with Man Utd and Arsenal active, plus EFL Cup reaction
 Former champion Raducanu out in US Open first round
-4 hrs ago
+5 hrs ago
 Tennis
 Nacional's Izquierdo dies aged 27 after collapse
 3 hrs ago
@@ -5135,11 +5247,14 @@
 Premier League
 Business
 Innovation
-Why your dog loves to roll in poo
-Just now
+Esports champ wants to get into real world of motorsport
+The people being infected with diseases on purpose
+Scientists are turning to a controversial approach to test new vaccines and treatments by deliberately infecting volunteers with potentially deadly viruses, parasites and bacteria.
+24 hrs ago
 Future
-The Bahamas: The last lighthouse of its kind
-Reece Parkinson heads to the Bahamas, where he meets a community adapting to unpredictable weather patterns.
+Inside the world's largest hurricane simulator
+At the University of Miami, a large indoor air-sea interaction test facility measures the impact of storms.
+18 hrs ago
 Oasis tickets and pre-sale ballot - everything you need to know about reunion
 The US blockbuster that pioneered a Muslim hero
 The 13th Warrior starring Antonio Banderas was a big flop upon its release in 1999. But now, it's been rehabilitated – among Muslim fans in particular.
@@ -5151,13 +5266,17 @@
 A Dutch F1 expert's guide to Amsterdam
 Former Formula 1 and IndyCar driver Robert Doornbos has called Amsterdam home since 2018. This is the Dutch speedster's guide to enjoying the Dutch capital, during F1 and beyond.
 4 days ago
+Earth
 Lake Tahoe sees first August snow in 20 years
+1 day ago
 The people working to help Scotland's bats bounce back
+4 hrs ago
 Scotland
 Surging seas are coming for us all, warns UN chief
 Speaking to the BBC at the Pacific Islands Forum, António Guterres says these islands are the "most vulnerable".
 Climate
 World of Wonder
+The Bahamas: The last lighthouse of its kind
 World of wonder
 Protecting Thailand's famous 'paradise beach'
 19 Aug 2024
@@ -5175,25 +5294,24 @@
 In History
 Discover the headlines from this week in history. See the past come to life through the BBC's unique archive, in your inbox every Thursday.
 Latest on the US election
+Scrutiny over claims RFK Jr cut off dead whale's head
+24 mins ago
 Why Harris campaign is fighting for unmuted debate mics
-Trump adds ex-Democrats Gabbard and RFK Jr to transition team
-The former progressives have endorsed Trump, while a group of former Republicans has declared support for Kamala Harris.
+They will be muted when it's the other candidate's turn to speak - but Ms Harris's team are pushing back.
 Latest on the Israel-Gaza war
 Namibia blocks ship over Israel war-crime concerns
 Who are the released hostages?
-19 hrs ago
 Stories of the hostages taken by Hamas from Israel
 It is thought 104 hostages remain unaccounted for after the 7 October attacks.
 Latest on the Ukraine war
 Ukraine to present 'victory plan' to US - Zelensky
-17 hrs ago
 Europe
 Russian woman's killer released for second time to fight in Ukraine
 Tributes paid to 'gentle giant' killed in Ukraine
-24 hrs ago
 Massive Russian strikes hit Ukraine for second day
 Local officials say at least three people have been killed in Russian attacks on Ukraine overnight.
 BBC InDepth
+20 hrs ago
 Riots show how the UK's far right has changed
 7 days ago
 Power, oil and a $450m painting - insiders on the rise of Saudi's Crown Prince
@@ -5229,8 +5347,8 @@
 LIVEStarmer meets Scholz in Berlin as he aims to 'reset' UK-EU relations
 Trump faces revised 2020 election interference chargesThe charges are in response to a Supreme Court ruling that presidents enjoy broad immunity for official acts.2 hrs agoUS &amp; Canada
 2 hrs agoUS &amp; Canada
-Harris and Walz to sit for first interview of campaignVice-President Kamala Harris and Minnesota Governor Tim Walz will be interviewed by CNN on Thursday in Georgia.9 hrs agoUS &amp; Canada
-9 hrs agoUS &amp; Canada
+Harris and Walz to sit for first interview of campaignVice-President Kamala Harris and Minnesota Governor Tim Walz will be interviewed by CNN on Thursday in Georgia.10 hrs agoUS &amp; Canada
+10 hrs agoUS &amp; Canada
 Man posing as YouTube star jailed for global sextortionMuhammad Zain Ul Abideen Rasheed blackmailed 286 people - majority of them children - from 20 countries.7 hrs agoAustralia
 7 hrs agoAustralia</t>
         </is>
@@ -5242,7 +5360,111 @@
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 09:08:19</t>
+          <t>2024-08-28 09:33:22</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>- 1 hr ago
++ 2 hrs ago
+- Israeli military launches major West Bank operation
++ Israel raids four West Bank cities with several Palestinians reported killed
+- At least nine Palestinians have been killed by Israeli forces in the north of the occupied West Bank, officials say.
++ At least nine Palestinians have been killed by Israeli forces in the north of the occupied West Bank, health officials say.
+- 9 hrs ago
+- 22 mins ago
++ 1 hr ago
++ 11 hrs ago
+- 21 hrs ago
++ 22 hrs ago
+- 5 hrs ago
++ 6 hrs ago
+- 14 hrs ago
++ 15 hrs ago
+- 32 mins ago
+- 13 hrs ago
++ 14 hrs ago
++ 13 hrs ago
++ The 3,000-year-old history of the passport
++ The modern passport was introduced after World War One, but its history spans thousands of years.
++ 36 mins ago
+- See how to reconstruct a Bronze Age necklace
+- A Bronze Age necklace is back on show in all its glory for the first time in thousands of years after a painstaking reconstruction process.
+- 11 hrs ago
+- Tayside &amp; Central Scotland
++ See how to reconstruct a Bronze Age necklace
++ A Bronze Age necklace is back on show in all its glory for the first time in thousands of years after a painstaking reconstruction process.
++ 12 hrs ago
++ Tayside &amp; Central Scotland
++ 17 hrs ago
++ 'Table tennis makes all my worries go away'
++ Bly Twomey will be the youngest member of Great Britain's Paralympic table tennis team in Paris, aiming to add to the seven medals won three years ago in Tokyo.
++ 13 Aug 2024
+- 15 hrs ago
+- 18 hrs ago
++ 19 hrs ago
+- Appeal over Bible verse bottles bears fruit
+- An appeal to whoever was dumping plastic bottles leads to a dramatic drop in their numbers.
+- UK
+- Inside the world's largest hurricane simulator
+- At the University of Miami, a large indoor air-sea interaction test facility measures the impact of storms.
+- 1 day ago
+- Earth
+- Lake Tahoe sees first August snow in 20 years
+- The unseasonable weather comes months before the local ski season in the Sierra Nevada is due to start.
+- Esports champ wants to get into real world of motorsport
+- Luke Bennett won a cash prize after winning the sim racing event at the Esports World Cup in Riyadh.
++ Science and health
++ Why your dog loves to roll in poo
++ Dogs have a baffling obsession with rolling in foul-smelling substances. It may be part of a form of communication we are only just starting to understand.
++ St Kitts and Nevis media guide
++ 8 mins ago
++ Latin America &amp; Caribbean
++ St Kitts and Nevis country profile
++ 14 mins ago
+- 31 mins ago
++ South African Johann Rupert controls Richemont, one of the world's largest luxury goods firms.
+- 36 mins ago
+- 4 hrs ago
++ 5 hrs ago
+- 2 hrs ago
++ 3 hrs ago
++ Esports champ wants to get into real world of motorsport
+- 23 hrs ago
++ 24 hrs ago
+- The Bahamas: The last lighthouse of its kind
+- Reece Parkinson heads to the Bahamas, where he meets a community adapting to unpredictable weather patterns.
++ Inside the world's largest hurricane simulator
++ At the University of Miami, a large indoor air-sea interaction test facility measures the impact of storms.
+- 17 hrs ago
++ 18 hrs ago
+- Mariah Carey's mother and sister die on the same day
+- The Grammy-winning singer says her "heart is broken" after the two deaths and she asks for privacy.
++ The 13th Warrior starring Antonio Banderas was a big flop upon its release in 1999. But now, it's been rehabilitated – among Muslim fans in particular.
++ 23 hrs ago
++ Earth
++ Lake Tahoe sees first August snow in 20 years
++ 1 day ago
+- 3 hrs ago
++ 4 hrs ago
++ The Bahamas: The last lighthouse of its kind
++ Scrutiny over claims RFK Jr cut off dead whale's head
++ 24 mins ago
++ They will be muted when it's the other candidate's turn to speak - but Ms Harris's team are pushing back.
+- Trump adds ex-Democrats Gabbard and RFK Jr to transition team
+- The former progressives have endorsed Trump, while a group of former Republicans has declared support for Kamala Harris.
+- 19 hrs ago
++ 20 hrs ago
+- LIVEStarmer meets Scholz in Berlin as he aims to 'reset' UK-EU relations The prime minister is in Berlin to meet German Chancellor Olaf Scholz, before meeting French President Emmanuel Macron on Thursday.Trump faces revised 2020 election interference chargesThe charges are in response to a Supreme Court ruling that presidents enjoy broad immunity for official acts.1 hr agoUS &amp; Canada
++ LIVEStarmer meets Scholz in Berlin as he aims to 'reset' UK-EU relations The prime minister is in Berlin to meet German Chancellor Olaf Scholz, before meeting French President Emmanuel Macron on Thursday.Trump faces revised 2020 election interference chargesThe charges are in response to a Supreme Court ruling that presidents enjoy broad immunity for official acts.2 hrs agoUS &amp; Canada
+- Trump faces revised 2020 election interference chargesThe charges are in response to a Supreme Court ruling that presidents enjoy broad immunity for official acts.1 hr agoUS &amp; Canada
++ Trump faces revised 2020 election interference chargesThe charges are in response to a Supreme Court ruling that presidents enjoy broad immunity for official acts.2 hrs agoUS &amp; Canada
+- 1 hr agoUS &amp; Canada
++ 2 hrs agoUS &amp; Canada
+- Harris and Walz to sit for first interview of campaignVice-President Kamala Harris and Minnesota Governor Tim Walz will be interviewed by CNN on Thursday in Georgia.9 hrs agoUS &amp; Canada
++ Harris and Walz to sit for first interview of campaignVice-President Kamala Harris and Minnesota Governor Tim Walz will be interviewed by CNN on Thursday in Georgia.10 hrs agoUS &amp; Canada
+- 9 hrs agoUS &amp; Canada
++ 10 hrs agoUS &amp; Canada</t>
         </is>
       </c>
     </row>
@@ -5267,9 +5489,10 @@
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 09:08:19</t>
-        </is>
-      </c>
+          <t>2024-08-28 09:33:22</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Scraping_Results.xlsx
+++ b/Scraping_Results.xlsx
@@ -949,10 +949,11 @@
 Veröffentlichungen zum Erbringungszeitraum 2022-2024
 Veröffentlichungen zum Erbringungszeitraum 2020-2022
 ÜNB-Umsetzungskonzept
+Entlastungsregionen
+Vertragsunterlagen
+ÜNB-Parameter
 Informationsveranstaltungen für potenzielle Teilnehmer
 Koordination mit VNB
-Vertragsunterlagen
-ÜNB-Parameter
 Implementierungsvorschriften
 Beschlüsse
 Konsultation
@@ -962,15 +963,23 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>+ Entlastungsregionen
++ Vertragsunterlagen
++ ÜNB-Parameter
+- Vertragsunterlagen
+- ÜNB-Parameter</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
@@ -1396,10 +1405,11 @@
 Veröffentlichungen zum Erbringungszeitraum 2022-2024
 Veröffentlichungen zum Erbringungszeitraum 2020-2022
 ÜNB-Umsetzungskonzept
+Entlastungsregionen
+Vertragsunterlagen
+ÜNB-Parameter
 Informationsveranstaltungen für potenzielle Teilnehmer
 Koordination mit VNB
-Vertragsunterlagen
-ÜNB-Parameter
 Implementierungsvorschriften
 Beschlüsse
 Konsultation
@@ -1409,15 +1419,23 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>+ Entlastungsregionen
++ Vertragsunterlagen
++ ÜNB-Parameter
+- Vertragsunterlagen
+- ÜNB-Parameter</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
@@ -1925,10 +1943,11 @@
 Veröffentlichungen zum Erbringungszeitraum 2022-2024
 Veröffentlichungen zum Erbringungszeitraum 2020-2022
 ÜNB-Umsetzungskonzept
+Entlastungsregionen
+Vertragsunterlagen
+ÜNB-Parameter
 Informationsveranstaltungen für potenzielle Teilnehmer
 Koordination mit VNB
-Vertragsunterlagen
-ÜNB-Parameter
 Implementierungsvorschriften
 Beschlüsse
 Konsultation
@@ -1938,15 +1957,23 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>+ Entlastungsregionen
++ Vertragsunterlagen
++ ÜNB-Parameter
+- Vertragsunterlagen
+- ÜNB-Parameter</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -2450,10 +2477,11 @@
 Kalkulatorische Preise
 Harmonisierter Aktivierungsprozess
 ÜNB-Umsetzungskonzept
+Entlastungsregionen
+Vertragsunterlagen
+ÜNB-Parameter
 Informationsveranstaltungen für potenzielle Teilnehmer
 Koordination mit VNB
-Vertragsunterlagen
-ÜNB-Parameter
 Implementierungsvorschriften
 Beschlüsse
 Konsultation
@@ -2463,15 +2491,23 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>+ Entlastungsregionen
++ Vertragsunterlagen
++ ÜNB-Parameter
+- Vertragsunterlagen
+- ÜNB-Parameter</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -2712,10 +2748,11 @@
 Betriebsfuehrung
 Nutzen statt Abregeln
 ÜNB-Umsetzungskonzept
+Entlastungsregionen
+Vertragsunterlagen
+ÜNB-Parameter
 Informationsveranstaltungen für potenzielle Teilnehmer
 Koordination mit VNB
-Vertragsunterlagen
-ÜNB-Parameter
 FAQ
 Im Zuge der EnWG-Reform im November 2023 wurde mit § 13k EnWG die Regelung "Nutzen statt Abregeln" eingeführt. Dieses Instrument schafft Anreize zur Aktivierung zusätzlichen Stromverbrauchs, um sich abzeichnenden Netzengpässen entgegenzuwirken. Durch diese Maßnahme wird eine engpassentlastende Wirkung erzielt, was wiederum dazu führt, dass weniger Strom aus erneuerbaren Energien aufgrund von Netzengpässen abgeregelt werden muss.
 Der zu diesem Zweck eingeführte § 13k EnWG sieht vor, dass die Übertragungsnetzbetreiber (ÜNB) für Entlastungsregionen eine Prognose der stündlichen Abregelungsstrommengen spätestens am Vormittag des Vortages durchführen. Teilmengen dieser Prognose werden an berechtigte Teilnehmer gegeben, deren Verbrauchsanlagen durch Lasterhöhung zur Reduzierung der prognostizierten Netzengpässe beitragen können.
@@ -2932,15 +2969,23 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>+ Entlastungsregionen
++ Vertragsunterlagen
++ ÜNB-Parameter
+- Vertragsunterlagen
+- ÜNB-Parameter</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -3398,10 +3443,11 @@
 Veröffentlichungen zum Erbringungszeitraum 2022-2024
 Veröffentlichungen zum Erbringungszeitraum 2020-2022
 ÜNB-Umsetzungskonzept
+Entlastungsregionen
+Vertragsunterlagen
+ÜNB-Parameter
 Informationsveranstaltungen für potenzielle Teilnehmer
 Koordination mit VNB
-Vertragsunterlagen
-ÜNB-Parameter
 Implementierungsvorschriften
 Beschlüsse
 Konsultation
@@ -3411,15 +3457,23 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>+ Entlastungsregionen
++ Vertragsunterlagen
++ ÜNB-Parameter
+- Vertragsunterlagen
+- ÜNB-Parameter</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -3943,10 +3997,11 @@
 Veröffentlichungen zum Erbringungszeitraum 2022-2024
 Veröffentlichungen zum Erbringungszeitraum 2020-2022
 ÜNB-Umsetzungskonzept
+Entlastungsregionen
+Vertragsunterlagen
+ÜNB-Parameter
 Informationsveranstaltungen für potenzielle Teilnehmer
 Koordination mit VNB
-Vertragsunterlagen
-ÜNB-Parameter
 Implementierungsvorschriften
 Beschlüsse
 Konsultation
@@ -3956,15 +4011,23 @@
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G8" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>+ Entlastungsregionen
++ Vertragsunterlagen
++ ÜNB-Parameter
+- Vertragsunterlagen
+- ÜNB-Parameter</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -4398,10 +4461,11 @@
 Veröffentlichungen zum Erbringungszeitraum 2022-2024
 Veröffentlichungen zum Erbringungszeitraum 2020-2022
 ÜNB-Umsetzungskonzept
+Entlastungsregionen
+Vertragsunterlagen
+ÜNB-Parameter
 Informationsveranstaltungen für potenzielle Teilnehmer
 Koordination mit VNB
-Vertragsunterlagen
-ÜNB-Parameter
 Implementierungsvorschriften
 Beschlüsse
 Konsultation
@@ -4411,15 +4475,23 @@
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G9" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>+ Entlastungsregionen
++ Vertragsunterlagen
++ ÜNB-Parameter
+- Vertragsunterlagen
+- ÜNB-Parameter</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
@@ -4853,10 +4925,11 @@
 Veröffentlichungen zum Erbringungszeitraum 2022-2024
 Veröffentlichungen zum Erbringungszeitraum 2020-2022
 ÜNB-Umsetzungskonzept
+Entlastungsregionen
+Vertragsunterlagen
+ÜNB-Parameter
 Informationsveranstaltungen für potenzielle Teilnehmer
 Koordination mit VNB
-Vertragsunterlagen
-ÜNB-Parameter
 Implementierungsvorschriften
 Beschlüsse
 Konsultation
@@ -4866,15 +4939,23 @@
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G10" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>+ Entlastungsregionen
++ Vertragsunterlagen
++ ÜNB-Parameter
+- Vertragsunterlagen
+- ÜNB-Parameter</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -5366,10 +5447,11 @@
 Veröffentlichungen zum Erbringungszeitraum 2022-2024
 Veröffentlichungen zum Erbringungszeitraum 2020-2022
 ÜNB-Umsetzungskonzept
+Entlastungsregionen
+Vertragsunterlagen
+ÜNB-Parameter
 Informationsveranstaltungen für potenzielle Teilnehmer
 Koordination mit VNB
-Vertragsunterlagen
-ÜNB-Parameter
 Implementierungsvorschriften
 Beschlüsse
 Konsultation
@@ -5379,15 +5461,23 @@
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G11" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>+ Entlastungsregionen
++ Vertragsunterlagen
++ ÜNB-Parameter
+- Vertragsunterlagen
+- ÜNB-Parameter</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -5833,10 +5923,11 @@
 Veröffentlichungen zum Erbringungszeitraum 2022-2024
 Veröffentlichungen zum Erbringungszeitraum 2020-2022
 ÜNB-Umsetzungskonzept
+Entlastungsregionen
+Vertragsunterlagen
+ÜNB-Parameter
 Informationsveranstaltungen für potenzielle Teilnehmer
 Koordination mit VNB
-Vertragsunterlagen
-ÜNB-Parameter
 Implementierungsvorschriften
 Beschlüsse
 Konsultation
@@ -5846,15 +5937,23 @@
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G12" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>+ Entlastungsregionen
++ Vertragsunterlagen
++ ÜNB-Parameter
+- Vertragsunterlagen
+- ÜNB-Parameter</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
@@ -6286,10 +6385,11 @@
 Veröffentlichungen zum Erbringungszeitraum 2022-2024
 Veröffentlichungen zum Erbringungszeitraum 2020-2022
 ÜNB-Umsetzungskonzept
+Entlastungsregionen
+Vertragsunterlagen
+ÜNB-Parameter
 Informationsveranstaltungen für potenzielle Teilnehmer
 Koordination mit VNB
-Vertragsunterlagen
-ÜNB-Parameter
 Implementierungsvorschriften
 Beschlüsse
 Konsultation
@@ -6299,15 +6399,23 @@
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G13" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>+ Entlastungsregionen
++ Vertragsunterlagen
++ ÜNB-Parameter
+- Vertragsunterlagen
+- ÜNB-Parameter</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -6733,10 +6841,11 @@
 Veröffentlichungen zum Erbringungszeitraum 2022-2024
 Veröffentlichungen zum Erbringungszeitraum 2020-2022
 ÜNB-Umsetzungskonzept
+Entlastungsregionen
+Vertragsunterlagen
+ÜNB-Parameter
 Informationsveranstaltungen für potenzielle Teilnehmer
 Koordination mit VNB
-Vertragsunterlagen
-ÜNB-Parameter
 Implementierungsvorschriften
 Beschlüsse
 Konsultation
@@ -6746,15 +6855,23 @@
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G14" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>+ Entlastungsregionen
++ Vertragsunterlagen
++ ÜNB-Parameter
+- Vertragsunterlagen
+- ÜNB-Parameter</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -7180,10 +7297,11 @@
 Veröffentlichungen zum Erbringungszeitraum 2022-2024
 Veröffentlichungen zum Erbringungszeitraum 2020-2022
 ÜNB-Umsetzungskonzept
+Entlastungsregionen
+Vertragsunterlagen
+ÜNB-Parameter
 Informationsveranstaltungen für potenzielle Teilnehmer
 Koordination mit VNB
-Vertragsunterlagen
-ÜNB-Parameter
 Implementierungsvorschriften
 Beschlüsse
 Konsultation
@@ -7193,15 +7311,23 @@
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G15" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G15" s="1" t="inlineStr">
+        <is>
+          <t>+ Entlastungsregionen
++ Vertragsunterlagen
++ ÜNB-Parameter
+- Vertragsunterlagen
+- ÜNB-Parameter</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
@@ -7649,10 +7775,11 @@
 Veröffentlichungen zum Erbringungszeitraum 2022-2024
 Veröffentlichungen zum Erbringungszeitraum 2020-2022
 ÜNB-Umsetzungskonzept
+Entlastungsregionen
+Vertragsunterlagen
+ÜNB-Parameter
 Informationsveranstaltungen für potenzielle Teilnehmer
 Koordination mit VNB
-Vertragsunterlagen
-ÜNB-Parameter
 Implementierungsvorschriften
 Beschlüsse
 Konsultation
@@ -7662,15 +7789,23 @@
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G16" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>+ Entlastungsregionen
++ Vertragsunterlagen
++ ÜNB-Parameter
+- Vertragsunterlagen
+- ÜNB-Parameter</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -7732,7 +7867,7 @@
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
@@ -7973,7 +8108,7 @@
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G18" s="1" t="n"/>
@@ -8362,7 +8497,7 @@
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G19" s="1" t="n"/>
@@ -8543,7 +8678,7 @@
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G20" s="1" t="n"/>
@@ -8720,7 +8855,7 @@
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G21" s="1" t="n"/>
@@ -8905,7 +9040,7 @@
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G22" s="1" t="n"/>
@@ -9132,7 +9267,7 @@
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G23" s="1" t="n"/>
@@ -9331,7 +9466,7 @@
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G24" s="1" t="n"/>
@@ -9494,7 +9629,7 @@
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G25" s="1" t="n"/>
@@ -9651,7 +9786,7 @@
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G26" s="1" t="n"/>
@@ -9806,7 +9941,7 @@
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G27" s="1" t="n"/>
@@ -10201,7 +10336,7 @@
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G28" s="1" t="n"/>
@@ -10542,7 +10677,7 @@
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G29" s="1" t="n"/>
@@ -10719,7 +10854,7 @@
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G30" s="1" t="n"/>
@@ -10982,7 +11117,7 @@
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G31" s="1" t="n"/>
@@ -11183,7 +11318,7 @@
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G32" s="1" t="n"/>
@@ -11378,7 +11513,7 @@
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
@@ -11473,8 +11608,10 @@
 Čeština (Czech)
 Dansk (Danish)
 Deutsch (German)
+Ελληνικά (Greek)
 English (English)
 Español (Spanish)
+Suomi (Finnish)
 Français (French)
 हिंदी (Hindi)
 Magyar (Hungarian)
@@ -11482,6 +11619,7 @@
 Italiano (Italian)
 日本語 (Japanese)
 한국어 (Korean)
+मराठी (Marathi)
 Bahasa Malaysia (Malay)
 Nederlands (Dutch)
 Norsk (Norwegian)
@@ -11491,10 +11629,12 @@
 Română (Romanian)
 Русский (Russian)
 Svenska (Swedish)
+తెలుగు (Telugu)
 ภาษาไทย (Thai)
 Tagalog (Tagalog)
 Türkçe (Turkish)
 Українська (Ukrainian)
+Tiếng Việt (Vietnamese)
 简体中文 (Chinese (Simplified))
 正體中文 (Chinese (Traditional))</t>
         </is>
@@ -11506,7 +11646,7 @@
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
@@ -11565,8 +11705,10 @@
 + Čeština (Czech)
 + Dansk (Danish)
 + Deutsch (German)
++ Ελληνικά (Greek)
 + English (English)
 + Español (Spanish)
++ Suomi (Finnish)
 + Français (French)
 + हिंदी (Hindi)
 + Magyar (Hungarian)
@@ -11574,6 +11716,7 @@
 + Italiano (Italian)
 + 日本語 (Japanese)
 + 한국어 (Korean)
++ मराठी (Marathi)
 + Bahasa Malaysia (Malay)
 + Nederlands (Dutch)
 + Norsk (Norwegian)
@@ -11583,10 +11726,12 @@
 + Română (Romanian)
 + Русский (Russian)
 + Svenska (Swedish)
++ తెలుగు (Telugu)
 + ภาษาไทย (Thai)
 + Tagalog (Tagalog)
 + Türkçe (Turkish)
 + Українська (Ukrainian)
++ Tiếng Việt (Vietnamese)
 + 简体中文 (Chinese (Simplified))
 + 正體中文 (Chinese (Traditional))</t>
         </is>
@@ -12084,7 +12229,7 @@
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G35" s="1" t="n"/>
@@ -12539,7 +12684,7 @@
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
@@ -13506,7 +13651,7 @@
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
@@ -14113,7 +14258,7 @@
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G38" s="1" t="n"/>
@@ -14405,6 +14550,8 @@
 Updates per E-Mail
 Mailadresse
 BNetzA Aktuell
+28.08.2024
+Kurze, düstere Tage: Die kalte Jahreszeit ist eine Herausforderung für die #Energiewende – oder etwa doch nicht? Ob beispielsweise Windkraft die geringere Einspeisung der Solaranlagen ausgleicht, beantworten wir auf SMARD: smard.de/sharing/page/6570
 27.08.2024 Elektrizität und Gas
 Ausschreibung Biomasse: Gebotstermin 1. Oktober 2024
 Ausschreibung Solaranlagen zweites Segment: Gebotstermin 1. Oktober 2024
@@ -14455,8 +14602,6 @@
 31.07.2024
 Störungsfreie Übertragung bei der Vorrunde im #Beachvolleyball: ✅. Dieses Mal war unser Prüf- und Messdienst beim Spiel des 🇩🇪 Duos Ludwig/Lippmann im Einsatz. Den beiden Athletinnen wünschen wir im weiteren Turnierverlauf viel 🍀. #Paris2024 #TeamD
 Die Verbreitung aktiver Glasfaseranschlüsse stieg 2023 auf 4,3 Mio. und übertraf den Bestand Ende 2022 um ca. 900.000. Infos im #JahresberichtTK unter bundesnetzagentur.de/berichte
-29.07.2024
-Im 🇩🇪 #Stromnetz gibt es vier Netzebenen. Aber was ist eigentlich der Unterschied? Das erläutern wir im neuesten Artikel auf unserer Energiemarkt-Plattform #SMARD: smard.de/page/home/wiki-articl
 26.07.2024 Elektrizität und Gas
 Innovationsausschreibungen: Gebotstermin 1. September 2024
 12.08.2024 Elektrizität und Gas
@@ -14496,7 +14641,7 @@
 Karriere
 Verwaltungstalente oder Ökonom*innen (w/m/d) im Bereich der Digitalisierung
 Verwaltungstalent oder Techniker*in (w/m/d) im Frequenzmanagement
-Alle 26 Einträge ansehen
+Alle 22 Einträge ansehen
 Mediathek
 In der Mediathek finden Sie Berichte, Interviews, Bilder, Videos und weitere Informationen der Bundesnetzagentur.
 Zur Mediathek
@@ -14518,10 +14663,8 @@
 Startseite der Bundesnetzagentur
 Offshore Windenergie
 Ergebnisse der Ausschreibungen für zentral voruntersuchte Flächen veröffentlicht
-Wasserstoff
-Bundesnetzagentur erhält den Antrag für das Wasserstoff-Kernnetz
 Zurück und Pause
-5 / 5
+4 / 5
 Vor und Pause
 Pause
 Seite drucken Seite teilen Kurzlink
@@ -14637,6 +14780,7 @@
 Fortschritt beim Netzausbau      Bundesnetzagentur legt zweiten Trassenabschnitt für A-Nord fest
 Digital Services Coordinator      DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen
 Stromnetzausbau      Genehmigungsverfahren für die Leitung von Grafenrheinfeld nach Großgartach abgeschlossen
+Wasserstoff      Bundesnetzagentur erhält den Antrag für das Wasserstoff-Kernnetz
 Inhalte teilen
 per E-Mail schicken
 ×
@@ -14644,20 +14788,38 @@
 Bundesnetzagentur legt zweiten Trassenabschnitt für A-Nord fest
 DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen
 Stromnetzausbau
-Genehmigungsverfahren für die Leitung von Grafenrheinfeld nach Großgartach abgeschlossen</t>
+Genehmigungsverfahren für die Leitung von Grafenrheinfeld nach Großgartach abgeschlossen
+Wasserstoff
+Bundesnetzagentur erhält den Antrag für das Wasserstoff-Kernnetz</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G39" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G39" s="1" t="inlineStr">
+        <is>
+          <t>+ 28.08.2024
++ Kurze, düstere Tage: Die kalte Jahreszeit ist eine Herausforderung für die #Energiewende – oder etwa doch nicht? Ob beispielsweise Windkraft die geringere Einspeisung der Solaranlagen ausgleicht, beantworten wir auf SMARD: smard.de/sharing/page/6570
+- 29.07.2024
+- Im 🇩🇪 #Stromnetz gibt es vier Netzebenen. Aber was ist eigentlich der Unterschied? Das erläutern wir im neuesten Artikel auf unserer Energiemarkt-Plattform #SMARD: smard.de/page/home/wiki-articl
+- Alle 26 Einträge ansehen
++ Alle 22 Einträge ansehen
+- Wasserstoff
+- Bundesnetzagentur erhält den Antrag für das Wasserstoff-Kernnetz
+- 5 / 5
++ 4 / 5
++ Wasserstoff      Bundesnetzagentur erhält den Antrag für das Wasserstoff-Kernnetz
++ Wasserstoff
++ Bundesnetzagentur erhält den Antrag für das Wasserstoff-Kernnetz</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
@@ -14987,7 +15149,7 @@
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G40" s="1" t="n"/>
@@ -15414,7 +15576,7 @@
       </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G41" s="1" t="n"/>
@@ -15763,7 +15925,7 @@
       </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G42" s="1" t="n"/>
@@ -16100,7 +16262,7 @@
       </c>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G43" s="1" t="n"/>
@@ -16569,7 +16731,7 @@
       </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G44" s="1" t="n"/>
@@ -17620,7 +17782,7 @@
       </c>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G45" s="1" t="n"/>
@@ -17984,6 +18146,7 @@
 Rahmenfestlegungen (Ebene 1)
 Methodenfestlegungen (Ebene 2)
 KANU 2.0
+Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor
 Perioden- oder unternehmensbezogene Festlegungen (Ebene 3)
 Zeitplanung
 Eckpunktepapier zu Nachfolgeregelungen für ARegV, StromNEV und GasNEV
@@ -18174,15 +18337,19 @@
       </c>
       <c r="E46" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G46" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G46" s="1" t="inlineStr">
+        <is>
+          <t>+ Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
@@ -18515,6 +18682,7 @@
 Rahmenfestlegungen (Ebene 1)
 Methodenfestlegungen (Ebene 2)
 KANU 2.0
+Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor
 Perioden- oder unternehmensbezogene Festlegungen (Ebene 3)
 Zeitplanung
 Eckpunktepapier zu Nachfolgeregelungen für ARegV, StromNEV und GasNEV
@@ -18727,15 +18895,19 @@
       </c>
       <c r="E47" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G47" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G47" s="1" t="inlineStr">
+        <is>
+          <t>+ Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
@@ -19016,6 +19188,7 @@
 Rahmenfestlegungen (Ebene 1)
 Methodenfestlegungen (Ebene 2)
 KANU 2.0
+Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor
 Perioden- oder unternehmensbezogene Festlegungen (Ebene 3)
 Zeitplanung
 Eckpunktepapier zu Nachfolgeregelungen für ARegV, StromNEV und GasNEV
@@ -19206,15 +19379,19 @@
       </c>
       <c r="E48" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G48" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G48" s="1" t="inlineStr">
+        <is>
+          <t>+ Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n"/>
@@ -19516,6 +19693,7 @@
 Rahmenfestlegungen (Ebene 1)
 Methodenfestlegungen (Ebene 2)
 KANU 2.0
+Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor
 Perioden- oder unternehmensbezogene Festlegungen (Ebene 3)
 Zeitplanung
 Eckpunktepapier zu Nachfolgeregelungen für ARegV, StromNEV und GasNEV
@@ -19701,15 +19879,19 @@
       </c>
       <c r="E49" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G49" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G49" s="1" t="inlineStr">
+        <is>
+          <t>+ Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n"/>
@@ -19998,6 +20180,7 @@
 Rahmenfestlegungen (Ebene 1)
 Methodenfestlegungen (Ebene 2)
 KANU 2.0
+Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor
 Perioden- oder unternehmensbezogene Festlegungen (Ebene 3)
 Zeitplanung
 Eckpunktepapier zu Nachfolgeregelungen für ARegV, StromNEV und GasNEV
@@ -20182,15 +20365,19 @@
       </c>
       <c r="E50" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G50" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G50" s="1" t="inlineStr">
+        <is>
+          <t>+ Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n"/>
@@ -20509,6 +20696,7 @@
 Rahmenfestlegungen (Ebene 1)
 Methodenfestlegungen (Ebene 2)
 KANU 2.0
+Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor
 Perioden- oder unternehmensbezogene Festlegungen (Ebene 3)
 Zeitplanung
 Eckpunktepapier zu Nachfolgeregelungen für ARegV, StromNEV und GasNEV
@@ -20699,15 +20887,19 @@
       </c>
       <c r="E51" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G51" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G51" s="1" t="inlineStr">
+        <is>
+          <t>+ Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
@@ -21096,6 +21288,7 @@
 Rahmenfestlegungen (Ebene 1)
 Methodenfestlegungen (Ebene 2)
 KANU 2.0
+Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor
 Perioden- oder unternehmensbezogene Festlegungen (Ebene 3)
 Zeitplanung
 Eckpunktepapier zu Nachfolgeregelungen für ARegV, StromNEV und GasNEV
@@ -21286,15 +21479,19 @@
       </c>
       <c r="E52" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G52" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G52" s="1" t="inlineStr">
+        <is>
+          <t>+ Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
@@ -21871,6 +22068,7 @@
 Rahmenfestlegungen (Ebene 1)
 Methodenfestlegungen (Ebene 2)
 KANU 2.0
+Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor
 Perioden- oder unternehmensbezogene Festlegungen (Ebene 3)
 Zeitplanung
 Eckpunktepapier zu Nachfolgeregelungen für ARegV, StromNEV und GasNEV
@@ -22061,15 +22259,19 @@
       </c>
       <c r="E53" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G53" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G53" s="1" t="inlineStr">
+        <is>
+          <t>+ Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
@@ -22372,6 +22574,7 @@
 Rahmenfestlegungen (Ebene 1)
 Methodenfestlegungen (Ebene 2)
 KANU 2.0
+Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor
 Perioden- oder unternehmensbezogene Festlegungen (Ebene 3)
 Zeitplanung
 Eckpunktepapier zu Nachfolgeregelungen für ARegV, StromNEV und GasNEV
@@ -22562,15 +22765,19 @@
       </c>
       <c r="E54" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G54" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G54" s="1" t="inlineStr">
+        <is>
+          <t>+ Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
@@ -22921,6 +23128,7 @@
 Rahmenfestlegungen (Ebene 1)
 Methodenfestlegungen (Ebene 2)
 KANU 2.0
+Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor
 Perioden- oder unternehmensbezogene Festlegungen (Ebene 3)
 Zeitplanung
 Eckpunktepapier zu Nachfolgeregelungen für ARegV, StromNEV und GasNEV
@@ -23111,15 +23319,19 @@
       </c>
       <c r="E55" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G55" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G55" s="1" t="inlineStr">
+        <is>
+          <t>+ Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
@@ -23404,6 +23616,7 @@
 Rahmenfestlegungen (Ebene 1)
 Methodenfestlegungen (Ebene 2)
 KANU 2.0
+Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor
 Perioden- oder unternehmensbezogene Festlegungen (Ebene 3)
 Zeitplanung
 Eckpunktepapier zu Nachfolgeregelungen für ARegV, StromNEV und GasNEV
@@ -23594,15 +23807,19 @@
       </c>
       <c r="E56" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G56" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G56" s="1" t="inlineStr">
+        <is>
+          <t>+ Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
@@ -23909,6 +24126,7 @@
 Rahmenfestlegungen (Ebene 1)
 Methodenfestlegungen (Ebene 2)
 KANU 2.0
+Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor
 Perioden- oder unternehmensbezogene Festlegungen (Ebene 3)
 Zeitplanung
 Eckpunktepapier zu Nachfolgeregelungen für ARegV, StromNEV und GasNEV
@@ -24099,15 +24317,19 @@
       </c>
       <c r="E57" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G57" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G57" s="1" t="inlineStr">
+        <is>
+          <t>+ Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n"/>
@@ -24396,6 +24618,7 @@
 Rahmenfestlegungen (Ebene 1)
 Methodenfestlegungen (Ebene 2)
 KANU 2.0
+Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor
 Perioden- oder unternehmensbezogene Festlegungen (Ebene 3)
 Zeitplanung
 Eckpunktepapier zu Nachfolgeregelungen für ARegV, StromNEV und GasNEV
@@ -24586,15 +24809,19 @@
       </c>
       <c r="E58" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G58" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G58" s="1" t="inlineStr">
+        <is>
+          <t>+ Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n"/>
@@ -24899,6 +25126,7 @@
 Rahmenfestlegungen (Ebene 1)
 Methodenfestlegungen (Ebene 2)
 KANU 2.0
+Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor
 Perioden- oder unternehmensbezogene Festlegungen (Ebene 3)
 Zeitplanung
 Eckpunktepapier zu Nachfolgeregelungen für ARegV, StromNEV und GasNEV
@@ -25089,15 +25317,19 @@
       </c>
       <c r="E59" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G59" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G59" s="1" t="inlineStr">
+        <is>
+          <t>+ Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n"/>
@@ -25394,6 +25626,7 @@
 Rahmenfestlegungen (Ebene 1)
 Methodenfestlegungen (Ebene 2)
 KANU 2.0
+Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor
 Perioden- oder unternehmensbezogene Festlegungen (Ebene 3)
 Zeitplanung
 Eckpunktepapier zu Nachfolgeregelungen für ARegV, StromNEV und GasNEV
@@ -25584,15 +25817,19 @@
       </c>
       <c r="E60" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G60" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G60" s="1" t="inlineStr">
+        <is>
+          <t>+ Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
@@ -25877,6 +26114,7 @@
 Rahmenfestlegungen (Ebene 1)
 Methodenfestlegungen (Ebene 2)
 KANU 2.0
+Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor
 Perioden- oder unternehmensbezogene Festlegungen (Ebene 3)
 Zeitplanung
 Eckpunktepapier zu Nachfolgeregelungen für ARegV, StromNEV und GasNEV
@@ -26067,15 +26305,19 @@
       </c>
       <c r="E61" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G61" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G61" s="1" t="inlineStr">
+        <is>
+          <t>+ Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n"/>
@@ -26409,6 +26651,7 @@
 Rahmenfestlegungen (Ebene 1)
 Methodenfestlegungen (Ebene 2)
 KANU 2.0
+Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor
 Perioden- oder unternehmensbezogene Festlegungen (Ebene 3)
 Zeitplanung
 Eckpunktepapier zu Nachfolgeregelungen für ARegV, StromNEV und GasNEV
@@ -26600,15 +26843,19 @@
       </c>
       <c r="E62" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G62" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G62" s="1" t="inlineStr">
+        <is>
+          <t>+ Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n"/>
@@ -26938,6 +27185,7 @@
 Rahmenfestlegungen (Ebene 1)
 Methodenfestlegungen (Ebene 2)
 KANU 2.0
+Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor
 Perioden- oder unternehmensbezogene Festlegungen (Ebene 3)
 Zeitplanung
 Eckpunktepapier zu Nachfolgeregelungen für ARegV, StromNEV und GasNEV
@@ -27129,15 +27377,19 @@
       </c>
       <c r="E63" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F63" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G63" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G63" s="1" t="inlineStr">
+        <is>
+          <t>+ Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
@@ -27519,6 +27771,7 @@
 Rahmenfestlegungen (Ebene 1)
 Methodenfestlegungen (Ebene 2)
 KANU 2.0
+Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor
 Perioden- oder unternehmensbezogene Festlegungen (Ebene 3)
 Zeitplanung
 Eckpunktepapier zu Nachfolgeregelungen für ARegV, StromNEV und GasNEV
@@ -27710,15 +27963,19 @@
       </c>
       <c r="E64" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F64" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G64" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G64" s="1" t="inlineStr">
+        <is>
+          <t>+ Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n"/>
@@ -28038,6 +28295,7 @@
 Rahmenfestlegungen (Ebene 1)
 Methodenfestlegungen (Ebene 2)
 KANU 2.0
+Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor
 Perioden- oder unternehmensbezogene Festlegungen (Ebene 3)
 Zeitplanung
 Eckpunktepapier zu Nachfolgeregelungen für ARegV, StromNEV und GasNEV
@@ -28227,15 +28485,19 @@
       </c>
       <c r="E65" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F65" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G65" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G65" s="1" t="inlineStr">
+        <is>
+          <t>+ Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
@@ -28524,6 +28786,7 @@
 Rahmenfestlegungen (Ebene 1)
 Methodenfestlegungen (Ebene 2)
 KANU 2.0
+Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor
 Perioden- oder unternehmensbezogene Festlegungen (Ebene 3)
 Zeitplanung
 Eckpunktepapier zu Nachfolgeregelungen für ARegV, StromNEV und GasNEV
@@ -28714,15 +28977,19 @@
       </c>
       <c r="E66" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F66" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G66" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G66" s="1" t="inlineStr">
+        <is>
+          <t>+ Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n"/>
@@ -29046,6 +29313,7 @@
 Rahmenfestlegungen (Ebene 1)
 Methodenfestlegungen (Ebene 2)
 KANU 2.0
+Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor
 Perioden- oder unternehmensbezogene Festlegungen (Ebene 3)
 Zeitplanung
 Eckpunktepapier zu Nachfolgeregelungen für ARegV, StromNEV und GasNEV
@@ -29251,15 +29519,19 @@
       </c>
       <c r="E67" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F67" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G67" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G67" s="1" t="inlineStr">
+        <is>
+          <t>+ Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n"/>
@@ -29587,6 +29859,7 @@
 Rahmenfestlegungen (Ebene 1)
 Methodenfestlegungen (Ebene 2)
 KANU 2.0
+Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor
 Perioden- oder unternehmensbezogene Festlegungen (Ebene 3)
 Zeitplanung
 Eckpunktepapier zu Nachfolgeregelungen für ARegV, StromNEV und GasNEV
@@ -29772,15 +30045,19 @@
       </c>
       <c r="E68" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F68" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
-        </is>
-      </c>
-      <c r="G68" s="1" t="n"/>
+          <t>2024-08-29 12:03:55</t>
+        </is>
+      </c>
+      <c r="G68" s="1" t="inlineStr">
+        <is>
+          <t>+ Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -30060,7 +30337,7 @@
       </c>
       <c r="F69" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G69" s="1" t="n"/>
@@ -30351,7 +30628,7 @@
       </c>
       <c r="F70" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G70" s="1" t="n"/>
@@ -30862,7 +31139,7 @@
       </c>
       <c r="F71" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G71" s="1" t="n"/>
@@ -31081,7 +31358,7 @@
       </c>
       <c r="F72" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G72" s="1" t="n"/>
@@ -31311,8 +31588,8 @@
 EDI@Energy
 Standardverträge
 Stellungnahmen
+Marktprozesse im Überblick
 Veranstaltungen
-Marktprozesse im Überblick
 Zu Daten und Grafiken
 Suche
 Anmelden
@@ -31333,8 +31610,9 @@
 165
 Fachartikel
 &gt;2000
-In­stal­la­teur­ver­zeich­nis Strom/ Gas/ Wasser
-So gelangen Sie zu Ihren AnsprechpartnerInnen in den Landesinstallateurausschüssen
+An­bie­ter­lis­te Dienst­leis­ter Re­dis­patch 2.0
+Auf der Website des BDEW finden Sie eine offene Liste mit Unternehmen, die Dienstleistungen für Anlagenbetreiber im Rahmen des neuen Redispatchregimes erbringen.
+ZUR ANBIETERLISTE
 Die wichtigsten Themen der Energie- und Wasserwirtschaft im Überblick.
 Elek­tro­mo­bi­li­tät
 Wir bringen die En­er­gie­wen­de in den Ver­kehrs­sek­tor
@@ -31371,14 +31649,14 @@
 BDEW-Ver­an­stal­tun­gen
 BDEW Kongress, Treffpunkt Netze und mehr – Seien Sie dabei!
 Mehr erfahren
-An­bie­ter­lis­te Dienst­leis­ter Re­dis­patch 2.0
-Auf der Website des BDEW finden Sie eine offene Liste mit Unternehmen, die Dienstleistungen für Anlagenbetreiber im Rahmen des neuen Redispatchregimes erbringen.
-Zur Anbieterliste
 Unterrichtsmaterialien zu aktuellen Energie- und Wasser/Abwasser-Themen
 Mehr
 BDEW-We­bi­na­re
 Die aktuellen Themen der Energie- und Wasserwirtschaft - kostenfrei für Mitgliedsunternehmen.
 Zu den Webinaren
+In­stal­la­teur­ver­zeich­nis Strom/ Gas/ Wasser
+So gelangen Sie zu Ihren AnsprechpartnerInnen in den Landesinstallateurausschüssen
+Zur Übersicht
 VN­Bdi­gi­tal
 Netzanschluss, Netzausbaupläne und Regionalszenarien: Das Netzportal der Verteilnetzbetreiber
 Zum Portal
@@ -31397,21 +31675,20 @@
       </c>
       <c r="F73" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G73" s="1" t="inlineStr">
         <is>
-          <t>+ Veranstaltungen
-- Veranstaltungen
-+ In­stal­la­teur­ver­zeich­nis Strom/ Gas/ Wasser
-+ So gelangen Sie zu Ihren AnsprechpartnerInnen in den Landesinstallateurausschüssen
-- VN­Bdi­gi­tal
+          <t>- VN­Bdi­gi­tal
 - Netzanschluss, Netzausbaupläne und Regionalszenarien: Das Netzportal der Verteilnetzbetreiber
 - ZUM PORTAL
-- In­stal­la­teur­ver­zeich­nis Strom/ Gas/ Wasser
-- So gelangen Sie zu Ihren AnsprechpartnerInnen in den Landesinstallateurausschüssen
-- Zur Übersicht
++ An­bie­ter­lis­te Dienst­leis­ter Re­dis­patch 2.0
++ Auf der Website des BDEW finden Sie eine offene Liste mit Unternehmen, die Dienstleistungen für Anlagenbetreiber im Rahmen des neuen Redispatchregimes erbringen.
++ ZUR ANBIETERLISTE
+- An­bie­ter­lis­te Dienst­leis­ter Re­dis­patch 2.0
+- Auf der Website des BDEW finden Sie eine offene Liste mit Unternehmen, die Dienstleistungen für Anlagenbetreiber im Rahmen des neuen Redispatchregimes erbringen.
+- Zur Anbieterliste
 + VN­Bdi­gi­tal
 + Netzanschluss, Netzausbaupläne und Regionalszenarien: Das Netzportal der Verteilnetzbetreiber
 + Zum Portal</t>
@@ -31678,7 +31955,7 @@
       </c>
       <c r="F74" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G74" s="1" t="n"/>
@@ -32116,12 +32393,12 @@
       </c>
       <c r="E75" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F75" s="1" t="inlineStr">
         <is>
-          <t>2024-08-28 12:20:07</t>
+          <t>2024-08-29 12:03:55</t>
         </is>
       </c>
       <c r="G75" s="1" t="n"/>

--- a/Scraping_Results.xlsx
+++ b/Scraping_Results.xlsx
@@ -968,7 +968,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
@@ -5942,7 +5942,7 @@
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
@@ -6404,7 +6404,7 @@
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
@@ -6860,7 +6860,7 @@
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
@@ -7316,7 +7316,7 @@
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
@@ -7856,8 +7856,8 @@
 Auswahl erlauben
 Cookies akzeptieren
 Cookie-Einstellungen
-Technisch notwendig  32 Technisch notwendige Cookies helfen dabei, eine Webseite nutzbar zu machen, indem sie Grundfunktionen wie Seitennavigation und Zugriff auf sichere Bereiche der Webseite ermöglichen. Die Webseite kann ohne diese Cookies nicht richtig funktionieren. Cookiebot1Erfahren Sie mehr über diesen Anbieter1.gifWird verwendet, um die Anzahl der Sitzungen auf der Website zu zählen, was für die Optimierung der Bereitstellung von CMP-Produkten erforderlich ist. Ablauf: SitzungTyp: Pixel-TrackerGoogle1Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness.rc::eDieser Cookie wird verwendet, um zwischen Menschen und Bots zu unterscheiden.Ablauf: SitzungTyp: HTML Local StorageLinkedIn4Erfahren Sie mehr über diesen AnbieterbcookieWird verwendet, um Spam zu erkennen und die Sicherheit der Webseite zu verbessern.Ablauf: 1 JahrTyp: HTTP-Cookieli_gcSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 180 TageTyp: HTTP-CookiebscookieDieser Cookie wird verwendet, um den Besucher über eine Anwendung zu identifizieren. Dadurch kann sich der Besucher beispielsweise über seine LinkedIn-Anwendung bei einer webseite anmelden.Ablauf: 1 JahrTyp: HTTP-CookieJSESSIONIDBehält die Zustände des Benutzers bei allen Seitenanfragen bei.Ablauf: SitzungTyp: HTTP-CookieStripe3Erfahren Sie mehr über diesen AnbietermBestimmt das Gerät, mit dem auf die Webseite zugegriffen wird. Dadurch kann die Webseite entsprechend formatiert werden.Ablauf: 400 TageTyp: HTTP-Cookie__stripe_midDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: 1 JahrTyp: HTTP-Cookie__stripe_sidDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: 1 TagTyp: HTTP-CookieWordPress.com1Erfahren Sie mehr über diesen Anbietert.gifStellt sicher, dass die Produktbilder auf der Website korrekt dargestellt werden.Ablauf: SitzungTyp: Pixel-Trackerapp.involve.me2lvapp_sessionWird verwendet, um Formulare auf der Website zu implementieren.Ablauf: 1 TagTyp: HTTP-CookieXSRF-TOKENGewährleistet die Sicherheit beim Browsen für Besucher durch Verhinderung von Cross-Site Request Forgery. Dieser Cookie ist wesentlich für die Sicherheit der Website und des Besuchers.Ablauf: 1 TagTyp: HTTP-Cookiebranchenbuch.pv-magazine.deshop.pv-magazine.comwww.pv-magazine.de3wpEmojiSettingsSupports [x3]Dieses Cookie ist mit einem Bündel von Cookies verbunden, die dem Zweck der Bereitstellung und Präsentation von Inhalten dienen. Die Cookies behalten den korrekten Zustand von Schriftart, Blog-/Bildschiebereglern, Farbthemen und anderen Website-Einstellungen bei.Ablauf: SitzungTyp: HTML Local Storagecdn.consentmanager.net2__cmp#_.#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storage__cmp#_expire_#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storagecdn.consentmanager.netb.delivery.consentmanager.net2__cmp# [x2]Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 1 TagTyp: HTTP-Cookieconsent.cookiebot.comshop.pv-magazine.com3CookieConsent [x3]Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 1 JahrTyp: HTTP-Cookiem.stripe.com3Erfahren Sie mehr über diesen Anbieter_abDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: SitzungTyp: HTML Local Storage_mfDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: SitzungTyp: HTML Local StorageidAnstehendAblauf: SitzungTyp: HTML Local Storagewidget.sndcdn.com1sc_anonymous_idWird im Zusammenhang mit der 3D-Ansichtsfunktion auf der Website verwendet.Ablauf: 10 JahreTyp: HTTP-Cookiewww.selfmade-energy.com6uc_settingsSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storageuc_ui_versionSpeichert die Versionsnummer des Consent-Banners UI, die auf der aktuellen Domain verwendet wirdAblauf: BeständigTyp: HTML Local Storageuc_user_countryWird verwendet, um zu bestimmen, wo sich der Benutzer befindet, um festzustellen, ob der Benutzer der DSGVO oder anderen ePrivacy-Gesetzen unterliegt.Ablauf: SitzungTyp: HTML Local Storagetest_cookieVerwendet, um zu überprüfen, ob der Browser des Benutzers Cookies unterstützt.Ablauf: 1 TagTyp: HTTP-CookiecsrftokenHilft, Cross-Site Request Forgery- (CSRF-) Angriffe zu verhindern.Ablauf: 1 JahrTyp: HTTP-CookieSESS#Behält die Zustände des Benutzers bei allen Seitenanfragen bei.Ablauf: 14 TageTyp: HTTP-CookiePräferenzen  6 Präferenz-Cookies ermöglichen einer Webseite sich an Informationen zu erinnern, die die Art beeinflussen, wie sich eine Webseite verhält oder aussieht, wie z. B. Ihre bevorzugte Sprache oder die Region in der Sie sich befinden. LinkedIn3Erfahren Sie mehr über diesen AnbieterlangNotwendig für die Pflege von Spracheinstellungen für Unterseiten auf der Webseite.Ablauf: SitzungTyp: HTTP-CookielidcRegistriert, welcher Server-Cluster den Besucher bedient. Dies wird im Zusammenhang mit Load Balancing verwendet, um die Nutzererfahrung zu optimieren.Ablauf: 1 TagTyp: HTTP-Cookieli_alertsWird verwendet, um zu bestimmen, wann und wo bestimmte Pop-ups auf der Website für den Benutzer angezeigt werden sollen, und um sich zu merken, ob der Benutzer diese geschlossen hat, damit sie nicht mehrfach angezeigt werden.Ablauf: 1 JahrTyp: HTTP-Cookiem.stripe.com1Erfahren Sie mehr über diesen Anbieter1Dieser Cookie wird in Verbindung mit dem Zahlungsfenster verwendet. - Der Cookie ist für sichere Transaktionen auf der webseite erforderlich.Ablauf: SitzungTyp: HTML Local Storageshop.pv-magazine.com1qtrans_front_languageBestimmt die bevorzugte Sprache des Besuchers. Ermöglicht der Webseite, beim erneuten Besuch des Besuchers die bevorzugte Sprache festzulegen.Ablauf: 1 JahrTyp: HTTP-Cookiewww.selfmade-energy.com1uc_cross_domain_data_#AnstehendAblauf: BeständigTyp: HTML Local StorageStatistiken  36 Statistik-Cookies helfen Webseiten-Besitzern zu verstehen, wie Besucher mit Webseiten interagieren, indem Informationen anonym gesammelt und gemeldet werden. Google15Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness._ga [x7]Registriert eine eindeutige ID, die verwendet wird, um statistische Daten dazu, wie der Besucher die Website nutzt, zu generieren.Ablauf: 2 JahreTyp: HTTP-Cookie_gid [x4]Registriert eine eindeutige ID, die verwendet wird, um statistische Daten dazu, wie der Besucher die Website nutzt, zu generieren.Ablauf: 1 TagTyp: HTTP-Cookie_gatWird von Google Analytics verwendet, um die Anforderungsrate einzuschränkenAblauf: 1 TagTyp: HTTP-Cookie_ga_# [x3]Sammelt Daten dazu, wie oft ein Benutzer eine Website besucht hat, sowie Daten für den ersten und letzten Besuch. Von Google Analytics verwendet.Ablauf: 2 JahreTyp: HTTP-CookieHotjar3Erfahren Sie mehr über diesen Anbieter_hjSession_#Erfasst Statistiken über Besuche des Benutzers auf der Website, wie z. B. die Anzahl der Besuche, durchschnittliche Verweildauer auf der Website und welche Seiten gelesen wurden.Ablauf: 1 TagTyp: HTTP-Cookie_hjSessionUser_#Erfasst Statistiken über Besuche des Benutzers auf der Website, wie z. B. die Anzahl der Besuche, durchschnittliche Verweildauer auf der Website und welche Seiten gelesen wurden.Ablauf: 1 JahrTyp: HTTP-Cookie_hjTLDTestRegistriert statistische Daten über das Verhalten der Besucher auf der Website. Wird vom Website-Betreiber für internes Analytics verwendet.Ablauf: SitzungTyp: HTTP-CookieMicrosoft2Erfahren Sie mehr über diesen Anbieterc.gifSammelt Daten über die Navigation und das Verhalten des Benutzers auf der Website - Daraus werden statistische Berichte und Heatmaps für den Website-Besitzer erstellt.Ablauf: SitzungTyp: Pixel-TrackerCLIDSammelt Daten über die Navigation und das Verhalten des Benutzers auf der Website - Daraus werden statistische Berichte und Heatmaps für den Website-Besitzer erstellt.Ablauf: 1 JahrTyp: HTTP-CookieScribd2Erfahren Sie mehr über diesen Anbieter__CJ_session_metadataEnthält Daten über die Interaktion des Benutzers mit dem Hörbuch- und Dokumentenpräsentationstool für statistische Zwecke.Ablauf: SitzungTyp: HTTP-Cookie_scribd_sessionWird verwendet, um Audiodateien auf den Websites zu implementieren - Wird weiterhin verwendet, um festzustellen, wie viele und wer diese Dateien gehört hat.	Ablauf: 3 JahreTyp: HTTP-CookieSoundcloud1Erfahren Sie mehr über diesen Anbieternumber(#)Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: SitzungTyp: HTML Local StorageWordPress.com5Erfahren Sie mehr über diesen Anbieterg.gifRegistriert statistische Daten über das Verhalten der Besucher auf der Website. Wird vom Website-Betreiber für internes Analytics verwendet.Ablauf: SitzungTyp: Pixel-Trackertk_aiRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: 5 JahreTyp: HTTP-Cookietk_qsRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: 1 TagTyp: HTTP-Cookietk_rlRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: SitzungTyp: HTTP-Cookietk_roRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: SitzungTyp: HTTP-Cookiebranchenbuch.pv-magazine.de1gd_recently_viewedAnstehendAblauf: BeständigTyp: HTML Local Storagewww.bigmarker.com1time_zone_detectionDieses Cookie trägt zur Verbesserung der Benutzerfreundlichkeit bei, indem es die Funktionen der Website an die Zeitzone des Benutzers anpasst, z. B. die Anzeige von Veranstaltungszeiten, die Planung von Terminen oder die Anzeige relevanter Inhalte zur richtigen Zeit.Ablauf: SitzungTyp: HTTP-Cookiewww.selfmade-energy.com6uc_gcmRegistriert statistische Daten über das Verhalten der Besucher auf der Website. Wird vom Website-Betreiber für internes Analytics verwendet.Ablauf: BeständigTyp: HTML Local Storageuc_user_interactionRegistriert statistische Daten über das Verhalten der Besucher auf der Website. Wird vom Website-Betreiber für internes Analytics verwendet.Ablauf: BeständigTyp: HTML Local StoragehjActiveViewportIdsDieses Cookie enthält einen ID-String über die aktuelle Sitzung. Dieser beinhaltet nicht personenbezogene Informationen über die Unterseiten, die der Besucher aufruft – diese Informationen werden benutzt, um die Nutzererfahrung des Besuchers zu optimieren.Ablauf: BeständigTyp: HTML Local StoragehjViewportIdSpeichert die Bildschirmgröße des Nutzers, um die Größe der Bilder auf der Website einzustellen.Ablauf: SitzungTyp: HTML Local StorageuctTeil der Consent Management-Plattform (CMP) - Die Cookies sammeln Daten über die Interaktion des Benutzers mit dem Zustimmungstool der Website, um die Funktion des Zustimmungstools zu optimieren. Ablauf: SitzungTyp: Pixel-TrackersentryReplaySessionRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: SitzungTyp: HTML Local StorageMarketing  86 Marketing-Cookies werden verwendet, um Besuchern auf Webseiten zu folgen. Die Absicht ist, Anzeigen zu zeigen, die relevant und ansprechend für den einzelnen Benutzer sind und daher wertvoller für Publisher und werbetreibende Drittparteien sind.  Meta Platforms, Inc.3Erfahren Sie mehr über diesen Anbieter_fbp [x2]Wird von Facebook genutzt, um eine Reihe von Werbeprodukten anzuzeigen, zum Beispiel Echtzeitgebote dritter Werbetreibender.Ablauf: 3 MonateTyp: HTTP-Cookiefbsr_#Wird verwendet, um die Interaktion des Benutzers mit dem Facebook-Chat-Widget der Website zu verfolgen. Ablauf: SitzungTyp: HTTP-CookieGoogle10Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness.IDEVerwendet von Google DoubleClick, um die Handlungen des Benutzers auf der Webseite nach der Anzeige oder dem Klicken auf eine der Anzeigen des Anbieters zu registrieren und zu melden, mit dem Zweck der Messung der Wirksamkeit einer Werbung und der Anzeige zielgerichteter Werbung für den Benutzer.Ablauf: 400 TageTyp: HTTP-CookieNIDAnstehendAblauf: 6 MonateTyp: HTTP-Cookierc::hDieser Cookie wird verwendet, um zwischen Menschen und Bots zu unterscheiden.Ablauf: BeständigTyp: HTML Local Storagepagead/gen_204Sammelt Daten zum Besucherverhalten auf mehreren Websites, um relevantere Werbung zu präsentieren - Dies ermöglicht es der Website auch, die Anzahl der gleichen Werbeanzeige zu begrenzen.Ablauf: SitzungTyp: Pixel-Trackerpcs/activeviewWird von DoubleClick verwendet, um festzustellen, ob Website-Werbung richtig angezeigt wurde - Dies geschieht, um ihre Marketingaktivitäten effizienter zu gestalten.Ablauf: SitzungTyp: Pixel-Trackerpcs/viewDieses Cookie wird verwendet, um zu verfolgen, wie oft eine bestimmte Anzeige von einem Nutzer angesehen wird. Ablauf: SitzungTyp: Pixel-TrackercsiSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: SitzungTyp: Pixel-Tracker__eoiDas Cookie wird verwendet, um die Interaktionen und Präferenzen der Nutzer auf der Website zu verfolgen.Ablauf: 180 TageTyp: HTTP-Cookie_gcl_au [x2]Wird von Google AdSense zum Experimentieren mit Werbewirkung auf Websites verwendet, die ihre Services nutzen.Ablauf: 3 MonateTyp: HTTP-CookieLinkedIn1Erfahren Sie mehr über diesen AnbietersequenceNumber#sequenceNumberAnstehendAblauf: BeständigTyp: IndexedDBMas Capital1Erfahren Sie mehr über diesen Anbieterskeleton.gifWird verwendet, um Popup-Werbung auf der Website zu implementieren.  Ablauf: SitzungTyp: Pixel-TrackerMicrosoft10Erfahren Sie mehr über diesen AnbieterMR [x2]Wird verwendet, um Besucher auf mehreren Websites zu tracken, um relevante Werbung basierend auf den Präferenzen des Besuchers zu präsentieren.Ablauf: 7 TageTyp: HTTP-CookieMUID [x2]Weitgehend von Microsoft als eindeutige Benutzer-ID verwendet. Der Cookie ermöglicht Benutzer-Tracking durch Synchronisieren der ID in vielen Microsoft-Domänen.Ablauf: 1 JahrTyp: HTTP-CookieSRM_BWird verwendet, um die Interaktion des Benutzers mit der Suchleistenfunktion der Website zu verfolgen. Diese Daten können verwendet werden, um dem Benutzer relevante Produkte oder Dienstleistungen anzubieten.Ablauf: 1 JahrTyp: HTTP-CookieANONCHKRegistriert Daten über Besucher von mehreren Besuchen und auf mehreren Websites. Diese Informationen werden verwendet, um die Werbewirkung auf Websites zu messen.Ablauf: 1 TagTyp: HTTP-CookieSMRegistriert eine eindeutige ID, die das Gerät des Benutzers während der erneuten Besuche auf Websites identifiziert, die das gleiche Anzeige-Netzwerk verwenden. Die ID wird für die Ermöglichung gezielter Werbung genutzt.Ablauf: SitzungTyp: HTTP-Cookie_uetsid [x2]Sammelt Daten zum Besucherverhalten auf mehreren Websites, um relevantere Werbung zu präsentieren - Dies ermöglicht es der Website auch, die Anzahl der gleichen Werbeanzeige zu begrenzen.Ablauf: 1 TagTyp: HTTP-Cookie_uetvidWird verwendet, um Besucher auf mehreren Websites zu tracken, um relevante Werbung basierend auf den Präferenzen des Besuchers zu präsentieren.Ablauf: 1 JahrTyp: HTTP-CookieOptimizely2Erfahren Sie mehr über diesen AnbieteroptimizelyOptOut [x2]Erfasst Daten zu Besuchen des Benutzers auf der Website, wie z. B. die Anzahl der Besuche, durchschnittliche Verweildauer auf der Website und welche Seiten geladen wurden, mit dem Ziel der Darstellung zielgerichteter Anzeigen.Ablauf: SitzungTyp: HTTP-CookieScribd3Erfahren Sie mehr über diesen Anbieterfbssls_#Sammelt Daten über die Nutzung des Kommentarsystems auf der Website durch den Besucher, außerdem registriert es, welche Blogs/Artikel der Besucher gelesen hat - dies kann für Marketingzwecke verwendet werden. Ablauf: SitzungTyp: HTML Local Storagescribd_ubtcSammelt Informationen zum Besucherverhalten auf mehreren Websites. Diese Informationen werden auf der Website verwendet, um die Relevanz der Werbung zu optimieren.Ablauf: 400 TageTyp: HTTP-Cookie_fs_sample_userWird verwendet, um dem Besucher relevante Inhalte und Werbung zu präsentieren - Der Dienst wird von Drittanbietern bereitgestellt, die Echtzeitgebote für Werbetreibende ermöglichen.Ablauf: 30 TageTyp: HTTP-CookieSoundcloud1Erfahren Sie mehr über diesen AnbieterWIDGET::local::assignmentsWird von der Audio-Plattform SoundCloud verwendet, um ihre eingebetteten Inhalte/Dienste auf der Website zu implementieren, zu messen und zu verbessern - Die Datensammlung umfasst auch die Interaktion der Besucher mit eingebetteten Inhalten/Diensten. Dies kann für Statistiken oder Marketingzwecke genutzt werden.  Ablauf: BeständigTyp: HTML Local StorageTwitter Inc.1Erfahren Sie mehr über diesen Anbieteri/jot/embedsLegt eine eindeutige ID für den Besucher fest, die es Third-Party-Advertisern ermöglicht, den Besucher mit relevanter Werbung anzusprechen. Dieser Pairing-Service wird von Werbe-Hubs von Third Parties bereitgestellt, die Echtzeitgebote für Advertiser ermöglichen.Ablauf: SitzungTyp: Pixel-TrackerWordPress.com4Erfahren Sie mehr über diesen Anbietertk_lrSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: 1 JahrTyp: HTTP-Cookietk_orSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: 5 JahreTyp: HTTP-Cookietk_r3dSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: 3 TageTyp: HTTP-Cookietk_tcSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: SitzungTyp: HTTP-CookieYouTube37Erfahren Sie mehr über diesen Anbieter#-# [x2]AnstehendAblauf: SitzungTyp: HTML Local StorageiU5q-!O9@[#COOKIETABLE_ADVERTISING#]nbsp;[x2]Registriert eine eindeutige ID, um Statistiken der Videos von YouTube, die der Benutzer gesehen hat, zu behalten.Ablauf: SitzungTyp: HTML Local StorageLAST_RESULT_ENTRY_KEY [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: SitzungTyp: HTTP-CookienextId [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: SitzungTyp: HTTP-Cookierequests [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: SitzungTyp: HTTP-Cookieyt.innertube::nextId [x2]Registriert eine eindeutige ID, um Statistiken der Videos von YouTube, die der Benutzer gesehen hat, zu behalten.Ablauf: BeständigTyp: HTML Local Storageytidb::LAST_RESULT_ENTRY_KEY [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: BeständigTyp: HTML Local StorageYtIdbMeta#databases [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: BeständigTyp: IndexedDByt-remote-cast-available [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storageyt-remote-cast-installed [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storageyt-remote-connected-devices [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: BeständigTyp: HTML Local Storageyt-remote-device-id [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: BeständigTyp: HTML Local Storageyt-remote-fast-check-period [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storageyt-remote-session-app [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storageyt-remote-session-name [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storage-28724b-43be89d6AnstehendAblauf: SitzungTyp: HTML Local StorageLogsDatabaseV2:V#||LogsRequestsStoreDieses Cookie wird verwendet, um Nutzerinteraktionen für Tracking- und Analysezwecke zu speichern und zu verwalten.Ablauf: BeständigTyp: IndexedDBremote_sidNotwendig für die Implementierung und Funktionalität von YouTube-Videoinhalten auf der Website. Ablauf: SitzungTyp: HTTP-CookieServiceWorkerLogsDatabase#SWHealthLogNotwendig für die Implementierung und Funktionalität von YouTube-Videoinhalten auf der Website. Ablauf: BeständigTyp: IndexedDBTESTCOOKIESENABLEDWird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: 1 TagTyp: HTTP-CookieVISITOR_INFO1_LIVEVersucht, die Benutzerbandbreite auf Seiten mit integrierten YouTube-Videos zu schätzen.Ablauf: 180 TageTyp: HTTP-CookieYSCRegistriert eine eindeutige ID, um Statistiken der Videos von YouTube, die der Benutzer gesehen hat, zu behalten.Ablauf: SitzungTyp: HTTP-Cookiedoubleclick.netwww.selfmade-energy.com2pagead/landing [x2]Sammelt Daten zum Besucherverhalten auf mehreren Websites, um relevantere Werbung zu präsentieren - Dies ermöglicht es der Website auch, die Anzahl der gleichen Werbeanzeige zu begrenzen.Ablauf: SitzungTyp: Pixel-Trackerpv-magazine.de1_awlSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: 13 MonateTyp: HTTP-Cookiewww.bigmarker.com1_session_idSpeichert die Navigation der Besucher durch die Registrierung von Landing Pages - Dies ermöglicht der Webseite, relevante Produkte zu präsentieren und / oder ihre Werbeeffizienz auf anderen Webseiten zu messen.Ablauf: 3 TageTyp: HTTP-Cookiewww.pv-magazine.de2c4YGUxxz5aNu6NODlhMDgAnstehend. Ablauf: SitzungTyp: HTTP-CookieQ7Z0zw63hK0VBvRLy5LzFAnstehend.Ablauf: 7 TageTyp: HTTP-Cookiewww.selfmade-energy.com7_uetsidWird verwendet, um Besucher auf mehreren Websites zu tracken, um relevante Werbung basierend auf den Präferenzen des Besuchers zu präsentieren.Ablauf: BeständigTyp: HTML Local Storage_uetsid_expEnthält das Verfallsdatum für das Cookie mit entsprechendem Namen. Ablauf: BeständigTyp: HTML Local Storage_uetvidWird verwendet, um Besucher auf mehreren Websites zu tracken, um relevante Werbung basierend auf den Präferenzen des Besuchers zu präsentieren.Ablauf: BeständigTyp: HTML Local Storage_uetvid_expEnthält das Verfallsdatum für das Cookie mit entsprechendem Namen. Ablauf: BeständigTyp: HTML Local StoragelastExternalReferrerErmittelt, wie der Nutzer die Website erreicht hat, indem seine letzte URL-Adresse registriert wird.Ablauf: BeständigTyp: HTML Local StoragelastExternalReferrerTimeErmittelt, wie der Nutzer die Website erreicht hat, indem seine letzte URL-Adresse registriert wird.Ablauf: BeständigTyp: HTML Local Storagepagead/1p-user-list/#Wird verwendet, um zu tracken, ob der Besucher Interesse an bestimmten Produkten oder Ereignissen auf mehreren Websites gezeigt hat und wie der Besucher zwischen den Websites navigiert - Dies wird zur Messung des Werbeaufwands verwendet und erleichtert die Zahlung von Empfehlungsgebühren zwischen Websites.Ablauf: SitzungTyp: Pixel-TrackerNicht klassifiziert  1Nicht klassifizierte Cookies sind Cookies, die wir gerade versuchen zu klassifizieren, zusammen mit Anbietern von individuellen Cookies. cdn.consentmanager.net1delivery/info/AnstehendAblauf: SitzungTyp: Pixel-TrackerDomainübergreifende Zustimmung3 Ihre Einwilligung trifft auf die folgenden Domains zu: Liste der Domains, für die Ihre Zustimmung gilt: branchenbuch.pv-magazine.de shop.pv-magazine.com www.pv-magazine.deDie Cookie-Erklärung wurde das letzte Mal am 7/22/24 von Cookiebot aktualisiert
-Technisch notwendig  32 Technisch notwendige Cookies helfen dabei, eine Webseite nutzbar zu machen, indem sie Grundfunktionen wie Seitennavigation und Zugriff auf sichere Bereiche der Webseite ermöglichen. Die Webseite kann ohne diese Cookies nicht richtig funktionieren. Cookiebot1Erfahren Sie mehr über diesen Anbieter1.gifWird verwendet, um die Anzahl der Sitzungen auf der Website zu zählen, was für die Optimierung der Bereitstellung von CMP-Produkten erforderlich ist. Ablauf: SitzungTyp: Pixel-TrackerGoogle1Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness.rc::eDieser Cookie wird verwendet, um zwischen Menschen und Bots zu unterscheiden.Ablauf: SitzungTyp: HTML Local StorageLinkedIn4Erfahren Sie mehr über diesen AnbieterbcookieWird verwendet, um Spam zu erkennen und die Sicherheit der Webseite zu verbessern.Ablauf: 1 JahrTyp: HTTP-Cookieli_gcSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 180 TageTyp: HTTP-CookiebscookieDieser Cookie wird verwendet, um den Besucher über eine Anwendung zu identifizieren. Dadurch kann sich der Besucher beispielsweise über seine LinkedIn-Anwendung bei einer webseite anmelden.Ablauf: 1 JahrTyp: HTTP-CookieJSESSIONIDBehält die Zustände des Benutzers bei allen Seitenanfragen bei.Ablauf: SitzungTyp: HTTP-CookieStripe3Erfahren Sie mehr über diesen AnbietermBestimmt das Gerät, mit dem auf die Webseite zugegriffen wird. Dadurch kann die Webseite entsprechend formatiert werden.Ablauf: 400 TageTyp: HTTP-Cookie__stripe_midDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: 1 JahrTyp: HTTP-Cookie__stripe_sidDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: 1 TagTyp: HTTP-CookieWordPress.com1Erfahren Sie mehr über diesen Anbietert.gifStellt sicher, dass die Produktbilder auf der Website korrekt dargestellt werden.Ablauf: SitzungTyp: Pixel-Trackerapp.involve.me2lvapp_sessionWird verwendet, um Formulare auf der Website zu implementieren.Ablauf: 1 TagTyp: HTTP-CookieXSRF-TOKENGewährleistet die Sicherheit beim Browsen für Besucher durch Verhinderung von Cross-Site Request Forgery. Dieser Cookie ist wesentlich für die Sicherheit der Website und des Besuchers.Ablauf: 1 TagTyp: HTTP-Cookiebranchenbuch.pv-magazine.deshop.pv-magazine.comwww.pv-magazine.de3wpEmojiSettingsSupports [x3]Dieses Cookie ist mit einem Bündel von Cookies verbunden, die dem Zweck der Bereitstellung und Präsentation von Inhalten dienen. Die Cookies behalten den korrekten Zustand von Schriftart, Blog-/Bildschiebereglern, Farbthemen und anderen Website-Einstellungen bei.Ablauf: SitzungTyp: HTML Local Storagecdn.consentmanager.net2__cmp#_.#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storage__cmp#_expire_#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storagecdn.consentmanager.netb.delivery.consentmanager.net2__cmp# [x2]Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 1 TagTyp: HTTP-Cookieconsent.cookiebot.comshop.pv-magazine.com3CookieConsent [x3]Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 1 JahrTyp: HTTP-Cookiem.stripe.com3Erfahren Sie mehr über diesen Anbieter_abDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: SitzungTyp: HTML Local Storage_mfDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: SitzungTyp: HTML Local StorageidAnstehendAblauf: SitzungTyp: HTML Local Storagewidget.sndcdn.com1sc_anonymous_idWird im Zusammenhang mit der 3D-Ansichtsfunktion auf der Website verwendet.Ablauf: 10 JahreTyp: HTTP-Cookiewww.selfmade-energy.com6uc_settingsSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storageuc_ui_versionSpeichert die Versionsnummer des Consent-Banners UI, die auf der aktuellen Domain verwendet wirdAblauf: BeständigTyp: HTML Local Storageuc_user_countryWird verwendet, um zu bestimmen, wo sich der Benutzer befindet, um festzustellen, ob der Benutzer der DSGVO oder anderen ePrivacy-Gesetzen unterliegt.Ablauf: SitzungTyp: HTML Local Storagetest_cookieVerwendet, um zu überprüfen, ob der Browser des Benutzers Cookies unterstützt.Ablauf: 1 TagTyp: HTTP-CookiecsrftokenHilft, Cross-Site Request Forgery- (CSRF-) Angriffe zu verhindern.Ablauf: 1 JahrTyp: HTTP-CookieSESS#Behält die Zustände des Benutzers bei allen Seitenanfragen bei.Ablauf: 14 TageTyp: HTTP-CookiePräferenzen  6 Präferenz-Cookies ermöglichen einer Webseite sich an Informationen zu erinnern, die die Art beeinflussen, wie sich eine Webseite verhält oder aussieht, wie z. B. Ihre bevorzugte Sprache oder die Region in der Sie sich befinden. LinkedIn3Erfahren Sie mehr über diesen AnbieterlangNotwendig für die Pflege von Spracheinstellungen für Unterseiten auf der Webseite.Ablauf: SitzungTyp: HTTP-CookielidcRegistriert, welcher Server-Cluster den Besucher bedient. Dies wird im Zusammenhang mit Load Balancing verwendet, um die Nutzererfahrung zu optimieren.Ablauf: 1 TagTyp: HTTP-Cookieli_alertsWird verwendet, um zu bestimmen, wann und wo bestimmte Pop-ups auf der Website für den Benutzer angezeigt werden sollen, und um sich zu merken, ob der Benutzer diese geschlossen hat, damit sie nicht mehrfach angezeigt werden.Ablauf: 1 JahrTyp: HTTP-Cookiem.stripe.com1Erfahren Sie mehr über diesen Anbieter1Dieser Cookie wird in Verbindung mit dem Zahlungsfenster verwendet. - Der Cookie ist für sichere Transaktionen auf der webseite erforderlich.Ablauf: SitzungTyp: HTM</t>
+Technisch notwendig  34 Technisch notwendige Cookies helfen dabei, eine Webseite nutzbar zu machen, indem sie Grundfunktionen wie Seitennavigation und Zugriff auf sichere Bereiche der Webseite ermöglichen. Die Webseite kann ohne diese Cookies nicht richtig funktionieren. Cookiebot1Erfahren Sie mehr über diesen Anbieter1.gifWird verwendet, um die Anzahl der Sitzungen auf der Website zu zählen, was für die Optimierung der Bereitstellung von CMP-Produkten erforderlich ist. Maximale Speicherdauer: SitzungTyp: Pixel-TrackerGoogle1Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness.rc::eDieser Cookie wird verwendet, um zwischen Menschen und Bots zu unterscheiden.Maximale Speicherdauer: SitzungTyp: HTML Local StorageLinkedIn4Erfahren Sie mehr über diesen AnbieterbcookieWird verwendet, um Spam zu erkennen und die Sicherheit der Webseite zu verbessern.Maximale Speicherdauer: 1 JahrTyp: HTTP-Cookieli_gcSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Maximale Speicherdauer: 180 TageTyp: HTTP-CookiebscookieDieser Cookie wird verwendet, um den Besucher über eine Anwendung zu identifizieren. Dadurch kann sich der Besucher beispielsweise über seine LinkedIn-Anwendung bei einer webseite anmelden.Maximale Speicherdauer: 1 JahrTyp: HTTP-CookieJSESSIONIDBehält die Zustände des Benutzers bei allen Seitenanfragen bei.Maximale Speicherdauer: SitzungTyp: HTTP-CookieStripe3Erfahren Sie mehr über diesen AnbietermBestimmt das Gerät, mit dem auf die Webseite zugegriffen wird. Dadurch kann die Webseite entsprechend formatiert werden.Maximale Speicherdauer: 400 TageTyp: HTTP-Cookie__stripe_midDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Maximale Speicherdauer: 1 JahrTyp: HTTP-Cookie__stripe_sidDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Maximale Speicherdauer: 1 TagTyp: HTTP-CookieWordPress.com1Erfahren Sie mehr über diesen Anbietert.gifStellt sicher, dass die Produktbilder auf der Website korrekt dargestellt werden.Maximale Speicherdauer: SitzungTyp: Pixel-Trackerbranchenbuch.pv-magazine.deshop.pv-magazine.comwww.pv-magazine.de3wpEmojiSettingsSupports [x3]Dieses Cookie ist mit einem Bündel von Cookies verbunden, die dem Zweck der Bereitstellung und Präsentation von Inhalten dienen. Die Cookies behalten den korrekten Zustand von Schriftart, Blog-/Bildschiebereglern, Farbthemen und anderen Website-Einstellungen bei.Maximale Speicherdauer: SitzungTyp: HTML Local Storagecdn.consentmanager.net4lvapp_sessionWird verwendet, um Formulare auf der Website zu implementieren.Maximale Speicherdauer: 1 TagTyp: HTTP-CookieXSRF-TOKENGewährleistet die Sicherheit beim Browsen für Besucher durch Verhinderung von Cross-Site Request Forgery. Dieser Cookie ist wesentlich für die Sicherheit der Website und des Besuchers.Maximale Speicherdauer: 1 TagTyp: HTTP-Cookie__cmp#_.#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Maximale Speicherdauer: BeständigTyp: HTML Local Storage__cmp#_expire_#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Maximale Speicherdauer: BeständigTyp: HTML Local Storagecdn.consentmanager.netb.delivery.consentmanager.net4__cmp# [x4]Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Maximale Speicherdauer: 1 TagTyp: HTTP-Cookieconsent.cookiebot.comshop.pv-magazine.com3CookieConsent [x3]Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Maximale Speicherdauer: 1 JahrTyp: HTTP-Cookiem.stripe.com3Erfahren Sie mehr über diesen Anbieter_abDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Maximale Speicherdauer: SitzungTyp: HTML Local Storage_mfDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Maximale Speicherdauer: SitzungTyp: HTML Local StorageidAnstehendMaximale Speicherdauer: SitzungTyp: HTML Local Storagewidget.sndcdn.com1sc_anonymous_idWird im Zusammenhang mit der 3D-Ansichtsfunktion auf der Website verwendet.Maximale Speicherdauer: 10 JahreTyp: HTTP-Cookiewww.selfmade-energy.com6uc_settingsSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Maximale Speicherdauer: BeständigTyp: HTML Local Storageuc_ui_versionSpeichert die Versionsnummer des Consent-Banners UI, die auf der aktuellen Domain verwendet wirdMaximale Speicherdauer: BeständigTyp: HTML Local Storageuc_user_countryWird verwendet, um zu bestimmen, wo sich der Benutzer befindet, um festzustellen, ob der Benutzer der DSGVO oder anderen ePrivacy-Gesetzen unterliegt.Maximale Speicherdauer: SitzungTyp: HTML Local Storagetest_cookieVerwendet, um zu überprüfen, ob der Browser des Benutzers Cookies unterstützt.Maximale Speicherdauer: 1 TagTyp: HTTP-CookiecsrftokenHilft, Cross-Site Request Forgery- (CSRF-) Angriffe zu verhindern.Maximale Speicherdauer: 1 JahrTyp: HTTP-CookieSESS#Behält die Zustände des Benutzers bei allen Seitenanfragen bei.Maximale Speicherdauer: 14 TageTyp: HTTP-CookiePräferenzen  6 Präferenz-Cookies ermöglichen einer Webseite sich an Informationen zu erinnern, die die Art beeinflussen, wie sich eine Webseite verhält oder aussieht, wie z. B. Ihre bevorzugte Sprache oder die Region in der Sie sich befinden. LinkedIn3Erfahren Sie mehr über diesen AnbieterlangNotwendig für die Pflege von Spracheinstellungen für Unterseiten auf der Webseite.Maximale Speicherdauer: SitzungTyp: HTTP-CookielidcRegistriert, welcher Server-Cluster den Besucher bedient. Dies wird im Zusammenhang mit Load Balancing verwendet, um die Nutzererfahrung zu optimieren.Maximale Speicherdauer: 1 TagTyp: HTTP-Cookieli_alertsWird verwendet, um zu bestimmen, wann und wo bestimmte Pop-ups auf der Website für den Benutzer angezeigt werden sollen, und um sich zu merken, ob der Benutzer diese geschlossen hat, damit sie nicht mehrfach angezeigt werden.Maximale Speicherdauer: 1 JahrTyp: HTTP-Cookiem.stripe.com1Erfahren Sie mehr über diesen Anbieter1Dieser Cookie wird in Verbindung mit dem Zahlungsfenster verwendet. - Der Cookie ist für sichere Transaktionen auf der webseite erforderlich.Maximale Speicherdauer: SitzungTyp: HTML Local Storageshop.pv-magazine.com1qtrans_front_languageBestimmt die bevorzugte Sprache des Besuchers. Ermöglicht der Webseite, beim erneuten Besuch des Besuchers die bevorzugte Sprache festzulegen.Maximale Speicherdauer: 1 JahrTyp: HTTP-Cookiewww.selfmade-energy.com1uc_cross_domain_data_#AnstehendMaximale Speicherdauer: BeständigTyp: HTML Local StorageStatistiken  36 Statistik-Cookies helfen Webseiten-Besitzern zu verstehen, wie Besucher mit Webseiten interagieren, indem Informationen anonym gesammelt und gemeldet werden. Google15Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness._ga [x7]Registriert eine eindeutige ID, die verwendet wird, um statistische Daten dazu, wie der Besucher die Website nutzt, zu generieren.Maximale Speicherdauer: 2 JahreTyp: HTTP-Cookie_gid [x4]Registriert eine eindeutige ID, die verwendet wird, um statistische Daten dazu, wie der Besucher die Website nutzt, zu generieren.Maximale Speicherdauer: 1 TagTyp: HTTP-Cookie_gatWird von Google Analytics verwendet, um die Anforderungsrate einzuschränkenMaximale Speicherdauer: 1 TagTyp: HTTP-Cookie_ga_# [x3]Sammelt Daten dazu, wie oft ein Benutzer eine Website besucht hat, sowie Daten für den ersten und letzten Besuch. Von Google Analytics verwendet.Maximale Speicherdauer: 2 JahreTyp: HTTP-CookieHotjar3Erfahren Sie mehr über diesen Anbieter_hjSession_#Erfasst Statistiken über Besuche des Benutzers auf der Website, wie z. B. die Anzahl der Besuche, durchschnittliche Verweildauer auf der Website und welche Seiten gelesen wurden.Maximale Speicherdauer: 1 TagTyp: HTTP-Cookie_hjSessionUser_#Erfasst Statistiken über Besuche des Benutzers auf der Website, wie z. B. die Anzahl der Besuche, durchschnittliche Verweildauer auf der Website und welche Seiten gelesen wurden.Maximale Speicherdauer: 1 JahrTyp: HTTP-Cookie_hjTLDTestRegistriert statistische Daten über das Verhalten der Besucher auf der Website. Wird vom Website-Betreiber für internes Analytics verwendet.Maximale Speicherdauer: SitzungTyp: HTTP-CookieMicrosoft2Erfahren Sie mehr über diesen Anbieterc.gifSammelt Daten über die Navigation und das Verhalten des Benutzers auf der Website - Daraus werden statistische Berichte und Heatmaps für den Website-Besitzer erstellt.Maximale Speicherdauer: SitzungTyp: Pixel-TrackerCLIDSammelt Daten über die Navigation und das Verhalten des Benutzers auf der Website - Daraus werden statistische Berichte und Heatmaps für den Website-Besitzer erstellt.Maximale Speicherdauer: 1 JahrTyp: HTTP-CookieScribd1Erfahren Sie mehr über diesen Anbieter__CJ_session_metadataEnthält Daten über die Interaktion des Benutzers mit dem Hörbuch- und Dokumentenpräsentationstool für statistische Zwecke.Maximale Speicherdauer: SitzungTyp: HTTP-CookieWordPress.com5Erfahren Sie mehr über diesen Anbieterg.gifRegistriert statistische Daten über das Verhalten der Besucher auf der Website. Wird vom Website-Betreiber für internes Analytics verwendet.Maximale Speicherdauer: SitzungTyp: Pixel-Trackertk_aiRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Maximale Speicherdauer: 5 JahreTyp: HTTP-Cookietk_qsRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Maximale Speicherdauer: 1 TagTyp: HTTP-Cookietk_rlRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Maximale Speicherdauer: SitzungTyp: HTTP-Cookietk_roRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Maximale Speicherdauer: SitzungTyp: HTTP-Cookiebranchenbuch.pv-magazine.de1gd_recently_viewedAnstehendMaximale Speicherdauer: BeständigTyp: HTML Local Storagecdn.consentmanager.net2_scribd_sessionWird verwendet, um Audiodateien auf den Websites zu implementieren - Wird weiterhin verwendet, um festzustellen, wie viele und wer diese Dateien gehört hat.	Maximale Speicherdauer: 3 JahreTyp: HTTP-Cookienumber(#)Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Maximale Speicherdauer: SitzungTyp: HTML Local Storagewww.bigmarker.com1time_zone_detectionDieses Cookie trägt zur Verbesserung der Benutzerfreundlichkeit bei, indem es die Funktionen der Website an die Zeitzone des Benutzers anpasst, z. B. die Anzeige von Veranstaltungszeiten, die Planung von Terminen oder die Anzeige relevanter Inhalte zur richtigen Zeit.Maximale Speicherdauer: SitzungTyp: HTTP-Cookiewww.selfmade-energy.com6uc_gcmRegistriert statistische Daten über das Verhalten der Besucher auf der Website. Wird vom Website-Betreiber für internes Analytics verwendet.Maximale Speicherdauer: BeständigTyp: HTML Local Storageuc_user_interactionRegistriert statistische Daten über das Verhalten der Besucher auf der Website. Wird vom Website-Betreiber für internes Analytics verwendet.Maximale Speicherdauer: BeständigTyp: HTML Local StoragehjActiveViewportIdsDieses Cookie enthält einen ID-String über die aktuelle Sitzung. Dieser beinhaltet nicht personenbezogene Informationen über die Unterseiten, die der Besucher aufruft – diese Informationen werden benutzt, um die Nutzererfahrung des Besuchers zu optimieren.Maximale Speicherdauer: BeständigTyp: HTML Local StoragehjViewportIdSpeichert die Bildschirmgröße des Nutzers, um die Größe der Bilder auf der Website einzustellen.Maximale Speicherdauer: SitzungTyp: HTML Local StorageuctTeil der Consent Management-Plattform (CMP) - Die Cookies sammeln Daten über die Interaktion des Benutzers mit dem Zustimmungstool der Website, um die Funktion des Zustimmungstools zu optimieren. Maximale Speicherdauer: SitzungTyp: Pixel-TrackersentryReplaySessionRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Maximale Speicherdauer: SitzungTyp: HTML Local StorageMarketing  87 Marketing-Cookies werden verwendet, um Besuchern auf Webseiten zu folgen. Die Absicht ist, Anzeigen zu zeigen, die relevant und ansprechend für den einzelnen Benutzer sind und daher wertvoller für Publisher und werbetreibende Drittparteien sind.  Meta Platforms, Inc.3Erfahren Sie mehr über diesen Anbieter_fbp [x2]Wird von Facebook genutzt, um eine Reihe von Werbeprodukten anzuzeigen, zum Beispiel Echtzeitgebote dritter Werbetreibender.Maximale Speicherdauer: 3 MonateTyp: HTTP-Cookiefbsr_#Wird verwendet, um die Interaktion des Benutzers mit dem Facebook-Chat-Widget der Website zu verfolgen. Maximale Speicherdauer: SitzungTyp: HTTP-CookieGoogle12Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness.IDEVerwendet von Google DoubleClick, um die Handlungen des Benutzers auf der Webseite nach der Anzeige oder dem Klicken auf eine der Anzeigen des Anbieters zu registrieren und zu melden, mit dem Zweck der Messung der Wirksamkeit einer Werbung und der Anzeige zielgerichteter Werbung für den Benutzer.Maximale Speicherdauer: 400 TageTyp: HTTP-CookieNIDAnstehendMaximale Speicherdauer: 6 MonateTyp: HTTP-Cookierc::hDieser Cookie wird verwendet, um zwischen Menschen und Bots zu unterscheiden.Maximale Speicherdauer: BeständigTyp: HTML Local Storagepagead/gen_204Sammelt Daten zum Besucherverhalten auf mehreren Websites, um relevantere Werbung zu präsentieren - Dies ermöglicht es der Website auch, die Anzahl der gleichen Werbeanzeige zu begrenzen.Maximale Speicherdauer: SitzungTyp: Pixel-Trackerpcs/activeviewWird von DoubleClick verwendet, um festzustellen, ob Website-Werbung richtig angezeigt wurde - Dies geschieht, um ihre Marketingaktivitäten effizienter zu gestalten.Maximale Speicherdauer: SitzungTyp: Pixel-Trackerpcs/viewDieses Cookie wird verwendet, um zu verfolgen, wie oft eine bestimmte Anzeige von einem Nutzer angesehen wird. Maximale Speicherdauer: SitzungTyp: Pixel-TrackercsiSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Maximale Speicherdauer: SitzungTyp: Pixel-Tracker__eoiDas Cookie wird verwendet, um die Interaktionen und Präferenzen der Nutzer auf der Website zu verfolgen.Maximale Speicherdauer: 180 TageTyp: HTTP-Cookie__gadsVerwendet, um zu registrieren, welche Anzeigen dem Benutzer angezeigt werden.Maximale Speicherdauer: 1 JahrTyp: HTTP-Cookie__gpiSammelt Informationen zum Besucherverhalten auf mehreren Webseiten. Diese Informationen wird auf der Webseite verwendet, um die Relevanz der Werbung zu optimieren.Maximale Speicherdauer: 1 JahrTyp: HTTP-Cookie_gcl_au [x2]Wird von Google AdSense zum Experimentieren mit Werbewirkung auf Websites verwendet, die ihre Services nutzen.Maximale Speicherdauer: 3 MonateTyp: HTTP-CookieMas Capital1Erfahren Sie mehr über diesen Anbieterskeleton.gifWird verwendet, um Popup-Werbung auf der Website zu implementieren.  Maximale Speicherdauer: SitzungTyp: Pixel-TrackerMicrosoft10Erfahren Sie mehr über diesen AnbieterMR [x2]Wird verwendet, um Besucher auf mehreren Websites zu tracken, um relevante Werbung basierend auf den Präferenzen des Besuchers zu präsentieren.Maximale Speicherdauer: 7 TageTyp: HTTP-CookieMUID [x2]Weitgehend von Microsoft als eindeutige Benutzer-ID verwendet. Der Cookie ermöglicht Benutzer-Tracking durch Synchronisieren der ID in vielen Microsoft-Domänen.Maximale Speicherdauer: 1 JahrTyp: HTTP-CookieSRM_BWird verwendet, um die Interaktion des Benutzers mit der Suchleistenfunktion der Website zu verfolgen. Diese Daten können verwendet werden, um dem Benutzer relevante Produkte oder Dienstleistungen anzubieten.Maximale Speicherdauer: 1 JahrTyp: HTTP-CookieANONCHKRegistriert Daten über Besucher von mehreren Besuchen und auf mehreren Websites. Diese Informationen werden verwendet, um die Werbewirkung auf Websites zu messen.Maximale Speicherdauer: 1 TagTyp: HTTP-CookieSMRegistriert eine eindeutige ID, die das Gerät des Benutzers während der erneuten Besuche auf Websites identifiziert, die das gleiche Anzeige-Netzwerk verwenden. Die ID wird für die Ermöglichung gezielter Werbung genutzt.Maximale Speicherdauer: SitzungTyp: HTTP-Cookie_uetsid [x2]Sammelt Daten zum Besucherverhalten auf mehreren Websites, um relevantere Werbung zu präsentieren - Dies ermöglicht es der Website auch, die Anzahl der gleichen Werbeanzeige zu begrenzen.Maximale Speicherdauer: 1 TagTyp: HTTP-Cookie_uetvidWird verwendet, um Besucher auf mehreren Websites zu tracken, um relevante Werbung basierend auf den Präferenzen des Besuchers zu präsentieren.Maximale Speicherdauer: 1 JahrTyp: HTTP-CookieOptimizely2Erfahren Sie mehr über diesen AnbieteroptimizelyOptOut [x2]Erfasst Daten zu Besuchen des Benutzers auf der Website, wie z. B. die Anzahl der Besuche, durchschnittliche Verweildauer auf der Website und welche Seiten geladen wurden, mit dem Ziel der Darstellung zielgerichteter Anzeigen.Maximale Speicherdauer: SitzungTyp: HTTP-CookieScribd2Erfahren Sie mehr über diesen Anbieterscribd_ubtcSammelt Informationen zum Besucherverhalten auf mehreren Websites. Diese Informationen werden auf der Website verwendet, um die Relevanz der Werbung zu optimieren.Maximale Speicherdauer: 400 TageTyp: HTTP-Cookie_fs_sample_userWird verwendet, um dem Besucher relevante Inhalte und Werbung zu präsentieren - Der Dienst wird von Drittanbietern bereitgestellt, die Echtzeitgebote für Werbetreibende ermöglichen.Maximale Speicherdauer: 30 TageTyp: HTTP-CookieTwitter Inc.1Erfahren Sie mehr über diesen Anbieteri/jot/embedsLegt eine eindeutige ID für den Besucher fest, die es Third-Party-Advertisern ermöglicht, den Besucher mit relevanter Werbung anzusprechen. Dieser Pairing-Service wird von Werbe-Hubs von Third Parties bereitgestellt, die Echtzeitgebote für Advertiser ermöglichen.Maximale Speicherdauer: SitzungTyp: Pixel-TrackerWordPress.com4Erfahren Sie mehr über diesen Anbietertk_lrSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Maximale Speicherdauer: 1 JahrTyp: HTTP-Cookietk_orSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Maximale Speicherdauer: 5 JahreTyp: HTTP-Cookietk_r3dSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Maximale Speicherdauer: 3 TageTyp: HTTP-Cookietk_tcSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Maximale Speicherdauer: SitzungTyp: HTTP-CookieYouTube10Erfahren Sie mehr über diesen AnbieterLAST_RESULT_ENTRY_KEY [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Maximale Speicherdauer: SitzungTyp: HTTP-CookienextId [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Maximale Speicherdauer: SitzungTyp: HTTP-Cookierequests [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Maximale Speicherdauer: SitzungTyp: HTTP-Cookieremote_sidNotwendig für die Implementierung und Funktionalität von YouTube-Videoinhalten auf der Website. Maximale Speicherdauer: SitzungTyp: HTTP-CookieTESTCOOKIESENABLEDWird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Maximale Speicherdauer: 1 TagTyp: HTTP-CookieVISITOR_INFO1_LIVEVersucht, die Benutzerbandbreite auf Seiten mit integrierten YouTube-Videos zu schätzen.Maximale Speicherdauer: 180 TageTyp: HTTP-CookieYSCRegistriert eine eindeutige ID, um Statistiken der Videos von YouTube, die der Benutzer gesehen hat, zu behalten.Maximale Speicherdauer: SitzungTyp: HTTP-Cookiecdn.consentmanager.net29fbssls_#Sammelt Daten über die Nutzung des Kommentarsystems auf der Website durch den Besucher, außerdem registriert es, welche Blogs/Artikel der Besucher gelesen hat - dies kann für Marketingzwecke verwendet werden. Maximale Speicherdauer: SitzungTyp: HTML Local StorageWIDGET::local::assignmentsWird von der Audio-Plattform SoundCloud verwendet, um ihre eingebetteten Inhalte/Dienste auf der Website zu implementieren, zu messen und zu verbessern - Die Datensammlung umfasst auch die Interaktion der Besucher mit eingebetteten Inhalten/Diensten. Dies kann für Statistiken oder Marketingzwecke genutzt werden.  Maximale Speicherdauer: BeständigTyp: HTML Local StoragesequenceNumber#sequenceNumberAnstehendMaximale Speicherdauer: BeständigTyp: IndexedDB#-# [x2]AnstehendMaximale Speicherdauer: SitzungTyp: HTML Local StorageiU5q-!O9@[#COOKIETABLE_ADVERTISING#]nbsp;[x2]Registriert eine eindeutige ID, um Statistiken der Videos von YouTube, die der Benutzer gesehen hat, zu behalten.Maximale Speicherdauer: SitzungTyp: HTML Local Storageyt.innertube::nextId [x2]Registriert eine eindeutige ID, um Statistiken der Videos von YouTube, die der Benutzer gesehen hat, zu behalten.Maximale Speicherdauer: BeständigTyp: HTML Local Storageytidb::LAST_RESULT_ENTRY_KEY [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Maximale Speicherdauer: BeständigTyp: HTML Local StorageYtIdbMeta#databases [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Maximale Speicherdauer: BeständigTyp: IndexedDByt-remote-cast-available [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosMaximale Speicherdauer: SitzungTyp: HTML Local Storageyt-remote-cast-installed [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosMaximale Speicherdauer: SitzungTyp: HTML Local Storageyt-remote-connected-devices [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosMaximale Speicherdauer: BeständigTyp: HTML Local Storageyt-remote-device-id [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosMaximale Speicherdauer: BeständigTyp: HTML Local Storageyt-remote-fast-check-period [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosMaximale Speicherdauer: SitzungTyp: HTML Local Storageyt-remote-session-app [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosMaximale Speicherdauer: SitzungTyp: HTML Local Storageyt-remote-session-name [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosMaximale Speicherdauer: SitzungTyp: HTML Local StorageLogsDatabaseV2:V#||LogsRequestsStoreDieses Cookie wird verwendet, um Nutzerinteraktionen für Tracking- und Analysezwecke zu speichern und zu verwalten.Maximale Speicherdauer: BeständigTyp: IndexedDBServiceWorkerLogsDatabase#SWHealthLogNotwendig für die Implementierung und Funktionalität von YouTube-Videoinhalten auf der Website. Maximale Speicherdauer: BeständigTyp: IndexedDBdoubleclick.netwww.selfmade-energy.com2pagead/landing [x2]Sammelt Daten zum Besucherverhalten auf mehreren Websites, um relevantere Werbung zu präsentieren - Dies ermöglicht es der Website auch, die Anzahl der gleichen Werbeanzeige zu begrenzen.Maximale Speicherdauer: SitzungTyp: Pixel-Trackerpv-magazine.de1_awlSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Maximale Speicherdauer: 13 MonateTyp: HTTP-Cookiewww.bigmarker.com1_session_idSpeichert die Navigation der Besucher durch die Registrierung von Landing Pages - Dies ermöglicht der Webseite, relevante Produkte zu präsentieren und / oder ihre Werbeeffizienz auf anderen Webseiten zu messen.Maximale Speicherdauer: 3 TageTyp: HTTP-Cookiewww.pv-magazine.de2c4YGUxxz5aNu6NODlhMDgAnstehend. Maximale Speicherdauer: SitzungTyp: HTTP-CookieQ7Z0zw63hK0VBvRLy5LzFAnstehend.Maximale Speicherdauer: 7 TageTyp: HTTP-Cookiewww.selfmade-energy.com7_uetsidWird verwendet, um Besucher auf mehreren Websites zu tracken, um relevante Werbung basierend auf den Präferenzen des Besuchers zu präsentieren.Maximale Speicherdauer: BeständigTyp: HTML Local Storage_uetsid_expEnthält das Verfallsdatum für das Cookie mit entsprechendem Namen. Maximale Speicherdauer: BeständigTyp: HTML Local Storage_uetvidWird verwendet, um Besucher auf mehreren Websites zu tracken, um relevante Werbung basierend auf den Präferenzen des Besuchers zu präsentieren.Maximale Speicherdauer: BeständigTyp: HTML Local Storage_uetvid_expEnthält das Verfallsdatum für das Cookie mit entsprechendem Namen. Maximale Speicherdauer: BeständigTyp: HTML Local StoragelastExternalReferrerErmittelt, wie der Nutzer die Website erreicht hat, indem seine letzte URL-Adresse registriert wird.Maximale Speicherdauer: BeständigTyp: HTML Local StoragelastExternalReferrerTimeErmittelt, wie der Nutzer die Website erreicht hat, indem seine letzte URL-Adresse registriert wird.Maximale Speicherdauer: BeständigTyp: HTML Local Storagepagead/1p-user-list/#Wird verwendet, um zu tracken, ob der Besucher Interesse an bestimmten Produkten oder Ereignissen auf mehreren Websites gezeigt hat und wie der Besucher zwischen den Websites navigiert - Dies wird zur Messung des Werbeaufwands verwendet und erleichtert die Zahlung von Empfehlungsgebühren zwischen Websites.Maximale Speicherdauer: SitzungTyp: Pixel-TrackerNicht klassifiziert  6Nicht klassifizierte Cookies sind Cookies, die wir gerade versuchen zu klassifizieren, zusammen mit Anbietern von individuellen Cookies. app.involve.me1delivery/alertdomain/d18xMDA4MDQuc18xLmRfYXBwX2ludm9sdmVfbWU.gifAnstehendMaximale Speicherdauer: SitzungTyp: Pixel-Trackercdn.consentmanager.net5delivery/info/ [x2]AnstehendMaximale Speicherdauer: SitzungTyp: Pixel-Trackerdelivery/alertdomain/d18xMDA4MDQuc18xLmRfc2VsZWN0aXZlc3VtbWVyX2NvbQ.gifAnstehendMaximale Speicherdauer: SitzungTyp: Pixel-Trackerdelivery/alertdomain/d18xMDA4MDQuc18xLmRfd3d3X3NjcmliZF9jb20.gifAnstehendMaximale Speicherdauer: SitzungTyp: Pixel-Trackerdelivery/alertdomain/d18xMDA4MDQuc18xLmRfZXAyX2FkdHJhZmZpY3F1YWxpdHlfZ29vZ2xl.gifAnstehendMaximale Speicherdauer: SitzungTyp: Pixel-TrackerDomainübergreifende Zustimmung3 Ihre Einwilligung trifft auf die folgenden Domains zu: Liste der Domains, für die Ihre Zustimmung gilt: branchenbuch.pv-magazine.de shop.pv-magazine.com www.pv-magazine.deDie Cookie-Erklärung wurde das letzte Mal am 8/29/24 von Cookiebot aktualisiert
+Technisch notwendig  34 Technisch notwendige Cookies helfen dabei, eine Webseite nutzbar zu machen, indem sie Grundfunktionen wie Seitennavigation und Zugriff auf sichere Bereiche der Webseite ermöglichen. Die Webseite kann ohne diese Cookies nicht richtig funktionieren. Cookiebot1Erfahren Sie mehr über diesen Anbieter1.gifWird verwendet, um die Anzahl der Sitzungen auf der Website zu zählen, was für die Optimierung der Bereitstellung von CMP-Produkten erforderlich ist. Maximale Speicherdauer: SitzungTyp: Pixel-TrackerGoogle1Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness.rc::eDieser Cookie wird verwendet, um zwischen Menschen und Bots zu unterscheiden.Maximale Speicherdauer: SitzungTyp: HTML Local StorageLinkedIn4Erfahren Sie mehr über diesen AnbieterbcookieWird verwendet, um Spam zu erkennen und die Sicherheit der Webseite zu verbessern.Maximale Speicherdauer: 1 JahrTyp: HTTP-Cookieli_gcSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Maximale Speicherdauer: 180 TageTyp: HTTP-CookiebscookieDieser Cookie wird verwendet, um den Besucher über eine Anwendung zu identifizieren. Dadurch kann sich der Besucher beispielsweise über seine LinkedIn-Anwendung bei einer webseite anmelden.Maximale Speicherdauer: 1 JahrTyp: HTTP-CookieJSESSIONIDBehält die Zustände des Benutzers bei allen Seitenanfragen bei.Maximale Speicherdauer: SitzungTyp: HTTP-CookieStripe3Erfahren Sie mehr über diesen AnbietermBestimmt das Gerät, mit dem auf die Webseite zugegriffen wird. Dadurch kann die Webseite entsprechend formatiert werden.Maximale Speicherdauer: 400 TageTyp: HTTP-Cookie__stripe_midDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Maximale Speicherdauer: 1 JahrTyp: HTTP-Cookie__stripe_sidDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Maximale Speicherdauer: 1 TagTyp: HTTP-CookieWordPress.com1Erfahren Sie mehr über diesen Anbietert.gifStellt sicher, dass die Produktbilder auf der Website korrekt dargestellt werden.Maximale Speicherdauer: SitzungTyp: Pixel-Trackerbranchenbuch.pv-magazine.deshop.pv-magazine.comwww.pv-magazine.de3wpEmojiSettingsSupports [x3]Dieses Cookie ist mit einem Bündel von Cookies verbunden, die dem Zweck der Bereitstellung und Präsentation von Inhalten dienen. Die Cookies behalten den korrekten Zustand von Schriftart, Blog-/Bildschiebereglern, Farbthemen und anderen Website-Einstellungen bei.Maximale Speicherdauer: SitzungTyp: HTML Local Storagecdn.consentmanager.net4lvapp_sessionWird verwendet, um Formulare auf der Website zu implementieren.Maximale Speicherdauer: 1 TagTyp: HTTP-CookieXSRF-TOKENGewährleistet die Sicherheit beim Browsen für Besucher durch Verhinderung von Cross-Site Request Forgery. Dieser Cookie ist wesentlich für die Sicherheit der Website und des Besuchers.Maximale Speicherdauer: 1 TagTyp: HTTP-Cookie__cmp#_.#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Maximale Speicherdauer: BeständigTyp: HTML Local Storage__cmp#_expire_#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Maximale Speicherdauer: BeständigTyp: HTML Local Storagecdn.consentmanager.netb.delivery.consentmanager.net4__cmp# [x4]Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Maximal</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
@@ -7867,14 +7867,13 @@
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>+ Technisch notwendig  32 Technisch notwendige Cookies helfen dabei, eine Webseite nutzbar zu machen, indem sie Grundfunktionen wie Seitennavigation und Zugriff auf sichere Bereiche der Webseite ermöglichen. Die Webseite kann ohne diese Cookies nicht richtig funktionieren. Cookiebot1Erfahren Sie mehr über diesen Anbieter1.gifWird verwendet, um die Anzahl der Sitzungen auf der Website zu zählen, was für die Optimierung der Bereitstellung von CMP-Produkten erforderlich ist. Ablauf: SitzungTyp: Pixel-TrackerGoogle1Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness.rc::eDieser Cookie wird verwendet, um zwischen Menschen und Bots zu unterscheiden.Ablauf: SitzungTyp: HTML Local StorageLinkedIn4Erfahren Sie mehr über diesen AnbieterbcookieWird verwendet, um Spam zu erkennen und die Sicherheit der Webseite zu verbessern.Ablauf: 1 JahrTyp: HTTP-Cookieli_gcSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 180 TageTyp: HTTP-CookiebscookieDieser Cookie wird verwendet, um den Besucher über eine Anwendung zu identifizieren. Dadurch kann sich der Besucher beispielsweise über seine LinkedIn-Anwendung bei einer webseite anmelden.Ablauf: 1 JahrTyp: HTTP-CookieJSESSIONIDBehält die Zustände des Benutzers bei allen Seitenanfragen bei.Ablauf: SitzungTyp: HTTP-CookieStripe3Erfahren Sie mehr über diesen AnbietermBestimmt das Gerät, mit dem auf die Webseite zugegriffen wird. Dadurch kann die Webseite entsprechend formatiert werden.Ablauf: 400 TageTyp: HTTP-Cookie__stripe_midDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: 1 JahrTyp: HTTP-Cookie__stripe_sidDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: 1 TagTyp: HTTP-CookieWordPress.com1Erfahren Sie mehr über diesen Anbietert.gifStellt sicher, dass die Produktbilder auf der Website korrekt dargestellt werden.Ablauf: SitzungTyp: Pixel-Trackerapp.involve.me2lvapp_sessionWird verwendet, um Formulare auf der Website zu implementieren.Ablauf: 1 TagTyp: HTTP-CookieXSRF-TOKENGewährleistet die Sicherheit beim Browsen für Besucher durch Verhinderung von Cross-Site Request Forgery. Dieser Cookie ist wesentlich für die Sicherheit der Website und des Besuchers.Ablauf: 1 TagTyp: HTTP-Cookiebranchenbuch.pv-magazine.deshop.pv-magazine.comwww.pv-magazine.de3wpEmojiSettingsSupports [x3]Dieses Cookie ist mit einem Bündel von Cookies verbunden, die dem Zweck der Bereitstellung und Präsentation von Inhalten dienen. Die Cookies behalten den korrekten Zustand von Schriftart, Blog-/Bildschiebereglern, Farbthemen und anderen Website-Einstellungen bei.Ablauf: SitzungTyp: HTML Local Storagecdn.consentmanager.net2__cmp#_.#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storage__cmp#_expire_#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storagecdn.consentmanager.netb.delivery.consentmanager.net2__cmp# [x2]Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 1 TagTyp: HTTP-Cookieconsent.cookiebot.comshop.pv-magazine.com3CookieConsent [x3]Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 1 JahrTyp: HTTP-Cookiem.stripe.com3Erfahren Sie mehr über diesen Anbieter_abDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: SitzungTyp: HTML Local Storage_mfDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: SitzungTyp: HTML Local StorageidAnstehendAblauf: SitzungTyp: HTML Local Storagewidget.sndcdn.com1sc_anonymous_idWird im Zusammenhang mit der 3D-Ansichtsfunktion auf der Website verwendet.Ablauf: 10 JahreTyp: HTTP-Cookiewww.selfmade-energy.com6uc_settingsSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storageuc_ui_versionSpeichert die Versionsnummer des Consent-Banners UI, die auf der aktuellen Domain verwendet wirdAblauf: BeständigTyp: HTML Local Storageuc_user_countryWird verwendet, um zu bestimmen, wo sich der Benutzer befindet, um festzustellen, ob der Benutzer der DSGVO oder anderen ePrivacy-Gesetzen unterliegt.Ablauf: SitzungTyp: HTML Local Storagetest_cookieVerwendet, um zu überprüfen, ob der Browser des Benutzers Cookies unterstützt.Ablauf: 1 TagTyp: HTTP-CookiecsrftokenHilft, Cross-Site Request Forgery- (CSRF-) Angriffe zu verhindern.Ablauf: 1 JahrTyp: HTTP-CookieSESS#Behält die Zustände des Benutzers bei allen Seitenanfragen bei.Ablauf: 14 TageTyp: HTTP-CookiePräferenzen  6 Präferenz-Cookies ermöglichen einer Webseite sich an Informationen zu erinnern, die die Art beeinflussen, wie sich eine Webseite verhält oder aussieht, wie z. B. Ihre bevorzugte Sprache oder die Region in der Sie sich befinden. LinkedIn3Erfahren Sie mehr über diesen AnbieterlangNotwendig für die Pflege von Spracheinstellungen für Unterseiten auf der Webseite.Ablauf: SitzungTyp: HTTP-CookielidcRegistriert, welcher Server-Cluster den Besucher bedient. Dies wird im Zusammenhang mit Load Balancing verwendet, um die Nutzererfahrung zu optimieren.Ablauf: 1 TagTyp: HTTP-Cookieli_alertsWird verwendet, um zu bestimmen, wann und wo bestimmte Pop-ups auf der Website für den Benutzer angezeigt werden sollen, und um sich zu merken, ob der Benutzer diese geschlossen hat, damit sie nicht mehrfach angezeigt werden.Ablauf: 1 JahrTyp: HTTP-Cookiem.stripe.com1Erfahren Sie mehr über diesen Anbieter1Dieser Cookie wird in Verbindung mit dem Zahlungsfenster verwendet. - Der Cookie ist für sichere Transaktionen auf der webseite erforderlich.Ablauf: SitzungTyp: HTML Local Storageshop.pv-magazine.com1qtrans_front_languageBestimmt die bevorzugte Sprache des Besuchers. Ermöglicht der Webseite, beim erneuten Besuch des Besuchers die bevorzugte Sprache festzulegen.Ablauf: 1 JahrTyp: HTTP-Cookiewww.selfmade-energy.com1uc_cross_domain_data_#AnstehendAblauf: BeständigTyp: HTML Local StorageStatistiken  36 Statistik-Cookies helfen Webseiten-Besitzern zu verstehen, wie Besucher mit Webseiten interagieren, indem Informationen anonym gesammelt und gemeldet werden. Google15Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness._ga [x7]Registriert eine eindeutige ID, die verwendet wird, um statistische Daten dazu, wie der Besucher die Website nutzt, zu generieren.Ablauf: 2 JahreTyp: HTTP-Cookie_gid [x4]Registriert eine eindeutige ID, die verwendet wird, um statistische Daten dazu, wie der Besucher die Website nutzt, zu generieren.Ablauf: 1 TagTyp: HTTP-Cookie_gatWird von Google Analytics verwendet, um die Anforderungsrate einzuschränkenAblauf: 1 TagTyp: HTTP-Cookie_ga_# [x3]Sammelt Daten dazu, wie oft ein Benutzer eine Website besucht hat, sowie Daten für den ersten und letzten Besuch. Von Google Analytics verwendet.Ablauf: 2 JahreTyp: HTTP-CookieHotjar3Erfahren Sie mehr über diesen Anbieter_hjSession_#Erfasst Statistiken über Besuche des Benutzers auf der Website, wie z. B. die Anzahl der Besuche, durchschnittliche Verweildauer auf der Website und welche Seiten gelesen wurden.Ablauf: 1 TagTyp: HTTP-Cookie_hjSessionUser_#Erfasst Statistiken über Besuche des Benutzers auf der Website, wie z. B. die Anzahl der Besuche, durchschnittliche Verweildauer auf der Website und welche Seiten gelesen wurden.Ablauf: 1 JahrTyp: HTTP-Cookie_hjTLDTestRegistriert statistische Daten über das Verhalten der Besucher auf der Website. Wird vom Website-Betreiber für internes Analytics verwendet.Ablauf: SitzungTyp: HTTP-CookieMicrosoft2Erfahren Sie mehr über diesen Anbieterc.gifSammelt Daten über die Navigation und das Verhalten des Benutzers auf der Website - Daraus werden statistische Berichte und Heatmaps für den Website-Besitzer erstellt.Ablauf: SitzungTyp: Pixel-TrackerCLIDSammelt Daten über die Navigation und das Verhalten des Benutzers auf der Website - Daraus werden statistische Berichte und Heatmaps für den Website-Besitzer erstellt.Ablauf: 1 JahrTyp: HTTP-CookieScribd2Erfahren Sie mehr über diesen Anbieter__CJ_session_metadataEnthält Daten über die Interaktion des Benutzers mit dem Hörbuch- und Dokumentenpräsentationstool für statistische Zwecke.Ablauf: SitzungTyp: HTTP-Cookie_scribd_sessionWird verwendet, um Audiodateien auf den Websites zu implementieren - Wird weiterhin verwendet, um festzustellen, wie viele und wer diese Dateien gehört hat.	Ablauf: 3 JahreTyp: HTTP-CookieSoundcloud1Erfahren Sie mehr über diesen Anbieternumber(#)Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: SitzungTyp: HTML Local StorageWordPress.com5Erfahren Sie mehr über diesen Anbieterg.gifRegistriert statistische Daten über das Verhalten der Besucher auf der Website. Wird vom Website-Betreiber für internes Analytics verwendet.Ablauf: SitzungTyp: Pixel-Trackertk_aiRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: 5 JahreTyp: HTTP-Cookietk_qsRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: 1 TagTyp: HTTP-Cookietk_rlRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: SitzungTyp: HTTP-Cookietk_roRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: SitzungTyp: HTTP-Cookiebranchenbuch.pv-magazine.de1gd_recently_viewedAnstehendAblauf: BeständigTyp: HTML Local Storagewww.bigmarker.com1time_zone_detectionDieses Cookie trägt zur Verbesserung der Benutzerfreundlichkeit bei, indem es die Funktionen der Website an die Zeitzone des Benutzers anpasst, z. B. die Anzeige von Veranstaltungszeiten, die Planung von Terminen oder die Anzeige relevanter Inhalte zur richtigen Zeit.Ablauf: SitzungTyp: HTTP-Cookiewww.selfmade-energy.com6uc_gcmRegistriert statistische Daten über das Verhalten der Besucher auf der Website. Wird vom Website-Betreiber für internes Analytics verwendet.Ablauf: BeständigTyp: HTML Local Storageuc_user_interactionRegistriert statistische Daten über das Verhalten der Besucher auf der Website. Wird vom Website-Betreiber für internes Analytics verwendet.Ablauf: BeständigTyp: HTML Local StoragehjActiveViewportIdsDieses Cookie enthält einen ID-String über die aktuelle Sitzung. Dieser beinhaltet nicht personenbezogene Informationen über die Unterseiten, die der Besucher aufruft – diese Informationen werden benutzt, um die Nutzererfahrung des Besuchers zu optimieren.Ablauf: BeständigTyp: HTML Local StoragehjViewportIdSpeichert die Bildschirmgröße des Nutzers, um die Größe der Bilder auf der Website einzustellen.Ablauf: SitzungTyp: HTML Local StorageuctTeil der Consent Management-Plattform (CMP) - Die Cookies sammeln Daten über die Interaktion des Benutzers mit dem Zustimmungstool der Website, um die Funktion des Zustimmungstools zu optimieren. Ablauf: SitzungTyp: Pixel-TrackersentryReplaySessionRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: SitzungTyp: HTML Local StorageMarketing  86 Marketing-Cookies werden verwendet, um Besuchern auf Webseiten zu folgen. Die Absicht ist, Anzeigen zu zeigen, die relevant und ansprechend für den einzelnen Benutzer sind und daher wertvoller für Publisher und werbetreibende Drittparteien sind.  Meta Platforms, Inc.3Erfahren Sie mehr über diesen Anbieter_fbp [x2]Wird von Facebook genutzt, um eine Reihe von Werbeprodukten anzuzeigen, zum Beispiel Echtzeitgebote dritter Werbetreibender.Ablauf: 3 MonateTyp: HTTP-Cookiefbsr_#Wird verwendet, um die Interaktion des Benutzers mit dem Facebook-Chat-Widget der Website zu verfolgen. Ablauf: SitzungTyp: HTTP-CookieGoogle10Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness.IDEVerwendet von Google DoubleClick, um die Handlungen des Benutzers auf der Webseite nach der Anzeige oder dem Klicken auf eine der Anzeigen des Anbieters zu registrieren und zu melden, mit dem Zweck der Messung der Wirksamkeit einer Werbung und der Anzeige zielgerichteter Werbung für den Benutzer.Ablauf: 400 TageTyp: HTTP-CookieNIDAnstehendAblauf: 6 MonateTyp: HTTP-Cookierc::hDieser Cookie wird verwendet, um zwischen Menschen und Bots zu unterscheiden.Ablauf: BeständigTyp: HTML Local Storagepagead/gen_204Sammelt Daten zum Besucherverhalten auf mehreren Websites, um relevantere Werbung zu präsentieren - Dies ermöglicht es der Website auch, die Anzahl der gleichen Werbeanzeige zu begrenzen.Ablauf: SitzungTyp: Pixel-Trackerpcs/activeviewWird von DoubleClick verwendet, um festzustellen, ob Website-Werbung richtig angezeigt wurde - Dies geschieht, um ihre Marketingaktivitäten effizienter zu gestalten.Ablauf: SitzungTyp: Pixel-Trackerpcs/viewDieses Cookie wird verwendet, um zu verfolgen, wie oft eine bestimmte Anzeige von einem Nutzer angesehen wird. Ablauf: SitzungTyp: Pixel-TrackercsiSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: SitzungTyp: Pixel-Tracker__eoiDas Cookie wird verwendet, um die Interaktionen und Präferenzen der Nutzer auf der Website zu verfolgen.Ablauf: 180 TageTyp: HTTP-Cookie_gcl_au [x2]Wird von Google AdSense zum Experimentieren mit Werbewirkung auf Websites verwendet, die ihre Services nutzen.Ablauf: 3 MonateTyp: HTTP-CookieLinkedIn1Erfahren Sie mehr über diesen AnbietersequenceNumber#sequenceNumberAnstehendAblauf: BeständigTyp: IndexedDBMas Capital1Erfahren Sie mehr über diesen Anbieterskeleton.gifWird verwendet, um Popup-Werbung auf der Website zu implementieren.  Ablauf: SitzungTyp: Pixel-TrackerMicrosoft10Erfahren Sie mehr über diesen AnbieterMR [x2]Wird verwendet, um Besucher auf mehreren Websites zu tracken, um relevante Werbung basierend auf den Präferenzen des Besuchers zu präsentieren.Ablauf: 7 TageTyp: HTTP-CookieMUID [x2]Weitgehend von Microsoft als eindeutige Benutzer-ID verwendet. Der Cookie ermöglicht Benutzer-Tracking durch Synchronisieren der ID in vielen Microsoft-Domänen.Ablauf: 1 JahrTyp: HTTP-CookieSRM_BWird verwendet, um die Interaktion des Benutzers mit der Suchleistenfunktion der Website zu verfolgen. Diese Daten können verwendet werden, um dem Benutzer relevante Produkte oder Dienstleistungen anzubieten.Ablauf: 1 JahrTyp: HTTP-CookieANONCHKRegistriert Daten über Besucher von mehreren Besuchen und auf mehreren Websites. Diese Informationen werden verwendet, um die Werbewirkung auf Websites zu messen.Ablauf: 1 TagTyp: HTTP-CookieSMRegistriert eine eindeutige ID, die das Gerät des Benutzers während der erneuten Besuche auf Websites identifiziert, die das gleiche Anzeige-Netzwerk verwenden. Die ID wird für die Ermöglichung gezielter Werbung genutzt.Ablauf: SitzungTyp: HTTP-Cookie_uetsid [x2]Sammelt Daten zum Besucherverhalten auf mehreren Websites, um relevantere Werbung zu präsentieren - Dies ermöglicht es der Website auch, die Anzahl der gleichen Werbeanzeige zu begrenzen.Ablauf: 1 TagTyp: HTTP-Cookie_uetvidWird verwendet, um Besucher auf mehreren Websites zu tracken, um relevante Werbung basierend auf den Präferenzen des Besuchers zu präsentieren.Ablauf: 1 JahrTyp: HTTP-CookieOptimizely2Erfahren Sie mehr über diesen AnbieteroptimizelyOptOut [x2]Erfasst Daten zu Besuchen des Benutzers auf der Website, wie z. B. die Anzahl der Besuche, durchschnittliche Verweildauer auf der Website und welche Seiten geladen wurden, mit dem Ziel der Darstellung zielgerichteter Anzeigen.Ablauf: SitzungTyp: HTTP-CookieScribd3Erfahren Sie mehr über diesen Anbieterfbssls_#Sammelt Daten über die Nutzung des Kommentarsystems auf der Website durch den Besucher, außerdem registriert es, welche Blogs/Artikel der Besucher gelesen hat - dies kann für Marketingzwecke verwendet werden. Ablauf: SitzungTyp: HTML Local Storagescribd_ubtcSammelt Informationen zum Besucherverhalten auf mehreren Websites. Diese Informationen werden auf der Website verwendet, um die Relevanz der Werbung zu optimieren.Ablauf: 400 TageTyp: HTTP-Cookie_fs_sample_userWird verwendet, um dem Besucher relevante Inhalte und Werbung zu präsentieren - Der Dienst wird von Drittanbietern bereitgestellt, die Echtzeitgebote für Werbetreibende ermöglichen.Ablauf: 30 TageTyp: HTTP-CookieSoundcloud1Erfahren Sie mehr über diesen AnbieterWIDGET::local::assignmentsWird von der Audio-Plattform SoundCloud verwendet, um ihre eingebetteten Inhalte/Dienste auf der Website zu implementieren, zu messen und zu verbessern - Die Datensammlung umfasst auch die Interaktion der Besucher mit eingebetteten Inhalten/Diensten. Dies kann für Statistiken oder Marketingzwecke genutzt werden.  Ablauf: BeständigTyp: HTML Local StorageTwitter Inc.1Erfahren Sie mehr über diesen Anbieteri/jot/embedsLegt eine eindeutige ID für den Besucher fest, die es Third-Party-Advertisern ermöglicht, den Besucher mit relevanter Werbung anzusprechen. Dieser Pairing-Service wird von Werbe-Hubs von Third Parties bereitgestellt, die Echtzeitgebote für Advertiser ermöglichen.Ablauf: SitzungTyp: Pixel-TrackerWordPress.com4Erfahren Sie mehr über diesen Anbietertk_lrSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: 1 JahrTyp: HTTP-Cookietk_orSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: 5 JahreTyp: HTTP-Cookietk_r3dSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: 3 TageTyp: HTTP-Cookietk_tcSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: SitzungTyp: HTTP-CookieYouTube37Erfahren Sie mehr über diesen Anbieter#-# [x2]AnstehendAblauf: SitzungTyp: HTML Local StorageiU5q-!O9@[#COOKIETABLE_ADVERTISING#]nbsp;[x2]Registriert eine eindeutige ID, um Statistiken der Videos von YouTube, die der Benutzer gesehen hat, zu behalten.Ablauf: SitzungTyp: HTML Local StorageLAST_RESULT_ENTRY_KEY [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: SitzungTyp: HTTP-CookienextId [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: SitzungTyp: HTTP-Cookierequests [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: SitzungTyp: HTTP-Cookieyt.innertube::nextId [x2]Registriert eine eindeutige ID, um Statistiken der Videos von YouTube, die der Benutzer gesehen hat, zu behalten.Ablauf: BeständigTyp: HTML Local Storageytidb::LAST_RESULT_ENTRY_KEY [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: BeständigTyp: HTML Local StorageYtIdbMeta#databases [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: BeständigTyp: IndexedDByt-remote-cast-available [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storageyt-remote-cast-installed [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storageyt-remote-connected-devices [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: BeständigTyp: HTML Local Storageyt-remote-device-id [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: BeständigTyp: HTML Local Storageyt-remote-fast-check-period [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storageyt-remote-session-app [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storageyt-remote-session-name [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storage-28724b-43be89d6AnstehendAblauf: SitzungTyp: HTML Local StorageLogsDatabaseV2:V#||LogsRequestsStoreDieses Cookie wird verwendet, um Nutzerinteraktionen für Tracking- und Analysezwecke zu speichern und zu verwalten.Ablauf: BeständigTyp: IndexedDBremote_sidNotwendig für die Implementierung und Funktionalität von YouTube-Videoinhalten auf der Website. Ablauf: SitzungTyp: HTTP-CookieServiceWorkerLogsDatabase#SWHealthLogNotwendig für die Implementierung und Funktionalität von YouTube-Videoinhalten auf der Website. Ablauf: BeständigTyp: IndexedDBTESTCOOKIESENABLEDWird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: 1 TagTyp: HTTP-CookieVISITOR_INFO1_LIVEVersucht, die Benutzerbandbreite auf Seiten mit integrierten YouTube-Videos zu schätzen.Ablauf: 180 TageTyp: HTTP-CookieYSCRegistriert eine eindeutige ID, um Statistiken der Videos von YouTube, die der Benutzer gesehen hat, zu behalten.Ablauf: SitzungTyp: HTTP-Cookiedoubleclick.netwww.selfmade-energy.com2pagead/landing [x2]Sammelt Daten zum Besucherverhalten auf mehreren Websites, um relevantere Werbung zu präsentieren - Dies ermöglicht es der Website auch, die Anzahl der gleichen Werbeanzeige zu begrenzen.Ablauf: SitzungTyp: Pixel-Trackerpv-magazine.de1_awlSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: 13 MonateTyp: HTTP-Cookiewww.bigmarker.com1_session_idSpeichert die Navigation der Besucher durch die Registrierung von Landing Pages - Dies ermöglicht der Webseite, relevante Produkte zu präsentieren und / oder ihre Werbeeffizienz auf anderen Webseiten zu messen.Ablauf: 3 TageTyp: HTTP-Cookiewww.pv-magazine.de2c4YGUxxz5aNu6NODlhMDgAnstehend. Ablauf: SitzungTyp: HTTP-CookieQ7Z0zw63hK0VBvRLy5LzFAnstehend.Ablauf: 7 TageTyp: HTTP-Cookiewww.selfmade-energy.com7_uetsidWird verwendet, um Besucher auf mehreren Websites zu tracken, um relevante Werbung basierend auf den Präferenzen des Besuchers zu präsentieren.Ablauf: BeständigTyp: HTML Local Storage_uetsid_expEnthält das Verfallsdatum für das Cookie mit entsprechendem Namen. Ablauf: BeständigTyp: HTML Local Storage_uetvidWird verwendet, um Besucher auf mehreren Websites zu tracken, um relevante Werbung basierend auf den Präferenzen des Besuchers zu präsentieren.Ablauf: BeständigTyp: HTML Local Storage_uetvid_expEnthält das Verfallsdatum für das Cookie mit entsprechendem Namen. Ablauf: BeständigTyp: HTML Local StoragelastExternalReferrerErmittelt, wie der Nutzer die Website erreicht hat, indem seine letzte URL-Adresse registriert wird.Ablauf: BeständigTyp: HTML Local StoragelastExternalReferrerTimeErmittelt, wie der Nutzer die Website erreicht hat, indem seine letzte URL-Adresse registriert wird.Ablauf: BeständigTyp: HTML Local Storagepagead/1p-user-list/#Wird verwendet, um zu tracken, ob der Besucher Interesse an bestimmten Produkten oder Ereignissen auf mehreren Websites gezeigt hat und wie der Besucher zwischen den Websites navigiert - Dies wird zur Messung des Werbeaufwands verwendet und erleichtert die Zahlung von Empfehlungsgebühren zwischen Websites.Ablauf: SitzungTyp: Pixel-TrackerNicht klassifiziert  1Nicht klassifizierte Cookies sind Cookies, die wir gerade versuchen zu klassifizieren, zusammen mit Anbietern von individuellen Cookies. cdn.consentmanager.net1delivery/info/AnstehendAblauf: SitzungTyp: Pixel-Tracker
-- Technisch notwendig  32 Technisch notwendige Cookies helfen dabei, eine Webseite nutzbar zu machen, indem sie Grundfunktionen wie Seitennavigation und Zugriff auf sichere Bereiche der Webseite ermöglichen. Die Webseite kann ohne diese Cookies nicht richtig funktionieren. Cookiebot1Erfahren Sie mehr über diesen Anbieter1.gifWird verwendet, um die Anzahl der Sitzungen auf der Website zu zählen, was für die Optimierung der Bereitstellung von CMP-Produkten erforderlich ist. Ablauf: SitzungTyp: Pixel-TrackerGoogle1Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness.rc::eDieser Cookie wird verwendet, um zwischen Menschen und Bots zu unterscheiden.Ablauf: SitzungTyp: HTML Local StorageLinkedIn4Erfahren Sie mehr über diesen AnbieterbcookieWird verwendet, um Spam zu erkennen und die Sicherheit der Webseite zu verbessern.Ablauf: 1 JahrTyp: HTTP-Cookieli_gcSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 180 TageTyp: HTTP-CookiebscookieDieser Cookie wird verwendet, um den Besucher über eine Anwendung zu identifizieren. Dadurch kann sich der Besucher beispielsweise über seine LinkedIn-Anwendung bei einer webseite anmelden.Ablauf: 1 JahrTyp: HTTP-CookieJSESSIONIDBehält die Zustände des Benutzers bei allen Seitenanfragen bei.Ablauf: SitzungTyp: HTTP-CookieStripe3Erfahren Sie mehr über diesen AnbietermBestimmt das Gerät, mit dem auf die Webseite zugegriffen wird. Dadurch kann die Webseite entsprechend formatiert werden.Ablauf: 400 TageTyp: HTTP-Cookie__stripe_midDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: 1 JahrTyp: HTTP-Cookie__stripe_sidDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: 1 TagTyp: HTTP-CookieWordPress.com1Erfahren Sie mehr über diesen Anbietert.gifStellt sicher, dass die Produktbilder auf der Website korrekt dargestellt werden.Ablauf: SitzungTyp: Pixel-Trackerapp.involve.me2lvapp_sessionWird verwendet, um Formulare auf der Website zu implementieren.Ablauf: 1 TagTyp: HTTP-CookieXSRF-TOKENGewährleistet die Sicherheit beim Browsen für Besucher durch Verhinderung von Cross-Site Request Forgery. Dieser Cookie ist wesentlich für die Sicherheit der Website und des Besuchers.Ablauf: 1 TagTyp: HTTP-Cookiebranchenbuch.pv-magazine.deshop.pv-magazine.comwww.pv-magazine.de3wpEmojiSettingsSupports [x3]Dieses Cookie ist mit einem Bündel von Cookies verbunden, die dem Zweck der Bereitstellung und Präsentation von Inhalten dienen. Die Cookies behalten den korrekten Zustand von Schriftart, Blog-/Bildschiebereglern, Farbthemen und anderen Website-Einstellungen bei.Ablauf: SitzungTyp: HTML Local Storagecdn.consentmanager.net2__cmp#_.#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storage__cmp#_expire_#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storagecdn.consentmanager.netb.delivery.consentmanager.net2__cmp# [x2]Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 1 TagTyp: HTTP-Cookieconsent.cookiebot.comshop.pv-magazine.com3CookieConsent [x3]Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 1 JahrTyp: HTTP-Cookiem.stripe.com3Erfahren Sie mehr über diesen Anbieter_abDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: SitzungTyp: HTML Local Storage_mfDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: SitzungTyp: HTML Local StorageidAnstehendAblauf: SitzungTyp: HTML Local Storagewidget.sndcdn.com1sc_anonymous_idWird im Zusammenhang mit der 3D-Ansichtsfunktion auf der Website verwendet.Ablauf: 10 JahreTyp: HTTP-Cookiewww.selfmade-energy.com6uc_settingsSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storageuc_ui_versionSpeichert die Versionsnummer des Consent-Banners UI, die auf der aktuellen Domain verwendet wirdAblauf: BeständigTyp: HTML Local Storageuc_user_countryWird verwendet, um zu bestimmen, wo sich der Benutzer befindet, um festzustellen, ob der Benutzer der DSGVO oder anderen ePrivacy-Gesetzen unterliegt.Ablauf: SitzungTyp: HTML Local Storagetest_cookieVerwendet, um zu überprüfen, ob der Browser des Benutzers Cookies unterstützt.Ablauf: 1 TagTyp: HTTP-CookiecsrftokenHilft, Cross-Site Request Forgery- (CSRF-) Angriffe zu verhindern.Ablauf: 1 JahrTyp: HTTP-CookieSESS#Behält die Zustände des Benutzers bei allen Seitenanfragen bei.Ablauf: 14 TageTyp: HTTP-CookiePräferenzen  6 Präferenz-Cookies ermöglichen einer Webseite sich an Informationen zu erinnern, die die Art beeinflussen, wie sich eine Webseite verhält oder aussieht, wie z. B. Ihre bevorzugte Sprache oder die Region in der Sie sich befinden. LinkedIn3Erfahren Sie mehr über diesen AnbieterlangNotwendig für die Pflege von Spracheinstellungen für Unterseiten auf der Webseite.Ablauf: SitzungTyp: HTTP-CookielidcRegistriert, welcher Server-Cluster den Besucher bedient. Dies wird im Zusammenhang mit Load Balancing verwendet, um die Nutzererfahrung zu optimieren.Ablauf: 1 TagTyp: HTTP-Cookieli_alertsWird verwendet, um zu bestimmen, wann und wo bestimmte Pop-ups auf der Website für den Benutzer angezeigt werden sollen, und um sich zu merken, ob der Benutzer diese geschlossen hat, damit sie nicht mehrfach angezeigt werden.Ablauf: 1 JahrTyp: HTTP-Cookiem.stripe.com1Erfahren Sie mehr über diesen Anbieter1Dieser Cookie wird in Verbindung mit dem Zahlungsfenster verwendet. - Der Cookie ist für sichere Transaktionen auf der webseite erforderlich.Ablauf: SitzungTyp: HTM
-+ Technisch notwendig  32 Technisch notwendige Cookies helfen dabei, eine Webseite nutzbar zu machen, indem sie Grundfunktionen wie Seitennavigation und Zugriff auf sichere Bereiche der Webseite ermöglichen. Die Webseite kann ohne diese Cookies nicht richtig funktionieren. Cookiebot1Erfahren Sie mehr über diesen Anbieter1.gifWird verwendet, um die Anzahl der Sitzungen auf der Website zu zählen, was für die Optimierung der Bereitstellung von CMP-Produkten erforderlich ist. Ablauf: SitzungTyp: Pixel-TrackerGoogle1Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness.rc::eDieser Cookie wird verwendet, um zwischen Menschen und Bots zu unterscheiden.Ablauf: SitzungTyp: HTML Local StorageLinkedIn4Erfahren Sie mehr über diesen AnbieterbcookieWird verwendet, um Spam zu erkennen und die Sicherheit der Webseite zu verbessern.Ablauf: 1 JahrTyp: HTTP-Cookieli_gcSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 180 TageTyp: HTTP-CookiebscookieDieser Cookie wird verwendet, um den Besucher über eine Anwendung zu identifizieren. Dadurch kann sich der Besucher beispielsweise über seine LinkedIn-Anwendung bei einer webseite anmelden.Ablauf: 1 JahrTyp: HTTP-CookieJSESSIONIDBehält die Zustände des Benutzers bei allen Seitenanfragen bei.Ablauf: SitzungTyp: HTTP-CookieStripe3Erfahren Sie mehr über diesen AnbietermBestimmt das Gerät, mit dem auf die Webseite zugegriffen wird. Dadurch kann die Webseite entspreche</t>
+          <t>- Technisch notwendig  32 Technisch notwendige Cookies helfen dabei, eine Webseite nutzbar zu machen, indem sie Grundfunktionen wie Seitennavigation und Zugriff auf sichere Bereiche der Webseite ermöglichen. Die Webseite kann ohne diese Cookies nicht richtig funktionieren. Cookiebot1Erfahren Sie mehr über diesen Anbieter1.gifWird verwendet, um die Anzahl der Sitzungen auf der Website zu zählen, was für die Optimierung der Bereitstellung von CMP-Produkten erforderlich ist. Ablauf: SitzungTyp: Pixel-TrackerGoogle1Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness.rc::eDieser Cookie wird verwendet, um zwischen Menschen und Bots zu unterscheiden.Ablauf: SitzungTyp: HTML Local StorageLinkedIn4Erfahren Sie mehr über diesen AnbieterbcookieWird verwendet, um Spam zu erkennen und die Sicherheit der Webseite zu verbessern.Ablauf: 1 JahrTyp: HTTP-Cookieli_gcSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 180 TageTyp: HTTP-CookiebscookieDieser Cookie wird verwendet, um den Besucher über eine Anwendung zu identifizieren. Dadurch kann sich der Besucher beispielsweise über seine LinkedIn-Anwendung bei einer webseite anmelden.Ablauf: 1 JahrTyp: HTTP-CookieJSESSIONIDBehält die Zustände des Benutzers bei allen Seitenanfragen bei.Ablauf: SitzungTyp: HTTP-CookieStripe3Erfahren Sie mehr über diesen AnbietermBestimmt das Gerät, mit dem auf die Webseite zugegriffen wird. Dadurch kann die Webseite entsprechend formatiert werden.Ablauf: 400 TageTyp: HTTP-Cookie__stripe_midDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: 1 JahrTyp: HTTP-Cookie__stripe_sidDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: 1 TagTyp: HTTP-CookieWordPress.com1Erfahren Sie mehr über diesen Anbietert.gifStellt sicher, dass die Produktbilder auf der Website korrekt dargestellt werden.Ablauf: SitzungTyp: Pixel-Trackerapp.involve.me2lvapp_sessionWird verwendet, um Formulare auf der Website zu implementieren.Ablauf: 1 TagTyp: HTTP-CookieXSRF-TOKENGewährleistet die Sicherheit beim Browsen für Besucher durch Verhinderung von Cross-Site Request Forgery. Dieser Cookie ist wesentlich für die Sicherheit der Website und des Besuchers.Ablauf: 1 TagTyp: HTTP-Cookiebranchenbuch.pv-magazine.deshop.pv-magazine.comwww.pv-magazine.de3wpEmojiSettingsSupports [x3]Dieses Cookie ist mit einem Bündel von Cookies verbunden, die dem Zweck der Bereitstellung und Präsentation von Inhalten dienen. Die Cookies behalten den korrekten Zustand von Schriftart, Blog-/Bildschiebereglern, Farbthemen und anderen Website-Einstellungen bei.Ablauf: SitzungTyp: HTML Local Storagecdn.consentmanager.net2__cmp#_.#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storage__cmp#_expire_#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storagecdn.consentmanager.netb.delivery.consentmanager.net2__cmp# [x2]Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 1 TagTyp: HTTP-Cookieconsent.cookiebot.comshop.pv-magazine.com3CookieConsent [x3]Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: 1 JahrTyp: HTTP-Cookiem.stripe.com3Erfahren Sie mehr über diesen Anbieter_abDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: SitzungTyp: HTML Local Storage_mfDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Ablauf: SitzungTyp: HTML Local StorageidAnstehendAblauf: SitzungTyp: HTML Local Storagewidget.sndcdn.com1sc_anonymous_idWird im Zusammenhang mit der 3D-Ansichtsfunktion auf der Website verwendet.Ablauf: 10 JahreTyp: HTTP-Cookiewww.selfmade-energy.com6uc_settingsSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Ablauf: BeständigTyp: HTML Local Storageuc_ui_versionSpeichert die Versionsnummer des Consent-Banners UI, die auf der aktuellen Domain verwendet wirdAblauf: BeständigTyp: HTML Local Storageuc_user_countryWird verwendet, um zu bestimmen, wo sich der Benutzer befindet, um festzustellen, ob der Benutzer der DSGVO oder anderen ePrivacy-Gesetzen unterliegt.Ablauf: SitzungTyp: HTML Local Storagetest_cookieVerwendet, um zu überprüfen, ob der Browser des Benutzers Cookies unterstützt.Ablauf: 1 TagTyp: HTTP-CookiecsrftokenHilft, Cross-Site Request Forgery- (CSRF-) Angriffe zu verhindern.Ablauf: 1 JahrTyp: HTTP-CookieSESS#Behält die Zustände des Benutzers bei allen Seitenanfragen bei.Ablauf: 14 TageTyp: HTTP-CookiePräferenzen  6 Präferenz-Cookies ermöglichen einer Webseite sich an Informationen zu erinnern, die die Art beeinflussen, wie sich eine Webseite verhält oder aussieht, wie z. B. Ihre bevorzugte Sprache oder die Region in der Sie sich befinden. LinkedIn3Erfahren Sie mehr über diesen AnbieterlangNotwendig für die Pflege von Spracheinstellungen für Unterseiten auf der Webseite.Ablauf: SitzungTyp: HTTP-CookielidcRegistriert, welcher Server-Cluster den Besucher bedient. Dies wird im Zusammenhang mit Load Balancing verwendet, um die Nutzererfahrung zu optimieren.Ablauf: 1 TagTyp: HTTP-Cookieli_alertsWird verwendet, um zu bestimmen, wann und wo bestimmte Pop-ups auf der Website für den Benutzer angezeigt werden sollen, und um sich zu merken, ob der Benutzer diese geschlossen hat, damit sie nicht mehrfach angezeigt werden.Ablauf: 1 JahrTyp: HTTP-Cookiem.stripe.com1Erfahren Sie mehr über diesen Anbieter1Dieser Cookie wird in Verbindung mit dem Zahlungsfenster verwendet. - Der Cookie ist für sichere Transaktionen auf der webseite erforderlich.Ablauf: SitzungTyp: HTML Local Storageshop.pv-magazine.com1qtrans_front_languageBestimmt die bevorzugte Sprache des Besuchers. Ermöglicht der Webseite, beim erneuten Besuch des Besuchers die bevorzugte Sprache festzulegen.Ablauf: 1 JahrTyp: HTTP-Cookiewww.selfmade-energy.com1uc_cross_domain_data_#AnstehendAblauf: BeständigTyp: HTML Local StorageStatistiken  36 Statistik-Cookies helfen Webseiten-Besitzern zu verstehen, wie Besucher mit Webseiten interagieren, indem Informationen anonym gesammelt und gemeldet werden. Google15Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness._ga [x7]Registriert eine eindeutige ID, die verwendet wird, um statistische Daten dazu, wie der Besucher die Website nutzt, zu generieren.Ablauf: 2 JahreTyp: HTTP-Cookie_gid [x4]Registriert eine eindeutige ID, die verwendet wird, um statistische Daten dazu, wie der Besucher die Website nutzt, zu generieren.Ablauf: 1 TagTyp: HTTP-Cookie_gatWird von Google Analytics verwendet, um die Anforderungsrate einzuschränkenAblauf: 1 TagTyp: HTTP-Cookie_ga_# [x3]Sammelt Daten dazu, wie oft ein Benutzer eine Website besucht hat, sowie Daten für den ersten und letzten Besuch. Von Google Analytics verwendet.Ablauf: 2 JahreTyp: HTTP-CookieHotjar3Erfahren Sie mehr über diesen Anbieter_hjSession_#Erfasst Statistiken über Besuche des Benutzers auf der Website, wie z. B. die Anzahl der Besuche, durchschnittliche Verweildauer auf der Website und welche Seiten gelesen wurden.Ablauf: 1 TagTyp: HTTP-Cookie_hjSessionUser_#Erfasst Statistiken über Besuche des Benutzers auf der Website, wie z. B. die Anzahl der Besuche, durchschnittliche Verweildauer auf der Website und welche Seiten gelesen wurden.Ablauf: 1 JahrTyp: HTTP-Cookie_hjTLDTestRegistriert statistische Daten über das Verhalten der Besucher auf der Website. Wird vom Website-Betreiber für internes Analytics verwendet.Ablauf: SitzungTyp: HTTP-CookieMicrosoft2Erfahren Sie mehr über diesen Anbieterc.gifSammelt Daten über die Navigation und das Verhalten des Benutzers auf der Website - Daraus werden statistische Berichte und Heatmaps für den Website-Besitzer erstellt.Ablauf: SitzungTyp: Pixel-TrackerCLIDSammelt Daten über die Navigation und das Verhalten des Benutzers auf der Website - Daraus werden statistische Berichte und Heatmaps für den Website-Besitzer erstellt.Ablauf: 1 JahrTyp: HTTP-CookieScribd2Erfahren Sie mehr über diesen Anbieter__CJ_session_metadataEnthält Daten über die Interaktion des Benutzers mit dem Hörbuch- und Dokumentenpräsentationstool für statistische Zwecke.Ablauf: SitzungTyp: HTTP-Cookie_scribd_sessionWird verwendet, um Audiodateien auf den Websites zu implementieren - Wird weiterhin verwendet, um festzustellen, wie viele und wer diese Dateien gehört hat.	Ablauf: 3 JahreTyp: HTTP-CookieSoundcloud1Erfahren Sie mehr über diesen Anbieternumber(#)Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: SitzungTyp: HTML Local StorageWordPress.com5Erfahren Sie mehr über diesen Anbieterg.gifRegistriert statistische Daten über das Verhalten der Besucher auf der Website. Wird vom Website-Betreiber für internes Analytics verwendet.Ablauf: SitzungTyp: Pixel-Trackertk_aiRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: 5 JahreTyp: HTTP-Cookietk_qsRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: 1 TagTyp: HTTP-Cookietk_rlRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: SitzungTyp: HTTP-Cookietk_roRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: SitzungTyp: HTTP-Cookiebranchenbuch.pv-magazine.de1gd_recently_viewedAnstehendAblauf: BeständigTyp: HTML Local Storagewww.bigmarker.com1time_zone_detectionDieses Cookie trägt zur Verbesserung der Benutzerfreundlichkeit bei, indem es die Funktionen der Website an die Zeitzone des Benutzers anpasst, z. B. die Anzeige von Veranstaltungszeiten, die Planung von Terminen oder die Anzeige relevanter Inhalte zur richtigen Zeit.Ablauf: SitzungTyp: HTTP-Cookiewww.selfmade-energy.com6uc_gcmRegistriert statistische Daten über das Verhalten der Besucher auf der Website. Wird vom Website-Betreiber für internes Analytics verwendet.Ablauf: BeständigTyp: HTML Local Storageuc_user_interactionRegistriert statistische Daten über das Verhalten der Besucher auf der Website. Wird vom Website-Betreiber für internes Analytics verwendet.Ablauf: BeständigTyp: HTML Local StoragehjActiveViewportIdsDieses Cookie enthält einen ID-String über die aktuelle Sitzung. Dieser beinhaltet nicht personenbezogene Informationen über die Unterseiten, die der Besucher aufruft – diese Informationen werden benutzt, um die Nutzererfahrung des Besuchers zu optimieren.Ablauf: BeständigTyp: HTML Local StoragehjViewportIdSpeichert die Bildschirmgröße des Nutzers, um die Größe der Bilder auf der Website einzustellen.Ablauf: SitzungTyp: HTML Local StorageuctTeil der Consent Management-Plattform (CMP) - Die Cookies sammeln Daten über die Interaktion des Benutzers mit dem Zustimmungstool der Website, um die Funktion des Zustimmungstools zu optimieren. Ablauf: SitzungTyp: Pixel-TrackersentryReplaySessionRegistriert Daten auf dem Webseite-Verhalten der Besucher. Dies wird für interne Analysen und Webseite-Optimierung verwendet.Ablauf: SitzungTyp: HTML Local StorageMarketing  86 Marketing-Cookies werden verwendet, um Besuchern auf Webseiten zu folgen. Die Absicht ist, Anzeigen zu zeigen, die relevant und ansprechend für den einzelnen Benutzer sind und daher wertvoller für Publisher und werbetreibende Drittparteien sind.  Meta Platforms, Inc.3Erfahren Sie mehr über diesen Anbieter_fbp [x2]Wird von Facebook genutzt, um eine Reihe von Werbeprodukten anzuzeigen, zum Beispiel Echtzeitgebote dritter Werbetreibender.Ablauf: 3 MonateTyp: HTTP-Cookiefbsr_#Wird verwendet, um die Interaktion des Benutzers mit dem Facebook-Chat-Widget der Website zu verfolgen. Ablauf: SitzungTyp: HTTP-CookieGoogle10Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness.IDEVerwendet von Google DoubleClick, um die Handlungen des Benutzers auf der Webseite nach der Anzeige oder dem Klicken auf eine der Anzeigen des Anbieters zu registrieren und zu melden, mit dem Zweck der Messung der Wirksamkeit einer Werbung und der Anzeige zielgerichteter Werbung für den Benutzer.Ablauf: 400 TageTyp: HTTP-CookieNIDAnstehendAblauf: 6 MonateTyp: HTTP-Cookierc::hDieser Cookie wird verwendet, um zwischen Menschen und Bots zu unterscheiden.Ablauf: BeständigTyp: HTML Local Storagepagead/gen_204Sammelt Daten zum Besucherverhalten auf mehreren Websites, um relevantere Werbung zu präsentieren - Dies ermöglicht es der Website auch, die Anzahl der gleichen Werbeanzeige zu begrenzen.Ablauf: SitzungTyp: Pixel-Trackerpcs/activeviewWird von DoubleClick verwendet, um festzustellen, ob Website-Werbung richtig angezeigt wurde - Dies geschieht, um ihre Marketingaktivitäten effizienter zu gestalten.Ablauf: SitzungTyp: Pixel-Trackerpcs/viewDieses Cookie wird verwendet, um zu verfolgen, wie oft eine bestimmte Anzeige von einem Nutzer angesehen wird. Ablauf: SitzungTyp: Pixel-TrackercsiSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: SitzungTyp: Pixel-Tracker__eoiDas Cookie wird verwendet, um die Interaktionen und Präferenzen der Nutzer auf der Website zu verfolgen.Ablauf: 180 TageTyp: HTTP-Cookie_gcl_au [x2]Wird von Google AdSense zum Experimentieren mit Werbewirkung auf Websites verwendet, die ihre Services nutzen.Ablauf: 3 MonateTyp: HTTP-CookieLinkedIn1Erfahren Sie mehr über diesen AnbietersequenceNumber#sequenceNumberAnstehendAblauf: BeständigTyp: IndexedDBMas Capital1Erfahren Sie mehr über diesen Anbieterskeleton.gifWird verwendet, um Popup-Werbung auf der Website zu implementieren.  Ablauf: SitzungTyp: Pixel-TrackerMicrosoft10Erfahren Sie mehr über diesen AnbieterMR [x2]Wird verwendet, um Besucher auf mehreren Websites zu tracken, um relevante Werbung basierend auf den Präferenzen des Besuchers zu präsentieren.Ablauf: 7 TageTyp: HTTP-CookieMUID [x2]Weitgehend von Microsoft als eindeutige Benutzer-ID verwendet. Der Cookie ermöglicht Benutzer-Tracking durch Synchronisieren der ID in vielen Microsoft-Domänen.Ablauf: 1 JahrTyp: HTTP-CookieSRM_BWird verwendet, um die Interaktion des Benutzers mit der Suchleistenfunktion der Website zu verfolgen. Diese Daten können verwendet werden, um dem Benutzer relevante Produkte oder Dienstleistungen anzubieten.Ablauf: 1 JahrTyp: HTTP-CookieANONCHKRegistriert Daten über Besucher von mehreren Besuchen und auf mehreren Websites. Diese Informationen werden verwendet, um die Werbewirkung auf Websites zu messen.Ablauf: 1 TagTyp: HTTP-CookieSMRegistriert eine eindeutige ID, die das Gerät des Benutzers während der erneuten Besuche auf Websites identifiziert, die das gleiche Anzeige-Netzwerk verwenden. Die ID wird für die Ermöglichung gezielter Werbung genutzt.Ablauf: SitzungTyp: HTTP-Cookie_uetsid [x2]Sammelt Daten zum Besucherverhalten auf mehreren Websites, um relevantere Werbung zu präsentieren - Dies ermöglicht es der Website auch, die Anzahl der gleichen Werbeanzeige zu begrenzen.Ablauf: 1 TagTyp: HTTP-Cookie_uetvidWird verwendet, um Besucher auf mehreren Websites zu tracken, um relevante Werbung basierend auf den Präferenzen des Besuchers zu präsentieren.Ablauf: 1 JahrTyp: HTTP-CookieOptimizely2Erfahren Sie mehr über diesen AnbieteroptimizelyOptOut [x2]Erfasst Daten zu Besuchen des Benutzers auf der Website, wie z. B. die Anzahl der Besuche, durchschnittliche Verweildauer auf der Website und welche Seiten geladen wurden, mit dem Ziel der Darstellung zielgerichteter Anzeigen.Ablauf: SitzungTyp: HTTP-CookieScribd3Erfahren Sie mehr über diesen Anbieterfbssls_#Sammelt Daten über die Nutzung des Kommentarsystems auf der Website durch den Besucher, außerdem registriert es, welche Blogs/Artikel der Besucher gelesen hat - dies kann für Marketingzwecke verwendet werden. Ablauf: SitzungTyp: HTML Local Storagescribd_ubtcSammelt Informationen zum Besucherverhalten auf mehreren Websites. Diese Informationen werden auf der Website verwendet, um die Relevanz der Werbung zu optimieren.Ablauf: 400 TageTyp: HTTP-Cookie_fs_sample_userWird verwendet, um dem Besucher relevante Inhalte und Werbung zu präsentieren - Der Dienst wird von Drittanbietern bereitgestellt, die Echtzeitgebote für Werbetreibende ermöglichen.Ablauf: 30 TageTyp: HTTP-CookieSoundcloud1Erfahren Sie mehr über diesen AnbieterWIDGET::local::assignmentsWird von der Audio-Plattform SoundCloud verwendet, um ihre eingebetteten Inhalte/Dienste auf der Website zu implementieren, zu messen und zu verbessern - Die Datensammlung umfasst auch die Interaktion der Besucher mit eingebetteten Inhalten/Diensten. Dies kann für Statistiken oder Marketingzwecke genutzt werden.  Ablauf: BeständigTyp: HTML Local StorageTwitter Inc.1Erfahren Sie mehr über diesen Anbieteri/jot/embedsLegt eine eindeutige ID für den Besucher fest, die es Third-Party-Advertisern ermöglicht, den Besucher mit relevanter Werbung anzusprechen. Dieser Pairing-Service wird von Werbe-Hubs von Third Parties bereitgestellt, die Echtzeitgebote für Advertiser ermöglichen.Ablauf: SitzungTyp: Pixel-TrackerWordPress.com4Erfahren Sie mehr über diesen Anbietertk_lrSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: 1 JahrTyp: HTTP-Cookietk_orSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: 5 JahreTyp: HTTP-Cookietk_r3dSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: 3 TageTyp: HTTP-Cookietk_tcSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: SitzungTyp: HTTP-CookieYouTube37Erfahren Sie mehr über diesen Anbieter#-# [x2]AnstehendAblauf: SitzungTyp: HTML Local StorageiU5q-!O9@[#COOKIETABLE_ADVERTISING#]nbsp;[x2]Registriert eine eindeutige ID, um Statistiken der Videos von YouTube, die der Benutzer gesehen hat, zu behalten.Ablauf: SitzungTyp: HTML Local StorageLAST_RESULT_ENTRY_KEY [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: SitzungTyp: HTTP-CookienextId [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: SitzungTyp: HTTP-Cookierequests [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: SitzungTyp: HTTP-Cookieyt.innertube::nextId [x2]Registriert eine eindeutige ID, um Statistiken der Videos von YouTube, die der Benutzer gesehen hat, zu behalten.Ablauf: BeständigTyp: HTML Local Storageytidb::LAST_RESULT_ENTRY_KEY [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: BeständigTyp: HTML Local StorageYtIdbMeta#databases [x2]Wird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: BeständigTyp: IndexedDByt-remote-cast-available [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storageyt-remote-cast-installed [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storageyt-remote-connected-devices [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: BeständigTyp: HTML Local Storageyt-remote-device-id [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: BeständigTyp: HTML Local Storageyt-remote-fast-check-period [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storageyt-remote-session-app [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storageyt-remote-session-name [x2]Speichert die Benutzereinstellungen beim Abruf eines auf anderen Webseiten integrierten Youtube-VideosAblauf: SitzungTyp: HTML Local Storage-28724b-43be89d6AnstehendAblauf: SitzungTyp: HTML Local StorageLogsDatabaseV2:V#||LogsRequestsStoreDieses Cookie wird verwendet, um Nutzerinteraktionen für Tracking- und Analysezwecke zu speichern und zu verwalten.Ablauf: BeständigTyp: IndexedDBremote_sidNotwendig für die Implementierung und Funktionalität von YouTube-Videoinhalten auf der Website. Ablauf: SitzungTyp: HTTP-CookieServiceWorkerLogsDatabase#SWHealthLogNotwendig für die Implementierung und Funktionalität von YouTube-Videoinhalten auf der Website. Ablauf: BeständigTyp: IndexedDBTESTCOOKIESENABLEDWird verwendet, um die Interaktion der Nutzer mit eingebetteten Inhalten zu verfolgen.Ablauf: 1 TagTyp: HTTP-CookieVISITOR_INFO1_LIVEVersucht, die Benutzerbandbreite auf Seiten mit integrierten YouTube-Videos zu schätzen.Ablauf: 180 TageTyp: HTTP-CookieYSCRegistriert eine eindeutige ID, um Statistiken der Videos von YouTube, die der Benutzer gesehen hat, zu behalten.Ablauf: SitzungTyp: HTTP-Cookiedoubleclick.netwww.selfmade-energy.com2pagead/landing [x2]Sammelt Daten zum Besucherverhalten auf mehreren Websites, um relevantere Werbung zu präsentieren - Dies ermöglicht es der Website auch, die Anzahl der gleichen Werbeanzeige zu begrenzen.Ablauf: SitzungTyp: Pixel-Trackerpv-magazine.de1_awlSammelt Daten über Präferenzen und Verhalten der Besucher auf der Webseite - Diese Informationen werden verwendet, um Inhalte und Werbung für den jeweiligen Besucher relevanter zu machen.Ablauf: 13 MonateTyp: HTTP-Cookiewww.bigmarker.com1_session_idSpeichert die Navigation der Besucher durch die Registrierung von Landing Pages - Dies ermöglicht der Webseite, relevante Produkte zu präsentieren und / oder ihre Werbeeffizienz auf anderen Webseiten zu messen.Ablauf: 3 TageTyp: HTTP-Cookiewww.pv-magazine.de2c4YGUxxz5aNu6NODlhMDgAnstehend. Ablauf: SitzungTyp: HTTP-CookieQ7Z0zw63hK0VBvRLy5LzFAnstehend.Ablauf: 7 TageTyp: HTTP-Cookiewww.selfmade-energy.com7_uetsidWird verwendet, um Besucher auf mehreren Websites zu tracken, um relevante Werbung basierend auf den Präferenzen des Besuchers zu präsentieren.Ablauf: BeständigTyp: HTML Local Storage_uetsid_expEnthält das Verfallsdatum für das Cookie mit entsprechendem Namen. Ablauf: BeständigTyp: HTML Local Storage_uetvidWird verwendet, um Besucher auf mehreren Websites zu tracken, um relevante Werbung basierend auf den Präferenzen des Besuchers zu präsentieren.Ablauf: BeständigTyp: HTML Local Storage_uetvid_expEnthält das Verfallsdatum für das Cookie mit entsprechendem Namen. Ablauf: BeständigTyp: HTML Local StoragelastExternalReferrerErmittelt, wie der Nutzer die Website erreicht hat, indem seine letzte URL-Adresse registriert wird.Ablauf: BeständigTyp: HTML Local StoragelastExternalReferrerTimeErmittelt, wie der Nutzer die Website erreicht hat, indem seine letzte URL-Adresse registriert wird.Ablauf: BeständigTyp: HTML Local Storagepagead/1p-user-list/#Wird verwendet, um zu tracken, ob der Besucher Interesse an bestimmten Produkten oder Ereignissen auf mehreren Websites gezeigt hat und wie der Besucher zwischen den Websites navigiert - Dies wird zur Messung des Werbeaufwands verwendet und erleichtert die Zahlung von Empfehlungsgebühren zwischen Websites.Ablauf: SitzungTyp: Pixel-TrackerNicht klassifiziert  1Nicht klassifizierte Cookies sind Cookies, die wir gerade versuchen zu klassifizieren, zusammen mit Anbietern von individuellen Cookies. cdn.consentmanager.net1delivery/info/AnstehendAblauf: SitzungTyp: Pixel-TrackerDomainübergreifende Zustimmung3 Ihre Einwilligung trifft auf die folgenden Domains zu: Liste der Domains, für die Ihre Zustimmung gilt: branchenbuch.pv-magazine.de shop.pv-magazine.com www.pv-magazine.deDie Cookie-Erklärung wurde das letzte Mal am 7/22/24 von Cookiebot aktualisiert
++ Technisch notwendig  34 Technisch notwendige Cookies helfen dabei, eine Webseite nutzbar zu machen, indem sie Grundfunktionen wie Seitennavigation und Zugriff auf sichere Bereiche der Webseite ermöglichen. Die Webseite kann ohne diese Cookies nicht richtig funktionieren. Cookiebot1Erfahren Sie mehr über diesen Anbieter1.gifWird verwendet, um die Anzahl der Sitzungen auf der Website zu zählen, was für die Optimierung der Bereitstellung von CMP-Produkten erforderlich ist. Maximale Speicherdauer: SitzungTyp: Pixel-TrackerGoogle1Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness.rc::eDieser Cookie wird verwendet, um zwischen Menschen und Bots zu unterscheiden.Maximale Speicherdauer: SitzungTyp: HTML Local StorageLinkedIn4Erfahren Sie mehr über diesen AnbieterbcookieWird verwendet, um Spam zu erkennen und die Sicherheit der Webseite zu verbessern.Maximale Speicherdauer: 1 JahrTyp: HTTP-Cookieli_gcSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Maximale Speicherdauer: 180 TageTyp: HTTP-CookiebscookieDieser Cookie wird verwendet, um den Besucher über eine Anwendung zu identifizieren. Dadurch kann sich der Besucher beispielsweise über seine LinkedIn-Anwendung bei einer webseite anmelden.Maximale Speicherdauer: 1 JahrTyp: HTTP-CookieJSESSIONIDBehält die Zustände des Benutzers bei allen Seitenanfragen bei.Maximale Speicherdauer: SitzungTyp: HTTP-CookieStripe3Erfahren Sie mehr über diesen AnbietermBestimmt das Gerät, mit dem auf die Webseite zugegriffen wird. Dadurch kann die Webseite entsprechend formatiert werden.Maximale Speicherdauer: 400 TageTyp: HTTP-Cookie__stripe_midDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Maximale Speicherdauer: 1 JahrTyp: HTTP-Cookie__stripe_sidDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Maximale Speicherdauer: 1 TagTyp: HTTP-CookieWordPress.com1Erfahren Sie mehr über diesen Anbietert.gifStellt sicher, dass die Produktbilder auf der Website korrekt dargestellt werden.Maximale Speicherdauer: SitzungTyp: Pixel-Trackerbranchenbuch.pv-magazine.deshop.pv-magazine.comwww.pv-magazine.de3wpEmojiSettingsSupports [x3]Dieses Cookie ist mit einem Bündel von Cookies verbunden, die dem Zweck der Bereitstellung und Präsentation von Inhalten dienen. Die Cookies behalten den korrekten Zustand von Schriftart, Blog-/Bildschiebereglern, Farbthemen und anderen Website-Einstellungen bei.Maximale Speicherdauer: SitzungTyp: HTML Local Storagecdn.consentmanager.net4lvapp_sessionWird verwendet, um Formulare auf der Website zu implementieren.Maximale Speicherdauer: 1 TagTyp: HTTP-CookieXSRF-TOKENGewährleistet die Sicherheit beim Browsen für Besucher durch Verhinderung von Cross-Site Request Forgery. Dieser Cookie ist wesentlich für die Sicherheit der Website und des Besuchers.Maximale Speicherdauer: 1 TagTyp: HTTP-Cookie__cmp#_.#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Maximale Speicherdauer: BeständigTyp: HTML Local Storage__cmp#_expire_#Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Maximale Speicherdauer: BeständigTyp: HTML Local Storagecdn.consentmanager.netb.delivery.consentmanager.net4__cmp# [x4]Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Maximale Speicherdauer: 1 TagTyp: HTTP-Cookieconsent.cookiebot.comshop.pv-magazine.com3CookieConsent [x3]Speichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Maximale Speicherdauer: 1 JahrTyp: HTTP-Cookiem.stripe.com3Erfahren Sie mehr über diesen Anbieter_abDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Maximale Speicherdauer: SitzungTyp: HTML Local Storage_mfDieser Cookie ist notwendig, um Kreditkartentransaktionen auf der Website durchzuführen. Der Dienst wird von Stripe.com bereitgestellt, das Online-Transaktionen ermöglicht, ohne dass Kreditkarteninformationen gespeichert werden.Maximale Speicherdauer: SitzungTyp: HTML Local StorageidAnstehendMaximale Speicherdauer: SitzungTyp: HTML Local Storagewidget.sndcdn.com1sc_anonymous_idWird im Zusammenhang mit der 3D-Ansichtsfunktion auf der Website verwendet.Maximale Speicherdauer: 10 JahreTyp: HTTP-Cookiewww.selfmade-energy.com6uc_settingsSpeichert den Zustimmungsstatus des Benutzers für Cookies auf der aktuellen Domäne.Maximale Speicherdauer: BeständigTyp: HTML Local Storageuc_ui_versionSpeichert die Versionsnummer des Consent-Banners UI, die auf der aktuellen Domain verwendet wirdMaximale Speicherdauer: BeständigTyp: HTML Local Storageuc_user_countryWird verwendet, um zu bestimmen, wo sich der Benutzer befindet, um festzustellen, ob der Benutzer der DSGVO oder anderen ePrivacy-Gesetzen unterliegt.Maximale Speicherdauer: SitzungTyp: HTML Local Storagetest_cookieVerwendet, um zu überprüfen, ob der Browser des Benutzers Cookies unterstützt.Maximale Speicherdauer: 1 TagTyp: HTTP-CookiecsrftokenHilft, Cross-Site Request Forgery- (CSRF-) Angriffe zu verhindern.Maximale Speicherdauer: 1 JahrTyp: HTTP-CookieSESS#Behält die Zustände des Benutzers bei allen Seitenanfragen bei.Maximale Speicherdauer: 14 TageTyp: HTTP-CookiePräferenzen  6 Präferenz-Cookies ermöglichen einer Webseite sich an Informationen zu erinnern, die die Art beeinflussen, wie sich eine Webseite verhält oder aussieht, wie z. B. Ihre bevorzugte Sprache oder die Region in der Sie sich befinden. LinkedIn3Erfahren Sie mehr über diesen AnbieterlangNotwendig für die Pflege von Spracheinstellungen für Unterseiten auf der Webseite.Maximale Speicherdauer: SitzungTyp: HTTP-CookielidcRegistriert, welcher Server-Cluster den Besucher bedient. Dies wird im Zusammenhang mit Load Balancing verwendet, um die Nutzererfahrung zu optimieren.Maximale Speicherdauer: 1 TagTyp: HTTP-Cookieli_alertsWird verwendet, um zu bestimmen, wann und wo bestimmte Pop-ups auf der Website für den Benutzer angezeigt werden sollen, und um sich zu merken, ob der Benutzer diese geschlossen hat, damit sie nicht mehrfach angezeigt werden.Maximale Speicherdauer: 1 JahrTyp: HTTP-Cookiem.stripe.com1Erfahren Sie mehr über diesen Anbieter1Dieser Cookie wird in Verbindung mit dem Zahlungsfenster verwendet. - Der Cookie ist für sichere Transaktionen auf der webseite erforderlich.Maximale Speicherdauer: SitzungTyp: HTML Local Storageshop.pv-magazine.com1qtrans_front_languageBestimmt die bevorzugte Sprache des Besuchers. Ermöglicht der Webseite, beim erneuten Besuch des Besuchers die bevorzugte Sprache festzulegen.Maximale Speicherdauer: 1 JahrTyp: HTTP-Cookiewww.selfmade-energy.com1uc_cross_domain_data_#AnstehendMaximale Speicherdauer: BeständigTyp: HTML Local StorageStatistiken  36 Statistik-Cookies helfen Webseiten-Besitzern zu verstehen, wie Besucher mit Webseiten interagieren, indem Informationen anonym gesammelt und gemeldet werden. Google15Erfahren Sie mehr über diesen AnbieterSome of the data collected by this provider is for the purposes of personalization and measuring advertising effectiveness._ga [x7]Registriert eine eindeutige ID, die verwendet wird, um statistische Daten dazu, wie der Bes</t>
         </is>
       </c>
     </row>
@@ -8108,7 +8107,7 @@
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G18" s="1" t="n"/>
@@ -8497,7 +8496,7 @@
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G19" s="1" t="n"/>
@@ -8678,7 +8677,7 @@
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G20" s="1" t="n"/>
@@ -8855,7 +8854,7 @@
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G21" s="1" t="n"/>
@@ -9040,7 +9039,7 @@
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G22" s="1" t="n"/>
@@ -9267,7 +9266,7 @@
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G23" s="1" t="n"/>
@@ -9466,7 +9465,7 @@
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G24" s="1" t="n"/>
@@ -9629,7 +9628,7 @@
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G25" s="1" t="n"/>
@@ -9786,7 +9785,7 @@
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G26" s="1" t="n"/>
@@ -9941,7 +9940,7 @@
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G27" s="1" t="n"/>
@@ -10336,7 +10335,7 @@
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G28" s="1" t="n"/>
@@ -10677,7 +10676,7 @@
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G29" s="1" t="n"/>
@@ -10854,7 +10853,7 @@
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G30" s="1" t="n"/>
@@ -11117,7 +11116,7 @@
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G31" s="1" t="n"/>
@@ -11318,7 +11317,7 @@
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G32" s="1" t="n"/>
@@ -11457,13 +11456,13 @@
 ENTSO-E assessment on the EU Legislative proposal for a Regulation to improve the Union’s electricity market design - trilogues
 Past positions
 Consultations
-Closing in 3 days
+Closing in 2 days
 Core CCR 2024 survey quality of the data published
 31/08/2024
-Closing in 7 days
+Closing in 6 days
 Public consultation on Bidding Zone Review
 04/09/2024
-Closing in 16 days
+Closing in 15 days
 Proposal for Amendment of Methodology for the market-based allocation process of cross-zonal capacity for the exchange of balancing capacity for the Baltic CCR
 13/09/2024
 See all past consultations
@@ -11513,17 +11512,17 @@
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
         <is>
           <t>- Closing in 4 days
-+ Closing in 3 days
++ Closing in 2 days
 - Closing in 8 days
-+ Closing in 7 days
++ Closing in 6 days
 - Closing in 17 days
-+ Closing in 16 days</t>
++ Closing in 15 days</t>
         </is>
       </c>
     </row>
@@ -11577,66 +11576,170 @@
       </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>Sign in
-Stay updated on your professional world.
-Email or phone
-Password
-Show
-Forgot password?
-or
-By clicking Continue, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
-Sign in with Apple
-Sign in with a passkey
+          <t>Welcome to your professional community
+Sign in with email
+By clicking Continue to join or sign in, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
 New to LinkedIn? Join now
-LinkedIn
-© 2024
-User Agreement
-Privacy Policy
-Community Guidelines
-Cookie Policy
-Copyright Policy
-Send Feedback
-Language
-We’ve emailed a one-time link to your primary email address
-Click on the link to sign in instantly to your LinkedIn account.
-If you don’t see the email in your inbox, check your spam folder.
-Resend email
-Back
+Explore collaborative articles
+We’re unlocking community knowledge in a new way. Experts add insights directly into each article, started with the help of AI.
+Marketing
+Public Administration
+Healthcare
+Engineering
+IT Services
+Sustainability
+Business Administration
+Telecommunications
+HR Management
+Show all
+Find the right job or internship for you
+Business Development
+Finance
+Administrative Assistant
+Retail Associate
+Customer Service
+Operations
+Information Technology
+Human Resources
+Show more
+Post your job for millions of people to see
+Post a job
+Discover the best software tools
+Connect with buyers who have first-hand experience to find the best products for you.
+E-Commerce Platforms
+CRM Software
+Human Resources Management Systems
+Recruiting Software
+Sales Intelligence Software
+Project Management Software
+Help Desk Software
+Social Networking Software
+Desktop Publishing Software
+Keep your mind sharp with games
+Take a break and reconnect with your network through quick daily games.
+Pinpoint
+Queens
+Crossclimb
+Let the right people know you’re open to work
+With the Open To Work feature, you can privately tell recruiters or publicly share with the LinkedIn community that you are looking for new job opportunities.
+Conversations today could lead to opportunity tomorrow
+Sending messages to people you know is a great way to strengthen relationships as you take the next step in your career.
+Stay up to date on your industry
+From live videos, to stories, to newsletters and more, LinkedIn is full of ways to stay up to date on the latest discussions in your industry.
+Connect with people who can help
+Find people you know
+Learn the skills you need to succeed
+Choose a topic to learn about
+Who is LinkedIn for?
+Anyone looking to navigate their professional life.
+Find a coworker or classmate
+Find a new job
+Find a course or training
+Join your colleagues, classmates, and friends on LinkedIn.
+Get started
+General
+Sign Up
+Help Center
+About
+Press
+Blog
+Careers
+Developers
+Browse LinkedIn
+Learning
+Jobs
+Games
+Salary
+Mobile
+Services
+Products
+Top Companies Hub
+Business Solutions
+Talent
+Sales
+Directories
+Members
+Companies
+Featured
+Posts
+Articles
+Schools
+News
+News Letters
+Advice
+People Search
 Agree &amp; Join LinkedIn
-العربية (Arabic)
-বাংলা (Bangla)
-Čeština (Czech)
-Dansk (Danish)
-Deutsch (German)
-Ελληνικά (Greek)
-English (English)
-Español (Spanish)
-Suomi (Finnish)
-Français (French)
-हिंदी (Hindi)
-Magyar (Hungarian)
-Bahasa Indonesia (Indonesian)
-Italiano (Italian)
-日本語 (Japanese)
-한국어 (Korean)
-मराठी (Marathi)
-Bahasa Malaysia (Malay)
-Nederlands (Dutch)
-Norsk (Norwegian)
-ਪੰਜਾਬੀ (Punjabi)
-Polski (Polish)
-Português (Portuguese)
-Română (Romanian)
-Русский (Russian)
-Svenska (Swedish)
-తెలుగు (Telugu)
-ภาษาไทย (Thai)
-Tagalog (Tagalog)
-Türkçe (Turkish)
-Українська (Ukrainian)
-Tiếng Việt (Vietnamese)
-简体中文 (Chinese (Simplified))
-正體中文 (Chinese (Traditional))</t>
+Join now
+Sign in
+No more previous content
+No more next content
+Business Analysis and Strategy
+1,540+ course
+Business Software and Tools
+2,510+ courses
+Career Development
+590+ courses
+230+ courses
+Diversity, Equity, and Inclusion (DEI)
+310+ courses
+Finance and Accounting
+280+ courses
+520+ courses
+Leadership and Management
+1,920+ course
+990+ courses
+Professional Development
+1,850+ course
+Project Management
+540+ courses
+300+ courses
+Small Business and Entrepreneurship
+350+ courses
+Training and Education
+AEC
+1,470+ course
+Animation and Illustration
+1,810+ course
+Audio and Music
+420+ courses
+Graphic Design
+1,040+ course
+Motion Graphics and VFX
+910+ courses
+Photography
+1,230+ course
+Product and Manufacturing
+1,480+ course
+User Experience
+570+ courses
+Video
+680+ courses
+Visualization and Real-Time
+1,330+ course
+Web Design
+Artificial Intelligence (AI)
+620+ courses
+Cloud Computing
+Cybersecurity
+1,000+ course
+Data Science
+1,420+ course
+Database Management
+490+ courses
+DevOps
+340+ courses
+Hardware
+80+ courses
+IT Help Desk
+370+ courses
+Mobile Development
+Network and System Administration
+1,550+ course
+Software Development
+2,810+ courses
+Web Development
+1,790+ course
+Language</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr">
@@ -11646,19 +11749,110 @@
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
         <is>
-          <t>- Join LinkedIn
+          <t>+ Welcome to your professional community
++ Sign in with email
+- Join LinkedIn
 - Email
 - Password (6+ characters)
 - By clicking Agree &amp; Join, you agree to the LinkedIn User Agreement, Privacy Policy, and Cookie Policy.
++ By clicking Continue to join or sign in, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
 - Agree &amp; Join
 - or
 - Already on Linkedin? Sign in
-- Agree &amp; Join LinkedIn
++ New to LinkedIn? Join now
++ Explore collaborative articles
++ We’re unlocking community knowledge in a new way. Experts add insights directly into each article, started with the help of AI.
++ Marketing
++ Public Administration
++ Healthcare
++ Engineering
++ IT Services
++ Sustainability
++ Business Administration
++ Telecommunications
++ HR Management
++ Show all
++ Find the right job or internship for you
++ Business Development
++ Finance
++ Administrative Assistant
++ Retail Associate
++ Customer Service
++ Operations
++ Information Technology
++ Human Resources
++ Show more
++ Post your job for millions of people to see
++ Post a job
++ Discover the best software tools
++ Connect with buyers who have first-hand experience to find the best products for you.
++ E-Commerce Platforms
++ CRM Software
++ Human Resources Management Systems
++ Recruiting Software
++ Sales Intelligence Software
++ Project Management Software
++ Help Desk Software
++ Social Networking Software
++ Desktop Publishing Software
++ Keep your mind sharp with games
++ Take a break and reconnect with your network through quick daily games.
++ Pinpoint
++ Queens
++ Crossclimb
++ Let the right people know you’re open to work
++ With the Open To Work feature, you can privately tell recruiters or publicly share with the LinkedIn community that you are looking for new job opportunities.
++ Conversations today could lead to opportunity tomorrow
++ Sending messages to people you know is a great way to strengthen relationships as you take the next step in your career.
++ Stay up to date on your industry
++ From live videos, to stories, to newsletters and more, LinkedIn is full of ways to stay up to date on the latest discussions in your industry.
++ Connect with people who can help
++ Find people you know
++ Learn the skills you need to succeed
++ Choose a topic to learn about
++ Who is LinkedIn for?
++ Anyone looking to navigate their professional life.
++ Find a coworker or classmate
++ Find a new job
++ Find a course or training
++ Join your colleagues, classmates, and friends on LinkedIn.
++ Get started
++ General
++ Sign Up
++ Help Center
++ About
++ Press
++ Blog
++ Careers
++ Developers
++ Browse LinkedIn
++ Learning
++ Jobs
++ Games
++ Salary
++ Mobile
++ Services
++ Products
++ Top Companies Hub
++ Business Solutions
++ Talent
++ Sales
++ Directories
++ Members
++ Companies
++ Featured
++ Posts
++ Articles
++ Schools
++ News
++ News Letters
++ Advice
++ People Search
 - By clicking Continue to join or sign in, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
 - Skip to main content
 - LinkedIn
@@ -11672,68 +11866,87 @@
 - Brand Policy
 - Guest Controls
 - Community Guidelines
-- Language
++ Join now
++ Sign in
++ No more previous content
++ No more next content
++ Business Analysis and Strategy
++ 1,540+ course
++ Business Software and Tools
++ 2,510+ courses
++ Career Development
++ 590+ courses
++ 230+ courses
++ Diversity, Equity, and Inclusion (DEI)
++ 310+ courses
++ Finance and Accounting
++ 280+ courses
++ 520+ courses
++ Leadership and Management
++ 1,920+ course
++ 990+ courses
++ Professional Development
++ 1,850+ course
++ Project Management
++ 540+ courses
++ 300+ courses
++ Small Business and Entrepreneurship
++ 350+ courses
++ Training and Education
++ AEC
++ 1,470+ course
++ Animation and Illustration
++ 1,810+ course
++ Audio and Music
++ 420+ courses
++ Graphic Design
++ 1,040+ course
++ Motion Graphics and VFX
++ 910+ courses
++ Photography
++ 1,230+ course
++ Product and Manufacturing
++ 1,480+ course
++ User Experience
++ 570+ courses
++ Video
++ 680+ courses
++ Visualization and Real-Time
++ 1,330+ course
++ Web Design
++ Artificial Intelligence (AI)
++ 620+ courses
++ Cloud Computing
++ Cybersecurity
++ 1,000+ course
++ Data Science
++ 1,420+ course
++ Database Management
++ 490+ courses
++ DevOps
++ 340+ courses
++ Hardware
++ 80+ courses
++ IT Help Desk
++ 370+ courses
++ Mobile Development
++ Network and System Administration
++ 1,550+ course
++ Software Development
++ 2,810+ courses
++ Web Development
++ 1,790+ course
 - Not you?
 - Remove photo
 - First name
 - Last name
-+ Stay updated on your professional world.
+- Sign in
+- Email or phone
+- Password
+- Show
+- Forgot password?
 - Continue with GoogleContinue with Google
-+ or
-+ By clicking Continue, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
-+ Sign in with Apple
-+ Sign in with a passkey
-- New to Linkedin?  Join now
-+ New to LinkedIn? Join now
-+ LinkedIn
-+ © 2024
-+ User Agreement
-+ Privacy Policy
-+ Community Guidelines
-+ Cookie Policy
-+ Copyright Policy
-+ Send Feedback
-+ Language
-+ We’ve emailed a one-time link to your primary email address
-+ Click on the link to sign in instantly to your LinkedIn account.
-+ If you don’t see the email in your inbox, check your spam folder.
-+ Resend email
-+ Back
-+ Agree &amp; Join LinkedIn
-+ العربية (Arabic)
-+ বাংলা (Bangla)
-+ Čeština (Czech)
-+ Dansk (Danish)
-+ Deutsch (German)
-+ Ελληνικά (Greek)
-+ English (English)
-+ Español (Spanish)
-+ Suomi (Finnish)
-+ Français (French)
-+ हिंदी (Hindi)
-+ Magyar (Hungarian)
-+ Bahasa Indonesia (Indonesian)
-+ Italiano (Italian)
-+ 日本語 (Japanese)
-+ 한국어 (Korean)
-+ मराठी (Marathi)
-+ Bahasa Malaysia (Malay)
-+ Nederlands (Dutch)
-+ Norsk (Norwegian)
-+ ਪੰਜਾਬੀ (Punjabi)
-+ Polski (Polish)
-+ Português (Portuguese)
-+ Română (Romanian)
-+ Русский (Russian)
-+ Svenska (Swedish)
-+ తెలుగు (Telugu)
-+ ภาษาไทย (Thai)
-+ Tagalog (Tagalog)
-+ Türkçe (Turkish)
-+ Українська (Ukrainian)
-+ Tiếng Việt (Vietnamese)
-+ 简体中文 (Chinese (Simplified))
-+ 正體中文 (Chinese (Traditional))</t>
+- New to Linkedin?  Join now</t>
         </is>
       </c>
     </row>
@@ -12229,7 +12442,7 @@
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G35" s="1" t="n"/>
@@ -12551,9 +12764,6 @@
 Niederspannung: 230 V oder 400 V (Stromkreislänge rund 1.190.000 km)
 Das Niederspannungsnetz dient der Feinverteilung. An das Niederspannungsnetz sind private Haushalte, kleinere Industriebetriebe, Gewerbe und Verwaltung angeschlossen.
 www.smard.de
-FAQ
-Erneuerbare Energien
-Faktencheck: Vorurteile gegenüber der Windenergie
 CONTROLLING DES NETZAUSBAUS
 Netzausbau ist Chefsache
 Das Bundeswirtschaftsministerium kümmert sich mit den Energieministerinnen und Energieministern der Länder um den Netzausbau. Sie haben mit den Übertragungsnetzbetreibern konkrete Zeitpläne und Meilensteine für alle Netzausbauvorhaben und alle Offshore-Anbindungsleitungen abgestimmt.
@@ -12642,6 +12852,7 @@
 Zur Unterstützung der Einführung marktgestützter Beschaffungssysteme und zur Entwicklung von konkreten möglichen Lösungsbeiträgen für den zukünftigen Netzbetrieb hatte das Bundesministerium für Wirtschaft und Klimaschutz das Projekt SDL-Zukunft durchgeführt („Zukünftiger Bedarf und Beschaffung von Systemdienstleistungen“). Das Ministerium arbeitete im Rahmen dieses Projektes eng mit der Bundesnetzagentur zusammen und hat relevante Beteiligte wie Netzbetreiber, Branchenverbände und Wissenschaft einbezogen. Im Projekt wurde auch ein Ergebnispapier zur Mittel- und langfristigen Entwicklung des Netz- und Versorgungswiederaufbaus erstellt.
 Den Endbericht des Projektes SDL-Zukunft finden Sie hier.
 06.12.2023
+Erneuerbare Energien
 Fahrplan zur Erreichung eines sicheren und robusten Betriebs des zukünftigen Stromversorgungssystems mit 100 % erneuerbaren Energien (barrierefrei)
 Öffnet PDF "Roadmap Systemstabilität" in neuem Fenster.
 System Stability Roadmap
@@ -12674,7 +12885,7 @@
 Der Begriff „intelligentes Stromnetz“ (englisch „smart grid“) beschreibt die kommunikative Anbindung der Akteure des Energiesystems von der Erzeugung über den Transport, die Speicherung und die Verteilung bis hin zum Verbrauch. So entsteht ein integriertes Daten- und Energienetz mit völlig neuen Strukturen und Funktionalitäten. Intelligente Netze sollen die Energieversorgung von morgen auf Basis eines effizienten und zuverlässigen Systembetriebs sicherstellen. Präzise Informationen über das Verhalten Millionen dezentraler Erzeugungsanlagen sind für einen energiewendetauglichen Netzbetrieb unerlässlich. Ähnliches gilt auf Verbraucherseite zum Beispiel für die Integration der Elektromobilität.
 Eine wichtige Rolle spielen hierbei intelligente Messsysteme, sogenannte „Smart Meter“. Als fernkommunizierende digitale Stromzähler ermöglichen sie direkte Übertragungen von Messwerten an Verbraucher, Netzbetreiber, Energielieferanten und Energiedienstleister. Der Verbraucher erhält eine präzise Visualisierung seines Verbrauchsverhaltens und sieht so jede „vergeudete“ Kilowattstunde. Dies kann ihn zu energiesparendem Verhalten motivieren. Zum anderen ermöglichen intelligente Messsysteme die Umsetzung variabler Tarife, in denen der Verbraucher wirtschaftliche Anreize erhält, Strom dann zu nutzen, wenn er am günstigsten ist. Intelligente Messsysteme ermöglichen den Netzbetreibern zudem einen präzisen Blick in ihr Stromnetz, - so können über sie Erzeugungs- und Verbrauchsanlagen angesteuert werden.
 Das Gesetz zur Digitalisierung der Energiewende
-Das Gesetz zur Digitalisierung der Energiewende schafft die rechtlichen Voraussetzungen für „Smart Grid“, „Smart Meter“ und „Smart Home“ in Deutschland und ermöglicht so die digitale Infrastruktur für eine erfolgreiche Verbindung von über 1,5 Millionen Stromerzeugern und großen Verbrauchern. Im Zentrum steht die Einführung intelligenter Messsysteme. Sie dienen als sichere Kommunikationsplattform, um das Stromversorgungssystem energiewendetauglich zu machen. Datenschutz und Datensicherheit werden dabei besonders groß geschrieben - das Gesetz enthält höchst</t>
+Das Gesetz zur Digitalisierung der Energiewende schafft die rechtlichen Voraussetzungen für „Smart Grid“, „Smart Meter“ und „Smart Home“ in Deutschland und ermöglicht so die digitale Infrastruktur für eine erfolgreiche Verbindung von über 1,5 Millionen Stromerzeugern und großen Verbrauchern. Im Zentrum steht die Einführung intelligenter Messsysteme. Sie dienen als sichere Kommunikationsplattform, um das Stromversorgungssystem energiewendetauglich zu machen. Datenschutz und Datensicherheit werden dabei besonders groß geschrieben - das Gesetz enthält höchste technische Mindestanforderungen. Das beschlossene un</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr">
@@ -12684,12 +12895,16 @@
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
         <is>
-          <t>- Das Gesetz zur Digitalisierung der Energiewende schafft die rechtlichen Voraussetzungen für „Smart Grid“, „Smart Meter“ und „Smart Home“ in Deutschland und ermöglicht so die digitale Infrastruktur für eine erfolgreiche Verbindung von über 1,5 Millionen Stromerzeugern und großen Verbrauchern. Im Zentrum steht die Einführung intelligenter Messsysteme. Sie dienen als sichere Kommunikationsplattform, um das Stromversorgungssystem energiewendetauglich zu machen. Datenschutz und Datensicherheit werden dabei besonders groß geschrieben - das Gesetz enthält höchst
+          <t>- FAQ
+- Erneuerbare Energien
+- Faktencheck: Vorurteile gegenüber der Windenergie
++ Erneuerbare Energien
+- Das Gesetz zur Digitalisierung der Energiewende schafft die rechtlichen Voraussetzungen für „Smart Grid“, „Smart Meter“ und „Smart Home“ in Deutschland und ermöglicht so die digitale Infrastruktur für eine erfolgreiche Verbindung von über 1,5 Millionen Stromerzeugern und großen Verbrauchern. Im Zentrum steht die Einführung intelligenter Messsysteme. Sie dienen als sichere Kommunikationsplattform, um das Stromversorgungssystem energiewendetauglich zu machen. Datenschutz und Datensicherheit werden dabei besonders groß geschrieben - das Gesetz enthält höchst
 + Das Gesetz zur Digitalisierung der Energiewende schafft die rechtlichen Voraussetzungen für „Smart Grid“, „Smart Meter“ und „Smart Home“ in Deutschland und ermöglicht so die digitale Infrastruktur für eine erfolgreiche Verbindung von über 1,5 Millionen Stromerzeugern und großen Verbrauchern. Im Zentrum steht die Einführung intelligenter Messsysteme. Sie dienen als sichere Kommunikationsplattform, um das Stromversorgungssystem energiewendetauglich zu machen. Datenschutz und Datensicherheit werden dabei besonders groß geschrieben - das Gesetz enthält höchste technische Mindestanforderungen. Das beschlossene und verkündete Gesetz finden Sie hier (PDF: 264 KB).
 + Mehr dazu erfahren Sie hier.
 + SINTEG: Sichere Netze auch bei hohen Anteilen fluktuierender Stromerzeugung
@@ -13651,7 +13866,7 @@
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
@@ -14258,7 +14473,7 @@
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G38" s="1" t="n"/>
@@ -14550,6 +14765,13 @@
 Updates per E-Mail
 Mailadresse
 BNetzA Aktuell
+30.08.2024 Pressemitteilung
+Ergebnisse der Ausschreibung für PV-Freiflächenanlagen zum Gebotstermin 1. Juli 2024
+Bundesnetzagentur entscheidet zur fairen Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
+29.08.2024 Telekommunikation
+Mobiles Breitband
+29.08.2024
+Können wir das Internet regulieren? In Folge 2 unseres Podcasts sprechen wir über den Digital Services Act. Dr. Julia Marquier erklärt unsere neue Aufgabe als #DSC. Hört selbst, wie wir den digitalen Raum sicherer gestalten 👉🎧 bnetza.de/podcast
 28.08.2024
 Kurze, düstere Tage: Die kalte Jahreszeit ist eine Herausforderung für die #Energiewende – oder etwa doch nicht? Ob beispielsweise Windkraft die geringere Einspeisung der Solaranlagen ausgleicht, beantworten wir auf SMARD: smard.de/sharing/page/6570
 27.08.2024 Elektrizität und Gas
@@ -14601,19 +14823,12 @@
 Amtsblatt_15 (pdf, 1.020 KB)
 31.07.2024
 Störungsfreie Übertragung bei der Vorrunde im #Beachvolleyball: ✅. Dieses Mal war unser Prüf- und Messdienst beim Spiel des 🇩🇪 Duos Ludwig/Lippmann im Einsatz. Den beiden Athletinnen wünschen wir im weiteren Turnierverlauf viel 🍀. #Paris2024 #TeamD
-Die Verbreitung aktiver Glasfaseranschlüsse stieg 2023 auf 4,3 Mio. und übertraf den Bestand Ende 2022 um ca. 900.000. Infos im #JahresberichtTK unter bundesnetzagentur.de/berichte
 26.07.2024 Elektrizität und Gas
 Innovationsausschreibungen: Gebotstermin 1. September 2024
 12.08.2024 Elektrizität und Gas
 Biomethan: Gebotstermin 1. September 2024
 24.07.2024 Pressemitteilung
 Bundesnetzagentur plant Reform der Netzentgelte für Industrie
-24.07.2024 Allgemeines
-Amtsblatt_14 (pdf, 2 MB)
-23.07.2024 Pressemitteilung
-Ergebnisse der Ausschreibung für Solar auf Gebäuden und Lärmschutzwänden
-23.07.2024 Elektrizität und Gas
-Ausschreibung Solaranlagen zweites Segment: Gebotstermin 1. Juni 2024
 Verbraucherportal
 Der direkte Weg zu den häufigsten Verbraucherfragen.
 Wählen Sie Ihr Thema
@@ -14639,9 +14854,9 @@
 Eine solide Ausbildung, gute Aufstiegsmöglichkeiten, spannende Aufgaben und ein tolles Team warten auf dich!
 Zu den Informationen und Angeboten
 Karriere
+Nachrichtentechniker*in (w/m/d) für den Bereich Drahtloser Netzzugang
 Verwaltungstalente oder Ökonom*innen (w/m/d) im Bereich der Digitalisierung
-Verwaltungstalent oder Techniker*in (w/m/d) im Frequenzmanagement
-Alle 22 Einträge ansehen
+Alle 23 Einträge ansehen
 Mediathek
 In der Mediathek finden Sie Berichte, Interviews, Bilder, Videos und weitere Informationen der Bundesnetzagentur.
 Zur Mediathek
@@ -14661,10 +14876,12 @@
 RSS
 Fachthemen Verbraucherportal Datenportal Bundesnetzagentur Presse
 Startseite der Bundesnetzagentur
-Offshore Windenergie
-Ergebnisse der Ausschreibungen für zentral voruntersuchte Flächen veröffentlicht
+Fortschritt beim Netzausbau
+Bundesnetzagentur legt zweiten Trassenabschnitt für A-Nord fest
+Digital Services Coordinator
+DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen
 Zurück und Pause
-4 / 5
+5 / 7
 Vor und Pause
 Pause
 Seite drucken Seite teilen Kurzlink
@@ -14689,7 +14906,6 @@
 Beschlusskammer 2
 Beschlusskammer 3
 Beschlusskammer 11
-Digital Services Coordinator
 Platform-to-Business-Verordnung
 Technologien und Geschäftsmodelle
 Blockchain Infoportal
@@ -14777,18 +14993,22 @@
 Pressekontakt
 Amtsblatt
 Navigation
-Fortschritt beim Netzausbau      Bundesnetzagentur legt zweiten Trassenabschnitt für A-Nord fest
-Digital Services Coordinator      DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen
-Stromnetzausbau      Genehmigungsverfahren für die Leitung von Grafenrheinfeld nach Großgartach abgeschlossen
+Erneuerbaren Energien      Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
+Episode 2      Können wir das Internet regulieren?
+Wir sprechen mit Dr. Julia Marquier über den Digital Services Coordinator.
+Ausschreibungen      Ergebnisse: Solarausschreibung für Freiflächenanlagen 1. Juli 2024
+Offshore Windenergie      Ergebnisse der Ausschreibungen für zentral voruntersuchte Flächen veröffentlicht
 Wasserstoff      Bundesnetzagentur erhält den Antrag für das Wasserstoff-Kernnetz
 Inhalte teilen
 per E-Mail schicken
 ×
-Fortschritt beim Netzausbau
-Bundesnetzagentur legt zweiten Trassenabschnitt für A-Nord fest
-DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen
-Stromnetzausbau
-Genehmigungsverfahren für die Leitung von Grafenrheinfeld nach Großgartach abgeschlossen
+Erneuerbaren Energien
+Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
+Episode 2
+Können wir das Internet regulieren?
+Ergebnisse: Solarausschreibung für Freiflächenanlagen 1. Juli 2024
+Offshore Windenergie
+Ergebnisse der Ausschreibungen für zentral voruntersuchte Flächen veröffentlicht
 Wasserstoff
 Bundesnetzagentur erhält den Antrag für das Wasserstoff-Kernnetz</t>
         </is>
@@ -14800,22 +15020,65 @@
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>+ 28.08.2024
+          <t>+ 30.08.2024 Pressemitteilung
++ Ergebnisse der Ausschreibung für PV-Freiflächenanlagen zum Gebotstermin 1. Juli 2024
++ Bundesnetzagentur entscheidet zur fairen Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
++ 29.08.2024 Telekommunikation
++ Mobiles Breitband
++ 29.08.2024
++ Können wir das Internet regulieren? In Folge 2 unseres Podcasts sprechen wir über den Digital Services Act. Dr. Julia Marquier erklärt unsere neue Aufgabe als #DSC. Hört selbst, wie wir den digitalen Raum sicherer gestalten 👉🎧 bnetza.de/podcast
++ 28.08.2024
 + Kurze, düstere Tage: Die kalte Jahreszeit ist eine Herausforderung für die #Energiewende – oder etwa doch nicht? Ob beispielsweise Windkraft die geringere Einspeisung der Solaranlagen ausgleicht, beantworten wir auf SMARD: smard.de/sharing/page/6570
+- Die Verbreitung aktiver Glasfaseranschlüsse stieg 2023 auf 4,3 Mio. und übertraf den Bestand Ende 2022 um ca. 900.000. Infos im #JahresberichtTK unter bundesnetzagentur.de/berichte
 - 29.07.2024
 - Im 🇩🇪 #Stromnetz gibt es vier Netzebenen. Aber was ist eigentlich der Unterschied? Das erläutern wir im neuesten Artikel auf unserer Energiemarkt-Plattform #SMARD: smard.de/page/home/wiki-articl
+- 24.07.2024 Allgemeines
+- Amtsblatt_14 (pdf, 2 MB)
+- 23.07.2024 Pressemitteilung
+- Ergebnisse der Ausschreibung für Solar auf Gebäuden und Lärmschutzwänden
+- 23.07.2024 Elektrizität und Gas
+- Ausschreibung Solaranlagen zweites Segment: Gebotstermin 1. Juni 2024
++ Nachrichtentechniker*in (w/m/d) für den Bereich Drahtloser Netzzugang
+- Verwaltungstalent oder Techniker*in (w/m/d) im Frequenzmanagement
 - Alle 26 Einträge ansehen
-+ Alle 22 Einträge ansehen
++ Alle 23 Einträge ansehen
+- Offshore Windenergie
+- Ergebnisse der Ausschreibungen für zentral voruntersuchte Flächen veröffentlicht
 - Wasserstoff
 - Bundesnetzagentur erhält den Antrag für das Wasserstoff-Kernnetz
++ Fortschritt beim Netzausbau
++ Bundesnetzagentur legt zweiten Trassenabschnitt für A-Nord fest
++ Digital Services Coordinator
++ DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen
 - 5 / 5
-+ 4 / 5
++ 5 / 7
+- Digital Services Coordinator
+- Fortschritt beim Netzausbau      Bundesnetzagentur legt zweiten Trassenabschnitt für A-Nord fest
+- Digital Services Coordinator      DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen
+- Stromnetzausbau      Genehmigungsverfahren für die Leitung von Grafenrheinfeld nach Großgartach abgeschlossen
++ Erneuerbaren Energien      Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
++ Episode 2      Können wir das Internet regulieren?
++ Wir sprechen mit Dr. Julia Marquier über den Digital Services Coordinator.
++ Ausschreibungen      Ergebnisse: Solarausschreibung für Freiflächenanlagen 1. Juli 2024
++ Offshore Windenergie      Ergebnisse der Ausschreibungen für zentral voruntersuchte Flächen veröffentlicht
 + Wasserstoff      Bundesnetzagentur erhält den Antrag für das Wasserstoff-Kernnetz
+- Fortschritt beim Netzausbau
+- Bundesnetzagentur legt zweiten Trassenabschnitt für A-Nord fest
+- DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen
+- Stromnetzausbau
+- Genehmigungsverfahren für die Leitung von Grafenrheinfeld nach Großgartach abgeschlossen
++ Erneuerbaren Energien
++ Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
++ Episode 2
++ Können wir das Internet regulieren?
++ Ergebnisse: Solarausschreibung für Freiflächenanlagen 1. Juli 2024
++ Offshore Windenergie
++ Ergebnisse der Ausschreibungen für zentral voruntersuchte Flächen veröffentlicht
 + Wasserstoff
 + Bundesnetzagentur erhält den Antrag für das Wasserstoff-Kernnetz</t>
         </is>
@@ -14989,11 +15252,10 @@
         <is>
           <t>Große Beschlusskammer Energie
 Aktuelles und Hintergrund
-Eckpunkte zur Verteilung von Netzkosten
-Hier finden Sie alle Informationen.
 Integration von steuerbaren Verbrauchseinrichtungen
 Wie Wallboxen, Wärmepumpen und Co kurzfristig, sicher und zügig in das Stromnetz integriert werden.
 Eigenkapitalzinssatz
+Hier finden Sie alle Informationen.
 Navigation und Service
 Springe direkt zu:
 Inhalt
@@ -15136,7 +15398,7 @@
 Amtsblatt
 Navigation
 EnergieGasversorgungTelekom­munikationDigitalisierungPostEisenbahnen
-Große Beschlusskammer EnergieEckpunkte zur Verteilung von Netzkosten Integration von steuerbaren VerbrauchseinrichtungenEigenkapitalzinssatz
+Große Beschlusskammer EnergieIntegration von steuerbaren VerbrauchseinrichtungenEigenkapitalzinssatz
 Inhalte teilen
 per E-Mail schicken
 ×</t>
@@ -15144,15 +15406,23 @@
       </c>
       <c r="E40" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
-        </is>
-      </c>
-      <c r="G40" s="1" t="n"/>
+          <t>2024-08-30 11:48:13</t>
+        </is>
+      </c>
+      <c r="G40" s="1" t="inlineStr">
+        <is>
+          <t>- Eckpunkte zur Verteilung von Netzkosten
+- Hier finden Sie alle Informationen.
++ Hier finden Sie alle Informationen.
+- Große Beschlusskammer EnergieEckpunkte zur Verteilung von Netzkosten Integration von steuerbaren VerbrauchseinrichtungenEigenkapitalzinssatz
++ Große Beschlusskammer EnergieIntegration von steuerbaren VerbrauchseinrichtungenEigenkapitalzinssatz</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
@@ -15414,10 +15684,6 @@
 Fachthemen Verbraucherportal Datenportal Bundesnetzagentur Presse
 Sie sind hier:
 Homepage
-Fachthemen
-UntermenuOeffnen
-Energieregulierung
-Eckpunkte zur Verteilung von Netzkosten
 Seite drucken Seite teilen Kurzlink
 Folgen Sie uns
 © BUNDESNETZAGENTUR - 2024
@@ -15426,6 +15692,7 @@
 BARRIEREFREIHEIT
 DATENSCHUTZ
 INHALTSVERZEICHNIS
+Fachthemen
 Energie
 Gasversorgung
 Telekom­munikation
@@ -15540,8 +15807,6 @@
 Mediathek
 Amtsblatt
 Navigation
-EnergieGasversorgungTelekom­munikationDigitalisierungPostEisenbahnen
-Große Beschlusskammer EnergieEckpunkte zur Verteilung von Netzkosten Integration von steuerbaren VerbrauchseinrichtungenEigenkapitalzinssatz
 Die Bundesnetzagentur schlägt ein gestuftes Modell vor. Der erste Schritt ist die Ermittlung, ob ein Netzbetreiber von einer besonderen Kostenbelastung aus dem Ausbau der Erneuerbaren betroffen ist. Hierzu schlägt die Bundesnetzagentur eine Kennzahl vor, deren Grundlage die ans Netz angeschlossene erneuerbare Erzeugungsleistung bildet. Wenn diese Kennzahl eines Netzbetreibers einen festzulegenden Schwellenwert überschreitet, kann die in einem zweiten Schritt ermittelte Mehrbelastung bundesweit verteilt werden. In den betroffenen Regionen sinken die Netzentgelte.
 Die begünstigten Netzbetreiber erhalten in einem dritten Schritt einen finanziellen Ausgleich für die Mehrbelastung. Alle Stromverbraucher in Deutschland finanzieren die Kosten solidarisch, indem diese bundesweit gleichmäßig verteilt werden.
 Aktuell wären 26 Netzbetreiber in Zuständigkeit der Bundesnetzagentur direkt berechtigt, ihre Mehrkosten zu wälzen. Bei den betroffenen Netzbetreibern würden die Netzentgelte um bis zu 39 Prozent sinken. Sie lägen damit meist unter und nur zum Teil noch leicht über dem Bundesdurchschnitt. Ein durchschnittlicher Haushalt (3.500 kWh/a) in den begünstigten Netzgebieten spart dadurch bis zu 192 Euro im Jahr.
@@ -15571,15 +15836,25 @@
       </c>
       <c r="E41" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
-        </is>
-      </c>
-      <c r="G41" s="1" t="n"/>
+          <t>2024-08-30 11:48:13</t>
+        </is>
+      </c>
+      <c r="G41" s="1" t="inlineStr">
+        <is>
+          <t>- Fachthemen
+- UntermenuOeffnen
+- Energieregulierung
+- Eckpunkte zur Verteilung von Netzkosten
++ Fachthemen
+- EnergieGasversorgungTelekom­munikationDigitalisierungPostEisenbahnen
+- Große Beschlusskammer EnergieEckpunkte zur Verteilung von Netzkosten Integration von steuerbaren VerbrauchseinrichtungenEigenkapitalzinssatz</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
@@ -15925,7 +16200,7 @@
       </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G42" s="1" t="n"/>
@@ -16262,7 +16537,7 @@
       </c>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G43" s="1" t="n"/>
@@ -16731,7 +17006,7 @@
       </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G44" s="1" t="n"/>
@@ -17283,6 +17558,7 @@
 2.230.736
 2.147.784
 2.147.7842 3	03/2024
+07/2024
 Solar Aufdach	1. Februar
 1. Juni
 1. Oktober	300
@@ -17777,15 +18053,19 @@
       </c>
       <c r="E45" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
-        </is>
-      </c>
-      <c r="G45" s="1" t="n"/>
+          <t>2024-08-30 11:48:13</t>
+        </is>
+      </c>
+      <c r="G45" s="1" t="inlineStr">
+        <is>
+          <t>+ 07/2024</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
@@ -18342,7 +18622,7 @@
       </c>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G46" s="1" t="inlineStr">
@@ -18900,7 +19180,7 @@
       </c>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G47" s="1" t="inlineStr">
@@ -19384,7 +19664,7 @@
       </c>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G48" s="1" t="inlineStr">
@@ -19884,7 +20164,7 @@
       </c>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G49" s="1" t="inlineStr">
@@ -20370,7 +20650,7 @@
       </c>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G50" s="1" t="inlineStr">
@@ -20892,7 +21172,7 @@
       </c>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G51" s="1" t="inlineStr">
@@ -21484,7 +21764,7 @@
       </c>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G52" s="1" t="inlineStr">
@@ -22264,7 +22544,7 @@
       </c>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G53" s="1" t="inlineStr">
@@ -22770,7 +23050,7 @@
       </c>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G54" s="1" t="inlineStr">
@@ -23324,7 +23604,7 @@
       </c>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G55" s="1" t="inlineStr">
@@ -23812,7 +24092,7 @@
       </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G56" s="1" t="inlineStr">
@@ -24322,7 +24602,7 @@
       </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G57" s="1" t="inlineStr">
@@ -24814,7 +25094,7 @@
       </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G58" s="1" t="inlineStr">
@@ -25322,7 +25602,7 @@
       </c>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G59" s="1" t="inlineStr">
@@ -25822,7 +26102,7 @@
       </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G60" s="1" t="inlineStr">
@@ -26310,7 +26590,7 @@
       </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G61" s="1" t="inlineStr">
@@ -26848,7 +27128,7 @@
       </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G62" s="1" t="inlineStr">
@@ -27382,7 +27662,7 @@
       </c>
       <c r="F63" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G63" s="1" t="inlineStr">
@@ -27684,8 +27964,9 @@
           <t>Ak­tu­el­les
 Aktuelle Mitteilungen der Beschlusskammer 8 der letzten 6 Monate und zu laufenden Festlegungs- und Missbrauchsverfahren
 Fristenkalender für Netzbetreiber - Netzentgelte Elektrizität 2024 (pdf / 198 KB)
-27.08.2024	Konsultation zur Festlegung der Kosten aus der marktgestützten Beschaffung der nicht frequenzgebundenen Systemdienstleistung „Dienstleistungen zur Spannungsregelung“ (Blindleistung) als volatile Kostenanteile nach § 11 Abs. 5 ARegV [BK8-24-0006-A_bis_BK8-24-0010-A]
-19.08.2024	Einleitung eines Verfahrens zur Geltung verfahrensrechtlicher Bestimmungen der Festlegung zur Verteilung von Mehrkosten in Netzen aus der Integration von Anlagen zur Erzeugung von Strom aus erneuerbaren Energien [BK8-24-002-A, BK8-24-003-A, BK8-24-004-A, BK8-24-005-A]
+30.08.2024	Festlegung zur Verteilung von Mehrkosten in Netzen aus der Integration von Anlagen zur Erzeugung von Strom aus erneuerbaren Energien (BK8-24-001-A) sowie Geltung verfahrensrechtlicher Bestimmungen (BK8-24-002-A, BK8-24-003-A, BK8-24-004-A, BK8-24-005-A)
+27.08.2024	Konsultation zur Festlegung der Kosten aus der marktgestützten Beschaffung der nicht frequenzgebundenen Systemdienstleistung „Dienstleistungen zur Spannungsregelung“ (Blindleistung) als volatile Kostenanteile nach § 11 Abs. 5 ARegV [BK8-24-006-A bis BK8-24-010-A]
+19.08.2024	Einleitung eines Verfahrens zur Geltung verfahrensrechtlicher Bestimmungen der Festlegung zur Verteilung von Mehrkosten in Netzen aus der Integration von Anlagen zur Erzeugung von Strom aus erneuerbaren Energien [BK8-24-002-A bis BK8-24-005-A]
 12.07.2024	Entscheidung im Rahmen der besonderen Missbrauchsaufsicht nach § 31 EnWG der eins energie in Sachsen GmbH &amp; Co. KG gegen die inetz GmbH unter dem Aktenzeichen BK8-22-01893-05#1 ergangen.
 08.07.2024	Mitteilung Nr. 1 zur Festlegung zur Bestimmung des angemessenen finanziellen Ausgleichs für Anpassungen der Wirkleistungserzeugung oder des Wirkleistungsbezugs [BK8-22-001-A]
 04.07.2024	Einleitung eines Aufsichtsverfahrens gemäß § 65 EnWG gegen die Reußenköge Netz &amp; Infrastruktur GmbH [BK8-24-13832-0601#1]
@@ -27738,7 +28019,7 @@
 [BK8-22/009-A]
 02.05.2023	Festlegung volatiler Kosten nach § 11 Abs. 5 ARegV zur Berücksichtigung von Verlustenergiekosten bei Verteilernetzbetreibern in der vierten Regulierungsperiode
 [BK8-22/003-A bis BK8-22/007-A]
-Stand:  27.08.2024
+Stand:  30.08.2024
 Navigation und Service
 Springe direkt zu:
 Inhalt
@@ -27968,12 +28249,19 @@
       </c>
       <c r="F64" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G64" s="1" t="inlineStr">
         <is>
-          <t>+ Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor</t>
+          <t>+ 30.08.2024	Festlegung zur Verteilung von Mehrkosten in Netzen aus der Integration von Anlagen zur Erzeugung von Strom aus erneuerbaren Energien (BK8-24-001-A) sowie Geltung verfahrensrechtlicher Bestimmungen (BK8-24-002-A, BK8-24-003-A, BK8-24-004-A, BK8-24-005-A)
+- 27.08.2024	Konsultation zur Festlegung der Kosten aus der marktgestützten Beschaffung der nicht frequenzgebundenen Systemdienstleistung „Dienstleistungen zur Spannungsregelung“ (Blindleistung) als volatile Kostenanteile nach § 11 Abs. 5 ARegV [BK8-24-0006-A_bis_BK8-24-0010-A]
++ 27.08.2024	Konsultation zur Festlegung der Kosten aus der marktgestützten Beschaffung der nicht frequenzgebundenen Systemdienstleistung „Dienstleistungen zur Spannungsregelung“ (Blindleistung) als volatile Kostenanteile nach § 11 Abs. 5 ARegV [BK8-24-006-A bis BK8-24-010-A]
+- 19.08.2024	Einleitung eines Verfahrens zur Geltung verfahrensrechtlicher Bestimmungen der Festlegung zur Verteilung von Mehrkosten in Netzen aus der Integration von Anlagen zur Erzeugung von Strom aus erneuerbaren Energien [BK8-24-002-A, BK8-24-003-A, BK8-24-004-A, BK8-24-005-A]
++ 19.08.2024	Einleitung eines Verfahrens zur Geltung verfahrensrechtlicher Bestimmungen der Festlegung zur Verteilung von Mehrkosten in Netzen aus der Integration von Anlagen zur Erzeugung von Strom aus erneuerbaren Energien [BK8-24-002-A bis BK8-24-005-A]
+- Stand:  27.08.2024
++ Stand:  30.08.2024
++ Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor</t>
         </is>
       </c>
     </row>
@@ -28490,7 +28778,7 @@
       </c>
       <c r="F65" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G65" s="1" t="inlineStr">
@@ -28982,7 +29270,7 @@
       </c>
       <c r="F66" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G66" s="1" t="inlineStr">
@@ -29524,7 +29812,7 @@
       </c>
       <c r="F67" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G67" s="1" t="inlineStr">
@@ -30050,7 +30338,7 @@
       </c>
       <c r="F68" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G68" s="1" t="inlineStr">
@@ -30337,7 +30625,7 @@
       </c>
       <c r="F69" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G69" s="1" t="n"/>
@@ -30628,7 +30916,7 @@
       </c>
       <c r="F70" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G70" s="1" t="n"/>
@@ -31139,7 +31427,7 @@
       </c>
       <c r="F71" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G71" s="1" t="n"/>
@@ -31358,7 +31646,7 @@
       </c>
       <c r="F72" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G72" s="1" t="n"/>
@@ -31588,8 +31876,8 @@
 EDI@Energy
 Standardverträge
 Stellungnahmen
+Veranstaltungen
 Marktprozesse im Überblick
-Veranstaltungen
 Zu Daten und Grafiken
 Suche
 Anmelden
@@ -31610,9 +31898,9 @@
 165
 Fachartikel
 &gt;2000
-An­bie­ter­lis­te Dienst­leis­ter Re­dis­patch 2.0
-Auf der Website des BDEW finden Sie eine offene Liste mit Unternehmen, die Dienstleistungen für Anlagenbetreiber im Rahmen des neuen Redispatchregimes erbringen.
-ZUR ANBIETERLISTE
+VN­Bdi­gi­tal
+Netzanschluss, Netzausbaupläne und Regionalszenarien: Das Netzportal der Verteilnetzbetreiber
+ZUM PORTAL
 Die wichtigsten Themen der Energie- und Wasserwirtschaft im Überblick.
 Elek­tro­mo­bi­li­tät
 Wir bringen die En­er­gie­wen­de in den Ver­kehrs­sek­tor
@@ -31649,6 +31937,9 @@
 BDEW-Ver­an­stal­tun­gen
 BDEW Kongress, Treffpunkt Netze und mehr – Seien Sie dabei!
 Mehr erfahren
+An­bie­ter­lis­te Dienst­leis­ter Re­dis­patch 2.0
+Auf der Website des BDEW finden Sie eine offene Liste mit Unternehmen, die Dienstleistungen für Anlagenbetreiber im Rahmen des neuen Redispatchregimes erbringen.
+Zur Anbieterliste
 Unterrichtsmaterialien zu aktuellen Energie- und Wasser/Abwasser-Themen
 Mehr
 BDEW-We­bi­na­re
@@ -31657,9 +31948,6 @@
 In­stal­la­teur­ver­zeich­nis Strom/ Gas/ Wasser
 So gelangen Sie zu Ihren AnsprechpartnerInnen in den Landesinstallateurausschüssen
 Zur Übersicht
-VN­Bdi­gi­tal
-Netzanschluss, Netzausbaupläne und Regionalszenarien: Das Netzportal der Verteilnetzbetreiber
-Zum Portal
 Alles Wasser Volt
 Deine Zukunft für eine nachhaltige Zukunft: Bewirb Dich jetzt in der Energie- und Wasserwirtschaft
 Der BDEW begrüßt seine neuen Mitglieder
@@ -31675,23 +31963,13 @@
       </c>
       <c r="F73" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
+          <t>2024-08-30 11:48:13</t>
         </is>
       </c>
       <c r="G73" s="1" t="inlineStr">
         <is>
-          <t>- VN­Bdi­gi­tal
-- Netzanschluss, Netzausbaupläne und Regionalszenarien: Das Netzportal der Verteilnetzbetreiber
-- ZUM PORTAL
-+ An­bie­ter­lis­te Dienst­leis­ter Re­dis­patch 2.0
-+ Auf der Website des BDEW finden Sie eine offene Liste mit Unternehmen, die Dienstleistungen für Anlagenbetreiber im Rahmen des neuen Redispatchregimes erbringen.
-+ ZUR ANBIETERLISTE
-- An­bie­ter­lis­te Dienst­leis­ter Re­dis­patch 2.0
-- Auf der Website des BDEW finden Sie eine offene Liste mit Unternehmen, die Dienstleistungen für Anlagenbetreiber im Rahmen des neuen Redispatchregimes erbringen.
-- Zur Anbieterliste
-+ VN­Bdi­gi­tal
-+ Netzanschluss, Netzausbaupläne und Regionalszenarien: Das Netzportal der Verteilnetzbetreiber
-+ Zum Portal</t>
+          <t>+ Veranstaltungen
+- Veranstaltungen</t>
         </is>
       </c>
     </row>
@@ -31892,8 +32170,8 @@
 EDI@Energy
 Standardverträge
 Stellungnahmen
+Veranstaltungen
 Marktprozesse im Überblick
-Veranstaltungen
 Zu Daten und Grafiken
 Suche
 Anmelden
@@ -31901,6 +32179,9 @@
 Art des Inhalts
 Typ
 ZURÜCKSETZEN SUCHEN
+STEL­LUNG­NAH­ME
+29.08.2024
+BDEW-Stel­lung­nah­me zu den na­tur­schutz­fach­li­chen Min­dest­kri­te­ri­en bei PV-Frei­flä­chen­an­la­gen in Verbin ...
 GRAFIK
 20.08.2024
 Mo­nat­li­che Strom­er­zeu­gung in Deutsch­land
@@ -31916,17 +32197,13 @@
 16.08.2024
 Kerstin Andreae zur Einigung auf den Bun­des­haus­halt 2025
 Am heutigen Freitag hat sich die Am­pel-Ko­ali­ti­on auf den Bun­des­haus­halt 2025 geeinigt. Hierzu erklärt Kerstin Andreae, Vor­sit­zen­de der...
-STEL­LUNG­NAH­ME
 15.08.2024
 BDEW-Stel­lung­nah­me zum Re­fe­ren­ten­ent­wurf eines Gesetzes zur Stärkung der in­te­grier­ten Stadt­ent­wick­lu ...
 09.08.2024
 BDEW-Stel­lung­nah­me zum Entwurf des Flä­chen­ent­wick­lungs­plans 2024 für den weiteren Off­shore-Wind­energ ...
 05.08.2024
 BDEW-Po­si­tio­nie­rung für eine Über­gangs­re­ge­lung zum Netz­an­schluss von Bio­gas­an­la­gen bis zum Außerkraf ...
-02.08.2024
-Ka­pa­zi­täts­markt muss nun zügig in die Aus­ge­stal­tung gehen
-Heute hat das Bun­des­wirt­schafts­mi­nis­te­ri­um (BMWK) ein Papier zum zu­künf­ti­gen Strom­markt­de­sign ver­öf­fent­licht. Dieses bündelt die im Rahmen der...
-598 Ergebnisse | Seite
+599 Ergebnisse | Seite
 1
 2
 3
@@ -31950,15 +32227,29 @@
       </c>
       <c r="E74" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F74" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
-        </is>
-      </c>
-      <c r="G74" s="1" t="n"/>
+          <t>2024-08-30 11:48:13</t>
+        </is>
+      </c>
+      <c r="G74" s="1" t="inlineStr">
+        <is>
+          <t>+ Veranstaltungen
+- Veranstaltungen
++ STEL­LUNG­NAH­ME
++ 29.08.2024
++ BDEW-Stel­lung­nah­me zu den na­tur­schutz­fach­li­chen Min­dest­kri­te­ri­en bei PV-Frei­flä­chen­an­la­gen in Verbin ...
+- STEL­LUNG­NAH­ME
+- 02.08.2024
+- Ka­pa­zi­täts­markt muss nun zügig in die Aus­ge­stal­tung gehen
+- Heute hat das Bun­des­wirt­schafts­mi­nis­te­ri­um (BMWK) ein Papier zum zu­künf­ti­gen Strom­markt­de­sign ver­öf­fent­licht. Dieses bündelt die im Rahmen der...
+- 598 Ergebnisse | Seite
++ 599 Ergebnisse | Seite</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n"/>
@@ -32385,7 +32676,7 @@
 Amtsblatt
 Navigation
 EnergieGasversorgungTelekom­munikationDigitalisierungPostEisenbahnen
-Große Beschlusskammer EnergieEckpunkte zur Verteilung von Netzkosten Integration von steuerbaren VerbrauchseinrichtungenEigenkapitalzinssatz
+Große Beschlusskammer EnergieIntegration von steuerbaren VerbrauchseinrichtungenEigenkapitalzinssatz
 Inhalte teilen
 per E-Mail schicken
 ×</t>
@@ -32393,15 +32684,20 @@
       </c>
       <c r="E75" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F75" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 12:03:55</t>
-        </is>
-      </c>
-      <c r="G75" s="1" t="n"/>
+          <t>2024-08-30 11:48:13</t>
+        </is>
+      </c>
+      <c r="G75" s="1" t="inlineStr">
+        <is>
+          <t>- Große Beschlusskammer EnergieEckpunkte zur Verteilung von Netzkosten Integration von steuerbaren VerbrauchseinrichtungenEigenkapitalzinssatz
++ Große Beschlusskammer EnergieIntegration von steuerbaren VerbrauchseinrichtungenEigenkapitalzinssatz</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Scraping_Results.xlsx
+++ b/Scraping_Results.xlsx
@@ -476,12 +476,12 @@
       <c r="D2" s="1" t="n"/>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G2" s="1" t="n"/>
@@ -497,12 +497,12 @@
       <c r="D3" s="1" t="n"/>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G3" s="1" t="n"/>
@@ -518,12 +518,12 @@
       <c r="D4" s="1" t="n"/>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G4" s="1" t="n"/>
@@ -539,12 +539,12 @@
       <c r="D5" s="1" t="n"/>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G5" s="1" t="n"/>
@@ -560,12 +560,12 @@
       <c r="D6" s="1" t="n"/>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G6" s="1" t="n"/>
@@ -581,12 +581,12 @@
       <c r="D7" s="1" t="n"/>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G7" s="1" t="n"/>
@@ -602,12 +602,12 @@
       <c r="D8" s="1" t="n"/>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G8" s="1" t="n"/>
@@ -623,12 +623,12 @@
       <c r="D9" s="1" t="n"/>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G9" s="1" t="n"/>
@@ -644,12 +644,12 @@
       <c r="D10" s="1" t="n"/>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G10" s="1" t="n"/>
@@ -665,12 +665,12 @@
       <c r="D11" s="1" t="n"/>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G11" s="1" t="n"/>
@@ -686,12 +686,12 @@
       <c r="D12" s="1" t="n"/>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G12" s="1" t="n"/>
@@ -707,12 +707,12 @@
       <c r="D13" s="1" t="n"/>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G13" s="1" t="n"/>
@@ -728,12 +728,12 @@
       <c r="D14" s="1" t="n"/>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G14" s="1" t="n"/>
@@ -749,12 +749,12 @@
       <c r="D15" s="1" t="n"/>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G15" s="1" t="n"/>
@@ -770,12 +770,12 @@
       <c r="D16" s="1" t="n"/>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G16" s="1" t="n"/>
@@ -795,12 +795,12 @@
       <c r="D17" s="1" t="n"/>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G17" s="1" t="n"/>
@@ -820,12 +820,12 @@
       <c r="D18" s="1" t="n"/>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G18" s="1" t="n"/>
@@ -841,12 +841,12 @@
       <c r="D19" s="1" t="n"/>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G19" s="1" t="n"/>
@@ -862,12 +862,12 @@
       <c r="D20" s="1" t="n"/>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G20" s="1" t="n"/>
@@ -883,12 +883,12 @@
       <c r="D21" s="1" t="n"/>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G21" s="1" t="n"/>
@@ -904,12 +904,12 @@
       <c r="D22" s="1" t="n"/>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G22" s="1" t="n"/>
@@ -925,12 +925,12 @@
       <c r="D23" s="1" t="n"/>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G23" s="1" t="n"/>
@@ -946,12 +946,12 @@
       <c r="D24" s="1" t="n"/>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G24" s="1" t="n"/>
@@ -967,12 +967,12 @@
       <c r="D25" s="1" t="n"/>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G25" s="1" t="n"/>
@@ -988,12 +988,12 @@
       <c r="D26" s="1" t="n"/>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G26" s="1" t="n"/>
@@ -1009,12 +1009,12 @@
       <c r="D27" s="1" t="n"/>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G27" s="1" t="n"/>
@@ -1034,12 +1034,12 @@
       <c r="D28" s="1" t="n"/>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G28" s="1" t="n"/>
@@ -1055,12 +1055,12 @@
       <c r="D29" s="1" t="n"/>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G29" s="1" t="n"/>
@@ -1076,12 +1076,12 @@
       <c r="D30" s="1" t="n"/>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G30" s="1" t="n"/>
@@ -1097,12 +1097,12 @@
       <c r="D31" s="1" t="n"/>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G31" s="1" t="n"/>
@@ -1118,12 +1118,12 @@
       <c r="D32" s="1" t="n"/>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G32" s="1" t="n"/>
@@ -1139,12 +1139,12 @@
       <c r="D33" s="1" t="n"/>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G33" s="1" t="n"/>
@@ -1164,12 +1164,12 @@
       <c r="D34" s="1" t="n"/>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G34" s="1" t="n"/>
@@ -1189,12 +1189,12 @@
       <c r="D35" s="1" t="n"/>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G35" s="1" t="n"/>
@@ -1210,12 +1210,12 @@
       <c r="D36" s="1" t="n"/>
       <c r="E36" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G36" s="1" t="n"/>
@@ -1231,12 +1231,12 @@
       <c r="D37" s="1" t="n"/>
       <c r="E37" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G37" s="1" t="n"/>
@@ -1252,12 +1252,12 @@
       <c r="D38" s="1" t="n"/>
       <c r="E38" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G38" s="1" t="n"/>
@@ -1277,12 +1277,12 @@
       <c r="D39" s="1" t="n"/>
       <c r="E39" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G39" s="1" t="n"/>
@@ -1298,12 +1298,12 @@
       <c r="D40" s="1" t="n"/>
       <c r="E40" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G40" s="1" t="n"/>
@@ -1319,12 +1319,12 @@
       <c r="D41" s="1" t="n"/>
       <c r="E41" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G41" s="1" t="n"/>
@@ -1340,12 +1340,12 @@
       <c r="D42" s="1" t="n"/>
       <c r="E42" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G42" s="1" t="n"/>
@@ -1361,12 +1361,12 @@
       <c r="D43" s="1" t="n"/>
       <c r="E43" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G43" s="1" t="n"/>
@@ -1382,12 +1382,12 @@
       <c r="D44" s="1" t="n"/>
       <c r="E44" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G44" s="1" t="n"/>
@@ -1403,12 +1403,12 @@
       <c r="D45" s="1" t="n"/>
       <c r="E45" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G45" s="1" t="n"/>
@@ -1424,12 +1424,12 @@
       <c r="D46" s="1" t="n"/>
       <c r="E46" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G46" s="1" t="n"/>
@@ -1445,12 +1445,12 @@
       <c r="D47" s="1" t="n"/>
       <c r="E47" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G47" s="1" t="n"/>
@@ -1466,12 +1466,12 @@
       <c r="D48" s="1" t="n"/>
       <c r="E48" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G48" s="1" t="n"/>
@@ -1487,12 +1487,12 @@
       <c r="D49" s="1" t="n"/>
       <c r="E49" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G49" s="1" t="n"/>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G50" s="1" t="n"/>
@@ -1529,12 +1529,12 @@
       <c r="D51" s="1" t="n"/>
       <c r="E51" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G51" s="1" t="n"/>
@@ -1550,12 +1550,12 @@
       <c r="D52" s="1" t="n"/>
       <c r="E52" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G52" s="1" t="n"/>
@@ -1571,12 +1571,12 @@
       <c r="D53" s="1" t="n"/>
       <c r="E53" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G53" s="1" t="n"/>
@@ -1592,12 +1592,12 @@
       <c r="D54" s="1" t="n"/>
       <c r="E54" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G54" s="1" t="n"/>
@@ -1613,12 +1613,12 @@
       <c r="D55" s="1" t="n"/>
       <c r="E55" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G55" s="1" t="n"/>
@@ -1634,12 +1634,12 @@
       <c r="D56" s="1" t="n"/>
       <c r="E56" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G56" s="1" t="n"/>
@@ -1655,12 +1655,12 @@
       <c r="D57" s="1" t="n"/>
       <c r="E57" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G57" s="1" t="n"/>
@@ -1676,12 +1676,12 @@
       <c r="D58" s="1" t="n"/>
       <c r="E58" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G58" s="1" t="n"/>
@@ -1697,12 +1697,12 @@
       <c r="D59" s="1" t="n"/>
       <c r="E59" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G59" s="1" t="n"/>
@@ -1718,12 +1718,12 @@
       <c r="D60" s="1" t="n"/>
       <c r="E60" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G60" s="1" t="n"/>
@@ -1739,12 +1739,12 @@
       <c r="D61" s="1" t="n"/>
       <c r="E61" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G61" s="1" t="n"/>
@@ -1760,12 +1760,12 @@
       <c r="D62" s="1" t="n"/>
       <c r="E62" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G62" s="1" t="n"/>
@@ -1781,12 +1781,12 @@
       <c r="D63" s="1" t="n"/>
       <c r="E63" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F63" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G63" s="1" t="n"/>
@@ -1802,12 +1802,12 @@
       <c r="D64" s="1" t="n"/>
       <c r="E64" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F64" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G64" s="1" t="n"/>
@@ -1823,12 +1823,12 @@
       <c r="D65" s="1" t="n"/>
       <c r="E65" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F65" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G65" s="1" t="n"/>
@@ -1844,12 +1844,12 @@
       <c r="D66" s="1" t="n"/>
       <c r="E66" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F66" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G66" s="1" t="n"/>
@@ -1865,12 +1865,12 @@
       <c r="D67" s="1" t="n"/>
       <c r="E67" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F67" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G67" s="1" t="n"/>
@@ -1886,12 +1886,12 @@
       <c r="D68" s="1" t="n"/>
       <c r="E68" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F68" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G68" s="1" t="n"/>
@@ -1907,12 +1907,12 @@
       <c r="D69" s="1" t="n"/>
       <c r="E69" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F69" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G69" s="1" t="n"/>
@@ -1932,12 +1932,12 @@
       <c r="D70" s="1" t="n"/>
       <c r="E70" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F70" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G70" s="1" t="n"/>
@@ -1953,12 +1953,12 @@
       <c r="D71" s="1" t="n"/>
       <c r="E71" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F71" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G71" s="1" t="n"/>
@@ -1974,12 +1974,12 @@
       <c r="D72" s="1" t="n"/>
       <c r="E72" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F72" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G72" s="1" t="n"/>
@@ -1995,12 +1995,12 @@
       <c r="D73" s="1" t="n"/>
       <c r="E73" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F73" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G73" s="1" t="n"/>
@@ -2020,12 +2020,12 @@
       <c r="D74" s="1" t="n"/>
       <c r="E74" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F74" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G74" s="1" t="n"/>
@@ -2041,12 +2041,12 @@
       <c r="D75" s="1" t="n"/>
       <c r="E75" s="1" t="inlineStr">
         <is>
-          <t>New one</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F75" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:14:41</t>
+          <t>2024-09-03 08:23:19</t>
         </is>
       </c>
       <c r="G75" s="1" t="n"/>

--- a/Scraping_Results.xlsx
+++ b/Scraping_Results.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G2" s="1" t="n"/>
@@ -502,7 +502,7 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G3" s="1" t="n"/>
@@ -523,7 +523,7 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G4" s="1" t="n"/>
@@ -544,7 +544,7 @@
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G5" s="1" t="n"/>
@@ -565,7 +565,7 @@
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G6" s="1" t="n"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G7" s="1" t="n"/>
@@ -607,7 +607,7 @@
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G8" s="1" t="n"/>
@@ -628,7 +628,7 @@
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G9" s="1" t="n"/>
@@ -649,7 +649,7 @@
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G10" s="1" t="n"/>
@@ -670,7 +670,7 @@
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G11" s="1" t="n"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G12" s="1" t="n"/>
@@ -712,7 +712,7 @@
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G13" s="1" t="n"/>
@@ -733,7 +733,7 @@
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G14" s="1" t="n"/>
@@ -754,7 +754,7 @@
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G15" s="1" t="n"/>
@@ -775,7 +775,7 @@
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G16" s="1" t="n"/>
@@ -800,7 +800,7 @@
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G17" s="1" t="n"/>
@@ -825,7 +825,7 @@
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G18" s="1" t="n"/>
@@ -846,7 +846,7 @@
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G19" s="1" t="n"/>
@@ -867,7 +867,7 @@
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G20" s="1" t="n"/>
@@ -888,7 +888,7 @@
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G21" s="1" t="n"/>
@@ -909,7 +909,7 @@
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G22" s="1" t="n"/>
@@ -930,7 +930,7 @@
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G23" s="1" t="n"/>
@@ -951,7 +951,7 @@
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G24" s="1" t="n"/>
@@ -972,7 +972,7 @@
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G25" s="1" t="n"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G26" s="1" t="n"/>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G27" s="1" t="n"/>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G28" s="1" t="n"/>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G29" s="1" t="n"/>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G30" s="1" t="n"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G31" s="1" t="n"/>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G32" s="1" t="n"/>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G33" s="1" t="n"/>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G34" s="1" t="n"/>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G35" s="1" t="n"/>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G36" s="1" t="n"/>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G37" s="1" t="n"/>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G38" s="1" t="n"/>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G39" s="1" t="n"/>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G40" s="1" t="n"/>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G41" s="1" t="n"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G42" s="1" t="n"/>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G43" s="1" t="n"/>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G44" s="1" t="n"/>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G45" s="1" t="n"/>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G46" s="1" t="n"/>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G47" s="1" t="n"/>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G48" s="1" t="n"/>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G49" s="1" t="n"/>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G50" s="1" t="n"/>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G51" s="1" t="n"/>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G52" s="1" t="n"/>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G53" s="1" t="n"/>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G54" s="1" t="n"/>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G55" s="1" t="n"/>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G56" s="1" t="n"/>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G57" s="1" t="n"/>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G58" s="1" t="n"/>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G59" s="1" t="n"/>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G60" s="1" t="n"/>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G61" s="1" t="n"/>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G62" s="1" t="n"/>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="F63" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G63" s="1" t="n"/>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="F64" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G64" s="1" t="n"/>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="F65" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G65" s="1" t="n"/>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="F66" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G66" s="1" t="n"/>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="F67" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G67" s="1" t="n"/>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F68" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G68" s="1" t="n"/>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="F69" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G69" s="1" t="n"/>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="F70" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G70" s="1" t="n"/>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="F71" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G71" s="1" t="n"/>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="F72" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G72" s="1" t="n"/>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="F73" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G73" s="1" t="n"/>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="F74" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G74" s="1" t="n"/>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="F75" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 08:23:19</t>
+          <t>2024-09-03 08:23:51</t>
         </is>
       </c>
       <c r="G75" s="1" t="n"/>

--- a/Scraping_Results.xlsx
+++ b/Scraping_Results.xlsx
@@ -725,7 +725,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
@@ -4214,7 +4214,7 @@
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
@@ -5649,7 +5649,7 @@
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
@@ -6111,7 +6111,7 @@
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
@@ -6563,7 +6563,7 @@
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
@@ -7742,7 +7742,7 @@
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
@@ -8202,7 +8202,7 @@
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
@@ -8487,7 +8487,7 @@
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
@@ -8666,7 +8666,7 @@
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
@@ -9053,7 +9053,7 @@
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
@@ -9447,7 +9447,7 @@
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
@@ -9607,7 +9607,7 @@
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
@@ -9763,7 +9763,7 @@
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
@@ -10040,7 +10040,7 @@
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
@@ -10406,7 +10406,7 @@
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
@@ -10665,7 +10665,7 @@
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
@@ -10885,7 +10885,7 @@
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G31" s="1" t="inlineStr">
@@ -11117,7 +11117,7 @@
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
@@ -11315,7 +11315,7 @@
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
@@ -11490,7 +11490,7 @@
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
@@ -11814,7 +11814,7 @@
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
@@ -12286,7 +12286,7 @@
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
@@ -12882,7 +12882,7 @@
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
@@ -13518,7 +13518,7 @@
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr">
@@ -13942,9 +13942,6 @@
 RSS
 Fachthemen Verbraucherportal Datenportal Bundesnetzagentur Presse
 Startseite der Bundesnetzagentur
-Episode 2
-Können wir das Internet regulieren?
-Wir sprechen mit Dr. Julia Marquier über den Digital Services Coordinator.
 Digital Services Coordinator
 DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen
 Zurück und Pause
@@ -14063,6 +14060,8 @@
 Szenariorahmen      Bundesnetzagentur beteiligt Öffentlichkeit zu den Szenariorahmen Strom und Gas/Wasserstoff 2025–2037/2045
 Kohleausstieg       ...für 2027 erstmals kein Kohleverfeuerungsverbot erforderlich
 Erneuerbare Energien      Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
+Episode 2      Können wir das Internet regulieren?
+Wir sprechen mit Dr. Julia Marquier über den Digital Services Coordinator.
 Inhalte teilen
 per E-Mail schicken
 ×
@@ -14070,7 +14069,9 @@
 Kohleausstieg
 ...für 2027 erstmals kein Kohleverfeuerungsverbot erforderlich
 Erneuerbare Energien
-Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien</t>
+Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
+Episode 2
+Können wir das Internet regulieren?</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr">
@@ -14080,7 +14081,7 @@
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
@@ -14212,9 +14213,6 @@
 + RSS
 + Fachthemen Verbraucherportal Datenportal Bundesnetzagentur Presse
 + Startseite der Bundesnetzagentur
-+ Episode 2
-+ Können wir das Internet regulieren?
-+ Wir sprechen mit Dr. Julia Marquier über den Digital Services Coordinator.
 + Digital Services Coordinator
 + DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen
 + Zurück und Pause
@@ -14333,6 +14331,8 @@
 + Szenariorahmen      Bundesnetzagentur beteiligt Öffentlichkeit zu den Szenariorahmen Strom und Gas/Wasserstoff 2025–2037/2045
 + Kohleausstieg       ...für 2027 erstmals kein Kohleverfeuerungsverbot erforderlich
 + Erneuerbare Energien      Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
++ Episode 2      Können wir das Internet regulieren?
++ Wir sprechen mit Dr. Julia Marquier über den Digital Services Coordinator.
 + Inhalte teilen
 + per E-Mail schicken
 + ×
@@ -14340,7 +14340,9 @@
 + Kohleausstieg
 + ...für 2027 erstmals kein Kohleverfeuerungsverbot erforderlich
 + Erneuerbare Energien
-+ Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien</t>
++ Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
++ Episode 2
++ Können wir das Internet regulieren?</t>
         </is>
       </c>
     </row>
@@ -14515,7 +14517,7 @@
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr">
@@ -14902,7 +14904,7 @@
       </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G41" s="1" t="inlineStr">
@@ -15332,7 +15334,7 @@
       </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G42" s="1" t="inlineStr">
@@ -15715,7 +15717,7 @@
       </c>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G43" s="1" t="inlineStr">
@@ -16058,7 +16060,7 @@
       </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G44" s="1" t="inlineStr">
@@ -16461,7 +16463,7 @@
       </c>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G45" s="1" t="inlineStr">
@@ -17222,7 +17224,7 @@
       </c>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G46" s="1" t="inlineStr">
@@ -18029,7 +18031,7 @@
       </c>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G47" s="1" t="inlineStr">
@@ -18587,7 +18589,7 @@
       </c>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G48" s="1" t="inlineStr">
@@ -19105,7 +19107,7 @@
       </c>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G49" s="1" t="inlineStr">
@@ -19594,7 +19596,7 @@
       </c>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G50" s="1" t="inlineStr">
@@ -20084,7 +20086,7 @@
       </c>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G51" s="1" t="inlineStr">
@@ -20585,7 +20587,7 @@
       </c>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G52" s="1" t="inlineStr">
@@ -21139,7 +21141,7 @@
       </c>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G53" s="1" t="inlineStr">
@@ -21822,7 +21824,7 @@
       </c>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G54" s="1" t="inlineStr">
@@ -22462,7 +22464,7 @@
       </c>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G55" s="1" t="inlineStr">
@@ -22989,7 +22991,7 @@
       </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G56" s="1" t="inlineStr">
@@ -23507,7 +23509,7 @@
       </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G57" s="1" t="inlineStr">
@@ -24003,7 +24005,7 @@
       </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G58" s="1" t="inlineStr">
@@ -24501,7 +24503,7 @@
       </c>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G59" s="1" t="inlineStr">
@@ -24998,7 +25000,7 @@
       </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G60" s="1" t="inlineStr">
@@ -25499,7 +25501,7 @@
       </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G61" s="1" t="inlineStr">
@@ -25990,7 +25992,7 @@
       </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G62" s="1" t="inlineStr">
@@ -26500,7 +26502,7 @@
       </c>
       <c r="F63" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G63" s="1" t="inlineStr">
@@ -27033,7 +27035,7 @@
       </c>
       <c r="F64" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G64" s="1" t="inlineStr">
@@ -27591,7 +27593,7 @@
       </c>
       <c r="F65" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G65" s="1" t="inlineStr">
@@ -28143,7 +28145,7 @@
       </c>
       <c r="F66" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G66" s="1" t="inlineStr">
@@ -28647,7 +28649,7 @@
       </c>
       <c r="F67" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G67" s="1" t="inlineStr">
@@ -29161,7 +29163,7 @@
       </c>
       <c r="F68" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G68" s="1" t="inlineStr">
@@ -29692,7 +29694,7 @@
       </c>
       <c r="F69" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G69" s="1" t="inlineStr">
@@ -30097,7 +30099,7 @@
       </c>
       <c r="F70" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G70" s="1" t="inlineStr">
@@ -30382,7 +30384,7 @@
       </c>
       <c r="F71" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G71" s="1" t="inlineStr">
@@ -30783,7 +30785,7 @@
       </c>
       <c r="F72" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G72" s="1" t="inlineStr">
@@ -31148,7 +31150,7 @@
       </c>
       <c r="F73" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G73" s="1" t="inlineStr">
@@ -31331,8 +31333,8 @@
 EDI@Energy
 Standardverträge
 Stellungnahmen
+Veranstaltungen
 Marktprozesse im Überblick
-Veranstaltungen
 Zu Daten und Grafiken
 Suche
 Anmelden
@@ -31353,9 +31355,8 @@
 165
 Fachartikel
 &gt;2000
-VN­Bdi­gi­tal
-Netzanschluss, Netzausbaupläne und Regionalszenarien: Das Netzportal der Verteilnetzbetreiber
-ZUM PORTAL
+In­stal­la­teur­ver­zeich­nis Strom/ Gas/ Wasser
+So gelangen Sie zu Ihren AnsprechpartnerInnen in den Landesinstallateurausschüssen
 Die wichtigsten Themen der Energie- und Wasserwirtschaft im Überblick.
 Elek­tro­mo­bi­li­tät
 Wir bringen die En­er­gie­wen­de in den Ver­kehrs­sek­tor
@@ -31400,9 +31401,9 @@
 BDEW-We­bi­na­re
 Die aktuellen Themen der Energie- und Wasserwirtschaft - kostenfrei für Mitgliedsunternehmen.
 Zu den Webinaren
-In­stal­la­teur­ver­zeich­nis Strom/ Gas/ Wasser
-So gelangen Sie zu Ihren AnsprechpartnerInnen in den Landesinstallateurausschüssen
-Zur Übersicht
+VN­Bdi­gi­tal
+Netzanschluss, Netzausbaupläne und Regionalszenarien: Das Netzportal der Verteilnetzbetreiber
+Zum Portal
 Alles Wasser Volt
 Deine Zukunft für eine nachhaltige Zukunft: Bewirb Dich jetzt in der Energie- und Wasserwirtschaft
 Der BDEW begrüßt seine neuen Mitglieder
@@ -31418,7 +31419,7 @@
       </c>
       <c r="F74" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G74" s="1" t="inlineStr">
@@ -31488,8 +31489,8 @@
 + EDI@Energy
 + Standardverträge
 + Stellungnahmen
++ Veranstaltungen
 + Marktprozesse im Überblick
-+ Veranstaltungen
 + Zu Daten und Grafiken
 + Suche
 + Anmelden
@@ -31510,9 +31511,8 @@
 + 165
 + Fachartikel
 + &gt;2000
-+ VN­Bdi­gi­tal
-+ Netzanschluss, Netzausbaupläne und Regionalszenarien: Das Netzportal der Verteilnetzbetreiber
-+ ZUM PORTAL
++ In­stal­la­teur­ver­zeich­nis Strom/ Gas/ Wasser
++ So gelangen Sie zu Ihren AnsprechpartnerInnen in den Landesinstallateurausschüssen
 + Die wichtigsten Themen der Energie- und Wasserwirtschaft im Überblick.
 + Elek­tro­mo­bi­li­tät
 + Wir bringen die En­er­gie­wen­de in den Ver­kehrs­sek­tor
@@ -31557,9 +31557,9 @@
 + BDEW-We­bi­na­re
 + Die aktuellen Themen der Energie- und Wasserwirtschaft - kostenfrei für Mitgliedsunternehmen.
 + Zu den Webinaren
-+ In­stal­la­teur­ver­zeich­nis Strom/ Gas/ Wasser
-+ So gelangen Sie zu Ihren AnsprechpartnerInnen in den Landesinstallateurausschüssen
-+ Zur Übersicht
++ VN­Bdi­gi­tal
++ Netzanschluss, Netzausbaupläne und Regionalszenarien: Das Netzportal der Verteilnetzbetreiber
++ Zum Portal
 + Alles Wasser Volt
 + Deine Zukunft für eine nachhaltige Zukunft: Bewirb Dich jetzt in der Energie- und Wasserwirtschaft
 + Der BDEW begrüßt seine neuen Mitglieder
@@ -31644,8 +31644,8 @@
 EDI@Energy
 Standardverträge
 Stellungnahmen
+Veranstaltungen
 Marktprozesse im Überblick
-Veranstaltungen
 Zu Daten und Grafiken
 Suche
 Anmelden
@@ -31706,7 +31706,7 @@
       </c>
       <c r="F75" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 09:43:12</t>
+          <t>2024-09-03 10:09:17</t>
         </is>
       </c>
       <c r="G75" s="1" t="inlineStr">
@@ -31776,8 +31776,8 @@
 + EDI@Energy
 + Standardverträge
 + Stellungnahmen
++ Veranstaltungen
 + Marktprozesse im Überblick
-+ Veranstaltungen
 + Zu Daten und Grafiken
 + Suche
 + Anmelden

--- a/Scraping_Results.xlsx
+++ b/Scraping_Results.xlsx
@@ -835,6 +835,7 @@
 Generation and load data provision methodology - GLDPM
 Clean Energy Package
 Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
 Electricity Balancing (EB)
 Bilanzkreisvertrag
 ER-Verordnung
@@ -964,15 +965,19 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="n"/>
+          <t>2024-09-04 08:16:00</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
@@ -1283,6 +1288,7 @@
 Generation and load data provision methodology - GLDPM
 Clean Energy Package
 Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
 Electricity Balancing (EB)
 Bilanzkreisvertrag
 ER-Verordnung
@@ -1413,15 +1419,19 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="n"/>
+          <t>2024-09-04 08:16:00</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
@@ -1792,6 +1802,7 @@
 Generation and load data provision methodology - GLDPM
 Clean Energy Package
 Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
 Electricity Balancing (EB)
 Bilanzkreisvertrag
 ER-Verordnung
@@ -1944,15 +1955,19 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="n"/>
+          <t>2024-09-04 08:16:00</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -2318,6 +2333,7 @@
 Generation and load data provision methodology - GLDPM
 Clean Energy Package
 Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
 Electricity Balancing (EB)
 Bilanzkreisvertrag
 ER-Verordnung
@@ -2471,15 +2487,19 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="n"/>
+          <t>2024-09-04 08:16:00</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -2819,6 +2839,7 @@
 Generation and load data provision methodology - GLDPM
 Clean Energy Package
 Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
 Electricity Balancing (EB)
 Bilanzkreisvertrag
 ER-Verordnung
@@ -2942,15 +2963,19 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="n"/>
+          <t>2024-09-04 08:16:00</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -3294,6 +3319,7 @@
 Generation and load data provision methodology - GLDPM
 Clean Energy Package
 Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
 Electricity Balancing (EB)
 Bilanzkreisvertrag
 ER-Verordnung
@@ -3423,15 +3449,19 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="n"/>
+          <t>2024-09-04 08:16:00</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -3840,6 +3870,7 @@
 Generation and load data provision methodology - GLDPM
 Clean Energy Package
 Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
 Electricity Balancing (EB)
 Bilanzkreisvertrag
 ER-Verordnung
@@ -3970,15 +4001,19 @@
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
-        </is>
-      </c>
-      <c r="G8" s="1" t="n"/>
+          <t>2024-09-04 08:16:00</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -4298,6 +4333,7 @@
 Generation and load data provision methodology - GLDPM
 Clean Energy Package
 Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
 Electricity Balancing (EB)
 Bilanzkreisvertrag
 ER-Verordnung
@@ -4427,15 +4463,19 @@
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
-        </is>
-      </c>
-      <c r="G9" s="1" t="n"/>
+          <t>2024-09-04 08:16:00</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
@@ -4757,6 +4797,7 @@
 Generation and load data provision methodology - GLDPM
 Clean Energy Package
 Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
 Electricity Balancing (EB)
 Bilanzkreisvertrag
 ER-Verordnung
@@ -4884,15 +4925,19 @@
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
-        </is>
-      </c>
-      <c r="G10" s="1" t="n"/>
+          <t>2024-09-04 08:16:00</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -5275,6 +5320,7 @@
 Generation and load data provision methodology - GLDPM
 Clean Energy Package
 Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
 Electricity Balancing (EB)
 Bilanzkreisvertrag
 ER-Verordnung
@@ -5399,15 +5445,19 @@
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
-        </is>
-      </c>
-      <c r="G11" s="1" t="n"/>
+          <t>2024-09-04 08:16:00</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -5737,6 +5787,7 @@
 Generation and load data provision methodology - GLDPM
 Clean Energy Package
 Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
 Electricity Balancing (EB)
 Bilanzkreisvertrag
 ER-Verordnung
@@ -5868,15 +5919,19 @@
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
-        </is>
-      </c>
-      <c r="G12" s="1" t="n"/>
+          <t>2024-09-04 08:16:00</t>
+        </is>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
@@ -6193,6 +6248,7 @@
 Generation and load data provision methodology - GLDPM
 Clean Energy Package
 Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
 Electricity Balancing (EB)
 Bilanzkreisvertrag
 ER-Verordnung
@@ -6323,15 +6379,19 @@
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
-        </is>
-      </c>
-      <c r="G13" s="1" t="n"/>
+          <t>2024-09-04 08:16:00</t>
+        </is>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -6642,6 +6702,7 @@
 Generation and load data provision methodology - GLDPM
 Clean Energy Package
 Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
 Electricity Balancing (EB)
 Bilanzkreisvertrag
 ER-Verordnung
@@ -6772,15 +6833,19 @@
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
-        </is>
-      </c>
-      <c r="G14" s="1" t="n"/>
+          <t>2024-09-04 08:16:00</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -7091,6 +7156,7 @@
 Generation and load data provision methodology - GLDPM
 Clean Energy Package
 Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
 Electricity Balancing (EB)
 Bilanzkreisvertrag
 ER-Verordnung
@@ -7221,15 +7287,19 @@
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
-        </is>
-      </c>
-      <c r="G15" s="1" t="n"/>
+          <t>2024-09-04 08:16:00</t>
+        </is>
+      </c>
+      <c r="G15" s="1" t="inlineStr">
+        <is>
+          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
@@ -7562,6 +7632,7 @@
 Strommarkt-Forum
 CACM-Verordnung
 Generation and load data provision methodology - GLDPM
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
 Electricity Balancing (EB)
 Bilanzkreisvertrag
 ER-Verordnung
@@ -7692,15 +7763,19 @@
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
-        </is>
-      </c>
-      <c r="G16" s="1" t="n"/>
+          <t>2024-09-04 08:16:00</t>
+        </is>
+      </c>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -7762,7 +7837,7 @@
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
@@ -8003,7 +8078,7 @@
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G18" s="1" t="n"/>
@@ -8392,7 +8467,7 @@
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G19" s="1" t="n"/>
@@ -8573,7 +8648,7 @@
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G20" s="1" t="n"/>
@@ -8750,7 +8825,7 @@
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G21" s="1" t="n"/>
@@ -8935,7 +9010,7 @@
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G22" s="1" t="n"/>
@@ -9162,7 +9237,7 @@
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G23" s="1" t="n"/>
@@ -9361,7 +9436,7 @@
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G24" s="1" t="n"/>
@@ -9524,7 +9599,7 @@
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G25" s="1" t="n"/>
@@ -9681,7 +9756,7 @@
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G26" s="1" t="n"/>
@@ -9836,7 +9911,7 @@
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G27" s="1" t="n"/>
@@ -10231,7 +10306,7 @@
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G28" s="1" t="n"/>
@@ -10572,7 +10647,7 @@
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G29" s="1" t="n"/>
@@ -10749,7 +10824,7 @@
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G30" s="1" t="n"/>
@@ -11012,7 +11087,7 @@
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G31" s="1" t="n"/>
@@ -11213,7 +11288,7 @@
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G32" s="1" t="n"/>
@@ -11352,10 +11427,7 @@
 ENTSO-E assessment on the EU Legislative proposal for a Regulation to improve the Union’s electricity market design - trilogues
 Past positions
 Consultations
-Closing in 2 days
-Public consultation on Bidding Zone Review
-04/09/2024
-Closing in 11 days
+Closing in 10 days
 Proposal for Amendment of Methodology for the market-based allocation process of cross-zonal capacity for the exchange of balancing capacity for the Baltic CCR
 13/09/2024
 Closing in a month
@@ -11403,15 +11475,23 @@
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
-        </is>
-      </c>
-      <c r="G33" s="1" t="n"/>
+          <t>2024-09-04 08:16:00</t>
+        </is>
+      </c>
+      <c r="G33" s="1" t="inlineStr">
+        <is>
+          <t>- Closing in 2 days
+- Public consultation on Bidding Zone Review
+- 04/09/2024
+- Closing in 11 days
++ Closing in 10 days</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -11490,79 +11570,140 @@
       </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>Sign in
-Stay updated on your professional world.
+          <t>Join LinkedIn
+Email
+Password (6+ characters)
+By clicking Agree &amp; Join, you agree to the LinkedIn User Agreement, Privacy Policy, and Cookie Policy.
+Agree &amp; Join
+or
+Already on Linkedin? Sign in
+Agree &amp; Join LinkedIn
+By clicking Continue to join or sign in, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
+Skip to main content
+LinkedIn
+© 2024
+About
+Accessibility
+User Agreement
+Privacy Policy
+Your California Privacy Choices
+Cookie Policy
+Copyright Policy
+Brand Policy
+Guest Controls
+Community Guidelines
+Language
+Not you?
+Remove photo
+First name
+Last name
+Sign in
 Email or phone
 Password
 Show
 Forgot password?
-or
-By clicking Continue, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
-Sign in with Apple
-Sign in with a passkey
-New to LinkedIn? Join now
-LinkedIn
-© 2024
-User Agreement
-Privacy Policy
-Community Guidelines
-Cookie Policy
-Copyright Policy
-Send Feedback
-Language
-We’ve emailed a one-time link to your primary email address
-Click on the link to sign in instantly to your LinkedIn account.
-If you don’t see the email in your inbox, check your spam folder.
-Resend email
-Back
-Agree &amp; Join LinkedIn
-العربية (Arabic)
-বাংলা (Bangla)
-Čeština (Czech)
-Dansk (Danish)
-Deutsch (German)
-Ελληνικά (Greek)
-English (English)
-Español (Spanish)
-Suomi (Finnish)
-Français (French)
-हिंदी (Hindi)
-Magyar (Hungarian)
-Bahasa Indonesia (Indonesian)
-Italiano (Italian)
-日本語 (Japanese)
-한국어 (Korean)
-मराठी (Marathi)
-Bahasa Malaysia (Malay)
-Nederlands (Dutch)
-Norsk (Norwegian)
-ਪੰਜਾਬੀ (Punjabi)
-Polski (Polish)
-Português (Portuguese)
-Română (Romanian)
-Русский (Russian)
-Svenska (Swedish)
-తెలుగు (Telugu)
-ภาษาไทย (Thai)
-Tagalog (Tagalog)
-Türkçe (Turkish)
-Українська (Ukrainian)
-Tiếng Việt (Vietnamese)
-简体中文 (Chinese (Simplified))
-正體中文 (Chinese (Traditional))</t>
+Continue with GoogleContinue with Google
+New to Linkedin?  Join now</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
-        </is>
-      </c>
-      <c r="G34" s="1" t="n"/>
+          <t>2024-09-04 08:16:00</t>
+        </is>
+      </c>
+      <c r="G34" s="1" t="inlineStr">
+        <is>
+          <t>+ Join LinkedIn
++ Email
++ Password (6+ characters)
++ By clicking Agree &amp; Join, you agree to the LinkedIn User Agreement, Privacy Policy, and Cookie Policy.
++ Agree &amp; Join
++ or
++ Already on Linkedin? Sign in
++ Agree &amp; Join LinkedIn
++ By clicking Continue to join or sign in, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
++ Skip to main content
++ LinkedIn
++ © 2024
++ About
++ Accessibility
++ User Agreement
++ Privacy Policy
++ Your California Privacy Choices
++ Cookie Policy
++ Copyright Policy
++ Brand Policy
++ Guest Controls
++ Community Guidelines
++ Language
++ Not you?
++ Remove photo
++ First name
++ Last name
+- Stay updated on your professional world.
++ Continue with GoogleContinue with Google
+- or
+- By clicking Continue, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
+- Sign in with Apple
+- Sign in with a passkey
+- New to LinkedIn? Join now
++ New to Linkedin?  Join now
+- LinkedIn
+- © 2024
+- User Agreement
+- Privacy Policy
+- Community Guidelines
+- Cookie Policy
+- Copyright Policy
+- Send Feedback
+- Language
+- We’ve emailed a one-time link to your primary email address
+- Click on the link to sign in instantly to your LinkedIn account.
+- If you don’t see the email in your inbox, check your spam folder.
+- Resend email
+- Back
+- Agree &amp; Join LinkedIn
+- العربية (Arabic)
+- বাংলা (Bangla)
+- Čeština (Czech)
+- Dansk (Danish)
+- Deutsch (German)
+- Ελληνικά (Greek)
+- English (English)
+- Español (Spanish)
+- Suomi (Finnish)
+- Français (French)
+- हिंदी (Hindi)
+- Magyar (Hungarian)
+- Bahasa Indonesia (Indonesian)
+- Italiano (Italian)
+- 日本語 (Japanese)
+- 한국어 (Korean)
+- मराठी (Marathi)
+- Bahasa Malaysia (Malay)
+- Nederlands (Dutch)
+- Norsk (Norwegian)
+- ਪੰਜਾਬੀ (Punjabi)
+- Polski (Polish)
+- Português (Portuguese)
+- Română (Romanian)
+- Русский (Russian)
+- Svenska (Swedish)
+- తెలుగు (Telugu)
+- ภาษาไทย (Thai)
+- Tagalog (Tagalog)
+- Türkçe (Turkish)
+- Українська (Ukrainian)
+- Tiếng Việt (Vietnamese)
+- 简体中文 (Chinese (Simplified))
+- 正體中文 (Chinese (Traditional))</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -12056,7 +12197,7 @@
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G35" s="1" t="n"/>
@@ -12507,7 +12648,7 @@
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
@@ -13474,7 +13615,7 @@
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
@@ -14081,7 +14222,7 @@
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G38" s="1" t="n"/>
@@ -14098,267 +14239,6 @@
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t>Energieregulierung
-Aktuelles zum EnWG
-Zu den Informationen
-Gasversorgung
-Aktuelle Lage der Gasversorgung und Hintergrundinformationen
-Aktuelle Lage der Gasversorgung
-Beschlusskammern
-In den Beschlusskammern werden Regulierungsentscheidungen getroffen.
-Zu den Beschlusskammern
-Insight Blog
-Der Blog der Netze - Lesenswertes zu den Themen der Zukunft und der Arbeit der BNetzA.
-Zum Blog
-Updates per E-Mail
-Mailadresse
-BNetzA Aktuell
-02.09.2024
-Kohleausstieg: Wir haben erstmals kein Kohleverfeuerungsverbot angeordnet, um die gesetzlichen Ziele zu erreichen. Zum Stichtag für das Zieljahr 2027 sind bereits ausreichend Kohlekraftwerke aus dem Markt ausgeschieden. #KVBG
-➡️ bundesnetzagentur.de/1026708
-Wir konsultieren ab heute die Entwürfe der #Szenariorahmen Strom sowie Gas/Wasserstoff - die Grundlagen für die #Netzentwicklungsplan­ungen. Zwei Online-Veranstaltungen bieten die Gelegenheit, sich zu den Szenariorahmen zu informieren. Mehr dazu unter
-👉bundesnetzagentur.de/szenarior
-02.09.2024 Pressemitteilung
-Kohleausstieg - für 2027 erstmals kein Kohleverfeuerungsverbot erforderlich
-Bundesnetzagentur beteiligt Öffentlichkeit zu den Szenariorahmen Strom und Gas/Wasserstoff 2025–2037/2045
-30.08.2024
-Die #Bundesnetzagentur hat heute die Festlegung zur Verteilung der Mehrkosten veröffentlicht, die in Verteilernetzen mit besonders viel erneuerbarer #Stromerzeugung entstehen. Die Entlastung wird damit zum 1. Januar 2025 wirken. Weitere Informationen unter bundesnetzagentur.de/1026194
-Die #Bundesnetzagentur hat heute die erfolgreichen Gebote der Ausschreibung für #PV-#Freiflächenanlagen und für #Solaranlagen des Gebotstermins 1. Juli 2024 bekanntgegeben. ➡️Pressemitteilung unter bundesnetzagentur.de/1026346
-30.08.2024 Pressemitteilung
-Ergebnisse der Ausschreibung für PV-Freiflächenanlagen zum Gebotstermin 1. Juli 2024
-Bundesnetzagentur entscheidet zur fairen Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
-29.08.2024 Telekommunikation
-Mobiles Breitband
-29.08.2024
-Können wir das Internet regulieren? In Folge 2 unseres Podcasts sprechen wir über den Digital Services Act. Dr. Julia Marquier erklärt unsere neue Aufgabe als #DSC. Hört selbst, wie wir den digitalen Raum sicherer gestalten 👉🎧 bnetza.de/podcast
-28.08.2024
-Kurze, düstere Tage: Die kalte Jahreszeit ist eine Herausforderung für die #Energiewende – oder etwa doch nicht? Ob beispielsweise Windkraft die geringere Einspeisung der Solaranlagen ausgleicht, beantworten wir auf SMARD: smard.de/sharing/page/6570
-27.08.2024 Elektrizität und Gas
-Ausschreibung Biomasse: Gebotstermin 1. Oktober 2024
-Ausschreibung Solaranlagen zweites Segment: Gebotstermin 1. Oktober 2024
-26.08.2024 Telekommunikation
-Termine für Amateurfunkprüfungen (Stand 3. September 2024) (pdf, 90 KB)
-23.08.2024
-Wir sind auf der #gamescom2024! Besucht uns im Bereich "Jobs &amp; Career" und entdeckt spannende Karrieremöglichkeiten in IT &amp; Verwaltung. Noch bis Sonntag, 25. August, könnt ihr uns besuchen. Startet mit uns ins nächste Level eurer Karriere!
-23.08.2024 Insight Blog
-Der Feuerteufel in der Steckdose
-Funksteckdose fängt in Abwesenheit Feuer: Manche Geräte sind brandgefährlich. Dennoch geraten sie in den Handel. Wie sich die Online-Kundschaft schützen kann und wie wir Verbraucherinnen und Verbraucher schützen, berichten wir im #Insight-Blog 👉bundesnetzagentur.de/1024670
-22.08.2024
-In manchen Teilen Deutschlands gibt es mehr Windkraftanlagen, in anderen mehr PV-Anlagen. Welche Energieträge in deiner Nähe zur Stromerzeugung genutzt werden, verraten wir auf #SMARD: smard.de/page/home/topic-artic
-21.08.2024 Pressemitteilung
-Fortschritt beim Netzausbau: Bundesnetzagentur legt zweiten Trassenabschnitt für A-Nord fest
-Fortschritt beim Netzausbau:Trassenkorridor für Fulda-Main-Leitung festgelegt
-21.08.2024 Allgemeines
-Amtsblatt_16 (pdf, 397 KB)
-20.08.2024 Pressemitteilung
-Bundesnetzagentur leitet Verfahren gegen Energielieferanten ein
-20.08.2024
-Wir haben ein #Aufsichtsverfahren gegen die Elektrizitätsversorgung Berlin ElVeBe GmbH eingeleitet. Es besteht der Verdacht, dass das Unternehmen einige gesetzliche Voraussetzungen nicht einhält. Worum es genau geht ➡️➡️➡️ bundesnetzagentur.de/1023924
-16.08.2024 Pressemitteilung
-Fortschritt beim Netzausbau: Bundesnetzagentur schließt das Genehmigungsverfahren für die Leitung von Grafenrheinfeld nach Großgartach ab
-14.08.2024 Pressemitteilung
-Bundesnetzagentur legt Trasse für einen Abschnitt der Leitung Vieselbach - Mecklar fest
-14.08.2024
-Wolkenloser Himmel und strahlender Sonnenschein: Das gute Wetter hat am Wochenende für besonders gute Ergebnisse bei der Einspeisung durch #Erneuerbare gesorgt. In 11,5 Stunden konnten die Erneuerbaren die gesamte Netzlast in 🇩🇪 decken: smard.de/sharing/page/6526
-#SMARD
-13.08.2024 Elektrizität und Gas
-Engpasserlösbericht
-13.08.2024 Pressemitteilung
-Bundesnetzagentur genehmigt Verstärkung der Leitung zwischen Wullenstetten und Niederwangen
-12.08.2024
-Die Ergebnisse der #Offshore-Ausschreibungen für zentral voruntersuchte Flächen zum Gebotstermin 1. August 2024 sind veröffentlicht. Es handelt sich um Flächen in der Nordsee mit einer Gesamtleistung von 5.500 MW. Details zur Bekanntgabe 👉 bundesnetzagentur.de/1021880
-Die erste außergerichtliche Streitbeilegungsstelle in 🇩🇪 nach dem #DSA ist zertifiziert: Es ist die User Rights GmbH mit Sitz in Berlin. Die Stelle konzentriert sich auf Streitschlichtungen bei Social-Media-Plattformen. ➡️➡️➡️bundesnetzagentur.de/1019662
-12.08.2024 Pressemitteilung
-Ergebnisse der Offshore-Ausschreibungen für zentral voruntersuchte Flächen
-09.08.2024
-Die Zahl der Beschwerden zu Rufnummernmissbrauch erreichte auch 2023 ein hohes Niveau. Ein großer Teil betraf Belästigungen über Kurznachrichten, insbesondere im Zusammenhang mit dem sog. #Enkeltrick.
-#JahresberichtTK
-➡️www.bundesnetzagentur.de/berichte
-07.08.2024 Allgemeines
-Amtsblatt_15 (pdf, 1.020 KB)
-12.08.2024 Elektrizität und Gas
-Biomethan: Gebotstermin 1. September 2024
-Verbraucherportal
-Der direkte Weg zu den häufigsten Verbraucherfragen.
-Wählen Sie Ihr Thema
-Bitte auswählen
-Entlastungen bei Energiepreisen
-Ärger mit Rufnummern und Anrufen
-Internet und Telefon
-Internetgeschwindigkeit
-Lieferantenwechsel / Kündigung
-Post
-Schlichtung
-Los
-Fachthemen
-Auswahl der Themenbereiche für unser Fachpublikum
-Energie
-Telekom­munikation
-Digitalisierung
-Eisenbahnen
-Datenportal
-Zahlen und Daten der Bundesnetzagentur
-Zum Datenportal
-Ausbildung &amp; Studium
-Eine solide Ausbildung, gute Aufstiegsmöglichkeiten, spannende Aufgaben und ein tolles Team warten auf dich!
-Zu den Informationen und Angeboten
-Karriere
-Verwaltungstalente (w/m/d) für den Bereich "Koordinierung Internationales Energie"
-Programmierer*in / Softwareentwickler*in (w/m/d)
-Alle 20 Einträge ansehen
-Mediathek
-In der Mediathek finden Sie Berichte, Interviews, Bilder, Videos und weitere Informationen der Bundesnetzagentur.
-Zur Mediathek
-Interessante Links
-Pfeil nach links
-Pfeil nach rechts
-Navigation und Service
-Springe direkt zu:
-Inhalt
-Hauptmenu
-Suche
-Service
-KONTAKT
-ENGLISH
-LEICHTE SPRACHE
-GEBÄRDENSPRACHE VIDEOS
-RSS
-Fachthemen Verbraucherportal Datenportal Bundesnetzagentur Presse
-Startseite der Bundesnetzagentur
-Digital Services Coordinator
-DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen
-Zurück und Pause
-5 / 5
-Vor und Pause
-Pause
-Seite drucken Seite teilen Kurzlink
-Folgen Sie uns
-© BUNDESNETZAGENTUR - 2024
-ServiceMenu
-IMPRESSUM
-BARRIEREFREIHEIT
-DATENSCHUTZ
-INHALTSVERZEICHNIS
-Breitbandversorgung
-Funk und Frequenzen
-Marktregulierung
-Nummerierung
-Unternehmenspflichten
-Technik und Produktsicherheit
-Öffentliche Sicherheit
-Marktdaten
-Grundversorgung
-Unterversorgungsfeststellung
-Resilienz der Netze
-Beschlusskammer 2
-Beschlusskammer 3
-Beschlusskammer 11
-Platform-to-Business-Verordnung
-Technologien und Geschäftsmodelle
-Blockchain Infoportal
-Künstliche Intelligenz
-Online-Kommunikationsdienste
-Digitale Transformation
-Internet
-Netzneutralität
-Geoblocking
-Bekämpfung terroristischer Inhalte
-Internet of Things
-Peering- und Transitmärkte
-Digitale Transformation Mittelstand
-Kennzahlen
-Anlaufstellen für KMU (Datenbank)
-Best-Practice Übersicht
-Förderprogramme Bund
-Daten
-Förderwettbewerb Gaia-X
-Datenökonomie
-Datennutzungsgesetz
-Nachhaltigkeit
-Digitale Geschäftsmodelle
-Anreizsysteme KMU
-Indikatorenstudie
-Veranstaltungen
-Aktuelles
-Anbieterverzeichnis
-Marktbeobachtung
-Jährliche Datenerhebung
-Marktuntersuchungen
-Internationaler Briefpreisvergleich
-Paketpreisvergleich
-Meldestelle für Hinweisgebende
-Postgeheimnis und Datenschutz
-Postmarktprüfungen
-Qualitätsmonitoring
-Regelungen zur Postversorgung
-Sicherstellung des Postwesens
-Standardisierung
-Teilleistungen - Zugang und Entgelte
-Digitales und Telekommunikation
-Anfragen und Beschwerden
-Verbraucher-Radar
-Bundesnetzagentur
-Über uns
-Präsidium
-Aufgaben und Struktur
-Ausbildung und Studium
-Podcast Akte Tulpenfeld
-Beiräte, Gremien, Beauftragte
-Beirat
-Eisenbahninfrastrukturbeirat
-Bundesfachplanungsbeirat
-Länderausschuss
-Wissenschaftlicher Arbeitskreis für Regulierungsfragen
-Korruptionsprävention
-Internationales und Europa
-Energie (Internationales)
-ACER
-CEER
-PCI
-Telekommunikation
-BEREC
-IRG
-CEPT
-ITU
-RSPG
-RSC
-ERGP
-CEPT - CERP
-CEN
-UPU
-ISO
-IRG-Rail
-ENRRB
-Qualifizierte elektronische Signatur
-Shared Service Center
-Ausschreibungen
-Standorte
-Öffentliche Zustellung
-Kontakt
-Presse
-Pressemitteilungen
-Pressekontakt
-Amtsblatt
-Navigation
-Szenariorahmen      Bundesnetzagentur beteiligt Öffentlichkeit zu den Szenariorahmen Strom und Gas/Wasserstoff 2025–2037/2045
-Kohleausstieg       ...für 2027 erstmals kein Kohleverfeuerungsverbot erforderlich
-Erneuerbare Energien      Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
-Episode 2      Können wir das Internet regulieren?
-Wir sprechen mit Dr. Julia Marquier über den Digital Services Coordinator.
-Inhalte teilen
-per E-Mail schicken
-×
-Szenariorahmen
-Kohleausstieg
-...für 2027 erstmals kein Kohleverfeuerungsverbot erforderlich
-Erneuerbare Energien
-Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
-Episode 2
-Können wir das Internet regulieren?</t>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
         <is>
           <t>Energieregulierung
 Aktuelles zum EnWG
@@ -14621,6 +14501,270 @@
 DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen</t>
         </is>
       </c>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>Energieregulierung
+Aktuelles zum EnWG
+Zu den Informationen
+Gasversorgung
+Aktuelle Lage der Gasversorgung und Hintergrundinformationen
+Aktuelle Lage der Gasversorgung
+Beschlusskammern
+In den Beschlusskammern werden Regulierungsentscheidungen getroffen.
+Zu den Beschlusskammern
+Insight Blog
+Der Blog der Netze - Lesenswertes zu den Themen der Zukunft und der Arbeit der BNetzA.
+Zum Blog
+Updates per E-Mail
+Mailadresse
+BNetzA Aktuell
+04.09.2024 Allgemeines
+Amtsblatt_17 (pdf, 2 MB)
+02.09.2024
+Kohleausstieg: Wir haben erstmals kein Kohleverfeuerungsverbot angeordnet, um die gesetzlichen Ziele zu erreichen. Zum Stichtag für das Zieljahr 2027 sind bereits ausreichend Kohlekraftwerke aus dem Markt ausgeschieden. #KVBG
+➡️ bundesnetzagentur.de/1026708
+Wir konsultieren ab heute die Entwürfe der #Szenariorahmen Strom sowie Gas/Wasserstoff - die Grundlagen für die #Netzentwicklungsplan­ungen. Zwei Online-Veranstaltungen bieten die Gelegenheit, sich zu den Szenariorahmen zu informieren. Mehr dazu unter
+👉bundesnetzagentur.de/szenarior
+02.09.2024 Pressemitteilung
+Kohleausstieg - für 2027 erstmals kein Kohleverfeuerungsverbot erforderlich
+Bundesnetzagentur beteiligt Öffentlichkeit zu den Szenariorahmen Strom und Gas/Wasserstoff 2025–2037/2045
+30.08.2024
+Die #Bundesnetzagentur hat heute die Festlegung zur Verteilung der Mehrkosten veröffentlicht, die in Verteilernetzen mit besonders viel erneuerbarer #Stromerzeugung entstehen. Die Entlastung wird damit zum 1. Januar 2025 wirken. Weitere Informationen unter bundesnetzagentur.de/1026194
+Die #Bundesnetzagentur hat heute die erfolgreichen Gebote der Ausschreibung für #PV-#Freiflächenanlagen und für #Solaranlagen des Gebotstermins 1. Juli 2024 bekanntgegeben. ➡️Pressemitteilung unter bundesnetzagentur.de/1026346
+30.08.2024 Pressemitteilung
+Ergebnisse der Ausschreibung für PV-Freiflächenanlagen zum Gebotstermin 1. Juli 2024
+Bundesnetzagentur entscheidet zur fairen Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
+29.08.2024 Telekommunikation
+Mobiles Breitband
+29.08.2024
+Können wir das Internet regulieren? In Folge 2 unseres Podcasts sprechen wir über den Digital Services Act. Dr. Julia Marquier erklärt unsere neue Aufgabe als #DSC. Hört selbst, wie wir den digitalen Raum sicherer gestalten 👉🎧 bnetza.de/podcast
+28.08.2024
+Kurze, düstere Tage: Die kalte Jahreszeit ist eine Herausforderung für die #Energiewende – oder etwa doch nicht? Ob beispielsweise Windkraft die geringere Einspeisung der Solaranlagen ausgleicht, beantworten wir auf SMARD: smard.de/sharing/page/6570
+27.08.2024 Elektrizität und Gas
+Ausschreibung Biomasse: Gebotstermin 1. Oktober 2024
+Ausschreibung Solaranlagen zweites Segment: Gebotstermin 1. Oktober 2024
+26.08.2024 Telekommunikation
+Termine für Amateurfunkprüfungen (Stand 3. September 2024) (pdf, 90 KB)
+23.08.2024
+Wir sind auf der #gamescom2024! Besucht uns im Bereich "Jobs &amp; Career" und entdeckt spannende Karrieremöglichkeiten in IT &amp; Verwaltung. Noch bis Sonntag, 25. August, könnt ihr uns besuchen. Startet mit uns ins nächste Level eurer Karriere!
+23.08.2024 Insight Blog
+Der Feuerteufel in der Steckdose
+Funksteckdose fängt in Abwesenheit Feuer: Manche Geräte sind brandgefährlich. Dennoch geraten sie in den Handel. Wie sich die Online-Kundschaft schützen kann und wie wir Verbraucherinnen und Verbraucher schützen, berichten wir im #Insight-Blog 👉bundesnetzagentur.de/1024670
+22.08.2024
+In manchen Teilen Deutschlands gibt es mehr Windkraftanlagen, in anderen mehr PV-Anlagen. Welche Energieträge in deiner Nähe zur Stromerzeugung genutzt werden, verraten wir auf #SMARD: smard.de/page/home/topic-artic
+21.08.2024 Pressemitteilung
+Fortschritt beim Netzausbau: Bundesnetzagentur legt zweiten Trassenabschnitt für A-Nord fest
+Fortschritt beim Netzausbau:Trassenkorridor für Fulda-Main-Leitung festgelegt
+21.08.2024 Allgemeines
+Amtsblatt_16 (pdf, 397 KB)
+20.08.2024 Pressemitteilung
+Bundesnetzagentur leitet Verfahren gegen Energielieferanten ein
+20.08.2024
+Wir haben ein #Aufsichtsverfahren gegen die Elektrizitätsversorgung Berlin ElVeBe GmbH eingeleitet. Es besteht der Verdacht, dass das Unternehmen einige gesetzliche Voraussetzungen nicht einhält. Worum es genau geht ➡️➡️➡️ bundesnetzagentur.de/1023924
+16.08.2024 Pressemitteilung
+Fortschritt beim Netzausbau: Bundesnetzagentur schließt das Genehmigungsverfahren für die Leitung von Grafenrheinfeld nach Großgartach ab
+14.08.2024 Pressemitteilung
+Bundesnetzagentur legt Trasse für einen Abschnitt der Leitung Vieselbach - Mecklar fest
+14.08.2024
+Wolkenloser Himmel und strahlender Sonnenschein: Das gute Wetter hat am Wochenende für besonders gute Ergebnisse bei der Einspeisung durch #Erneuerbare gesorgt. In 11,5 Stunden konnten die Erneuerbaren die gesamte Netzlast in 🇩🇪 decken: smard.de/sharing/page/6526
+#SMARD
+13.08.2024 Elektrizität und Gas
+Engpasserlösbericht
+13.08.2024 Pressemitteilung
+Bundesnetzagentur genehmigt Verstärkung der Leitung zwischen Wullenstetten und Niederwangen
+12.08.2024
+Die Ergebnisse der #Offshore-Ausschreibungen für zentral voruntersuchte Flächen zum Gebotstermin 1. August 2024 sind veröffentlicht. Es handelt sich um Flächen in der Nordsee mit einer Gesamtleistung von 5.500 MW. Details zur Bekanntgabe 👉 bundesnetzagentur.de/1021880
+Die erste außergerichtliche Streitbeilegungsstelle in 🇩🇪 nach dem #DSA ist zertifiziert: Es ist die User Rights GmbH mit Sitz in Berlin. Die Stelle konzentriert sich auf Streitschlichtungen bei Social-Media-Plattformen. ➡️➡️➡️bundesnetzagentur.de/1019662
+12.08.2024 Pressemitteilung
+Ergebnisse der Offshore-Ausschreibungen für zentral voruntersuchte Flächen
+09.08.2024
+Die Zahl der Beschwerden zu Rufnummernmissbrauch erreichte auch 2023 ein hohes Niveau. Ein großer Teil betraf Belästigungen über Kurznachrichten, insbesondere im Zusammenhang mit dem sog. #Enkeltrick.
+#JahresberichtTK
+➡️www.bundesnetzagentur.de/berichte
+12.08.2024 Elektrizität und Gas
+Biomethan: Gebotstermin 1. September 2024
+Verbraucherportal
+Der direkte Weg zu den häufigsten Verbraucherfragen.
+Wählen Sie Ihr Thema
+Bitte auswählen
+Entlastungen bei Energiepreisen
+Ärger mit Rufnummern und Anrufen
+Internet und Telefon
+Internetgeschwindigkeit
+Lieferantenwechsel / Kündigung
+Post
+Schlichtung
+Los
+Fachthemen
+Auswahl der Themenbereiche für unser Fachpublikum
+Energie
+Telekom­munikation
+Digitalisierung
+Eisenbahnen
+Datenportal
+Zahlen und Daten der Bundesnetzagentur
+Zum Datenportal
+Ausbildung &amp; Studium
+Eine solide Ausbildung, gute Aufstiegsmöglichkeiten, spannende Aufgaben und ein tolles Team warten auf dich!
+Zu den Informationen und Angeboten
+Karriere
+Expert*innen für die Netzentwicklungsplanung (w/m/d)
+Verwaltungstalente (w/m/d) für den Bereich "Koordinierung Internationales Energie"
+Alle 21 Einträge ansehen
+Mediathek
+In der Mediathek finden Sie Berichte, Interviews, Bilder, Videos und weitere Informationen der Bundesnetzagentur.
+Zur Mediathek
+Interessante Links
+Pfeil nach links
+Pfeil nach rechts
+Navigation und Service
+Springe direkt zu:
+Inhalt
+Hauptmenu
+Suche
+Service
+KONTAKT
+ENGLISH
+LEICHTE SPRACHE
+GEBÄRDENSPRACHE VIDEOS
+RSS
+Fachthemen Verbraucherportal Datenportal Bundesnetzagentur Presse
+Startseite der Bundesnetzagentur
+Episode 2
+Können wir das Internet regulieren?
+Wir sprechen mit Dr. Julia Marquier über den Digital Services Coordinator.
+Zurück und Pause
+5 / 6
+Vor und Pause
+Pause
+Seite drucken Seite teilen Kurzlink
+Folgen Sie uns
+© BUNDESNETZAGENTUR - 2024
+ServiceMenu
+IMPRESSUM
+BARRIEREFREIHEIT
+DATENSCHUTZ
+INHALTSVERZEICHNIS
+Breitbandversorgung
+Funk und Frequenzen
+Marktregulierung
+Nummerierung
+Unternehmenspflichten
+Technik und Produktsicherheit
+Öffentliche Sicherheit
+Marktdaten
+Grundversorgung
+Unterversorgungsfeststellung
+Resilienz der Netze
+Beschlusskammer 2
+Beschlusskammer 3
+Beschlusskammer 11
+Digital Services Coordinator
+Platform-to-Business-Verordnung
+Technologien und Geschäftsmodelle
+Blockchain Infoportal
+Künstliche Intelligenz
+Online-Kommunikationsdienste
+Digitale Transformation
+Internet
+Netzneutralität
+Geoblocking
+Bekämpfung terroristischer Inhalte
+Internet of Things
+Peering- und Transitmärkte
+Digitale Transformation Mittelstand
+Kennzahlen
+Anlaufstellen für KMU (Datenbank)
+Best-Practice Übersicht
+Förderprogramme Bund
+Daten
+Förderwettbewerb Gaia-X
+Datenökonomie
+Datennutzungsgesetz
+Nachhaltigkeit
+Digitale Geschäftsmodelle
+Anreizsysteme KMU
+Indikatorenstudie
+Veranstaltungen
+Aktuelles
+Anbieterverzeichnis
+Marktbeobachtung
+Jährliche Datenerhebung
+Marktuntersuchungen
+Internationaler Briefpreisvergleich
+Paketpreisvergleich
+Meldestelle für Hinweisgebende
+Postgeheimnis und Datenschutz
+Postmarktprüfungen
+Qualitätsmonitoring
+Regelungen zur Postversorgung
+Sicherstellung des Postwesens
+Standardisierung
+Teilleistungen - Zugang und Entgelte
+Digitales und Telekommunikation
+Anfragen und Beschwerden
+Verbraucher-Radar
+Bundesnetzagentur
+Über uns
+Präsidium
+Aufgaben und Struktur
+Ausbildung und Studium
+Podcast Akte Tulpenfeld
+Beiräte, Gremien, Beauftragte
+Beirat
+Eisenbahninfrastrukturbeirat
+Bundesfachplanungsbeirat
+Länderausschuss
+Wissenschaftlicher Arbeitskreis für Regulierungsfragen
+Korruptionsprävention
+Internationales und Europa
+Energie (Internationales)
+ACER
+CEER
+PCI
+Telekommunikation
+BEREC
+IRG
+CEPT
+ITU
+RSPG
+RSC
+ERGP
+CEPT - CERP
+CEN
+UPU
+ISO
+IRG-Rail
+ENRRB
+Qualifizierte elektronische Signatur
+Shared Service Center
+Ausschreibungen
+Standorte
+Öffentliche Zustellung
+Kontakt
+Presse
+Pressemitteilungen
+Pressekontakt
+Amtsblatt
+Navigation
+Szenariorahmen      Bundesnetzagentur beteiligt Öffentlichkeit zu den Szenariorahmen Strom und Gas/Wasserstoff 2025–2037/2045
+Kohleausstieg       ...für 2027 erstmals kein Kohleverfeuerungsverbot erforderlich
+Fachtagung am 8./9. Oktober 2024      Aktuelle Probleme des Eisenbahnrechts
+Erneuerbare Energien      Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
+Digital Services Coordinator      DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen
+Inhalte teilen
+per E-Mail schicken
+×
+Szenariorahmen
+Kohleausstieg
+...für 2027 erstmals kein Kohleverfeuerungsverbot erforderlich
+Fachtagung am 8./9. Oktober 2024
+Aktuelle Probleme des Eisenbahnrechts
+Erneuerbare Energien
+Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
+DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen</t>
+        </is>
+      </c>
       <c r="E39" s="1" t="inlineStr">
         <is>
           <t>There is a change</t>
@@ -14628,33 +14772,24 @@
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>- Digital Services Coordinator
-- DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen
-+ Erneuerbare Energien
-+ Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
-+ Episode 2
-+ Können wir das Internet regulieren?
-+ Wir sprechen mit Dr. Julia Marquier über den Digital Services Coordinator.
-- 5 / 5
-+ 5 / 6
-+ Digital Services Coordinator
-+ Fachtagung am 8./9. Oktober 2024      Aktuelle Probleme des Eisenbahnrechts
-+ Digital Services Coordinator      DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen
-- Erneuerbare Energien      Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
-- Episode 2      Können wir das Internet regulieren?
-- Wir sprechen mit Dr. Julia Marquier über den Digital Services Coordinator.
-+ Fachtagung am 8./9. Oktober 2024
-+ Aktuelle Probleme des Eisenbahnrechts
-+ DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen
+          <t>+ 04.09.2024 Allgemeines
++ Amtsblatt_17 (pdf, 2 MB)
+- 07.08.2024 Allgemeines
+- Amtsblatt_15 (pdf, 1.020 KB)
++ Expert*innen für die Netzentwicklungsplanung (w/m/d)
+- Programmierer*in / Softwareentwickler*in (w/m/d)
+- Alle 20 Einträge ansehen
++ Alle 21 Einträge ansehen
 - Erneuerbare Energien
 - Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
-- Episode 2
-- Können wir das Internet regulieren?</t>
++ Erneuerbare Energien      Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
++ Erneuerbare Energien
++ Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien</t>
         </is>
       </c>
     </row>
@@ -14984,7 +15119,7 @@
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G40" s="1" t="n"/>
@@ -15427,7 +15562,7 @@
       </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G41" s="1" t="n"/>
@@ -15844,7 +15979,7 @@
       </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G42" s="1" t="n"/>
@@ -16193,7 +16328,7 @@
       </c>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G43" s="1" t="n"/>
@@ -16530,7 +16665,7 @@
       </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G44" s="1" t="n"/>
@@ -16999,7 +17134,7 @@
       </c>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G45" s="1" t="n"/>
@@ -18052,7 +18187,7 @@
       </c>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G46" s="1" t="n"/>
@@ -18613,7 +18748,7 @@
       </c>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G47" s="1" t="n"/>
@@ -19168,7 +19303,7 @@
       </c>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G48" s="1" t="n"/>
@@ -19649,7 +19784,7 @@
       </c>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G49" s="1" t="n"/>
@@ -20146,7 +20281,7 @@
       </c>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G50" s="1" t="n"/>
@@ -20629,7 +20764,7 @@
       </c>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G51" s="1" t="n"/>
@@ -21148,7 +21283,7 @@
       </c>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G52" s="1" t="n"/>
@@ -21737,7 +21872,7 @@
       </c>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G53" s="1" t="n"/>
@@ -22514,7 +22649,7 @@
       </c>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G54" s="1" t="n"/>
@@ -23017,7 +23152,7 @@
       </c>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G55" s="1" t="n"/>
@@ -23568,7 +23703,7 @@
       </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G56" s="1" t="n"/>
@@ -24053,7 +24188,7 @@
       </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G57" s="1" t="n"/>
@@ -24560,7 +24695,7 @@
       </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G58" s="1" t="n"/>
@@ -25049,7 +25184,7 @@
       </c>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G59" s="1" t="n"/>
@@ -25554,7 +25689,7 @@
       </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G60" s="1" t="n"/>
@@ -26051,7 +26186,7 @@
       </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G61" s="1" t="n"/>
@@ -26536,7 +26671,7 @@
       </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G62" s="1" t="n"/>
@@ -27071,7 +27206,7 @@
       </c>
       <c r="F63" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G63" s="1" t="n"/>
@@ -27602,7 +27737,7 @@
       </c>
       <c r="F64" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G64" s="1" t="n"/>
@@ -28187,7 +28322,7 @@
       </c>
       <c r="F65" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G65" s="1" t="n"/>
@@ -28706,7 +28841,7 @@
       </c>
       <c r="F66" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G66" s="1" t="n"/>
@@ -29195,7 +29330,7 @@
       </c>
       <c r="F67" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G67" s="1" t="n"/>
@@ -29734,7 +29869,7 @@
       </c>
       <c r="F68" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G68" s="1" t="n"/>
@@ -30257,7 +30392,7 @@
       </c>
       <c r="F69" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G69" s="1" t="n"/>
@@ -30429,17 +30564,17 @@
 BVES bei EEW-Stake­hol­der­kon­sul­ta­tion: Strom­ba­sierte Pro­zess­wär­me­er­zeu­gung mit­den­ken!
 KOMMENDE
 TERMINE
-03.09.2024
-BVES Sta­tus­kon­fe­renz Stan­dards und Nor­mung 2024
-Online — Nur für BVES-Mit­glie­der
 17.09.2024
 BVES AG Finan­zen
+Online — Nur für BVES-Mit­glie­der
 18.09.2024
 BVES Brand­schutz­leit­fa­den Über­ar­bei­tung 2024
 BVES AG Ener­gie­recht
 19.09.2024
 BVES AG Was­ser­stoff &amp; PtX
 Event in Ber­lin — Nur für BVES-Mit­glie­der
+24.09.2024
+BVES Policy Recap
 Alle Termine
 Mitglieder
 WER IST SCHON DABEI?
@@ -30535,15 +30670,24 @@
       </c>
       <c r="E70" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F70" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
-        </is>
-      </c>
-      <c r="G70" s="1" t="n"/>
+          <t>2024-09-04 08:16:00</t>
+        </is>
+      </c>
+      <c r="G70" s="1" t="inlineStr">
+        <is>
+          <t>- 03.09.2024
+- BVES Sta­tus­kon­fe­renz Stan­dards und Nor­mung 2024
+- Online — Nur für BVES-Mit­glie­der
++ Online — Nur für BVES-Mit­glie­der
++ 24.09.2024
++ BVES Policy Recap</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n"/>
@@ -30831,7 +30975,7 @@
       </c>
       <c r="F71" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G71" s="1" t="n"/>
@@ -31342,7 +31486,7 @@
       </c>
       <c r="F72" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G72" s="1" t="n"/>
@@ -31561,7 +31705,7 @@
       </c>
       <c r="F73" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G73" s="1" t="n"/>
@@ -31578,152 +31722,6 @@
         </is>
       </c>
       <c r="C74" s="1" t="inlineStr">
-        <is>
-          <t>Menu
-Verband
-Energie
-Wasser/Abwasser
-Presse
-MAGAZIN
-Service
-Übersicht
-Erdgas, Strom und Heizwärme sowie Wasser und Abwasser. Der BDEW vertritt über 2000 Unternehmen.
-Zum Verband
-Über uns
-KMU-Vertretung
-BDEW-Vertretung bei der EU
-Landesorganisationen
-Mitglieder
-Mitglied werden
-Karriere
-Kontakt und Anfahrt
-Zum Magazin
-Dossiers
-Ausgewählte Themen der Energiewirtschaft auf einen Blick.
-Wasserstoff
-Digitalisierung
-Gas
-Themen
-Elektromobilität
-Energieeffizienz
-Energiepolitik
-Erneuerbare Energien
-Sektorkopplung
-Stromerzeugung
-Wärme
-Weitere Energiethemen
-Ausführliche Informationen und Hintergründe zu aktuellen Entwicklungen in der Trinkwasser- und Abwasserwirtschaft.
-Spurenstoffe in Gewässern
-Nitrat im Grundwasser
-Abwasser
-Benchmarking und Branchenbild
-Digitalisierung der Wasserwirtschaft
-Entgelte/Gebühren
-Kommunikation
-Ordnungspolitik
-Trinkwasser
-Weitere Wasser-/Abwasserthemen
-Informationen für Journalisten
-Zum Pressecenter
-Presseinformationen
-Pressemappen
-Pressefotos
-Ansprechpartner
-"Zweitausend50" - das Online-Magazin
-STARTSEITE
-Schnittstelle
-Schulden bremsen?
-Asia Calling
-Mobilität
-ZUR ÜBERSICHT
-Der BDEW erarbeitet Branchenpositionen, findet Lösungen, erstellt Zahlenmaterial und Grafiken und bereitet diverse Informationen rund um die Themen der Energie- und Wasserwirtschaft auf.
-Anwendungshilfen
-BDEW Codes
-Bildung und Schule
-Datenplattform Stromkennzeichnung
-EDI@Energy
-Standardverträge
-Stellungnahmen
-Veranstaltungen
-Marktprozesse im Überblick
-Zu Daten und Grafiken
-Suche
-Anmelden
-BDEW-Anwendungshilfen im Überblick
-Gewusst wie: Aktuelle Leitfäden und Umsetzungshilfen des BDEW zu den Themen der Energie- und Wasserwirtschaft.
-MEHR ERFAHREN
-BDEW-Strompreisanalyse Juli 2024
-Detallierte Infos zu Steuern, Abgaben und Umlagen: So haben sich die Preise für Haushalte und Industrie entwickelt.
-ZUR ANALYSE
-Trinkwassergebrauch in Hitzeperioden:
-BDEW-Tipps für einen schonenden Umgang mit Trinkwasser in Hitzeperioden
-ZUR PRESSEINFORMATION
-BDEW-Gaspreisanalyse
-Einfamilien- und Mehrfamilienhäuser: Aktuelle Entwicklung der Gaspreise für Haushaltskunden in Deutschland.
-Der BDEW in Zahlen 2024
-38
-51
-165
-Fachartikel
-&gt;2000
-In­stal­la­teur­ver­zeich­nis Strom/ Gas/ Wasser
-So gelangen Sie zu Ihren AnsprechpartnerInnen in den Landesinstallateurausschüssen
-Die wichtigsten Themen der Energie- und Wasserwirtschaft im Überblick.
-Elek­tro­mo­bi­li­tät
-Wir bringen die En­er­gie­wen­de in den Ver­kehrs­sek­tor
-En­er­gie­ef­fi­zi­enz
-Eine wichtige Säule der En­er­gie­wen­de und Zu­kunfts­bran­che der En­er­gie­wirt­schaft.
-EU DSO Entity (EUDE)
-EUDE wird neue VNB-Or­ga­ni­sa­ti­on in der Eu­ro­päi­schen Union
-Di­gi­ta­li­sie­rung
-Eine Branche erfindet sich neu. Im Fokus der di­gi­ta­li­sier­ten En­er­gie­welt steht der Kunde.
-Der Wär­me­markt ist mit rund 59 Prozent größte End­ener­gie­ver­brauchs­sek­tor Deutsch­lands.
-Mul­ti­ta­lent für die En­er­gie­wen­de und Partner der Er­neu­er­ba­ren Energien
-Trink­was­ser­schutz
-For­de­run­gen der Was­ser­wirt­schaft zum richtigen Umgang mit Me­di­ka­men­ten.
-Re­dis­patch 2.0
-Ziel ist das ef­fi­zi­en­te Beheben von Net­z­eng­päs­sen über alle Netz­ebe­nen hinweg - Die Bran­chen­lö­sung im BDEW
-Der Verband
-Strom, Erdgas und Wärme sowie Wasser und Abwasser. Der BDEW vertritt über 2.000 Unternehmen der Branche.
-Services des Verbandes
-Daten und Grafiken
-BDEW-Magazin
-ÜBER UNS
-NEUE MITGLIEDER
-LANDESORGANISATIONEN
-Der BDEW ist die "eine Stimme" der Energie- und Wasserwirtschaft
-Wir gestalten die Energiewende und sind verlässlicher Partner für Politik, Kunden und Gesellschaft.
-Daten/Grafiken
-Bereiche und Abteilungen
-Der BDEW in den sozialen Netzwerken:
-Zum Mitgliederbereich
-LOGIN
-2024 BDEW
-Rechtliches | Impressum | Datenschutz
-0
-BDEW-Ver­an­stal­tun­gen
-BDEW Kongress, Treffpunkt Netze und mehr – Seien Sie dabei!
-Mehr erfahren
-An­bie­ter­lis­te Dienst­leis­ter Re­dis­patch 2.0
-Auf der Website des BDEW finden Sie eine offene Liste mit Unternehmen, die Dienstleistungen für Anlagenbetreiber im Rahmen des neuen Redispatchregimes erbringen.
-Zur Anbieterliste
-Unterrichtsmaterialien zu aktuellen Energie- und Wasser/Abwasser-Themen
-Mehr
-BDEW-We­bi­na­re
-Die aktuellen Themen der Energie- und Wasserwirtschaft - kostenfrei für Mitgliedsunternehmen.
-Zu den Webinaren
-VN­Bdi­gi­tal
-Netzanschluss, Netzausbaupläne und Regionalszenarien: Das Netzportal der Verteilnetzbetreiber
-Zum Portal
-Alles Wasser Volt
-Deine Zukunft für eine nachhaltige Zukunft: Bewirb Dich jetzt in der Energie- und Wasserwirtschaft
-Der BDEW begrüßt seine neuen Mitglieder
-Verstärkung für den BDEW: Erfahren Sie mehr über unsere neuen Mitglieder.
-Für Sie vor Ort: Die Landesorganisationen sind Ihr regionaler Ansprechpartner.
-Sie übernehmen die  Interessenvertretung und bearbeiten länderspezifische Themen.</t>
-        </is>
-      </c>
-      <c r="D74" s="1" t="inlineStr">
         <is>
           <t>Menu
 Verband
@@ -31870,6 +31868,152 @@
 Sie übernehmen die  Interessenvertretung und bearbeiten länderspezifische Themen.</t>
         </is>
       </c>
+      <c r="D74" s="1" t="inlineStr">
+        <is>
+          <t>Menu
+Verband
+Energie
+Wasser/Abwasser
+Presse
+MAGAZIN
+Service
+Übersicht
+Erdgas, Strom und Heizwärme sowie Wasser und Abwasser. Der BDEW vertritt über 2000 Unternehmen.
+Zum Verband
+Über uns
+KMU-Vertretung
+BDEW-Vertretung bei der EU
+Landesorganisationen
+Mitglieder
+Mitglied werden
+Karriere
+Kontakt und Anfahrt
+Zum Magazin
+Dossiers
+Ausgewählte Themen der Energiewirtschaft auf einen Blick.
+Wasserstoff
+Digitalisierung
+Gas
+Themen
+Elektromobilität
+Energieeffizienz
+Energiepolitik
+Erneuerbare Energien
+Sektorkopplung
+Stromerzeugung
+Wärme
+Weitere Energiethemen
+Ausführliche Informationen und Hintergründe zu aktuellen Entwicklungen in der Trinkwasser- und Abwasserwirtschaft.
+Spurenstoffe in Gewässern
+Nitrat im Grundwasser
+Abwasser
+Benchmarking und Branchenbild
+Digitalisierung der Wasserwirtschaft
+Entgelte/Gebühren
+Kommunikation
+Ordnungspolitik
+Trinkwasser
+Weitere Wasser-/Abwasserthemen
+Informationen für Journalisten
+Zum Pressecenter
+Presseinformationen
+Pressemappen
+Pressefotos
+Ansprechpartner
+"Zweitausend50" - das Online-Magazin
+STARTSEITE
+Schnittstelle
+Schulden bremsen?
+Asia Calling
+Mobilität
+ZUR ÜBERSICHT
+Der BDEW erarbeitet Branchenpositionen, findet Lösungen, erstellt Zahlenmaterial und Grafiken und bereitet diverse Informationen rund um die Themen der Energie- und Wasserwirtschaft auf.
+Anwendungshilfen
+BDEW Codes
+Bildung und Schule
+Datenplattform Stromkennzeichnung
+EDI@Energy
+Standardverträge
+Stellungnahmen
+Veranstaltungen
+Marktprozesse im Überblick
+Zu Daten und Grafiken
+Suche
+Anmelden
+BDEW-Anwendungshilfen im Überblick
+Gewusst wie: Aktuelle Leitfäden und Umsetzungshilfen des BDEW zu den Themen der Energie- und Wasserwirtschaft.
+MEHR ERFAHREN
+BDEW-Strompreisanalyse Juli 2024
+Detallierte Infos zu Steuern, Abgaben und Umlagen: So haben sich die Preise für Haushalte und Industrie entwickelt.
+ZUR ANALYSE
+Trinkwassergebrauch in Hitzeperioden:
+BDEW-Tipps für einen schonenden Umgang mit Trinkwasser in Hitzeperioden
+ZUR PRESSEINFORMATION
+BDEW-Gaspreisanalyse
+Einfamilien- und Mehrfamilienhäuser: Aktuelle Entwicklung der Gaspreise für Haushaltskunden in Deutschland.
+Der BDEW in Zahlen 2024
+38
+51
+165
+Fachartikel
+&gt;2000
+In­stal­la­teur­ver­zeich­nis Strom/ Gas/ Wasser
+So gelangen Sie zu Ihren AnsprechpartnerInnen in den Landesinstallateurausschüssen
+Die wichtigsten Themen der Energie- und Wasserwirtschaft im Überblick.
+Elek­tro­mo­bi­li­tät
+Wir bringen die En­er­gie­wen­de in den Ver­kehrs­sek­tor
+En­er­gie­ef­fi­zi­enz
+Eine wichtige Säule der En­er­gie­wen­de und Zu­kunfts­bran­che der En­er­gie­wirt­schaft.
+EU DSO Entity (EUDE)
+EUDE wird neue VNB-Or­ga­ni­sa­ti­on in der Eu­ro­päi­schen Union
+Di­gi­ta­li­sie­rung
+Eine Branche erfindet sich neu. Im Fokus der di­gi­ta­li­sier­ten En­er­gie­welt steht der Kunde.
+Der Wär­me­markt ist mit rund 59 Prozent größte End­ener­gie­ver­brauchs­sek­tor Deutsch­lands.
+Mul­ti­ta­lent für die En­er­gie­wen­de und Partner der Er­neu­er­ba­ren Energien
+Trink­was­ser­schutz
+For­de­run­gen der Was­ser­wirt­schaft zum richtigen Umgang mit Me­di­ka­men­ten.
+Re­dis­patch 2.0
+Ziel ist das ef­fi­zi­en­te Beheben von Net­z­eng­päs­sen über alle Netz­ebe­nen hinweg - Die Bran­chen­lö­sung im BDEW
+Der Verband
+Strom, Erdgas und Wärme sowie Wasser und Abwasser. Der BDEW vertritt über 2.000 Unternehmen der Branche.
+Services des Verbandes
+Daten und Grafiken
+BDEW-Magazin
+ÜBER UNS
+NEUE MITGLIEDER
+LANDESORGANISATIONEN
+Der BDEW ist die "eine Stimme" der Energie- und Wasserwirtschaft
+Wir gestalten die Energiewende und sind verlässlicher Partner für Politik, Kunden und Gesellschaft.
+Daten/Grafiken
+Bereiche und Abteilungen
+Der BDEW in den sozialen Netzwerken:
+Zum Mitgliederbereich
+LOGIN
+2024 BDEW
+Rechtliches | Impressum | Datenschutz
+0
+BDEW-Ver­an­stal­tun­gen
+BDEW Kongress, Treffpunkt Netze und mehr – Seien Sie dabei!
+Mehr erfahren
+An­bie­ter­lis­te Dienst­leis­ter Re­dis­patch 2.0
+Auf der Website des BDEW finden Sie eine offene Liste mit Unternehmen, die Dienstleistungen für Anlagenbetreiber im Rahmen des neuen Redispatchregimes erbringen.
+Zur Anbieterliste
+Unterrichtsmaterialien zu aktuellen Energie- und Wasser/Abwasser-Themen
+Mehr
+BDEW-We­bi­na­re
+Die aktuellen Themen der Energie- und Wasserwirtschaft - kostenfrei für Mitgliedsunternehmen.
+Zu den Webinaren
+VN­Bdi­gi­tal
+Netzanschluss, Netzausbaupläne und Regionalszenarien: Das Netzportal der Verteilnetzbetreiber
+Zum Portal
+Alles Wasser Volt
+Deine Zukunft für eine nachhaltige Zukunft: Bewirb Dich jetzt in der Energie- und Wasserwirtschaft
+Der BDEW begrüßt seine neuen Mitglieder
+Verstärkung für den BDEW: Erfahren Sie mehr über unsere neuen Mitglieder.
+Für Sie vor Ort: Die Landesorganisationen sind Ihr regionaler Ansprechpartner.
+Sie übernehmen die  Interessenvertretung und bearbeiten länderspezifische Themen.</t>
+        </is>
+      </c>
       <c r="E74" s="1" t="inlineStr">
         <is>
           <t>There is a change</t>
@@ -31877,24 +32021,24 @@
       </c>
       <c r="F74" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G74" s="1" t="inlineStr">
         <is>
-          <t>+ Marktprozesse im Überblick
-- Marktprozesse im Überblick
+          <t>+ Veranstaltungen
+- Veranstaltungen
++ In­stal­la­teur­ver­zeich­nis Strom/ Gas/ Wasser
++ So gelangen Sie zu Ihren AnsprechpartnerInnen in den Landesinstallateurausschüssen
+- VN­Bdi­gi­tal
+- Netzanschluss, Netzausbaupläne und Regionalszenarien: Das Netzportal der Verteilnetzbetreiber
+- ZUM PORTAL
 - In­stal­la­teur­ver­zeich­nis Strom/ Gas/ Wasser
 - So gelangen Sie zu Ihren AnsprechpartnerInnen in den Landesinstallateurausschüssen
+- Zur Übersicht
 + VN­Bdi­gi­tal
 + Netzanschluss, Netzausbaupläne und Regionalszenarien: Das Netzportal der Verteilnetzbetreiber
-+ ZUM PORTAL
-- VN­Bdi­gi­tal
-- Netzanschluss, Netzausbaupläne und Regionalszenarien: Das Netzportal der Verteilnetzbetreiber
-- Zum Portal
-+ In­stal­la­teur­ver­zeich­nis Strom/ Gas/ Wasser
-+ So gelangen Sie zu Ihren AnsprechpartnerInnen in den Landesinstallateurausschüssen
-+ Zur Übersicht</t>
++ Zum Portal</t>
         </is>
       </c>
     </row>
@@ -31906,6 +32050,128 @@
         </is>
       </c>
       <c r="C75" s="1" t="inlineStr">
+        <is>
+          <t>Menu
+Verband
+Energie
+Wasser/Abwasser
+Presse
+MAGAZIN
+Service
+Übersicht
+Erdgas, Strom und Heizwärme sowie Wasser und Abwasser. Der BDEW vertritt über 2000 Unternehmen.
+Zum Verband
+Über uns
+KMU-Vertretung
+BDEW-Vertretung bei der EU
+Landesorganisationen
+Mitglieder
+Mitglied werden
+Karriere
+Kontakt und Anfahrt
+Zum Magazin
+Dossiers
+Ausgewählte Themen der Energiewirtschaft auf einen Blick.
+Wasserstoff
+Digitalisierung
+Gas
+Themen
+Elektromobilität
+Energieeffizienz
+Energiepolitik
+Erneuerbare Energien
+Sektorkopplung
+Stromerzeugung
+Wärme
+Weitere Energiethemen
+Ausführliche Informationen und Hintergründe zu aktuellen Entwicklungen in der Trinkwasser- und Abwasserwirtschaft.
+Spurenstoffe in Gewässern
+Nitrat im Grundwasser
+Abwasser
+Benchmarking und Branchenbild
+Digitalisierung der Wasserwirtschaft
+Entgelte/Gebühren
+Kommunikation
+Ordnungspolitik
+Trinkwasser
+Weitere Wasser-/Abwasserthemen
+Informationen für Journalisten
+Zum Pressecenter
+Presseinformationen
+Pressemappen
+Pressefotos
+Ansprechpartner
+"Zweitausend50" - das Online-Magazin
+STARTSEITE
+Schnittstelle
+Schulden bremsen?
+Asia Calling
+Mobilität
+ZUR ÜBERSICHT
+Der BDEW erarbeitet Branchenpositionen, findet Lösungen, erstellt Zahlenmaterial und Grafiken und bereitet diverse Informationen rund um die Themen der Energie- und Wasserwirtschaft auf.
+Anwendungshilfen
+BDEW Codes
+Bildung und Schule
+Datenplattform Stromkennzeichnung
+EDI@Energy
+Standardverträge
+Stellungnahmen
+Marktprozesse im Überblick
+Veranstaltungen
+Zu Daten und Grafiken
+Suche
+Anmelden
+Energie  Erneuerbare Energien
+Art des Inhalts
+Typ
+ZURÜCKSETZEN SUCHEN
+GRAFIK
+30.08.2024
+Wind­ener­gie­an­la­gen in Deutsch­land
+Anzahl und in­stal­lier­te Leistung nach Bun­des­län­dern bzw. Nord-und Ostsee
+STEL­LUNG­NAH­ME
+BDEW-Stel­lung­nah­me zum Re­fe­ren­ten­ent­wurf eines Gesetzes zur Umsetzung der RED III für Zu­las­sungs­verf ...
+PRES­SE­INFOR­MA­TI­ON
+Wichtige Ent­las­tung für Regionen mit besonders hohem Er­neu­er­ba­ren-Aus­bau
+Die Bun­des­netz­agen­tur (BNetzA) hat heute eine Fest­le­gung zur Ver­tei­lung der Mehr­kos­ten ver­öf­fent­licht, die in Strom­ver­tei­ler­net­zen mit besonders...
+29.08.2024
+BDEW-Stel­lung­nah­me zu den na­tur­schutz­fach­li­chen Min­dest­kri­te­ri­en bei PV-Frei­flä­chen­an­la­gen in Verbin ...
+20.08.2024
+Mo­nat­li­che Strom­er­zeu­gung in Deutsch­land
+Mo­nat­li­che Strom­er­zeu­gung aus Er­neu­er­ba­ren Energien
+Brut­to­strom­er­zeu­gung, Ver­än­de­rung zum Vor­jah­res­zeit­raum in Prozent
+Was­ser­kraft in Deutsch­land
+Nutzung der Was­ser­kraft in Deutsch­land – in­stal­lier­te Leistung und Strom­er­zeu­gung
+Mo­nat­li­che Strom­er­zeu­gung aus So­lar­ener­gie in Deutsch­land
+19.08.2024
+Kerstin Andreae zum Bun­des­haus­halt 2025 und zum KTF
++ Globale Min­der­aus­ga­be ist deutlich zu groß bemessen und schürt Un­si­cher­heit + Wär­me­net­ze brauchen starke Förderung + Um­schich­tung des...
+16.08.2024
+Kerstin Andreae zur Einigung auf den Bun­des­haus­halt 2025
+Am heutigen Freitag hat sich die Am­pel-Ko­ali­ti­on auf den Bun­des­haus­halt 2025 geeinigt. Hierzu erklärt Kerstin Andreae, Vor­sit­zen­de der...
+602 Ergebnisse | Seite
+1
+2
+3
+4
+5
+6
+›
+»
+Daten/Grafiken
+Bereiche und Abteilungen
+BDEW-Magazin
+Der BDEW in den sozialen Netzwerken:
+Zum Mitgliederbereich
+LOGIN
+2024 BDEW
+Rechtliches | Impressum | Datenschutz
+0
+StellungnahmenPresseinformationDossierVeranstaltungenArtikelAnwendungshilfenMagazinGrafikPublikationKeine Ergebnisse gefunden
+Erneuerbare EnergienAbfallAbsatz und VerbrauchAbwasserAnreizregulierungArzneimittelrückständeAus dem VerbandAusschreibungenAVVBafaBatteriespeicherBetriebswirtschaftBildung und SchuleBiogas / BiomethanBiomasseBNetzABNKBürokratieabbauCO2ContractingCorona-VirusDaten und AnalysenDaten/GrafikenDekarbonisierungDezentrale ErzeugungDigitalisierungDirektvermarktungDownloadcenter GasEEGEffizienzEigenerzeugungEigenkapitalverzinsungEigenverbrauchElektromobilitätEmissionsgrenzwerteEmissionszertifikatehandelEnergieEnergie allgemeinEnergie- und KlimapolitikEnergie- und Wasserdaten interaktivEnergieberatungEnergiebinnenmarktEnergiedienstleistungenEnergieeffizienzEnergieeinsparungEnergiehandelEnergieinfrastrukturEnergienetze und RegulierungEnergiepolitikEnergiepreiseEnergiepreiskriseEnergiespeicherEnergieversorgungEnergievertriebEnergiewendeEnergiewirtschaftEntflechtungEntgelte / GebührenEnWGErdgasErzeugungErzeugung und SystemintegrationEuropaEuropäische BeihilfepolitikFachkräfteFernwärmeFinanzierungFlexibilitätFörderungForschung und EntwicklungGasGas-MarketingGasanwendungenGasmarktGasmobilitätGasspeicherGebührenGenehmigungsverfahrenGeschäftsmodelleGesetzeGesetze und VerordnungenGrafikenGrünes GasHandelHeizkostenHeizungHeizungsmarktImmissionsschutzrechtImportIndustrieInfrastrukturInnovationInternationalesInvestitionenITIT-SicherheitKapazitätKennzahlenklimaneutrales GasKlimaschutzKlimawandelKMUKohleKohleausstiegKommunikationKonventionelle EnergienKraft-Wärme-KopplungKraftwerkeKritische InfrastrukturenKWKKWK-GLadeinfrastrukturLeitungs- und WegerechtLNGMagazin Asia CallingMagazin AufbruchMagazin DynamikMagazin EuropaMagazin GeldMagazin Generation NeuMagazin InfrastrukturMagazin MobilitätMagazin PerspektiveMagazin RisikoMagazin SchnittstelleMagazin Schulden bremsen?Magazin Stadt Land FlussMagazin StoffwechselMagazin WachstumMagazin Wer rettet den Markt?Markt- und SystemintegrationMarktdesignMarktpartnerMarktstammdatenMediathek GasMieterstromMobilitätModernisierungNaturschutzNetwork CodesNetzanschlussNetzausbauNetzbetreiberNetzeNetzentgelteNetzwirtschaftNetzzugangoffshoreOffshore-AusbauonshorePhotovoltaikPlusPower-to-GasPower-to-XPreisePressegrafikPrimärenergiePumpspeicherRechtRedispatchRegulierungsbehördeSektorkopplungSmart CitySmart GridsSmart MeterSolarthermieSpeicherStadtwerkeStart-upStatistikStromStromerzeugungStromkennzeichnungStromsteuerStudienSystemstabilitätTechnologienTelekommunikationTrinkwasserÜbertragungsnetzbetreiberUkraineUkraine-KriegUmlageUmwelt und KlimaUmweltpolitikUmweltschutzVerbrauchVerbraucherVerkehrVersorgungssicherheitVerteilnetzbetreiberVertriebWärmeWärmemarktWärmenetzWärmewendeWasserWasser/AbwasserWasserkraftWasserrechtWasserstoffWasserwirtschaftWettbewerbWindenergieWohnungswirtschaftZahl der WocheKeine Ergebnisse gefunden</t>
+        </is>
+      </c>
+      <c r="D75" s="1" t="inlineStr">
         <is>
           <t>Menu
 Verband
@@ -32027,128 +32293,6 @@
 Erneuerbare EnergienAbfallAbsatz und VerbrauchAbwasserAnreizregulierungArzneimittelrückständeAus dem VerbandAusschreibungenAVVBafaBatteriespeicherBetriebswirtschaftBildung und SchuleBiogas / BiomethanBiomasseBNetzABNKBürokratieabbauCO2ContractingCorona-VirusDaten und AnalysenDaten/GrafikenDekarbonisierungDezentrale ErzeugungDigitalisierungDirektvermarktungDownloadcenter GasEEGEffizienzEigenerzeugungEigenkapitalverzinsungEigenverbrauchElektromobilitätEmissionsgrenzwerteEmissionszertifikatehandelEnergieEnergie allgemeinEnergie- und KlimapolitikEnergie- und Wasserdaten interaktivEnergieberatungEnergiebinnenmarktEnergiedienstleistungenEnergieeffizienzEnergieeinsparungEnergiehandelEnergieinfrastrukturEnergienetze und RegulierungEnergiepolitikEnergiepreiseEnergiepreiskriseEnergiespeicherEnergieversorgungEnergievertriebEnergiewendeEnergiewirtschaftEntflechtungEntgelte / GebührenEnWGErdgasErzeugungErzeugung und SystemintegrationEuropaEuropäische BeihilfepolitikFachkräfteFernwärmeFinanzierungFlexibilitätFörderungForschung und EntwicklungGasGas-MarketingGasanwendungenGasmarktGasmobilitätGasspeicherGebührenGenehmigungsverfahrenGeschäftsmodelleGesetzeGesetze und VerordnungenGrafikenGrünes GasHandelHeizkostenHeizungHeizungsmarktImmissionsschutzrechtImportIndustrieInfrastrukturInnovationInternationalesInvestitionenITIT-SicherheitKapazitätKennzahlenklimaneutrales GasKlimaschutzKlimawandelKMUKohleKohleausstiegKommunikationKonventionelle EnergienKraft-Wärme-KopplungKraftwerkeKritische InfrastrukturenKWKKWK-GLadeinfrastrukturLeitungs- und WegerechtLNGMagazin Asia CallingMagazin AufbruchMagazin DynamikMagazin EuropaMagazin GeldMagazin Generation NeuMagazin InfrastrukturMagazin MobilitätMagazin PerspektiveMagazin RisikoMagazin SchnittstelleMagazin Schulden bremsen?Magazin Stadt Land FlussMagazin StoffwechselMagazin WachstumMagazin Wer rettet den Markt?Markt- und SystemintegrationMarktdesignMarktpartnerMarktstammdatenMediathek GasMieterstromMobilitätModernisierungNaturschutzNetwork CodesNetzanschlussNetzausbauNetzbetreiberNetzeNetzentgelteNetzwirtschaftNetzzugangoffshoreOffshore-AusbauonshorePhotovoltaikPlusPower-to-GasPower-to-XPreisePressegrafikPrimärenergiePumpspeicherRechtRedispatchRegulierungsbehördeSektorkopplungSmart CitySmart GridsSmart MeterSolarthermieSpeicherStadtwerkeStart-upStatistikStromStromerzeugungStromkennzeichnungStromsteuerStudienSystemstabilitätTechnologienTelekommunikationTrinkwasserÜbertragungsnetzbetreiberUkraineUkraine-KriegUmlageUmwelt und KlimaUmweltpolitikUmweltschutzVerbrauchVerbraucherVerkehrVersorgungssicherheitVerteilnetzbetreiberVertriebWärmeWärmemarktWärmenetzWärmewendeWasserWasser/AbwasserWasserkraftWasserrechtWasserstoffWasserwirtschaftWettbewerbWindenergieWohnungswirtschaftZahl der WocheKeine Ergebnisse gefunden</t>
         </is>
       </c>
-      <c r="D75" s="1" t="inlineStr">
-        <is>
-          <t>Menu
-Verband
-Energie
-Wasser/Abwasser
-Presse
-MAGAZIN
-Service
-Übersicht
-Erdgas, Strom und Heizwärme sowie Wasser und Abwasser. Der BDEW vertritt über 2000 Unternehmen.
-Zum Verband
-Über uns
-KMU-Vertretung
-BDEW-Vertretung bei der EU
-Landesorganisationen
-Mitglieder
-Mitglied werden
-Karriere
-Kontakt und Anfahrt
-Zum Magazin
-Dossiers
-Ausgewählte Themen der Energiewirtschaft auf einen Blick.
-Wasserstoff
-Digitalisierung
-Gas
-Themen
-Elektromobilität
-Energieeffizienz
-Energiepolitik
-Erneuerbare Energien
-Sektorkopplung
-Stromerzeugung
-Wärme
-Weitere Energiethemen
-Ausführliche Informationen und Hintergründe zu aktuellen Entwicklungen in der Trinkwasser- und Abwasserwirtschaft.
-Spurenstoffe in Gewässern
-Nitrat im Grundwasser
-Abwasser
-Benchmarking und Branchenbild
-Digitalisierung der Wasserwirtschaft
-Entgelte/Gebühren
-Kommunikation
-Ordnungspolitik
-Trinkwasser
-Weitere Wasser-/Abwasserthemen
-Informationen für Journalisten
-Zum Pressecenter
-Presseinformationen
-Pressemappen
-Pressefotos
-Ansprechpartner
-"Zweitausend50" - das Online-Magazin
-STARTSEITE
-Schnittstelle
-Schulden bremsen?
-Asia Calling
-Mobilität
-ZUR ÜBERSICHT
-Der BDEW erarbeitet Branchenpositionen, findet Lösungen, erstellt Zahlenmaterial und Grafiken und bereitet diverse Informationen rund um die Themen der Energie- und Wasserwirtschaft auf.
-Anwendungshilfen
-BDEW Codes
-Bildung und Schule
-Datenplattform Stromkennzeichnung
-EDI@Energy
-Standardverträge
-Stellungnahmen
-Marktprozesse im Überblick
-Veranstaltungen
-Zu Daten und Grafiken
-Suche
-Anmelden
-Energie  Erneuerbare Energien
-Art des Inhalts
-Typ
-ZURÜCKSETZEN SUCHEN
-GRAFIK
-30.08.2024
-Wind­ener­gie­an­la­gen in Deutsch­land
-Anzahl und in­stal­lier­te Leistung nach Bun­des­län­dern bzw. Nord-und Ostsee
-STEL­LUNG­NAH­ME
-BDEW-Stel­lung­nah­me zum Re­fe­ren­ten­ent­wurf eines Gesetzes zur Umsetzung der RED III für Zu­las­sungs­verf ...
-PRES­SE­INFOR­MA­TI­ON
-Wichtige Ent­las­tung für Regionen mit besonders hohem Er­neu­er­ba­ren-Aus­bau
-Die Bun­des­netz­agen­tur (BNetzA) hat heute eine Fest­le­gung zur Ver­tei­lung der Mehr­kos­ten ver­öf­fent­licht, die in Strom­ver­tei­ler­net­zen mit besonders...
-29.08.2024
-BDEW-Stel­lung­nah­me zu den na­tur­schutz­fach­li­chen Min­dest­kri­te­ri­en bei PV-Frei­flä­chen­an­la­gen in Verbin ...
-20.08.2024
-Mo­nat­li­che Strom­er­zeu­gung in Deutsch­land
-Mo­nat­li­che Strom­er­zeu­gung aus Er­neu­er­ba­ren Energien
-Brut­to­strom­er­zeu­gung, Ver­än­de­rung zum Vor­jah­res­zeit­raum in Prozent
-Was­ser­kraft in Deutsch­land
-Nutzung der Was­ser­kraft in Deutsch­land – in­stal­lier­te Leistung und Strom­er­zeu­gung
-Mo­nat­li­che Strom­er­zeu­gung aus So­lar­ener­gie in Deutsch­land
-19.08.2024
-Kerstin Andreae zum Bun­des­haus­halt 2025 und zum KTF
-+ Globale Min­der­aus­ga­be ist deutlich zu groß bemessen und schürt Un­si­cher­heit + Wär­me­net­ze brauchen starke Förderung + Um­schich­tung des...
-16.08.2024
-Kerstin Andreae zur Einigung auf den Bun­des­haus­halt 2025
-Am heutigen Freitag hat sich die Am­pel-Ko­ali­ti­on auf den Bun­des­haus­halt 2025 geeinigt. Hierzu erklärt Kerstin Andreae, Vor­sit­zen­de der...
-602 Ergebnisse | Seite
-1
-2
-3
-4
-5
-6
-›
-»
-Daten/Grafiken
-Bereiche und Abteilungen
-BDEW-Magazin
-Der BDEW in den sozialen Netzwerken:
-Zum Mitgliederbereich
-LOGIN
-2024 BDEW
-Rechtliches | Impressum | Datenschutz
-0
-StellungnahmenPresseinformationDossierVeranstaltungenArtikelAnwendungshilfenMagazinGrafikPublikationKeine Ergebnisse gefunden
-Erneuerbare EnergienAbfallAbsatz und VerbrauchAbwasserAnreizregulierungArzneimittelrückständeAus dem VerbandAusschreibungenAVVBafaBatteriespeicherBetriebswirtschaftBildung und SchuleBiogas / BiomethanBiomasseBNetzABNKBürokratieabbauCO2ContractingCorona-VirusDaten und AnalysenDaten/GrafikenDekarbonisierungDezentrale ErzeugungDigitalisierungDirektvermarktungDownloadcenter GasEEGEffizienzEigenerzeugungEigenkapitalverzinsungEigenverbrauchElektromobilitätEmissionsgrenzwerteEmissionszertifikatehandelEnergieEnergie allgemeinEnergie- und KlimapolitikEnergie- und Wasserdaten interaktivEnergieberatungEnergiebinnenmarktEnergiedienstleistungenEnergieeffizienzEnergieeinsparungEnergiehandelEnergieinfrastrukturEnergienetze und RegulierungEnergiepolitikEnergiepreiseEnergiepreiskriseEnergiespeicherEnergieversorgungEnergievertriebEnergiewendeEnergiewirtschaftEntflechtungEntgelte / GebührenEnWGErdgasErzeugungErzeugung und SystemintegrationEuropaEuropäische BeihilfepolitikFachkräfteFernwärmeFinanzierungFlexibilitätFörderungForschung und EntwicklungGasGas-MarketingGasanwendungenGasmarktGasmobilitätGasspeicherGebührenGenehmigungsverfahrenGeschäftsmodelleGesetzeGesetze und VerordnungenGrafikenGrünes GasHandelHeizkostenHeizungHeizungsmarktImmissionsschutzrechtImportIndustrieInfrastrukturInnovationInternationalesInvestitionenITIT-SicherheitKapazitätKennzahlenklimaneutrales GasKlimaschutzKlimawandelKMUKohleKohleausstiegKommunikationKonventionelle EnergienKraft-Wärme-KopplungKraftwerkeKritische InfrastrukturenKWKKWK-GLadeinfrastrukturLeitungs- und WegerechtLNGMagazin Asia CallingMagazin AufbruchMagazin DynamikMagazin EuropaMagazin GeldMagazin Generation NeuMagazin InfrastrukturMagazin MobilitätMagazin PerspektiveMagazin RisikoMagazin SchnittstelleMagazin Schulden bremsen?Magazin Stadt Land FlussMagazin StoffwechselMagazin WachstumMagazin Wer rettet den Markt?Markt- und SystemintegrationMarktdesignMarktpartnerMarktstammdatenMediathek GasMieterstromMobilitätModernisierungNaturschutzNetwork CodesNetzanschlussNetzausbauNetzbetreiberNetzeNetzentgelteNetzwirtschaftNetzzugangoffshoreOffshore-AusbauonshorePhotovoltaikPlusPower-to-GasPower-to-XPreisePressegrafikPrimärenergiePumpspeicherRechtRedispatchRegulierungsbehördeSektorkopplungSmart CitySmart GridsSmart MeterSolarthermieSpeicherStadtwerkeStart-upStatistikStromStromerzeugungStromkennzeichnungStromsteuerStudienSystemstabilitätTechnologienTelekommunikationTrinkwasserÜbertragungsnetzbetreiberUkraineUkraine-KriegUmlageUmwelt und KlimaUmweltpolitikUmweltschutzVerbrauchVerbraucherVerkehrVersorgungssicherheitVerteilnetzbetreiberVertriebWärmeWärmemarktWärmenetzWärmewendeWasserWasser/AbwasserWasserkraftWasserrechtWasserstoffWasserwirtschaftWettbewerbWindenergieWohnungswirtschaftZahl der WocheKeine Ergebnisse gefunden</t>
-        </is>
-      </c>
       <c r="E75" s="1" t="inlineStr">
         <is>
           <t>There is a change</t>
@@ -32156,13 +32300,13 @@
       </c>
       <c r="F75" s="1" t="inlineStr">
         <is>
-          <t>2024-09-03 11:06:08</t>
+          <t>2024-09-04 08:16:00</t>
         </is>
       </c>
       <c r="G75" s="1" t="inlineStr">
         <is>
-          <t>+ Marktprozesse im Überblick
-- Marktprozesse im Überblick</t>
+          <t>+ Veranstaltungen
+- Veranstaltungen</t>
         </is>
       </c>
     </row>

--- a/Scraping_Results.xlsx
+++ b/Scraping_Results.xlsx
@@ -590,6 +590,7 @@
 Generation and load data provision methodology - GLDPM
 Clean Energy Package
 Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
 Electricity Balancing (EB)
 Bilanzkreisvertrag
 ER-Verordnung
@@ -965,19 +966,15 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>There is a change</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
-        </is>
-      </c>
+          <t>2024-09-10 06:48:27</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
@@ -987,221 +984,6 @@
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>Home
-Systemdienstleistungen
-Betriebsfuehrung
-Redispatch
-Kapazitätsreserve
-Elektrolyseanlagen
-Freiwillige Lastreduktion
-Nutzen statt Abregeln
-Fahrplanmanagement
-Hier finden Sie alles rund um die Betriebsführung.
-Suchbegriff eingebenAlleSuchen
-const loadSearchApp103 = () =&gt; {
-const moduleContext = {"moduleId":103,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
-window.lotes.searchApp.create(moduleContext);
-}
-$(document).ready(function () { loadSearchApp103(); } );
-Suche
-Kontakt
-Glossar
-Web API
-DE
-EN
-Extranet
-TAM-Meldeportal
-Über uns
-Aufgaben
-Aufgabe der SG HoBA
-Planung und Betrieb des deutschen Übertragungsnetzes
-Aktuelles
-Pressebereich
-Netzentgelte
-Studien und Positionspapiere
-Informationsplattformen
-Veröffentlichungspflichten gemäß EU-Transparenzverordnung
-Erneuerbare Energien und Umlagen
-EEG
-EEG-Finanzierung
-EEG-Abrechnungen
-Transparenzanforderungen
-Archiv
-KWKG
-KWKG-Umlage
-KWKG-Abrechnung
-Sonstige Umlagen
-Offshore-Netzumlage
-§ 19 StromNEV-Umlage
-§ 18 AbLaV-Umlage
-Freiwillige Veröffentlichungen
-Wind- und Solarenergie Hochrechnung
-Wind- und Solarenergie Prognose (bis 15.12.2022)
-Regelenergie
-Ausgleichsenergiepreis
-reBAP
-AEP-Module
-Finanzielle Wirkung der AEP-Module
-AEP-Schätzer
-Index Ausgleichsenergiepreis
-Value of Avoided Activation (VoAA)
-NRV- und RZ-Saldo
-NRV-Saldo-Ampel
-NRV-Saldo
-RZ-Saldo
-Daten Regelreserve
-Aktivierte Regelleistung
-Optimierte Regelleistung
-Difference (ungewollter Austausch)
-Sondermaßnahmen zum Bilanzausgleich
-Sekündliche Daten
-MOL-Abweichungen
-Altdaten-Archiv
-Abschaltbare Lasten (AbLaV)
-aFRR AT/DE-Kooperation
-mFRR AT/DE-Kooperation „GAMMA“
-IGCC-Datenpunkte
-Frequenzhaltung
-Spannungshaltung
-Blindleistung
-Versorgungswiederaufbau
-Marktgestützte Beschaffung von Schwarzstartfähigkeit
-Strommarktdesign
-Strommarkt-Forum
-CACM-Verordnung
-Generation and load data provision methodology - GLDPM
-Clean Energy Package
-Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
-Electricity Balancing (EB)
-Bilanzkreisvertrag
-ER-Verordnung
-FCA-Verordnung
-SO-Verordnung
-CGMMv3
-Datenaustausch
-RfG-Verordnung
-4ÜNB-Studie zur Ausarbeitung eines Kapazitätsmechanismus für den deutschen Strommarkt
-Strompreisbremse
-Impressum
-Datenschutz
-FAQ
-Login
-Suchbegriff eingeben
-Alle
-EEG-Finanzierungsbedarf
-EEG-Finanzierungsbedarf 2024
-EEG-Finanzierungsbedarf 2023
-EEG-Umlagen
-EEG-Umlage 2022
-EEG-Umlage 2021
-EEG-Umlage 2020
-EEG-Umlage 2019
-EEG-Umlagen der Vorjahre
-Mittelfristprognosen
-Mittelfristprognose 2024-2028
-Mittelfristprognose 2023-2027
-Mittelfristprognose 2022-2026
-Mittelfristprognose 2021-2025
-Mittelfristprognose 2020-2024
-Mittelfristprognose Vorjahre
-EEG-Jahresabrechnungen
-EEG-Anlagenstammdaten
-EEG-Jahresabrechnungen 2022-2000
-IDW-Prüfungshinweis
-Archiv IDW-Prüfungshinweise
-Hinweis Korrekturen Jahresabrechnung EEG Umlage
-Abwicklungshinweise und Umsetzungshilfen
-Messen und Schätzen
-Besondere Ausgleichsregelung
-Ausgeförderte Anlagen
-Abzugsbetrag 2024
-Abzugsbetrag 2023
-Abzugsbetrag 2022
-Aufschlag 2021 für Windenergieanlagen
-Umlageprivileg für Stromspeicher
-Marktprämie
-Online-Hochrechnung der tatsächlichen Erzeugung von Strom aus Windenergie Onshore
-Online-Hochrechnung der tatsächlichen Erzeugung von Strom aus Windenergie Offshore
-Online-Hochrechnung der tatsächlichen Erzeugung von Strom aus Solarenergie
-Marktwertübersicht
-Negativer Spotmarktpreis – Übersichtstabellen
-Spotmarktpreis nach § 3 Nr. 42a EEG
-ÜNB-Vermarktung
-EEG-Kontenübersicht
-Ausfall- und Direktvermarktung
-Datenmeldung EEG-Umlage
-Hinweis zu § 104 Abs. 4 EEG 2017 – Amnestieregelung
-Systemstabilitätsverordnung
-Abwicklung vor 2010
-Monatsprognosen 2009
-Monatsprognosen 2008
-Monatsprognosen 2007
-Monatsprognosen 2006
-Monatsprognosen bis 2005
-Profilwälzung
-KWKG-Umlagen-Übersicht
-KWKG-Umlage 2024
-KWKG-Umlage 2023
-KWKG-Umlage 2022
-KWKG-Umlage 2021
-KWKG-Umlage 2020
-KWKG-Aufschläge Vorjahre
-KWKG-Jahresabrechnungen
-IDW-Prüfungshinweis KWKG
-Archiv-IDW-Prüfungshinweise KWKG
-Tool zur Berechnung der reduzierten KWKG-Umlage
-Negative Preise
-KWKG-Kontenübersicht
-Offshore-Netzumlagen-Übersicht
-Offshore Netzumlage 2024
-Offshore Netzumlage 2023
-Offshore Netzumlage 2022
-Offshore Netzumlage 2021
-Offshore Netzumlage 2020
-Offshore Netzumlage der Vorjahre
-Jahresabrechnungen der Offshore-Netzumlage
-Tool zur Berechnung der reduzierten Offshore-Netzumlage
-§ 19 StromNEV-Umlagen-Übersicht
-§ 19 StromNEV-Umlage 2024
-§ 19 StromNEV-Umlage 2023
-§ 19 StromNEV-Umlage 2022
-§ 19 StromNEV-Umlage 2021
-§ 19 StromNEV-Umlage 2020
-§ 19 StromNEV-Umlage Vorjahre
-Terminkette zur Abwicklung der § 19 StromNEV-Umlage
-Jahresabrechnung
-Tool zur Berechnung der reduzierten StromNEV-Umlage
-AbLaV-Umlagen-Übersicht
-Umlage nach § 18 AbLaV für das Jahr 2022
-Umlage nach § 18 AbLaV für das Jahr 2021
-Umlage nach § 18 AbLaV für das Jahr 2020
-Umlage nach § 18 AbLaV für das Jahr 2019
-Umlage nach § 18 AbLaV für das Jahr 2018
-AbLaV-Umlage der Jahre 2014 bis 2022
-Jahresabrechnungen der Abschaltbare Lasten-Umlage
-Einheitliche Auslegung von E-STATCOM
-Abrechnung BDEW-Übergangslösung
-Redispatch 2.0 an der Schnittstelle ÜNB-VNB
-Kalkulatorische Preise
-Harmonisierter Aktivierungsprozess
-Veröffentlichungen zum Erbringungszeitraum 2024-2026
-Veröffentlichungen zum Erbringungszeitraum 2022-2024
-Veröffentlichungen zum Erbringungszeitraum 2020-2022
-ÜNB-Umsetzungskonzept
-Entlastungsregionen
-Vertragsunterlagen
-ÜNB-Parameter
-Informationsveranstaltungen für potenzielle Teilnehmer
-Koordination mit VNB
-Implementierungsvorschriften
-Beschlüsse
-Konsultation
-Konsultation Bilanzkreisvertrag 2023
-Konsultation Bilanzkreisvertrag 2019</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>Home
 Systemdienstleistungen
@@ -1417,61 +1199,24 @@
 Konsultation Bilanzkreisvertrag 2019</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>There is a change</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-04 08:16:00</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.netztransparenz.de/de-de/Systemdienstleistungen/Betriebsfuehrung/Redispatch</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>Home
 Systemdienstleistungen
 Betriebsfuehrung
 Redispatch
-Abrechnung BDEW-Übergangslösung
-Redispatch 2.0 an der Schnittstelle ÜNB-VNB
-Kalkulatorische Preise
-Harmonisierter Aktivierungsprozess
-Mit Redispatch-Maßnahmen sorgen die Übertragungsnetzbetreiber auch bei drohenden Überlastungen des Stromnetzes für einen ausgeglichenen Lastfluss.
-Redispatch-Maßnahmen
-Redispatch ist eine Anforderung zur Anpassung der Wirkleistungseinspeisung von Kraftwerken durch den Übertragungsnetzbetreiber, mit dem Ziel, auftretende Engpässe zu vermeiden oder zu beseitigen. Diese Maßnahme kann regelzonenintern und -übergreifend angewendet werden. Durch die Absenkung der Wirkleistungseinspeisung eines oder mehrerer Kraftwerke bei gleichzeitiger Steigerung der Wirkleistungseinspeisung eines oder mehrerer anderer Kraftwerke bleibt in Summe die gesamte Wirkleistungseinspeisung nahezu unverändert bei gleichzeitiger Entlastung eines Engpasses.
-Im Folgenden finden Sie die von den vier deutschen Übertragungsnetzbetreibern veranlassten, tagesscharfen Redispatch-Maßnahmen, die Anpassungen von in Deutschland angeschlossen Kraftwerken betreffen (Mittelwerte und Maximalwerte beziehen sich auf die jeweiligen Tagesanteile).
-Börsengeschäfte der deutschen Übertragungsnetzbetreiber, die im Zuge von Redispatch-Maßnahmen oder grenzüberschreitenden Countertrade-Maßnahmen getätigt werden, werden ab dem 01.05.2019 ebenfalls veröffentlicht. Bei grenzüberschreitenden Redispatch- bzw. Countertrade-Maßnahmen mit Nachbarländern wird nur der Teil veröffentlicht, der sich auf Kraftwerke bzw. Börsenhandel innerhalb Deutschlands bezieht. Grenzüberschreitende Handelsgeschäfte sowie Kraftwerkseinspeiseanpassungen im Ausland werden nicht veröffentlicht. Bei spannungsbedingtem Redispatch können Ausgleichsmaßnahmen der Systembilanz gemäß Festlegung ebenfalls über Börsengeschäfte getätigt werden, da kein örtlicher Bezug für die Gegenmaßnahme besteht. Bei gezielten Gegenmaßnahmen, die durch ergriffenes Einspeisemanagement notwendig sein können, werden die Anpassungen der Wirkleistungseinspeisung bei Kraftwerken veröffentlicht.
-Zur Herstellung und Aufrechterhaltung der Betriebsbereitschaft für erforderliche Systemsicherheitsmaßnahmen müssen aus technischen Gründen regelmäßig Probestarts inländischer Reservekraftwerke durchgeführt werden. Nach Möglichkeit erfolgen diese Probestarts im Rahmen erforderlicher Systemsicherheitsmaßnahmen. Sollte dies nicht realisierbar sein, wird die Energie am Intraday-Markt vermarktet. Seit 25.06.2020 werden diese Maßnahmen unter der Kategorie "Probestart" veröffentlicht.
-Unbilanzierte RD-Maßnahmen mit EE-Anlagen aller ÜNB sind erst ab dem 01.10.2023 in dieser Veröffentlichung enthalten. Die unbilanzierten RD-Maßnahmen vom 01.10.2021 bis 30.09.2023 sind auf den jeweiligen ÜNB-Homepages veröffentlicht. Darüber hinaus sind die Maßnahmen über alle Zeitpunkte hinweg auf der ENTSO-E Transparenzplattform (ETP) veröffentlicht.
-Anfordernder- und Anweisender-ÜNB
-Bei der Umsetzung der Veröffentlichung haben die ÜNB das Prinzip des Anschluss-ÜNB angewendet, was bedeutet, dass derjenige ÜNB zuständig für die Veröffentlichung ist, in dessen Regelzone das Kraftwerk steht.
-Dieser ÜNB verfügt über die zu veröffentlichenden Kraftwerksdaten, da er die Kraftwerke in seiner Regelzone anweist, an der Redispatch-Maßnahme teilzunehmen. In diesem Sinn wird in der Veröffentlichung vom „anweisenden ÜNB“ gesprochen, der für den anfordernden ÜNB die Informationen zu Netzregionen und Grund der Maßnahme veröffentlicht.
-Im Gegensatz dazu ist mit dem „anfordernden ÜNB“ der ÜNB gemeint, der den ursächlich für die Redispatchmaßnahme netztechnischen Grund (z.B. Netzengpass) in seiner Regelzone identifiziert hat und aktiv eine Redispatch-Maßnahme anfordert. Diese Anforderung wird bei direkt in seiner Regelzone angeschlossenen Kraftwerken direkt an die Kraftwerke ausgesprochen. Bei Kraftwerken in anderen Regelzonen wird die Anforderung mit der Bitte um Amtshilfe dem Anschluss-ÜNB des Kraftwerks übermittelt. Der Anschluss-ÜNB wird dann als anweisender ÜNB gegenüber dem Kraftwerk in seiner Regelzone tätig. Somit können anweisender und anfordernder ÜNB bei einem regelzonenübergreifenden Redispatch unterschiedlich sein. Während es stets für ein Kraftwerk nur einen „anweisenden ÜNB“ gibt, kann es jedoch mehrere „anfordernde ÜNB“ geben, wenn gemeinsame Leitungen (Grenzkuppelleitungen) betroffen sind.
-Datum
-Von
-Open the calendar popup.
-Bis
-Download CSV
+Kapazitätsreserve
+Elektrolyseanlagen
+Freiwillige Lastreduktion
+Nutzen statt Abregeln
+Fahrplanmanagement
+Hier finden Sie alles rund um die Betriebsführung.
 Suchbegriff eingebenAlleSuchen
-const loadSearchApp104 = () =&gt; {
-const moduleContext = {"moduleId":104,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
+const loadSearchApp103 = () =&gt; {
+const moduleContext = {"moduleId":103,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
 window.lotes.searchApp.create(moduleContext);
 }
-$(document).ready(function () { loadSearchApp104(); } );
+$(document).ready(function () { loadSearchApp103(); } );
 Suche
 Kontakt
 Glossar
@@ -1533,11 +1278,6 @@
 Frequenzhaltung
 Spannungshaltung
 Blindleistung
-Kapazitätsreserve
-Elektrolyseanlagen
-Freiwillige Lastreduktion
-Nutzen statt Abregeln
-Fahrplanmanagement
 Versorgungswiederaufbau
 Marktgestützte Beschaffung von Schwarzstartfähigkeit
 Strommarktdesign
@@ -1546,6 +1286,7 @@
 Generation and load data provision methodology - GLDPM
 Clean Energy Package
 Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
 Electricity Balancing (EB)
 Bilanzkreisvertrag
 ER-Verordnung
@@ -1562,32 +1303,6 @@
 Login
 Suchbegriff eingeben
 Alle
-Calendar
-Title and navigation
-&lt;&lt;&lt;September 2024&gt;&lt;&lt;
-September 2024
-MDMDFSS
-352627282930311
-362345678
-379101112131415
-3816171819202122
-3923242526272829
-4030123456
-ME(S)ZUTC
-{1}
-##LOC[OK]##
-function RadWindowprompt_detectenter(id, ev, input)
-{
-if (!ev) ev = window.event;
-if (ev.keyCode == 13)
-var but = input.parentNode.parentNode.getElementsByTagName("A")[0];
-if (but)
-if (but.click) but.click();
-else if (but.onclick)
-but.focus(); var click = but.onclick; but.onclick = null; if (click) click.call(but);
-return false;
-else return true;
-##LOC[Cancel]##
 EEG-Finanzierungsbedarf
 EEG-Finanzierungsbedarf 2024
 EEG-Finanzierungsbedarf 2023
@@ -1680,6 +1395,10 @@
 AbLaV-Umlage der Jahre 2014 bis 2022
 Jahresabrechnungen der Abschaltbare Lasten-Umlage
 Einheitliche Auslegung von E-STATCOM
+Abrechnung BDEW-Übergangslösung
+Redispatch 2.0 an der Schnittstelle ÜNB-VNB
+Kalkulatorische Preise
+Harmonisierter Aktivierungsprozess
 Veröffentlichungen zum Erbringungszeitraum 2024-2026
 Veröffentlichungen zum Erbringungszeitraum 2022-2024
 Veröffentlichungen zum Erbringungszeitraum 2020-2022
@@ -1696,7 +1415,26 @@
 Konsultation Bilanzkreisvertrag 2019</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-10 06:48:27</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.netztransparenz.de/de-de/Systemdienstleistungen/Betriebsfuehrung/Redispatch</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Home
 Systemdienstleistungen
@@ -1953,58 +1691,38 @@
 Konsultation Bilanzkreisvertrag 2019</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>There is a change</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-04 08:16:00</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.netztransparenz.de/de-de/Systemdienstleistungen/Betriebsfuehrung/Kapazit%C3%A4tsreserve</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="D4" s="1" t="inlineStr">
         <is>
           <t>Home
 Systemdienstleistungen
 Betriebsfuehrung
-Kapazitätsreserve
-Veröffentlichungen zum Erbringungszeitraum 2024-2026
-Veröffentlichungen zum Erbringungszeitraum 2022-2024
-Veröffentlichungen zum Erbringungszeitraum 2020-2022
-RSS
-Die Kapazitätsreserve ist eine Reserve, die bei Knappheitssituationen am Strommarkt eingesetzt werden kann.
-Mit der Kapazitätsreserve soll nach Maßgabe des Energiewirtschaftsgesetzes (§ 13e EnWG) ab dem Winterhalbjahr 2020/2021 außerhalb des Strommarktes eine Reserve in Höhe von 2 GW gebildet werden. Diese Leistung kann von Erzeugungsanlagen, Speichern sowie regelbaren Lasten vorgehalten werden.
-Die Kapazitätsreserve ist notwendig, um in außergewöhnlichen und nicht vorhersehbaren Situationen die Systembilanz zu stützen und auf diese Weise das Gleichgewicht zwischen Stromerzeugung und -verbrauch zu erhalten.
-Zur Gewährleistung der Versorgungssicherheit soll die Kapazitätsreserve zum Einsatz kommen, wenn trotz freier Preisbildung an der Strombörse kein ausreichendes Angebot existiert, um die Nachfrage an elektrischer Energie zu decken. Die in der Kapazitätsreserve gebundenen Anlagen sollen zudem, soweit möglich, die Funktion der Netzreserve übernehmen. Sofern die Anlagen in netztechnisch geeigneten Regionen stehen, werden die Übertragungsnetzbetreiber (ÜNB) diese auch in Fällen anfordern, in denen es für die Systemsicherheit aufgrund von Netzengpässen erforderlich ist.
-Zur Bildung der Kapazitätsreserve führen die deutschen ÜNB ein gemeinsames Beschaffungsverfahren durch.
+Redispatch
+Abrechnung BDEW-Übergangslösung
+Redispatch 2.0 an der Schnittstelle ÜNB-VNB
+Kalkulatorische Preise
+Harmonisierter Aktivierungsprozess
+Mit Redispatch-Maßnahmen sorgen die Übertragungsnetzbetreiber auch bei drohenden Überlastungen des Stromnetzes für einen ausgeglichenen Lastfluss.
+Redispatch-Maßnahmen
+Redispatch ist eine Anforderung zur Anpassung der Wirkleistungseinspeisung von Kraftwerken durch den Übertragungsnetzbetreiber, mit dem Ziel, auftretende Engpässe zu vermeiden oder zu beseitigen. Diese Maßnahme kann regelzonenintern und -übergreifend angewendet werden. Durch die Absenkung der Wirkleistungseinspeisung eines oder mehrerer Kraftwerke bei gleichzeitiger Steigerung der Wirkleistungseinspeisung eines oder mehrerer anderer Kraftwerke bleibt in Summe die gesamte Wirkleistungseinspeisung nahezu unverändert bei gleichzeitiger Entlastung eines Engpasses.
+Im Folgenden finden Sie die von den vier deutschen Übertragungsnetzbetreibern veranlassten, tagesscharfen Redispatch-Maßnahmen, die Anpassungen von in Deutschland angeschlossen Kraftwerken betreffen (Mittelwerte und Maximalwerte beziehen sich auf die jeweiligen Tagesanteile).
+Börsengeschäfte der deutschen Übertragungsnetzbetreiber, die im Zuge von Redispatch-Maßnahmen oder grenzüberschreitenden Countertrade-Maßnahmen getätigt werden, werden ab dem 01.05.2019 ebenfalls veröffentlicht. Bei grenzüberschreitenden Redispatch- bzw. Countertrade-Maßnahmen mit Nachbarländern wird nur der Teil veröffentlicht, der sich auf Kraftwerke bzw. Börsenhandel innerhalb Deutschlands bezieht. Grenzüberschreitende Handelsgeschäfte sowie Kraftwerkseinspeiseanpassungen im Ausland werden nicht veröffentlicht. Bei spannungsbedingtem Redispatch können Ausgleichsmaßnahmen der Systembilanz gemäß Festlegung ebenfalls über Börsengeschäfte getätigt werden, da kein örtlicher Bezug für die Gegenmaßnahme besteht. Bei gezielten Gegenmaßnahmen, die durch ergriffenes Einspeisemanagement notwendig sein können, werden die Anpassungen der Wirkleistungseinspeisung bei Kraftwerken veröffentlicht.
+Zur Herstellung und Aufrechterhaltung der Betriebsbereitschaft für erforderliche Systemsicherheitsmaßnahmen müssen aus technischen Gründen regelmäßig Probestarts inländischer Reservekraftwerke durchgeführt werden. Nach Möglichkeit erfolgen diese Probestarts im Rahmen erforderlicher Systemsicherheitsmaßnahmen. Sollte dies nicht realisierbar sein, wird die Energie am Intraday-Markt vermarktet. Seit 25.06.2020 werden diese Maßnahmen unter der Kategorie "Probestart" veröffentlicht.
+Unbilanzierte RD-Maßnahmen mit EE-Anlagen aller ÜNB sind erst ab dem 01.10.2023 in dieser Veröffentlichung enthalten. Die unbilanzierten RD-Maßnahmen vom 01.10.2021 bis 30.09.2023 sind auf den jeweiligen ÜNB-Homepages veröffentlicht. Darüber hinaus sind die Maßnahmen über alle Zeitpunkte hinweg auf der ENTSO-E Transparenzplattform (ETP) veröffentlicht.
+Anfordernder- und Anweisender-ÜNB
+Bei der Umsetzung der Veröffentlichung haben die ÜNB das Prinzip des Anschluss-ÜNB angewendet, was bedeutet, dass derjenige ÜNB zuständig für die Veröffentlichung ist, in dessen Regelzone das Kraftwerk steht.
+Dieser ÜNB verfügt über die zu veröffentlichenden Kraftwerksdaten, da er die Kraftwerke in seiner Regelzone anweist, an der Redispatch-Maßnahme teilzunehmen. In diesem Sinn wird in der Veröffentlichung vom „anweisenden ÜNB“ gesprochen, der für den anfordernden ÜNB die Informationen zu Netzregionen und Grund der Maßnahme veröffentlicht.
+Im Gegensatz dazu ist mit dem „anfordernden ÜNB“ der ÜNB gemeint, der den ursächlich für die Redispatchmaßnahme netztechnischen Grund (z.B. Netzengpass) in seiner Regelzone identifiziert hat und aktiv eine Redispatch-Maßnahme anfordert. Diese Anforderung wird bei direkt in seiner Regelzone angeschlossenen Kraftwerken direkt an die Kraftwerke ausgesprochen. Bei Kraftwerken in anderen Regelzonen wird die Anforderung mit der Bitte um Amtshilfe dem Anschluss-ÜNB des Kraftwerks übermittelt. Der Anschluss-ÜNB wird dann als anweisender ÜNB gegenüber dem Kraftwerk in seiner Regelzone tätig. Somit können anweisender und anfordernder ÜNB bei einem regelzonenübergreifenden Redispatch unterschiedlich sein. Während es stets für ein Kraftwerk nur einen „anweisenden ÜNB“ gibt, kann es jedoch mehrere „anfordernde ÜNB“ geben, wenn gemeinsame Leitungen (Grenzkuppelleitungen) betroffen sind.
 Datum
 Von
 Open the calendar popup.
 Bis
 Download CSV
-Sofern keine Einträge in den herunterladbaren Dateien vorhanden sind, bedeutet dies, dass keine KapRes Abrufe stattgefunden haben.
-Maßgebliche Strombörse nach § 25 Abs.1 Kapazitätsreserve-Verordnung
-Die Strombörse, die im ersten Quartal des vorangegangenen Kalenderjahres das höchste Handelsvolumen für Stundenkontrakte für die Preiszone Deutschland am Spotmarkt aufgewiesen hat, ist die EPEX SPOT.
 Suchbegriff eingebenAlleSuchen
-const loadSearchApp106 = () =&gt; {
-const moduleContext = {"moduleId":106,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
+const loadSearchApp104 = () =&gt; {
+const moduleContext = {"moduleId":104,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
 window.lotes.searchApp.create(moduleContext);
 }
-$(document).ready(function () { loadSearchApp106(); } );
+$(document).ready(function () { loadSearchApp104(); } );
 Suche
 Kontakt
 Glossar
@@ -2066,7 +1784,7 @@
 Frequenzhaltung
 Spannungshaltung
 Blindleistung
-Redispatch
+Kapazitätsreserve
 Elektrolyseanlagen
 Freiwillige Lastreduktion
 Nutzen statt Abregeln
@@ -2079,6 +1797,7 @@
 Generation and load data provision methodology - GLDPM
 Clean Energy Package
 Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
 Electricity Balancing (EB)
 Bilanzkreisvertrag
 ER-Verordnung
@@ -2097,15 +1816,15 @@
 Alle
 Calendar
 Title and navigation
-&lt;&lt;&lt;Oktober 2020&gt;&lt;&lt;
-Oktober 2020
+&lt;&lt;&lt;September 2024&gt;&lt;&lt;
+September 2024
 MDMDFSS
-402829301234
-41567891011
-4212131415161718
-4319202122232425
-442627282930311
-452345678
+352627282930311
+362345678
+379101112131415
+3816171819202122
+3923242526272829
+4030123456
 ME(S)ZUTC
 {1}
 ##LOC[OK]##
@@ -2213,10 +1932,9 @@
 AbLaV-Umlage der Jahre 2014 bis 2022
 Jahresabrechnungen der Abschaltbare Lasten-Umlage
 Einheitliche Auslegung von E-STATCOM
-Abrechnung BDEW-Übergangslösung
-Redispatch 2.0 an der Schnittstelle ÜNB-VNB
-Kalkulatorische Preise
-Harmonisierter Aktivierungsprozess
+Veröffentlichungen zum Erbringungszeitraum 2024-2026
+Veröffentlichungen zum Erbringungszeitraum 2022-2024
+Veröffentlichungen zum Erbringungszeitraum 2020-2022
 ÜNB-Umsetzungskonzept
 Entlastungsregionen
 Vertragsunterlagen
@@ -2230,7 +1948,26 @@
 Konsultation Bilanzkreisvertrag 2019</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-10 06:48:27</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.netztransparenz.de/de-de/Systemdienstleistungen/Betriebsfuehrung/Kapazit%C3%A4tsreserve</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Home
 Systemdienstleistungen
@@ -2485,60 +2222,42 @@
 Konsultation Bilanzkreisvertrag 2019</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>There is a change</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-04 08:16:00</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.netztransparenz.de/de-de/Systemdienstleistungen/Betriebsfuehrung/Nutzen-statt-Abregeln</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="D5" s="1" t="inlineStr">
         <is>
           <t>Home
 Systemdienstleistungen
 Betriebsfuehrung
-Nutzen statt Abregeln
-ÜNB-Umsetzungskonzept
-Entlastungsregionen
-Vertragsunterlagen
-ÜNB-Parameter
-Informationsveranstaltungen für potenzielle Teilnehmer
-Koordination mit VNB
-FAQ
-Im Zuge der EnWG-Reform im November 2023 wurde mit § 13k EnWG die Regelung "Nutzen statt Abregeln" eingeführt. Dieses Instrument schafft Anreize zur Aktivierung zusätzlichen Stromverbrauchs, um sich abzeichnenden Netzengpässen entgegenzuwirken. Durch diese Maßnahme wird eine engpassentlastende Wirkung erzielt, was wiederum dazu führt, dass weniger Strom aus erneuerbaren Energien aufgrund von Netzengpässen abgeregelt werden muss.
-Der zu diesem Zweck eingeführte § 13k EnWG sieht vor, dass die Übertragungsnetzbetreiber (ÜNB) für Entlastungsregionen eine Prognose der stündlichen Abregelungsstrommengen spätestens am Vormittag des Vortages durchführen. Teilmengen dieser Prognose werden an berechtigte Teilnehmer gegeben, deren Verbrauchsanlagen durch Lasterhöhung zur Reduzierung der prognostizierten Netzengpässe beitragen können.
-Der Zeitplan wird nachfolgend dargestellt.
-Die ÜNB haben gemäß § 13k Abs. 6 Satz 2 Nr. 7 EnWG ein Umsetzungskonzept bis zum 1. April 2024 erarbeitet und anschließend fristgerecht der Bundesnetzagentur (BNetzA) zur Prüfung übergeben. Das von der BNetzA geprüfte ÜNB-Umsetzungskonzept finden Sie unter folgendem Link ÜNB-Umsetzungskonzept gemäß § 13k Abs. 6 EnWG.
-Die Zusätzlichkeitskriterien für die Regelung waren bis spätestens zum 1. Juli 2024 durch die BNetzA festzulegen.
-Die BNetzA hat am 28.06.2024 die Festlegung für die Zusätzlichkeitskriterien gem. § 13k Abs. 3 Satz 3 EnWG veröffentlicht. Für weitere Informationen zu diesem Thema empfehlen wir die entsprechende Veröffentlichung der BNetzA.
-Der Start über eine Erprobungsphase ist für den 1. Oktober 2024 vorgesehen.
-Am 01.08. haben die ÜNB die Vertragsunterlagen und Parameter für den Start des Instruments veröffentlicht. Zudem wurde eine FAQ-Seite zur Hilfestellung eingerichtet.
-Um das Wirkungspotential des Instruments zu beurteilen, wurden relevante Stakeholder frühzeitig miteingebunden. In Abstimmung mit BNetzA und BMWK haben die ÜNB einen Branchendialog organisiert und durch mehrere Informationsveranstaltungen ab Januar 2024 potenzielle Interessenten/Teilnehmer diskriminierungsfrei über den geplanten Rahmen informiert und deren Anforderungen und Sichtweisen abgefragt.
-Darüber hinaus haben die ÜNB potenzielle Teilnehmer befragt, um mögliche Pilotprojekte zu identifizieren, die in der Erprobungsphase teilnehmen könnten. Weiterhin wurden bilaterale Austauschtermine mit Interessenten für eine mögliche Teilnahme organisiert.
-Die Regelung des § 13k EnWG ist am 29.12.2023 in Kraft getreten und ist unter folgendem Link zu fin-den: BGBl. 2023 I Nr. 405 vom 28.12.2023 (ab Seite 5). Die zugehörige Beschlussempfehlung inklusive Gesetzesbegründung kann unter folgendem Link eingesehen werden: Deutscher Bundestag Drucksache 20/9187 (ab Seite 25).
-Interessenten und potentielle Teilnehmer werden weiterhin gebeten Kontakt mit den 4 ÜNB aufzunehmen. Bitte nutzen Sie hierfür das Kontaktformular und wählen sie das Thema „Nutzen statt Abregeln“ aus. Bitte geben Sie wenn möglich in Ihrer Nachricht bereits die Art des geplanten zusätzlichen Verbrauchs und den geplanten Standort der Entlastungsanlagen an.
+Kapazitätsreserve
+Veröffentlichungen zum Erbringungszeitraum 2024-2026
+Veröffentlichungen zum Erbringungszeitraum 2022-2024
+Veröffentlichungen zum Erbringungszeitraum 2020-2022
+RSS
+Die Kapazitätsreserve ist eine Reserve, die bei Knappheitssituationen am Strommarkt eingesetzt werden kann.
+Mit der Kapazitätsreserve soll nach Maßgabe des Energiewirtschaftsgesetzes (§ 13e EnWG) ab dem Winterhalbjahr 2020/2021 außerhalb des Strommarktes eine Reserve in Höhe von 2 GW gebildet werden. Diese Leistung kann von Erzeugungsanlagen, Speichern sowie regelbaren Lasten vorgehalten werden.
+Die Kapazitätsreserve ist notwendig, um in außergewöhnlichen und nicht vorhersehbaren Situationen die Systembilanz zu stützen und auf diese Weise das Gleichgewicht zwischen Stromerzeugung und -verbrauch zu erhalten.
+Zur Gewährleistung der Versorgungssicherheit soll die Kapazitätsreserve zum Einsatz kommen, wenn trotz freier Preisbildung an der Strombörse kein ausreichendes Angebot existiert, um die Nachfrage an elektrischer Energie zu decken. Die in der Kapazitätsreserve gebundenen Anlagen sollen zudem, soweit möglich, die Funktion der Netzreserve übernehmen. Sofern die Anlagen in netztechnisch geeigneten Regionen stehen, werden die Übertragungsnetzbetreiber (ÜNB) diese auch in Fällen anfordern, in denen es für die Systemsicherheit aufgrund von Netzengpässen erforderlich ist.
+Zur Bildung der Kapazitätsreserve führen die deutschen ÜNB ein gemeinsames Beschaffungsverfahren durch.
+Datum
+Von
+Open the calendar popup.
+Bis
+Download CSV
+Sofern keine Einträge in den herunterladbaren Dateien vorhanden sind, bedeutet dies, dass keine KapRes Abrufe stattgefunden haben.
+Maßgebliche Strombörse nach § 25 Abs.1 Kapazitätsreserve-Verordnung
+Die Strombörse, die im ersten Quartal des vorangegangenen Kalenderjahres das höchste Handelsvolumen für Stundenkontrakte für die Preiszone Deutschland am Spotmarkt aufgewiesen hat, ist die EPEX SPOT.
+Auswirkungen der neuen Intraday Auktionen (IDAs) für die Aktivierung der Kapazitätsreserve
+Die bisherige ID-Auktion um 15 Uhr für den Folgetag wurde seit dem 13.06.2024 durch die folgenden drei neuen europäischen Intraday (ID) Auktionen ersetzt:
+1)       IDA1 um 15 Uhr für den Folgetag,
+2)       IDA2 um 22 Uhr für den Folgetag und
+3)       IDA3 um 10 Uhr für den Zeitraum 12-24 Uhr des gleichen Tages.
+Grundlage für die Einführung dieser neuen ID-Auktionen stellt die geänderte europäische CACM-Verordnung dar (VERORDNUNG (EU) 2015/1222 DER KOMMISSION vom 24. Juli 2015); nähere Infos: https://www.nemo-committee.eu/assets/files/IDAs-information%20package-final-c0ca4ca554dd80597fdb286076f79017.pdf
+Eine ausbleibende Markträumung in einer der drei europäischen Auktionen, einschließlich der zusätzlichen Zeitpunkte der neuen IDA2 und IDA3, ist für die Aktivierung der Kapazitätsreserve maßgeblich.
 Suchbegriff eingebenAlleSuchen
-const loadSearchApp885 = () =&gt; {
-const moduleContext = {"moduleId":885,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
+const loadSearchApp106 = () =&gt; {
+const moduleContext = {"moduleId":106,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
 window.lotes.searchApp.create(moduleContext);
 }
-$(document).ready(function () { loadSearchApp885(); } );
+$(document).ready(function () { loadSearchApp106(); } );
 Suche
 Kontakt
 Glossar
@@ -2601,9 +2320,9 @@
 Spannungshaltung
 Blindleistung
 Redispatch
-Kapazitätsreserve
 Elektrolyseanlagen
 Freiwillige Lastreduktion
+Nutzen statt Abregeln
 Fahrplanmanagement
 Versorgungswiederaufbau
 Marktgestützte Beschaffung von Schwarzstartfähigkeit
@@ -2613,6 +2332,7 @@
 Generation and load data provision methodology - GLDPM
 Clean Energy Package
 Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
 Electricity Balancing (EB)
 Bilanzkreisvertrag
 ER-Verordnung
@@ -2625,9 +2345,36 @@
 Strompreisbremse
 Impressum
 Datenschutz
+FAQ
 Login
 Suchbegriff eingeben
 Alle
+Calendar
+Title and navigation
+&lt;&lt;&lt;Oktober 2020&gt;&lt;&lt;
+Oktober 2020
+MDMDFSS
+402829301234
+41567891011
+4212131415161718
+4319202122232425
+442627282930311
+452345678
+ME(S)ZUTC
+{1}
+##LOC[OK]##
+function RadWindowprompt_detectenter(id, ev, input)
+{
+if (!ev) ev = window.event;
+if (ev.keyCode == 13)
+var but = input.parentNode.parentNode.getElementsByTagName("A")[0];
+if (but)
+if (but.click) but.click();
+else if (but.onclick)
+but.focus(); var click = but.onclick; but.onclick = null; if (click) click.call(but);
+return false;
+else return true;
+##LOC[Cancel]##
 EEG-Finanzierungsbedarf
 EEG-Finanzierungsbedarf 2024
 EEG-Finanzierungsbedarf 2023
@@ -2724,9 +2471,12 @@
 Redispatch 2.0 an der Schnittstelle ÜNB-VNB
 Kalkulatorische Preise
 Harmonisierter Aktivierungsprozess
-Veröffentlichungen zum Erbringungszeitraum 2024-2026
-Veröffentlichungen zum Erbringungszeitraum 2022-2024
-Veröffentlichungen zum Erbringungszeitraum 2020-2022
+ÜNB-Umsetzungskonzept
+Entlastungsregionen
+Vertragsunterlagen
+ÜNB-Parameter
+Informationsveranstaltungen für potenzielle Teilnehmer
+Koordination mit VNB
 Implementierungsvorschriften
 Beschlüsse
 Konsultation
@@ -2734,7 +2484,36 @@
 Konsultation Bilanzkreisvertrag 2019</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>There is a change</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-10 06:48:27</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>+ Auswirkungen der neuen Intraday Auktionen (IDAs) für die Aktivierung der Kapazitätsreserve
++ Die bisherige ID-Auktion um 15 Uhr für den Folgetag wurde seit dem 13.06.2024 durch die folgenden drei neuen europäischen Intraday (ID) Auktionen ersetzt:
++ 1)       IDA1 um 15 Uhr für den Folgetag,
++ 2)       IDA2 um 22 Uhr für den Folgetag und
++ 3)       IDA3 um 10 Uhr für den Zeitraum 12-24 Uhr des gleichen Tages.
++ Grundlage für die Einführung dieser neuen ID-Auktionen stellt die geänderte europäische CACM-Verordnung dar (VERORDNUNG (EU) 2015/1222 DER KOMMISSION vom 24. Juli 2015); nähere Infos: https://www.nemo-committee.eu/assets/files/IDAs-information%20package-final-c0ca4ca554dd80597fdb286076f79017.pdf
++ Eine ausbleibende Markträumung in einer der drei europäischen Auktionen, einschließlich der zusätzlichen Zeitpunkte der neuen IDA2 und IDA3, ist für die Aktivierung der Kapazitätsreserve maßgeblich.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.netztransparenz.de/de-de/Systemdienstleistungen/Betriebsfuehrung/Nutzen-statt-Abregeln</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>Home
 Systemdienstleistungen
@@ -2961,59 +2740,37 @@
 Konsultation Bilanzkreisvertrag 2019</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>There is a change</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-04 08:16:00</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.netztransparenz.de/de-de/Systemdienstleistungen/Spannungshaltung/Blindleistung</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="D6" s="1" t="inlineStr">
         <is>
           <t>Home
 Systemdienstleistungen
-Spannungshaltung
-Blindleistung
-Einheitliche Auslegung von E-STATCOM
-RSS
-Anfang 2023 hat die Bundesnetzagentur ein Festlegungsverfahren gem. „§§ 12h Abs. 5, 29 Abs. 1 EnWG zu den Spezifikationen und technischen Anforderungen der transparenten, diskriminierungsfreien und marktgestützten Beschaffung der nicht frequenzgebundenen Systemdienstleistung „Dienstleistungen zur Spannungsregelung“ („Blindleistung“)“ eingeleitet.
-Diese Festlegung ist am 25.06.2024 mit dem zugehörigen Beschluss auf der Webseite der Bundesnetzagentur veröffentlicht worden.
-Die Kontrahierung von Blindleistung und /-arbeit erfolgt durch Netzbetreiber von Höchst- u. Hochspannungsnetzen bei geeigneten Anlagen an ihrem Netz.
-Zeitlicher Rahmen:
-12 Monate nach Festlegung sind Betreiber von Übertragungsnetzen dazu verpflichtet bei Blindleistungsbedarf in mindestens einer Region marktgestützt Blindleistung auszuschreiben
-Bis 36 Monate nach Festlegung muss der Netzbetreiber für alle Netzregionen eine marktgestützte Beschaffung eigeleitet haben, sofern Bedarf besteht
-Die ersten Ausschreibungen werden bis Mitte 2025 durch die ÜNB auf der Netztransparenz.de bekannt gegeben
-Erste Bezuschlagungen von Anbietern für Blindleistung und Blindarbeit sollen bis Ende 2025 erfolgen
-Das Beschaffungskonzept „Blindleistung“ BK6-32-072 regelt den Rahmen für
-Teilnahmevoraussetzungen
-Produktdefinitionen
-Fristen
-Bekanntmachung
-Bewertung von Geboten und Zuschlagserteilung
-Vergütung und Abrechnung
-Die weiteren Details sind den individuellen Bekanntmachungen zur Ausschreibung der jeweiligen ÜNB zu entnehmen.
+Betriebsfuehrung
+Nutzen statt Abregeln
+ÜNB-Umsetzungskonzept
+Entlastungsregionen
+Vertragsunterlagen
+ÜNB-Parameter
+Informationsveranstaltungen für potenzielle Teilnehmer
+Koordination mit VNB
+FAQ
+Im Zuge der EnWG-Reform im November 2023 wurde mit § 13k EnWG die Regelung "Nutzen statt Abregeln" eingeführt. Dieses Instrument schafft Anreize zur Aktivierung zusätzlichen Stromverbrauchs, um sich abzeichnenden Netzengpässen entgegenzuwirken. Durch diese Maßnahme wird eine engpassentlastende Wirkung erzielt, was wiederum dazu führt, dass weniger Strom aus erneuerbaren Energien aufgrund von Netzengpässen abgeregelt werden muss.
+Der zu diesem Zweck eingeführte § 13k EnWG sieht vor, dass die Übertragungsnetzbetreiber (ÜNB) für Entlastungsregionen eine Prognose der stündlichen Abregelungsstrommengen spätestens am Vormittag des Vortages durchführen. Teilmengen dieser Prognose werden an berechtigte Teilnehmer gegeben, deren Verbrauchsanlagen durch Lasterhöhung zur Reduzierung der prognostizierten Netzengpässe beitragen können.
+Der Zeitplan wird nachfolgend dargestellt.
+Die ÜNB haben gemäß § 13k Abs. 6 Satz 2 Nr. 7 EnWG ein Umsetzungskonzept bis zum 1. April 2024 erarbeitet und anschließend fristgerecht der Bundesnetzagentur (BNetzA) zur Prüfung übergeben. Das von der BNetzA geprüfte ÜNB-Umsetzungskonzept finden Sie unter folgendem Link ÜNB-Umsetzungskonzept gemäß § 13k Abs. 6 EnWG.
+Die Zusätzlichkeitskriterien für die Regelung waren bis spätestens zum 1. Juli 2024 durch die BNetzA festzulegen.
+Die BNetzA hat am 28.06.2024 die Festlegung für die Zusätzlichkeitskriterien gem. § 13k Abs. 3 Satz 3 EnWG veröffentlicht. Für weitere Informationen zu diesem Thema empfehlen wir die entsprechende Veröffentlichung der BNetzA.
+Der Start über eine Erprobungsphase ist für den 1. Oktober 2024 vorgesehen.
+Am 01.08. haben die ÜNB die Vertragsunterlagen und Parameter für den Start des Instruments veröffentlicht. Zudem wurde eine FAQ-Seite zur Hilfestellung eingerichtet.
+Um das Wirkungspotential des Instruments zu beurteilen, wurden relevante Stakeholder frühzeitig miteingebunden. In Abstimmung mit BNetzA und BMWK haben die ÜNB einen Branchendialog organisiert und durch mehrere Informationsveranstaltungen ab Januar 2024 potenzielle Interessenten/Teilnehmer diskriminierungsfrei über den geplanten Rahmen informiert und deren Anforderungen und Sichtweisen abgefragt.
+Darüber hinaus haben die ÜNB potenzielle Teilnehmer befragt, um mögliche Pilotprojekte zu identifizieren, die in der Erprobungsphase teilnehmen könnten. Weiterhin wurden bilaterale Austauschtermine mit Interessenten für eine mögliche Teilnahme organisiert.
+Die Regelung des § 13k EnWG ist am 29.12.2023 in Kraft getreten und ist unter folgendem Link zu fin-den: BGBl. 2023 I Nr. 405 vom 28.12.2023 (ab Seite 5). Die zugehörige Beschlussempfehlung inklusive Gesetzesbegründung kann unter folgendem Link eingesehen werden: Deutscher Bundestag Drucksache 20/9187 (ab Seite 25).
+Interessenten und potentielle Teilnehmer werden weiterhin gebeten Kontakt mit den 4 ÜNB aufzunehmen. Bitte nutzen Sie hierfür das Kontaktformular und wählen sie das Thema „Nutzen statt Abregeln“ aus. Bitte geben Sie wenn möglich in Ihrer Nachricht bereits die Art des geplanten zusätzlichen Verbrauchs und den geplanten Standort der Entlastungsanlagen an.
 Suchbegriff eingebenAlleSuchen
-const loadSearchApp100 = () =&gt; {
-const moduleContext = {"moduleId":100,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
+const loadSearchApp885 = () =&gt; {
+const moduleContext = {"moduleId":885,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
 window.lotes.searchApp.create(moduleContext);
 }
-$(document).ready(function () { loadSearchApp100(); } );
+$(document).ready(function () { loadSearchApp885(); } );
 Suche
 Kontakt
 Glossar
@@ -3073,12 +2830,12 @@
 mFRR AT/DE-Kooperation „GAMMA“
 IGCC-Datenpunkte
 Frequenzhaltung
-Betriebsfuehrung
+Spannungshaltung
+Blindleistung
 Redispatch
 Kapazitätsreserve
 Elektrolyseanlagen
 Freiwillige Lastreduktion
-Nutzen statt Abregeln
 Fahrplanmanagement
 Versorgungswiederaufbau
 Marktgestützte Beschaffung von Schwarzstartfähigkeit
@@ -3088,6 +2845,7 @@
 Generation and load data provision methodology - GLDPM
 Clean Energy Package
 Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
 Electricity Balancing (EB)
 Bilanzkreisvertrag
 ER-Verordnung
@@ -3100,7 +2858,6 @@
 Strompreisbremse
 Impressum
 Datenschutz
-FAQ
 Login
 Suchbegriff eingeben
 Alle
@@ -3195,6 +2952,7 @@
 Umlage nach § 18 AbLaV für das Jahr 2018
 AbLaV-Umlage der Jahre 2014 bis 2022
 Jahresabrechnungen der Abschaltbare Lasten-Umlage
+Einheitliche Auslegung von E-STATCOM
 Abrechnung BDEW-Übergangslösung
 Redispatch 2.0 an der Schnittstelle ÜNB-VNB
 Kalkulatorische Preise
@@ -3202,12 +2960,6 @@
 Veröffentlichungen zum Erbringungszeitraum 2024-2026
 Veröffentlichungen zum Erbringungszeitraum 2022-2024
 Veröffentlichungen zum Erbringungszeitraum 2020-2022
-ÜNB-Umsetzungskonzept
-Entlastungsregionen
-Vertragsunterlagen
-ÜNB-Parameter
-Informationsveranstaltungen für potenzielle Teilnehmer
-Koordination mit VNB
 Implementierungsvorschriften
 Beschlüsse
 Konsultation
@@ -3215,7 +2967,26 @@
 Konsultation Bilanzkreisvertrag 2019</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-10 06:48:27</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.netztransparenz.de/de-de/Systemdienstleistungen/Spannungshaltung/Blindleistung</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>Home
 Systemdienstleistungen
@@ -3447,91 +3218,36 @@
 Konsultation Bilanzkreisvertrag 2019</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>There is a change</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-04 08:16:00</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.netztransparenz.de/de-de/Systemdienstleistungen/Versorgungswiederaufbau/Marktgest%C3%BCtzte-Beschaffung-von-Schwarzstartf%C3%A4higkeit</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="D7" s="1" t="inlineStr">
         <is>
           <t>Home
 Systemdienstleistungen
-Versorgungswiederaufbau
-Marktgestützte Beschaffung von Schwarzstartfähigkeit
+Spannungshaltung
+Blindleistung
+Einheitliche Auslegung von E-STATCOM
 RSS
-Im Falle eines großflächigen Stromausfalles sind schwarzstartfähige Stromerzeugungsanlagen erforderlich. Deren Beschaffung erfolgt nach von der Bundesnetzagentur bekanntgegebenen Rahmenbedingungen.
-Wann wird Schwarzstartfähigkeit benötigt?
-Für den Fall, dass es zu einem großflächigen Stromausfall kommt, hält jeder regelzonenverantwortliche Übertragungsnetzbetreiber (ÜNB) gemäß der „Verordnung (EU) 2017/2196 der Kommission vom 24. November 2017 zur Festlegung eines Netzkodex über den Notzustand und den Netzwiederaufbau des Übertragungsnetzes“ einen sogenannten Netzwiederaufbauplan bereit. Im Netzwiederaufbauplan ist beschrieben, wie das Übertragungsnetz im Falle eines großflächigen Stromausfalls mittels einer Netzwiederaufbaustrategie schrittweise wieder unter Spannung gesetzt werden kann. Für den Netzwiederaufbau sind schwarzstartfähige Stromerzeugungsanlagen (Schwarzstartanlagen) erforderlich, die eigenständig und ohne externe Spannungsversorgung ein Teilnetz unter Spannung setzen können. Außerdem müssen Schwarzstartanlagen Leistung abgeben sowie Netzfrequenz und Spannung regeln können.
-Wie wird Schwarzstartfähigkeit beschafft?
-Bisher wurden Schwarzstartanlagen von den ÜNB im Rahmen bilateraler Verträge mit Betreibern von Schwarzstartanlagen kontrahiert. Gemäß §12h EnWG ist Schwarzstartfähigkeit zukünftig durch die ÜNB als nicht frequenzgebundene Systemdienstleistung in einem transparenten, diskriminierungsfreien und marktgestützten Verfahren zu beschaffen. Mit der Festlegung BK6-21-023 der Bundesnetzagentur sind die Rahmenbedingungen des künftigen Beschaffungsverfahrens bekanntgegeben worden. Grundlegende Voraussetzung für die Teilnahme an der marktgestützten Beschaffung ist, dass Anbieter die technischen und organisatorischen Anforderungen gemäß BK6-18-249 erfüllen. Die marktgestützte Beschaffung von Schwarzstartfähigkeit wird regionsweise und zeitlich gestaffelt erfolgen. Zwischen dem Zeitpunkt, zu dem ein Anbieter den Zuschlag erhält, und dem Beginn des Erbringungszeitraums, ist ein mehrjähriger Zeitraum vorgesehen. So können auch Anbieter mit bestehenden Anlagen, die bisher nicht schwarzstartfähig sind, sowie Neuanlagen an den Ausschreibungen teilnehmen. Die Ertüchtigung bzw. der Bau der Anlagen durch den Anlagenbetreiber muss dann nach Bezuschlagung spätestens bis zum Beginn des Erbringungszeitraums abgeschlossen werden.
-Online-Beschaffungskalender
-Für die Beschaffung von Schwarzstartfähigkeit werden voraussichtlich folgende Beschaffungsregionen gebildet:
-Quelle: Übertragungsnetzbetreiber/FNN
-Weiter finden Sie hier die Zuordnung der einzelnen Umspannwerke auf die Beschaffungsregionen in tabellarischer Form.
-Die zeitliche Staffelung der Beschaffung ist aktuell wie folgt geplant:
-BESCHAFFENDER ÜBERTRAGUNGSNETZBETREIBER	BESCHAFFUNGSREGION	VORAUSSICHTLICHER BEGINN DER BESCHAFFUNG (BEKANNTMACHUNG)
-50Hertz Transmission GmbH	50Hertz Nord-Ost	Aktuell laufendes Beschaffungsverfahren
-50Hertz Transmission GmbH	50Hertz Nord-West	Aktuell laufendes Beschaffungsverfahren
-50Hertz Transmission GmbH	50Hertz Mitte	Aktuell laufendes Beschaffungsverfahren
-50Hertz Transmission GmbH	50Hertz Süd-Ost	September 2026
-50Hertz Transmission GmbH	50Hertz Süd-West	September 2026
-TenneT TSO GmbH	TenneT Nord (beinhaltet Region Hamburg in der Regelzone der 50Hertz Transmission GmbH)	Aktuell laufendes Beschaffungsverfahren
-TenneT TSO GmbH	TenneT Mitte	Januar 2027
-TenneT TSO GmbH	TenneT Süd	Juli 2025
-Amprion GmbH	Amprion Nord 1	Aktuell laufendes Beschaffungsverfahren
-Amprion GmbH	Amprion Nord 2	Juli 2025
-Amprion GmbH	Amprion Süd 1	Januar 2027
-Amprion GmbH	Amprion Süd 2	Januar 2028
-TransnetBW GmbH	TransnetBW West	Aktuell laufendes Beschaffungsverfahren
-TransnetBW GmbH	TransnetBW Ost	Juni 2025
-Die vorgenannten Angaben stellen den aktuellen, unverbindlichen Planungsstand dar und werden bei Bedarf aktualisiert.
-Anbieterkonsultation des Mustervertrages
-Für die zukünftige marktgestützte Beschaffung von Schwarzstartfähigkeit haben die vier deutschen Übertragungsnetzbetreiber (ÜNB) einen Entwurf des Mustervertrages erarbeitet, der ab 15.11.2023 öffentlich zur Konsultation gestellt wurde.
-Anmerkungen zum Entwurf konnten bis einschließlich 28.11.2023 den ÜNB zugesandt werden. Soweit möglich und sachgerecht wurden sie bei der Finalisierung berücksichtigt.
-Bekanntmachung der Beschaffung
-Am 12.01.2024 haben alle vier ÜNB Beschaffungsverfahren für die Beschaffung der nichtfrequenzgebundenen Systemdienstleistung „Schwarzstartfähigkeit“ in den nachfolgend aufgelisteten Beschaffungsregionen eröffnet. Detaillierte Informationen zu den jeweiligen Beschaffungsverfahren können den folgenden Webseiten der einzelnen ÜNB entnommen werden:
-50Hertz Transmission GmbH: 50Hertz Nord-Ost/ 50Hertz Nord-West/ 50Hertz Mitte
-TenneT TSO GmbH: TenneT Nord (beinhaltet Region Hamburg in der Regelzone der 50Hertz Transmission GmbH)
-Amprion GmbH: Amprion Nord 1
-TransnetBW GmbH: TransnetBW West
-Q&amp;A zum Beschaffungsverfahren Schwarzstartfähigkeit
-An dieser Stelle veröffentlichen die 4ÜNB in regelmäßigem Zyklus in anonymisierter Form Antworten auf Anbieterfragen, welche von allgemeinem Interesse sind. Anbieterfragen können über die unten genannten Kontaktdaten an die Netzbetreiber adressiert werden.
-Die Anbieterfragen werden tabellarisch veröffentlicht, wobei die neuen Veröffentlichungen jeweils die vergangenen Fragen und Antworten mit beinhalten. Vergangene Antworten werden bei neuen Veröffentlichungen ggf. präzisierend ergänzt, dies wird dann gesondert kenntlich gemacht.
-Fünfte Veröffentlichung der Anbieterfragen zum 01.07.2024. – Q&amp;A – Beschaffungsverfahren Schwarzstartfähigkeit
-Weitere Informationen
-BK6-18-249 Genehmigung des Vorschlags der deutschen Übertragungsnetzbetreiber (ÜNB) für die vertraglichen Modalitäten für Anbieter von Systemdienstleistungen zum Netzwiederaufbau gem. Art. 4 Abs. 4 der Verordnung (EU) 2017/2196 (E&amp;R-Verordnung)
-insbesondere die technischen und organisatorischen Anforderungen: Modalitäten für Anbieter von Systemdienstleistungen zum Netzwiederaufbau
-BK6-21-023 Festlegung zu den Spezifikationen und technischen Anforderungen der transparenten, diskriminierungsfreien und marktgestützten Beschaffung der nicht frequenzgebundenen Systemdienstleistung „Schwarzstartfähigkeit
-Kontakt zu den ÜNB
-Für Fragen zur marktgestützten Beschaffung von Schwarzstartfähigkeit können sich interessierte Anbieter gerne an den jeweils verantwortlichen ÜNB wenden:
-50Hertz Transmission GmbH:	ausschreibung-schwarzstart@50hertz.com
-Amprion GmbH:	ausschreibung-schwarzstart@amprion.net
-TenneT TSO GmbH:	schwarzstart@tennet.eu
-TransnetBW GmbH:	nfSDL@transnetbw.de
+Anfang 2023 hat die Bundesnetzagentur ein Festlegungsverfahren gem. „§§ 12h Abs. 5, 29 Abs. 1 EnWG zu den Spezifikationen und technischen Anforderungen der transparenten, diskriminierungsfreien und marktgestützten Beschaffung der nicht frequenzgebundenen Systemdienstleistung „Dienstleistungen zur Spannungsregelung“ („Blindleistung“)“ eingeleitet.
+Diese Festlegung ist am 25.06.2024 mit dem zugehörigen Beschluss auf der Webseite der Bundesnetzagentur veröffentlicht worden.
+Die Kontrahierung von Blindleistung und /-arbeit erfolgt durch Netzbetreiber von Höchst- u. Hochspannungsnetzen bei geeigneten Anlagen an ihrem Netz.
+Zeitlicher Rahmen:
+12 Monate nach Festlegung sind Betreiber von Übertragungsnetzen dazu verpflichtet bei Blindleistungsbedarf in mindestens einer Region marktgestützt Blindleistung auszuschreiben
+Bis 36 Monate nach Festlegung muss der Netzbetreiber für alle Netzregionen eine marktgestützte Beschaffung eigeleitet haben, sofern Bedarf besteht
+Die ersten Ausschreibungen werden bis Mitte 2025 durch die ÜNB auf der Netztransparenz.de bekannt gegeben
+Erste Bezuschlagungen von Anbietern für Blindleistung und Blindarbeit sollen bis Ende 2025 erfolgen
+Das Beschaffungskonzept „Blindleistung“ BK6-32-072 regelt den Rahmen für
+Teilnahmevoraussetzungen
+Produktdefinitionen
+Fristen
+Bekanntmachung
+Bewertung von Geboten und Zuschlagserteilung
+Vergütung und Abrechnung
+Die weiteren Details sind den individuellen Bekanntmachungen zur Ausschreibung der jeweiligen ÜNB zu entnehmen.
 Suchbegriff eingebenAlleSuchen
-const loadSearchApp897 = () =&gt; {
-const moduleContext = {"moduleId":897,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
+const loadSearchApp100 = () =&gt; {
+const moduleContext = {"moduleId":100,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
 window.lotes.searchApp.create(moduleContext);
 }
-$(document).ready(function () { loadSearchApp897(); } );
+$(document).ready(function () { loadSearchApp100(); } );
 Suche
 Kontakt
 Glossar
@@ -3591,8 +3307,6 @@
 mFRR AT/DE-Kooperation „GAMMA“
 IGCC-Datenpunkte
 Frequenzhaltung
-Spannungshaltung
-Blindleistung
 Betriebsfuehrung
 Redispatch
 Kapazitätsreserve
@@ -3600,12 +3314,15 @@
 Freiwillige Lastreduktion
 Nutzen statt Abregeln
 Fahrplanmanagement
+Versorgungswiederaufbau
+Marktgestützte Beschaffung von Schwarzstartfähigkeit
 Strommarktdesign
 Strommarkt-Forum
 CACM-Verordnung
 Generation and load data provision methodology - GLDPM
 Clean Energy Package
 Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
 Electricity Balancing (EB)
 Bilanzkreisvertrag
 ER-Verordnung
@@ -3713,7 +3430,6 @@
 Umlage nach § 18 AbLaV für das Jahr 2018
 AbLaV-Umlage der Jahre 2014 bis 2022
 Jahresabrechnungen der Abschaltbare Lasten-Umlage
-Einheitliche Auslegung von E-STATCOM
 Abrechnung BDEW-Übergangslösung
 Redispatch 2.0 an der Schnittstelle ÜNB-VNB
 Kalkulatorische Preise
@@ -3734,7 +3450,26 @@
 Konsultation Bilanzkreisvertrag 2019</t>
         </is>
       </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-10 06:48:27</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.netztransparenz.de/de-de/Systemdienstleistungen/Versorgungswiederaufbau/Marktgest%C3%BCtzte-Beschaffung-von-Schwarzstartf%C3%A4higkeit</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>Home
 Systemdienstleistungen
@@ -3999,45 +3734,68 @@
 Konsultation Bilanzkreisvertrag 2019</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>There is a change</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-04 08:16:00</t>
-        </is>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.netztransparenz.de/de-de/Strommarktdesign/4%C3%9CNB-Studie-zur-Ausarbeitung-eines-Kapazit%C3%A4tsmechanismus-f%C3%BCr-den-deutschen-Strommarkt</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="D8" s="1" t="inlineStr">
         <is>
           <t>Home
-Strommarktdesign
-4ÜNB-Studie zur Ausarbeitung eines Kapazitätsmechanismus für den deutschen Strommarkt
-Die von der Bundesregierung angekündigte Kraftwerksstrategie zur Förderung von 10,5 GW Kraftwerksneubauten leistet einen unverzichtbaren Beitrag zur Versorgungssicherheit in Deutschland und muss aus diesem Grund so schnell wie möglich umgesetzt werden. Analysen der vier deutschen Übertragungsnetzbetreiber und die des aktuellen European Ressource Adequacy Assessments (ERAA 2023) der europäischen Übertragungsnetzbetreiber (ENTSO-E) sowie das Versorgungssicherheitsmonitoring 2030/31 der Bundesnetzagentur zeigen einen erheblichen Mehrbedarf an gesicherter Leistung in Höhe von etwa 20-25 GW, der die geplanten Ausschreibungsmengen der Kraftwerksstrategie jeweils bei Weitem übersteigt. Gleichzeitig bestehen im aktuellen Marktumfeld offensichtlich keine ausreichenden Anreize für Anlagenbetreiber, um abseits der geplanten Ausschreibungen in erforderlichem Maße neue Anlagen zu errichten. Um jenseits der Kraftwerkstrategie mittel- und langfristig für ausreichend Investitionen in gesicherte Leistung zu sorgen und gleichzeitig den Kohleausstieg zu ermöglichen, bedarf es folglich eines effektiven und effizienten Instrumentes. Deswegen ist es gut, dass die Bundesregierung sich zudem darauf geeinigt hat, ab 2028 zusätzlich einen Kapazitätsmarkt einzuführen. Die vier Übertragungsnetzbetreiber hatten bereits 2022 Consentec und das Ecologic Institut beauftragt, eine Studie zur Ausarbeitung eines konkreten Kapazitätsmarktes für den deutschen Strommarkt zu erstellen.
-Eine Besonderheit des in dieser Studie beschriebenen Kapazitätsmarktes ist die Implementierung einer lokalen Komponente. Aus Sicht der vier Übertragungsnetzbetreiber ist sie eine wesentliche Voraussetzung für ein effizientes Zusammenspiel des Übertragungsnetzes mit flexiblen Erzeugungs- und Verbrauchseinrichtungen, denn sie ermöglicht es, Synergien – insbesondere bei der Erbringung von Systemdienstleistungen - zu heben.
-Downloads
-15.05.2024
-ConsentecEcologic_4ÜNB_KapM_Endbericht_final_inkl.Begleitschreiben, PDF, 831.16 KB
+Systemdienstleistungen
+Versorgungswiederaufbau
+Marktgestützte Beschaffung von Schwarzstartfähigkeit
+RSS
+Im Falle eines großflächigen Stromausfalles sind schwarzstartfähige Stromerzeugungsanlagen erforderlich. Deren Beschaffung erfolgt nach von der Bundesnetzagentur bekanntgegebenen Rahmenbedingungen.
+Wann wird Schwarzstartfähigkeit benötigt?
+Für den Fall, dass es zu einem großflächigen Stromausfall kommt, hält jeder regelzonenverantwortliche Übertragungsnetzbetreiber (ÜNB) gemäß der „Verordnung (EU) 2017/2196 der Kommission vom 24. November 2017 zur Festlegung eines Netzkodex über den Notzustand und den Netzwiederaufbau des Übertragungsnetzes“ einen sogenannten Netzwiederaufbauplan bereit. Im Netzwiederaufbauplan ist beschrieben, wie das Übertragungsnetz im Falle eines großflächigen Stromausfalls mittels einer Netzwiederaufbaustrategie schrittweise wieder unter Spannung gesetzt werden kann. Für den Netzwiederaufbau sind schwarzstartfähige Stromerzeugungsanlagen (Schwarzstartanlagen) erforderlich, die eigenständig und ohne externe Spannungsversorgung ein Teilnetz unter Spannung setzen können. Außerdem müssen Schwarzstartanlagen Leistung abgeben sowie Netzfrequenz und Spannung regeln können.
+Wie wird Schwarzstartfähigkeit beschafft?
+Bisher wurden Schwarzstartanlagen von den ÜNB im Rahmen bilateraler Verträge mit Betreibern von Schwarzstartanlagen kontrahiert. Gemäß §12h EnWG ist Schwarzstartfähigkeit zukünftig durch die ÜNB als nicht frequenzgebundene Systemdienstleistung in einem transparenten, diskriminierungsfreien und marktgestützten Verfahren zu beschaffen. Mit der Festlegung BK6-21-023 der Bundesnetzagentur sind die Rahmenbedingungen des künftigen Beschaffungsverfahrens bekanntgegeben worden. Grundlegende Voraussetzung für die Teilnahme an der marktgestützten Beschaffung ist, dass Anbieter die technischen und organisatorischen Anforderungen gemäß BK6-18-249 erfüllen. Die marktgestützte Beschaffung von Schwarzstartfähigkeit wird regionsweise und zeitlich gestaffelt erfolgen. Zwischen dem Zeitpunkt, zu dem ein Anbieter den Zuschlag erhält, und dem Beginn des Erbringungszeitraums, ist ein mehrjähriger Zeitraum vorgesehen. So können auch Anbieter mit bestehenden Anlagen, die bisher nicht schwarzstartfähig sind, sowie Neuanlagen an den Ausschreibungen teilnehmen. Die Ertüchtigung bzw. der Bau der Anlagen durch den Anlagenbetreiber muss dann nach Bezuschlagung spätestens bis zum Beginn des Erbringungszeitraums abgeschlossen werden.
+Online-Beschaffungskalender
+Für die Beschaffung von Schwarzstartfähigkeit werden voraussichtlich folgende Beschaffungsregionen gebildet:
+Quelle: Übertragungsnetzbetreiber/FNN
+Weiter finden Sie hier die Zuordnung der einzelnen Umspannwerke auf die Beschaffungsregionen in tabellarischer Form.
+Die zeitliche Staffelung der Beschaffung ist aktuell wie folgt geplant:
+BESCHAFFENDER ÜBERTRAGUNGSNETZBETREIBER	BESCHAFFUNGSREGION	VORAUSSICHTLICHER BEGINN DER BESCHAFFUNG (BEKANNTMACHUNG)
+50Hertz Transmission GmbH	50Hertz Nord-Ost	Aktuell laufendes Beschaffungsverfahren
+50Hertz Transmission GmbH	50Hertz Nord-West	Aktuell laufendes Beschaffungsverfahren
+50Hertz Transmission GmbH	50Hertz Mitte	Aktuell laufendes Beschaffungsverfahren
+50Hertz Transmission GmbH	50Hertz Süd-Ost	September 2026
+50Hertz Transmission GmbH	50Hertz Süd-West	September 2026
+TenneT TSO GmbH	TenneT Nord (beinhaltet Region Hamburg in der Regelzone der 50Hertz Transmission GmbH)	Aktuell laufendes Beschaffungsverfahren
+TenneT TSO GmbH	TenneT Mitte	Januar 2027
+TenneT TSO GmbH	TenneT Süd	Juli 2025
+Amprion GmbH	Amprion Nord 1	Aktuell laufendes Beschaffungsverfahren
+Amprion GmbH	Amprion Nord 2	Juli 2025
+Amprion GmbH	Amprion Süd 1	Januar 2027
+Amprion GmbH	Amprion Süd 2	Januar 2028
+TransnetBW GmbH	TransnetBW West	Aktuell laufendes Beschaffungsverfahren
+TransnetBW GmbH	TransnetBW Ost	Juni 2025
+Die vorgenannten Angaben stellen den aktuellen, unverbindlichen Planungsstand dar und werden bei Bedarf aktualisiert.
+Anbieterkonsultation des Mustervertrages
+Für die zukünftige marktgestützte Beschaffung von Schwarzstartfähigkeit haben die vier deutschen Übertragungsnetzbetreiber (ÜNB) einen Entwurf des Mustervertrages erarbeitet, der ab 15.11.2023 öffentlich zur Konsultation gestellt wurde.
+Anmerkungen zum Entwurf konnten bis einschließlich 28.11.2023 den ÜNB zugesandt werden. Soweit möglich und sachgerecht wurden sie bei der Finalisierung berücksichtigt.
+Bekanntmachung der Beschaffung
+Am 12.01.2024 haben alle vier ÜNB Beschaffungsverfahren für die Beschaffung der nichtfrequenzgebundenen Systemdienstleistung „Schwarzstartfähigkeit“ in den nachfolgend aufgelisteten Beschaffungsregionen eröffnet. Detaillierte Informationen zu den jeweiligen Beschaffungsverfahren können den folgenden Webseiten der einzelnen ÜNB entnommen werden:
+50Hertz Transmission GmbH: 50Hertz Nord-Ost/ 50Hertz Nord-West/ 50Hertz Mitte
+TenneT TSO GmbH: TenneT Nord (beinhaltet Region Hamburg in der Regelzone der 50Hertz Transmission GmbH)
+Amprion GmbH: Amprion Nord 1
+TransnetBW GmbH: TransnetBW West
+Q&amp;A zum Beschaffungsverfahren Schwarzstartfähigkeit
+An dieser Stelle veröffentlichen die 4ÜNB in regelmäßigem Zyklus in anonymisierter Form Antworten auf Anbieterfragen, welche von allgemeinem Interesse sind. Anbieterfragen können über die unten genannten Kontaktdaten an die Netzbetreiber adressiert werden.
+Die Anbieterfragen werden tabellarisch veröffentlicht, wobei die neuen Veröffentlichungen jeweils die vergangenen Fragen und Antworten mit beinhalten. Vergangene Antworten werden bei neuen Veröffentlichungen ggf. präzisierend ergänzt, dies wird dann gesondert kenntlich gemacht.
+Fünfte Veröffentlichung der Anbieterfragen zum 01.07.2024. – Q&amp;A – Beschaffungsverfahren Schwarzstartfähigkeit
+Weitere Informationen
+BK6-18-249 Genehmigung des Vorschlags der deutschen Übertragungsnetzbetreiber (ÜNB) für die vertraglichen Modalitäten für Anbieter von Systemdienstleistungen zum Netzwiederaufbau gem. Art. 4 Abs. 4 der Verordnung (EU) 2017/2196 (E&amp;R-Verordnung)
+insbesondere die technischen und organisatorischen Anforderungen: Modalitäten für Anbieter von Systemdienstleistungen zum Netzwiederaufbau
+BK6-21-023 Festlegung zu den Spezifikationen und technischen Anforderungen der transparenten, diskriminierungsfreien und marktgestützten Beschaffung der nicht frequenzgebundenen Systemdienstleistung „Schwarzstartfähigkeit
+Kontakt zu den ÜNB
+Für Fragen zur marktgestützten Beschaffung von Schwarzstartfähigkeit können sich interessierte Anbieter gerne an den jeweils verantwortlichen ÜNB wenden:
+50Hertz Transmission GmbH:	ausschreibung-schwarzstart@50hertz.com
+Amprion GmbH:	ausschreibung-schwarzstart@amprion.net
+TenneT TSO GmbH:	schwarzstart@tennet.eu
+TransnetBW GmbH:	nfSDL@transnetbw.de
 Suchbegriff eingebenAlleSuchen
-const loadSearchApp931 = () =&gt; {
-const moduleContext = {"moduleId":931,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
+const loadSearchApp897 = () =&gt; {
+const moduleContext = {"moduleId":897,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
 window.lotes.searchApp.create(moduleContext);
 }
-$(document).ready(function () { loadSearchApp931(); } );
+$(document).ready(function () { loadSearchApp897(); } );
 Suche
 Kontakt
 Glossar
@@ -4096,7 +3854,6 @@
 aFRR AT/DE-Kooperation
 mFRR AT/DE-Kooperation „GAMMA“
 IGCC-Datenpunkte
-Systemdienstleistungen
 Frequenzhaltung
 Spannungshaltung
 Blindleistung
@@ -4107,13 +3864,13 @@
 Freiwillige Lastreduktion
 Nutzen statt Abregeln
 Fahrplanmanagement
-Versorgungswiederaufbau
-Marktgestützte Beschaffung von Schwarzstartfähigkeit
+Strommarktdesign
 Strommarkt-Forum
 CACM-Verordnung
 Generation and load data provision methodology - GLDPM
 Clean Energy Package
 Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
 Electricity Balancing (EB)
 Bilanzkreisvertrag
 ER-Verordnung
@@ -4122,6 +3879,7 @@
 CGMMv3
 Datenaustausch
 RfG-Verordnung
+4ÜNB-Studie zur Ausarbeitung eines Kapazitätsmechanismus für den deutschen Strommarkt
 Strompreisbremse
 Impressum
 Datenschutz
@@ -4241,7 +3999,26 @@
 Konsultation Bilanzkreisvertrag 2019</t>
         </is>
       </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-10 06:48:27</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.netztransparenz.de/de-de/Strommarktdesign/4%C3%9CNB-Studie-zur-Ausarbeitung-eines-Kapazit%C3%A4tsmechanismus-f%C3%BCr-den-deutschen-Strommarkt</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>Home
 Strommarktdesign
@@ -4461,50 +4238,22 @@
 Konsultation Bilanzkreisvertrag 2019</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>There is a change</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-04 08:16:00</t>
-        </is>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.netztransparenz.de/de-de/Erneuerbare-Energien-und-Umlagen/EEG/EEG-Finanzierung</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="D9" s="1" t="inlineStr">
         <is>
           <t>Home
-Erneuerbare Energien und Umlagen
-EEG
-EEG-Finanzierung
-EEG-Finanzierungsbedarf
-EEG-Umlagen
-Mittelfristprognosen
-EEG-Abrechnungen
-Bis 2022 finanzierte die EEG-Umlage den Ausbau Erneuerbarer Energien, seit 2023 läuft die Förderung über den Bundeshaushalt. Hier erfahren Sie mehr zu den jeweiligen Finanzierungsmechanismen sowie den Mittelfristprognosen zum Ausbau der erneuerbaren Energien.
-Neuregelung des EEG-Finanzierungsbedarfs ab 2023
-Schon im Juli 2022 war die EEG-Umlage zur Entlastung der Verbraucherinnen und Verbraucher auf Null gesenkt worden.
-Seit dem 1. Januar 2023 ist die EEG-Umlage gesetzlich ganz weggefallen. Die Förderung Erneuerbarer Energien ist nun Teil des Bundeshaushalts.
-Jährlich zum 25. Oktober veröffentlichen die Übertragungsnetzbetreiber den EEG-Finanzierungsbedarf für das folgende Kalenderjahr. Er wird nach dem Energiefinanzierungsgesetz (EnFG) ermittelt.
+Strommarktdesign
+4ÜNB-Studie zur Ausarbeitung eines Kapazitätsmechanismus für den deutschen Strommarkt
+Die von der Bundesregierung angekündigte Kraftwerksstrategie zur Förderung von 10,5 GW Kraftwerksneubauten leistet einen unverzichtbaren Beitrag zur Versorgungssicherheit in Deutschland und muss aus diesem Grund so schnell wie möglich umgesetzt werden. Analysen der vier deutschen Übertragungsnetzbetreiber und die des aktuellen European Ressource Adequacy Assessments (ERAA 2023) der europäischen Übertragungsnetzbetreiber (ENTSO-E) sowie das Versorgungssicherheitsmonitoring 2030/31 der Bundesnetzagentur zeigen einen erheblichen Mehrbedarf an gesicherter Leistung in Höhe von etwa 20-25 GW, der die geplanten Ausschreibungsmengen der Kraftwerksstrategie jeweils bei Weitem übersteigt. Gleichzeitig bestehen im aktuellen Marktumfeld offensichtlich keine ausreichenden Anreize für Anlagenbetreiber, um abseits der geplanten Ausschreibungen in erforderlichem Maße neue Anlagen zu errichten. Um jenseits der Kraftwerkstrategie mittel- und langfristig für ausreichend Investitionen in gesicherte Leistung zu sorgen und gleichzeitig den Kohleausstieg zu ermöglichen, bedarf es folglich eines effektiven und effizienten Instrumentes. Deswegen ist es gut, dass die Bundesregierung sich zudem darauf geeinigt hat, ab 2028 zusätzlich einen Kapazitätsmarkt einzuführen. Die vier Übertragungsnetzbetreiber hatten bereits 2022 Consentec und das Ecologic Institut beauftragt, eine Studie zur Ausarbeitung eines konkreten Kapazitätsmarktes für den deutschen Strommarkt zu erstellen.
+Eine Besonderheit des in dieser Studie beschriebenen Kapazitätsmarktes ist die Implementierung einer lokalen Komponente. Aus Sicht der vier Übertragungsnetzbetreiber ist sie eine wesentliche Voraussetzung für ein effizientes Zusammenspiel des Übertragungsnetzes mit flexiblen Erzeugungs- und Verbrauchseinrichtungen, denn sie ermöglicht es, Synergien – insbesondere bei der Erbringung von Systemdienstleistungen - zu heben.
+Downloads
+15.05.2024
+ConsentecEcologic_4ÜNB_KapM_Endbericht_final_inkl.Begleitschreiben, PDF, 831.16 KB
 Suchbegriff eingebenAlleSuchen
-const loadSearchApp483 = () =&gt; {
-const moduleContext = {"moduleId":483,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
+const loadSearchApp931 = () =&gt; {
+const moduleContext = {"moduleId":931,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
 window.lotes.searchApp.create(moduleContext);
 }
-$(document).ready(function () { loadSearchApp483(); } );
+$(document).ready(function () { loadSearchApp931(); } );
 Suche
 Kontakt
 Glossar
@@ -4523,6 +4272,10 @@
 Studien und Positionspapiere
 Informationsplattformen
 Veröffentlichungspflichten gemäß EU-Transparenzverordnung
+Erneuerbare Energien und Umlagen
+EEG
+EEG-Finanzierung
+EEG-Abrechnungen
 Transparenzanforderungen
 Archiv
 KWKG
@@ -4572,12 +4325,12 @@
 Fahrplanmanagement
 Versorgungswiederaufbau
 Marktgestützte Beschaffung von Schwarzstartfähigkeit
-Strommarktdesign
 Strommarkt-Forum
 CACM-Verordnung
 Generation and load data provision methodology - GLDPM
 Clean Energy Package
 Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
 Electricity Balancing (EB)
 Bilanzkreisvertrag
 ER-Verordnung
@@ -4586,7 +4339,6 @@
 CGMMv3
 Datenaustausch
 RfG-Verordnung
-4ÜNB-Studie zur Ausarbeitung eines Kapazitätsmechanismus für den deutschen Strommarkt
 Strompreisbremse
 Impressum
 Datenschutz
@@ -4594,13 +4346,16 @@
 Login
 Suchbegriff eingeben
 Alle
+EEG-Finanzierungsbedarf
 EEG-Finanzierungsbedarf 2024
 EEG-Finanzierungsbedarf 2023
+EEG-Umlagen
 EEG-Umlage 2022
 EEG-Umlage 2021
 EEG-Umlage 2020
 EEG-Umlage 2019
 EEG-Umlagen der Vorjahre
+Mittelfristprognosen
 Mittelfristprognose 2024-2028
 Mittelfristprognose 2023-2027
 Mittelfristprognose 2022-2026
@@ -4703,7 +4458,26 @@
 Konsultation Bilanzkreisvertrag 2019</t>
         </is>
       </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-10 06:48:27</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.netztransparenz.de/de-de/Erneuerbare-Energien-und-Umlagen/EEG/EEG-Finanzierung</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>Home
 Erneuerbare Energien und Umlagen
@@ -4923,81 +4697,27 @@
 Konsultation Bilanzkreisvertrag 2019</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>There is a change</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-04 08:16:00</t>
-        </is>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.netztransparenz.de/de-de/Erneuerbare-Energien-und-Umlagen/EEG/EEG-Finanzierung/EEG-Umlagen</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="D10" s="1" t="inlineStr">
         <is>
           <t>Home
 Erneuerbare Energien und Umlagen
 EEG
 EEG-Finanzierung
+EEG-Finanzierungsbedarf
 EEG-Umlagen
-EEG-Umlage 2022
-EEG-Umlage 2021
-EEG-Umlage 2020
-EEG-Umlage 2019
-EEG-Umlagen der Vorjahre
-Mit der EEG-Umlage wurde bis 2022 der Ausbau Erneuerbarer Energien finanziert. Hier erhalten Sie weitere Details, Hintergrundinformationen sowie die Gutachten der Prognosedienstleister als Downloads nach Jahren aufgelistet.
-Entwicklung der EEG-Umlage 2012 – 2022
-Die EEG-Umlage deckte 2012 – 2022 die Differenz aus Einnahmen und Ausgaben der Übertragungsnetzbetreiber bei der EEG-Förderung und bestimmte sich nach § 3 Abs. 3 und 4 der Erneuerbare-Energien-Verordnung (EEV) sowie § 6 der Erneuerbare-Energien-Ausführungsverordnung (EEAV).
-In der nachstehenden Grafik sehen Sie die die Entwicklung der EEG-Umlage.
-Hinweis: Für das Jahr 2022 ist zur besseren Vergleichbarkeit die im Vorjahr ermittelte volle EEG-Umlage dargestellt. Real wurde die EEG-Umlage im zweiten Halbjahr 2022 auf Null gesetzt (nach § 60 Abs. 1a EEG).
-ct/kWh
-Entwicklung der EEG-Umlage
-3,592
-5,277
-6,240
-6,170
-6,354
-6,880
-6,792
-6,405
-6,756
-6,500
-3,723
-2012
-2013
-2014
-2015
-2016
-2017
-2018
-2019
-2020
-2021
-2022
-0
-2
-4
-6
-8
+Mittelfristprognosen
+EEG-Abrechnungen
+Bis 2022 finanzierte die EEG-Umlage den Ausbau Erneuerbarer Energien, seit 2023 läuft die Förderung über den Bundeshaushalt. Hier erfahren Sie mehr zu den jeweiligen Finanzierungsmechanismen sowie den Mittelfristprognosen zum Ausbau der erneuerbaren Energien.
+Neuregelung des EEG-Finanzierungsbedarfs ab 2023
+Schon im Juli 2022 war die EEG-Umlage zur Entlastung der Verbraucherinnen und Verbraucher auf Null gesenkt worden.
+Seit dem 1. Januar 2023 ist die EEG-Umlage gesetzlich ganz weggefallen. Die Förderung Erneuerbarer Energien ist nun Teil des Bundeshaushalts.
+Jährlich zum 25. Oktober veröffentlichen die Übertragungsnetzbetreiber den EEG-Finanzierungsbedarf für das folgende Kalenderjahr. Er wird nach dem Energiefinanzierungsgesetz (EnFG) ermittelt.
 Suchbegriff eingebenAlleSuchen
-const loadSearchApp64 = () =&gt; {
-const moduleContext = {"moduleId":64,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
+const loadSearchApp483 = () =&gt; {
+const moduleContext = {"moduleId":483,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
 window.lotes.searchApp.create(moduleContext);
 }
-$(document).ready(function () { loadSearchApp64(); } );
+$(document).ready(function () { loadSearchApp483(); } );
 Suche
 Kontakt
 Glossar
@@ -5016,7 +4736,6 @@
 Studien und Positionspapiere
 Informationsplattformen
 Veröffentlichungspflichten gemäß EU-Transparenzverordnung
-EEG-Abrechnungen
 Transparenzanforderungen
 Archiv
 KWKG
@@ -5072,6 +4791,7 @@
 Generation and load data provision methodology - GLDPM
 Clean Energy Package
 Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
 Electricity Balancing (EB)
 Bilanzkreisvertrag
 ER-Verordnung
@@ -5088,10 +4808,13 @@
 Login
 Suchbegriff eingeben
 Alle
-EEG-Finanzierungsbedarf
 EEG-Finanzierungsbedarf 2024
 EEG-Finanzierungsbedarf 2023
-Mittelfristprognosen
+EEG-Umlage 2022
+EEG-Umlage 2021
+EEG-Umlage 2020
+EEG-Umlage 2019
+EEG-Umlagen der Vorjahre
 Mittelfristprognose 2024-2028
 Mittelfristprognose 2023-2027
 Mittelfristprognose 2022-2026
@@ -5194,7 +4917,26 @@
 Konsultation Bilanzkreisvertrag 2019</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-10 06:48:27</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.netztransparenz.de/de-de/Erneuerbare-Energien-und-Umlagen/EEG/EEG-Finanzierung/EEG-Umlagen</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>Home
 Erneuerbare Energien und Umlagen
@@ -5443,51 +5185,58 @@
 Konsultation Bilanzkreisvertrag 2019</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>There is a change</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-04 08:16:00</t>
-        </is>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
-        <is>
-          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.netztransparenz.de/de-de/Erneuerbare-Energien-und-Umlagen/EEG/EEG-Abrechnungen/Umlageprivileg-f%C3%BCr-Stromspeicher</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="D11" s="1" t="inlineStr">
         <is>
           <t>Home
 Erneuerbare Energien und Umlagen
 EEG
-EEG-Abrechnungen
-Umlageprivileg für Stromspeicher
-Zur Ermittlung und als Nachweis der Verringerung der EEG-Umlage für Strom, welcher in einem Stromspeicher nach den Vorgaben des § 61l Abs. 1 EEG 2021 verbraucht wird, stellen die Übertragungsnetzbetreiber nachfolgend ein Berechnungstool zum Download zur Verfügung.
-Im Falle einer Inanspruchnahme der Umlageverringerung ist das ausgefüllte Tool spätestens zur Jahresmeldung durch alle anspruchsberechtigten Elektrizitätsversorgungsunternehmen, Letztverbraucher und Eigenversorger zusätzlich zu den sonstigen Meldepflichten gem. § 74 und § 74a EEG 2021 beim zuständigen Übertragungsnetzbetreiber vorzulegen. Die Übertragungsnetzbetreiber behalten sich vor, das Tool in bestimmten Fällen auch unterjährig anzufordern. Die Übertragungsnetzbetreiber befürworten die Verwendung des Tools auch bei einer Abrechnung der Umlageverringerung gegenüber dem Netzbetreiber.
-Weitere Einzelheiten können dem ebenfalls bereitgestellten Erläuterungsdokument entnommen werden.
-09.02.2023
-EEG-Berechnungstool
-Berechnungstool_EEG-Umlage-Reduzierung-Stand_09_02_2023, XLSX, 289.88 KB
-15.01.2019
-Erläuterungen zum Berechnungstool
-Begleitschreiben_Berechnungstool_Stand_15_01_19, PDF, 560.15 KB, 31.08.2023
+EEG-Finanzierung
+EEG-Umlagen
+EEG-Umlage 2022
+EEG-Umlage 2021
+EEG-Umlage 2020
+EEG-Umlage 2019
+EEG-Umlagen der Vorjahre
+Mit der EEG-Umlage wurde bis 2022 der Ausbau Erneuerbarer Energien finanziert. Hier erhalten Sie weitere Details, Hintergrundinformationen sowie die Gutachten der Prognosedienstleister als Downloads nach Jahren aufgelistet.
+Entwicklung der EEG-Umlage 2012 – 2022
+Die EEG-Umlage deckte 2012 – 2022 die Differenz aus Einnahmen und Ausgaben der Übertragungsnetzbetreiber bei der EEG-Förderung und bestimmte sich nach § 3 Abs. 3 und 4 der Erneuerbare-Energien-Verordnung (EEV) sowie § 6 der Erneuerbare-Energien-Ausführungsverordnung (EEAV).
+In der nachstehenden Grafik sehen Sie die die Entwicklung der EEG-Umlage.
+Hinweis: Für das Jahr 2022 ist zur besseren Vergleichbarkeit die im Vorjahr ermittelte volle EEG-Umlage dargestellt. Real wurde die EEG-Umlage im zweiten Halbjahr 2022 auf Null gesetzt (nach § 60 Abs. 1a EEG).
+ct/kWh
+Entwicklung der EEG-Umlage
+3,592
+5,277
+6,240
+6,170
+6,354
+6,880
+6,792
+6,405
+6,756
+6,500
+3,723
+2012
+2013
+2014
+2015
+2016
+2017
+2018
+2019
+2020
+2021
+2022
+0
+2
+4
+6
+8
 Suchbegriff eingebenAlleSuchen
-const loadSearchApp73 = () =&gt; {
-const moduleContext = {"moduleId":73,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
+const loadSearchApp64 = () =&gt; {
+const moduleContext = {"moduleId":64,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
 window.lotes.searchApp.create(moduleContext);
 }
-$(document).ready(function () { loadSearchApp73(); } );
+$(document).ready(function () { loadSearchApp64(); } );
 Suche
 Kontakt
 Glossar
@@ -5506,7 +5255,7 @@
 Studien und Positionspapiere
 Informationsplattformen
 Veröffentlichungspflichten gemäß EU-Transparenzverordnung
-EEG-Finanzierung
+EEG-Abrechnungen
 Transparenzanforderungen
 Archiv
 KWKG
@@ -5562,6 +5311,7 @@
 Generation and load data provision methodology - GLDPM
 Clean Energy Package
 Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
 Electricity Balancing (EB)
 Bilanzkreisvertrag
 ER-Verordnung
@@ -5578,17 +5328,9 @@
 Login
 Suchbegriff eingeben
 Alle
-Begleitschreiben_Berechnungstool_Stand_15_01_19, PDF, 560.15 KB,
-31.08.2023
 EEG-Finanzierungsbedarf
 EEG-Finanzierungsbedarf 2024
 EEG-Finanzierungsbedarf 2023
-EEG-Umlagen
-EEG-Umlage 2022
-EEG-Umlage 2021
-EEG-Umlage 2020
-EEG-Umlage 2019
-EEG-Umlagen der Vorjahre
 Mittelfristprognosen
 Mittelfristprognose 2024-2028
 Mittelfristprognose 2023-2027
@@ -5610,6 +5352,7 @@
 Abzugsbetrag 2023
 Abzugsbetrag 2022
 Aufschlag 2021 für Windenergieanlagen
+Umlageprivileg für Stromspeicher
 Marktprämie
 Online-Hochrechnung der tatsächlichen Erzeugung von Strom aus Windenergie Onshore
 Online-Hochrechnung der tatsächlichen Erzeugung von Strom aus Windenergie Offshore
@@ -5691,7 +5434,26 @@
 Konsultation Bilanzkreisvertrag 2019</t>
         </is>
       </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-10 06:48:27</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>https://www.netztransparenz.de/de-de/Erneuerbare-Energien-und-Umlagen/EEG/EEG-Abrechnungen/Umlageprivileg-f%C3%BCr-Stromspeicher</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>Home
 Erneuerbare Energien und Umlagen
@@ -5917,47 +5679,28 @@
 Konsultation Bilanzkreisvertrag 2019</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t>There is a change</t>
-        </is>
-      </c>
-      <c r="F12" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-04 08:16:00</t>
-        </is>
-      </c>
-      <c r="G12" s="1" t="inlineStr">
-        <is>
-          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.netztransparenz.de/de-de/Erneuerbare-Energien-und-Umlagen/KWKG</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="D12" s="1" t="inlineStr">
         <is>
           <t>Home
 Erneuerbare Energien und Umlagen
-KWKG
-KWKG-Umlage
-KWKG-Abrechnung
-Transparenzanforderungen
-Die Kraft-Wärme-Kopplung (KWK) spielt eine entscheidende Rolle für den Ausbau Erneuerbarer Energien. Hier erhalten Sie eine Übersicht über die KWK-Umlagen.
-Deutschland möchte seine Treibhausgasemissionen senken – und die Kraft-Wärme-Kopplung (KWK) spielt dabei eine wichtige Rolle. Denn Kraft-Wärme-Kopplungs-Anlagen (KWK-Anlagen) verwenden die eingesetzten Brennstoffe effizienter, indem sie die parallel zur Stromerzeugung entstehende Wärme auch nutzbar machen. Die Wärmeenergie kann dann von Verbraucherinnen und Verbrauchern beispielsweise zum Heizen genutzt werden.
-Kraft-Wärme-Kopplungsgesetz
-Diese besonders effiziente Erzeugung von Strom und Wärme wird durch das Kraft-Wärme-Kopplungsgesetz (KWKG) gefördert: So sieht das Gesetz eine Umlage vor, um Anreize zu schaffen, mehr Strom aus KWK zu erzeugen. Die Umlage ist Teil des Strompreises: So zahlen Netzbetreiber für den erzeugten Strom einen Zuschlag an die Anlagenbetreiber – und refinanzieren diesen Zuschlag dann durch einen Aufschlag auf die Netzentgelte.
+EEG
+EEG-Abrechnungen
+Umlageprivileg für Stromspeicher
+Zur Ermittlung und als Nachweis der Verringerung der EEG-Umlage für Strom, welcher in einem Stromspeicher nach den Vorgaben des § 61l Abs. 1 EEG 2021 verbraucht wird, stellen die Übertragungsnetzbetreiber nachfolgend ein Berechnungstool zum Download zur Verfügung.
+Im Falle einer Inanspruchnahme der Umlageverringerung ist das ausgefüllte Tool spätestens zur Jahresmeldung durch alle anspruchsberechtigten Elektrizitätsversorgungsunternehmen, Letztverbraucher und Eigenversorger zusätzlich zu den sonstigen Meldepflichten gem. § 74 und § 74a EEG 2021 beim zuständigen Übertragungsnetzbetreiber vorzulegen. Die Übertragungsnetzbetreiber behalten sich vor, das Tool in bestimmten Fällen auch unterjährig anzufordern. Die Übertragungsnetzbetreiber befürworten die Verwendung des Tools auch bei einer Abrechnung der Umlageverringerung gegenüber dem Netzbetreiber.
+Weitere Einzelheiten können dem ebenfalls bereitgestellten Erläuterungsdokument entnommen werden.
+09.02.2023
+EEG-Berechnungstool
+Berechnungstool_EEG-Umlage-Reduzierung-Stand_09_02_2023, XLSX, 289.88 KB
+15.01.2019
+Erläuterungen zum Berechnungstool
+Begleitschreiben_Berechnungstool_Stand_15_01_19, PDF, 560.15 KB, 31.08.2023
 Suchbegriff eingebenAlleSuchen
-const loadSearchApp480 = () =&gt; {
-const moduleContext = {"moduleId":480,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
+const loadSearchApp73 = () =&gt; {
+const moduleContext = {"moduleId":73,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
 window.lotes.searchApp.create(moduleContext);
 }
-$(document).ready(function () { loadSearchApp480(); } );
+$(document).ready(function () { loadSearchApp73(); } );
 Suche
 Kontakt
 Glossar
@@ -5976,10 +5719,12 @@
 Studien und Positionspapiere
 Informationsplattformen
 Veröffentlichungspflichten gemäß EU-Transparenzverordnung
-EEG
 EEG-Finanzierung
-EEG-Abrechnungen
+Transparenzanforderungen
 Archiv
+KWKG
+KWKG-Umlage
+KWKG-Abrechnung
 Sonstige Umlagen
 Offshore-Netzumlage
 § 19 StromNEV-Umlage
@@ -6030,6 +5775,7 @@
 Generation and load data provision methodology - GLDPM
 Clean Energy Package
 Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
 Electricity Balancing (EB)
 Bilanzkreisvertrag
 ER-Verordnung
@@ -6046,6 +5792,8 @@
 Login
 Suchbegriff eingeben
 Alle
+Begleitschreiben_Berechnungstool_Stand_15_01_19, PDF, 560.15 KB,
+31.08.2023
 EEG-Finanzierungsbedarf
 EEG-Finanzierungsbedarf 2024
 EEG-Finanzierungsbedarf 2023
@@ -6076,7 +5824,6 @@
 Abzugsbetrag 2023
 Abzugsbetrag 2022
 Aufschlag 2021 für Windenergieanlagen
-Umlageprivileg für Stromspeicher
 Marktprämie
 Online-Hochrechnung der tatsächlichen Erzeugung von Strom aus Windenergie Onshore
 Online-Hochrechnung der tatsächlichen Erzeugung von Strom aus Windenergie Offshore
@@ -6158,7 +5905,26 @@
 Konsultation Bilanzkreisvertrag 2019</t>
         </is>
       </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-10 06:48:27</t>
+        </is>
+      </c>
+      <c r="G12" s="1" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>https://www.netztransparenz.de/de-de/Erneuerbare-Energien-und-Umlagen/KWKG</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>Home
 Erneuerbare Energien und Umlagen
@@ -6377,44 +6143,24 @@
 Konsultation Bilanzkreisvertrag 2019</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
-        <is>
-          <t>There is a change</t>
-        </is>
-      </c>
-      <c r="F13" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-04 08:16:00</t>
-        </is>
-      </c>
-      <c r="G13" s="1" t="inlineStr">
-        <is>
-          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.netztransparenz.de/de-de/Erneuerbare-Energien-und-Umlagen/Sonstige-Umlagen</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="D13" s="1" t="inlineStr">
         <is>
           <t>Home
 Erneuerbare Energien und Umlagen
-Sonstige Umlagen
-Offshore-Netzumlage
-§ 19 StromNEV-Umlage
-§ 18 AbLaV-Umlage
-Hier finden Sie alles rund um die Offshore-Netzumlage, die § 19 StromNEV-Umlage und die §18 AbLaV-Umlage.
+KWKG
+KWKG-Umlage
+KWKG-Abrechnung
+Transparenzanforderungen
+Die Kraft-Wärme-Kopplung (KWK) spielt eine entscheidende Rolle für den Ausbau Erneuerbarer Energien. Hier erhalten Sie eine Übersicht über die KWK-Umlagen.
+Deutschland möchte seine Treibhausgasemissionen senken – und die Kraft-Wärme-Kopplung (KWK) spielt dabei eine wichtige Rolle. Denn Kraft-Wärme-Kopplungs-Anlagen (KWK-Anlagen) verwenden die eingesetzten Brennstoffe effizienter, indem sie die parallel zur Stromerzeugung entstehende Wärme auch nutzbar machen. Die Wärmeenergie kann dann von Verbraucherinnen und Verbrauchern beispielsweise zum Heizen genutzt werden.
+Kraft-Wärme-Kopplungsgesetz
+Diese besonders effiziente Erzeugung von Strom und Wärme wird durch das Kraft-Wärme-Kopplungsgesetz (KWKG) gefördert: So sieht das Gesetz eine Umlage vor, um Anreize zu schaffen, mehr Strom aus KWK zu erzeugen. Die Umlage ist Teil des Strompreises: So zahlen Netzbetreiber für den erzeugten Strom einen Zuschlag an die Anlagenbetreiber – und refinanzieren diesen Zuschlag dann durch einen Aufschlag auf die Netzentgelte.
 Suchbegriff eingebenAlleSuchen
-const loadSearchApp481 = () =&gt; {
-const moduleContext = {"moduleId":481,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
+const loadSearchApp480 = () =&gt; {
+const moduleContext = {"moduleId":480,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
 window.lotes.searchApp.create(moduleContext);
 }
-$(document).ready(function () { loadSearchApp481(); } );
+$(document).ready(function () { loadSearchApp480(); } );
 Suche
 Kontakt
 Glossar
@@ -6436,11 +6182,11 @@
 EEG
 EEG-Finanzierung
 EEG-Abrechnungen
-Transparenzanforderungen
 Archiv
-KWKG
-KWKG-Umlage
-KWKG-Abrechnung
+Sonstige Umlagen
+Offshore-Netzumlage
+§ 19 StromNEV-Umlage
+§ 18 AbLaV-Umlage
 Freiwillige Veröffentlichungen
 Wind- und Solarenergie Hochrechnung
 Wind- und Solarenergie Prognose (bis 15.12.2022)
@@ -6487,6 +6233,7 @@
 Generation and load data provision methodology - GLDPM
 Clean Energy Package
 Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
 Electricity Balancing (EB)
 Bilanzkreisvertrag
 ER-Verordnung
@@ -6615,7 +6362,26 @@
 Konsultation Bilanzkreisvertrag 2019</t>
         </is>
       </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-10 06:48:27</t>
+        </is>
+      </c>
+      <c r="G13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>https://www.netztransparenz.de/de-de/Erneuerbare-Energien-und-Umlagen/Sonstige-Umlagen</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>Home
 Erneuerbare Energien und Umlagen
@@ -6831,43 +6597,21 @@
 Konsultation Bilanzkreisvertrag 2019</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t>There is a change</t>
-        </is>
-      </c>
-      <c r="F14" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-04 08:16:00</t>
-        </is>
-      </c>
-      <c r="G14" s="1" t="inlineStr">
-        <is>
-          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.netztransparenz.de/de-de/Erneuerbare-Energien-und-Umlagen/Freiwillige-Ver%C3%B6ffentlichungen</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="D14" s="1" t="inlineStr">
         <is>
           <t>Home
 Erneuerbare Energien und Umlagen
-Freiwillige Veröffentlichungen
-Wind- und Solarenergie Hochrechnung
-Wind- und Solarenergie Prognose (bis 15.12.2022)
-Hier finden Sie die Hochrechnungen und Prognosen der Wind- und Solarenergie.
+Sonstige Umlagen
+Offshore-Netzumlage
+§ 19 StromNEV-Umlage
+§ 18 AbLaV-Umlage
+Hier finden Sie alles rund um die Offshore-Netzumlage, die § 19 StromNEV-Umlage und die §18 AbLaV-Umlage.
 Suchbegriff eingebenAlleSuchen
-const loadSearchApp451 = () =&gt; {
-const moduleContext = {"moduleId":451,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
+const loadSearchApp481 = () =&gt; {
+const moduleContext = {"moduleId":481,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
 window.lotes.searchApp.create(moduleContext);
 }
-$(document).ready(function () { loadSearchApp451(); } );
+$(document).ready(function () { loadSearchApp481(); } );
 Suche
 Kontakt
 Glossar
@@ -6894,10 +6638,9 @@
 KWKG
 KWKG-Umlage
 KWKG-Abrechnung
-Sonstige Umlagen
-Offshore-Netzumlage
-§ 19 StromNEV-Umlage
-§ 18 AbLaV-Umlage
+Freiwillige Veröffentlichungen
+Wind- und Solarenergie Hochrechnung
+Wind- und Solarenergie Prognose (bis 15.12.2022)
 Regelenergie
 Ausgleichsenergiepreis
 reBAP
@@ -6941,6 +6684,7 @@
 Generation and load data provision methodology - GLDPM
 Clean Energy Package
 Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
 Electricity Balancing (EB)
 Bilanzkreisvertrag
 ER-Verordnung
@@ -7069,7 +6813,26 @@
 Konsultation Bilanzkreisvertrag 2019</t>
         </is>
       </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-10 06:48:27</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>https://www.netztransparenz.de/de-de/Erneuerbare-Energien-und-Umlagen/Freiwillige-Ver%C3%B6ffentlichungen</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>Home
 Erneuerbare Energien und Umlagen
@@ -7285,53 +7048,20 @@
 Konsultation Bilanzkreisvertrag 2019</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
-        <is>
-          <t>There is a change</t>
-        </is>
-      </c>
-      <c r="F15" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-04 08:16:00</t>
-        </is>
-      </c>
-      <c r="G15" s="1" t="inlineStr">
-        <is>
-          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.netztransparenz.de/de-de/Strommarktdesign/Clean-Energy-Package/Teilnahme-von-deutschen-Anlagen-am-belgischen-Kapazit%C3%A4tsmechanismus</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="D15" s="1" t="inlineStr">
         <is>
           <t>Home
-Strommarktdesign
-Clean Energy Package
-Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
-RSS
-Die EU-Kommission hat im Rahmen des „Clean Energy Package“ (CEP)-Legislativpaketes Voraussetzungen sowohl für die Einführung von Kapazitätsmechanismen (CRM) als auch für deren Ausgestaltung festgelegt. Nach den Vorgaben der Elektrizitätsbinnenmarktverordnung (Art. 26. VO (EU) 2019/943), müssen Kapazitätsmechanismen für die grenzüberschreitende Beteiligung ausländischer Anlagen geöffnet werden. Seit 2024 besteht die Möglichkeit für Anlagenbetreiber in Deutschland für die grenzüberschreitende Teilnahme am belgischen  Kapazitätsmechanismus.
-Der zeitliche Ablauf für das Jahr 2024 ist wie folgt:
-Für das erste Lieferjahr 2025/26 war es bis zum 12.04.2024 für interessierte Anlagenbetreiber mit Anschluss an das Transportnetz der Übertragungsnetzbetreiber möglich, sich für die Teilnahme beim belgischen Übertragungsnetzbetreiber (Elia) zu bewerben. Eine Übersicht zu den Rahmenbedingungen der Teilnahme und den einzelnen Prozessen findet sich hier (XB CRM OnePager).
-Elia hat auf seiner „Adequacy Working Group“ Website (Link) die Design Note für das Jahr 2024 (Link) veröffentlicht. Diese erläutert grundlegende Funktionen des belgischen CRM.
-Weiterhin hat Elia bereits allgemeine und detaillierte Informationsveranstaltungen angeboten, um den Mechanismus und die Eigenschaften zu erklären und ein umfassendes Verständnis dafür zu vermitteln. Die präsentierten Inhalte können auf der Homepage von ELIA eingesehen werden (Link). Hier finden Sie auch weitere Informationen zum belgischen Kapazitätsmarkt sowie zur grenzüberschreitenden Teilnahme.
-Informationen zur nächsten Auktion im Jahr 2025 werden ebenfalls auf dieser Seite rechtzeitig bekanntgegeben. Der zeitliche Ablauf wird sich an den dargestellten Meilensteilen aus 2024 orientieren.
-Bei Fragen stehen Ihnen Ihre Übertragungsnetzbetreiber gerne über folgende E-Mail-Postfächer zur Verfügung:
-xb-capacitymechanism@50Hertz.com
-xb-capacitymechanism@Amprion.net
-xb-capacitymechanism-de@Tennet.eu
-xb-capacitymechanism@Transnetbw.de
+Erneuerbare Energien und Umlagen
+Freiwillige Veröffentlichungen
+Wind- und Solarenergie Hochrechnung
+Wind- und Solarenergie Prognose (bis 15.12.2022)
+Hier finden Sie die Hochrechnungen und Prognosen der Wind- und Solarenergie.
 Suchbegriff eingebenAlleSuchen
-const loadSearchApp893 = () =&gt; {
-const moduleContext = {"moduleId":893,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
+const loadSearchApp451 = () =&gt; {
+const moduleContext = {"moduleId":451,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
 window.lotes.searchApp.create(moduleContext);
 }
-$(document).ready(function () { loadSearchApp893(); } );
+$(document).ready(function () { loadSearchApp451(); } );
 Suche
 Kontakt
 Glossar
@@ -7350,7 +7080,6 @@
 Studien und Positionspapiere
 Informationsplattformen
 Veröffentlichungspflichten gemäß EU-Transparenzverordnung
-Erneuerbare Energien und Umlagen
 EEG
 EEG-Finanzierung
 EEG-Abrechnungen
@@ -7363,9 +7092,6 @@
 Offshore-Netzumlage
 § 19 StromNEV-Umlage
 § 18 AbLaV-Umlage
-Freiwillige Veröffentlichungen
-Wind- und Solarenergie Hochrechnung
-Wind- und Solarenergie Prognose (bis 15.12.2022)
 Regelenergie
 Ausgleichsenergiepreis
 reBAP
@@ -7403,9 +7129,13 @@
 Fahrplanmanagement
 Versorgungswiederaufbau
 Marktgestützte Beschaffung von Schwarzstartfähigkeit
+Strommarktdesign
 Strommarkt-Forum
 CACM-Verordnung
 Generation and load data provision methodology - GLDPM
+Clean Energy Package
+Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
 Electricity Balancing (EB)
 Bilanzkreisvertrag
 ER-Verordnung
@@ -7534,7 +7264,26 @@
 Konsultation Bilanzkreisvertrag 2019</t>
         </is>
       </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="E15" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="F15" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-10 06:48:27</t>
+        </is>
+      </c>
+      <c r="G15" s="1" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>https://www.netztransparenz.de/de-de/Strommarktdesign/Clean-Energy-Package/Teilnahme-von-deutschen-Anlagen-am-belgischen-Kapazit%C3%A4tsmechanismus</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>Home
 Strommarktdesign
@@ -7761,21 +7510,244 @@
 Konsultation Bilanzkreisvertrag 2019</t>
         </is>
       </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>Home
+Strommarktdesign
+Clean Energy Package
+Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+RSS
+Die EU-Kommission hat im Rahmen des „Clean Energy Package“ (CEP)-Legislativpaketes Voraussetzungen sowohl für die Einführung von Kapazitätsmechanismen (CRM) als auch für deren Ausgestaltung festgelegt. Nach den Vorgaben der Elektrizitätsbinnenmarktverordnung (Art. 26. VO (EU) 2019/943), müssen Kapazitätsmechanismen für die grenzüberschreitende Beteiligung ausländischer Anlagen geöffnet werden. Seit 2024 besteht die Möglichkeit für Anlagenbetreiber in Deutschland für die grenzüberschreitende Teilnahme am belgischen  Kapazitätsmechanismus.
+Der zeitliche Ablauf für das Jahr 2024 ist wie folgt:
+Für das erste Lieferjahr 2025/26 war es bis zum 12.04.2024 für interessierte Anlagenbetreiber mit Anschluss an das Transportnetz der Übertragungsnetzbetreiber möglich, sich für die Teilnahme beim belgischen Übertragungsnetzbetreiber (Elia) zu bewerben. Eine Übersicht zu den Rahmenbedingungen der Teilnahme und den einzelnen Prozessen findet sich hier (XB CRM OnePager).
+Elia hat auf seiner „Adequacy Working Group“ Website (Link) die Design Note für das Jahr 2024 (Link) veröffentlicht. Diese erläutert grundlegende Funktionen des belgischen CRM.
+Weiterhin hat Elia bereits allgemeine und detaillierte Informationsveranstaltungen angeboten, um den Mechanismus und die Eigenschaften zu erklären und ein umfassendes Verständnis dafür zu vermitteln. Die präsentierten Inhalte können auf der Homepage von ELIA eingesehen werden (Link). Hier finden Sie auch weitere Informationen zum belgischen Kapazitätsmarkt sowie zur grenzüberschreitenden Teilnahme.
+Informationen zur nächsten Auktion im Jahr 2025 werden ebenfalls auf dieser Seite rechtzeitig bekanntgegeben. Der zeitliche Ablauf wird sich an den dargestellten Meilensteilen aus 2024 orientieren.
+Bei Fragen stehen Ihnen Ihre Übertragungsnetzbetreiber gerne über folgende E-Mail-Postfächer zur Verfügung:
+xb-capacitymechanism@50Hertz.com
+xb-capacitymechanism@Amprion.net
+xb-capacitymechanism-de@Tennet.eu
+xb-capacitymechanism@Transnetbw.de
+Suchbegriff eingebenAlleSuchen
+const loadSearchApp893 = () =&gt; {
+const moduleContext = {"moduleId":893,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
+window.lotes.searchApp.create(moduleContext);
+}
+$(document).ready(function () { loadSearchApp893(); } );
+Suche
+Kontakt
+Glossar
+Web API
+DE
+EN
+Extranet
+TAM-Meldeportal
+Über uns
+Aufgaben
+Aufgabe der SG HoBA
+Planung und Betrieb des deutschen Übertragungsnetzes
+Aktuelles
+Pressebereich
+Netzentgelte
+Studien und Positionspapiere
+Informationsplattformen
+Veröffentlichungspflichten gemäß EU-Transparenzverordnung
+Erneuerbare Energien und Umlagen
+EEG
+EEG-Finanzierung
+EEG-Abrechnungen
+Transparenzanforderungen
+Archiv
+KWKG
+KWKG-Umlage
+KWKG-Abrechnung
+Sonstige Umlagen
+Offshore-Netzumlage
+§ 19 StromNEV-Umlage
+§ 18 AbLaV-Umlage
+Freiwillige Veröffentlichungen
+Wind- und Solarenergie Hochrechnung
+Wind- und Solarenergie Prognose (bis 15.12.2022)
+Regelenergie
+Ausgleichsenergiepreis
+reBAP
+AEP-Module
+Finanzielle Wirkung der AEP-Module
+AEP-Schätzer
+Index Ausgleichsenergiepreis
+Value of Avoided Activation (VoAA)
+NRV- und RZ-Saldo
+NRV-Saldo-Ampel
+NRV-Saldo
+RZ-Saldo
+Daten Regelreserve
+Aktivierte Regelleistung
+Optimierte Regelleistung
+Difference (ungewollter Austausch)
+Sondermaßnahmen zum Bilanzausgleich
+Sekündliche Daten
+MOL-Abweichungen
+Altdaten-Archiv
+Abschaltbare Lasten (AbLaV)
+aFRR AT/DE-Kooperation
+mFRR AT/DE-Kooperation „GAMMA“
+IGCC-Datenpunkte
+Systemdienstleistungen
+Frequenzhaltung
+Spannungshaltung
+Blindleistung
+Betriebsfuehrung
+Redispatch
+Kapazitätsreserve
+Elektrolyseanlagen
+Freiwillige Lastreduktion
+Nutzen statt Abregeln
+Fahrplanmanagement
+Versorgungswiederaufbau
+Marktgestützte Beschaffung von Schwarzstartfähigkeit
+Strommarkt-Forum
+CACM-Verordnung
+Generation and load data provision methodology - GLDPM
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
+Electricity Balancing (EB)
+Bilanzkreisvertrag
+ER-Verordnung
+FCA-Verordnung
+SO-Verordnung
+CGMMv3
+Datenaustausch
+RfG-Verordnung
+4ÜNB-Studie zur Ausarbeitung eines Kapazitätsmechanismus für den deutschen Strommarkt
+Strompreisbremse
+Impressum
+Datenschutz
+FAQ
+Login
+Suchbegriff eingeben
+Alle
+EEG-Finanzierungsbedarf
+EEG-Finanzierungsbedarf 2024
+EEG-Finanzierungsbedarf 2023
+EEG-Umlagen
+EEG-Umlage 2022
+EEG-Umlage 2021
+EEG-Umlage 2020
+EEG-Umlage 2019
+EEG-Umlagen der Vorjahre
+Mittelfristprognosen
+Mittelfristprognose 2024-2028
+Mittelfristprognose 2023-2027
+Mittelfristprognose 2022-2026
+Mittelfristprognose 2021-2025
+Mittelfristprognose 2020-2024
+Mittelfristprognose Vorjahre
+EEG-Jahresabrechnungen
+EEG-Anlagenstammdaten
+EEG-Jahresabrechnungen 2022-2000
+IDW-Prüfungshinweis
+Archiv IDW-Prüfungshinweise
+Hinweis Korrekturen Jahresabrechnung EEG Umlage
+Abwicklungshinweise und Umsetzungshilfen
+Messen und Schätzen
+Besondere Ausgleichsregelung
+Ausgeförderte Anlagen
+Abzugsbetrag 2024
+Abzugsbetrag 2023
+Abzugsbetrag 2022
+Aufschlag 2021 für Windenergieanlagen
+Umlageprivileg für Stromspeicher
+Marktprämie
+Online-Hochrechnung der tatsächlichen Erzeugung von Strom aus Windenergie Onshore
+Online-Hochrechnung der tatsächlichen Erzeugung von Strom aus Windenergie Offshore
+Online-Hochrechnung der tatsächlichen Erzeugung von Strom aus Solarenergie
+Marktwertübersicht
+Negativer Spotmarktpreis – Übersichtstabellen
+Spotmarktpreis nach § 3 Nr. 42a EEG
+ÜNB-Vermarktung
+EEG-Kontenübersicht
+Ausfall- und Direktvermarktung
+Datenmeldung EEG-Umlage
+Hinweis zu § 104 Abs. 4 EEG 2017 – Amnestieregelung
+Systemstabilitätsverordnung
+Abwicklung vor 2010
+Monatsprognosen 2009
+Monatsprognosen 2008
+Monatsprognosen 2007
+Monatsprognosen 2006
+Monatsprognosen bis 2005
+Profilwälzung
+KWKG-Umlagen-Übersicht
+KWKG-Umlage 2024
+KWKG-Umlage 2023
+KWKG-Umlage 2022
+KWKG-Umlage 2021
+KWKG-Umlage 2020
+KWKG-Aufschläge Vorjahre
+KWKG-Jahresabrechnungen
+IDW-Prüfungshinweis KWKG
+Archiv-IDW-Prüfungshinweise KWKG
+Tool zur Berechnung der reduzierten KWKG-Umlage
+Negative Preise
+KWKG-Kontenübersicht
+Offshore-Netzumlagen-Übersicht
+Offshore Netzumlage 2024
+Offshore Netzumlage 2023
+Offshore Netzumlage 2022
+Offshore Netzumlage 2021
+Offshore Netzumlage 2020
+Offshore Netzumlage der Vorjahre
+Jahresabrechnungen der Offshore-Netzumlage
+Tool zur Berechnung der reduzierten Offshore-Netzumlage
+§ 19 StromNEV-Umlagen-Übersicht
+§ 19 StromNEV-Umlage 2024
+§ 19 StromNEV-Umlage 2023
+§ 19 StromNEV-Umlage 2022
+§ 19 StromNEV-Umlage 2021
+§ 19 StromNEV-Umlage 2020
+§ 19 StromNEV-Umlage Vorjahre
+Terminkette zur Abwicklung der § 19 StromNEV-Umlage
+Jahresabrechnung
+Tool zur Berechnung der reduzierten StromNEV-Umlage
+AbLaV-Umlagen-Übersicht
+Umlage nach § 18 AbLaV für das Jahr 2022
+Umlage nach § 18 AbLaV für das Jahr 2021
+Umlage nach § 18 AbLaV für das Jahr 2020
+Umlage nach § 18 AbLaV für das Jahr 2019
+Umlage nach § 18 AbLaV für das Jahr 2018
+AbLaV-Umlage der Jahre 2014 bis 2022
+Jahresabrechnungen der Abschaltbare Lasten-Umlage
+Einheitliche Auslegung von E-STATCOM
+Abrechnung BDEW-Übergangslösung
+Redispatch 2.0 an der Schnittstelle ÜNB-VNB
+Kalkulatorische Preise
+Harmonisierter Aktivierungsprozess
+Veröffentlichungen zum Erbringungszeitraum 2024-2026
+Veröffentlichungen zum Erbringungszeitraum 2022-2024
+Veröffentlichungen zum Erbringungszeitraum 2020-2022
+ÜNB-Umsetzungskonzept
+Entlastungsregionen
+Vertragsunterlagen
+ÜNB-Parameter
+Informationsveranstaltungen für potenzielle Teilnehmer
+Koordination mit VNB
+Implementierungsvorschriften
+Beschlüsse
+Konsultation
+Konsultation Bilanzkreisvertrag 2023
+Konsultation Bilanzkreisvertrag 2019</t>
+        </is>
+      </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>There is a change</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
-        </is>
-      </c>
-      <c r="G16" s="1" t="inlineStr">
-        <is>
-          <t>+ Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus</t>
-        </is>
-      </c>
+          <t>2024-09-10 06:48:27</t>
+        </is>
+      </c>
+      <c r="G16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -7837,7 +7809,7 @@
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
@@ -8078,7 +8050,7 @@
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G18" s="1" t="n"/>
@@ -8467,7 +8439,7 @@
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G19" s="1" t="n"/>
@@ -8648,7 +8620,7 @@
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G20" s="1" t="n"/>
@@ -8825,7 +8797,7 @@
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G21" s="1" t="n"/>
@@ -9010,7 +8982,7 @@
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G22" s="1" t="n"/>
@@ -9237,7 +9209,7 @@
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G23" s="1" t="n"/>
@@ -9436,7 +9408,7 @@
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G24" s="1" t="n"/>
@@ -9599,7 +9571,7 @@
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G25" s="1" t="n"/>
@@ -9756,7 +9728,7 @@
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G26" s="1" t="n"/>
@@ -9911,7 +9883,7 @@
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G27" s="1" t="n"/>
@@ -10306,7 +10278,7 @@
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G28" s="1" t="n"/>
@@ -10647,7 +10619,7 @@
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G29" s="1" t="n"/>
@@ -10824,7 +10796,7 @@
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G30" s="1" t="n"/>
@@ -11087,7 +11059,7 @@
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G31" s="1" t="n"/>
@@ -11288,7 +11260,7 @@
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G32" s="1" t="n"/>
@@ -11301,94 +11273,6 @@
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t>ENTSO-E publishes
-the first Offshore Network Development Plans
-Paving the way towards the implementation
-of European Offshore renewable energy targets
-Discover ONDP here
-Latest News
-25/07/2024
-ENTSO-E publishes guidance document to Member States for Offshore Network Development Plans 2026
-15/07/2024
-Grid incident in south-eastern part of the Continental Europe power system - Update
-10/07/2024
-ENTSO-E Research, Development &amp; Innovation Roadmap 2024 – 2034
-28/06/2024
-ENTSO-E publishes the Market Report 2024, the Balancing Report 2024 and the Electricity Balancing (EB) Cost Report 2024
-26/06/2024
-Empowering and fast-tracking Europe’s Transmission Grid Expansion and Deployment
-See all news
-ENTSO-E
-STRATEGIC
-ROADMAP
-Discover here
-A Power System for a Carbon Neutral Europe
-Energy transition is underway, we help you to keep up with the new technologies related to the Transmission System Operators. Explore ENTSO-E Technopedia
-We are looking for new talents. View open positions
-Positions
-2/08/2024
-Adapting TSOs regulatory systems to finance massive grid investments
-16/07/2024
-ENTSO-E Position on Forward Markets
-20/02/2024
-Position Paper on Sustainable Contracts for Difference Design
-16/11/2023
-ENTSO-E's Recommendations for the Announced EU Grid Action Plan
-26/10/2023
-ENTSO-E assessment on the EU Legislative proposal for a Regulation to improve the Union’s electricity market design - trilogues
-Past positions
-Consultations
-Closing in 2 days
-Public consultation on Bidding Zone Review
-04/09/2024
-Closing in 11 days
-Proposal for Amendment of Methodology for the market-based allocation process of cross-zonal capacity for the exchange of balancing capacity for the Baltic CCR
-13/09/2024
-Closing in a month
-Amendment to the TSO-TSO settlement mechanism for the FCR Cooperation
-04/10/2024
-See all past consultations
-Future Events
-See all events
-GET THE MOST POWERFUL NEWSLETTER IN BRUSSELS
-Network Codes &amp; CEP
-Data &amp; Standardisation
-Innovation
-Outlooks
-Regions
-Publications
-About
-Login
-Network Codes &amp; CEPData &amp; StandardisationInnovationOutlooksRegionsPublicationsAboutTransparency PlatformCommon Information ModelStandardisationEU Grid MapNewsEventsCareersOur StaffExtranet
-Transparency PlatformCommon Information ModelStandardisationEU Grid MapNewsEventsCareersOur StaffExtranet
-Button
-Our Work
-Network Codes
-Transparency Platform
-Power Regions
-Common Information Model
-Position Papers
-Standardisation
-EU Grid Map
-Association
-News
-Events
-Members
-Careers
-Governance
-Our Staff
-Contact
-Extranet
-Stay updated
-Twitter
-YouTube
-LinkedIn
-© 2009-2024  ENTSO-E
-Sitemap Suppliers Disclaimer Privacy Policy Cookie Policy Website feedback to info@entsoe.eu</t>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
         <is>
           <t>ENTSO-E publishes
 the first Offshore Network Development Plans
@@ -11473,6 +11357,91 @@
 Sitemap Suppliers Disclaimer Privacy Policy Cookie Policy Website feedback to info@entsoe.eu</t>
         </is>
       </c>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>ENTSO-E publishes
+the first Offshore Network Development Plans
+Paving the way towards the implementation
+of European Offshore renewable energy targets
+Discover ONDP here
+Latest News
+25/07/2024
+ENTSO-E publishes guidance document to Member States for Offshore Network Development Plans 2026
+15/07/2024
+Grid incident in south-eastern part of the Continental Europe power system - Update
+10/07/2024
+ENTSO-E Research, Development &amp; Innovation Roadmap 2024 – 2034
+28/06/2024
+ENTSO-E publishes the Market Report 2024, the Balancing Report 2024 and the Electricity Balancing (EB) Cost Report 2024
+26/06/2024
+Empowering and fast-tracking Europe’s Transmission Grid Expansion and Deployment
+See all news
+ENTSO-E
+STRATEGIC
+ROADMAP
+Discover here
+A Power System for a Carbon Neutral Europe
+Energy transition is underway, we help you to keep up with the new technologies related to the Transmission System Operators. Explore ENTSO-E Technopedia
+We are looking for new talents. View open positions
+Positions
+2/08/2024
+Adapting TSOs regulatory systems to finance massive grid investments
+16/07/2024
+ENTSO-E Position on Forward Markets
+20/02/2024
+Position Paper on Sustainable Contracts for Difference Design
+16/11/2023
+ENTSO-E's Recommendations for the Announced EU Grid Action Plan
+26/10/2023
+ENTSO-E assessment on the EU Legislative proposal for a Regulation to improve the Union’s electricity market design - trilogues
+Past positions
+Consultations
+Closing in 4 days
+Proposal for Amendment of Methodology for the market-based allocation process of cross-zonal capacity for the exchange of balancing capacity for the Baltic CCR
+13/09/2024
+Closing in 25 days
+Amendment to the TSO-TSO settlement mechanism for the FCR Cooperation
+04/10/2024
+See all past consultations
+Future Events
+See all events
+GET THE MOST POWERFUL NEWSLETTER IN BRUSSELS
+Network Codes &amp; CEP
+Data &amp; Standardisation
+Innovation
+Outlooks
+Regions
+Publications
+About
+Login
+Network Codes &amp; CEPData &amp; StandardisationInnovationOutlooksRegionsPublicationsAboutTransparency PlatformCommon Information ModelStandardisationEU Grid MapNewsEventsCareersOur StaffExtranet
+Transparency PlatformCommon Information ModelStandardisationEU Grid MapNewsEventsCareersOur StaffExtranet
+Button
+Our Work
+Network Codes
+Transparency Platform
+Power Regions
+Common Information Model
+Position Papers
+Standardisation
+EU Grid Map
+Association
+News
+Events
+Members
+Careers
+Governance
+Our Staff
+Contact
+Extranet
+Stay updated
+Twitter
+YouTube
+LinkedIn
+© 2009-2024  ENTSO-E
+Sitemap Suppliers Disclaimer Privacy Policy Cookie Policy Website feedback to info@entsoe.eu</t>
+        </is>
+      </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
           <t>There is a change</t>
@@ -11480,16 +11449,15 @@
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
         <is>
-          <t>- Closing in 2 days
-- Public consultation on Bidding Zone Review
-- 04/09/2024
-- Closing in 11 days
-+ Closing in 10 days</t>
+          <t>- Closing in 10 days
++ Closing in 4 days
+- Closing in a month
++ Closing in 25 days</t>
         </is>
       </c>
     </row>
@@ -11506,16 +11474,52 @@
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>Sign in
-Stay updated on your professional world.
+          <t>Join LinkedIn
+Email
+Password (6+ characters)
+By clicking Agree &amp; Join, you agree to the LinkedIn User Agreement, Privacy Policy, and Cookie Policy.
+Agree &amp; Join
+or
+Already on Linkedin? Sign in
+Agree &amp; Join LinkedIn
+By clicking Continue to join or sign in, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
+Skip to main content
+LinkedIn
+© 2024
+About
+Accessibility
+User Agreement
+Privacy Policy
+Your California Privacy Choices
+Cookie Policy
+Copyright Policy
+Brand Policy
+Guest Controls
+Community Guidelines
+Language
+Not you?
+Remove photo
+First name
+Last name
+Sign in
 Email or phone
 Password
 Show
 Forgot password?
-or
-By clicking Continue, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
+Continue with GoogleContinue with Google
+New to Linkedin?  Join now</t>
+        </is>
+      </c>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t>Sign in
 Sign in with Apple
 Sign in with a passkey
+or
+Email or phone
+Password
+Show
+Forgot password?
 New to LinkedIn? Join now
 LinkedIn
 © 2024
@@ -11532,6 +11536,7 @@
 Resend email
 Back
 Agree &amp; Join LinkedIn
+By clicking Continue, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
 العربية (Arabic)
 বাংলা (Bangla)
 Čeština (Czech)
@@ -11568,44 +11573,6 @@
 正體中文 (Chinese (Traditional))</t>
         </is>
       </c>
-      <c r="D34" s="1" t="inlineStr">
-        <is>
-          <t>Join LinkedIn
-Email
-Password (6+ characters)
-By clicking Agree &amp; Join, you agree to the LinkedIn User Agreement, Privacy Policy, and Cookie Policy.
-Agree &amp; Join
-or
-Already on Linkedin? Sign in
-Agree &amp; Join LinkedIn
-By clicking Continue to join or sign in, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
-Skip to main content
-LinkedIn
-© 2024
-About
-Accessibility
-User Agreement
-Privacy Policy
-Your California Privacy Choices
-Cookie Policy
-Copyright Policy
-Brand Policy
-Guest Controls
-Community Guidelines
-Language
-Not you?
-Remove photo
-First name
-Last name
-Sign in
-Email or phone
-Password
-Show
-Forgot password?
-Continue with GoogleContinue with Google
-New to Linkedin?  Join now</t>
-        </is>
-      </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
           <t>There is a change</t>
@@ -11613,95 +11580,94 @@
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
         <is>
-          <t>+ Join LinkedIn
-+ Email
-+ Password (6+ characters)
-+ By clicking Agree &amp; Join, you agree to the LinkedIn User Agreement, Privacy Policy, and Cookie Policy.
-+ Agree &amp; Join
-+ or
-+ Already on Linkedin? Sign in
-+ Agree &amp; Join LinkedIn
-+ By clicking Continue to join or sign in, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
-+ Skip to main content
+          <t>+ Sign in
++ Sign in with Apple
++ Sign in with a passkey
+- Join LinkedIn
+- Email
+- Password (6+ characters)
+- By clicking Agree &amp; Join, you agree to the LinkedIn User Agreement, Privacy Policy, and Cookie Policy.
+- Agree &amp; Join
+- Already on Linkedin? Sign in
+- Agree &amp; Join LinkedIn
+- By clicking Continue to join or sign in, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
+- Skip to main content
+- LinkedIn
+- © 2024
+- About
+- Accessibility
+- User Agreement
+- Privacy Policy
+- Your California Privacy Choices
+- Cookie Policy
+- Copyright Policy
+- Brand Policy
+- Guest Controls
+- Community Guidelines
+- Language
+- Not you?
+- Remove photo
+- First name
+- Last name
+- Sign in
+- Continue with GoogleContinue with Google
+- New to Linkedin?  Join now
++ New to LinkedIn? Join now
 + LinkedIn
 + © 2024
-+ About
-+ Accessibility
 + User Agreement
 + Privacy Policy
-+ Your California Privacy Choices
++ Community Guidelines
 + Cookie Policy
 + Copyright Policy
-+ Brand Policy
-+ Guest Controls
-+ Community Guidelines
++ Send Feedback
 + Language
-+ Not you?
-+ Remove photo
-+ First name
-+ Last name
-- Stay updated on your professional world.
-+ Continue with GoogleContinue with Google
-- or
-- By clicking Continue, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
-- Sign in with Apple
-- Sign in with a passkey
-- New to LinkedIn? Join now
-+ New to Linkedin?  Join now
-- LinkedIn
-- © 2024
-- User Agreement
-- Privacy Policy
-- Community Guidelines
-- Cookie Policy
-- Copyright Policy
-- Send Feedback
-- Language
-- We’ve emailed a one-time link to your primary email address
-- Click on the link to sign in instantly to your LinkedIn account.
-- If you don’t see the email in your inbox, check your spam folder.
-- Resend email
-- Back
-- Agree &amp; Join LinkedIn
-- العربية (Arabic)
-- বাংলা (Bangla)
-- Čeština (Czech)
-- Dansk (Danish)
-- Deutsch (German)
-- Ελληνικά (Greek)
-- English (English)
-- Español (Spanish)
-- Suomi (Finnish)
-- Français (French)
-- हिंदी (Hindi)
-- Magyar (Hungarian)
-- Bahasa Indonesia (Indonesian)
-- Italiano (Italian)
-- 日本語 (Japanese)
-- 한국어 (Korean)
-- मराठी (Marathi)
-- Bahasa Malaysia (Malay)
-- Nederlands (Dutch)
-- Norsk (Norwegian)
-- ਪੰਜਾਬੀ (Punjabi)
-- Polski (Polish)
-- Português (Portuguese)
-- Română (Romanian)
-- Русский (Russian)
-- Svenska (Swedish)
-- తెలుగు (Telugu)
-- ภาษาไทย (Thai)
-- Tagalog (Tagalog)
-- Türkçe (Turkish)
-- Українська (Ukrainian)
-- Tiếng Việt (Vietnamese)
-- 简体中文 (Chinese (Simplified))
-- 正體中文 (Chinese (Traditional))</t>
++ We’ve emailed a one-time link to your primary email address
++ Click on the link to sign in instantly to your LinkedIn account.
++ If you don’t see the email in your inbox, check your spam folder.
++ Resend email
++ Back
++ Agree &amp; Join LinkedIn
++ By clicking Continue, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
++ العربية (Arabic)
++ বাংলা (Bangla)
++ Čeština (Czech)
++ Dansk (Danish)
++ Deutsch (German)
++ Ελληνικά (Greek)
++ English (English)
++ Español (Spanish)
++ Suomi (Finnish)
++ Français (French)
++ हिंदी (Hindi)
++ Magyar (Hungarian)
++ Bahasa Indonesia (Indonesian)
++ Italiano (Italian)
++ 日本語 (Japanese)
++ 한국어 (Korean)
++ मराठी (Marathi)
++ Bahasa Malaysia (Malay)
++ Nederlands (Dutch)
++ Norsk (Norwegian)
++ ਪੰਜਾਬੀ (Punjabi)
++ Polski (Polish)
++ Português (Portuguese)
++ Română (Romanian)
++ Русский (Russian)
++ Svenska (Swedish)
++ తెలుగు (Telugu)
++ ภาษาไทย (Thai)
++ Tagalog (Tagalog)
++ Türkçe (Turkish)
++ Українська (Ukrainian)
++ Tiếng Việt (Vietnamese)
++ 简体中文 (Chinese (Simplified))
++ 正體中文 (Chinese (Traditional))</t>
         </is>
       </c>
     </row>
@@ -12197,7 +12163,7 @@
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G35" s="1" t="n"/>
@@ -12648,7 +12614,7 @@
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
@@ -13249,7 +13215,7 @@
       </c>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sprungmarken-Navigation
+          <t>Sprungmarken-Navigation
 Ein moderner Strommarkt
 Stromerzeugung
 Strommarkt
@@ -13266,41 +13232,15 @@
 Der Klimaschutz ist die zentrale Aufgabe unserer Generation. Um das Ziel der weitgehenden Klimaneutralität für die Europäische Union bis 2050 zu erreichen, muss auch die Stromversorgung einen wichtigen Beitrag leisten.
 Im ersten Halbjahr 2022 machten erneuerbare Energien bereits rund 49 Prozent unserer Stromversorgung aus. Wie auch in den Jahren zuvor war Deutschland im Jahr 2021 erneut Netto-Stromexporteur, und zwar mit insgesamt 17,4 Terawattstunden (TWh) d.h. Deutschland exportierte mehr Strom an seine Nachbarn als es importierte. Der physikalische Stromaustausch erfolgt mit elf Nachbarländern - Dänemark, Niederlande, Belgien, Luxemburg, Frankreich, Schweiz, Österreich, Tschechien, Polen und über Seekabel auch mit Schweden und Norwegen. Doch je mehr sich unser Strom aus wetterabhängigen Energiequellen wie Wind und Sonne speist, desto mehr schwankt auch die Einspeisung in das Stromnetz.
 Der moderne Strommarkt begegnet dieser Herausforderung: Mit ihm wird auch bei hohen Anteilen von erneuerbaren Energien eine sichere, kostengünstige und umweltverträgliche Versorgung mit Strom stets gewährleistet. Der Strommarkt muss jederzeit Erzeugung und Verbrauch von Strom aufeinander abstimmen und darüber hinaus dafür sorgen, dass auch in Zeiten von hoher Nachfrage ausreichend Erzeugung vorhanden ist. Mit anderen Worten: Der Strommarkt muss fortwährend die ununterbrochene Versorgung der Wirtschaft und Gesellschaft in Deutschland mit Strom garantieren.
-Zahlen und Fakten zum Strommarkt in Deutschland
-46,1
-Prozent
-der Stromerzeugung kam 2022 aus erneuerbaren Energien
-8,6
-mehr Strom aus erneuerbaren Quellen – davon fast 19% aus Photovoltaik
-482,9
-TWh
-betrug der Stromverbrauch 2022 – etwa das Niveau von 2020
-26,3
-umfasste der Netto-Export 2022 – ein Plus von fast 9 TWh gegenüber 2021
 STROMERZEUGUNG
 Zahlen und Fakten
 Deutschland verfügt europaweit über die höchste installierte Kraftwerksleistung und erzeugt und verbraucht am meisten Strom. Weitere Informationen zu den Energiedaten der europäischen Staaten sind auf den Internetseiten von Eurostat, der europäischen Statistikbehörde, veröffentlicht.
 Stromerzeugung national
 Mit der Kraftwerksliste der Bundesnetzagentur (BNetzA) sind derzeit (Stand 31. Mai 2022) Erzeugungsanlagen mit einer Netto-Nennleistung von insgesamt 232 Gigawatt (GW) enthalten. Von der Netto-Nennleistung entfällt ein Anteil von ca. 138,6 GW auf erneuerbare Energien, darunter ca. 59,3 GW auf Solar- und etwa 63,7 GW auf Windenergie. Die gesamte installierte Leistung von Photovoltaik- und Windenergieanlagen beträgt zusammen bereits 123 GW.
-Bild vergrößern
-© Kraftwerksliste der Bundesnetzagentur (BNetzA)
 Entwicklungen auf dem Strommarkt jederzeit nachvollziehen – mit SMARD
 Strommarktdaten transparent, verständlich und übersichtlich aufbereitet – das bietet die Informationsplattform Strommarkt SMARD.
 Auf der Internetseite www.SMARD.de werden zentrale Strommarktdaten für Deutschland, teilweise auch für Europa, nahezu in Echtzeit dargestellt. So können etwa Daten zu Erzeugung, Verbrauch, Großhandelspreisen, Im- und Export und Regelenergie für unterschiedliche Zeiträume ermittelt und kombiniert abgerufen werden. Die Daten sind anwenderfreundlich aufbereitet, zudem profitieren Expertinnen und Experten von umfangreichen Analysefunktionen. Auf diese Weise können Nutzerinnen und Nutzer jederzeit die Entwicklungen am Strommarkt und den Fortgang der Energiewende nachverfolgen.
-Aufgrund seiner zentralen geografischen Lage in Europa ist Deutschland ein wichtiger Partner im europäischen Strommarkt und eine Drehscheibe der europäischen Stromflüsse. Treibende Kraft für die Import- und Exportflüsse sind die Großhandelspreise an den nationalen Strombörsen. Sie werden von der jeweiligen Stromnachfrage, der Erzeugung von Strom aus erneuerbaren Energien und den Brennstoff- und Kohlenstoffkosten für fossile Kraftwerke bestimmt. Wie auch in den Jahren zuvor war Deutschland im Jahr 2022 erneut Netto-Stromexporteur. Der Nettoexport erreichte eine Höhe von 26,3 TWh und damit um fast 9 TWh mehr als 2021. Deutschland exportierte im Jahr 2022 gut 62 TWh, der Import sank auf 35,8 TWh.
-Stromerzeugung europäisch
-Der physikalische Stromaustausch erfolgt mit elf Nachbarländern - Dänemark, Niederlande, Belgien, Luxemburg, Frankreich, Schweiz, Österreich, Tschechien, Polen und über Seekabel auch mit Schweden und Norwegen. Deutschland exportierte im Jahr 2021 57 Terrawattstunden (TWh) Strom in seine Nachbarländer, während 39,6 Milliarden TWh Strom importiert wurden.
-Der Strommix verändert sich
-In Deutschland wurden im Jahr 2021 nach vorläufigen Angaben rund 588,8 Terawattstunden (TWh) Strom erzeugt - das sind 588 Milliarden kWh. Bei einem stetig wachsenden Anteil von erneuerbaren Energien geht nicht nur entsprechend dem beschlossenen Atomausstieg der Anteil der Kernenergie, sondern auch der von Braun- und Steinkohle am Energieträgermix der deutschen Stromversorgung zurück.
-© AG Energiebilanzen e.V.
-25.05.2020
-INFOGRAFIK
-Infografik:
-Physikalischer Stromaustausch Deutschlands mit Nachbarländern
-Öffnet Einzelsicht
-EXTERNES ANGEBOT
-Externes Angebot:
-www.smard.de
+Aufgrund seiner zentralen geografischen Lage in Europa ist Deutschland ein wichtiger Partner im europäischen Strommarkt und eine Drehscheibe der europäischen Stromflüsse. Treibende Kraft für die Import- und Exportflüsse sind die Großhandelspreise an den nationalen Strombörsen. Sie werden von der jeweiligen Stromnachfrage, der Erzeugung von Strom aus erneuerbaren Energien und den Brennstoff- und Kohlenstoffkosten für fossile Kraftwerke bestimmt.
 STROMMARKT
 Ein Strommarkt für die Energiewende
 Um unser Klima zu schützen wird Strom aus Wind, Sonne und anderen erneuerbaren Energien in Deutschland zukünftig den Hauptanteil der Energieversorgung übernehmen. Bis 2030 soll ihr Anteil am Bruttostromverbrauch mindestens 80 Prozent betragen, für 2035 streben wir ein weitgehend klimaneutrales Stromsystem an.
@@ -13309,14 +13249,54 @@
 Vom Strommarkt unabhängig agieren im aktuellen System Kapazitäts- und Netzreserven. Dies sind Kraftwerke, die nur einspringen, wenn absehbar in bestimmten Gebieten in Deutschland nicht genug Strom über die am Markt handelnden Kraftwerke bereitgestellt werden kann und die schnell ihre Leistung zur Verfügung stellen können. In einem zukünftigen Stromsystem sollen sie mit klimaneutral hergestelltem Wasserstoff (Grüner Wasserstoff) betreiben werden.
 Die Energiewende kann nur gelingen, wenn sie europäisch gedacht und EU-rechtskonform ausgestaltet wird. Deutschland liegt inmitten eines vernetzten europäischen Stromsystems, reguliert durch einheitliche Regeln des Binnenmarktes. Durch diese Vernetzung stärken wir unsere Versorgungssicherheit.
 Mit der Europäischen Kommission, den EU-Mitgliedstaaten und unseren Nachbarländern sind wir in einem ständigen Austausch über die Weiterentwicklung des Strommarktes, da wir überzeugt sind, dass die Energiewende effizient nur im Rahmen des Binnenmarktes gelingen kann. Auf diese Weise verbinden wir zum Beispiel Wasserkraft in Skandinavien und den Alpenländern mit Windkraft und Photovoltaik in Deutschland.
-Wir denken und verankern die Energiewende europäisch
-Die Energiewende kann nur gelingen, wenn sie europäisch gedacht und EU-rechtskonform ausgestaltet wird. Der Strom macht nicht an nationalen Grenzen halt und Deutschland liegt inmitten eines vernetzten europäischen Stromsystems, reguliert durch einheitliche Regeln des Binnenmarktes.
-Die Bundesregierung hat ihre energiepolitischen Maßnahmen europarechtlich abgesichert, intensive Gespräche mit der Europäischen Kommission geführt und sichauf ein Energiepaket verständigt. Am 15. Dezember 2016 hat der Bundestag das Gesetz beschlossen, mit dem die Verständigung zu den wichtigsten Energie-Beihilfedossiers umgesetzt wurde. Detaillierte Informationen zu dieser Verständigung mit der EU-Kommission und dem hieraus resultierenden Umsetzungsbedarf in nationales Recht finden Sie hier (PDF: 68 KB).
-Mit unseren Nachbarländern sind wir in einem ständigen Austausch über die Weiterentwicklung des Strommarktes, da wir überzeugt sind, dass die Energiewende effizient nur im Rahmen des Binnenmarktes gelingen kann. Auf diese Weise verbinden wir zum Beispiel Wasserkraft in Skandinavien und den Alpenländern mit Windkraft und Photovoltaik in Deutschland.
-In einer "Gemeinsamen Erklärung zu regionaler Kooperation" hatte das Bundeswirtschaftsministerium im Juni 2015 mit den Energieministerinnen und -ministern von elf Nachbarstaaten verabredet, dass weder in die freie Preisbildung noch in den grenzüberschreitenden Stromhandel eingegriffen wird - auch nicht in Zeiten von Knappheit und hohen Preisen an den Strombörsen. Deutschland und die Nachbarstaaten sehen große Vorteile im Binnenmarkt, weil mit ihm Versorgungssicherheit zu geringeren Kosten erreicht werden kann.
 Das Marktstammdatenregister – für mehr Transparenz im Energiesektor
 Zur Verbesserung der Datenlage und der Transparenz in der Energiewirtschaft wurde ein Marktstammdatenregister (MaStR) eingerichtet. Das Register ist ein von jedermann nutzbares Instrument, das erstmals sämtliche Erzeugungsanlagen – Neuanlagen und Bestandsanlagen, Anlagen zur Erzeugung von erneuerbarer und konventioneller Energie, von Strom und Gas – und bestimmte Verbrauchsanlagen sowie die Betreiber der Anlagen erfasst. Es kommt dem Monitoring zugute und trägt darüber hinaus zum Bürokratieabbau bei, indem es bestehende Meldepflichten ersetzt oder vereinfacht.
-Rechtliche Grundlage dafür ist die sogenannte Marktstammdatenregisterverordnung (PDF, 132 KB), die am 1. Juli 2017 in Kraft getreten ist. Die Bundesnetzagentur betreibt das Marktstammdatenregister ab 31. Januar 2019 als online-basierte Datenbank. Nähere Informationen finden Sie bei der Bundesnetzagentur. Stellungnahmen zum Referentenentwurf der Verordnung finden Sie hier.
+ZUSAMMENSPIEL STROMMARKT UND STROMNETZ
+Strommarkt und Stromnetz verzahnen
+Deutschland verfügt über einen gut funktionierenden, modernen Strommarkt, auf dem noch bis kurz vor Lieferzeitpunkt Strom gekauft und verkauft werden kann. Damit können die steigenden Mengen von Strom aus wetterabhängigen Energiequellen wie Wind und Sonne effizient in das Stromsystem integriert werden. Nicht immer ist jedoch das Stromnetz in der Lage, den verkauften Strom zum Verbraucher zu transportieren. In diesem Fall sorgt Redispatch dafür, dass einerseits das Netz sicher bleibt und andererseits der Strom bei Verbraucherinnen und Verbrauchern ankommt.
+Redispatch als Schnittstelle zwischen Markt und Netz
+Können die auf dem Strommarkt verkauften Strommengen nicht vollständig durch das Stromnetz transportiert werden, führen die Übertragungsnetzbetreiber Redispatch durch. Das bedeutet, dass sie an bestimmten Stellen im Netz („vor dem Engpass“) Erzeugungsanlagen anweisen, die Einspeisung zu reduzieren. Damit werden die Stromflüsse über besonders belastete Leitungen reduziert, so dass das Netz sicher bleibt. Allerdings fehlen die abgeregelten Mengen dem Stromsystem, das heißt es wird weniger Strom erzeugt als zuvor verkauft wurde. Um dies auszugleichen, weisen die Übertragungsnetzbetreiber andere Erzeugungsanlagen („hinter dem Engpass“) an, ihre Einspeisung zu erhöhen.
+Redispatch bildet damit die Schnittstelle zwischen dem Handel mit Strom auf dem Strommarkt und der Infrastruktur Stromnetz, über welche die Handelsgeschäfte physikalisch erfüllt werden. In diesem Zusammenhang stellen sich eine Reihe von Fragen, zum Beispiel zur effizienten Durchführung von Redispatch. Eine sehr grundlegende Frage ist, wie die Übertragungsnetzbetreiber die benötigten Redispatch-Mengen beschaffen können. Die Wahl des Beschaffungskonzepts kann Auswirkungen auf den Handel am Strommarkt und auf Investitionsanreize für Marktakteure haben.
+Das BMWK arbeitet daran, die Organisation von Redispatch weiterzuentwickeln, auch in der oben genannten Plattform Klimaneutrales Stromssystem.
+Redispatch 2.0
+Mit der Novelle des Netzausbaubeschleunigungsgesetzes (NABEG) im Jahr 2019 wurden weitreichende Verbesserungen des Redispatch eingeführt. Ab Oktober 2021 können die Netzbetreiber wesentlich mehr Erzeugungs- und Speicheranlagen zur Behebung von Netzengpässen einsetzen. Es gilt dann nicht mehr die bisherige Schwelle von 10 MW installierter Leistung, ab der Anlagenbetreiber auf Anruf der Übertragungsnetzbetreiber am Redispatch teilnehmen müssen. Künftig gilt die Teilnahmepflicht bereits ab einer Größe von 100 kW sowie für alle steuerbare Anlagen auch unter dieser Schwelle. Auch der Strom aus EE- und KWK-Anlagen kann künftig planmäßig für Redispatch herangezogen werden, ohne dass der Einspeisevorrang aufgehoben wird.
+Mit dem Redispatch 2.0 werden die bislang unterschiedlichen Regelungen zur Beseitigung von Netzengpässen für Einspeisemanagement und Redispatch zu einem einheitlichen, „optimierten Redispatch“ zusammengeführt. Die Auswahl der Maßnahmen erfolgt nach der insgesamt kostengünstigsten Maßnahmenkombination. Die Optimierung umfasst künftig nicht nur die Übertragungsnetzebene, sondern auch die Verteilnetzebene. Alle Maßnahmen im Redispatch 2.0 werden energetisch-bilanziell ausgeglichen.
+Studie „Analyse der Ansteuerbarkeit von elektrischen Erzeugern und Verbrauchern“ von Fraunhofer IEE
+Im Juli 2024 hat Fraunhofer IEE im Auftrag des Bundeswirtschaftsministeriums die „Analyse der Ansteuerbarkeit von elektrischen Erzeugern und Verbrauchern“ (PDF, 10 MB) abgeschlossen. Hintergrund ist, dass bei der Bereitstellung von Systemdienstleistungen zukünftig nicht nur erneuerbare Erzeugungsanlagen, sondern auch Lasten und Speicher eine Rolle spielen.
+Damit die Versorgungssicherheit auch weiterhin jederzeit gewährleistet ist, spielt in einer von einem hohen Anteil Erneuerbarer Energien geprägten Energielandschaft die sog. Ansteuerbarkeit – also quasi die „Fernsteuerbarkeit“ – von Stromerzeugungsanlagen und Speichern eine immer wichtigere Rolle. Der jederzeit sichere Netzbetrieb steht dabei im Zentrum der Überlegungen. Wie kann beispielsweise sinnvoll auf Stromüberschuss-Situationen oder Netzengpässe reagiert werden?
+Die Studie findet sich hier. (PDF, 10 MB)
+VERSORGUNGSSICHERHEIT
+Zuverlässige Stromversorgung für Unternehmen und Haushalte
+Im internationalen Vergleich ist die Stromversorgung in Deutschland sehr zuverlässig. Stromausfälle sind äußert selten, im Schnitt waren es 2021 nur 13 Minuten. Der Strommarkt verändert sich aktuell – dank der größeren Bedeutung des Stroms aus sauberen Quellen wie Wind und Sonne sowie gleichzeitig den Wegfall der Atomenergie und dem Kohle-Ausstieg.
+Versorgungssicherheit und langfristig Klimaneutralität – das sind die beiden zentralen Ziele der deutschen Energiepolitik. Das gilt auch für den Strommarkt. Eine Schlüsselrolle spielen dabei die Netzbetreiber.
+Sie sind für den sicheren Netzbetrieb zuständig (Paragraph 12, 14 Energiewirtschaftsgesetz, EnWG). Die Unternehmen planen und warten das Netz, regeln den Netzbetrieb und stimmen Stromerzeugung und -nachfrage aufeinander ab.
+Als Maß für die Zuverlässigkeit der Stromversorgung für Endverbraucherinnen und -verbraucher dient der sogenannte SAIDI (System Average Interruption Duration Index). Dieser Index zeigt, wie lange jede Letztverbraucherin und jeder Letztverbraucher aus Netzgründen während eines Jahres durchschnittlich keinen Strom zur Verfügung hatte. Dieser Nichtverfügbarkeitswert wird in Deutschland durch die Bundesnetzagentur erfasst – er zeigt einen deutlich sinkenden Trend seit 2006. Das zeigt, dass die Versorgungssicherheit auch in einem Strommarkt mit einem hohen Anteil an erneuerbaren Energien nicht beeinträchtigt wird. Im Jahr 2021 waren die Menschen und Unternehmen bundesweit im Durchschnitt nur rund 13 Minuten ohne Strom, was ein im internationalen Vergleich sehr guter Wert ist. Hauptursache war damals ein Starkregenereignis im Westen und Südwesten Deutschlands.
+Zur Untersuchung der Versorgungssicherheit am Strommarkt wird die Kenngröße Lastüberhangswahrscheinlichkeit betrachtet. Diese sagt aus, ob jederzeit eine ausreichende Stromproduktion zur Deckung der Stromnachfrage zur Verfügung steht.
+Informationen zur Versorgungssicherheit beim Stromnetzbetrieb finden sie hier.
+Laufende Beobachtung der Versorgungssicherheit
+Die Bundesnetzagentur überwacht durchgehend die Versorgungssicherheit in Deutschland. Dabei berücksichtigen die zugrunde liegenden Untersuchungen auch Situationen mit geringer Einspeisung aus Wind- und Solaranlagen sowie den Ausstieg aus der Atom- und der Kohleverstromung. Die Untersuchungen zeigen, dass die Nachfrage am Strommarkt in Deutschland bis 2030 in allen untersuchten Szenarien gedeckt werden kann. Dabei ist eine höhere Nachfrage, unter anderem durch elektrisch betriebene Wärmepumpen und Elektromobilität, bereits berücksichtigt.
+Die Bundesnetzagentur legt nach Paragraph 51 des EnWG alle zwei Jahre einen Monitoringbericht zur Versorgungssicherheit im Bereich der leitungsgebundenen Versorgung mit Elektrizität vor. Der aktuelle Bericht (hier) basiert auf zwei Gutachten: Das erste wurde von consentec, IER und FfE (Gutachten consentec et al., Datenanhang) angefertigt, eine Aktualisierung wurde von r2b vorgelegt (Gutachten r2b, Datenhang).
+Unter dem Begriff Versorgungssicherheit wird im Rahmen dieses Monitoringberichts die angemessene Deckung des Strombedarfs verstanden. Diese umfasst die Aspekte Stromerzeugung, Stromtransport und die Verfügbarkeit von Energieträgern für die Stromerzeugung. Die Bundesregierung hat auf Basis des Berichtes der Bundesnetzagentur dem Bundestag Handlungsempfehlungen vorgelegt, diese finden Sie hier.
+Der Bericht stellt die bestehende Versorgungslage und deren Entwicklung unter Berücksichtigung der nationalen und internationalen Marktgegebenheiten dar. Im Bericht werden keine Risiken mit unvorhersehbarer Eintrittswahrscheinlichkeit untersucht, da der Strommarkt hierfür selbst keine Vorsorge treffen kann. Die Absicherung für diese Risiken fällt in den Bereich der staatlichen Risikovorsorge durch Reserven, die zusätzlich zum Strommarkt in Extremsituationen zur Verfügung stehen.
+Unsere Energiewende: sicher, sauber, bezahlbar
+ZUM ARTIKEL
+MODERNE KRAFTWERKSTECHNOLOGIEN/KWK
+Hoch effizient und klimafreundlich
+Moderne Kraftwerke mit hohen Umweltstandards sind ein wichtiger Baustein für eine zuverlässige Versorgung mit Energie. Auf dem Weg des Umbaus der Energieversorgung zu immer höheren Anteilen erneuerbarer Energien werden konventionelle Kraftwerke weiterhin einen wesentlichen Beitrag leisten.
+Moderne Kraftwerke mit hohen Umweltstandards sind ein wichtiger Baustein für eine zuverlässige Versorgung mit Energie. Auf dem Weg des Umbaus der Energieversorgung zu immer höheren Anteilen erneuerbarer Energien werden regelbare Kraftwerke weiterhin einen wesentlichen Beitrag leisten.
+Kraft-Wärme-Kopplung
+Die Kraft-Wärme-Kopplung (KWK) ist ein wichtiger Baustein der Energiewende. Bei KWK handelt es sich um eine Kraftwerkstechnologie, die gleichzeitig Strom und Wärme erzeugt, und somit den eingesetzten Brennstoff deutlich effizienter und sparsamer verwendet. Die bei der Stromerzeugung entstehende Wärme wird als Wärmeenergie vor Ort oder über Wärmenetze genutzt. Mit der zunehmenden Verbreitung von klimaneutralen Erzeugungstechnologien für Strom und Wärme steigt der Anforderungsdruck auf die noch weitgehend fossil betriebene KWK, sich ebenfalls erneuerbaren Brennstoffen zuzuwenden.
+Grundlage der Förderung von Kraftwerken mit KWK-Technologie ist seit 2002 das Kraft-Wärme-Kopplungsgesetz (KWKG). Es regelt eine umlagefinanzierte Förderung für die gemeinsame und hocheffiziente Erzeugung von Strom und Wärme. Nach dem KWKG erhalten Betreiber geförderter Kraft-Wärme-Kopplungsanlagen zeitlich befristete Zuschlagszahlungen pro Kilowattstunde KWK-Strom.
+Novelle des Kraft-Wärme-Kopplungsgesetzes (KWKG)
+Um sicherzustellen, dass die KWK auch in Zukunft eine wichtige Rolle bei der weiteren Umsetzung der Energiewende in Deutschland spielt, wurde das KWKG mehrfach novelliert.
+Die Anfang 2016 in Kraft getretene Novelle hat das Ziel, die Nettostromerzeugung aus KWK-Anlagen zu erhöhen und Investitionen in besonders effiziente, flexible und CO2-arme Anlagen zu steigern.
+Das Anfang 2017 in Kraft getretene KWK-Änderungsgesetz öffnet die Förderung für mehr Wettbewerb: Die Förderhöhe für Strom aus KWK-Anlagen mit einer Leistung zwischen 1 und 50 Megawatt (MW) wird seit Ende 2017 per Ausschreibungen festgelegt. Eine zusätzliche Ausschreibung für innovative KWK-Systeme fördert besonders flexible und emissionssparende KWK-Systeme, die Wärme aus erneuerbaren Energien in ihren Betrieb integrieren. Diese neue Förderkategorie soll der KWK Zukunftsperspektiven eröffnen und notwendige Investitionen in flexible Technologien anreizen. Mehr erfahren Sie dazu im Artikel zu „Kraft-Wärme-Kopplung“.
+Die Gesetzesnovellierungen in den Jahren 2020 und 2022 setzen deutlich stärkere Signale in Richtung Flexibilisierung und Dekarbonisierung der KWK. So wurden mit dem überarbeiteten Kohle-Ersatzbonus die Anreize gestärkt, eine kohlebefeuerte Anlage durch ein gasbetriebenes Kraftwerk zu ersetzen. Für alle ab Juli 2023 zu genehmigenden neuen Gas-KWK-Anlagen gilt zudem eine neue Anforderung zur Wasserstofffähigkeit (H2-Readiness). Alle neuen Anlagen ab einer elektrischen Leistung von 10 Megawatt müssen nachweisen, dass sie zu einem späteren Zeitpunkt zu moderaten Mehrkosten auf den Betrieb mit 100% Wasserstoff umgerüstet werden können. Somit werden Lock-in-Effekte in ausschließlich fossile Technologien vermieden und eine graduelle Transformation des regelbaren Kraftwerksparks in Richtung klimaneutraler Brennstoffe ermöglicht.
+PLATTFORM STROMMARKT
+Gemeinsam den Strommarkt der Zukunft gestalten
+Um Fragen der Weiterentwicklung des Strommarkts zu diskutieren, hat das Bundeswirtschaftsministerium ein Dialogforum gegründet: Die Plattform Strommarkt.
+Die Plattform Strommarkt besteht aus dem Plenum sowie vier thematischen Arbeitsgruppen. Teilnehmende der Plattform sind Vertreterinnen und Vertreter von Behörden, Verbänden, Nicht-Regierungs-Organisationen und wissenschaftlichen Einrichtungen. In den regelmäßig stattfindenden Plenarsitzungen werden vor allen Dingen Themen diskutiert, die für alle Arbeitsgruppen relevant sind.
+Weiterführende Informationen
 01.02.2022
 DOWNLOAD
 Publikation:
@@ -13338,64 +13318,6 @@
 Bericht des Bundesministeriums für Wirtschaft und Klimaschutz zur Netz- und Kapazitätsreserve
 nach § 63 Absatz 2a EnWG zur Wirksamkeit und Notwendigkeit der Maßnahmen nach den §§ 13a bis 13f sowie 13h bis 13j und § 16 Absatz 2a EnWG (PDF ist barrierefrei)
 Öffnet PDF "Bericht des Bundesministeriums für Wirtschaft und Klimaschutz zur Netz- und Kapazitätsreserve" in neuem Fenster.
-03.07.2015
-Weißbuch
-Öffnet PDF "Weißbuch" in neuem Fenster.
-ZUSAMMENSPIEL STROMMARKT UND STROMNETZ
-Strommarkt und Stromnetz verzahnen
-Deutschland verfügt über einen gut funktionierenden, modernen Strommarkt, auf dem noch bis kurz vor Lieferzeitpunkt Strom gekauft und verkauft werden kann. Damit können die steigenden Mengen von Strom aus wetterabhängigen Energiequellen wie Wind und Sonne effizient in das Stromsystem integriert werden. Nicht immer ist jedoch das Stromnetz in der Lage, den verkauften Strom zum Verbraucher zu transportieren. In diesem Fall sorgt Redispatch dafür, dass einerseits das Netz sicher bleibt und andererseits der Strom bei Verbraucherinnen und Verbrauchern ankommt.
-Redispatch als Schnittstelle zwischen Markt und Netz
-Können die auf dem Strommarkt verkauften Strommengen nicht vollständig durch das Stromnetz transportiert werden, führen die Übertragungsnetzbetreiber Redispatch durch. Das bedeutet, dass sie an bestimmten Stellen im Netz („vor dem Engpass“) Erzeugungsanlagen anweisen, die Einspeisung zu reduzieren. Damit werden die Stromflüsse über besonders belastete Leitungen reduziert, so dass das Netz sicher bleibt. Allerdings fehlen die abgeregelten Mengen dem Stromsystem, das heißt es wird weniger Strom erzeugt als zuvor verkauft wurde. Um dies auszugleichen, weisen die Übertragungsnetzbetreiber andere Erzeugungsanlagen („hinter dem Engpass“) an, ihre Einspeisung zu erhöhen.
-Redispatch bildet damit die Schnittstelle zwischen dem Handel mit Strom auf dem Strommarkt und der Infrastruktur Stromnetz, über welche die Handelsgeschäfte physikalisch erfüllt werden. In diesem Zusammenhang stellen sich eine Reihe von Fragen, zum Beispiel zur effizienten Durchführung von Redispatch. Eine sehr grundlegende Frage ist, wie die Übertragungsnetzbetreiber die benötigten Redispatch-Mengen beschaffen können. Die Wahl des Beschaffungskonzepts kann Auswirkungen auf den Handel am Strommarkt und auf Investitionsanreize für Marktakteure haben.
-Das BMWK arbeitet daran, die Organisation von Redispatch weiterzuentwickeln, auch in der oben genannten Plattform Klimaneutrales Stromssystem.
-Redispatch 2.0
-Mit der Novelle des Netzausbaubeschleunigungsgesetzes (NABEG) im Jahr 2019 wurden weitreichende Verbesserungen des Redispatch eingeführt. Ab Oktober 2021 können die Netzbetreiber wesentlich mehr Erzeugungs- und Speicheranlagen zur Behebung von Netzengpässen einsetzen. Es gilt dann nicht mehr die bisherige Schwelle von 10 MW installierter Leistung, ab der Anlagenbetreiber auf Anruf der Übertragungsnetzbetreiber am Redispatch teilnehmen müssen. Künftig gilt die Teilnahmepflicht bereits ab einer Größe von 100 kW sowie für alle steuerbare Anlagen auch unter dieser Schwelle. Auch der Strom aus EE- und KWK-Anlagen kann künftig planmäßig für Redispatch herangezogen werden, ohne dass der Einspeisevorrang aufgehoben wird.
-Mit dem Redispatch 2.0 werden die bislang unterschiedlichen Regelungen zur Beseitigung von Netzengpässen für Einspeisemanagement und Redispatch zu einem einheitlichen, „optimierten Redispatch“ zusammengeführt. Die Auswahl der Maßnahmen erfolgt nach der insgesamt kostengünstigsten Maßnahmenkombination. Die Optimierung umfasst künftig nicht nur die Übertragungsnetzebene, sondern auch die Verteilnetzebene. Alle Maßnahmen im Redispatch 2.0 werden energetisch-bilanziell ausgeglichen.
-Das vergrößerte Potenzial erlaubt es den Netzbetreibern, effektiver und kostengünstiger das Netz zu betreiben. Aktuelle Festlegungen der Bundesnetzagentur zur Umsetzung der neuen Redispatch-Regelungen finden Sie hier.
-Studie „Untersuchung zur Beschaffung von Redispatch“
-Daher hat das Bundeswirtschaftsministerium 2017 die Studie „Untersuchung zur Beschaffung von Redispatch“ in Auftrag gegeben, die mit einem Abschlussbericht im November 2019 zum Abschluss kam. Gegenstand der Untersuchung war es, verschiedene Konzepte dazustellen und zu bewerten, mit denen die Übertragungsnetzbetreiber die notwendigen Redispatch-Mengen beschaffen können. Die nachfolgenden Berichte der Gutachter Neon, Consentec und Connect umfassen die Ergebnisse aus den verschiedenen Arbeitspaketen.
-Der Abschlussbericht der Studie ist auf Deutsch und Englisch verfügbar. Darin fassen die Gutachterinnen und Gutachter die Ergebnisse des Gesamtprojekts zusammen und leiten Handlungsempfehlungen für das Bundeswirtschaftsministerium ab, wie die Beschaffung von Redispatch zukünftig ausgestaltet werden kann. Das Fazit: Es wird empfohlen, den kostenbasierten Redispatch beizubehalten und in Einzelaspekten weiterzuentwickeln. Auf die Einführung von Redispatch-Märkten auf Übertragungsnetzebene sollte wegen seiner gravierenden Nachteile verzichtet werden.
-08.01.2020
-Aktionsplan Gebotszone
-Öffnet PDF "Aktionsplan Gebotszone" in neuem Fenster.
-alle ausgaben:
-Schlaglichter der Wirtschaftspolitik
-Netzausbau geht voran (Monatsbericht 08/2019)
-ALLE AUSGABEN
-Publikationen
-Zurück blättern
-08.11.2019
-Kosten- oder Marktbasiert? Zukünftige Redispatch-Beschaffung in Deutschland
-Abschlussbericht: Schlussfolgerungen aus dem Vorhaben
-Öffnet PDF "Kosten- oder Marktbasiert? Zukünftige Redispatch-Beschaffung in Deutschland" in neuem Fenster.
-Cost- or market-based? Future redispatch procurement in Germany
-Final report: Conclusions from the project
-Öffnet PDF "Cost- or market-based? Future redispatch procurement in Germany" in neuem Fenster.
-Untersuchung zur Beschaffung von Redispatch
-Quantitative Analysen
-Öffnet PDF "Untersuchung zur Beschaffung von Redispatch" in neuem Fenster.
-14.11.2018
-Zusammenspiel von Markt und Netz im Stromsystem
-Eine Systematisierung und Bewertung von Ausgestaltungen des Strommarkts
-Öffnet PDF "Zusammenspiel von Markt und Netz im Stromsystem" in neuem Fenster.
-13.11.2018
-Konzepte für Redispatch-Beschaffung und Bewertungskriterien
-Im Auftrag des Bundesministeriums für Wirtschaft und Energie
-Öffnet PDF "Konzepte für Redispatch-Beschaffung und Bewertungskriterien" in neuem Fenster.
-Weiter blättern
-VERSORGUNGSSICHERHEIT
-Zuverlässige Stromversorgung für Unternehmen und Haushalte
-Im internationalen Vergleich ist die Stromversorgung in Deutschland sehr zuverlässig. Stromausfälle sind äußert selten, im Schnitt waren es 2021 nur 13 Minuten. Der Strommarkt verändert sich aktuell – dank der größeren Bedeutung des Stroms aus sauberen Quellen wie Wind und Sonne sowie gleichzeitig den Wegfall der Atomenergie und dem Kohle-Ausstieg.
-Versorgungssicherheit und langfristig Klimaneutralität – das sind die beiden zentralen Ziele der deutschen Energiepolitik. Das gilt auch für den Strommarkt. Eine Schlüsselrolle spielen dabei die Netzbetreiber.
-Sie sind für den sicheren Netzbetrieb zuständig (Paragraph 12, 14 Energiewirtschaftsgesetz, EnWG). Die Unternehmen planen und warten das Netz, regeln den Netzbetrieb und stimmen Stromerzeugung und -nachfrage aufeinander ab.
-Als Maß für die Zuverlässigkeit der Stromversorgung für Endverbraucherinnen und -verbraucher dient der sogenannte SAIDI (System Average Interruption Duration Index). Dieser Index zeigt, wie lange jede Letztverbraucherin und jeder Letztverbraucher aus Netzgründen während eines Jahres durchschnittlich keinen Strom zur Verfügung hatte. Dieser Nichtverfügbarkeitswert wird in Deutschland durch die Bundesnetzagentur erfasst – er zeigt einen deutlich sinkenden Trend seit 2006. Das zeigt, dass die Versorgungssicherheit auch in einem Strommarkt mit einem hohen Anteil an erneuerbaren Energien nicht beeinträchtigt wird. Im Jahr 2021 waren die Menschen und Unternehmen bundesweit im Durchschnitt nur rund 13 Minuten ohne Strom, was ein im internationalen Vergleich sehr guter Wert ist. Hauptursache war damals ein Starkregenereignis im Westen und Südwesten Deutschlands.
-Zur Untersuchung der Versorgungssicherheit am Strommarkt wird die Kenngröße Lastüberhangswahrscheinlichkeit betrachtet. Diese sagt aus, ob jederzeit eine ausreichende Stromproduktion zur Deckung der Stromnachfrage zur Verfügung steht.
-Informationen zur Versorgungssicherheit beim Stromnetzbetrieb finden sie hier.
-Laufende Beobachtung der Versorgungssicherheit
-Die Bundesnetzagentur überwacht durchgehend die Versorgungssicherheit in Deutschland. Dabei berücksichtigen die zugrunde liegenden Untersuchungen auch Situationen mit geringer Einspeisung aus Wind- und Solaranlagen sowie den Ausstieg aus der Atom- und der Kohleverstromung. Die Untersuchungen zeigen, dass die Nachfrage am Strommarkt in Deutschland bis 2030 in allen untersuchten Szenarien gedeckt werden kann. Dabei ist eine höhere Nachfrage, unter anderem durch elektrisch betriebene Wärmepumpen und Elektromobilität, bereits berücksichtigt.
-Die Bundesnetzagentur legt nach Paragraph 51 des EnWG alle zwei Jahre einen Monitoringbericht zur Versorgungssicherheit im Bereich der leitungsgebundenen Versorgung mit Elektrizität vor. Der aktuelle Bericht (hier) basiert auf zwei Gutachten: Das erste wurde von consentec, IER und FfE (Gutachten consentec et al., Datenanhang) angefertigt, eine Aktualisierung wurde von r2b vorgelegt (Gutachten r2b, Datenhang).
-Unter dem Begriff Versorgungssicherheit wird im Rahmen dieses Monitoringberichts die angemessene Deckung des Strombedarfs verstanden. Diese umfasst die Aspekte Stromerzeugung, Stromtransport und die Verfügbarkeit von Energieträgern für die Stromerzeugung. Die Bundesregierung hat auf Basis des Berichtes der Bundesnetzagentur dem Bundestag Handlungsempfehlungen vorgelegt, diese finden Sie hier.
-Der Bericht stellt die bestehende Versorgungslage und deren Entwicklung unter Berücksichtigung der nationalen und internationalen Marktgegebenheiten dar. Im Bericht werden keine Risiken mit unvorhersehbarer Eintrittswahrscheinlichkeit untersucht, da der Strommarkt hierfür selbst keine Vorsorge treffen kann. Die Absicherung für diese Risiken fällt in den Bereich der staatlichen Risikovorsorge durch Reserven, die zusätzlich zum Strommarkt in Extremsituationen zur Verfügung stehen.
 15.02.2023
 Energiedaten und -szenarien
 Versorgungssicherheit Strom Bericht 2022
@@ -13404,6 +13326,7 @@
 Energie
 Artikel:
 Berichte zu dem Forschungsvorhaben „Wissenschaftliche Unterstützung bei der methodischen Weiterentwicklung von Berichten zur Resource Adequacy im Pentalateralen Energieforum“
+Öffnet Einzelsicht
 31.01.2022
 Veröffentlichung des Zuverlässigkeitsstandard für die Stromversorgung in der deutsch-luxemburgischen Gebotszone gemäß Art. 25 der Verordnung (EU) 2019/943
 PDF, 211 KB
@@ -13413,24 +13336,6 @@
 Im Rahmen des Projektes „Auswertung der Daten des Lastmanagement-Monitoring der Erhebungsjahre 2017, 2018 und 2019“
 PDF, 2 MB
 Öffnet PDF "Endbericht: Auswertung des Lastmanagement-Monitorings nach § 51a EnWG für die Erhebungsrunden 2017, 2018 und 2019 " in neuem Fenster.
-Unsere Energiewende: sicher, sauber, bezahlbar
-ZUM ARTIKEL
-MODERNE KRAFTWERKSTECHNOLOGIEN/KWK
-Hoch effizient und klimafreundlich
-Moderne Kraftwerke mit hohen Umweltstandards sind ein wichtiger Baustein für eine zuverlässige Versorgung mit Energie. Auf dem Weg des Umbaus der Energieversorgung zu immer höheren Anteilen erneuerbarer Energien werden konventionelle Kraftwerke weiterhin einen wesentlichen Beitrag leisten.
-Moderne Kraftwerke mit hohen Umweltstandards sind ein wichtiger Baustein für eine zuverlässige Versorgung mit Energie. Auf dem Weg des Umbaus der Energieversorgung zu immer höheren Anteilen erneuerbarer Energien werden regelbare Kraftwerke weiterhin einen wesentlichen Beitrag leisten.
-Kraft-Wärme-Kopplung
-Die Kraft-Wärme-Kopplung (KWK) ist ein wichtiger Baustein der Energiewende. Bei KWK handelt es sich um eine Kraftwerkstechnologie, die gleichzeitig Strom und Wärme erzeugt, und somit den eingesetzten Brennstoff deutlich effizienter und sparsamer verwendet. Die bei der Stromerzeugung entstehende Wärme wird als Wärmeenergie vor Ort oder über Wärmenetze genutzt. Mit der zunehmenden Verbreitung von klimaneutralen Erzeugungstechnologien für Strom und Wärme steigt der Anforderungsdruck auf die noch weitgehend fossil betriebene KWK, sich ebenfalls erneuerbaren Brennstoffen zuzuwenden.
-Grundlage der Förderung von Kraftwerken mit KWK-Technologie ist seit 2002 das Kraft-Wärme-Kopplungsgesetz (KWKG). Es regelt eine umlagefinanzierte Förderung für die gemeinsame und hocheffiziente Erzeugung von Strom und Wärme. Nach dem KWKG erhalten Betreiber geförderter Kraft-Wärme-Kopplungsanlagen zeitlich befristete Zuschlagszahlungen pro Kilowattstunde KWK-Strom.
-Novelle des Kraft-Wärme-Kopplungsgesetzes (KWKG)
-Um sicherzustellen, dass die KWK auch in Zukunft eine wichtige Rolle bei der weiteren Umsetzung der Energiewende in Deutschland spielt, wurde das KWKG mehrfach novelliert.
-Die Anfang 2016 in Kraft getretene Novelle hat das Ziel, die Nettostromerzeugung aus KWK-Anlagen zu erhöhen und Investitionen in besonders effiziente, flexible und CO2-arme Anlagen zu steigern.
-Das Anfang 2017 in Kraft getretene KWK-Änderungsgesetz öffnet die Förderung für mehr Wettbewerb: Die Förderhöhe für Strom aus KWK-Anlagen mit einer Leistung zwischen 1 und 50 Megawatt (MW) wird seit Ende 2017 per Ausschreibungen festgelegt. Eine zusätzliche Ausschreibung für innovative KWK-Systeme fördert besonders flexible und emissionssparende KWK-Systeme, die Wärme aus erneuerbaren Energien in ihren Betrieb integrieren. Diese neue Förderkategorie soll der KWK Zukunftsperspektiven eröffnen und notwendige Investitionen in flexible Technologien anreizen. Mehr erfahren Sie dazu im Artikel zu „Kraft-Wärme-Kopplung“.
-Die Gesetzesnovellierungen in den Jahren 2020 und 2022 setzen deutlich stärkere Signale in Richtung Flexibilisierung und Dekarbonisierung der KWK. So wurden mit dem überarbeiteten Kohle-Ersatzbonus die Anreize gestärkt, eine kohlebefeuerte Anlage durch ein gasbetriebenes Kraftwerk zu ersetzen. Für alle ab Juli 2023 zu genehmigenden neuen Gas-KWK-Anlagen gilt zudem eine neue Anforderung zur Wasserstofffähigkeit (H2-Readiness). Alle neuen Anlagen ab einer elektrischen Leistung von 10 Megawatt müssen nachweisen, dass sie zu einem späteren Zeitpunkt zu moderaten Mehrkosten auf den Betrieb mit 100% Wasserstoff umgerüstet werden können. Somit werden Lock-in-Effekte in ausschließlich fossile Technologien vermieden und eine graduelle Transformation des regelbaren Kraftwerksparks in Richtung klimaneutraler Brennstoffe ermöglicht.
-PLATTFORM STROMMARKT
-Gemeinsam den Strommarkt der Zukunft gestalten
-Um Fragen der Weiterentwicklung des Strommarkts zu diskutieren, hat das Bundeswirtschaftsministerium ein Dialogforum gegründet: Die Plattform Strommarkt.
-Die Plattform Strommarkt besteht aus dem Plenum sowie vier thematischen Arbeitsgruppen. Teilnehmende der Plattform sind Vertreterinnen und Vertreter von Behörden, Verbänden, Nicht-Regierungs-Organisationen und wissenschaftlichen Einrichtungen. In den regelmäßig stattfindenden Plenarsitzungen werden vor allen Dingen Themen diskutiert, die für alle Arbeitsgruppen relevant sind.
 Pressemitteilung
 07.10.2022
 PRESSEMITTEILUNG
@@ -13449,12 +13354,6 @@
 Habeck: „Weitere Stärkung der Vorsorge durch kurzfristige Erhöhung der Stromproduktion aus Erneuerbaren Energien und weitere Maßnahmen zur Senkung des Gasverbrauchs“
 29.07.2022
 Erste Regelungen des neuen EEG 2023 treten in Kraft: Vorfahrt für erneuerbare Energien und mehr Vergütung für Solarstrom
-Newsletter "Energiewende direkt"
-Neue Regeln für Europas Strommarkt (Ausgabe 10/2023)
-"Was sind eigentlich Netzreserve, Kapazitätsreserve und Sicherheitsbereitschaft?" (Ausgabe 09/2020)
-"Wie funktioniert eigentlich der Strommarkt?" (Ausgabe 06/2020)
-"Aktionsplan für den grenzübergreifenden Stromhandel" (Ausgabe 04/2020)
-ABONNIEREN
 Tracking-Einwilligung
 Einwilligung zum Videodienst JW-Player
 Das Ministerium präsentiert seine Arbeit auf dieser Webseite auch in Form von Videos. Diese werden vom deutschen Anbieter TV1 mit Hilfe des JW-Players mit Sitz in den USA ausgeliefert. Bitte willigen Sie in die Übertragung Ihrer IP-Adresse und anderer technischer Daten an den JW-Player ein, und erlauben Sie JW-Player, Cookies auf Ihrem Endgerät zu setzen, wenn Sie unser Video-Angebot nutzen wollen. Verantwortlich für diese Verarbeitung Ihrer Daten ist das Bundesministerium für Wirtschaft und Klimaschutz. Unsere Datenschutzbeauftragte erreichen Sie unter datenschutzbeauftragte@bmwk.bund.de. Als Rechtsgrundlage dient uns Ihre Einwilligung nach § 25 Abs. 1 TTDSG i. V. m. Artikel 6 Abs. 1 lit. a) DSGVO und § 3 Abs. 1 EGovG. Wir haben sichergestellt, dass Sie Ihre Einwilligung jederzeit für die Zukunft widerrufen können. Über die Einwilligungsverwaltung am Ende der Seite können Sie jederzeit steuern, ob Sie den Videodienst JW-Player zur Übertragung freigeben oder nicht.
@@ -13551,6 +13450,7 @@
 Tourismuspolitik
 Ausbildung &amp; Beruf
 Ausbildung und Beruf
+Publikationen
 Evaluationen
 Veranstaltungen
 Wettbewerbe
@@ -13605,7 +13505,32 @@
 Geschichte des BMWK
 Schliessen
 Verwandte Themen
-Energiewende Energiedaten und -szenarien Netze und Netzausbau Versorgungssicherheit Erneuerbare Energien Kraft-Wärme-Kopplung Europäische und internationale Energiepolitik Energiespeicher EEG-Reform Energiepreise und Transparenz für Verbraucher </t>
+Energiewende Energiedaten und -szenarien Netze und Netzausbau Versorgungssicherheit Erneuerbare Energien Kraft-Wärme-Kopplung Europäische und internationale Energiepolitik Energiespeicher EEG-Reform Energiepreise und Transparenz für Verbraucher Energieeffizienz Energiewende im Gebäudebereich
+weitere anzeigen
+facebook
+youtube
+x
+instagram
+linkedin
+threads
+tiktok
+© 2024 Bundesministerium für Wirtschaft und Klimaschutz
+Impressum
+Barrierefreiheit
+Datenschutz
+Einwilligungsverwaltung
+Zum Seitenanfang
+Einwilligung in Tracking und / oder Videodienste
+Wir bitten Sie an dieser Stelle um Ihre Einwilligung für verschiedene Zusatzdienste unserer Webseite: Wir möchten die Nutzeraktivität mit Hilfe datenschutzfreundlicher Statistiken verstehen, um unsere Öffentlichkeitsarbeit zu verbessern. Zusätzlich können Sie in die Nutzung zweier Videodienste einwilligen. Nähere Informationen zu allen Diensten finden Sie, wenn Sie die Pluszeichen rechts aufklappen. Sie können Ihre Einwilligungen jederzeit erteilen oder für die Zukunft widerrufen. Rufen Sie dazu bitte diese Einwilligungsverwaltung über den Link am Ende der Seite erneut auf.
+Auswahl bestätigenAlle bestätigen
+Technisch notwendig (nicht abwählbar)
+Statistik
+Einwilligung zum Videodienst Live-Pressekonferenzen über Vimeo
+Ausführliche Informationen über Ihre Betroffenenrechte und darüber, wie wir Ihre Privatsphäre schützen, entnehmen Sie bitte unserer Datenschutzerklärung.
+Diese Webseite setzt temporäre Session Cookies. Diese sind technisch notwendig und deshalb nicht abwählbar. Sie dienen ausschließlich dazu, Ihnen die Nutzung der Webseite zu ermöglichen.
+Unsere Datenerhebung zu statistischen Zwecken funktioniert so: Ihre Zustimmung vorausgesetzt, leitet ein Skript auf unserer Webseite automatisch Ihre IP-Adresse und den sog. User Agent an die etracker GmbH weiter. Hier wird Ihre IP-Adresse unmittelbar und automatisch gekürzt. Anschließend pseudonymisiert die Software die übermittelten Daten ausschließlich zu dem Zweck, Mehrfachnutzungen in der Sitzung feststellen zu können. Nach Ablauf von 7 Tagen wird jede Zuordnung zur Sitzung gelöscht, und Ihre statistischen Daten liegen gänzlich anonymisiert vor. Etracker ist ein deutsches Unternehmen, und verarbeitet Ihre Daten ausschließlich in unserem Auftrag auf geschützten Servern. An weitere Dritte werden sie nicht übermittelt. Verantwortlich für diese Verarbeitung Ihrer Daten ist das Bundesministerium für Wirtschaft und Klimaschutz. Unsere Datenschutzbeauftragte erreichen Sie unter datenschutzbeauftragte@bmwk.bund.de. Als Rechtsgrundlage dient uns Ihre Einwilligung nach § 25 Abs. 1 TTDSG i. V. m. Artikel 6 Abs. 1 lit. a) DSGVO und § 3 Abs. 1 EGovG. Wir haben sichergestellt, dass Sie Ihre Einwilligung jederzeit für die Zukunft widerrufen können. Rufen Sie dazu bitte diese Einwilligungsverwaltung über den Link am Ende der Seite erneut auf.
+Die Live-Übertragung von Pressekonferenzen des Ministeriums erfolgt über die Infrastruktur des amerikanischen Dienstleisters Vimeo.com. Bitte willigen Sie in die Übertragung Ihrer IP-Adresse und anderer technischer Daten an Vimeo ein, und erlauben Sie Vimeo, Cookies auf Ihrem Endgerät zu setzen, wenn Sie unseren Livestream-Videodienst nutzen wollen. Verantwortlich für diese Verarbeitung Ihrer Daten ist das Bundesministerium für Wirtschaft und Klimaschutz. Unsere Datenschutzbeauftragte erreichen Sie unter datenschutzbeauftragte@bmwk.bund.de. Als Rechtsgrundlage dient uns Ihre Einwilligung nach § 25 Abs. 1 TTDSG i. V. m. Artikel 6 Abs. 1 lit. a) DSGVO und § 3 Abs. 1 EGovG. Wir haben sichergestellt, dass Sie Ihre Einwilligung jederzeit für die Zukunft widerrufen können. Über die Einwilligungsverwaltung am Ende der Seite können Sie steuern, ob Sie den Videodienst Vimeo zur Live-Übertragung freigeben wird oder nicht.
+© ABB</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr">
@@ -13615,12 +13540,176 @@
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
         <is>
-          <t>- Energiewende Energiedaten und -szenarien Netze und Netzausbau Versorgungssicherheit Erneuerbare Energien Kraft-Wärme-Kopplung Europäische und internationale Energiepolitik Energiespeicher EEG-Reform Energiepreise und Transparenz für Verbraucher 
+          <t>- Zahlen und Fakten zum Strommarkt in Deutschland
+- 46,1
+- Prozent
+- der Stromerzeugung kam 2022 aus erneuerbaren Energien
+- 8,6
+- mehr Strom aus erneuerbaren Quellen – davon fast 19% aus Photovoltaik
+- 482,9
+- TWh
+- betrug der Stromverbrauch 2022 – etwa das Niveau von 2020
+- 26,3
+- umfasste der Netto-Export 2022 – ein Plus von fast 9 TWh gegenüber 2021
+- Bild vergrößern
+- © Kraftwerksliste der Bundesnetzagentur (BNetzA)
+- Aufgrund seiner zentralen geografischen Lage in Europa ist Deutschland ein wichtiger Partner im europäischen Strommarkt und eine Drehscheibe der europäischen Stromflüsse. Treibende Kraft für die Import- und Exportflüsse sind die Großhandelspreise an den nationalen Strombörsen. Sie werden von der jeweiligen Stromnachfrage, der Erzeugung von Strom aus erneuerbaren Energien und den Brennstoff- und Kohlenstoffkosten für fossile Kraftwerke bestimmt. Wie auch in den Jahren zuvor war Deutschland im Jahr 2022 erneut Netto-Stromexporteur. Der Nettoexport erreichte eine Höhe von 26,3 TWh und damit um fast 9 TWh mehr als 2021. Deutschland exportierte im Jahr 2022 gut 62 TWh, der Import sank auf 35,8 TWh.
++ Aufgrund seiner zentralen geografischen Lage in Europa ist Deutschland ein wichtiger Partner im europäischen Strommarkt und eine Drehscheibe der europäischen Stromflüsse. Treibende Kraft für die Import- und Exportflüsse sind die Großhandelspreise an den nationalen Strombörsen. Sie werden von der jeweiligen Stromnachfrage, der Erzeugung von Strom aus erneuerbaren Energien und den Brennstoff- und Kohlenstoffkosten für fossile Kraftwerke bestimmt.
+- Stromerzeugung europäisch
+- Der physikalische Stromaustausch erfolgt mit elf Nachbarländern - Dänemark, Niederlande, Belgien, Luxemburg, Frankreich, Schweiz, Österreich, Tschechien, Polen und über Seekabel auch mit Schweden und Norwegen. Deutschland exportierte im Jahr 2021 57 Terrawattstunden (TWh) Strom in seine Nachbarländer, während 39,6 Milliarden TWh Strom importiert wurden.
+- Der Strommix verändert sich
+- In Deutschland wurden im Jahr 2021 nach vorläufigen Angaben rund 588,8 Terawattstunden (TWh) Strom erzeugt - das sind 588 Milliarden kWh. Bei einem stetig wachsenden Anteil von erneuerbaren Energien geht nicht nur entsprechend dem beschlossenen Atomausstieg der Anteil der Kernenergie, sondern auch der von Braun- und Steinkohle am Energieträgermix der deutschen Stromversorgung zurück.
+- © AG Energiebilanzen e.V.
+- 25.05.2020
+- INFOGRAFIK
+- Infografik:
+- Physikalischer Stromaustausch Deutschlands mit Nachbarländern
+- Öffnet Einzelsicht
+- EXTERNES ANGEBOT
+- Externes Angebot:
+- www.smard.de
+- Wir denken und verankern die Energiewende europäisch
+- Die Energiewende kann nur gelingen, wenn sie europäisch gedacht und EU-rechtskonform ausgestaltet wird. Der Strom macht nicht an nationalen Grenzen halt und Deutschland liegt inmitten eines vernetzten europäischen Stromsystems, reguliert durch einheitliche Regeln des Binnenmarktes.
+- Die Bundesregierung hat ihre energiepolitischen Maßnahmen europarechtlich abgesichert, intensive Gespräche mit der Europäischen Kommission geführt und sichauf ein Energiepaket verständigt. Am 15. Dezember 2016 hat der Bundestag das Gesetz beschlossen, mit dem die Verständigung zu den wichtigsten Energie-Beihilfedossiers umgesetzt wurde. Detaillierte Informationen zu dieser Verständigung mit der EU-Kommission und dem hieraus resultierenden Umsetzungsbedarf in nationales Recht finden Sie hier (PDF: 68 KB).
+- Mit unseren Nachbarländern sind wir in einem ständigen Austausch über die Weiterentwicklung des Strommarktes, da wir überzeugt sind, dass die Energiewende effizient nur im Rahmen des Binnenmarktes gelingen kann. Auf diese Weise verbinden wir zum Beispiel Wasserkraft in Skandinavien und den Alpenländern mit Windkraft und Photovoltaik in Deutschland.
+- In einer "Gemeinsamen Erklärung zu regionaler Kooperation" hatte das Bundeswirtschaftsministerium im Juni 2015 mit den Energieministerinnen und -ministern von elf Nachbarstaaten verabredet, dass weder in die freie Preisbildung noch in den grenzüberschreitenden Stromhandel eingegriffen wird - auch nicht in Zeiten von Knappheit und hohen Preisen an den Strombörsen. Deutschland und die Nachbarstaaten sehen große Vorteile im Binnenmarkt, weil mit ihm Versorgungssicherheit zu geringeren Kosten erreicht werden kann.
+- Rechtliche Grundlage dafür ist die sogenannte Marktstammdatenregisterverordnung (PDF, 132 KB), die am 1. Juli 2017 in Kraft getreten ist. Die Bundesnetzagentur betreibt das Marktstammdatenregister ab 31. Januar 2019 als online-basierte Datenbank. Nähere Informationen finden Sie bei der Bundesnetzagentur. Stellungnahmen zum Referentenentwurf der Verordnung finden Sie hier.
++ ZUSAMMENSPIEL STROMMARKT UND STROMNETZ
++ Strommarkt und Stromnetz verzahnen
++ Deutschland verfügt über einen gut funktionierenden, modernen Strommarkt, auf dem noch bis kurz vor Lieferzeitpunkt Strom gekauft und verkauft werden kann. Damit können die steigenden Mengen von Strom aus wetterabhängigen Energiequellen wie Wind und Sonne effizient in das Stromsystem integriert werden. Nicht immer ist jedoch das Stromnetz in der Lage, den verkauften Strom zum Verbraucher zu transportieren. In diesem Fall sorgt Redispatch dafür, dass einerseits das Netz sicher bleibt und andererseits der Strom bei Verbraucherinnen und Verbrauchern ankommt.
++ Redispatch als Schnittstelle zwischen Markt und Netz
++ Können die auf dem Strommarkt verkauften Strommengen nicht vollständig durch das Stromnetz transportiert werden, führen die Übertragungsnetzbetreiber Redispatch durch. Das bedeutet, dass sie an bestimmten Stellen im Netz („vor dem Engpass“) Erzeugungsanlagen anweisen, die Einspeisung zu reduzieren. Damit werden die Stromflüsse über besonders belastete Leitungen reduziert, so dass das Netz sicher bleibt. Allerdings fehlen die abgeregelten Mengen dem Stromsystem, das heißt es wird weniger Strom erzeugt als zuvor verkauft wurde. Um dies auszugleichen, weisen die Übertragungsnetzbetreiber andere Erzeugungsanlagen („hinter dem Engpass“) an, ihre Einspeisung zu erhöhen.
++ Redispatch bildet damit die Schnittstelle zwischen dem Handel mit Strom auf dem Strommarkt und der Infrastruktur Stromnetz, über welche die Handelsgeschäfte physikalisch erfüllt werden. In diesem Zusammenhang stellen sich eine Reihe von Fragen, zum Beispiel zur effizienten Durchführung von Redispatch. Eine sehr grundlegende Frage ist, wie die Übertragungsnetzbetreiber die benötigten Redispatch-Mengen beschaffen können. Die Wahl des Beschaffungskonzepts kann Auswirkungen auf den Handel am Strommarkt und auf Investitionsanreize für Marktakteure haben.
++ Das BMWK arbeitet daran, die Organisation von Redispatch weiterzuentwickeln, auch in der oben genannten Plattform Klimaneutrales Stromssystem.
++ Redispatch 2.0
++ Mit der Novelle des Netzausbaubeschleunigungsgesetzes (NABEG) im Jahr 2019 wurden weitreichende Verbesserungen des Redispatch eingeführt. Ab Oktober 2021 können die Netzbetreiber wesentlich mehr Erzeugungs- und Speicheranlagen zur Behebung von Netzengpässen einsetzen. Es gilt dann nicht mehr die bisherige Schwelle von 10 MW installierter Leistung, ab der Anlagenbetreiber auf Anruf der Übertragungsnetzbetreiber am Redispatch teilnehmen müssen. Künftig gilt die Teilnahmepflicht bereits ab einer Größe von 100 kW sowie für alle steuerbare Anlagen auch unter dieser Schwelle. Auch der Strom aus EE- und KWK-Anlagen kann künftig planmäßig für Redispatch herangezogen werden, ohne dass der Einspeisevorrang aufgehoben wird.
++ Mit dem Redispatch 2.0 werden die bislang unterschiedlichen Regelungen zur Beseitigung von Netzengpässen für Einspeisemanagement und Redispatch zu einem einheitlichen, „optimierten Redispatch“ zusammengeführt. Die Auswahl der Maßnahmen erfolgt nach der insgesamt kostengünstigsten Maßnahmenkombination. Die Optimierung umfasst künftig nicht nur die Übertragungsnetzebene, sondern auch die Verteilnetzebene. Alle Maßnahmen im Redispatch 2.0 werden energetisch-bilanziell ausgeglichen.
++ Studie „Analyse der Ansteuerbarkeit von elektrischen Erzeugern und Verbrauchern“ von Fraunhofer IEE
++ Im Juli 2024 hat Fraunhofer IEE im Auftrag des Bundeswirtschaftsministeriums die „Analyse der Ansteuerbarkeit von elektrischen Erzeugern und Verbrauchern“ (PDF, 10 MB) abgeschlossen. Hintergrund ist, dass bei der Bereitstellung von Systemdienstleistungen zukünftig nicht nur erneuerbare Erzeugungsanlagen, sondern auch Lasten und Speicher eine Rolle spielen.
++ Damit die Versorgungssicherheit auch weiterhin jederzeit gewährleistet ist, spielt in einer von einem hohen Anteil Erneuerbarer Energien geprägten Energielandschaft die sog. Ansteuerbarkeit – also quasi die „Fernsteuerbarkeit“ – von Stromerzeugungsanlagen und Speichern eine immer wichtigere Rolle. Der jederzeit sichere Netzbetrieb steht dabei im Zentrum der Überlegungen. Wie kann beispielsweise sinnvoll auf Stromüberschuss-Situationen oder Netzengpässe reagiert werden?
++ Die Studie findet sich hier. (PDF, 10 MB)
++ VERSORGUNGSSICHERHEIT
++ Zuverlässige Stromversorgung für Unternehmen und Haushalte
++ Im internationalen Vergleich ist die Stromversorgung in Deutschland sehr zuverlässig. Stromausfälle sind äußert selten, im Schnitt waren es 2021 nur 13 Minuten. Der Strommarkt verändert sich aktuell – dank der größeren Bedeutung des Stroms aus sauberen Quellen wie Wind und Sonne sowie gleichzeitig den Wegfall der Atomenergie und dem Kohle-Ausstieg.
++ Versorgungssicherheit und langfristig Klimaneutralität – das sind die beiden zentralen Ziele der deutschen Energiepolitik. Das gilt auch für den Strommarkt. Eine Schlüsselrolle spielen dabei die Netzbetreiber.
++ Sie sind für den sicheren Netzbetrieb zuständig (Paragraph 12, 14 Energiewirtschaftsgesetz, EnWG). Die Unternehmen planen und warten das Netz, regeln den Netzbetrieb und stimmen Stromerzeugung und -nachfrage aufeinander ab.
++ Als Maß für die Zuverlässigkeit der Stromversorgung für Endverbraucherinnen und -verbraucher dient der sogenannte SAIDI (System Average Interruption Duration Index). Dieser Index zeigt, wie lange jede Letztverbraucherin und jeder Letztverbraucher aus Netzgründen während eines Jahres durchschnittlich keinen Strom zur Verfügung hatte. Dieser Nichtverfügbarkeitswert wird in Deutschland durch die Bundesnetzagentur erfasst – er zeigt einen deutlich sinkenden Trend seit 2006. Das zeigt, dass die Versorgungssicherheit auch in einem Strommarkt mit einem hohen Anteil an erneuerbaren Energien nicht beeinträchtigt wird. Im Jahr 2021 waren die Menschen und Unternehmen bundesweit im Durchschnitt nur rund 13 Minuten ohne Strom, was ein im internationalen Vergleich sehr guter Wert ist. Hauptursache war damals ein Starkregenereignis im Westen und Südwesten Deutschlands.
++ Zur Untersuchung der Versorgungssicherheit am Strommarkt wird die Kenngröße Lastüberhangswahrscheinlichkeit betrachtet. Diese sagt aus, ob jederzeit eine ausreichende Stromproduktion zur Deckung der Stromnachfrage zur Verfügung steht.
++ Informationen zur Versorgungssicherheit beim Stromnetzbetrieb finden sie hier.
++ Laufende Beobachtung der Versorgungssicherheit
++ Die Bundesnetzagentur überwacht durchgehend die Versorgungssicherheit in Deutschland. Dabei berücksichtigen die zugrunde liegenden Untersuchungen auch Situationen mit geringer Einspeisung aus Wind- und Solaranlagen sowie den Ausstieg aus der Atom- und der Kohleverstromung. Die Untersuchungen zeigen, dass die Nachfrage am Strommarkt in Deutschland bis 2030 in allen untersuchten Szenarien gedeckt werden kann. Dabei ist eine höhere Nachfrage, unter anderem durch elektrisch betriebene Wärmepumpen und Elektromobilität, bereits berücksichtigt.
++ Die Bundesnetzagentur legt nach Paragraph 51 des EnWG alle zwei Jahre einen Monitoringbericht zur Versorgungssicherheit im Bereich der leitungsgebundenen Versorgung mit Elektrizität vor. Der aktuelle Bericht (hier) basiert auf zwei Gutachten: Das erste wurde von consentec, IER und FfE (Gutachten consentec et al., Datenanhang) angefertigt, eine Aktualisierung wurde von r2b vorgelegt (Gutachten r2b, Datenhang).
++ Unter dem Begriff Versorgungssicherheit wird im Rahmen dieses Monitoringberichts die angemessene Deckung des Strombedarfs verstanden. Diese umfasst die Aspekte Stromerzeugung, Stromtransport und die Verfügbarkeit von Energieträgern für die Stromerzeugung. Die Bundesregierung hat auf Basis des Berichtes der Bundesnetzagentur dem Bundestag Handlungsempfehlungen vorgelegt, diese finden Sie hier.
++ Der Bericht stellt die bestehende Versorgungslage und deren Entwicklung unter Berücksichtigung der nationalen und internationalen Marktgegebenheiten dar. Im Bericht werden keine Risiken mit unvorhersehbarer Eintrittswahrscheinlichkeit untersucht, da der Strommarkt hierfür selbst keine Vorsorge treffen kann. Die Absicherung für diese Risiken fällt in den Bereich der staatlichen Risikovorsorge durch Reserven, die zusätzlich zum Strommarkt in Extremsituationen zur Verfügung stehen.
++ Unsere Energiewende: sicher, sauber, bezahlbar
++ ZUM ARTIKEL
++ MODERNE KRAFTWERKSTECHNOLOGIEN/KWK
++ Hoch effizient und klimafreundlich
++ Moderne Kraftwerke mit hohen Umweltstandards sind ein wichtiger Baustein für eine zuverlässige Versorgung mit Energie. Auf dem Weg des Umbaus der Energieversorgung zu immer höheren Anteilen erneuerbarer Energien werden konventionelle Kraftwerke weiterhin einen wesentlichen Beitrag leisten.
++ Moderne Kraftwerke mit hohen Umweltstandards sind ein wichtiger Baustein für eine zuverlässige Versorgung mit Energie. Auf dem Weg des Umbaus der Energieversorgung zu immer höheren Anteilen erneuerbarer Energien werden regelbare Kraftwerke weiterhin einen wesentlichen Beitrag leisten.
++ Kraft-Wärme-Kopplung
++ Die Kraft-Wärme-Kopplung (KWK) ist ein wichtiger Baustein der Energiewende. Bei KWK handelt es sich um eine Kraftwerkstechnologie, die gleichzeitig Strom und Wärme erzeugt, und somit den eingesetzten Brennstoff deutlich effizienter und sparsamer verwendet. Die bei der Stromerzeugung entstehende Wärme wird als Wärmeenergie vor Ort oder über Wärmenetze genutzt. Mit der zunehmenden Verbreitung von klimaneutralen Erzeugungstechnologien für Strom und Wärme steigt der Anforderungsdruck auf die noch weitgehend fossil betriebene KWK, sich ebenfalls erneuerbaren Brennstoffen zuzuwenden.
++ Grundlage der Förderung von Kraftwerken mit KWK-Technologie ist seit 2002 das Kraft-Wärme-Kopplungsgesetz (KWKG). Es regelt eine umlagefinanzierte Förderung für die gemeinsame und hocheffiziente Erzeugung von Strom und Wärme. Nach dem KWKG erhalten Betreiber geförderter Kraft-Wärme-Kopplungsanlagen zeitlich befristete Zuschlagszahlungen pro Kilowattstunde KWK-Strom.
++ Novelle des Kraft-Wärme-Kopplungsgesetzes (KWKG)
++ Um sicherzustellen, dass die KWK auch in Zukunft eine wichtige Rolle bei der weiteren Umsetzung der Energiewende in Deutschland spielt, wurde das KWKG mehrfach novelliert.
++ Die Anfang 2016 in Kraft getretene Novelle hat das Ziel, die Nettostromerzeugung aus KWK-Anlagen zu erhöhen und Investitionen in besonders effiziente, flexible und CO2-arme Anlagen zu steigern.
++ Das Anfang 2017 in Kraft getretene KWK-Änderungsgesetz öffnet die Förderung für mehr Wettbewerb: Die Förderhöhe für Strom aus KWK-Anlagen mit einer Leistung zwischen 1 und 50 Megawatt (MW) wird seit Ende 2017 per Ausschreibungen festgelegt. Eine zusätzliche Ausschreibung für innovative KWK-Systeme fördert besonders flexible und emissionssparende KWK-Systeme, die Wärme aus erneuerbaren Energien in ihren Betrieb integrieren. Diese neue Förderkategorie soll der KWK Zukunftsperspektiven eröffnen und notwendige Investitionen in flexible Technologien anreizen. Mehr erfahren Sie dazu im Artikel zu „Kraft-Wärme-Kopplung“.
++ Die Gesetzesnovellierungen in den Jahren 2020 und 2022 setzen deutlich stärkere Signale in Richtung Flexibilisierung und Dekarbonisierung der KWK. So wurden mit dem überarbeiteten Kohle-Ersatzbonus die Anreize gestärkt, eine kohlebefeuerte Anlage durch ein gasbetriebenes Kraftwerk zu ersetzen. Für alle ab Juli 2023 zu genehmigenden neuen Gas-KWK-Anlagen gilt zudem eine neue Anforderung zur Wasserstofffähigkeit (H2-Readiness). Alle neuen Anlagen ab einer elektrischen Leistung von 10 Megawatt müssen nachweisen, dass sie zu einem späteren Zeitpunkt zu moderaten Mehrkosten auf den Betrieb mit 100% Wasserstoff umgerüstet werden können. Somit werden Lock-in-Effekte in ausschließlich fossile Technologien vermieden und eine graduelle Transformation des regelbaren Kraftwerksparks in Richtung klimaneutraler Brennstoffe ermöglicht.
++ PLATTFORM STROMMARKT
++ Gemeinsam den Strommarkt der Zukunft gestalten
++ Um Fragen der Weiterentwicklung des Strommarkts zu diskutieren, hat das Bundeswirtschaftsministerium ein Dialogforum gegründet: Die Plattform Strommarkt.
++ Die Plattform Strommarkt besteht aus dem Plenum sowie vier thematischen Arbeitsgruppen. Teilnehmende der Plattform sind Vertreterinnen und Vertreter von Behörden, Verbänden, Nicht-Regierungs-Organisationen und wissenschaftlichen Einrichtungen. In den regelmäßig stattfindenden Plenarsitzungen werden vor allen Dingen Themen diskutiert, die für alle Arbeitsgruppen relevant sind.
++ Weiterführende Informationen
+- 03.07.2015
+- Weißbuch
+- Öffnet PDF "Weißbuch" in neuem Fenster.
+- ZUSAMMENSPIEL STROMMARKT UND STROMNETZ
+- Strommarkt und Stromnetz verzahnen
+- Deutschland verfügt über einen gut funktionierenden, modernen Strommarkt, auf dem noch bis kurz vor Lieferzeitpunkt Strom gekauft und verkauft werden kann. Damit können die steigenden Mengen von Strom aus wetterabhängigen Energiequellen wie Wind und Sonne effizient in das Stromsystem integriert werden. Nicht immer ist jedoch das Stromnetz in der Lage, den verkauften Strom zum Verbraucher zu transportieren. In diesem Fall sorgt Redispatch dafür, dass einerseits das Netz sicher bleibt und andererseits der Strom bei Verbraucherinnen und Verbrauchern ankommt.
+- Redispatch als Schnittstelle zwischen Markt und Netz
+- Können die auf dem Strommarkt verkauften Strommengen nicht vollständig durch das Stromnetz transportiert werden, führen die Übertragungsnetzbetreiber Redispatch durch. Das bedeutet, dass sie an bestimmten Stellen im Netz („vor dem Engpass“) Erzeugungsanlagen anweisen, die Einspeisung zu reduzieren. Damit werden die Stromflüsse über besonders belastete Leitungen reduziert, so dass das Netz sicher bleibt. Allerdings fehlen die abgeregelten Mengen dem Stromsystem, das heißt es wird weniger Strom erzeugt als zuvor verkauft wurde. Um dies auszugleichen, weisen die Übertragungsnetzbetreiber andere Erzeugungsanlagen („hinter dem Engpass“) an, ihre Einspeisung zu erhöhen.
+- Redispatch bildet damit die Schnittstelle zwischen dem Handel mit Strom auf dem Strommarkt und der Infrastruktur Stromnetz, über welche die Handelsgeschäfte physikalisch erfüllt werden. In diesem Zusammenhang stellen sich eine Reihe von Fragen, zum Beispiel zur effizienten Durchführung von Redispatch. Eine sehr grundlegende Frage ist, wie die Übertragungsnetzbetreiber die benötigten Redispatch-Mengen beschaffen können. Die Wahl des Beschaffungskonzepts kann Auswirkungen auf den Handel am Strommarkt und auf Investitionsanreize für Marktakteure haben.
+- Das BMWK arbeitet daran, die Organisation von Redispatch weiterzuentwickeln, auch in der oben genannten Plattform Klimaneutrales Stromssystem.
+- Redispatch 2.0
+- Mit der Novelle des Netzausbaubeschleunigungsgesetzes (NABEG) im Jahr 2019 wurden weitreichende Verbesserungen des Redispatch eingeführt. Ab Oktober 2021 können die Netzbetreiber wesentlich mehr Erzeugungs- und Speicheranlagen zur Behebung von Netzengpässen einsetzen. Es gilt dann nicht mehr die bisherige Schwelle von 10 MW installierter Leistung, ab der Anlagenbetreiber auf Anruf der Übertragungsnetzbetreiber am Redispatch teilnehmen müssen. Künftig gilt die Teilnahmepflicht bereits ab einer Größe von 100 kW sowie für alle steuerbare Anlagen auch unter dieser Schwelle. Auch der Strom aus EE- und KWK-Anlagen kann künftig planmäßig für Redispatch herangezogen werden, ohne dass der Einspeisevorrang aufgehoben wird.
+- Mit dem Redispatch 2.0 werden die bislang unterschiedlichen Regelungen zur Beseitigung von Netzengpässen für Einspeisemanagement und Redispatch zu einem einheitlichen, „optimierten Redispatch“ zusammengeführt. Die Auswahl der Maßnahmen erfolgt nach der insgesamt kostengünstigsten Maßnahmenkombination. Die Optimierung umfasst künftig nicht nur die Übertragungsnetzebene, sondern auch die Verteilnetzebene. Alle Maßnahmen im Redispatch 2.0 werden energetisch-bilanziell ausgeglichen.
+- Das vergrößerte Potenzial erlaubt es den Netzbetreibern, effektiver und kostengünstiger das Netz zu betreiben. Aktuelle Festlegungen der Bundesnetzagentur zur Umsetzung der neuen Redispatch-Regelungen finden Sie hier.
+- Studie „Untersuchung zur Beschaffung von Redispatch“
+- Daher hat das Bundeswirtschaftsministerium 2017 die Studie „Untersuchung zur Beschaffung von Redispatch“ in Auftrag gegeben, die mit einem Abschlussbericht im November 2019 zum Abschluss kam. Gegenstand der Untersuchung war es, verschiedene Konzepte dazustellen und zu bewerten, mit denen die Übertragungsnetzbetreiber die notwendigen Redispatch-Mengen beschaffen können. Die nachfolgenden Berichte der Gutachter Neon, Consentec und Connect umfassen die Ergebnisse aus den verschiedenen Arbeitspaketen.
+- Der Abschlussbericht der Studie ist auf Deutsch und Englisch verfügbar. Darin fassen die Gutachterinnen und Gutachter die Ergebnisse des Gesamtprojekts zusammen und leiten Handlungsempfehlungen für das Bundeswirtschaftsministerium ab, wie die Beschaffung von Redispatch zukünftig ausgestaltet werden kann. Das Fazit: Es wird empfohlen, den kostenbasierten Redispatch beizubehalten und in Einzelaspekten weiterzuentwickeln. Auf die Einführung von Redispatch-Märkten auf Übertragungsnetzebene sollte wegen seiner gravierenden Nachteile verzichtet werden.
+- 08.01.2020
+- Aktionsplan Gebotszone
+- Öffnet PDF "Aktionsplan Gebotszone" in neuem Fenster.
+- alle ausgaben:
+- Schlaglichter der Wirtschaftspolitik
+- Netzausbau geht voran (Monatsbericht 08/2019)
+- ALLE AUSGABEN
+- Publikationen
+- Zurück blättern
+- 08.11.2019
+- Kosten- oder Marktbasiert? Zukünftige Redispatch-Beschaffung in Deutschland
+- Abschlussbericht: Schlussfolgerungen aus dem Vorhaben
+- Öffnet PDF "Kosten- oder Marktbasiert? Zukünftige Redispatch-Beschaffung in Deutschland" in neuem Fenster.
+- Cost- or market-based? Future redispatch procurement in Germany
+- Final report: Conclusions from the project
+- Öffnet PDF "Cost- or market-based? Future redispatch procurement in Germany" in neuem Fenster.
+- Untersuchung zur Beschaffung von Redispatch
+- Quantitative Analysen
+- Öffnet PDF "Untersuchung zur Beschaffung von Redispatch" in neuem Fenster.
+- 14.11.2018
+- Zusammenspiel von Markt und Netz im Stromsystem
+- Eine Systematisierung und Bewertung von Ausgestaltungen des Strommarkts
+- Öffnet PDF "Zusammenspiel von Markt und Netz im Stromsystem" in neuem Fenster.
+- 13.11.2018
+- Konzepte für Redispatch-Beschaffung und Bewertungskriterien
+- Im Auftrag des Bundesministeriums für Wirtschaft und Energie
+- Öffnet PDF "Konzepte für Redispatch-Beschaffung und Bewertungskriterien" in neuem Fenster.
+- Weiter blättern
+- VERSORGUNGSSICHERHEIT
+- Zuverlässige Stromversorgung für Unternehmen und Haushalte
+- Im internationalen Vergleich ist die Stromversorgung in Deutschland sehr zuverlässig. Stromausfälle sind äußert selten, im Schnitt waren es 2021 nur 13 Minuten. Der Strommarkt verändert sich aktuell – dank der größeren Bedeutung des Stroms aus sauberen Quellen wie Wind und Sonne sowie gleichzeitig den Wegfall der Atomenergie und dem Kohle-Ausstieg.
+- Versorgungssicherheit und langfristig Klimaneutralität – das sind die beiden zentralen Ziele der deutschen Energiepolitik. Das gilt auch für den Strommarkt. Eine Schlüsselrolle spielen dabei die Netzbetreiber.
+- Sie sind für den sicheren Netzbetrieb zuständig (Paragraph 12, 14 Energiewirtschaftsgesetz, EnWG). Die Unternehmen planen und warten das Netz, regeln den Netzbetrieb und stimmen Stromerzeugung und -nachfrage aufeinander ab.
+- Als Maß für die Zuverlässigkeit der Stromversorgung für Endverbraucherinnen und -verbraucher dient der sogenannte SAIDI (System Average Interruption Duration Index). Dieser Index zeigt, wie lange jede Letztverbraucherin und jeder Letztverbraucher aus Netzgründen während eines Jahres durchschnittlich keinen Strom zur Verfügung hatte. Dieser Nichtverfügbarkeitswert wird in Deutschland durch die Bundesnetzagentur erfasst – er zeigt einen deutlich sinkenden Trend seit 2006. Das zeigt, dass die Versorgungssicherheit auch in einem Strommarkt mit einem hohen Anteil an erneuerbaren Energien nicht beeinträchtigt wird. Im Jahr 2021 waren die Menschen und Unternehmen bundesweit im Durchschnitt nur rund 13 Minuten ohne Strom, was ein im internationalen Vergleich sehr guter Wert ist. Hauptursache war damals ein Starkregenereignis im Westen und Südwesten Deutschlands.
+- Zur Untersuchung der Versorgungssicherheit am Strommarkt wird die Kenngröße Lastüberhangswahrscheinlichkeit betrachtet. Diese sagt aus, ob jederzeit eine ausreichende Stromproduktion zur Deckung der Stromnachfrage zur Verfügung steht.
+- Informationen zur Versorgungssicherheit beim Stromnetzbetrieb finden sie hier.
+- Laufende Beobachtung der Versorgungssicherheit
+- Die Bundesnetzagentur überwacht durchgehend die Versorgungssicherheit in Deutschland. Dabei berücksichtigen die zugrunde liegenden Untersuchungen auch Situationen mit geringer Einspeisung aus Wind- und Solaranlagen sowie den Ausstieg aus der Atom- und der Kohleverstromung. Die Untersuchungen zeigen, dass die Nachfrage am Strommarkt in Deutschland bis 2030 in allen untersuchten Szenarien gedeckt werden kann. Dabei ist eine höhere Nachfrage, unter anderem durch elektrisch betriebene Wärmepumpen und Elektromobilität, bereits berücksichtigt.
+- Die Bundesnetzagentur legt nach Paragraph 51 des EnWG alle zwei Jahre einen Monitoringbericht zur Versorgungssicherheit im Bereich der leitungsgebundenen Versorgung mit Elektrizität vor. Der aktuelle Bericht (hier) basiert auf zwei Gutachten: Das erste wurde von consentec, IER und FfE (Gutachten consentec et al., Datenanhang) angefertigt, eine Aktualisierung wurde von r2b vorgelegt (Gutachten r2b, Datenhang).
+- Unter dem Begriff Versorgungssicherheit wird im Rahmen dieses Monitoringberichts die angemessene Deckung des Strombedarfs verstanden. Diese umfasst die Aspekte Stromerzeugung, Stromtransport und die Verfügbarkeit von Energieträgern für die Stromerzeugung. Die Bundesregierung hat auf Basis des Berichtes der Bundesnetzagentur dem Bundestag Handlungsempfehlungen vorgelegt, diese finden Sie hier.
+- Der Bericht stellt die bestehende Versorgungslage und deren Entwicklung unter Berücksichtigung der nationalen und internationalen Marktgegebenheiten dar. Im Bericht werden keine Risiken mit unvorhersehbarer Eintrittswahrscheinlichkeit untersucht, da der Strommarkt hierfür selbst keine Vorsorge treffen kann. Die Absicherung für diese Risiken fällt in den Bereich der staatlichen Risikovorsorge durch Reserven, die zusätzlich zum Strommarkt in Extremsituationen zur Verfügung stehen.
++ Öffnet Einzelsicht
+- Unsere Energiewende: sicher, sauber, bezahlbar
+- ZUM ARTIKEL
+- MODERNE KRAFTWERKSTECHNOLOGIEN/KWK
+- Hoch effizient und klimafreundlich
+- Moderne Kraftwerke mit hohen Umweltstandards sind ein wichtiger Baustein für eine zuverlässige Versorgung mit Energie. Auf dem Weg des Umbaus der Energieversorgung zu immer höheren Anteilen erneuerbarer Energien werden konventionelle Kraftwerke weiterhin einen wesentlichen Beitrag leisten.
+- Moderne Kraftwerke mit hohen Umweltstandards sind ein wichtiger Baustein für eine zuverlässige Versorgung mit Energie. Auf dem Weg des Umbaus der Energieversorgung zu immer höheren Anteilen erneuerbarer Energien werden regelbare Kraftwerke weiterhin einen wesentlichen Beitrag leisten.
+- Kraft-Wärme-Kopplung
+- Die Kraft-Wärme-Kopplung (KWK) ist ein wichtiger Baustein der Energiewende. Bei KWK handelt es sich um eine Kraftwerkstechnologie, die gleichzeitig Strom und Wärme erzeugt, und somit den eingesetzten Brennstoff deutlich effizienter und sparsamer verwendet. Die bei der Stromerzeugung entstehende Wärme wird als Wärmeenergie vor Ort oder über Wärmenetze genutzt. Mit der zunehmenden Verbreitung von klimaneutralen Erzeugungstechnologien für Strom und Wärme steigt der Anforderungsdruck auf die noch weitgehend fossil betriebene KWK, sich ebenfalls erneuerbaren Brennstoffen zuzuwenden.
+- Grundlage der Förderung von Kraftwerken mit KWK-Technologie ist seit 2002 das Kraft-Wärme-Kopplungsgesetz (KWKG). Es regelt eine umlagefinanzierte Förderung für die gemeinsame und hocheffiziente Erzeugung von Strom und Wärme. Nach dem KWKG erhalten Betreiber geförderter Kraft-Wärme-Kopplungsanlagen zeitlich befristete Zuschlagszahlungen pro Kilowattstunde KWK-Strom.
+- Novelle des Kraft-Wärme-Kopplungsgesetzes (KWKG)
+- Um sicherzustellen, dass die KWK auch in Zukunft eine wichtige Rolle bei der weiteren Umsetzung der Energiewende in Deutschland spielt, wurde das KWKG mehrfach novelliert.
+- Die Anfang 2016 in Kraft getretene Novelle hat das Ziel, die Nettostromerzeugung aus KWK-Anlagen zu erhöhen und Investitionen in besonders effiziente, flexible und CO2-arme Anlagen zu steigern.
+- Das Anfang 2017 in Kraft getretene KWK-Änderungsgesetz öffnet die Förderung für mehr Wettbewerb: Die Förderhöhe für Strom aus KWK-Anlagen mit einer Leistung zwischen 1 und 50 Megawatt (MW) wird seit Ende 2017 per Ausschreibungen festgelegt. Eine zusätzliche Ausschreibung für innovative KWK-Systeme fördert besonders flexible und emissionssparende KWK-Systeme, die Wärme aus erneuerbaren Energien in ihren Betrieb integrieren. Diese neue Förderkategorie soll der KWK Zukunftsperspektiven eröffnen und notwendige Investitionen in flexible Technologien anreizen. Mehr erfahren Sie dazu im Artikel zu „Kraft-Wärme-Kopplung“.
+- Die Gesetzesnovellierungen in den Jahren 2020 und 2022 setzen deutlich stärkere Signale in Richtung Flexibilisierung und Dekarbonisierung der KWK. So wurden mit dem überarbeiteten Kohle-Ersatzbonus die Anreize gestärkt, eine kohlebefeuerte Anlage durch ein gasbetriebenes Kraftwerk zu ersetzen. Für alle ab Juli 2023 zu genehmigenden neuen Gas-KWK-Anlagen gilt zudem eine neue Anforderung zur Wasserstofffähigkeit (H2-Readiness). Alle neuen Anlagen ab einer elektrischen Leistung von 10 Megawatt müssen nachweisen, dass sie zu einem späteren Zeitpunkt zu moderaten Mehrkosten auf den Betrieb mit 100% Wasserstoff umgerüstet werden können. Somit werden Lock-in-Effekte in ausschließlich fossile Technologien vermieden und eine graduelle Transformation des regelbaren Kraftwerksparks in Richtung klimaneutraler Brennstoffe ermöglicht.
+- PLATTFORM STROMMARKT
+- Gemeinsam den Strommarkt der Zukunft gestalten
+- Um Fragen der Weiterentwicklung des Strommarkts zu diskutieren, hat das Bundeswirtschaftsministerium ein Dialogforum gegründet: Die Plattform Strommarkt.
+- Die Plattform Strommarkt besteht aus dem Plenum sowie vier thematischen Arbeitsgruppen. Teilnehmende der Plattform sind Vertreterinnen und Vertreter von Behörden, Verbänden, Nicht-Regierungs-Organisationen und wissenschaftlichen Einrichtungen. In den regelmäßig stattfindenden Plenarsitzungen werden vor allen Dingen Themen diskutiert, die für alle Arbeitsgruppen relevant sind.
+- Newsletter "Energiewende direkt"
+- Neue Regeln für Europas Strommarkt (Ausgabe 10/2023)
+- "Was sind eigentlich Netzreserve, Kapazitätsreserve und Sicherheitsbereitschaft?" (Ausgabe 09/2020)
+- "Wie funktioniert eigentlich der Strommarkt?" (Ausgabe 06/2020)
+- "Aktionsplan für den grenzübergreifenden Stromhandel" (Ausgabe 04/2020)
+- ABONNIEREN
++ Publikationen
+- Energiewende Energiedaten und -szenarien Netze und Netzausbau Versorgungssicherheit Erneuerbare Energien Kraft-Wärme-Kopplung Europäische und internationale Energiepolitik Energiespeicher EEG-Reform Energiepreise und Transparenz für Verbraucher 
 + Energiewende Energiedaten und -szenarien Netze und Netzausbau Versorgungssicherheit Erneuerbare Energien Kraft-Wärme-Kopplung Europäische und internationale Energiepolitik Energiespeicher EEG-Reform Energiepreise und Transparenz für Verbraucher Energieeffizienz Energiewende im Gebäudebereich
 + weitere anzeigen
 + facebook
@@ -13637,16 +13726,7 @@
 + Einwilligungsverwaltung
 + Zum Seitenanfang
 + Einwilligung in Tracking und / oder Videodienste
-+ Wir bitten Sie an dieser Stelle um Ihre Einwilligung für verschiedene Zusatzdienste unserer Webseite: Wir möchten die Nutzeraktivität mit Hilfe datenschutzfreundlicher Statistiken verstehen, um unsere Öffentlichkeitsarbeit zu verbessern. Zusätzlich können Sie in die Nutzung zweier Videodienste einwilligen. Nähere Informationen zu allen Diensten finden Sie, wenn Sie die Pluszeichen rechts aufklappen. Sie können Ihre Einwilligungen jederzeit erteilen oder für die Zukunft widerrufen. Rufen Sie dazu bitte diese Einwilligungsverwaltung über den Link am Ende der Seite erneut auf.
-+ Auswahl bestätigenAlle bestätigen
-+ Technisch notwendig (nicht abwählbar)
-+ Statistik
-+ Einwilligung zum Videodienst Live-Pressekonferenzen über Vimeo
-+ Ausführliche Informationen über Ihre Betroffenenrechte und darüber, wie wir Ihre Privatsphäre schützen, entnehmen Sie bitte unserer Datenschutzerklärung.
-+ Diese Webseite setzt temporäre Session Cookies. Diese sind technisch notwendig und deshalb nicht abwählbar. Sie dienen ausschließlich dazu, Ihnen die Nutzung der Webseite zu ermöglichen.
-+ Unsere Datenerhebung zu statistischen Zwecken funktioniert so: Ihre Zustimmung vorausgesetzt, leitet ein Skript auf unserer Webseite automatisch Ihre IP-Adresse und den sog. User Agent an die etracker GmbH weiter. Hier wird Ihre IP-Adresse unmittelbar und automatisch gekürzt. Anschließend pseudonymisiert die Software die übermittelten Daten ausschließlich zu dem Zweck, Mehrfachnutzungen in der Sitzung feststellen zu können. Nach Ablauf von 7 Tagen wird jede Zuordnung zur Sitzung gelöscht, und Ihre statistischen Daten liegen gänzlich anonymisiert vor. Etracker ist ein deutsches Unternehmen, und verarbeitet Ihre Daten ausschließlich in unserem Auftrag auf geschützten Servern. An weitere Dritte werden sie nicht übermittelt. Verantwortlich für diese Verarbeitung Ihrer Daten ist das Bundesministerium für Wirtschaft und Klimaschutz. Unsere Datenschutzbeauftragte erreichen Sie unter datenschutzbeauftragte@bmwk.bund.de. Als Rechtsgrundlage dient uns Ihre Einwilligung nach § 25 Abs. 1 TTDSG i. V. m. Artikel 6 Abs. 1 lit. a) DSGVO und § 3 Abs. 1 EGovG. Wir haben sichergestellt, dass Sie Ihre Einwilligung jederzeit für die Zukunft widerrufen können. Rufen Sie dazu bitte diese Einwilligungsverwaltung über den Link am Ende der Seite erneut auf.
-+ Die Live-Übertragung von Pressekonferenzen des Ministeriums erfolgt über die Infrastruktur des amerikanischen Dienstleisters Vimeo.com. Bitte willigen Sie in die Übertragung Ihrer IP-Adresse und anderer technischer Daten an Vimeo ein, und erlauben Sie Vimeo, Cookies auf Ihrem Endgerät zu setzen, wenn Sie unseren Livestream-Videodienst nutzen wollen. Verantwortlich für diese Verarbeitung Ihrer Daten ist das Bundesministerium für Wirtschaft und Klimaschutz. Unsere Datenschutzbeauftragte erreichen Sie unter datenschutzbeauftragte@bmwk.bund.de. Als Rechtsgrundlage dient uns Ihre Einwilligung nach § 25 Abs. 1 TTDSG i. V. m. Artikel 6 Abs. 1 lit. a) DSGVO und § 3 Abs. 1 EGovG. Wir haben sichergestellt, dass Sie Ihre Einwilligung jederzeit für die Zukunft widerrufen können. Über die Einwilligungsverwaltung am Ende der Seite können Sie steuern, ob Sie den Videodienst Vimeo zur Live-Übertragung freigeben wird oder nicht.
-+ © ABB</t>
++ Wir bitten Sie an dieser Stelle um Ihre Einwilligung für verschiedene Zusatzdienste unserer Webseite: Wir möchten die Nutzeraktivität mit Hilfe datenschutzfreundlicher Statistiken verstehen, um unsere Öffentlichkeitsarbeit zu</t>
         </is>
       </c>
     </row>
@@ -14222,7 +14302,7 @@
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G38" s="1" t="n"/>
@@ -14239,269 +14319,6 @@
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t>Energieregulierung
-Aktuelles zum EnWG
-Zu den Informationen
-Gasversorgung
-Aktuelle Lage der Gasversorgung und Hintergrundinformationen
-Aktuelle Lage der Gasversorgung
-Beschlusskammern
-In den Beschlusskammern werden Regulierungsentscheidungen getroffen.
-Zu den Beschlusskammern
-Insight Blog
-Der Blog der Netze - Lesenswertes zu den Themen der Zukunft und der Arbeit der BNetzA.
-Zum Blog
-Updates per E-Mail
-Mailadresse
-BNetzA Aktuell
-02.09.2024
-Kohleausstieg: Wir haben erstmals kein Kohleverfeuerungsverbot angeordnet, um die gesetzlichen Ziele zu erreichen. Zum Stichtag für das Zieljahr 2027 sind bereits ausreichend Kohlekraftwerke aus dem Markt ausgeschieden. #KVBG
-➡️ bundesnetzagentur.de/1026708
-Wir konsultieren ab heute die Entwürfe der #Szenariorahmen Strom sowie Gas/Wasserstoff - die Grundlagen für die #Netzentwicklungsplan­ungen. Zwei Online-Veranstaltungen bieten die Gelegenheit, sich zu den Szenariorahmen zu informieren. Mehr dazu unter
-👉bundesnetzagentur.de/szenarior
-02.09.2024 Pressemitteilung
-Kohleausstieg - für 2027 erstmals kein Kohleverfeuerungsverbot erforderlich
-Bundesnetzagentur beteiligt Öffentlichkeit zu den Szenariorahmen Strom und Gas/Wasserstoff 2025–2037/2045
-30.08.2024
-Die #Bundesnetzagentur hat heute die Festlegung zur Verteilung der Mehrkosten veröffentlicht, die in Verteilernetzen mit besonders viel erneuerbarer #Stromerzeugung entstehen. Die Entlastung wird damit zum 1. Januar 2025 wirken. Weitere Informationen unter bundesnetzagentur.de/1026194
-Die #Bundesnetzagentur hat heute die erfolgreichen Gebote der Ausschreibung für #PV-#Freiflächenanlagen und für #Solaranlagen des Gebotstermins 1. Juli 2024 bekanntgegeben. ➡️Pressemitteilung unter bundesnetzagentur.de/1026346
-30.08.2024 Pressemitteilung
-Ergebnisse der Ausschreibung für PV-Freiflächenanlagen zum Gebotstermin 1. Juli 2024
-Bundesnetzagentur entscheidet zur fairen Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
-29.08.2024 Telekommunikation
-Mobiles Breitband
-29.08.2024
-Können wir das Internet regulieren? In Folge 2 unseres Podcasts sprechen wir über den Digital Services Act. Dr. Julia Marquier erklärt unsere neue Aufgabe als #DSC. Hört selbst, wie wir den digitalen Raum sicherer gestalten 👉🎧 bnetza.de/podcast
-28.08.2024
-Kurze, düstere Tage: Die kalte Jahreszeit ist eine Herausforderung für die #Energiewende – oder etwa doch nicht? Ob beispielsweise Windkraft die geringere Einspeisung der Solaranlagen ausgleicht, beantworten wir auf SMARD: smard.de/sharing/page/6570
-27.08.2024 Elektrizität und Gas
-Ausschreibung Biomasse: Gebotstermin 1. Oktober 2024
-Ausschreibung Solaranlagen zweites Segment: Gebotstermin 1. Oktober 2024
-26.08.2024 Telekommunikation
-Termine für Amateurfunkprüfungen (Stand 3. September 2024) (pdf, 90 KB)
-23.08.2024
-Wir sind auf der #gamescom2024! Besucht uns im Bereich "Jobs &amp; Career" und entdeckt spannende Karrieremöglichkeiten in IT &amp; Verwaltung. Noch bis Sonntag, 25. August, könnt ihr uns besuchen. Startet mit uns ins nächste Level eurer Karriere!
-23.08.2024 Insight Blog
-Der Feuerteufel in der Steckdose
-Funksteckdose fängt in Abwesenheit Feuer: Manche Geräte sind brandgefährlich. Dennoch geraten sie in den Handel. Wie sich die Online-Kundschaft schützen kann und wie wir Verbraucherinnen und Verbraucher schützen, berichten wir im #Insight-Blog 👉bundesnetzagentur.de/1024670
-22.08.2024
-In manchen Teilen Deutschlands gibt es mehr Windkraftanlagen, in anderen mehr PV-Anlagen. Welche Energieträge in deiner Nähe zur Stromerzeugung genutzt werden, verraten wir auf #SMARD: smard.de/page/home/topic-artic
-21.08.2024 Pressemitteilung
-Fortschritt beim Netzausbau: Bundesnetzagentur legt zweiten Trassenabschnitt für A-Nord fest
-Fortschritt beim Netzausbau:Trassenkorridor für Fulda-Main-Leitung festgelegt
-21.08.2024 Allgemeines
-Amtsblatt_16 (pdf, 397 KB)
-20.08.2024 Pressemitteilung
-Bundesnetzagentur leitet Verfahren gegen Energielieferanten ein
-20.08.2024
-Wir haben ein #Aufsichtsverfahren gegen die Elektrizitätsversorgung Berlin ElVeBe GmbH eingeleitet. Es besteht der Verdacht, dass das Unternehmen einige gesetzliche Voraussetzungen nicht einhält. Worum es genau geht ➡️➡️➡️ bundesnetzagentur.de/1023924
-16.08.2024 Pressemitteilung
-Fortschritt beim Netzausbau: Bundesnetzagentur schließt das Genehmigungsverfahren für die Leitung von Grafenrheinfeld nach Großgartach ab
-14.08.2024 Pressemitteilung
-Bundesnetzagentur legt Trasse für einen Abschnitt der Leitung Vieselbach - Mecklar fest
-14.08.2024
-Wolkenloser Himmel und strahlender Sonnenschein: Das gute Wetter hat am Wochenende für besonders gute Ergebnisse bei der Einspeisung durch #Erneuerbare gesorgt. In 11,5 Stunden konnten die Erneuerbaren die gesamte Netzlast in 🇩🇪 decken: smard.de/sharing/page/6526
-#SMARD
-13.08.2024 Elektrizität und Gas
-Engpasserlösbericht
-13.08.2024 Pressemitteilung
-Bundesnetzagentur genehmigt Verstärkung der Leitung zwischen Wullenstetten und Niederwangen
-12.08.2024
-Die Ergebnisse der #Offshore-Ausschreibungen für zentral voruntersuchte Flächen zum Gebotstermin 1. August 2024 sind veröffentlicht. Es handelt sich um Flächen in der Nordsee mit einer Gesamtleistung von 5.500 MW. Details zur Bekanntgabe 👉 bundesnetzagentur.de/1021880
-Die erste außergerichtliche Streitbeilegungsstelle in 🇩🇪 nach dem #DSA ist zertifiziert: Es ist die User Rights GmbH mit Sitz in Berlin. Die Stelle konzentriert sich auf Streitschlichtungen bei Social-Media-Plattformen. ➡️➡️➡️bundesnetzagentur.de/1019662
-12.08.2024 Pressemitteilung
-Ergebnisse der Offshore-Ausschreibungen für zentral voruntersuchte Flächen
-09.08.2024
-Die Zahl der Beschwerden zu Rufnummernmissbrauch erreichte auch 2023 ein hohes Niveau. Ein großer Teil betraf Belästigungen über Kurznachrichten, insbesondere im Zusammenhang mit dem sog. #Enkeltrick.
-#JahresberichtTK
-➡️www.bundesnetzagentur.de/berichte
-07.08.2024 Allgemeines
-Amtsblatt_15 (pdf, 1.020 KB)
-12.08.2024 Elektrizität und Gas
-Biomethan: Gebotstermin 1. September 2024
-Verbraucherportal
-Der direkte Weg zu den häufigsten Verbraucherfragen.
-Wählen Sie Ihr Thema
-Bitte auswählen
-Entlastungen bei Energiepreisen
-Ärger mit Rufnummern und Anrufen
-Internet und Telefon
-Internetgeschwindigkeit
-Lieferantenwechsel / Kündigung
-Post
-Schlichtung
-Los
-Fachthemen
-Auswahl der Themenbereiche für unser Fachpublikum
-Energie
-Telekom­munikation
-Digitalisierung
-Eisenbahnen
-Datenportal
-Zahlen und Daten der Bundesnetzagentur
-Zum Datenportal
-Ausbildung &amp; Studium
-Eine solide Ausbildung, gute Aufstiegsmöglichkeiten, spannende Aufgaben und ein tolles Team warten auf dich!
-Zu den Informationen und Angeboten
-Karriere
-Verwaltungstalente (w/m/d) für den Bereich "Koordinierung Internationales Energie"
-Programmierer*in / Softwareentwickler*in (w/m/d)
-Alle 20 Einträge ansehen
-Mediathek
-In der Mediathek finden Sie Berichte, Interviews, Bilder, Videos und weitere Informationen der Bundesnetzagentur.
-Zur Mediathek
-Interessante Links
-Pfeil nach links
-Pfeil nach rechts
-Navigation und Service
-Springe direkt zu:
-Inhalt
-Hauptmenu
-Suche
-Service
-KONTAKT
-ENGLISH
-LEICHTE SPRACHE
-GEBÄRDENSPRACHE VIDEOS
-RSS
-Fachthemen Verbraucherportal Datenportal Bundesnetzagentur Presse
-Startseite der Bundesnetzagentur
-Erneuerbare Energien
-Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
-Episode 2
-Können wir das Internet regulieren?
-Wir sprechen mit Dr. Julia Marquier über den Digital Services Coordinator.
-Zurück und Pause
-5 / 6
-Vor und Pause
-Pause
-Seite drucken Seite teilen Kurzlink
-Folgen Sie uns
-© BUNDESNETZAGENTUR - 2024
-ServiceMenu
-IMPRESSUM
-BARRIEREFREIHEIT
-DATENSCHUTZ
-INHALTSVERZEICHNIS
-Breitbandversorgung
-Funk und Frequenzen
-Marktregulierung
-Nummerierung
-Unternehmenspflichten
-Technik und Produktsicherheit
-Öffentliche Sicherheit
-Marktdaten
-Grundversorgung
-Unterversorgungsfeststellung
-Resilienz der Netze
-Beschlusskammer 2
-Beschlusskammer 3
-Beschlusskammer 11
-Digital Services Coordinator
-Platform-to-Business-Verordnung
-Technologien und Geschäftsmodelle
-Blockchain Infoportal
-Künstliche Intelligenz
-Online-Kommunikationsdienste
-Digitale Transformation
-Internet
-Netzneutralität
-Geoblocking
-Bekämpfung terroristischer Inhalte
-Internet of Things
-Peering- und Transitmärkte
-Digitale Transformation Mittelstand
-Kennzahlen
-Anlaufstellen für KMU (Datenbank)
-Best-Practice Übersicht
-Förderprogramme Bund
-Daten
-Förderwettbewerb Gaia-X
-Datenökonomie
-Datennutzungsgesetz
-Nachhaltigkeit
-Digitale Geschäftsmodelle
-Anreizsysteme KMU
-Indikatorenstudie
-Veranstaltungen
-Aktuelles
-Anbieterverzeichnis
-Marktbeobachtung
-Jährliche Datenerhebung
-Marktuntersuchungen
-Internationaler Briefpreisvergleich
-Paketpreisvergleich
-Meldestelle für Hinweisgebende
-Postgeheimnis und Datenschutz
-Postmarktprüfungen
-Qualitätsmonitoring
-Regelungen zur Postversorgung
-Sicherstellung des Postwesens
-Standardisierung
-Teilleistungen - Zugang und Entgelte
-Digitales und Telekommunikation
-Anfragen und Beschwerden
-Verbraucher-Radar
-Bundesnetzagentur
-Über uns
-Präsidium
-Aufgaben und Struktur
-Ausbildung und Studium
-Podcast Akte Tulpenfeld
-Beiräte, Gremien, Beauftragte
-Beirat
-Eisenbahninfrastrukturbeirat
-Bundesfachplanungsbeirat
-Länderausschuss
-Wissenschaftlicher Arbeitskreis für Regulierungsfragen
-Korruptionsprävention
-Internationales und Europa
-Energie (Internationales)
-ACER
-CEER
-PCI
-Telekommunikation
-BEREC
-IRG
-CEPT
-ITU
-RSPG
-RSC
-ERGP
-CEPT - CERP
-CEN
-UPU
-ISO
-IRG-Rail
-ENRRB
-Qualifizierte elektronische Signatur
-Shared Service Center
-Ausschreibungen
-Standorte
-Öffentliche Zustellung
-Kontakt
-Presse
-Pressemitteilungen
-Pressekontakt
-Amtsblatt
-Navigation
-Szenariorahmen      Bundesnetzagentur beteiligt Öffentlichkeit zu den Szenariorahmen Strom und Gas/Wasserstoff 2025–2037/2045
-Kohleausstieg       ...für 2027 erstmals kein Kohleverfeuerungsverbot erforderlich
-Fachtagung am 8./9. Oktober 2024      Aktuelle Probleme des Eisenbahnrechts
-Digital Services Coordinator      DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen
-Inhalte teilen
-per E-Mail schicken
-×
-Szenariorahmen
-Kohleausstieg
-...für 2027 erstmals kein Kohleverfeuerungsverbot erforderlich
-Fachtagung am 8./9. Oktober 2024
-Aktuelle Probleme des Eisenbahnrechts
-DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen</t>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
         <is>
           <t>Energieregulierung
 Aktuelles zum EnWG
@@ -14765,6 +14582,271 @@
 DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen</t>
         </is>
       </c>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>Netzentwicklungsplanung
+Aktuelles zur Netzentwicklungsplanung Strom, Gas und Wasserstoff
+Zu den Informationen
+Gasversorgung
+Aktuelle Lage der Gasversorgung und Hintergrundinformationen
+Aktuelle Lage der Gasversorgung
+Beschlusskammern
+In den Beschlusskammern werden Regulierungsentscheidungen getroffen.
+Zu den Beschlusskammern
+Insight Blog
+Der Blog der Netze - Lesenswertes zu den Themen der Zukunft und der Arbeit der BNetzA.
+Zum Blog
+Updates per E-Mail
+Mailadresse
+BNetzA Aktuell
+09.09.2024 Post
+Qualitätsmonitoring
+04.09.2024
+Die Netzbetreiber informieren uns monatlich unter anderem über ihre Redispatch-Maßnahmen. Mit Redispatch werden Überlastungen im Stromnetz entgegengewirkt. Seht auf #SMARD, welche Mengen in Eurem Bundesland geregelt werden müssen ➡️ smard.de/sharing/page/6571
+04.09.2024 Allgemeines
+Amtsblatt_17 (pdf, 2 MB)
+02.09.2024
+Kohleausstieg: Wir haben erstmals kein Kohleverfeuerungsverbot angeordnet, um die gesetzlichen Ziele zu erreichen. Zum Stichtag für das Zieljahr 2027 sind bereits ausreichend Kohlekraftwerke aus dem Markt ausgeschieden. #KVBG
+➡️ bundesnetzagentur.de/1026708
+Wir konsultieren ab heute die Entwürfe der #Szenariorahmen Strom sowie Gas/Wasserstoff - die Grundlagen für die #Netzentwicklungsplan­ungen. Zwei Online-Veranstaltungen bieten die Gelegenheit, sich zu den Szenariorahmen zu informieren. Mehr dazu unter
+👉bundesnetzagentur.de/szenarior
+02.09.2024 Pressemitteilung
+Kohleausstieg - für 2027 erstmals kein Kohleverfeuerungsverbot erforderlich
+Bundesnetzagentur beteiligt Öffentlichkeit zu den Szenariorahmen Strom und Gas/Wasserstoff 2025–2037/2045
+30.08.2024
+Die #Bundesnetzagentur hat heute die Festlegung zur Verteilung der Mehrkosten veröffentlicht, die in Verteilernetzen mit besonders viel erneuerbarer #Stromerzeugung entstehen. Die Entlastung wird damit zum 1. Januar 2025 wirken. Weitere Informationen unter bundesnetzagentur.de/1026194
+Die #Bundesnetzagentur hat heute die erfolgreichen Gebote der Ausschreibung für #PV-#Freiflächenanlagen und für #Solaranlagen des Gebotstermins 1. Juli 2024 bekanntgegeben. ➡️Pressemitteilung unter bundesnetzagentur.de/1026346
+30.08.2024 Pressemitteilung
+Ergebnisse der Ausschreibung für PV-Freiflächenanlagen zum Gebotstermin 1. Juli 2024
+Bundesnetzagentur entscheidet zur fairen Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
+29.08.2024 Telekommunikation
+Mobiles Breitband
+29.08.2024
+Können wir das Internet regulieren? In Folge 2 unseres Podcasts sprechen wir über den Digital Services Act. Dr. Julia Marquier erklärt unsere neue Aufgabe als #DSC. Hört selbst, wie wir den digitalen Raum sicherer gestalten 👉🎧 bnetza.de/podcast
+28.08.2024
+Kurze, düstere Tage: Die kalte Jahreszeit ist eine Herausforderung für die #Energiewende – oder etwa doch nicht? Ob beispielsweise Windkraft die geringere Einspeisung der Solaranlagen ausgleicht, beantworten wir auf SMARD: smard.de/sharing/page/6570
+27.08.2024 Elektrizität und Gas
+Ausschreibung Biomasse: Gebotstermin 1. Oktober 2024
+Ausschreibung Solaranlagen zweites Segment: Gebotstermin 1. Oktober 2024
+26.08.2024 Telekommunikation
+Termine für Amateurfunkprüfungen (Stand 3. September 2024) (pdf, 90 KB)
+23.08.2024
+Wir sind auf der #gamescom2024! Besucht uns im Bereich "Jobs &amp; Career" und entdeckt spannende Karrieremöglichkeiten in IT &amp; Verwaltung. Noch bis Sonntag, 25. August, könnt ihr uns besuchen. Startet mit uns ins nächste Level eurer Karriere!
+23.08.2024 Insight Blog
+Der Feuerteufel in der Steckdose
+Funksteckdose fängt in Abwesenheit Feuer: Manche Geräte sind brandgefährlich. Dennoch geraten sie in den Handel. Wie sich die Online-Kundschaft schützen kann und wie wir Verbraucherinnen und Verbraucher schützen, berichten wir im #Insight-Blog 👉bundesnetzagentur.de/1024670
+22.08.2024
+In manchen Teilen Deutschlands gibt es mehr Windkraftanlagen, in anderen mehr PV-Anlagen. Welche Energieträge in deiner Nähe zur Stromerzeugung genutzt werden, verraten wir auf #SMARD: smard.de/page/home/topic-artic
+21.08.2024 Pressemitteilung
+Fortschritt beim Netzausbau: Bundesnetzagentur legt zweiten Trassenabschnitt für A-Nord fest
+Fortschritt beim Netzausbau:Trassenkorridor für Fulda-Main-Leitung festgelegt
+21.08.2024 Allgemeines
+Amtsblatt_16 (pdf, 397 KB)
+20.08.2024 Pressemitteilung
+Bundesnetzagentur leitet Verfahren gegen Energielieferanten ein
+20.08.2024
+Wir haben ein #Aufsichtsverfahren gegen die Elektrizitätsversorgung Berlin ElVeBe GmbH eingeleitet. Es besteht der Verdacht, dass das Unternehmen einige gesetzliche Voraussetzungen nicht einhält. Worum es genau geht ➡️➡️➡️ bundesnetzagentur.de/1023924
+16.08.2024 Pressemitteilung
+Fortschritt beim Netzausbau: Bundesnetzagentur schließt das Genehmigungsverfahren für die Leitung von Grafenrheinfeld nach Großgartach ab
+14.08.2024 Pressemitteilung
+Bundesnetzagentur legt Trasse für einen Abschnitt der Leitung Vieselbach - Mecklar fest
+14.08.2024
+Wolkenloser Himmel und strahlender Sonnenschein: Das gute Wetter hat am Wochenende für besonders gute Ergebnisse bei der Einspeisung durch #Erneuerbare gesorgt. In 11,5 Stunden konnten die Erneuerbaren die gesamte Netzlast in 🇩🇪 decken: smard.de/sharing/page/6526
+#SMARD
+13.08.2024 Elektrizität und Gas
+Engpasserlösbericht
+13.08.2024 Pressemitteilung
+Bundesnetzagentur genehmigt Verstärkung der Leitung zwischen Wullenstetten und Niederwangen
+12.08.2024
+Die Ergebnisse der #Offshore-Ausschreibungen für zentral voruntersuchte Flächen zum Gebotstermin 1. August 2024 sind veröffentlicht. Es handelt sich um Flächen in der Nordsee mit einer Gesamtleistung von 5.500 MW. Details zur Bekanntgabe 👉 bundesnetzagentur.de/1021880
+Die erste außergerichtliche Streitbeilegungsstelle in 🇩🇪 nach dem #DSA ist zertifiziert: Es ist die User Rights GmbH mit Sitz in Berlin. Die Stelle konzentriert sich auf Streitschlichtungen bei Social-Media-Plattformen. ➡️➡️➡️bundesnetzagentur.de/1019662
+12.08.2024 Pressemitteilung
+Ergebnisse der Offshore-Ausschreibungen für zentral voruntersuchte Flächen
+09.08.2024
+Die Zahl der Beschwerden zu Rufnummernmissbrauch erreichte auch 2023 ein hohes Niveau. Ein großer Teil betraf Belästigungen über Kurznachrichten, insbesondere im Zusammenhang mit dem sog. #Enkeltrick.
+#JahresberichtTK
+➡️www.bundesnetzagentur.de/berichte
+Verbraucherportal
+Der direkte Weg zu den häufigsten Verbraucherfragen.
+Wählen Sie Ihr Thema
+Bitte auswählen
+Entlastungen bei Energiepreisen
+Ärger mit Rufnummern und Anrufen
+Internet und Telefon
+Internetgeschwindigkeit
+Lieferantenwechsel / Kündigung
+Post
+Schlichtung
+Los
+Fachthemen
+Auswahl der Themenbereiche für unser Fachpublikum
+Energie
+Telekom­munikation
+Digitalisierung
+Eisenbahnen
+Datenportal
+Zahlen und Daten der Bundesnetzagentur
+Zum Datenportal
+Ausbildung &amp; Studium
+Eine solide Ausbildung, gute Aufstiegsmöglichkeiten, spannende Aufgaben und ein tolles Team warten auf dich!
+Zu den Informationen und Angeboten
+Karriere
+Fachinformatiker*in (w/m/d)
+Studentische Aushilfskräfte (w/m/d)
+Alle 24 Einträge ansehen
+Mediathek
+In der Mediathek finden Sie Berichte, Interviews, Bilder, Videos und weitere Informationen der Bundesnetzagentur.
+Zur Mediathek
+Interessante Links
+Pfeil nach links
+Pfeil nach rechts
+Navigation und Service
+Springe direkt zu:
+Inhalt
+Hauptmenu
+Suche
+Service
+KONTAKT
+ENGLISH
+LEICHTE SPRACHE
+GEBÄRDENSPRACHE VIDEOS
+RSS
+Fachthemen Verbraucherportal Datenportal Bundesnetzagentur Presse
+Startseite der Bundesnetzagentur
+Episode 2
+Können wir das Internet regulieren?
+Wir sprechen mit Dr. Julia Marquier über den Digital Services Coordinator.
+Zurück und Pause
+5 / 6
+Vor und Pause
+Pause
+Seite drucken Seite teilen Kurzlink
+Folgen Sie uns
+© BUNDESNETZAGENTUR - 2024
+ServiceMenu
+IMPRESSUM
+BARRIEREFREIHEIT
+DATENSCHUTZ
+INHALTSVERZEICHNIS
+Breitbandversorgung
+Funk und Frequenzen
+Marktregulierung
+Nummerierung
+Unternehmenspflichten
+Technik und Produktsicherheit
+Öffentliche Sicherheit
+Marktdaten
+Grundversorgung
+Unterversorgungsfeststellung
+Resilienz der Netze
+Beschlusskammer 2
+Beschlusskammer 3
+Beschlusskammer 11
+Digital Services Coordinator
+Platform-to-Business-Verordnung
+Technologien und Geschäftsmodelle
+Blockchain Infoportal
+Künstliche Intelligenz
+Online-Kommunikationsdienste
+Digitale Transformation
+Internet
+Netzneutralität
+Geoblocking
+Bekämpfung terroristischer Inhalte
+Internet of Things
+Peering- und Transitmärkte
+Digitale Transformation Mittelstand
+Kennzahlen
+Anlaufstellen für KMU (Datenbank)
+Best-Practice Übersicht
+Förderprogramme Bund
+Daten
+Förderwettbewerb Gaia-X
+Datenökonomie
+Datennutzungsgesetz
+Nachhaltigkeit
+Digitale Geschäftsmodelle
+Anreizsysteme KMU
+Indikatorenstudie
+Veranstaltungen
+Aktuelles
+Anbieterverzeichnis
+Marktbeobachtung
+Jährliche Datenerhebung
+Marktuntersuchungen
+Internationaler Briefpreisvergleich
+Paketpreisvergleich
+Meldestelle für Hinweisgebende
+Postgeheimnis und Datenschutz
+Postmarktprüfungen
+Regelungen zur Postversorgung
+Sicherstellung des Postwesens
+Standardisierung
+Teilleistungen - Zugang und Entgelte
+Digitales und Telekommunikation
+Anfragen und Beschwerden
+Verbraucher-Radar
+Bundesnetzagentur
+Über uns
+Präsidium
+Aufgaben und Struktur
+Ausbildung und Studium
+Podcast Akte Tulpenfeld
+Beiräte, Gremien, Beauftragte
+Beirat
+Eisenbahninfrastrukturbeirat
+Bundesfachplanungsbeirat
+Länderausschuss
+Wissenschaftlicher Arbeitskreis für Regulierungsfragen
+Korruptionsprävention
+Internationales und Europa
+Energie (Internationales)
+ACER
+CEER
+PCI
+Telekommunikation
+BEREC
+IRG
+CEPT
+ITU
+RSPG
+RSC
+ERGP
+CEPT - CERP
+CEN
+UPU
+ISO
+IRG-Rail
+ENRRB
+Qualifizierte elektronische Signatur
+Shared Service Center
+Ausschreibungen
+Standorte
+Öffentliche Zustellung
+Kontakt
+Presse
+Pressemitteilungen
+Pressekontakt
+Amtsblatt
+Navigation
+Szenariorahmen      Bundesnetzagentur beteiligt Öffentlichkeit zu den Szenariorahmen Strom und Gas/Wasserstoff 2025–2037/2045
+Kohleausstieg       ...für 2027 erstmals kein Kohleverfeuerungsverbot erforderlich
+Fachtagung am 8./9. Oktober 2024      Aktuelle Probleme des Eisenbahnrechts
+Erneuerbare Energien      Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
+Digital Services Coordinator      DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen
+Inhalte teilen
+per E-Mail schicken
+×
+Szenariorahmen
+Kohleausstieg
+...für 2027 erstmals kein Kohleverfeuerungsverbot erforderlich
+Fachtagung am 8./9. Oktober 2024
+Aktuelle Probleme des Eisenbahnrechts
+Erneuerbare Energien
+Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
+DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen</t>
+        </is>
+      </c>
       <c r="E39" s="1" t="inlineStr">
         <is>
           <t>There is a change</t>
@@ -14772,24 +14854,28 @@
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>+ 04.09.2024 Allgemeines
-+ Amtsblatt_17 (pdf, 2 MB)
-- 07.08.2024 Allgemeines
-- Amtsblatt_15 (pdf, 1.020 KB)
-+ Expert*innen für die Netzentwicklungsplanung (w/m/d)
-- Programmierer*in / Softwareentwickler*in (w/m/d)
-- Alle 20 Einträge ansehen
-+ Alle 21 Einträge ansehen
-- Erneuerbare Energien
-- Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
-+ Erneuerbare Energien      Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
-+ Erneuerbare Energien
-+ Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien</t>
+          <t>- Energieregulierung
+- Aktuelles zum EnWG
++ Netzentwicklungsplanung
++ Aktuelles zur Netzentwicklungsplanung Strom, Gas und Wasserstoff
++ 09.09.2024 Post
++ Qualitätsmonitoring
++ 04.09.2024
++ Die Netzbetreiber informieren uns monatlich unter anderem über ihre Redispatch-Maßnahmen. Mit Redispatch werden Überlastungen im Stromnetz entgegengewirkt. Seht auf #SMARD, welche Mengen in Eurem Bundesland geregelt werden müssen ➡️ smard.de/sharing/page/6571
+- 12.08.2024 Elektrizität und Gas
+- Biomethan: Gebotstermin 1. September 2024
+- Expert*innen für die Netzentwicklungsplanung (w/m/d)
+- Verwaltungstalente (w/m/d) für den Bereich "Koordinierung Internationales Energie"
++ Fachinformatiker*in (w/m/d)
++ Studentische Aushilfskräfte (w/m/d)
+- Alle 21 Einträge ansehen
++ Alle 24 Einträge ansehen
+- Qualitätsmonitoring</t>
         </is>
       </c>
     </row>
@@ -14992,7 +15078,6 @@
 DATENSCHUTZ
 INHALTSVERZEICHNIS
 Energie
-Gasversorgung
 Telekom­munikation
 Breitbandversorgung
 Funk und Frequenzen
@@ -15105,7 +15190,7 @@
 Mediathek
 Amtsblatt
 Navigation
-EnergieGasversorgungTelekom­munikationDigitalisierungPostEisenbahnen
+EnergieTelekom­munikationDigitalisierungPostEisenbahnenBeschlusskammern
 Große Beschlusskammer EnergieIntegration von steuerbaren VerbrauchseinrichtungenEigenkapitalzinssatz
 Inhalte teilen
 per E-Mail schicken
@@ -15114,15 +15199,21 @@
       </c>
       <c r="E40" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
-        </is>
-      </c>
-      <c r="G40" s="1" t="n"/>
+          <t>2024-09-10 06:48:27</t>
+        </is>
+      </c>
+      <c r="G40" s="1" t="inlineStr">
+        <is>
+          <t>- Gasversorgung
+- EnergieGasversorgungTelekom­munikationDigitalisierungPostEisenbahnen
++ EnergieTelekom­munikationDigitalisierungPostEisenbahnenBeschlusskammern</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
@@ -15438,7 +15529,6 @@
 DATENSCHUTZ
 INHALTSVERZEICHNIS
 Energie
-Gasversorgung
 Telekom­munikation
 Breitbandversorgung
 Funk und Frequenzen
@@ -15548,7 +15638,7 @@
 Mediathek
 Amtsblatt
 Navigation
-EnergieGasversorgungTelekom­munikationDigitalisierungPostEisenbahnen
+EnergieTelekom­munikationDigitalisierungPostEisenbahnenBeschlusskammern
 Große Beschlusskammer EnergieIntegration von steuerbaren VerbrauchseinrichtungenEigenkapitalzinssatz
 Inhalte teilen
 per E-Mail schicken
@@ -15557,15 +15647,21 @@
       </c>
       <c r="E41" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
-        </is>
-      </c>
-      <c r="G41" s="1" t="n"/>
+          <t>2024-09-10 06:48:27</t>
+        </is>
+      </c>
+      <c r="G41" s="1" t="inlineStr">
+        <is>
+          <t>- Gasversorgung
+- EnergieGasversorgungTelekom­munikationDigitalisierungPostEisenbahnen
++ EnergieTelekom­munikationDigitalisierungPostEisenbahnenBeschlusskammern</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
@@ -15832,7 +15928,6 @@
 INHALTSVERZEICHNIS
 Fachthemen
 Energie
-Gasversorgung
 Telekom­munikation
 Breitbandversorgung
 Funk und Frequenzen
@@ -15974,15 +16069,19 @@
       </c>
       <c r="E42" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
-        </is>
-      </c>
-      <c r="G42" s="1" t="n"/>
+          <t>2024-09-10 06:48:27</t>
+        </is>
+      </c>
+      <c r="G42" s="1" t="inlineStr">
+        <is>
+          <t>- Gasversorgung</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
@@ -16204,7 +16303,6 @@
 BARRIEREFREIHEIT
 DATENSCHUTZ
 INHALTSVERZEICHNIS
-Gasversorgung
 Telekom­munikation
 Breitbandversorgung
 Funk und Frequenzen
@@ -16314,7 +16412,7 @@
 Mediathek
 Amtsblatt
 Navigation
-EnergieGasversorgungTelekom­munikationDigitalisierungPostEisenbahnen
+EnergieTelekom­munikationDigitalisierungPostEisenbahnenBeschlusskammern
 AusschreibungenE-Mobilität: Öffentliche LadeinfrastrukturWasserstoffErneuerbare Energien/ Kraft-Wärme-KopplungHandel / VertriebKohleausstiegLNG-AnlagenMonitoringberichteNetzanschlussNetzentgelteNetzentwicklungsplanungNetzzugang / MesswesenVersorgungssicherheitVeranstaltungenEntflechtungEnergiedatenportal
 Inhalte teilen
 per E-Mail schicken
@@ -16323,15 +16421,21 @@
       </c>
       <c r="E43" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
-        </is>
-      </c>
-      <c r="G43" s="1" t="n"/>
+          <t>2024-09-10 06:48:27</t>
+        </is>
+      </c>
+      <c r="G43" s="1" t="inlineStr">
+        <is>
+          <t>- Gasversorgung
+- EnergieGasversorgungTelekom­munikationDigitalisierungPostEisenbahnen
++ EnergieTelekom­munikationDigitalisierungPostEisenbahnenBeschlusskammern</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n"/>
@@ -16537,7 +16641,6 @@
 BARRIEREFREIHEIT
 DATENSCHUTZ
 INHALTSVERZEICHNIS
-Gasversorgung
 Telekom­munikation
 Breitbandversorgung
 Funk und Frequenzen
@@ -16650,7 +16753,7 @@
 Mediathek
 Amtsblatt
 Navigation
-EnergieGasversorgungTelekom­munikationDigitalisierungPostEisenbahnen
+EnergieTelekom­munikationDigitalisierungPostEisenbahnenBeschlusskammern
 AusschreibungenE-Mobilität: Öffentliche LadeinfrastrukturWasserstoffErneuerbare Energien/ Kraft-Wärme-KopplungHandel / VertriebKohleausstiegLNG-AnlagenMonitoringberichteNetzanschlussNetzentgelteNetzentwicklungsplanungNetzzugang / MesswesenVersorgungssicherheitVeranstaltungenEntflechtungEnergiedatenportal
 AnreizregulierungTransparenzStromnetzbetreiberGasnetzbetreiber
 Inhalte teilen
@@ -16660,15 +16763,21 @@
       </c>
       <c r="E44" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
-        </is>
-      </c>
-      <c r="G44" s="1" t="n"/>
+          <t>2024-09-10 06:48:27</t>
+        </is>
+      </c>
+      <c r="G44" s="1" t="inlineStr">
+        <is>
+          <t>- Gasversorgung
+- EnergieGasversorgungTelekom­munikationDigitalisierungPostEisenbahnen
++ EnergieTelekom­munikationDigitalisierungPostEisenbahnenBeschlusskammern</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
@@ -16971,7 +17080,6 @@
 INHALTSVERZEICHNIS
 Fachthemen
 Energie
-Gasversorgung
 Telekom­munikation
 Breitbandversorgung
 Funk und Frequenzen
@@ -17129,15 +17237,19 @@
       </c>
       <c r="E45" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
-        </is>
-      </c>
-      <c r="G45" s="1" t="n"/>
+          <t>2024-09-10 06:48:27</t>
+        </is>
+      </c>
+      <c r="G45" s="1" t="inlineStr">
+        <is>
+          <t>- Gasversorgung</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
@@ -17784,7 +17896,6 @@
 BARRIEREFREIHEIT
 DATENSCHUTZ
 INHALTSVERZEICHNIS
-Gasversorgung
 Telekom­munikation
 Breitbandversorgung
 Funk und Frequenzen
@@ -17895,7 +18006,7 @@
 Mediathek
 Amtsblatt
 Navigation
-EnergieGasversorgungTelekom­munikationDigitalisierungPostEisenbahnen
+EnergieTelekom­munikationDigitalisierungPostEisenbahnenBeschlusskammern
 AusschreibungenE-Mobilität: Öffentliche LadeinfrastrukturWasserstoffErneuerbare Energien/ Kraft-Wärme-KopplungHandel / VertriebKohleausstiegLNG-AnlagenMonitoringberichteNetzanschlussNetzentgelteNetzentwicklungsplanungNetzzugang / MesswesenVersorgungssicherheitVeranstaltungenEntflechtungEnergiedatenportal
 Solar FreiflächeSolar AufdachWindenergieanlagen an LandKWK-AusschreibungenInnovationsausschreibungenBiomasseanlagen BiomethananlagenWindenergieanlagen auf See Grenzüberschreitende AusschreibungenGemeinsame Ausschreibungen Wind/Solar
 Tabelle: Gebotstermine 2023
@@ -18182,15 +18293,21 @@
       </c>
       <c r="E46" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
-        </is>
-      </c>
-      <c r="G46" s="1" t="n"/>
+          <t>2024-09-10 06:48:27</t>
+        </is>
+      </c>
+      <c r="G46" s="1" t="inlineStr">
+        <is>
+          <t>- Gasversorgung
+- EnergieGasversorgungTelekom­munikationDigitalisierungPostEisenbahnen
++ EnergieTelekom­munikationDigitalisierungPostEisenbahnenBeschlusskammern</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
@@ -18748,7 +18865,7 @@
       </c>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G47" s="1" t="n"/>
@@ -19303,7 +19420,7 @@
       </c>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G48" s="1" t="n"/>
@@ -19784,7 +19901,7 @@
       </c>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G49" s="1" t="n"/>
@@ -20281,7 +20398,7 @@
       </c>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G50" s="1" t="n"/>
@@ -20764,7 +20881,7 @@
       </c>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G51" s="1" t="n"/>
@@ -21283,7 +21400,7 @@
       </c>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G52" s="1" t="n"/>
@@ -21872,7 +21989,7 @@
       </c>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G53" s="1" t="n"/>
@@ -22649,7 +22766,7 @@
       </c>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G54" s="1" t="n"/>
@@ -23152,7 +23269,7 @@
       </c>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G55" s="1" t="n"/>
@@ -23703,7 +23820,7 @@
       </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G56" s="1" t="n"/>
@@ -24188,7 +24305,7 @@
       </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G57" s="1" t="n"/>
@@ -24695,7 +24812,7 @@
       </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G58" s="1" t="n"/>
@@ -25184,7 +25301,7 @@
       </c>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G59" s="1" t="n"/>
@@ -25689,7 +25806,7 @@
       </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G60" s="1" t="n"/>
@@ -26186,7 +26303,7 @@
       </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G61" s="1" t="n"/>
@@ -26671,7 +26788,7 @@
       </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G62" s="1" t="n"/>
@@ -27206,7 +27323,7 @@
       </c>
       <c r="F63" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G63" s="1" t="n"/>
@@ -27737,7 +27854,7 @@
       </c>
       <c r="F64" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G64" s="1" t="n"/>
@@ -28037,7 +28154,11 @@
           <t>Ak­tu­el­les
 Aktuelle Mitteilungen der Beschlusskammer 8 der letzten 6 Monate und zu laufenden Festlegungs- und Missbrauchsverfahren
 Fristenkalender für Netzbetreiber - Netzentgelte Elektrizität 2024 (pdf / 198 KB)
-30.08.2024	Festlegung zur Verteilung von Mehrkosten in Netzen aus der Integration von Anlagen zur Erzeugung von Strom aus erneuerbaren Energien (BK8-24-001-A) sowie Geltung verfahrensrechtlicher Bestimmungen (BK8-24-002-A, BK8-24-003-A, BK8-24-004-A, BK8-24-005-A)
+09.09.2024	Einleitung eines Verfahrens zur Teilaufhebung von Vorgaben von zusätzlichen Bestimmungen für die Erstellung und Prüfung von Jahresabschlüssen und Tätigkeitsabschlüssen gegenüber vertikal integrierten Energieversorgungsunternehmen und rechtlich selbstständigen Netzbetreibern [BK8-24-011-A, BK8-24-012-A, BK8-24-0013-A, BK8-24-014, BK8-24-015-A]
+04.09.2024
+Hinweise für VNB zur Anpassung der EOG für das Kalenderjahr 2025
+Die Hinweise zur Anpassung der Erlösobergrenze (EOG) und zur Kalkulation der Netzentgelte geben die Rechtsauffassung der BK8 wieder und berücksichtigen das Netzentgeltmodernisierungsgesetz (NEMoG)
+30.08.2024	Festlegung zur Verteilung von Mehrkosten in Netzen aus der Integration von Anlagen zur Erzeugung von Strom aus erneuerbaren Energien [BK8-24-001-A] sowie Geltung verfahrensrechtlicher Bestimmungen [BK8-24-002-A, BK8-24-003-A, BK8-24-004-A, BK8-24-005-A]
 27.08.2024	Konsultation zur Festlegung der Kosten aus der marktgestützten Beschaffung der nicht frequenzgebundenen Systemdienstleistung „Dienstleistungen zur Spannungsregelung“ (Blindleistung) als volatile Kostenanteile nach § 11 Abs. 5 ARegV [BK8-24-006-A bis BK8-24-010-A]
 19.08.2024	Einleitung eines Verfahrens zur Geltung verfahrensrechtlicher Bestimmungen der Festlegung zur Verteilung von Mehrkosten in Netzen aus der Integration von Anlagen zur Erzeugung von Strom aus erneuerbaren Energien [BK8-24-002-A bis BK8-24-005-A]
 12.07.2024	Entscheidung im Rahmen der besonderen Missbrauchsaufsicht nach § 31 EnWG der eins energie in Sachsen GmbH &amp; Co. KG gegen die inetz GmbH unter dem Aktenzeichen BK8-22-01893-05#1 ergangen.
@@ -28092,7 +28213,7 @@
 [BK8-22/009-A]
 02.05.2023	Festlegung volatiler Kosten nach § 11 Abs. 5 ARegV zur Berücksichtigung von Verlustenergiekosten bei Verteilernetzbetreibern in der vierten Regulierungsperiode
 [BK8-22/003-A bis BK8-22/007-A]
-Stand:  30.08.2024
+Stand:  09.09.2024
 Navigation und Service
 Springe direkt zu:
 Inhalt
@@ -28317,15 +28438,26 @@
       </c>
       <c r="E65" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F65" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
-        </is>
-      </c>
-      <c r="G65" s="1" t="n"/>
+          <t>2024-09-10 06:48:27</t>
+        </is>
+      </c>
+      <c r="G65" s="1" t="inlineStr">
+        <is>
+          <t>+ 09.09.2024	Einleitung eines Verfahrens zur Teilaufhebung von Vorgaben von zusätzlichen Bestimmungen für die Erstellung und Prüfung von Jahresabschlüssen und Tätigkeitsabschlüssen gegenüber vertikal integrierten Energieversorgungsunternehmen und rechtlich selbstständigen Netzbetreibern [BK8-24-011-A, BK8-24-012-A, BK8-24-0013-A, BK8-24-014, BK8-24-015-A]
++ 04.09.2024
++ Hinweise für VNB zur Anpassung der EOG für das Kalenderjahr 2025
++ Die Hinweise zur Anpassung der Erlösobergrenze (EOG) und zur Kalkulation der Netzentgelte geben die Rechtsauffassung der BK8 wieder und berücksichtigen das Netzentgeltmodernisierungsgesetz (NEMoG)
+- 30.08.2024	Festlegung zur Verteilung von Mehrkosten in Netzen aus der Integration von Anlagen zur Erzeugung von Strom aus erneuerbaren Energien (BK8-24-001-A) sowie Geltung verfahrensrechtlicher Bestimmungen (BK8-24-002-A, BK8-24-003-A, BK8-24-004-A, BK8-24-005-A)
++ 30.08.2024	Festlegung zur Verteilung von Mehrkosten in Netzen aus der Integration von Anlagen zur Erzeugung von Strom aus erneuerbaren Energien [BK8-24-001-A] sowie Geltung verfahrensrechtlicher Bestimmungen [BK8-24-002-A, BK8-24-003-A, BK8-24-004-A, BK8-24-005-A]
+- Stand:  30.08.2024
++ Stand:  09.09.2024</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
@@ -28841,7 +28973,7 @@
       </c>
       <c r="F66" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G66" s="1" t="n"/>
@@ -29330,7 +29462,7 @@
       </c>
       <c r="F67" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G67" s="1" t="n"/>
@@ -29869,7 +30001,7 @@
       </c>
       <c r="F68" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G68" s="1" t="n"/>
@@ -30392,7 +30524,7 @@
       </c>
       <c r="F69" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G69" s="1" t="n"/>
@@ -30409,136 +30541,6 @@
         </is>
       </c>
       <c r="C70" s="1" t="inlineStr">
-        <is>
-          <t>Der BVES
-AUFGABEN &amp;
-MISSION DES BVES
-Der Bundesverband Energiespeicher Systeme e.V. (BVES) vertritt die Interessen von Unternehmen und Institutionen mit dem gemeinsamen Ziel der Entwicklung, Vermarktung und dem Einsatz von Energiespeichersystemen in den Sektoren Strom, Wärme und Mobilität. Als technologieoffener Industrie-Verband ist der BVES Dialogpartner für Politik, Verwaltung, Wissenschaft und die breite Öffentlichkeit.
-Mehr erfahren
-Energiespeicher
-ENERGIESPEICHER
-UND IHRE MÄRKTE
-HAUSHALTE
-SELBSTVERSORGUNG UND KOSTENREDUKTION
-INDUSTRIE &amp; GEWERBE
-DEKARBONISIERUNG UND STEIGERUNG DER ENERGIEEFFIZIENZ
-SYSTEMINFRASTRUKTUR
-NETZSTABILITÄT UND VERSORGUNGSSICHERHEIT
-Aktuelles
-BVES
-BRANCHENNEWS
-Wir behalten den Markt, die Forschung und die Politik für Sie im Auge. Und fassen unsere Beobachtungen für Sie zusammen! In unseren Branchennews informieren wir Sie über die aktuellsten Entwicklungen.
-Alle Branchennews
-Verbandsnachricht
-AwSV-Hin­weis­pa­pier: Aus­wir­kun­gen auf Lithium-Ionen-Bat­te­rien
-BVES bei EEW-Stake­hol­der­kon­sul­ta­tion: Strom­ba­sierte Pro­zess­wär­me­er­zeu­gung mit­den­ken!
-KOMMENDE
-TERMINE
-03.09.2024
-BVES Sta­tus­kon­fe­renz Stan­dards und Nor­mung 2024
-Online — Nur für BVES-Mit­glie­der
-17.09.2024
-BVES AG Finan­zen
-18.09.2024
-BVES Brand­schutz­leit­fa­den Über­ar­bei­tung 2024
-BVES AG Ener­gie­recht
-19.09.2024
-BVES AG Was­ser­stoff &amp; PtX
-Event in Ber­lin — Nur für BVES-Mit­glie­der
-Alle Termine
-Mitglieder
-WER IST SCHON DABEI?
-Mitglied werden
-WERDEN SIE TEIL DES NETZWERKS NUMMER 1
-Kontakt
-WIR SIND FÜR SIE DA
-Name
-E-Mail-Adresse
-Telefon
-Nachricht
-Ich akzeptiere die Datenschutzbedingungen
-Nach oben
-Ener­gie­spei­cher
-Aktu­el­les
-Mit­glied wer­den
-EN
-Leitfaden
-BVES IN BRUSSEL
-WORKSHOP ZUR FÖRDERUNG DER NET-ZERO-TECHNOLOGIEHERSTELLUNG DER EU
-1
-2
-3
-4
-5
-BRAN­CHEN­NEWS
-PUBLI­KA­TIO­NEN
-PRES­SE­MIT­TEI­LUN­GEN
-VER­AN­STAL­TUN­GEN
-Auf­ga­ben &amp; Arbeit
-Per­so­nen &amp; Posi­tio­nen
-Bei­räte &amp; Fach­be­rei­che
-Haus­halte
-Indus­trie &amp; Gewerbe
-Sys­tem­in­fra­struk­tur
-Presse
-Kon­takt
-Daten­schutz
-Impres­sum
-© 2012 – 2023 • BVES – Bun­des­ver­band Ener­gie­spei­cher Sys­teme e.V.
-MITGLIED WERDEN
-GESTALTEN SIE AKTIV DIE ZUKUNFT DER ENERGIESPEICHER­BRANCHE MIT
-Veranstaltung
-BVES STATUSKONFERENZ
-STANDARDS &amp; NORMUNG 2024
-AWSV-HINWEISPAPIER:
-AUSWIRKUNGEN AUF LITHIUM-IONEN-BATTERIEN
-Pressemitteilung
-BVES STATUSKONFERENZ:
-WÄRMEWENDE BRAUCHT SPEICHER -  BREITER APPEL FÜR EINE SCHNELLE WÄRMESPEICHERSTRATEGIE
-×
-Datenschutzeinstellungen
-↓
-Wir benötigen Ihre Zustimmung, bevor Sie unsere Website weiter besuchen können.
-Wir verwenden Cookies und andere Technologien auf unserer Website. Einige von ihnen sind essenziell, während andere uns helfen, diese Website und Ihre Erfahrung zu verbessern. Personenbezogene Daten können verarbeitet werden (z. B. IP-Adressen), z. B. für personalisierte Anzeigen und Inhalte oder Anzeigen- und Inhaltsmessung. Weitere Informationen über die Verwendung Ihrer Daten finden Sie in unserer Datenschutzerklärung. Sie können Ihre Auswahl jederzeit unter Einstellungen widerrufen oder anpassen.
-Essenziell
-Statistiken
-Ich akzeptiere
-Nur essenzielle Cookies akzeptieren
-Individuelle Datenschutzeinstellungen
-Cookie-Details  Datenschutzerklärung  Impressum
-Wir verwenden Cookies und andere Technologien auf unserer Website. Einige von ihnen sind essenziell, während andere uns helfen, diese Website und Ihre Erfahrung zu verbessern. Personenbezogene Daten können verarbeitet werden (z. B. IP-Adressen), z. B. für personalisierte Anzeigen und Inhalte oder Anzeigen- und Inhaltsmessung. Weitere Informationen über die Verwendung Ihrer Daten finden Sie in unserer Datenschutzerklärung.
-Hier finden Sie eine Übersicht über alle verwendeten Cookies. Sie können Ihre Einwilligung zu ganzen Kategorien geben oder sich weitere Informationen anzeigen lassen und so nur bestimmte Cookies auswählen.
-Alle akzeptieren Speichern Nur essenzielle Cookies akzeptieren
-Zurück
-Essenziell (1)
-Essenzielle Cookies ermöglichen grundlegende Funktionen und sind für die einwandfreie Funktion der Website erforderlich.
-Cookie-Informationen anzeigen
-Statistiken (1)
-Statistik Cookies erfassen Informationen anonym. Diese Informationen helfen uns zu verstehen, wie unsere Besucher unsere Website nutzen.
-Datenschutzerklärung  Impressum
-Borlabs Cookie
-Anbieter
-Eigentümer dieser Website, Impressum
-Zweck
-Speichert die Einstellungen der Besucher, die in der Cookie Box von Borlabs Cookie ausgewählt wurden.
-Cookie Name
-borlabs-cookie
-Cookie Laufzeit
-1 Jahr
-Akzeptieren
-Matomo
-Cookie von Matomo für Website-Analysen. Erzeugt statistische Daten darüber, wie der Besucher die Website nutzt.
-Datenschutzerklärung
-https://www.bves.de/datenschutz/
-_pk_*.*
-13 Monate
-This website uses cookies and third party services.
-OK
-DE
-previousnextslideshow</t>
-        </is>
-      </c>
-      <c r="D70" s="1" t="inlineStr">
         <is>
           <t>Der BVES
 AUFGABEN &amp;
@@ -30668,6 +30670,134 @@
 previousnextslideshow</t>
         </is>
       </c>
+      <c r="D70" s="1" t="inlineStr">
+        <is>
+          <t>Der BVES
+AUFGABEN &amp;
+MISSION DES BVES
+Der Bundesverband Energiespeicher Systeme e.V. (BVES) vertritt die Interessen von Unternehmen und Institutionen mit dem gemeinsamen Ziel der Entwicklung, Vermarktung und dem Einsatz von Energiespeichersystemen in den Sektoren Strom, Wärme und Mobilität. Als technologieoffener Industrie-Verband ist der BVES Dialogpartner für Politik, Verwaltung, Wissenschaft und die breite Öffentlichkeit.
+Mehr erfahren
+Energiespeicher
+ENERGIESPEICHER
+UND IHRE MÄRKTE
+HAUSHALTE
+SELBSTVERSORGUNG UND KOSTENREDUKTION
+INDUSTRIE &amp; GEWERBE
+DEKARBONISIERUNG UND STEIGERUNG DER ENERGIEEFFIZIENZ
+SYSTEMINFRASTRUKTUR
+NETZSTABILITÄT UND VERSORGUNGSSICHERHEIT
+Aktuelles
+BVES
+BRANCHENNEWS
+Wir behalten den Markt, die Forschung und die Politik für Sie im Auge. Und fassen unsere Beobachtungen für Sie zusammen! In unseren Branchennews informieren wir Sie über die aktuellsten Entwicklungen.
+Alle Branchennews
+Verbandsnachricht
+AwSV-Hin­weis­pa­pier: Aus­wir­kun­gen auf Lithium-Ionen-Bat­te­rien
+BVES bei EEW-Stake­hol­der­kon­sul­ta­tion: Strom­ba­sierte Pro­zess­wär­me­er­zeu­gung mit­den­ken!
+KOMMENDE
+TERMINE
+17.09.2024
+BVES AG Finan­zen
+Online — Nur für BVES-Mit­glie­der
+18.09.2024
+BVES Brand­schutz­leit­fa­den Über­ar­bei­tung 2024
+BVES AG Ener­gie­recht
+19.09.2024
+BVES AG Was­ser­stoff &amp; PtX
+Event in Ber­lin — Nur für BVES-Mit­glie­der
+24.09.2024
+BVES Policy Recap
+Alle Termine
+Mitglieder
+WER IST SCHON DABEI?
+Mitglied werden
+WERDEN SIE TEIL DES NETZWERKS NUMMER 1
+Kontakt
+WIR SIND FÜR SIE DA
+Name
+E-Mail-Adresse
+Telefon
+Nachricht
+Ich akzeptiere die Datenschutzbedingungen
+Nach oben
+Ener­gie­spei­cher
+Aktu­el­les
+Mit­glied wer­den
+EN
+Leitfaden
+BVES IN BRUSSEL
+WORKSHOP ZUR FÖRDERUNG DER NET-ZERO-TECHNOLOGIEHERSTELLUNG DER EU
+1
+2
+3
+4
+5
+BRAN­CHEN­NEWS
+PUBLI­KA­TIO­NEN
+PRES­SE­MIT­TEI­LUN­GEN
+VER­AN­STAL­TUN­GEN
+Auf­ga­ben &amp; Arbeit
+Per­so­nen &amp; Posi­tio­nen
+Bei­räte &amp; Fach­be­rei­che
+Haus­halte
+Indus­trie &amp; Gewerbe
+Sys­tem­in­fra­struk­tur
+Presse
+Kon­takt
+Daten­schutz
+Impres­sum
+© 2012 – 2023 • BVES – Bun­des­ver­band Ener­gie­spei­cher Sys­teme e.V.
+MITGLIED WERDEN
+GESTALTEN SIE AKTIV DIE ZUKUNFT DER ENERGIESPEICHER­BRANCHE MIT
+Veranstaltung
+BVES STATUSKONFERENZ
+STANDARDS &amp; NORMUNG 2024
+AWSV-HINWEISPAPIER:
+AUSWIRKUNGEN AUF LITHIUM-IONEN-BATTERIEN
+Pressemitteilung
+BVES STATUSKONFERENZ:
+WÄRMEWENDE BRAUCHT SPEICHER -  BREITER APPEL FÜR EINE SCHNELLE WÄRMESPEICHERSTRATEGIE
+×
+Datenschutzeinstellungen
+↓
+Wir benötigen Ihre Zustimmung, bevor Sie unsere Website weiter besuchen können.
+Wir verwenden Cookies und andere Technologien auf unserer Website. Einige von ihnen sind essenziell, während andere uns helfen, diese Website und Ihre Erfahrung zu verbessern. Personenbezogene Daten können verarbeitet werden (z. B. IP-Adressen), z. B. für personalisierte Anzeigen und Inhalte oder Anzeigen- und Inhaltsmessung. Weitere Informationen über die Verwendung Ihrer Daten finden Sie in unserer Datenschutzerklärung. Sie können Ihre Auswahl jederzeit unter Einstellungen widerrufen oder anpassen.
+Essenziell
+Statistiken
+Ich akzeptiere
+Nur essenzielle Cookies akzeptieren
+Individuelle Datenschutzeinstellungen
+Cookie-Details  Datenschutzerklärung  Impressum
+Wir verwenden Cookies und andere Technologien auf unserer Website. Einige von ihnen sind essenziell, während andere uns helfen, diese Website und Ihre Erfahrung zu verbessern. Personenbezogene Daten können verarbeitet werden (z. B. IP-Adressen), z. B. für personalisierte Anzeigen und Inhalte oder Anzeigen- und Inhaltsmessung. Weitere Informationen über die Verwendung Ihrer Daten finden Sie in unserer Datenschutzerklärung.
+Hier finden Sie eine Übersicht über alle verwendeten Cookies. Sie können Ihre Einwilligung zu ganzen Kategorien geben oder sich weitere Informationen anzeigen lassen und so nur bestimmte Cookies auswählen.
+Alle akzeptieren Speichern Nur essenzielle Cookies akzeptieren
+Zurück
+Essenziell (1)
+Essenzielle Cookies ermöglichen grundlegende Funktionen und sind für die einwandfreie Funktion der Website erforderlich.
+Cookie-Informationen anzeigen
+Statistiken (1)
+Statistik Cookies erfassen Informationen anonym. Diese Informationen helfen uns zu verstehen, wie unsere Besucher unsere Website nutzen.
+Datenschutzerklärung  Impressum
+Borlabs Cookie
+Anbieter
+Eigentümer dieser Website, Impressum
+Zweck
+Speichert die Einstellungen der Besucher, die in der Cookie Box von Borlabs Cookie ausgewählt wurden.
+Cookie Name
+borlabs-cookie
+Cookie Laufzeit
+1 Jahr
+Akzeptieren
+Matomo
+Cookie von Matomo für Website-Analysen. Erzeugt statistische Daten darüber, wie der Besucher die Website nutzt.
+Datenschutzerklärung
+https://www.bves.de/datenschutz/
+_pk_*.*
+13 Monate
+DE
+previousnextslideshow</t>
+        </is>
+      </c>
       <c r="E70" s="1" t="inlineStr">
         <is>
           <t>There is a change</t>
@@ -30675,17 +30805,13 @@
       </c>
       <c r="F70" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G70" s="1" t="inlineStr">
         <is>
-          <t>- 03.09.2024
-- BVES Sta­tus­kon­fe­renz Stan­dards und Nor­mung 2024
-- Online — Nur für BVES-Mit­glie­der
-+ Online — Nur für BVES-Mit­glie­der
-+ 24.09.2024
-+ BVES Policy Recap</t>
+          <t>- This website uses cookies and third party services.
+- OK</t>
         </is>
       </c>
     </row>
@@ -30962,23 +31088,26 @@
 https://www.bves.de/datenschutz/
 _pk_*.*
 13 Monate
-This website uses cookies and third party services.
-OK
 DE
 previousnextslideshow</t>
         </is>
       </c>
       <c r="E71" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F71" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
-        </is>
-      </c>
-      <c r="G71" s="1" t="n"/>
+          <t>2024-09-10 06:48:27</t>
+        </is>
+      </c>
+      <c r="G71" s="1" t="inlineStr">
+        <is>
+          <t>- This website uses cookies and third party services.
+- OK</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n"/>
@@ -31473,23 +31602,26 @@
 https://www.bves.de/datenschutz/
 _pk_*.*
 13 Monate
-This website uses cookies and third party services.
-OK
 DE
 previousnextslideshow</t>
         </is>
       </c>
       <c r="E72" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F72" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
-        </is>
-      </c>
-      <c r="G72" s="1" t="n"/>
+          <t>2024-09-10 06:48:27</t>
+        </is>
+      </c>
+      <c r="G72" s="1" t="inlineStr">
+        <is>
+          <t>- This website uses cookies and third party services.
+- OK</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
@@ -31692,23 +31824,26 @@
 https://www.bves.de/datenschutz/
 _pk_*.*
 13 Monate
-This website uses cookies and third party services.
-OK
 DE
 previousnextslideshow</t>
         </is>
       </c>
       <c r="E73" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F73" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
-        </is>
-      </c>
-      <c r="G73" s="1" t="n"/>
+          <t>2024-09-10 06:48:27</t>
+        </is>
+      </c>
+      <c r="G73" s="1" t="inlineStr">
+        <is>
+          <t>- This website uses cookies and third party services.
+- OK</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -31722,153 +31857,6 @@
         </is>
       </c>
       <c r="C74" s="1" t="inlineStr">
-        <is>
-          <t>Menu
-Verband
-Energie
-Wasser/Abwasser
-Presse
-MAGAZIN
-Service
-Übersicht
-Erdgas, Strom und Heizwärme sowie Wasser und Abwasser. Der BDEW vertritt über 2000 Unternehmen.
-Zum Verband
-Über uns
-KMU-Vertretung
-BDEW-Vertretung bei der EU
-Landesorganisationen
-Mitglieder
-Mitglied werden
-Karriere
-Kontakt und Anfahrt
-Zum Magazin
-Dossiers
-Ausgewählte Themen der Energiewirtschaft auf einen Blick.
-Wasserstoff
-Digitalisierung
-Gas
-Themen
-Elektromobilität
-Energieeffizienz
-Energiepolitik
-Erneuerbare Energien
-Sektorkopplung
-Stromerzeugung
-Wärme
-Weitere Energiethemen
-Ausführliche Informationen und Hintergründe zu aktuellen Entwicklungen in der Trinkwasser- und Abwasserwirtschaft.
-Spurenstoffe in Gewässern
-Nitrat im Grundwasser
-Abwasser
-Benchmarking und Branchenbild
-Digitalisierung der Wasserwirtschaft
-Entgelte/Gebühren
-Kommunikation
-Ordnungspolitik
-Trinkwasser
-Weitere Wasser-/Abwasserthemen
-Informationen für Journalisten
-Zum Pressecenter
-Presseinformationen
-Pressemappen
-Pressefotos
-Ansprechpartner
-"Zweitausend50" - das Online-Magazin
-STARTSEITE
-Schnittstelle
-Schulden bremsen?
-Asia Calling
-Mobilität
-ZUR ÜBERSICHT
-Der BDEW erarbeitet Branchenpositionen, findet Lösungen, erstellt Zahlenmaterial und Grafiken und bereitet diverse Informationen rund um die Themen der Energie- und Wasserwirtschaft auf.
-Anwendungshilfen
-BDEW Codes
-Bildung und Schule
-Datenplattform Stromkennzeichnung
-EDI@Energy
-Standardverträge
-Stellungnahmen
-Marktprozesse im Überblick
-Veranstaltungen
-Zu Daten und Grafiken
-Suche
-Anmelden
-BDEW-Anwendungshilfen im Überblick
-Gewusst wie: Aktuelle Leitfäden und Umsetzungshilfen des BDEW zu den Themen der Energie- und Wasserwirtschaft.
-MEHR ERFAHREN
-BDEW-Strompreisanalyse Juli 2024
-Detallierte Infos zu Steuern, Abgaben und Umlagen: So haben sich die Preise für Haushalte und Industrie entwickelt.
-ZUR ANALYSE
-Trinkwassergebrauch in Hitzeperioden:
-BDEW-Tipps für einen schonenden Umgang mit Trinkwasser in Hitzeperioden
-ZUR PRESSEINFORMATION
-BDEW-Gaspreisanalyse
-Einfamilien- und Mehrfamilienhäuser: Aktuelle Entwicklung der Gaspreise für Haushaltskunden in Deutschland.
-Der BDEW in Zahlen 2024
-38
-51
-165
-Fachartikel
-&gt;2000
-VN­Bdi­gi­tal
-Netzanschluss, Netzausbaupläne und Regionalszenarien: Das Netzportal der Verteilnetzbetreiber
-ZUM PORTAL
-Die wichtigsten Themen der Energie- und Wasserwirtschaft im Überblick.
-Elek­tro­mo­bi­li­tät
-Wir bringen die En­er­gie­wen­de in den Ver­kehrs­sek­tor
-En­er­gie­ef­fi­zi­enz
-Eine wichtige Säule der En­er­gie­wen­de und Zu­kunfts­bran­che der En­er­gie­wirt­schaft.
-EU DSO Entity (EUDE)
-EUDE wird neue VNB-Or­ga­ni­sa­ti­on in der Eu­ro­päi­schen Union
-Di­gi­ta­li­sie­rung
-Eine Branche erfindet sich neu. Im Fokus der di­gi­ta­li­sier­ten En­er­gie­welt steht der Kunde.
-Der Wär­me­markt ist mit rund 59 Prozent größte End­ener­gie­ver­brauchs­sek­tor Deutsch­lands.
-Mul­ti­ta­lent für die En­er­gie­wen­de und Partner der Er­neu­er­ba­ren Energien
-Trink­was­ser­schutz
-For­de­run­gen der Was­ser­wirt­schaft zum richtigen Umgang mit Me­di­ka­men­ten.
-Re­dis­patch 2.0
-Ziel ist das ef­fi­zi­en­te Beheben von Net­z­eng­päs­sen über alle Netz­ebe­nen hinweg - Die Bran­chen­lö­sung im BDEW
-Der Verband
-Strom, Erdgas und Wärme sowie Wasser und Abwasser. Der BDEW vertritt über 2.000 Unternehmen der Branche.
-Services des Verbandes
-Daten und Grafiken
-BDEW-Magazin
-ÜBER UNS
-NEUE MITGLIEDER
-LANDESORGANISATIONEN
-Der BDEW ist die "eine Stimme" der Energie- und Wasserwirtschaft
-Wir gestalten die Energiewende und sind verlässlicher Partner für Politik, Kunden und Gesellschaft.
-Daten/Grafiken
-Bereiche und Abteilungen
-Der BDEW in den sozialen Netzwerken:
-Zum Mitgliederbereich
-LOGIN
-2024 BDEW
-Rechtliches | Impressum | Datenschutz
-0
-BDEW-Ver­an­stal­tun­gen
-BDEW Kongress, Treffpunkt Netze und mehr – Seien Sie dabei!
-Mehr erfahren
-An­bie­ter­lis­te Dienst­leis­ter Re­dis­patch 2.0
-Auf der Website des BDEW finden Sie eine offene Liste mit Unternehmen, die Dienstleistungen für Anlagenbetreiber im Rahmen des neuen Redispatchregimes erbringen.
-Zur Anbieterliste
-Unterrichtsmaterialien zu aktuellen Energie- und Wasser/Abwasser-Themen
-Mehr
-BDEW-We­bi­na­re
-Die aktuellen Themen der Energie- und Wasserwirtschaft - kostenfrei für Mitgliedsunternehmen.
-Zu den Webinaren
-In­stal­la­teur­ver­zeich­nis Strom/ Gas/ Wasser
-So gelangen Sie zu Ihren AnsprechpartnerInnen in den Landesinstallateurausschüssen
-Zur Übersicht
-Alles Wasser Volt
-Deine Zukunft für eine nachhaltige Zukunft: Bewirb Dich jetzt in der Energie- und Wasserwirtschaft
-Der BDEW begrüßt seine neuen Mitglieder
-Verstärkung für den BDEW: Erfahren Sie mehr über unsere neuen Mitglieder.
-Für Sie vor Ort: Die Landesorganisationen sind Ihr regionaler Ansprechpartner.
-Sie übernehmen die  Interessenvertretung und bearbeiten länderspezifische Themen.</t>
-        </is>
-      </c>
-      <c r="D74" s="1" t="inlineStr">
         <is>
           <t>Menu
 Verband
@@ -32014,42 +32002,7 @@
 Sie übernehmen die  Interessenvertretung und bearbeiten länderspezifische Themen.</t>
         </is>
       </c>
-      <c r="E74" s="1" t="inlineStr">
-        <is>
-          <t>There is a change</t>
-        </is>
-      </c>
-      <c r="F74" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-04 08:16:00</t>
-        </is>
-      </c>
-      <c r="G74" s="1" t="inlineStr">
-        <is>
-          <t>+ Veranstaltungen
-- Veranstaltungen
-+ In­stal­la­teur­ver­zeich­nis Strom/ Gas/ Wasser
-+ So gelangen Sie zu Ihren AnsprechpartnerInnen in den Landesinstallateurausschüssen
-- VN­Bdi­gi­tal
-- Netzanschluss, Netzausbaupläne und Regionalszenarien: Das Netzportal der Verteilnetzbetreiber
-- ZUM PORTAL
-- In­stal­la­teur­ver­zeich­nis Strom/ Gas/ Wasser
-- So gelangen Sie zu Ihren AnsprechpartnerInnen in den Landesinstallateurausschüssen
-- Zur Übersicht
-+ VN­Bdi­gi­tal
-+ Netzanschluss, Netzausbaupläne und Regionalszenarien: Das Netzportal der Verteilnetzbetreiber
-+ Zum Portal</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n"/>
-      <c r="B75" s="1" t="inlineStr">
-        <is>
-          <t>https://www.bdew.de/energie/erneuerbare-energien/</t>
-        </is>
-      </c>
-      <c r="C75" s="1" t="inlineStr">
+      <c r="D74" s="1" t="inlineStr">
         <is>
           <t>Menu
 Verband
@@ -32121,57 +32074,129 @@
 Zu Daten und Grafiken
 Suche
 Anmelden
-Energie  Erneuerbare Energien
-Art des Inhalts
-Typ
-ZURÜCKSETZEN SUCHEN
-GRAFIK
-30.08.2024
-Wind­ener­gie­an­la­gen in Deutsch­land
-Anzahl und in­stal­lier­te Leistung nach Bun­des­län­dern bzw. Nord-und Ostsee
-STEL­LUNG­NAH­ME
-BDEW-Stel­lung­nah­me zum Re­fe­ren­ten­ent­wurf eines Gesetzes zur Umsetzung der RED III für Zu­las­sungs­verf ...
-PRES­SE­INFOR­MA­TI­ON
-Wichtige Ent­las­tung für Regionen mit besonders hohem Er­neu­er­ba­ren-Aus­bau
-Die Bun­des­netz­agen­tur (BNetzA) hat heute eine Fest­le­gung zur Ver­tei­lung der Mehr­kos­ten ver­öf­fent­licht, die in Strom­ver­tei­ler­net­zen mit besonders...
-29.08.2024
-BDEW-Stel­lung­nah­me zu den na­tur­schutz­fach­li­chen Min­dest­kri­te­ri­en bei PV-Frei­flä­chen­an­la­gen in Verbin ...
-20.08.2024
-Mo­nat­li­che Strom­er­zeu­gung in Deutsch­land
-Mo­nat­li­che Strom­er­zeu­gung aus Er­neu­er­ba­ren Energien
-Brut­to­strom­er­zeu­gung, Ver­än­de­rung zum Vor­jah­res­zeit­raum in Prozent
-Was­ser­kraft in Deutsch­land
-Nutzung der Was­ser­kraft in Deutsch­land – in­stal­lier­te Leistung und Strom­er­zeu­gung
-Mo­nat­li­che Strom­er­zeu­gung aus So­lar­ener­gie in Deutsch­land
-19.08.2024
-Kerstin Andreae zum Bun­des­haus­halt 2025 und zum KTF
-+ Globale Min­der­aus­ga­be ist deutlich zu groß bemessen und schürt Un­si­cher­heit + Wär­me­net­ze brauchen starke Förderung + Um­schich­tung des...
-16.08.2024
-Kerstin Andreae zur Einigung auf den Bun­des­haus­halt 2025
-Am heutigen Freitag hat sich die Am­pel-Ko­ali­ti­on auf den Bun­des­haus­halt 2025 geeinigt. Hierzu erklärt Kerstin Andreae, Vor­sit­zen­de der...
-602 Ergebnisse | Seite
-1
-2
-3
-4
-5
-6
-›
-»
+BDEW fordert „Integrierten Kapazitätsmarkt“
+„Strommarktdesign der Zukunft“ - BDEW-Stellungnahme zu aktuellem BMWK-Papier.
+ZUR STELLUNGNAHME
+BDEW-Strompreisanalyse Juli 2024
+Detallierte Infos zu Steuern, Abgaben und Umlagen: So haben sich die Preise für Haushalte und Industrie entwickelt.
+ZUR ANALYSE
+Anwendungshilfen im Überblick
+Gewusst wie: Aktuelle Leitfäden und Umsetzungshilfen des BDEW zu den Themen der Energie- und Wasserwirtschaft.
+MEHR ERFAHREN
+BDEW-Gaspreisanalyse
+Einfamilien- und Mehrfamilienhäuser: Aktuelle Entwicklung der Gaspreise für Haushaltskunden in Deutschland.
+Der BDEW in Zahlen 2024
+38
+51
+165
+Fachartikel
+&gt;2000
+BDEW-We­bi­na­re
+Die aktuellen Themen der Energie- und Wasserwirtschaft - kostenfrei für Mitgliedsunternehmen.
+ZU DEN WEBINAREN
+Die wichtigsten Themen der Energie- und Wasserwirtschaft im Überblick.
+Elek­tro­mo­bi­li­tät
+Wir bringen die En­er­gie­wen­de in den Ver­kehrs­sek­tor
+En­er­gie­ef­fi­zi­enz
+Eine wichtige Säule der En­er­gie­wen­de und Zu­kunfts­bran­che der En­er­gie­wirt­schaft.
+EU DSO Entity (EUDE)
+EUDE wird neue VNB-Or­ga­ni­sa­ti­on in der Eu­ro­päi­schen Union
+Di­gi­ta­li­sie­rung
+Eine Branche erfindet sich neu. Im Fokus der di­gi­ta­li­sier­ten En­er­gie­welt steht der Kunde.
+Der Wär­me­markt ist mit rund 59 Prozent größte End­ener­gie­ver­brauchs­sek­tor Deutsch­lands.
+Mul­ti­ta­lent für die En­er­gie­wen­de und Partner der Er­neu­er­ba­ren Energien
+Trink­was­ser­schutz
+For­de­run­gen der Was­ser­wirt­schaft zum richtigen Umgang mit Me­di­ka­men­ten.
+Re­dis­patch 2.0
+Ziel ist das ef­fi­zi­en­te Beheben von Net­z­eng­päs­sen über alle Netz­ebe­nen hinweg - Die Bran­chen­lö­sung im BDEW
+Der Verband
+Strom, Erdgas und Wärme sowie Wasser und Abwasser. Der BDEW vertritt über 2.000 Unternehmen der Branche.
+Services des Verbandes
+Daten und Grafiken
+BDEW-Magazin
+ÜBER UNS
+NEUE MITGLIEDER
+LANDESORGANISATIONEN
+Der BDEW ist die "eine Stimme" der Energie- und Wasserwirtschaft
+Wir gestalten die Energiewende und sind verlässlicher Partner für Politik, Kunden und Gesellschaft.
 Daten/Grafiken
 Bereiche und Abteilungen
-BDEW-Magazin
 Der BDEW in den sozialen Netzwerken:
 Zum Mitgliederbereich
 LOGIN
 2024 BDEW
 Rechtliches | Impressum | Datenschutz
 0
-StellungnahmenPresseinformationDossierVeranstaltungenArtikelAnwendungshilfenMagazinGrafikPublikationKeine Ergebnisse gefunden
-Erneuerbare EnergienAbfallAbsatz und VerbrauchAbwasserAnreizregulierungArzneimittelrückständeAus dem VerbandAusschreibungenAVVBafaBatteriespeicherBetriebswirtschaftBildung und SchuleBiogas / BiomethanBiomasseBNetzABNKBürokratieabbauCO2ContractingCorona-VirusDaten und AnalysenDaten/GrafikenDekarbonisierungDezentrale ErzeugungDigitalisierungDirektvermarktungDownloadcenter GasEEGEffizienzEigenerzeugungEigenkapitalverzinsungEigenverbrauchElektromobilitätEmissionsgrenzwerteEmissionszertifikatehandelEnergieEnergie allgemeinEnergie- und KlimapolitikEnergie- und Wasserdaten interaktivEnergieberatungEnergiebinnenmarktEnergiedienstleistungenEnergieeffizienzEnergieeinsparungEnergiehandelEnergieinfrastrukturEnergienetze und RegulierungEnergiepolitikEnergiepreiseEnergiepreiskriseEnergiespeicherEnergieversorgungEnergievertriebEnergiewendeEnergiewirtschaftEntflechtungEntgelte / GebührenEnWGErdgasErzeugungErzeugung und SystemintegrationEuropaEuropäische BeihilfepolitikFachkräfteFernwärmeFinanzierungFlexibilitätFörderungForschung und EntwicklungGasGas-MarketingGasanwendungenGasmarktGasmobilitätGasspeicherGebührenGenehmigungsverfahrenGeschäftsmodelleGesetzeGesetze und VerordnungenGrafikenGrünes GasHandelHeizkostenHeizungHeizungsmarktImmissionsschutzrechtImportIndustrieInfrastrukturInnovationInternationalesInvestitionenITIT-SicherheitKapazitätKennzahlenklimaneutrales GasKlimaschutzKlimawandelKMUKohleKohleausstiegKommunikationKonventionelle EnergienKraft-Wärme-KopplungKraftwerkeKritische InfrastrukturenKWKKWK-GLadeinfrastrukturLeitungs- und WegerechtLNGMagazin Asia CallingMagazin AufbruchMagazin DynamikMagazin EuropaMagazin GeldMagazin Generation NeuMagazin InfrastrukturMagazin MobilitätMagazin PerspektiveMagazin RisikoMagazin SchnittstelleMagazin Schulden bremsen?Magazin Stadt Land FlussMagazin StoffwechselMagazin WachstumMagazin Wer rettet den Markt?Markt- und SystemintegrationMarktdesignMarktpartnerMarktstammdatenMediathek GasMieterstromMobilitätModernisierungNaturschutzNetwork CodesNetzanschlussNetzausbauNetzbetreiberNetzeNetzentgelteNetzwirtschaftNetzzugangoffshoreOffshore-AusbauonshorePhotovoltaikPlusPower-to-GasPower-to-XPreisePressegrafikPrimärenergiePumpspeicherRechtRedispatchRegulierungsbehördeSektorkopplungSmart CitySmart GridsSmart MeterSolarthermieSpeicherStadtwerkeStart-upStatistikStromStromerzeugungStromkennzeichnungStromsteuerStudienSystemstabilitätTechnologienTelekommunikationTrinkwasserÜbertragungsnetzbetreiberUkraineUkraine-KriegUmlageUmwelt und KlimaUmweltpolitikUmweltschutzVerbrauchVerbraucherVerkehrVersorgungssicherheitVerteilnetzbetreiberVertriebWärmeWärmemarktWärmenetzWärmewendeWasserWasser/AbwasserWasserkraftWasserrechtWasserstoffWasserwirtschaftWettbewerbWindenergieWohnungswirtschaftZahl der WocheKeine Ergebnisse gefunden</t>
-        </is>
-      </c>
-      <c r="D75" s="1" t="inlineStr">
+BDEW-Ver­an­stal­tun­gen
+BDEW Kongress, Treffpunkt Netze und mehr – Seien Sie dabei!
+Mehr erfahren
+An­bie­ter­lis­te Dienst­leis­ter Re­dis­patch 2.0
+Auf der Website des BDEW finden Sie eine offene Liste mit Unternehmen, die Dienstleistungen für Anlagenbetreiber im Rahmen des neuen Redispatchregimes erbringen.
+Zur Anbieterliste
+Unterrichtsmaterialien zu aktuellen Energie- und Wasser/Abwasser-Themen
+Mehr
+In­stal­la­teur­ver­zeich­nis Strom/ Gas/ Wasser
+So gelangen Sie zu Ihren AnsprechpartnerInnen in den Landesinstallateurausschüssen
+Zur Übersicht
+VN­Bdi­gi­tal
+Netzanschluss, Netzausbaupläne und Regionalszenarien: Das Netzportal der Verteilnetzbetreiber
+Zum Portal
+Alles Wasser Volt
+Deine Zukunft für eine nachhaltige Zukunft: Bewirb Dich jetzt in der Energie- und Wasserwirtschaft
+Der BDEW begrüßt seine neuen Mitglieder
+Verstärkung für den BDEW: Erfahren Sie mehr über unsere neuen Mitglieder.
+Für Sie vor Ort: Die Landesorganisationen sind Ihr regionaler Ansprechpartner.
+Sie übernehmen die  Interessenvertretung und bearbeiten länderspezifische Themen.</t>
+        </is>
+      </c>
+      <c r="E74" s="1" t="inlineStr">
+        <is>
+          <t>There is a change</t>
+        </is>
+      </c>
+      <c r="F74" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-10 06:48:27</t>
+        </is>
+      </c>
+      <c r="G74" s="1" t="inlineStr">
+        <is>
+          <t>+ Marktprozesse im Überblick
+- Marktprozesse im Überblick
+- BDEW-Anwendungshilfen im Überblick
+- Gewusst wie: Aktuelle Leitfäden und Umsetzungshilfen des BDEW zu den Themen der Energie- und Wasserwirtschaft.
+- MEHR ERFAHREN
++ BDEW fordert „Integrierten Kapazitätsmarkt“
++ „Strommarktdesign der Zukunft“ - BDEW-Stellungnahme zu aktuellem BMWK-Papier.
++ ZUR STELLUNGNAHME
+- Trinkwassergebrauch in Hitzeperioden:
+- BDEW-Tipps für einen schonenden Umgang mit Trinkwasser in Hitzeperioden
+- ZUR PRESSEINFORMATION
++ Anwendungshilfen im Überblick
++ Gewusst wie: Aktuelle Leitfäden und Umsetzungshilfen des BDEW zu den Themen der Energie- und Wasserwirtschaft.
++ MEHR ERFAHREN
+- In­stal­la­teur­ver­zeich­nis Strom/ Gas/ Wasser
+- So gelangen Sie zu Ihren AnsprechpartnerInnen in den Landesinstallateurausschüssen
++ BDEW-We­bi­na­re
++ Die aktuellen Themen der Energie- und Wasserwirtschaft - kostenfrei für Mitgliedsunternehmen.
++ ZU DEN WEBINAREN
+- BDEW-We­bi­na­re
+- Die aktuellen Themen der Energie- und Wasserwirtschaft - kostenfrei für Mitgliedsunternehmen.
+- Zu den Webinaren
++ In­stal­la­teur­ver­zeich­nis Strom/ Gas/ Wasser
++ So gelangen Sie zu Ihren AnsprechpartnerInnen in den Landesinstallateurausschüssen
++ Zur Übersicht</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>https://www.bdew.de/energie/erneuerbare-energien/</t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="inlineStr">
         <is>
           <t>Menu
 Verband
@@ -32293,6 +32318,129 @@
 Erneuerbare EnergienAbfallAbsatz und VerbrauchAbwasserAnreizregulierungArzneimittelrückständeAus dem VerbandAusschreibungenAVVBafaBatteriespeicherBetriebswirtschaftBildung und SchuleBiogas / BiomethanBiomasseBNetzABNKBürokratieabbauCO2ContractingCorona-VirusDaten und AnalysenDaten/GrafikenDekarbonisierungDezentrale ErzeugungDigitalisierungDirektvermarktungDownloadcenter GasEEGEffizienzEigenerzeugungEigenkapitalverzinsungEigenverbrauchElektromobilitätEmissionsgrenzwerteEmissionszertifikatehandelEnergieEnergie allgemeinEnergie- und KlimapolitikEnergie- und Wasserdaten interaktivEnergieberatungEnergiebinnenmarktEnergiedienstleistungenEnergieeffizienzEnergieeinsparungEnergiehandelEnergieinfrastrukturEnergienetze und RegulierungEnergiepolitikEnergiepreiseEnergiepreiskriseEnergiespeicherEnergieversorgungEnergievertriebEnergiewendeEnergiewirtschaftEntflechtungEntgelte / GebührenEnWGErdgasErzeugungErzeugung und SystemintegrationEuropaEuropäische BeihilfepolitikFachkräfteFernwärmeFinanzierungFlexibilitätFörderungForschung und EntwicklungGasGas-MarketingGasanwendungenGasmarktGasmobilitätGasspeicherGebührenGenehmigungsverfahrenGeschäftsmodelleGesetzeGesetze und VerordnungenGrafikenGrünes GasHandelHeizkostenHeizungHeizungsmarktImmissionsschutzrechtImportIndustrieInfrastrukturInnovationInternationalesInvestitionenITIT-SicherheitKapazitätKennzahlenklimaneutrales GasKlimaschutzKlimawandelKMUKohleKohleausstiegKommunikationKonventionelle EnergienKraft-Wärme-KopplungKraftwerkeKritische InfrastrukturenKWKKWK-GLadeinfrastrukturLeitungs- und WegerechtLNGMagazin Asia CallingMagazin AufbruchMagazin DynamikMagazin EuropaMagazin GeldMagazin Generation NeuMagazin InfrastrukturMagazin MobilitätMagazin PerspektiveMagazin RisikoMagazin SchnittstelleMagazin Schulden bremsen?Magazin Stadt Land FlussMagazin StoffwechselMagazin WachstumMagazin Wer rettet den Markt?Markt- und SystemintegrationMarktdesignMarktpartnerMarktstammdatenMediathek GasMieterstromMobilitätModernisierungNaturschutzNetwork CodesNetzanschlussNetzausbauNetzbetreiberNetzeNetzentgelteNetzwirtschaftNetzzugangoffshoreOffshore-AusbauonshorePhotovoltaikPlusPower-to-GasPower-to-XPreisePressegrafikPrimärenergiePumpspeicherRechtRedispatchRegulierungsbehördeSektorkopplungSmart CitySmart GridsSmart MeterSolarthermieSpeicherStadtwerkeStart-upStatistikStromStromerzeugungStromkennzeichnungStromsteuerStudienSystemstabilitätTechnologienTelekommunikationTrinkwasserÜbertragungsnetzbetreiberUkraineUkraine-KriegUmlageUmwelt und KlimaUmweltpolitikUmweltschutzVerbrauchVerbraucherVerkehrVersorgungssicherheitVerteilnetzbetreiberVertriebWärmeWärmemarktWärmenetzWärmewendeWasserWasser/AbwasserWasserkraftWasserrechtWasserstoffWasserwirtschaftWettbewerbWindenergieWohnungswirtschaftZahl der WocheKeine Ergebnisse gefunden</t>
         </is>
       </c>
+      <c r="D75" s="1" t="inlineStr">
+        <is>
+          <t>Menu
+Verband
+Energie
+Wasser/Abwasser
+Presse
+MAGAZIN
+Service
+Übersicht
+Erdgas, Strom und Heizwärme sowie Wasser und Abwasser. Der BDEW vertritt über 2000 Unternehmen.
+Zum Verband
+Über uns
+KMU-Vertretung
+BDEW-Vertretung bei der EU
+Landesorganisationen
+Mitglieder
+Mitglied werden
+Karriere
+Kontakt und Anfahrt
+Zum Magazin
+Dossiers
+Ausgewählte Themen der Energiewirtschaft auf einen Blick.
+Wasserstoff
+Digitalisierung
+Gas
+Themen
+Elektromobilität
+Energieeffizienz
+Energiepolitik
+Erneuerbare Energien
+Sektorkopplung
+Stromerzeugung
+Wärme
+Weitere Energiethemen
+Ausführliche Informationen und Hintergründe zu aktuellen Entwicklungen in der Trinkwasser- und Abwasserwirtschaft.
+Spurenstoffe in Gewässern
+Nitrat im Grundwasser
+Abwasser
+Benchmarking und Branchenbild
+Digitalisierung der Wasserwirtschaft
+Entgelte/Gebühren
+Kommunikation
+Ordnungspolitik
+Trinkwasser
+Weitere Wasser-/Abwasserthemen
+Informationen für Journalisten
+Zum Pressecenter
+Presseinformationen
+Pressemappen
+Pressefotos
+Ansprechpartner
+"Zweitausend50" - das Online-Magazin
+STARTSEITE
+Schnittstelle
+Schulden bremsen?
+Asia Calling
+Mobilität
+ZUR ÜBERSICHT
+Der BDEW erarbeitet Branchenpositionen, findet Lösungen, erstellt Zahlenmaterial und Grafiken und bereitet diverse Informationen rund um die Themen der Energie- und Wasserwirtschaft auf.
+Anwendungshilfen
+BDEW Codes
+Bildung und Schule
+Datenplattform Stromkennzeichnung
+EDI@Energy
+Standardverträge
+Stellungnahmen
+Marktprozesse im Überblick
+Veranstaltungen
+Zu Daten und Grafiken
+Suche
+Anmelden
+Energie  Erneuerbare Energien
+Art des Inhalts
+Typ
+ZURÜCKSETZEN SUCHEN
+PRES­SE­INFOR­MA­TI­ON
+06.09.2024
+BDEW fordert In­te­grier­ten Ka­pa­zi­täts­markt
+Der BDEW hat heute seine Stel­lung­nah­me zum Papier „Strom­markt der Zukunft“ des Bun­des­wirt­schafts­mi­nis­te­ri­ums ein­ge­reicht. Hierzu erklärt Kerstin...
+STEL­LUNG­NAH­ME
+BDEW-Stel­lung­nah­me zum BMWK-Pa­pier „Strom­markt­de­sign der Zukunft“
+Ausbau der Er­neu­er­ba­ren nicht gefährden, Anreize für Fle­xi­bi­li­tät bei­be­hal­ten, Vertrauen in In­ves­ti­ons­stand­ort ge­währ­leis­ten.
+05.09.2024
+Größere Be­schleu­ni­gungs­ef­fek­te nicht in Sicht
+Das Bun­des­ka­bi­nett hat gestern hat ein Gesetz zur Be­schleu­ni­gung von Ge­neh­mi­gungs­ver­fah­ren für Geo­ther­mie­an­la­gen, Wär­me­pum­pen und Wär­me­spei­chern...
+GRAFIK
+30.08.2024
+Wind­ener­gie­an­la­gen in Deutsch­land
+Anzahl und in­stal­lier­te Leistung nach Bun­des­län­dern bzw. Nord-und Ostsee
+BDEW-Stel­lung­nah­me zum Re­fe­ren­ten­ent­wurf eines Gesetzes zur Umsetzung der RED III für Zu­las­sungs­verf ...
+Wichtige Ent­las­tung für Regionen mit besonders hohem Er­neu­er­ba­ren-Aus­bau
+Die Bun­des­netz­agen­tur (BNetzA) hat heute eine Fest­le­gung zur Ver­tei­lung der Mehr­kos­ten ver­öf­fent­licht, die in Strom­ver­tei­ler­net­zen mit besonders...
+29.08.2024
+BDEW-Stel­lung­nah­me zu den na­tur­schutz­fach­li­chen Min­dest­kri­te­ri­en bei PV-Frei­flä­chen­an­la­gen in Verbin ...
+20.08.2024
+Mo­nat­li­che Strom­er­zeu­gung in Deutsch­land
+Mo­nat­li­che Strom­er­zeu­gung aus Er­neu­er­ba­ren Energien
+Brut­to­strom­er­zeu­gung, Ver­än­de­rung zum Vor­jah­res­zeit­raum in Prozent
+Was­ser­kraft in Deutsch­land
+Nutzung der Was­ser­kraft in Deutsch­land – in­stal­lier­te Leistung und Strom­er­zeu­gung
+606 Ergebnisse | Seite
+1
+2
+3
+4
+5
+6
+›
+»
+Daten/Grafiken
+Bereiche und Abteilungen
+BDEW-Magazin
+Der BDEW in den sozialen Netzwerken:
+Zum Mitgliederbereich
+LOGIN
+2024 BDEW
+Rechtliches | Impressum | Datenschutz
+0
+StellungnahmenPresseinformationDossierVeranstaltungenArtikelAnwendungshilfenMagazinGrafikPublikationKeine Ergebnisse gefunden
+Erneuerbare EnergienAbfallAbsatz und VerbrauchAbwasserAnreizregulierungArzneimittelrückständeAus dem VerbandAusschreibungenAVVBafaBatteriespeicherBetriebswirtschaftBildung und SchuleBiogas / BiomethanBiomasseBNetzABNKBürokratieabbauCO2ContractingCorona-VirusDaten und AnalysenDaten/GrafikenDekarbonisierungDezentrale ErzeugungDigitalisierungDirektvermarktungDownloadcenter GasEEGEffizienzEigenerzeugungEigenkapitalverzinsungEigenverbrauchElektromobilitätEmissionsgrenzwerteEmissionszertifikatehandelEnergieEnergie allgemeinEnergie- und KlimapolitikEnergie- und Wasserdaten interaktivEnergieberatungEnergiebinnenmarktEnergiedienstleistungenEnergieeffizienzEnergieeinsparungEnergiehandelEnergieinfrastrukturEnergienetze und RegulierungEnergiepolitikEnergiepreiseEnergiepreiskriseEnergiespeicherEnergieversorgungEnergievertriebEnergiewendeEnergiewirtschaftEntflechtungEntgelte / GebührenEnWGErdgasErzeugungErzeugung und SystemintegrationEuropaEuropäische BeihilfepolitikFachkräfteFernwärmeFinanzierungFlexibilitätFörderungForschung und EntwicklungGasGas-MarketingGasanwendungenGasmarktGasmobilitätGasspeicherGebührenGenehmigungsverfahrenGeschäftsmodelleGesetzeGesetze und VerordnungenGrafikenGrünes GasHandelHeizkostenHeizungHeizungsmarktImmissionsschutzrechtImportIndustrieInfrastrukturInnovationInternationalesInvestitionenITIT-SicherheitKapazitätKennzahlenklimaneutrales GasKlimaschutzKlimawandelKMUKohleKohleausstiegKommunikationKonventionelle EnergienKraft-Wärme-KopplungKraftwerkeKritische InfrastrukturenKWKKWK-GLadeinfrastrukturLeitungs- und WegerechtLNGMagazin Asia CallingMagazin AufbruchMagazin DynamikMagazin EuropaMagazin FokusMagazin GeldMagazin Generation NeuMagazin InfrastrukturMagazin MobilitätMagazin PerspektiveMagazin RisikoMagazin SchnittstelleMagazin Schulden bremsen?Magazin Stadt Land FlussMagazin StoffwechselMagazin WachstumMagazin Wer rettet den Markt?Markt- und SystemintegrationMarktdesignMarktpartnerMarktstammdatenMediathek GasMieterstromMobilitätModernisierungNaturschutzNetwork CodesNetzanschlussNetzausbauNetzbetreiberNetzeNetzentgelteNetzwirtschaftNetzzugangoffshoreOffshore-AusbauonshorePhotovoltaikPlusPower-to-GasPower-to-XPreisePressegrafikPrimärenergiePumpspeicherRechtRedispatchRegulierungsbehördeSektorkopplungSmart CitySmart GridsSmart MeterSolarthermieSpeicherStadtwerkeStart-upStatistikStromStromerzeugungStromkennzeichnungStromsteuerStudienSystemstabilitätTechnologienTelekommunikationTrinkwasserÜbertragungsnetzbetreiberUkraineUkraine-KriegUmlageUmwelt und KlimaUmweltpolitikUmweltschutzVerbrauchVerbraucherVerkehrVersorgungssicherheitVerteilnetzbetreiberVertriebWärmeWärmemarktWärmenetzWärmewendeWasserWasser/AbwasserWasserkraftWasserrechtWasserstoffWasserwirtschaftWettbewerbWindenergieWohnungswirtschaftZahl der WocheKeine Ergebnisse gefunden</t>
+        </is>
+      </c>
       <c r="E75" s="1" t="inlineStr">
         <is>
           <t>There is a change</t>
@@ -32300,13 +32448,36 @@
       </c>
       <c r="F75" s="1" t="inlineStr">
         <is>
-          <t>2024-09-04 08:16:00</t>
+          <t>2024-09-10 06:48:27</t>
         </is>
       </c>
       <c r="G75" s="1" t="inlineStr">
         <is>
-          <t>+ Veranstaltungen
-- Veranstaltungen</t>
+          <t>+ Marktprozesse im Überblick
+- Marktprozesse im Überblick
++ PRES­SE­INFOR­MA­TI­ON
++ 06.09.2024
++ BDEW fordert In­te­grier­ten Ka­pa­zi­täts­markt
++ Der BDEW hat heute seine Stel­lung­nah­me zum Papier „Strom­markt der Zukunft“ des Bun­des­wirt­schafts­mi­nis­te­ri­ums ein­ge­reicht. Hierzu erklärt Kerstin...
++ STEL­LUNG­NAH­ME
++ BDEW-Stel­lung­nah­me zum BMWK-Pa­pier „Strom­markt­de­sign der Zukunft“
++ Ausbau der Er­neu­er­ba­ren nicht gefährden, Anreize für Fle­xi­bi­li­tät bei­be­hal­ten, Vertrauen in In­ves­ti­ons­stand­ort ge­währ­leis­ten.
++ 05.09.2024
++ Größere Be­schleu­ni­gungs­ef­fek­te nicht in Sicht
++ Das Bun­des­ka­bi­nett hat gestern hat ein Gesetz zur Be­schleu­ni­gung von Ge­neh­mi­gungs­ver­fah­ren für Geo­ther­mie­an­la­gen, Wär­me­pum­pen und Wär­me­spei­chern...
+- STEL­LUNG­NAH­ME
+- PRES­SE­INFOR­MA­TI­ON
+- Mo­nat­li­che Strom­er­zeu­gung aus So­lar­ener­gie in Deutsch­land
+- 19.08.2024
+- Kerstin Andreae zum Bun­des­haus­halt 2025 und zum KTF
+- + Globale Min­der­aus­ga­be ist deutlich zu groß bemessen und schürt Un­si­cher­heit + Wär­me­net­ze brauchen starke Förderung + Um­schich­tung des...
+- 16.08.2024
+- Kerstin Andreae zur Einigung auf den Bun­des­haus­halt 2025
+- Am heutigen Freitag hat sich die Am­pel-Ko­ali­ti­on auf den Bun­des­haus­halt 2025 geeinigt. Hierzu erklärt Kerstin Andreae, Vor­sit­zen­de der...
+- 602 Ergebnisse | Seite
++ 606 Ergebnisse | Seite
+- Erneuerbare EnergienAbfallAbsatz und VerbrauchAbwasserAnreizregulierungArzneimittelrückständeAus dem VerbandAusschreibungenAVVBafaBatteriespeicherBetriebswirtschaftBildung und SchuleBiogas / BiomethanBiomasseBNetzABNKBürokratieabbauCO2ContractingCorona-VirusDaten und AnalysenDaten/GrafikenDekarbonisierungDezentrale ErzeugungDigitalisierungDirektvermarktungDownloadcenter GasEEGEffizienzEigenerzeugungEigenkapitalverzinsungEigenverbrauchElektromobilitätEmissionsgrenzwerteEmissionszertifikatehandelEnergieEnergie allgemeinEnergie- und KlimapolitikEnergie- und Wasserdaten interaktivEnergieberatungEnergiebinnenmarktEnergiedienstleistungenEnergieeffizienzEnergieeinsparungEnergiehandelEnergieinfrastrukturEnergienetze und RegulierungEnergiepolitikEnergiepreiseEnergiepreiskriseEnergiespeicherEnergieversorgungEnergievertriebEnergiewendeEnergiewirtschaftEntflechtungEntgelte / GebührenEnWGErdgasErzeugungErzeugung und SystemintegrationEuropaEuropäische BeihilfepolitikFachkräfteFernwärmeFinanzierungFlexibilitätFörderungForschung und EntwicklungGasGas-MarketingGasanwendungenGasmarktGasmobilitätGasspeicherGebührenGenehmigungsverfahrenGeschäftsmodelleGesetzeGesetze und VerordnungenGrafikenGrünes GasHandelHeizkostenHeizungHeizungsmarktImmissionsschutzrechtImportIndustrieInfrastrukturInnovationInternationalesInvestitionenITIT-SicherheitKapazitätKennzahlenklimaneutrales GasKlimaschutzKlimawandelKMUKohleKohleausstiegKommunikationKonventionelle EnergienKraft-Wärme-KopplungKraftwerkeKritische InfrastrukturenKWKKWK-GLadeinfrastrukturLeitungs- und WegerechtLNGMagazin Asia CallingMagazin AufbruchMagazin DynamikMagazin EuropaMagazin GeldMagazin Generation NeuMagazin InfrastrukturMagazin MobilitätMagazin PerspektiveMagazin RisikoMagazin SchnittstelleMagazin Schulden bremsen?Magazin Stadt Land FlussMagazin StoffwechselMagazin WachstumMagazin Wer rettet den Markt?Markt- und SystemintegrationMarktdesignMarktpartnerMarktstammdatenMediathek GasMieterstromMobilitätModernisierungNaturschutzNetwork CodesNetzanschlussNetzausbauNetzbetreiberNetzeNetzentgelteNetzwirtschaftNetzzugangoffshoreOffshore-AusbauonshorePhotovoltaikPlusPower-to-GasPower-to-XPreisePressegrafikPrimärenergiePumpspeicherRechtRedispatchRegulierungsbehördeSektorkopplungSmart CitySmart GridsSmart MeterSolarthermieSpeicherStadtwerkeStart-upStatistikStromStromerzeugungStromkennzeichnungStromsteuerStudienSystemstabilitätTechnologienTelekommunikationTrinkwasserÜbertragungsnetzbetreiberUkraineUkraine-KriegUmlageUmwelt und KlimaUmweltpolitikUmweltschutzVerbrauchVerbraucherVerkehrVersorgungssicherheitVerteilnetzbetreiberVertriebWärmeWärmemarktWärmenetzWärmewendeWasserWasser/AbwasserWasserkraftWasserrechtWasserstoffWasserwirtschaftWettbewerbWindenergieWohnungswirtschaftZahl der WocheKeine Ergebnisse gefunden
++ Erneuerbare EnergienAbfallAbsatz und VerbrauchAbwasserAnreizregulierungArzneimittelrückständeAus dem VerbandAusschreibungenAVVBafaBatteriespeicherBetriebswirtschaftBildung und SchuleBiogas / BiomethanBiomasseBNetzABNKBürokratieabbauCO2ContractingCorona-VirusDaten und AnalysenDaten/GrafikenDekarbonisierungDezentrale ErzeugungDigitalisierungDirektvermarktungDownloadcenter GasEEGEffizienzEigenerzeugungEigenkapitalverzinsungEigenverbrauchElektromobilitätEmissionsgrenzwerteEmissionszertifikatehandelEnergieEnergie allgemeinEnergie- und KlimapolitikEnergie- und Wasserdaten interaktivEnergieberatungEnergiebinnenmarktEnergiedienstleistungenEnergieeffizienzEnergieeinsparungEnergiehandelEnergieinfrastrukturEnergienetze und RegulierungEnergiepolitikEnergiepreiseEnergiepreiskriseEnergiespeicherEnergieversorgungEnergievertriebEnergiewendeEnergiewirtschaftEntflechtungEntgelte / GebührenEnWGErdgasErzeugungErzeugung und SystemintegrationEuropaEuropäische BeihilfepolitikFachkräfteFernwärmeFinanzierungFlexibilitätFörderungForschung und EntwicklungGasGas-MarketingGasanwendungenGasmarktGasmobilitätGasspeicherGebührenGenehmigungsverfahrenGeschäftsmodelleGesetzeGesetze und VerordnungenGrafikenGrünes GasHandelHeizkostenHeizungHeizungsmarktImmissionsschutzrechtImportIndustrieInfrastrukturInnovationInternationalesInvestitionenITIT-SicherheitKapazitätKennzahlenklimaneutrales GasKlimaschutzKlimawandelKMUKohleKohleausstiegKommunikationKonventionelle EnergienKraft-Wärme-KopplungKraftwerkeKritische InfrastrukturenKWKKWK-GLadeinfrastrukturLeitungs- und WegerechtLNGMagazin Asia CallingMagazin AufbruchMagazin DynamikMagazin EuropaMagazin FokusMagazin GeldMagazin Generation NeuMagazin InfrastrukturMagazin MobilitätMagazin PerspektiveMagazin RisikoMagazin SchnittstelleMagazin Schulden bremsen?Magazin Stadt Land FlussMagazin StoffwechselMagazin WachstumMagazin Wer rettet den Markt?Markt- und SystemintegrationMarktdesignMarktpartnerMarktstammdatenMediathek GasMieterstromMobilitätModernisierungNaturschutzNetwork CodesNetzanschlussNetzausbauNetzbetreiberNetzeNetzentgelteNetzwirtschaftNetzzugangoffshoreOffshore-AusbauonshorePhotovoltaikPlusPower-to-GasPower-to-XPreisePressegrafikPrimärenergiePumpspeicherRechtRedispatchRegulierungsbehördeSektorkopplungSmart CitySmart GridsSmart MeterSolarthermieSpeicherStadtwerkeStart-upStatistikStromStromerzeugungStromkennzeichnungStromsteuerStudienSystemstabilitätTechnologienTelekommunikationTrinkwasserÜbertragungsnetzbetreiberUkraineUkraine-KriegUmlageUmwelt und KlimaUmweltpolitikUmweltschutzVerbrauchVerbraucherVerkehrVersorgungssicherheitVerteilnetzbetreiberVertriebWärmeWärmemarktWärmenetzWärmewendeWasserWasser/AbwasserWasserkraftWasserrechtWasserstoffWasserwirtschaftWettbewerbWindenergieWohnungswirtschaftZahl der WocheKeine Ergebnisse gefunden</t>
         </is>
       </c>
     </row>

--- a/Scraping_Results.xlsx
+++ b/Scraping_Results.xlsx
@@ -971,7 +971,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G2" s="1" t="n"/>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G3" s="1" t="n"/>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G4" s="1" t="n"/>
@@ -1968,261 +1968,6 @@
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>Home
-Systemdienstleistungen
-Betriebsfuehrung
-Kapazitätsreserve
-Veröffentlichungen zum Erbringungszeitraum 2024-2026
-Veröffentlichungen zum Erbringungszeitraum 2022-2024
-Veröffentlichungen zum Erbringungszeitraum 2020-2022
-RSS
-Die Kapazitätsreserve ist eine Reserve, die bei Knappheitssituationen am Strommarkt eingesetzt werden kann.
-Mit der Kapazitätsreserve soll nach Maßgabe des Energiewirtschaftsgesetzes (§ 13e EnWG) ab dem Winterhalbjahr 2020/2021 außerhalb des Strommarktes eine Reserve in Höhe von 2 GW gebildet werden. Diese Leistung kann von Erzeugungsanlagen, Speichern sowie regelbaren Lasten vorgehalten werden.
-Die Kapazitätsreserve ist notwendig, um in außergewöhnlichen und nicht vorhersehbaren Situationen die Systembilanz zu stützen und auf diese Weise das Gleichgewicht zwischen Stromerzeugung und -verbrauch zu erhalten.
-Zur Gewährleistung der Versorgungssicherheit soll die Kapazitätsreserve zum Einsatz kommen, wenn trotz freier Preisbildung an der Strombörse kein ausreichendes Angebot existiert, um die Nachfrage an elektrischer Energie zu decken. Die in der Kapazitätsreserve gebundenen Anlagen sollen zudem, soweit möglich, die Funktion der Netzreserve übernehmen. Sofern die Anlagen in netztechnisch geeigneten Regionen stehen, werden die Übertragungsnetzbetreiber (ÜNB) diese auch in Fällen anfordern, in denen es für die Systemsicherheit aufgrund von Netzengpässen erforderlich ist.
-Zur Bildung der Kapazitätsreserve führen die deutschen ÜNB ein gemeinsames Beschaffungsverfahren durch.
-Datum
-Von
-Open the calendar popup.
-Bis
-Download CSV
-Sofern keine Einträge in den herunterladbaren Dateien vorhanden sind, bedeutet dies, dass keine KapRes Abrufe stattgefunden haben.
-Maßgebliche Strombörse nach § 25 Abs.1 Kapazitätsreserve-Verordnung
-Die Strombörse, die im ersten Quartal des vorangegangenen Kalenderjahres das höchste Handelsvolumen für Stundenkontrakte für die Preiszone Deutschland am Spotmarkt aufgewiesen hat, ist die EPEX SPOT.
-Suchbegriff eingebenAlleSuchen
-const loadSearchApp106 = () =&gt; {
-const moduleContext = {"moduleId":106,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
-window.lotes.searchApp.create(moduleContext);
-}
-$(document).ready(function () { loadSearchApp106(); } );
-Suche
-Kontakt
-Glossar
-Web API
-DE
-EN
-Extranet
-TAM-Meldeportal
-Über uns
-Aufgaben
-Aufgabe der SG HoBA
-Planung und Betrieb des deutschen Übertragungsnetzes
-Aktuelles
-Pressebereich
-Netzentgelte
-Studien und Positionspapiere
-Informationsplattformen
-Veröffentlichungspflichten gemäß EU-Transparenzverordnung
-Erneuerbare Energien und Umlagen
-EEG
-EEG-Finanzierung
-EEG-Abrechnungen
-Transparenzanforderungen
-Archiv
-KWKG
-KWKG-Umlage
-KWKG-Abrechnung
-Sonstige Umlagen
-Offshore-Netzumlage
-§ 19 StromNEV-Umlage
-§ 18 AbLaV-Umlage
-Freiwillige Veröffentlichungen
-Wind- und Solarenergie Hochrechnung
-Wind- und Solarenergie Prognose (bis 15.12.2022)
-Regelenergie
-Ausgleichsenergiepreis
-reBAP
-AEP-Module
-Finanzielle Wirkung der AEP-Module
-AEP-Schätzer
-Index Ausgleichsenergiepreis
-Value of Avoided Activation (VoAA)
-NRV- und RZ-Saldo
-NRV-Saldo-Ampel
-NRV-Saldo
-RZ-Saldo
-Daten Regelreserve
-Aktivierte Regelleistung
-Optimierte Regelleistung
-Difference (ungewollter Austausch)
-Sondermaßnahmen zum Bilanzausgleich
-Sekündliche Daten
-MOL-Abweichungen
-Altdaten-Archiv
-Abschaltbare Lasten (AbLaV)
-aFRR AT/DE-Kooperation
-mFRR AT/DE-Kooperation „GAMMA“
-IGCC-Datenpunkte
-Frequenzhaltung
-Spannungshaltung
-Blindleistung
-Redispatch
-Elektrolyseanlagen
-Freiwillige Lastreduktion
-Nutzen statt Abregeln
-Fahrplanmanagement
-Versorgungswiederaufbau
-Marktgestützte Beschaffung von Schwarzstartfähigkeit
-Strommarktdesign
-Strommarkt-Forum
-CACM-Verordnung
-Generation and load data provision methodology - GLDPM
-Clean Energy Package
-Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
-Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
-Electricity Balancing (EB)
-Bilanzkreisvertrag
-ER-Verordnung
-FCA-Verordnung
-SO-Verordnung
-CGMMv3
-Datenaustausch
-RfG-Verordnung
-4ÜNB-Studie zur Ausarbeitung eines Kapazitätsmechanismus für den deutschen Strommarkt
-Strompreisbremse
-Impressum
-Datenschutz
-FAQ
-Login
-Suchbegriff eingeben
-Alle
-Calendar
-Title and navigation
-&lt;&lt;&lt;Oktober 2020&gt;&lt;&lt;
-Oktober 2020
-MDMDFSS
-402829301234
-41567891011
-4212131415161718
-4319202122232425
-442627282930311
-452345678
-ME(S)ZUTC
-{1}
-##LOC[OK]##
-function RadWindowprompt_detectenter(id, ev, input)
-{
-if (!ev) ev = window.event;
-if (ev.keyCode == 13)
-var but = input.parentNode.parentNode.getElementsByTagName("A")[0];
-if (but)
-if (but.click) but.click();
-else if (but.onclick)
-but.focus(); var click = but.onclick; but.onclick = null; if (click) click.call(but);
-return false;
-else return true;
-##LOC[Cancel]##
-EEG-Finanzierungsbedarf
-EEG-Finanzierungsbedarf 2024
-EEG-Finanzierungsbedarf 2023
-EEG-Umlagen
-EEG-Umlage 2022
-EEG-Umlage 2021
-EEG-Umlage 2020
-EEG-Umlage 2019
-EEG-Umlagen der Vorjahre
-Mittelfristprognosen
-Mittelfristprognose 2024-2028
-Mittelfristprognose 2023-2027
-Mittelfristprognose 2022-2026
-Mittelfristprognose 2021-2025
-Mittelfristprognose 2020-2024
-Mittelfristprognose Vorjahre
-EEG-Jahresabrechnungen
-EEG-Anlagenstammdaten
-EEG-Jahresabrechnungen 2022-2000
-IDW-Prüfungshinweis
-Archiv IDW-Prüfungshinweise
-Hinweis Korrekturen Jahresabrechnung EEG Umlage
-Abwicklungshinweise und Umsetzungshilfen
-Messen und Schätzen
-Besondere Ausgleichsregelung
-Ausgeförderte Anlagen
-Abzugsbetrag 2024
-Abzugsbetrag 2023
-Abzugsbetrag 2022
-Aufschlag 2021 für Windenergieanlagen
-Umlageprivileg für Stromspeicher
-Marktprämie
-Online-Hochrechnung der tatsächlichen Erzeugung von Strom aus Windenergie Onshore
-Online-Hochrechnung der tatsächlichen Erzeugung von Strom aus Windenergie Offshore
-Online-Hochrechnung der tatsächlichen Erzeugung von Strom aus Solarenergie
-Marktwertübersicht
-Negativer Spotmarktpreis – Übersichtstabellen
-Spotmarktpreis nach § 3 Nr. 42a EEG
-ÜNB-Vermarktung
-EEG-Kontenübersicht
-Ausfall- und Direktvermarktung
-Datenmeldung EEG-Umlage
-Hinweis zu § 104 Abs. 4 EEG 2017 – Amnestieregelung
-Systemstabilitätsverordnung
-Abwicklung vor 2010
-Monatsprognosen 2009
-Monatsprognosen 2008
-Monatsprognosen 2007
-Monatsprognosen 2006
-Monatsprognosen bis 2005
-Profilwälzung
-KWKG-Umlagen-Übersicht
-KWKG-Umlage 2024
-KWKG-Umlage 2023
-KWKG-Umlage 2022
-KWKG-Umlage 2021
-KWKG-Umlage 2020
-KWKG-Aufschläge Vorjahre
-KWKG-Jahresabrechnungen
-IDW-Prüfungshinweis KWKG
-Archiv-IDW-Prüfungshinweise KWKG
-Tool zur Berechnung der reduzierten KWKG-Umlage
-Negative Preise
-KWKG-Kontenübersicht
-Offshore-Netzumlagen-Übersicht
-Offshore Netzumlage 2024
-Offshore Netzumlage 2023
-Offshore Netzumlage 2022
-Offshore Netzumlage 2021
-Offshore Netzumlage 2020
-Offshore Netzumlage der Vorjahre
-Jahresabrechnungen der Offshore-Netzumlage
-Tool zur Berechnung der reduzierten Offshore-Netzumlage
-§ 19 StromNEV-Umlagen-Übersicht
-§ 19 StromNEV-Umlage 2024
-§ 19 StromNEV-Umlage 2023
-§ 19 StromNEV-Umlage 2022
-§ 19 StromNEV-Umlage 2021
-§ 19 StromNEV-Umlage 2020
-§ 19 StromNEV-Umlage Vorjahre
-Terminkette zur Abwicklung der § 19 StromNEV-Umlage
-Jahresabrechnung
-Tool zur Berechnung der reduzierten StromNEV-Umlage
-AbLaV-Umlagen-Übersicht
-Umlage nach § 18 AbLaV für das Jahr 2022
-Umlage nach § 18 AbLaV für das Jahr 2021
-Umlage nach § 18 AbLaV für das Jahr 2020
-Umlage nach § 18 AbLaV für das Jahr 2019
-Umlage nach § 18 AbLaV für das Jahr 2018
-AbLaV-Umlage der Jahre 2014 bis 2022
-Jahresabrechnungen der Abschaltbare Lasten-Umlage
-Einheitliche Auslegung von E-STATCOM
-Abrechnung BDEW-Übergangslösung
-Redispatch 2.0 an der Schnittstelle ÜNB-VNB
-Kalkulatorische Preise
-Harmonisierter Aktivierungsprozess
-ÜNB-Umsetzungskonzept
-Entlastungsregionen
-Vertragsunterlagen
-ÜNB-Parameter
-Informationsveranstaltungen für potenzielle Teilnehmer
-Koordination mit VNB
-Implementierungsvorschriften
-Beschlüsse
-Konsultation
-Konsultation Bilanzkreisvertrag 2023
-Konsultation Bilanzkreisvertrag 2019</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
         <is>
           <t>Home
 Systemdienstleistungen
@@ -2484,27 +2229,279 @@
 Konsultation Bilanzkreisvertrag 2019</t>
         </is>
       </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Home
+Systemdienstleistungen
+Betriebsfuehrung
+Kapazitätsreserve
+Veröffentlichungen zum Erbringungszeitraum 2024-2026
+Veröffentlichungen zum Erbringungszeitraum 2022-2024
+Veröffentlichungen zum Erbringungszeitraum 2020-2022
+RSS
+Die Kapazitätsreserve ist eine Reserve, die bei Knappheitssituationen am Strommarkt eingesetzt werden kann.
+Mit der Kapazitätsreserve soll nach Maßgabe des Energiewirtschaftsgesetzes (§ 13e EnWG) ab dem Winterhalbjahr 2020/2021 außerhalb des Strommarktes eine Reserve in Höhe von 2 GW gebildet werden. Diese Leistung kann von Erzeugungsanlagen, Speichern sowie regelbaren Lasten vorgehalten werden.
+Die Kapazitätsreserve ist notwendig, um in außergewöhnlichen und nicht vorhersehbaren Situationen die Systembilanz zu stützen und auf diese Weise das Gleichgewicht zwischen Stromerzeugung und -verbrauch zu erhalten.
+Zur Gewährleistung der Versorgungssicherheit soll die Kapazitätsreserve zum Einsatz kommen, wenn trotz freier Preisbildung an der Strombörse kein ausreichendes Angebot existiert, um die Nachfrage an elektrischer Energie zu decken. Die in der Kapazitätsreserve gebundenen Anlagen sollen zudem, soweit möglich, die Funktion der Netzreserve übernehmen. Sofern die Anlagen in netztechnisch geeigneten Regionen stehen, werden die Übertragungsnetzbetreiber (ÜNB) diese auch in Fällen anfordern, in denen es für die Systemsicherheit aufgrund von Netzengpässen erforderlich ist.
+Zur Bildung der Kapazitätsreserve führen die deutschen ÜNB ein gemeinsames Beschaffungsverfahren durch.
+Datum
+Von
+Open the calendar popup.
+Bis
+Download CSV
+Sofern keine Einträge in den herunterladbaren Dateien vorhanden sind, bedeutet dies, dass keine KapRes Abrufe stattgefunden haben.
+Maßgebliche Strombörse nach § 25 Abs.1 Kapazitätsreserve-Verordnung
+Die Strombörse, die im ersten Quartal des vorangegangenen Kalenderjahres das höchste Handelsvolumen für Stundenkontrakte für die Preiszone Deutschland am Spotmarkt aufgewiesen hat, ist die EPEX SPOT.
+Auswirkungen der neuen Intraday Auktionen (IDAs) für die Aktivierung der Kapazitätsreserve
+Die bisherige ID-Auktion um 15 Uhr für den Folgetag wurde seit dem 13.06.2024 durch die folgenden drei neuen europäischen Intraday (ID) Auktionen ersetzt:
+1)       IDA1 um 15 Uhr für den Folgetag,
+2)       IDA2 um 22 Uhr für den Folgetag und
+3)       IDA3 um 10 Uhr für den Zeitraum 12-24 Uhr des gleichen Tages.
+Grundlage für die Einführung dieser neuen ID-Auktionen stellt die geänderte europäische CACM-Verordnung dar (VERORDNUNG (EU) 2015/1222 DER KOMMISSION vom 24. Juli 2015); nähere Infos: https://www.nemo-committee.eu/assets/files/IDAs-information%20package-final-c0ca4ca554dd80597fdb286076f79017.pdf
+Eine ausbleibende Markträumung in einer der drei europäischen Auktionen, einschließlich der zusätzlichen Zeitpunkte der neuen IDA2 und IDA3, ist für die Aktivierung der Kapazitätsreserve maßgeblich.
+Suchbegriff eingebenAlleSuchen
+const loadSearchApp106 = () =&gt; {
+const moduleContext = {"moduleId":106,"tabId":0,"searchApiUrl":"https://cs.50hertz.com/api/","languageTag":"de-DE","redirectAfterSearchUrl":"https://www.netztransparenz.de/de-de/Suchergebnisse","showSearchInput":true,"showSearchInputFilter":true,"showSearchResultHitlist":false,"showSearchResultHitlistFilter":false,"isInternalSearch":false,"searchAppPortal":"ntp"}
+window.lotes.searchApp.create(moduleContext);
+}
+$(document).ready(function () { loadSearchApp106(); } );
+Suche
+Kontakt
+Glossar
+Web API
+DE
+EN
+Extranet
+TAM-Meldeportal
+Über uns
+Aufgaben
+Aufgabe der SG HoBA
+Planung und Betrieb des deutschen Übertragungsnetzes
+Aktuelles
+Pressebereich
+Netzentgelte
+Studien und Positionspapiere
+Informationsplattformen
+Veröffentlichungspflichten gemäß EU-Transparenzverordnung
+Erneuerbare Energien und Umlagen
+EEG
+EEG-Finanzierung
+EEG-Abrechnungen
+Transparenzanforderungen
+Archiv
+KWKG
+KWKG-Umlage
+KWKG-Abrechnung
+Sonstige Umlagen
+Offshore-Netzumlage
+§ 19 StromNEV-Umlage
+§ 18 AbLaV-Umlage
+Freiwillige Veröffentlichungen
+Wind- und Solarenergie Hochrechnung
+Wind- und Solarenergie Prognose (bis 15.12.2022)
+Regelenergie
+Ausgleichsenergiepreis
+reBAP
+AEP-Module
+Finanzielle Wirkung der AEP-Module
+AEP-Schätzer
+Index Ausgleichsenergiepreis
+Value of Avoided Activation (VoAA)
+NRV- und RZ-Saldo
+NRV-Saldo-Ampel
+NRV-Saldo
+RZ-Saldo
+Daten Regelreserve
+Aktivierte Regelleistung
+Optimierte Regelleistung
+Difference (ungewollter Austausch)
+Sondermaßnahmen zum Bilanzausgleich
+Sekündliche Daten
+MOL-Abweichungen
+Altdaten-Archiv
+Abschaltbare Lasten (AbLaV)
+aFRR AT/DE-Kooperation
+mFRR AT/DE-Kooperation „GAMMA“
+IGCC-Datenpunkte
+Frequenzhaltung
+Spannungshaltung
+Blindleistung
+Redispatch
+Elektrolyseanlagen
+Freiwillige Lastreduktion
+Nutzen statt Abregeln
+Fahrplanmanagement
+Versorgungswiederaufbau
+Marktgestützte Beschaffung von Schwarzstartfähigkeit
+Strommarktdesign
+Strommarkt-Forum
+CACM-Verordnung
+Generation and load data provision methodology - GLDPM
+Clean Energy Package
+Teilnahme von deutschen Anlagen am belgischen Kapazitätsmechanismus
+Teilnahme von deutschen Anlagen am polnischen Kapazitätsmechanismus
+Electricity Balancing (EB)
+Bilanzkreisvertrag
+ER-Verordnung
+FCA-Verordnung
+SO-Verordnung
+CGMMv3
+Datenaustausch
+RfG-Verordnung
+4ÜNB-Studie zur Ausarbeitung eines Kapazitätsmechanismus für den deutschen Strommarkt
+Strompreisbremse
+Impressum
+Datenschutz
+FAQ
+Login
+Suchbegriff eingeben
+Alle
+Calendar
+Title and navigation
+&lt;&lt;&lt;Oktober 2020&gt;&lt;&lt;
+Oktober 2020
+MDMDFSS
+402829301234
+41567891011
+4212131415161718
+4319202122232425
+442627282930311
+452345678
+ME(S)ZUTC
+{1}
+##LOC[OK]##
+function RadWindowprompt_detectenter(id, ev, input)
+{
+if (!ev) ev = window.event;
+if (ev.keyCode == 13)
+var but = input.parentNode.parentNode.getElementsByTagName("A")[0];
+if (but)
+if (but.click) but.click();
+else if (but.onclick)
+but.focus(); var click = but.onclick; but.onclick = null; if (click) click.call(but);
+return false;
+else return true;
+##LOC[Cancel]##
+EEG-Finanzierungsbedarf
+EEG-Finanzierungsbedarf 2024
+EEG-Finanzierungsbedarf 2023
+EEG-Umlagen
+EEG-Umlage 2022
+EEG-Umlage 2021
+EEG-Umlage 2020
+EEG-Umlage 2019
+EEG-Umlagen der Vorjahre
+Mittelfristprognosen
+Mittelfristprognose 2024-2028
+Mittelfristprognose 2023-2027
+Mittelfristprognose 2022-2026
+Mittelfristprognose 2021-2025
+Mittelfristprognose 2020-2024
+Mittelfristprognose Vorjahre
+EEG-Jahresabrechnungen
+EEG-Anlagenstammdaten
+EEG-Jahresabrechnungen 2022-2000
+IDW-Prüfungshinweis
+Archiv IDW-Prüfungshinweise
+Hinweis Korrekturen Jahresabrechnung EEG Umlage
+Abwicklungshinweise und Umsetzungshilfen
+Messen und Schätzen
+Besondere Ausgleichsregelung
+Ausgeförderte Anlagen
+Abzugsbetrag 2024
+Abzugsbetrag 2023
+Abzugsbetrag 2022
+Aufschlag 2021 für Windenergieanlagen
+Umlageprivileg für Stromspeicher
+Marktprämie
+Online-Hochrechnung der tatsächlichen Erzeugung von Strom aus Windenergie Onshore
+Online-Hochrechnung der tatsächlichen Erzeugung von Strom aus Windenergie Offshore
+Online-Hochrechnung der tatsächlichen Erzeugung von Strom aus Solarenergie
+Marktwertübersicht
+Negativer Spotmarktpreis – Übersichtstabellen
+Spotmarktpreis nach § 3 Nr. 42a EEG
+ÜNB-Vermarktung
+EEG-Kontenübersicht
+Ausfall- und Direktvermarktung
+Datenmeldung EEG-Umlage
+Hinweis zu § 104 Abs. 4 EEG 2017 – Amnestieregelung
+Systemstabilitätsverordnung
+Abwicklung vor 2010
+Monatsprognosen 2009
+Monatsprognosen 2008
+Monatsprognosen 2007
+Monatsprognosen 2006
+Monatsprognosen bis 2005
+Profilwälzung
+KWKG-Umlagen-Übersicht
+KWKG-Umlage 2024
+KWKG-Umlage 2023
+KWKG-Umlage 2022
+KWKG-Umlage 2021
+KWKG-Umlage 2020
+KWKG-Aufschläge Vorjahre
+KWKG-Jahresabrechnungen
+IDW-Prüfungshinweis KWKG
+Archiv-IDW-Prüfungshinweise KWKG
+Tool zur Berechnung der reduzierten KWKG-Umlage
+Negative Preise
+KWKG-Kontenübersicht
+Offshore-Netzumlagen-Übersicht
+Offshore Netzumlage 2024
+Offshore Netzumlage 2023
+Offshore Netzumlage 2022
+Offshore Netzumlage 2021
+Offshore Netzumlage 2020
+Offshore Netzumlage der Vorjahre
+Jahresabrechnungen der Offshore-Netzumlage
+Tool zur Berechnung der reduzierten Offshore-Netzumlage
+§ 19 StromNEV-Umlagen-Übersicht
+§ 19 StromNEV-Umlage 2024
+§ 19 StromNEV-Umlage 2023
+§ 19 StromNEV-Umlage 2022
+§ 19 StromNEV-Umlage 2021
+§ 19 StromNEV-Umlage 2020
+§ 19 StromNEV-Umlage Vorjahre
+Terminkette zur Abwicklung der § 19 StromNEV-Umlage
+Jahresabrechnung
+Tool zur Berechnung der reduzierten StromNEV-Umlage
+AbLaV-Umlagen-Übersicht
+Umlage nach § 18 AbLaV für das Jahr 2022
+Umlage nach § 18 AbLaV für das Jahr 2021
+Umlage nach § 18 AbLaV für das Jahr 2020
+Umlage nach § 18 AbLaV für das Jahr 2019
+Umlage nach § 18 AbLaV für das Jahr 2018
+AbLaV-Umlage der Jahre 2014 bis 2022
+Jahresabrechnungen der Abschaltbare Lasten-Umlage
+Einheitliche Auslegung von E-STATCOM
+Abrechnung BDEW-Übergangslösung
+Redispatch 2.0 an der Schnittstelle ÜNB-VNB
+Kalkulatorische Preise
+Harmonisierter Aktivierungsprozess
+ÜNB-Umsetzungskonzept
+Entlastungsregionen
+Vertragsunterlagen
+ÜNB-Parameter
+Informationsveranstaltungen für potenzielle Teilnehmer
+Koordination mit VNB
+Implementierungsvorschriften
+Beschlüsse
+Konsultation
+Konsultation Bilanzkreisvertrag 2023
+Konsultation Bilanzkreisvertrag 2019</t>
+        </is>
+      </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>There is a change</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>+ Auswirkungen der neuen Intraday Auktionen (IDAs) für die Aktivierung der Kapazitätsreserve
-+ Die bisherige ID-Auktion um 15 Uhr für den Folgetag wurde seit dem 13.06.2024 durch die folgenden drei neuen europäischen Intraday (ID) Auktionen ersetzt:
-+ 1)       IDA1 um 15 Uhr für den Folgetag,
-+ 2)       IDA2 um 22 Uhr für den Folgetag und
-+ 3)       IDA3 um 10 Uhr für den Zeitraum 12-24 Uhr des gleichen Tages.
-+ Grundlage für die Einführung dieser neuen ID-Auktionen stellt die geänderte europäische CACM-Verordnung dar (VERORDNUNG (EU) 2015/1222 DER KOMMISSION vom 24. Juli 2015); nähere Infos: https://www.nemo-committee.eu/assets/files/IDAs-information%20package-final-c0ca4ca554dd80597fdb286076f79017.pdf
-+ Eine ausbleibende Markträumung in einer der drei europäischen Auktionen, einschließlich der zusätzlichen Zeitpunkte der neuen IDA2 und IDA3, ist für die Aktivierung der Kapazitätsreserve maßgeblich.</t>
-        </is>
-      </c>
+          <t>2024-09-11 09:08:21</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -2974,7 +2971,7 @@
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G6" s="1" t="n"/>
@@ -3457,7 +3454,7 @@
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G7" s="1" t="n"/>
@@ -4006,7 +4003,7 @@
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G8" s="1" t="n"/>
@@ -4465,7 +4462,7 @@
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G9" s="1" t="n"/>
@@ -4924,7 +4921,7 @@
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G10" s="1" t="n"/>
@@ -5441,7 +5438,7 @@
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G11" s="1" t="n"/>
@@ -5912,7 +5909,7 @@
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G12" s="1" t="n"/>
@@ -6369,7 +6366,7 @@
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G13" s="1" t="n"/>
@@ -6820,7 +6817,7 @@
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G14" s="1" t="n"/>
@@ -7271,7 +7268,7 @@
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G15" s="1" t="n"/>
@@ -7744,7 +7741,7 @@
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G16" s="1" t="n"/>
@@ -7809,7 +7806,7 @@
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
@@ -8050,7 +8047,7 @@
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G18" s="1" t="n"/>
@@ -8439,7 +8436,7 @@
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G19" s="1" t="n"/>
@@ -8620,7 +8617,7 @@
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G20" s="1" t="n"/>
@@ -8797,7 +8794,7 @@
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G21" s="1" t="n"/>
@@ -8982,7 +8979,7 @@
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G22" s="1" t="n"/>
@@ -9209,7 +9206,7 @@
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G23" s="1" t="n"/>
@@ -9408,7 +9405,7 @@
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G24" s="1" t="n"/>
@@ -9571,7 +9568,7 @@
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G25" s="1" t="n"/>
@@ -9728,7 +9725,7 @@
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G26" s="1" t="n"/>
@@ -9883,7 +9880,7 @@
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G27" s="1" t="n"/>
@@ -10278,7 +10275,7 @@
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G28" s="1" t="n"/>
@@ -10619,7 +10616,7 @@
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G29" s="1" t="n"/>
@@ -10796,7 +10793,7 @@
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G30" s="1" t="n"/>
@@ -11059,7 +11056,7 @@
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G31" s="1" t="n"/>
@@ -11260,7 +11257,7 @@
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G32" s="1" t="n"/>
@@ -11273,91 +11270,6 @@
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t>ENTSO-E publishes
-the first Offshore Network Development Plans
-Paving the way towards the implementation
-of European Offshore renewable energy targets
-Discover ONDP here
-Latest News
-25/07/2024
-ENTSO-E publishes guidance document to Member States for Offshore Network Development Plans 2026
-15/07/2024
-Grid incident in south-eastern part of the Continental Europe power system - Update
-10/07/2024
-ENTSO-E Research, Development &amp; Innovation Roadmap 2024 – 2034
-28/06/2024
-ENTSO-E publishes the Market Report 2024, the Balancing Report 2024 and the Electricity Balancing (EB) Cost Report 2024
-26/06/2024
-Empowering and fast-tracking Europe’s Transmission Grid Expansion and Deployment
-See all news
-ENTSO-E
-STRATEGIC
-ROADMAP
-Discover here
-A Power System for a Carbon Neutral Europe
-Energy transition is underway, we help you to keep up with the new technologies related to the Transmission System Operators. Explore ENTSO-E Technopedia
-We are looking for new talents. View open positions
-Positions
-2/08/2024
-Adapting TSOs regulatory systems to finance massive grid investments
-16/07/2024
-ENTSO-E Position on Forward Markets
-20/02/2024
-Position Paper on Sustainable Contracts for Difference Design
-16/11/2023
-ENTSO-E's Recommendations for the Announced EU Grid Action Plan
-26/10/2023
-ENTSO-E assessment on the EU Legislative proposal for a Regulation to improve the Union’s electricity market design - trilogues
-Past positions
-Consultations
-Closing in 10 days
-Proposal for Amendment of Methodology for the market-based allocation process of cross-zonal capacity for the exchange of balancing capacity for the Baltic CCR
-13/09/2024
-Closing in a month
-Amendment to the TSO-TSO settlement mechanism for the FCR Cooperation
-04/10/2024
-See all past consultations
-Future Events
-See all events
-GET THE MOST POWERFUL NEWSLETTER IN BRUSSELS
-Network Codes &amp; CEP
-Data &amp; Standardisation
-Innovation
-Outlooks
-Regions
-Publications
-About
-Login
-Network Codes &amp; CEPData &amp; StandardisationInnovationOutlooksRegionsPublicationsAboutTransparency PlatformCommon Information ModelStandardisationEU Grid MapNewsEventsCareersOur StaffExtranet
-Transparency PlatformCommon Information ModelStandardisationEU Grid MapNewsEventsCareersOur StaffExtranet
-Button
-Our Work
-Network Codes
-Transparency Platform
-Power Regions
-Common Information Model
-Position Papers
-Standardisation
-EU Grid Map
-Association
-News
-Events
-Members
-Careers
-Governance
-Our Staff
-Contact
-Extranet
-Stay updated
-Twitter
-YouTube
-LinkedIn
-© 2009-2024  ENTSO-E
-Sitemap Suppliers Disclaimer Privacy Policy Cookie Policy Website feedback to info@entsoe.eu</t>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
         <is>
           <t>ENTSO-E publishes
 the first Offshore Network Development Plans
@@ -11442,6 +11354,91 @@
 Sitemap Suppliers Disclaimer Privacy Policy Cookie Policy Website feedback to info@entsoe.eu</t>
         </is>
       </c>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>ENTSO-E publishes
+the first Offshore Network Development Plans
+Paving the way towards the implementation
+of European Offshore renewable energy targets
+Discover ONDP here
+Latest News
+25/07/2024
+ENTSO-E publishes guidance document to Member States for Offshore Network Development Plans 2026
+15/07/2024
+Grid incident in south-eastern part of the Continental Europe power system - Update
+10/07/2024
+ENTSO-E Research, Development &amp; Innovation Roadmap 2024 – 2034
+28/06/2024
+ENTSO-E publishes the Market Report 2024, the Balancing Report 2024 and the Electricity Balancing (EB) Cost Report 2024
+26/06/2024
+Empowering and fast-tracking Europe’s Transmission Grid Expansion and Deployment
+See all news
+ENTSO-E
+STRATEGIC
+ROADMAP
+Discover here
+A Power System for a Carbon Neutral Europe
+Energy transition is underway, we help you to keep up with the new technologies related to the Transmission System Operators. Explore ENTSO-E Technopedia
+We are looking for new talents. View open positions
+Positions
+2/08/2024
+Adapting TSOs regulatory systems to finance massive grid investments
+16/07/2024
+ENTSO-E Position on Forward Markets
+20/02/2024
+Position Paper on Sustainable Contracts for Difference Design
+16/11/2023
+ENTSO-E's Recommendations for the Announced EU Grid Action Plan
+26/10/2023
+ENTSO-E assessment on the EU Legislative proposal for a Regulation to improve the Union’s electricity market design - trilogues
+Past positions
+Consultations
+Closing in 3 days
+Proposal for Amendment of Methodology for the market-based allocation process of cross-zonal capacity for the exchange of balancing capacity for the Baltic CCR
+13/09/2024
+Closing in 24 days
+Amendment to the TSO-TSO settlement mechanism for the FCR Cooperation
+04/10/2024
+See all past consultations
+Future Events
+See all events
+GET THE MOST POWERFUL NEWSLETTER IN BRUSSELS
+Network Codes &amp; CEP
+Data &amp; Standardisation
+Innovation
+Outlooks
+Regions
+Publications
+About
+Login
+Network Codes &amp; CEPData &amp; StandardisationInnovationOutlooksRegionsPublicationsAboutTransparency PlatformCommon Information ModelStandardisationEU Grid MapNewsEventsCareersOur StaffExtranet
+Transparency PlatformCommon Information ModelStandardisationEU Grid MapNewsEventsCareersOur StaffExtranet
+Button
+Our Work
+Network Codes
+Transparency Platform
+Power Regions
+Common Information Model
+Position Papers
+Standardisation
+EU Grid Map
+Association
+News
+Events
+Members
+Careers
+Governance
+Our Staff
+Contact
+Extranet
+Stay updated
+Twitter
+YouTube
+LinkedIn
+© 2009-2024  ENTSO-E
+Sitemap Suppliers Disclaimer Privacy Policy Cookie Policy Website feedback to info@entsoe.eu</t>
+        </is>
+      </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
           <t>There is a change</t>
@@ -11449,15 +11446,15 @@
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
         <is>
-          <t>- Closing in 10 days
-+ Closing in 4 days
-- Closing in a month
-+ Closing in 25 days</t>
+          <t>- Closing in 4 days
++ Closing in 3 days
+- Closing in 25 days
++ Closing in 24 days</t>
         </is>
       </c>
     </row>
@@ -11473,44 +11470,6 @@
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t>Join LinkedIn
-Email
-Password (6+ characters)
-By clicking Agree &amp; Join, you agree to the LinkedIn User Agreement, Privacy Policy, and Cookie Policy.
-Agree &amp; Join
-or
-Already on Linkedin? Sign in
-Agree &amp; Join LinkedIn
-By clicking Continue to join or sign in, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
-Skip to main content
-LinkedIn
-© 2024
-About
-Accessibility
-User Agreement
-Privacy Policy
-Your California Privacy Choices
-Cookie Policy
-Copyright Policy
-Brand Policy
-Guest Controls
-Community Guidelines
-Language
-Not you?
-Remove photo
-First name
-Last name
-Sign in
-Email or phone
-Password
-Show
-Forgot password?
-Continue with GoogleContinue with Google
-New to Linkedin?  Join now</t>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
         <is>
           <t>Sign in
 Sign in with Apple
@@ -11573,6 +11532,73 @@
 正體中文 (Chinese (Traditional))</t>
         </is>
       </c>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t>LinkedIn and 3rd parties use essential and non-essential cookies to provide, secure, analyze and improve our Services, and to show you relevant ads (including professional and job ads) on and off LinkedIn. Learn more in our Cookie Policy.
+Select Accept to consent or Reject to decline non-essential cookies for this use. You can update your choices at any time in your settings.
+Accept Reject
+Sign in
+Stay updated on your professional world.
+Email or phone
+Password
+Show
+Forgot password?
+or
+By clicking Continue, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
+Sign in with Apple
+Sign in with a passkey
+New to LinkedIn? Join now
+LinkedIn
+© 2024
+User Agreement
+Privacy Policy
+Community Guidelines
+Cookie Policy
+Copyright Policy
+Send Feedback
+Language
+We’ve emailed a one-time link to your primary email address
+Click on the link to sign in instantly to your LinkedIn account.
+If you don’t see the email in your inbox, check your spam folder.
+Resend email
+Back
+Agree &amp; Join LinkedIn
+العربية (Arabic)
+বাংলা (Bangla)
+Čeština (Czech)
+Dansk (Danish)
+Deutsch (German)
+Ελληνικά (Greek)
+English (English)
+Español (Spanish)
+Suomi (Finnish)
+Français (French)
+हिंदी (Hindi)
+Magyar (Hungarian)
+Bahasa Indonesia (Indonesian)
+Italiano (Italian)
+日本語 (Japanese)
+한국어 (Korean)
+मराठी (Marathi)
+Bahasa Malaysia (Malay)
+Nederlands (Dutch)
+Norsk (Norwegian)
+ਪੰਜਾਬੀ (Punjabi)
+Polski (Polish)
+Português (Portuguese)
+Română (Romanian)
+Русский (Russian)
+Svenska (Swedish)
+తెలుగు (Telugu)
+ภาษาไทย (Thai)
+Tagalog (Tagalog)
+Türkçe (Turkish)
+Українська (Ukrainian)
+Tiếng Việt (Vietnamese)
+简体中文 (Chinese (Simplified))
+正體中文 (Chinese (Traditional))</t>
+        </is>
+      </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
           <t>There is a change</t>
@@ -11580,94 +11606,23 @@
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
         <is>
-          <t>+ Sign in
+          <t>+ LinkedIn and 3rd parties use essential and non-essential cookies to provide, secure, analyze and improve our Services, and to show you relevant ads (including professional and job ads) on and off LinkedIn. Learn more in our Cookie Policy.
++ Select Accept to consent or Reject to decline non-essential cookies for this use. You can update your choices at any time in your settings.
++ Accept Reject
++ Stay updated on your professional world.
+- Sign in with Apple
+- Sign in with a passkey
+- or
++ or
++ By clicking Continue, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
 + Sign in with Apple
 + Sign in with a passkey
-- Join LinkedIn
-- Email
-- Password (6+ characters)
-- By clicking Agree &amp; Join, you agree to the LinkedIn User Agreement, Privacy Policy, and Cookie Policy.
-- Agree &amp; Join
-- Already on Linkedin? Sign in
-- Agree &amp; Join LinkedIn
-- By clicking Continue to join or sign in, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
-- Skip to main content
-- LinkedIn
-- © 2024
-- About
-- Accessibility
-- User Agreement
-- Privacy Policy
-- Your California Privacy Choices
-- Cookie Policy
-- Copyright Policy
-- Brand Policy
-- Guest Controls
-- Community Guidelines
-- Language
-- Not you?
-- Remove photo
-- First name
-- Last name
-- Sign in
-- Continue with GoogleContinue with Google
-- New to Linkedin?  Join now
-+ New to LinkedIn? Join now
-+ LinkedIn
-+ © 2024
-+ User Agreement
-+ Privacy Policy
-+ Community Guidelines
-+ Cookie Policy
-+ Copyright Policy
-+ Send Feedback
-+ Language
-+ We’ve emailed a one-time link to your primary email address
-+ Click on the link to sign in instantly to your LinkedIn account.
-+ If you don’t see the email in your inbox, check your spam folder.
-+ Resend email
-+ Back
-+ Agree &amp; Join LinkedIn
-+ By clicking Continue, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.
-+ العربية (Arabic)
-+ বাংলা (Bangla)
-+ Čeština (Czech)
-+ Dansk (Danish)
-+ Deutsch (German)
-+ Ελληνικά (Greek)
-+ English (English)
-+ Español (Spanish)
-+ Suomi (Finnish)
-+ Français (French)
-+ हिंदी (Hindi)
-+ Magyar (Hungarian)
-+ Bahasa Indonesia (Indonesian)
-+ Italiano (Italian)
-+ 日本語 (Japanese)
-+ 한국어 (Korean)
-+ मराठी (Marathi)
-+ Bahasa Malaysia (Malay)
-+ Nederlands (Dutch)
-+ Norsk (Norwegian)
-+ ਪੰਜਾਬੀ (Punjabi)
-+ Polski (Polish)
-+ Português (Portuguese)
-+ Română (Romanian)
-+ Русский (Russian)
-+ Svenska (Swedish)
-+ తెలుగు (Telugu)
-+ ภาษาไทย (Thai)
-+ Tagalog (Tagalog)
-+ Türkçe (Turkish)
-+ Українська (Ukrainian)
-+ Tiếng Việt (Vietnamese)
-+ 简体中文 (Chinese (Simplified))
-+ 正體中文 (Chinese (Traditional))</t>
+- By clicking Continue, you agree to LinkedIn’s User Agreement, Privacy Policy, and Cookie Policy.</t>
         </is>
       </c>
     </row>
@@ -12163,7 +12118,7 @@
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G35" s="1" t="n"/>
@@ -12614,7 +12569,7 @@
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
@@ -12853,367 +12808,6 @@
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sprungmarken-Navigation
-Ein moderner Strommarkt
-Stromerzeugung
-Strommarkt
-Zusammenspiel Strommarkt und Stromnetz
-Versorgungssicherheit
-Moderne Kraftwerkstechnologien/KWK
-Plattform Strommarkt
-Seite empfehlen
-ARTIKEL
--
-Strommarkt der Zukunft
-Unser Strommarkt für die Energiewende
-Einleitung
-Der Klimaschutz ist die zentrale Aufgabe unserer Generation. Um das Ziel der weitgehenden Klimaneutralität für die Europäische Union bis 2050 zu erreichen, muss auch die Stromversorgung einen wichtigen Beitrag leisten.
-Im ersten Halbjahr 2022 machten erneuerbare Energien bereits rund 49 Prozent unserer Stromversorgung aus. Wie auch in den Jahren zuvor war Deutschland im Jahr 2021 erneut Netto-Stromexporteur, und zwar mit insgesamt 17,4 Terawattstunden (TWh) d.h. Deutschland exportierte mehr Strom an seine Nachbarn als es importierte. Der physikalische Stromaustausch erfolgt mit elf Nachbarländern - Dänemark, Niederlande, Belgien, Luxemburg, Frankreich, Schweiz, Österreich, Tschechien, Polen und über Seekabel auch mit Schweden und Norwegen. Doch je mehr sich unser Strom aus wetterabhängigen Energiequellen wie Wind und Sonne speist, desto mehr schwankt auch die Einspeisung in das Stromnetz.
-Der moderne Strommarkt begegnet dieser Herausforderung: Mit ihm wird auch bei hohen Anteilen von erneuerbaren Energien eine sichere, kostengünstige und umweltverträgliche Versorgung mit Strom stets gewährleistet. Der Strommarkt muss jederzeit Erzeugung und Verbrauch von Strom aufeinander abstimmen und darüber hinaus dafür sorgen, dass auch in Zeiten von hoher Nachfrage ausreichend Erzeugung vorhanden ist. Mit anderen Worten: Der Strommarkt muss fortwährend die ununterbrochene Versorgung der Wirtschaft und Gesellschaft in Deutschland mit Strom garantieren.
-Zahlen und Fakten zum Strommarkt in Deutschland
-46,1
-Prozent
-der Stromerzeugung kam 2022 aus erneuerbaren Energien
-8,6
-mehr Strom aus erneuerbaren Quellen – davon fast 19% aus Photovoltaik
-482,9
-TWh
-betrug der Stromverbrauch 2022 – etwa das Niveau von 2020
-26,3
-umfasste der Netto-Export 2022 – ein Plus von fast 9 TWh gegenüber 2021
-STROMERZEUGUNG
-Zahlen und Fakten
-Deutschland verfügt europaweit über die höchste installierte Kraftwerksleistung und erzeugt und verbraucht am meisten Strom. Weitere Informationen zu den Energiedaten der europäischen Staaten sind auf den Internetseiten von Eurostat, der europäischen Statistikbehörde, veröffentlicht.
-Stromerzeugung national
-Mit der Kraftwerksliste der Bundesnetzagentur (BNetzA) sind derzeit (Stand 31. Mai 2022) Erzeugungsanlagen mit einer Netto-Nennleistung von insgesamt 232 Gigawatt (GW) enthalten. Von der Netto-Nennleistung entfällt ein Anteil von ca. 138,6 GW auf erneuerbare Energien, darunter ca. 59,3 GW auf Solar- und etwa 63,7 GW auf Windenergie. Die gesamte installierte Leistung von Photovoltaik- und Windenergieanlagen beträgt zusammen bereits 123 GW.
-Bild vergrößern
-© Kraftwerksliste der Bundesnetzagentur (BNetzA)
-Entwicklungen auf dem Strommarkt jederzeit nachvollziehen – mit SMARD
-Strommarktdaten transparent, verständlich und übersichtlich aufbereitet – das bietet die Informationsplattform Strommarkt SMARD.
-Auf der Internetseite www.SMARD.de werden zentrale Strommarktdaten für Deutschland, teilweise auch für Europa, nahezu in Echtzeit dargestellt. So können etwa Daten zu Erzeugung, Verbrauch, Großhandelspreisen, Im- und Export und Regelenergie für unterschiedliche Zeiträume ermittelt und kombiniert abgerufen werden. Die Daten sind anwenderfreundlich aufbereitet, zudem profitieren Expertinnen und Experten von umfangreichen Analysefunktionen. Auf diese Weise können Nutzerinnen und Nutzer jederzeit die Entwicklungen am Strommarkt und den Fortgang der Energiewende nachverfolgen.
-Aufgrund seiner zentralen geografischen Lage in Europa ist Deutschland ein wichtiger Partner im europäischen Strommarkt und eine Drehscheibe der europäischen Stromflüsse. Treibende Kraft für die Import- und Exportflüsse sind die Großhandelspreise an den nationalen Strombörsen. Sie werden von der jeweiligen Stromnachfrage, der Erzeugung von Strom aus erneuerbaren Energien und den Brennstoff- und Kohlenstoffkosten für fossile Kraftwerke bestimmt. Wie auch in den Jahren zuvor war Deutschland im Jahr 2022 erneut Netto-Stromexporteur. Der Nettoexport erreichte eine Höhe von 26,3 TWh und damit um fast 9 TWh mehr als 2021. Deutschland exportierte im Jahr 2022 gut 62 TWh, der Import sank auf 35,8 TWh.
-Stromerzeugung europäisch
-Der physikalische Stromaustausch erfolgt mit elf Nachbarländern - Dänemark, Niederlande, Belgien, Luxemburg, Frankreich, Schweiz, Österreich, Tschechien, Polen und über Seekabel auch mit Schweden und Norwegen. Deutschland exportierte im Jahr 2021 57 Terrawattstunden (TWh) Strom in seine Nachbarländer, während 39,6 Milliarden TWh Strom importiert wurden.
-Der Strommix verändert sich
-In Deutschland wurden im Jahr 2021 nach vorläufigen Angaben rund 588,8 Terawattstunden (TWh) Strom erzeugt - das sind 588 Milliarden kWh. Bei einem stetig wachsenden Anteil von erneuerbaren Energien geht nicht nur entsprechend dem beschlossenen Atomausstieg der Anteil der Kernenergie, sondern auch der von Braun- und Steinkohle am Energieträgermix der deutschen Stromversorgung zurück.
-© AG Energiebilanzen e.V.
-25.05.2020
-INFOGRAFIK
-Infografik:
-Physikalischer Stromaustausch Deutschlands mit Nachbarländern
-Öffnet Einzelsicht
-EXTERNES ANGEBOT
-Externes Angebot:
-www.smard.de
-STROMMARKT
-Ein Strommarkt für die Energiewende
-Um unser Klima zu schützen wird Strom aus Wind, Sonne und anderen erneuerbaren Energien in Deutschland zukünftig den Hauptanteil der Energieversorgung übernehmen. Bis 2030 soll ihr Anteil am Bruttostromverbrauch mindestens 80 Prozent betragen, für 2035 streben wir ein weitgehend klimaneutrales Stromsystem an.
-Die erneuerbaren Energien müssen daher kontinuierlich und möglichst schnell in das Stromversorgungssystem integriert werden, damit sie die fossilen Energieträger, nicht zuletzt die Braun- und Steinkohle, und die Atomkraft wie beschlossen ersetzen. Der Stromsektor muss in Zukunft auch einen wesentlichen Beitrag dazu leisten, die Sektoren Gebäude, Industrie und Verkehr klimaneutral zu machen, z. B. über Elektromobilität oder Wärmepumpen für Gebäudewärme. Aufgrund der zunehmenden Elektrifizierung in den Sektoren Verkehr und Wärme wird der Strombedarf außerdem weiter steigen: von etwa 560 TWh im Jahr 2021 auf 750 TWh bis 2030. Das Ziel der Treibhausgasneutralität im Jahr 2045 wurde im Energiewirtschaftsgesetz verankert. Netzentwicklungsplanungen orientieren sich am Zielbild eines Klimaneutralitätsnetzes.
-Das Bundesministerium für Wirtschaft und Klimaschutz startet ab 2023 die Plattform Klimaneutrales Stromsystem (PKNS). In dieser Plattform diskutieren Politik, Wissenschaft, Wirtschaft und Zivilgesellschaft, wie das Stromsystem nicht nur technisch auf Klimaneutralität umgerüstet werden kann, sondern auch mit entsprechenden Regeln und Strukturen so ausgestattet wird, dass weiterhin eine verlässliche und kosteneffiziente Versorgung gewährleistet ist.
-Vom Strommarkt unabhängig agieren im aktuellen System Kapazitäts- und Netzreserven. Dies sind Kraftwerke, die nur einspringen, wenn absehbar in bestimmten Gebieten in Deutschland nicht genug Strom über die am Markt handelnden Kraftwerke bereitgestellt werden kann und die schnell ihre Leistung zur Verfügung stellen können. In einem zukünftigen Stromsystem sollen sie mit klimaneutral hergestelltem Wasserstoff (Grüner Wasserstoff) betreiben werden.
-Die Energiewende kann nur gelingen, wenn sie europäisch gedacht und EU-rechtskonform ausgestaltet wird. Deutschland liegt inmitten eines vernetzten europäischen Stromsystems, reguliert durch einheitliche Regeln des Binnenmarktes. Durch diese Vernetzung stärken wir unsere Versorgungssicherheit.
-Mit der Europäischen Kommission, den EU-Mitgliedstaaten und unseren Nachbarländern sind wir in einem ständigen Austausch über die Weiterentwicklung des Strommarktes, da wir überzeugt sind, dass die Energiewende effizient nur im Rahmen des Binnenmarktes gelingen kann. Auf diese Weise verbinden wir zum Beispiel Wasserkraft in Skandinavien und den Alpenländern mit Windkraft und Photovoltaik in Deutschland.
-Wir denken und verankern die Energiewende europäisch
-Die Energiewende kann nur gelingen, wenn sie europäisch gedacht und EU-rechtskonform ausgestaltet wird. Der Strom macht nicht an nationalen Grenzen halt und Deutschland liegt inmitten eines vernetzten europäischen Stromsystems, reguliert durch einheitliche Regeln des Binnenmarktes.
-Die Bundesregierung hat ihre energiepolitischen Maßnahmen europarechtlich abgesichert, intensive Gespräche mit der Europäischen Kommission geführt und sichauf ein Energiepaket verständigt. Am 15. Dezember 2016 hat der Bundestag das Gesetz beschlossen, mit dem die Verständigung zu den wichtigsten Energie-Beihilfedossiers umgesetzt wurde. Detaillierte Informationen zu dieser Verständigung mit der EU-Kommission und dem hieraus resultierenden Umsetzungsbedarf in nationales Recht finden Sie hier (PDF: 68 KB).
-Mit unseren Nachbarländern sind wir in einem ständigen Austausch über die Weiterentwicklung des Strommarktes, da wir überzeugt sind, dass die Energiewende effizient nur im Rahmen des Binnenmarktes gelingen kann. Auf diese Weise verbinden wir zum Beispiel Wasserkraft in Skandinavien und den Alpenländern mit Windkraft und Photovoltaik in Deutschland.
-In einer "Gemeinsamen Erklärung zu regionaler Kooperation" hatte das Bundeswirtschaftsministerium im Juni 2015 mit den Energieministerinnen und -ministern von elf Nachbarstaaten verabredet, dass weder in die freie Preisbildung noch in den grenzüberschreitenden Stromhandel eingegriffen wird - auch nicht in Zeiten von Knappheit und hohen Preisen an den Strombörsen. Deutschland und die Nachbarstaaten sehen große Vorteile im Binnenmarkt, weil mit ihm Versorgungssicherheit zu geringeren Kosten erreicht werden kann.
-Das Marktstammdatenregister – für mehr Transparenz im Energiesektor
-Zur Verbesserung der Datenlage und der Transparenz in der Energiewirtschaft wurde ein Marktstammdatenregister (MaStR) eingerichtet. Das Register ist ein von jedermann nutzbares Instrument, das erstmals sämtliche Erzeugungsanlagen – Neuanlagen und Bestandsanlagen, Anlagen zur Erzeugung von erneuerbarer und konventioneller Energie, von Strom und Gas – und bestimmte Verbrauchsanlagen sowie die Betreiber der Anlagen erfasst. Es kommt dem Monitoring zugute und trägt darüber hinaus zum Bürokratieabbau bei, indem es bestehende Meldepflichten ersetzt oder vereinfacht.
-Rechtliche Grundlage dafür ist die sogenannte Marktstammdatenregisterverordnung (PDF, 132 KB), die am 1. Juli 2017 in Kraft getreten ist. Die Bundesnetzagentur betreibt das Marktstammdatenregister ab 31. Januar 2019 als online-basierte Datenbank. Nähere Informationen finden Sie bei der Bundesnetzagentur. Stellungnahmen zum Referentenentwurf der Verordnung finden Sie hier.
-01.02.2022
-DOWNLOAD
-Publikation:
-Umsetzungsplan für Deutschland („Marktreformplan“) nach Art. 20 Verordnung (EU) 2019/943 über den Elektrizitätsbinnenmarkt
-Januar 2022 (nicht barrierefrei)
-PDF, 1 MB
-Öffnet PDF "Umsetzungsplan für Deutschland („Marktreformplan“) nach Art. 20 Verordnung (EU) 2019/943 über den Elektrizitätsbinnenmarkt" in neuem Fenster.
-06.02.2024
-Monitoringbericht 2023 zum Umsetzungsplan für Deutschland („Marktreformplan“)
-nicht barrierefrei
-PDF, 991 KB
-Öffnet PDF "Monitoringbericht 2023 zum Umsetzungsplan für Deutschland („Marktreformplan“)" in neuem Fenster.
-21.12.2022
-Monitoringbericht 2022 zum Umsetzungsplan für Deutschland („Marktreformplan“)
-PDF, 716 KB
-Öffnet PDF "Monitoringbericht 2022 zum Umsetzungsplan für Deutschland („Marktreformplan“)" in neuem Fenster.
-20.12.2022
-PUBLIKATION
-Bericht des Bundesministeriums für Wirtschaft und Klimaschutz zur Netz- und Kapazitätsreserve
-nach § 63 Absatz 2a EnWG zur Wirksamkeit und Notwendigkeit der Maßnahmen nach den §§ 13a bis 13f sowie 13h bis 13j und § 16 Absatz 2a EnWG (PDF ist barrierefrei)
-Öffnet PDF "Bericht des Bundesministeriums für Wirtschaft und Klimaschutz zur Netz- und Kapazitätsreserve" in neuem Fenster.
-03.07.2015
-Weißbuch
-Öffnet PDF "Weißbuch" in neuem Fenster.
-ZUSAMMENSPIEL STROMMARKT UND STROMNETZ
-Strommarkt und Stromnetz verzahnen
-Deutschland verfügt über einen gut funktionierenden, modernen Strommarkt, auf dem noch bis kurz vor Lieferzeitpunkt Strom gekauft und verkauft werden kann. Damit können die steigenden Mengen von Strom aus wetterabhängigen Energiequellen wie Wind und Sonne effizient in das Stromsystem integriert werden. Nicht immer ist jedoch das Stromnetz in der Lage, den verkauften Strom zum Verbraucher zu transportieren. In diesem Fall sorgt Redispatch dafür, dass einerseits das Netz sicher bleibt und andererseits der Strom bei Verbraucherinnen und Verbrauchern ankommt.
-Redispatch als Schnittstelle zwischen Markt und Netz
-Können die auf dem Strommarkt verkauften Strommengen nicht vollständig durch das Stromnetz transportiert werden, führen die Übertragungsnetzbetreiber Redispatch durch. Das bedeutet, dass sie an bestimmten Stellen im Netz („vor dem Engpass“) Erzeugungsanlagen anweisen, die Einspeisung zu reduzieren. Damit werden die Stromflüsse über besonders belastete Leitungen reduziert, so dass das Netz sicher bleibt. Allerdings fehlen die abgeregelten Mengen dem Stromsystem, das heißt es wird weniger Strom erzeugt als zuvor verkauft wurde. Um dies auszugleichen, weisen die Übertragungsnetzbetreiber andere Erzeugungsanlagen („hinter dem Engpass“) an, ihre Einspeisung zu erhöhen.
-Redispatch bildet damit die Schnittstelle zwischen dem Handel mit Strom auf dem Strommarkt und der Infrastruktur Stromnetz, über welche die Handelsgeschäfte physikalisch erfüllt werden. In diesem Zusammenhang stellen sich eine Reihe von Fragen, zum Beispiel zur effizienten Durchführung von Redispatch. Eine sehr grundlegende Frage ist, wie die Übertragungsnetzbetreiber die benötigten Redispatch-Mengen beschaffen können. Die Wahl des Beschaffungskonzepts kann Auswirkungen auf den Handel am Strommarkt und auf Investitionsanreize für Marktakteure haben.
-Das BMWK arbeitet daran, die Organisation von Redispatch weiterzuentwickeln, auch in der oben genannten Plattform Klimaneutrales Stromssystem.
-Redispatch 2.0
-Mit der Novelle des Netzausbaubeschleunigungsgesetzes (NABEG) im Jahr 2019 wurden weitreichende Verbesserungen des Redispatch eingeführt. Ab Oktober 2021 können die Netzbetreiber wesentlich mehr Erzeugungs- und Speicheranlagen zur Behebung von Netzengpässen einsetzen. Es gilt dann nicht mehr die bisherige Schwelle von 10 MW installierter Leistung, ab der Anlagenbetreiber auf Anruf der Übertragungsnetzbetreiber am Redispatch teilnehmen müssen. Künftig gilt die Teilnahmepflicht bereits ab einer Größe von 100 kW sowie für alle steuerbare Anlagen auch unter dieser Schwelle. Auch der Strom aus EE- und KWK-Anlagen kann künftig planmäßig für Redispatch herangezogen werden, ohne dass der Einspeisevorrang aufgehoben wird.
-Mit dem Redispatch 2.0 werden die bislang unterschiedlichen Regelungen zur Beseitigung von Netzengpässen für Einspeisemanagement und Redispatch zu einem einheitlichen, „optimierten Redispatch“ zusammengeführt. Die Auswahl der Maßnahmen erfolgt nach der insgesamt kostengünstigsten Maßnahmenkombination. Die Optimierung umfasst künftig nicht nur die Übertragungsnetzebene, sondern auch die Verteilnetzebene. Alle Maßnahmen im Redispatch 2.0 werden energetisch-bilanziell ausgeglichen.
-Das vergrößerte Potenzial erlaubt es den Netzbetreibern, effektiver und kostengünstiger das Netz zu betreiben. Aktuelle Festlegungen der Bundesnetzagentur zur Umsetzung der neuen Redispatch-Regelungen finden Sie hier.
-Studie „Untersuchung zur Beschaffung von Redispatch“
-Daher hat das Bundeswirtschaftsministerium 2017 die Studie „Untersuchung zur Beschaffung von Redispatch“ in Auftrag gegeben, die mit einem Abschlussbericht im November 2019 zum Abschluss kam. Gegenstand der Untersuchung war es, verschiedene Konzepte dazustellen und zu bewerten, mit denen die Übertragungsnetzbetreiber die notwendigen Redispatch-Mengen beschaffen können. Die nachfolgenden Berichte der Gutachter Neon, Consentec und Connect umfassen die Ergebnisse aus den verschiedenen Arbeitspaketen.
-Der Abschlussbericht der Studie ist auf Deutsch und Englisch verfügbar. Darin fassen die Gutachterinnen und Gutachter die Ergebnisse des Gesamtprojekts zusammen und leiten Handlungsempfehlungen für das Bundeswirtschaftsministerium ab, wie die Beschaffung von Redispatch zukünftig ausgestaltet werden kann. Das Fazit: Es wird empfohlen, den kostenbasierten Redispatch beizubehalten und in Einzelaspekten weiterzuentwickeln. Auf die Einführung von Redispatch-Märkten auf Übertragungsnetzebene sollte wegen seiner gravierenden Nachteile verzichtet werden.
-08.01.2020
-Aktionsplan Gebotszone
-Öffnet PDF "Aktionsplan Gebotszone" in neuem Fenster.
-alle ausgaben:
-Schlaglichter der Wirtschaftspolitik
-Netzausbau geht voran (Monatsbericht 08/2019)
-ALLE AUSGABEN
-Publikationen
-Zurück blättern
-08.11.2019
-Kosten- oder Marktbasiert? Zukünftige Redispatch-Beschaffung in Deutschland
-Abschlussbericht: Schlussfolgerungen aus dem Vorhaben
-Öffnet PDF "Kosten- oder Marktbasiert? Zukünftige Redispatch-Beschaffung in Deutschland" in neuem Fenster.
-Cost- or market-based? Future redispatch procurement in Germany
-Final report: Conclusions from the project
-Öffnet PDF "Cost- or market-based? Future redispatch procurement in Germany" in neuem Fenster.
-Untersuchung zur Beschaffung von Redispatch
-Quantitative Analysen
-Öffnet PDF "Untersuchung zur Beschaffung von Redispatch" in neuem Fenster.
-14.11.2018
-Zusammenspiel von Markt und Netz im Stromsystem
-Eine Systematisierung und Bewertung von Ausgestaltungen des Strommarkts
-Öffnet PDF "Zusammenspiel von Markt und Netz im Stromsystem" in neuem Fenster.
-13.11.2018
-Konzepte für Redispatch-Beschaffung und Bewertungskriterien
-Im Auftrag des Bundesministeriums für Wirtschaft und Energie
-Öffnet PDF "Konzepte für Redispatch-Beschaffung und Bewertungskriterien" in neuem Fenster.
-Weiter blättern
-VERSORGUNGSSICHERHEIT
-Zuverlässige Stromversorgung für Unternehmen und Haushalte
-Im internationalen Vergleich ist die Stromversorgung in Deutschland sehr zuverlässig. Stromausfälle sind äußert selten, im Schnitt waren es 2021 nur 13 Minuten. Der Strommarkt verändert sich aktuell – dank der größeren Bedeutung des Stroms aus sauberen Quellen wie Wind und Sonne sowie gleichzeitig den Wegfall der Atomenergie und dem Kohle-Ausstieg.
-Versorgungssicherheit und langfristig Klimaneutralität – das sind die beiden zentralen Ziele der deutschen Energiepolitik. Das gilt auch für den Strommarkt. Eine Schlüsselrolle spielen dabei die Netzbetreiber.
-Sie sind für den sicheren Netzbetrieb zuständig (Paragraph 12, 14 Energiewirtschaftsgesetz, EnWG). Die Unternehmen planen und warten das Netz, regeln den Netzbetrieb und stimmen Stromerzeugung und -nachfrage aufeinander ab.
-Als Maß für die Zuverlässigkeit der Stromversorgung für Endverbraucherinnen und -verbraucher dient der sogenannte SAIDI (System Average Interruption Duration Index). Dieser Index zeigt, wie lange jede Letztverbraucherin und jeder Letztverbraucher aus Netzgründen während eines Jahres durchschnittlich keinen Strom zur Verfügung hatte. Dieser Nichtverfügbarkeitswert wird in Deutschland durch die Bundesnetzagentur erfasst – er zeigt einen deutlich sinkenden Trend seit 2006. Das zeigt, dass die Versorgungssicherheit auch in einem Strommarkt mit einem hohen Anteil an erneuerbaren Energien nicht beeinträchtigt wird. Im Jahr 2021 waren die Menschen und Unternehmen bundesweit im Durchschnitt nur rund 13 Minuten ohne Strom, was ein im internationalen Vergleich sehr guter Wert ist. Hauptursache war damals ein Starkregenereignis im Westen und Südwesten Deutschlands.
-Zur Untersuchung der Versorgungssicherheit am Strommarkt wird die Kenngröße Lastüberhangswahrscheinlichkeit betrachtet. Diese sagt aus, ob jederzeit eine ausreichende Stromproduktion zur Deckung der Stromnachfrage zur Verfügung steht.
-Informationen zur Versorgungssicherheit beim Stromnetzbetrieb finden sie hier.
-Laufende Beobachtung der Versorgungssicherheit
-Die Bundesnetzagentur überwacht durchgehend die Versorgungssicherheit in Deutschland. Dabei berücksichtigen die zugrunde liegenden Untersuchungen auch Situationen mit geringer Einspeisung aus Wind- und Solaranlagen sowie den Ausstieg aus der Atom- und der Kohleverstromung. Die Untersuchungen zeigen, dass die Nachfrage am Strommarkt in Deutschland bis 2030 in allen untersuchten Szenarien gedeckt werden kann. Dabei ist eine höhere Nachfrage, unter anderem durch elektrisch betriebene Wärmepumpen und Elektromobilität, bereits berücksichtigt.
-Die Bundesnetzagentur legt nach Paragraph 51 des EnWG alle zwei Jahre einen Monitoringbericht zur Versorgungssicherheit im Bereich der leitungsgebundenen Versorgung mit Elektrizität vor. Der aktuelle Bericht (hier) basiert auf zwei Gutachten: Das erste wurde von consentec, IER und FfE (Gutachten consentec et al., Datenanhang) angefertigt, eine Aktualisierung wurde von r2b vorgelegt (Gutachten r2b, Datenhang).
-Unter dem Begriff Versorgungssicherheit wird im Rahmen dieses Monitoringberichts die angemessene Deckung des Strombedarfs verstanden. Diese umfasst die Aspekte Stromerzeugung, Stromtransport und die Verfügbarkeit von Energieträgern für die Stromerzeugung. Die Bundesregierung hat auf Basis des Berichtes der Bundesnetzagentur dem Bundestag Handlungsempfehlungen vorgelegt, diese finden Sie hier.
-Der Bericht stellt die bestehende Versorgungslage und deren Entwicklung unter Berücksichtigung der nationalen und internationalen Marktgegebenheiten dar. Im Bericht werden keine Risiken mit unvorhersehbarer Eintrittswahrscheinlichkeit untersucht, da der Strommarkt hierfür selbst keine Vorsorge treffen kann. Die Absicherung für diese Risiken fällt in den Bereich der staatlichen Risikovorsorge durch Reserven, die zusätzlich zum Strommarkt in Extremsituationen zur Verfügung stehen.
-15.02.2023
-Energiedaten und -szenarien
-Versorgungssicherheit Strom Bericht 2022
-PDF ist barrierefrei
-Öffnet PDF "Versorgungssicherheit Strom Bericht 2022" in neuem Fenster.
-Energie
-Artikel:
-Berichte zu dem Forschungsvorhaben „Wissenschaftliche Unterstützung bei der methodischen Weiterentwicklung von Berichten zur Resource Adequacy im Pentalateralen Energieforum“
-31.01.2022
-Veröffentlichung des Zuverlässigkeitsstandard für die Stromversorgung in der deutsch-luxemburgischen Gebotszone gemäß Art. 25 der Verordnung (EU) 2019/943
-PDF, 211 KB
-Öffnet PDF "Veröffentlichung des Zuverlässigkeitsstandard für die Stromversorgung in der deutsch-luxemburgischen Gebotszone gemäß Art. 25 der Verordnung (EU) 2019/943" in neuem Fenster.
-05.09.2022
-Endbericht: Auswertung des Lastmanagement-Monitorings nach § 51a EnWG für die Erhebungsrunden 2017, 2018 und 2019
-Im Rahmen des Projektes „Auswertung der Daten des Lastmanagement-Monitoring der Erhebungsjahre 2017, 2018 und 2019“
-PDF, 2 MB
-Öffnet PDF "Endbericht: Auswertung des Lastmanagement-Monitorings nach § 51a EnWG für die Erhebungsrunden 2017, 2018 und 2019 " in neuem Fenster.
-Unsere Energiewende: sicher, sauber, bezahlbar
-ZUM ARTIKEL
-MODERNE KRAFTWERKSTECHNOLOGIEN/KWK
-Hoch effizient und klimafreundlich
-Moderne Kraftwerke mit hohen Umweltstandards sind ein wichtiger Baustein für eine zuverlässige Versorgung mit Energie. Auf dem Weg des Umbaus der Energieversorgung zu immer höheren Anteilen erneuerbarer Energien werden konventionelle Kraftwerke weiterhin einen wesentlichen Beitrag leisten.
-Moderne Kraftwerke mit hohen Umweltstandards sind ein wichtiger Baustein für eine zuverlässige Versorgung mit Energie. Auf dem Weg des Umbaus der Energieversorgung zu immer höheren Anteilen erneuerbarer Energien werden regelbare Kraftwerke weiterhin einen wesentlichen Beitrag leisten.
-Kraft-Wärme-Kopplung
-Die Kraft-Wärme-Kopplung (KWK) ist ein wichtiger Baustein der Energiewende. Bei KWK handelt es sich um eine Kraftwerkstechnologie, die gleichzeitig Strom und Wärme erzeugt, und somit den eingesetzten Brennstoff deutlich effizienter und sparsamer verwendet. Die bei der Stromerzeugung entstehende Wärme wird als Wärmeenergie vor Ort oder über Wärmenetze genutzt. Mit der zunehmenden Verbreitung von klimaneutralen Erzeugungstechnologien für Strom und Wärme steigt der Anforderungsdruck auf die noch weitgehend fossil betriebene KWK, sich ebenfalls erneuerbaren Brennstoffen zuzuwenden.
-Grundlage der Förderung von Kraftwerken mit KWK-Technologie ist seit 2002 das Kraft-Wärme-Kopplungsgesetz (KWKG). Es regelt eine umlagefinanzierte Förderung für die gemeinsame und hocheffiziente Erzeugung von Strom und Wärme. Nach dem KWKG erhalten Betreiber geförderter Kraft-Wärme-Kopplungsanlagen zeitlich befristete Zuschlagszahlungen pro Kilowattstunde KWK-Strom.
-Novelle des Kraft-Wärme-Kopplungsgesetzes (KWKG)
-Um sicherzustellen, dass die KWK auch in Zukunft eine wichtige Rolle bei der weiteren Umsetzung der Energiewende in Deutschland spielt, wurde das KWKG mehrfach novelliert.
-Die Anfang 2016 in Kraft getretene Novelle hat das Ziel, die Nettostromerzeugung aus KWK-Anlagen zu erhöhen und Investitionen in besonders effiziente, flexible und CO2-arme Anlagen zu steigern.
-Das Anfang 2017 in Kraft getretene KWK-Änderungsgesetz öffnet die Förderung für mehr Wettbewerb: Die Förderhöhe für Strom aus KWK-Anlagen mit einer Leistung zwischen 1 und 50 Megawatt (MW) wird seit Ende 2017 per Ausschreibungen festgelegt. Eine zusätzliche Ausschreibung für innovative KWK-Systeme fördert besonders flexible und emissionssparende KWK-Systeme, die Wärme aus erneuerbaren Energien in ihren Betrieb integrieren. Diese neue Förderkategorie soll der KWK Zukunftsperspektiven eröffnen und notwendige Investitionen in flexible Technologien anreizen. Mehr erfahren Sie dazu im Artikel zu „Kraft-Wärme-Kopplung“.
-Die Gesetzesnovellierungen in den Jahren 2020 und 2022 setzen deutlich stärkere Signale in Richtung Flexibilisierung und Dekarbonisierung der KWK. So wurden mit dem überarbeiteten Kohle-Ersatzbonus die Anreize gestärkt, eine kohlebefeuerte Anlage durch ein gasbetriebenes Kraftwerk zu ersetzen. Für alle ab Juli 2023 zu genehmigenden neuen Gas-KWK-Anlagen gilt zudem eine neue Anforderung zur Wasserstofffähigkeit (H2-Readiness). Alle neuen Anlagen ab einer elektrischen Leistung von 10 Megawatt müssen nachweisen, dass sie zu einem späteren Zeitpunkt zu moderaten Mehrkosten auf den Betrieb mit 100% Wasserstoff umgerüstet werden können. Somit werden Lock-in-Effekte in ausschließlich fossile Technologien vermieden und eine graduelle Transformation des regelbaren Kraftwerksparks in Richtung klimaneutraler Brennstoffe ermöglicht.
-PLATTFORM STROMMARKT
-Gemeinsam den Strommarkt der Zukunft gestalten
-Um Fragen der Weiterentwicklung des Strommarkts zu diskutieren, hat das Bundeswirtschaftsministerium ein Dialogforum gegründet: Die Plattform Strommarkt.
-Die Plattform Strommarkt besteht aus dem Plenum sowie vier thematischen Arbeitsgruppen. Teilnehmende der Plattform sind Vertreterinnen und Vertreter von Behörden, Verbänden, Nicht-Regierungs-Organisationen und wissenschaftlichen Einrichtungen. In den regelmäßig stattfindenden Plenarsitzungen werden vor allen Dingen Themen diskutiert, die für alle Arbeitsgruppen relevant sind.
-Pressemitteilung
-07.10.2022
-PRESSEMITTEILUNG
-Klimaschutz
-Pressemitteilung:
-Neuer Förderaufruf des BMWK zur Beschleunigung der Wärmewende
-06.10.2022
-GEMEINSAME PRESSEMITTEILUNG
-Bundesministerien legen gemeinsame Eckpunkte für eine Nationale Biomassestrategie vor
-27.09.2022
-Erneuerbare Energien
-Bundesminister Habeck eröffnet die weltweit größte Windenergie-Messe „WindEnergy Hamburg“
-15.09.2022
-Booster für grüne Fernwärme: Bundesförderung für effiziente Wärmenetze (BEW) startet
-14.09.2022
-Habeck: „Weitere Stärkung der Vorsorge durch kurzfristige Erhöhung der Stromproduktion aus Erneuerbaren Energien und weitere Maßnahmen zur Senkung des Gasverbrauchs“
-29.07.2022
-Erste Regelungen des neuen EEG 2023 treten in Kraft: Vorfahrt für erneuerbare Energien und mehr Vergütung für Solarstrom
-Newsletter "Energiewende direkt"
-Neue Regeln für Europas Strommarkt (Ausgabe 10/2023)
-"Was sind eigentlich Netzreserve, Kapazitätsreserve und Sicherheitsbereitschaft?" (Ausgabe 09/2020)
-"Wie funktioniert eigentlich der Strommarkt?" (Ausgabe 06/2020)
-"Aktionsplan für den grenzübergreifenden Stromhandel" (Ausgabe 04/2020)
-ABONNIEREN
-Tracking-Einwilligung
-Einwilligung zum Videodienst JW-Player
-Das Ministerium präsentiert seine Arbeit auf dieser Webseite auch in Form von Videos. Diese werden vom deutschen Anbieter TV1 mit Hilfe des JW-Players mit Sitz in den USA ausgeliefert. Bitte willigen Sie in die Übertragung Ihrer IP-Adresse und anderer technischer Daten an den JW-Player ein, und erlauben Sie JW-Player, Cookies auf Ihrem Endgerät zu setzen, wenn Sie unser Video-Angebot nutzen wollen. Verantwortlich für diese Verarbeitung Ihrer Daten ist das Bundesministerium für Wirtschaft und Klimaschutz. Unsere Datenschutzbeauftragte erreichen Sie unter datenschutzbeauftragte@bmwk.bund.de. Als Rechtsgrundlage dient uns Ihre Einwilligung nach § 25 Abs. 1 TTDSG i. V. m. Artikel 6 Abs. 1 lit. a) DSGVO und § 3 Abs. 1 EGovG. Wir haben sichergestellt, dass Sie Ihre Einwilligung jederzeit für die Zukunft widerrufen können. Über die Einwilligungsverwaltung am Ende der Seite können Sie jederzeit steuern, ob Sie den Videodienst JW-Player zur Übertragung freigeben oder nicht.
-Einwilligen
-Link direkt zur Hauptnavigation und Suche
-Link direkt zum Inhalt
-Link direkt zur Servicenavigation
-Menü
-SUCHE STARTEN
-EN
-FR
-Suche
-Suche starten
-Themen
-Service
-Ministerium
-Medienraum
-Kontakt
-Pressekontakt
-Bürgerdialog
-BMWK A bis Z
-BMWK
-Leitbild
-Schwerpunkte
-Wirtschaft
-Wettbewerbs- und Ordnungspolitik
-Regionale Wirtschafts- und Strukturpolitik
-Konjunktur und Wachstum
-Öffentliche Aufträge und Vergabe
-Wirtschaftspolitische Forschung und Analyse
-Frauen in der Wirtschaft
-Wirtschaft verstehen, Zukunft gestalten!
-Nationale Klimaschutzpolitik
-Systementwicklungsstrategie
-Emissionshandel
-Europäische Klimaschutzpolitik
-Internationale Klimaschutzpolitik
-Klimaneutrale Bundesverwaltung
-Motive und Ziele
-Europa
-Das BMWK als Europaministerium
-Europäische Wirtschaftspolitik
-Beihilfen
-EU-Finanzen und Europäisches Semester
-Kompetenzzentrum Europarecht
-Bilaterale Beziehungen
-Ausfuhr- und Rüstungsexportkontrolle
-Sanktionen
-Energieeffizienz
-Energiewende
-Energiepreisbremsen
-Energiewende im Gebäudebereich
-Wasserstoffstrategie
-Energiespeicher
-Netze und Netzausbau
-Roadmap Systemstabilität
-Energieforschung und Innovation
-Europäische und internationale Energiepolitik
-Bilaterale Klima- und Energiepartnerschaften und Energiedialoge
-Industrie
-Moderne Industriepolitik
-Industrie 4.0
-Bündnis "Zukunft der Industrie"
-Elektromobilität
-Luft- und Raumfahrt
-Maritime Wirtschaft
-Rohstoffe und Ressourcen
-Industrielle Bioökonomie
-Mikroelektronik
-Gesundheitswirtschaft
-Außenwirtschaft
-Russland-Sanktionen: Fragen und Antworten
-Handelspolitik
-Investitionsschutz
-Außenwirtschaftsförderung
-Rüstungsexportkontrolle
-OECD-Leitsätze für multinationale Unternehmen
-Digitale Welt und Innovation
-Digitalisierung
-„Digital Jetzt“– Eine Förderung für die Digitalisierung des Mittelstands
-Mittelstand digitalisieren
-Innovationspolitik
-Transferinitiative
-Kultur- und Kreativwirtschaft
-Games
-Mittelstand
-Politik für den Mittelstand
-Bürokratieabbau
-Cybersicherheit im Mittelstand
-Mittelstandsfinanzierung
-Existenzgründung
-Fachkräftesicherung
-Handwerkspolitik und -förderung
-Tourismuspolitik
-Ausbildung &amp; Beruf
-Ausbildung und Beruf
-Evaluationen
-Veranstaltungen
-Wettbewerbe
-Ausschreibungen
-Parlamentarische Anfragen
-Themenportale
-Presse
-Presseservice
-Pressemitteilungen
-Pressefotos
-Beratungsangebote
-Informationsfreiheit
-Soziale Netzwerke
-Gesetzesvorhaben
-Laufende Gesetzgebungsverfahren
-Gesetze und Verordnungen
-Informationsdienste
-Abo-Service: Newsletter hier abonnieren
-RSS-Newsfeed
-Open Data
-Hilfe und Support
-Benutzerhinweise
-Datenschutzerklärung
-Gebärdensprache
-Leichte Sprache
-Minister
-Die Staatssekretärinnen und Staatssekretäre
-Koordinatoren und Beauftragte
-Aufgaben und Struktur
-Geschäftsbereich
-Organigramm
-Haushalt
-Gremien
-Beiräte
-Initiativen
-Zuwendungsempfänger
-Willkommen im BMWK
-Besuch im BMWK
-Anfahrtsplan des BMWK
-BMWK als Arbeitgeber
-Gute Gründe für eine Bewerbung im BMWK
-Bewerbung
-Ausbildung
-Referendariat und Praktikum
-Stellenangebote und Ausbildungsplätze
-Fragen und Antworten
-Geschichte
-Wirtschaftspolitik 1949 bis heute
-Ministergalerie
-Geschichtskommission
-Architektur
-Geschichte des BMWK
-Schliessen
-Verwandte Themen
-Energiewende Energiedaten und -szenarien Netze und Netzausbau Versorgungssicherheit Erneuerbare Energien Kraft-Wärme-Kopplung Europäische und internationale Energiepolitik Energiespeicher EEG-Reform Energiepreise und Transparenz für Verbraucher </t>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
         <is>
           <t>Sprungmarken-Navigation
 Ein moderner Strommarkt
@@ -13533,202 +13127,337 @@
 © ABB</t>
         </is>
       </c>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t>Sprungmarken-Navigation
+Ein moderner Strommarkt
+Stromerzeugung
+Strommarkt
+Zusammenspiel Strommarkt und Stromnetz
+Versorgungssicherheit
+Moderne Kraftwerkstechnologien/KWK
+Plattform Strommarkt
+Seite empfehlen
+ARTIKEL
+-
+Strommarkt der Zukunft
+Unser Strommarkt für die Energiewende
+Einleitung
+Der Klimaschutz ist die zentrale Aufgabe unserer Generation. Um das Ziel der weitgehenden Klimaneutralität für die Europäische Union bis 2050 zu erreichen, muss auch die Stromversorgung einen wichtigen Beitrag leisten.
+Im ersten Halbjahr 2022 machten erneuerbare Energien bereits rund 49 Prozent unserer Stromversorgung aus. Wie auch in den Jahren zuvor war Deutschland im Jahr 2021 erneut Netto-Stromexporteur, und zwar mit insgesamt 17,4 Terawattstunden (TWh) d.h. Deutschland exportierte mehr Strom an seine Nachbarn als es importierte. Der physikalische Stromaustausch erfolgt mit elf Nachbarländern - Dänemark, Niederlande, Belgien, Luxemburg, Frankreich, Schweiz, Österreich, Tschechien, Polen und über Seekabel auch mit Schweden und Norwegen. Doch je mehr sich unser Strom aus wetterabhängigen Energiequellen wie Wind und Sonne speist, desto mehr schwankt auch die Einspeisung in das Stromnetz.
+Der moderne Strommarkt begegnet dieser Herausforderung: Mit ihm wird auch bei hohen Anteilen von erneuerbaren Energien eine sichere, kostengünstige und umweltverträgliche Versorgung mit Strom stets gewährleistet. Der Strommarkt muss jederzeit Erzeugung und Verbrauch von Strom aufeinander abstimmen und darüber hinaus dafür sorgen, dass auch in Zeiten von hoher Nachfrage ausreichend Erzeugung vorhanden ist. Mit anderen Worten: Der Strommarkt muss fortwährend die ununterbrochene Versorgung der Wirtschaft und Gesellschaft in Deutschland mit Strom garantieren.
+STROMERZEUGUNG
+Zahlen und Fakten
+Deutschland verfügt europaweit über die höchste installierte Kraftwerksleistung und erzeugt und verbraucht am meisten Strom. Weitere Informationen zu den Energiedaten der europäischen Staaten sind auf den Internetseiten von Eurostat, der europäischen Statistikbehörde, veröffentlicht.
+Stromerzeugung national
+Mit der Kraftwerksliste der Bundesnetzagentur (BNetzA) sind derzeit (Stand 31. Mai 2022) Erzeugungsanlagen mit einer Netto-Nennleistung von insgesamt 232 Gigawatt (GW) enthalten. Von der Netto-Nennleistung entfällt ein Anteil von ca. 138,6 GW auf erneuerbare Energien, darunter ca. 59,3 GW auf Solar- und etwa 63,7 GW auf Windenergie. Die gesamte installierte Leistung von Photovoltaik- und Windenergieanlagen beträgt zusammen bereits 123 GW.
+Entwicklungen auf dem Strommarkt jederzeit nachvollziehen – mit SMARD
+Strommarktdaten transparent, verständlich und übersichtlich aufbereitet – das bietet die Informationsplattform Strommarkt SMARD.
+Auf der Internetseite www.SMARD.de werden zentrale Strommarktdaten für Deutschland, teilweise auch für Europa, nahezu in Echtzeit dargestellt. So können etwa Daten zu Erzeugung, Verbrauch, Großhandelspreisen, Im- und Export und Regelenergie für unterschiedliche Zeiträume ermittelt und kombiniert abgerufen werden. Die Daten sind anwenderfreundlich aufbereitet, zudem profitieren Expertinnen und Experten von umfangreichen Analysefunktionen. Auf diese Weise können Nutzerinnen und Nutzer jederzeit die Entwicklungen am Strommarkt und den Fortgang der Energiewende nachverfolgen.
+Aufgrund seiner zentralen geografischen Lage in Europa ist Deutschland ein wichtiger Partner im europäischen Strommarkt und eine Drehscheibe der europäischen Stromflüsse. Treibende Kraft für die Import- und Exportflüsse sind die Großhandelspreise an den nationalen Strombörsen. Sie werden von der jeweiligen Stromnachfrage, der Erzeugung von Strom aus erneuerbaren Energien und den Brennstoff- und Kohlenstoffkosten für fossile Kraftwerke bestimmt.
+STROMMARKT
+Ein Strommarkt für die Energiewende
+Um unser Klima zu schützen wird Strom aus Wind, Sonne und anderen erneuerbaren Energien in Deutschland zukünftig den Hauptanteil der Energieversorgung übernehmen. Bis 2030 soll ihr Anteil am Bruttostromverbrauch mindestens 80 Prozent betragen, für 2035 streben wir ein weitgehend klimaneutrales Stromsystem an.
+Die erneuerbaren Energien müssen daher kontinuierlich und möglichst schnell in das Stromversorgungssystem integriert werden, damit sie die fossilen Energieträger, nicht zuletzt die Braun- und Steinkohle, und die Atomkraft wie beschlossen ersetzen. Der Stromsektor muss in Zukunft auch einen wesentlichen Beitrag dazu leisten, die Sektoren Gebäude, Industrie und Verkehr klimaneutral zu machen, z. B. über Elektromobilität oder Wärmepumpen für Gebäudewärme. Aufgrund der zunehmenden Elektrifizierung in den Sektoren Verkehr und Wärme wird der Strombedarf außerdem weiter steigen: von etwa 560 TWh im Jahr 2021 auf 750 TWh bis 2030. Das Ziel der Treibhausgasneutralität im Jahr 2045 wurde im Energiewirtschaftsgesetz verankert. Netzentwicklungsplanungen orientieren sich am Zielbild eines Klimaneutralitätsnetzes.
+Das Bundesministerium für Wirtschaft und Klimaschutz startet ab 2023 die Plattform Klimaneutrales Stromsystem (PKNS). In dieser Plattform diskutieren Politik, Wissenschaft, Wirtschaft und Zivilgesellschaft, wie das Stromsystem nicht nur technisch auf Klimaneutralität umgerüstet werden kann, sondern auch mit entsprechenden Regeln und Strukturen so ausgestattet wird, dass weiterhin eine verlässliche und kosteneffiziente Versorgung gewährleistet ist.
+Vom Strommarkt unabhängig agieren im aktuellen System Kapazitäts- und Netzreserven. Dies sind Kraftwerke, die nur einspringen, wenn absehbar in bestimmten Gebieten in Deutschland nicht genug Strom über die am Markt handelnden Kraftwerke bereitgestellt werden kann und die schnell ihre Leistung zur Verfügung stellen können. In einem zukünftigen Stromsystem sollen sie mit klimaneutral hergestelltem Wasserstoff (Grüner Wasserstoff) betreiben werden.
+Die Energiewende kann nur gelingen, wenn sie europäisch gedacht und EU-rechtskonform ausgestaltet wird. Deutschland liegt inmitten eines vernetzten europäischen Stromsystems, reguliert durch einheitliche Regeln des Binnenmarktes. Durch diese Vernetzung stärken wir unsere Versorgungssicherheit.
+Mit der Europäischen Kommission, den EU-Mitgliedstaaten und unseren Nachbarländern sind wir in einem ständigen Austausch über die Weiterentwicklung des Strommarktes, da wir überzeugt sind, dass die Energiewende effizient nur im Rahmen des Binnenmarktes gelingen kann. Auf diese Weise verbinden wir zum Beispiel Wasserkraft in Skandinavien und den Alpenländern mit Windkraft und Photovoltaik in Deutschland.
+Das Marktstammdatenregister – für mehr Transparenz im Energiesektor
+Zur Verbesserung der Datenlage und der Transparenz in der Energiewirtschaft wurde ein Marktstammdatenregister (MaStR) eingerichtet. Das Register ist ein von jedermann nutzbares Instrument, das erstmals sämtliche Erzeugungsanlagen – Neuanlagen und Bestandsanlagen, Anlagen zur Erzeugung von erneuerbarer und konventioneller Energie, von Strom und Gas – und bestimmte Verbrauchsanlagen sowie die Betreiber der Anlagen erfasst. Es kommt dem Monitoring zugute und trägt darüber hinaus zum Bürokratieabbau bei, indem es bestehende Meldepflichten ersetzt oder vereinfacht.
+ZUSAMMENSPIEL STROMMARKT UND STROMNETZ
+Strommarkt und Stromnetz verzahnen
+Deutschland verfügt über einen gut funktionierenden, modernen Strommarkt, auf dem noch bis kurz vor Lieferzeitpunkt Strom gekauft und verkauft werden kann. Damit können die steigenden Mengen von Strom aus wetterabhängigen Energiequellen wie Wind und Sonne effizient in das Stromsystem integriert werden. Nicht immer ist jedoch das Stromnetz in der Lage, den verkauften Strom zum Verbraucher zu transportieren. In diesem Fall sorgt Redispatch dafür, dass einerseits das Netz sicher bleibt und andererseits der Strom bei Verbraucherinnen und Verbrauchern ankommt.
+Redispatch als Schnittstelle zwischen Markt und Netz
+Können die auf dem Strommarkt verkauften Strommengen nicht vollständig durch das Stromnetz transportiert werden, führen die Übertragungsnetzbetreiber Redispatch durch. Das bedeutet, dass sie an bestimmten Stellen im Netz („vor dem Engpass“) Erzeugungsanlagen anweisen, die Einspeisung zu reduzieren. Damit werden die Stromflüsse über besonders belastete Leitungen reduziert, so dass das Netz sicher bleibt. Allerdings fehlen die abgeregelten Mengen dem Stromsystem, das heißt es wird weniger Strom erzeugt als zuvor verkauft wurde. Um dies auszugleichen, weisen die Übertragungsnetzbetreiber andere Erzeugungsanlagen („hinter dem Engpass“) an, ihre Einspeisung zu erhöhen.
+Redispatch bildet damit die Schnittstelle zwischen dem Handel mit Strom auf dem Strommarkt und der Infrastruktur Stromnetz, über welche die Handelsgeschäfte physikalisch erfüllt werden. In diesem Zusammenhang stellen sich eine Reihe von Fragen, zum Beispiel zur effizienten Durchführung von Redispatch. Eine sehr grundlegende Frage ist, wie die Übertragungsnetzbetreiber die benötigten Redispatch-Mengen beschaffen können. Die Wahl des Beschaffungskonzepts kann Auswirkungen auf den Handel am Strommarkt und auf Investitionsanreize für Marktakteure haben.
+Das BMWK arbeitet daran, die Organisation von Redispatch weiterzuentwickeln, auch in der oben genannten Plattform Klimaneutrales Stromssystem.
+Redispatch 2.0
+Mit der Novelle des Netzausbaubeschleunigungsgesetzes (NABEG) im Jahr 2019 wurden weitreichende Verbesserungen des Redispatch eingeführt. Ab Oktober 2021 können die Netzbetreiber wesentlich mehr Erzeugungs- und Speicheranlagen zur Behebung von Netzengpässen einsetzen. Es gilt dann nicht mehr die bisherige Schwelle von 10 MW installierter Leistung, ab der Anlagenbetreiber auf Anruf der Übertragungsnetzbetreiber am Redispatch teilnehmen müssen. Künftig gilt die Teilnahmepflicht bereits ab einer Größe von 100 kW sowie für alle steuerbare Anlagen auch unter dieser Schwelle. Auch der Strom aus EE- und KWK-Anlagen kann künftig planmäßig für Redispatch herangezogen werden, ohne dass der Einspeisevorrang aufgehoben wird.
+Mit dem Redispatch 2.0 werden die bislang unterschiedlichen Regelungen zur Beseitigung von Netzengpässen für Einspeisemanagement und Redispatch zu einem einheitlichen, „optimierten Redispatch“ zusammengeführt. Die Auswahl der Maßnahmen erfolgt nach der insgesamt kostengünstigsten Maßnahmenkombination. Die Optimierung umfasst künftig nicht nur die Übertragungsnetzebene, sondern auch die Verteilnetzebene. Alle Maßnahmen im Redispatch 2.0 werden energetisch-bilanziell ausgeglichen.
+Studie „Analyse der Ansteuerbarkeit von elektrischen Erzeugern und Verbrauchern“ von Fraunhofer IEE
+Im Juli 2024 hat Fraunhofer IEE im Auftrag des Bundeswirtschaftsministeriums die „Analyse der Ansteuerbarkeit von elektrischen Erzeugern und Verbrauchern“ (PDF, 10 MB) abgeschlossen. Hintergrund ist, dass bei der Bereitstellung von Systemdienstleistungen zukünftig nicht nur erneuerbare Erzeugungsanlagen, sondern auch Lasten und Speicher eine Rolle spielen.
+Damit die Versorgungssicherheit auch weiterhin jederzeit gewährleistet ist, spielt in einer von einem hohen Anteil Erneuerbarer Energien geprägten Energielandschaft die sog. Ansteuerbarkeit – also quasi die „Fernsteuerbarkeit“ – von Stromerzeugungsanlagen und Speichern eine immer wichtigere Rolle. Der jederzeit sichere Netzbetrieb steht dabei im Zentrum der Überlegungen. Wie kann beispielsweise sinnvoll auf Stromüberschuss-Situationen oder Netzengpässe reagiert werden?
+Die Studie findet sich hier. (PDF, 10 MB)
+VERSORGUNGSSICHERHEIT
+Zuverlässige Stromversorgung für Unternehmen und Haushalte
+Im internationalen Vergleich ist die Stromversorgung in Deutschland sehr zuverlässig. Stromausfälle sind äußert selten, im Schnitt waren es 2021 nur 13 Minuten. Der Strommarkt verändert sich aktuell – dank der größeren Bedeutung des Stroms aus sauberen Quellen wie Wind und Sonne sowie gleichzeitig den Wegfall der Atomenergie und dem Kohle-Ausstieg.
+Versorgungssicherheit und langfristig Klimaneutralität – das sind die beiden zentralen Ziele der deutschen Energiepolitik. Das gilt auch für den Strommarkt. Eine Schlüsselrolle spielen dabei die Netzbetreiber.
+Sie sind für den sicheren Netzbetrieb zuständig (Paragraph 12, 14 Energiewirtschaftsgesetz, EnWG). Die Unternehmen planen und warten das Netz, regeln den Netzbetrieb und stimmen Stromerzeugung und -nachfrage aufeinander ab.
+Als Maß für die Zuverlässigkeit der Stromversorgung für Endverbraucherinnen und -verbraucher dient der sogenannte SAIDI (System Average Interruption Duration Index). Dieser Index zeigt, wie lange jede Letztverbraucherin und jeder Letztverbraucher aus Netzgründen während eines Jahres durchschnittlich keinen Strom zur Verfügung hatte. Dieser Nichtverfügbarkeitswert wird in Deutschland durch die Bundesnetzagentur erfasst – er zeigt einen deutlich sinkenden Trend seit 2006. Das zeigt, dass die Versorgungssicherheit auch in einem Strommarkt mit einem hohen Anteil an erneuerbaren Energien nicht beeinträchtigt wird. Im Jahr 2021 waren die Menschen und Unternehmen bundesweit im Durchschnitt nur rund 13 Minuten ohne Strom, was ein im internationalen Vergleich sehr guter Wert ist. Hauptursache war damals ein Starkregenereignis im Westen und Südwesten Deutschlands.
+Zur Untersuchung der Versorgungssicherheit am Strommarkt wird die Kenngröße Lastüberhangswahrscheinlichkeit betrachtet. Diese sagt aus, ob jederzeit eine ausreichende Stromproduktion zur Deckung der Stromnachfrage zur Verfügung steht.
+Informationen zur Versorgungssicherheit beim Stromnetzbetrieb finden sie hier.
+Laufende Beobachtung der Versorgungssicherheit
+Die Bundesnetzagentur überwacht durchgehend die Versorgungssicherheit in Deutschland. Dabei berücksichtigen die zugrunde liegenden Untersuchungen auch Situationen mit geringer Einspeisung aus Wind- und Solaranlagen sowie den Ausstieg aus der Atom- und der Kohleverstromung. Die Untersuchungen zeigen, dass die Nachfrage am Strommarkt in Deutschland bis 2030 in allen untersuchten Szenarien gedeckt werden kann. Dabei ist eine höhere Nachfrage, unter anderem durch elektrisch betriebene Wärmepumpen und Elektromobilität, bereits berücksichtigt.
+Die Bundesnetzagentur legt nach Paragraph 51 des EnWG alle zwei Jahre einen Monitoringbericht zur Versorgungssicherheit im Bereich der leitungsgebundenen Versorgung mit Elektrizität vor. Der aktuelle Bericht (hier) basiert auf zwei Gutachten: Das erste wurde von consentec, IER und FfE (Gutachten consentec et al., Datenanhang) angefertigt, eine Aktualisierung wurde von r2b vorgelegt (Gutachten r2b, Datenhang).
+Unter dem Begriff Versorgungssicherheit wird im Rahmen dieses Monitoringberichts die angemessene Deckung des Strombedarfs verstanden. Diese umfasst die Aspekte Stromerzeugung, Stromtransport und die Verfügbarkeit von Energieträgern für die Stromerzeugung. Die Bundesregierung hat auf Basis des Berichtes der Bundesnetzagentur dem Bundestag Handlungsempfehlungen vorgelegt, diese finden Sie hier.
+Der Bericht stellt die bestehende Versorgungslage und deren Entwicklung unter Berücksichtigung der nationalen und internationalen Marktgegebenheiten dar. Im Bericht werden keine Risiken mit unvorhersehbarer Eintrittswahrscheinlichkeit untersucht, da der Strommarkt hierfür selbst keine Vorsorge treffen kann. Die Absicherung für diese Risiken fällt in den Bereich der staatlichen Risikovorsorge durch Reserven, die zusätzlich zum Strommarkt in Extremsituationen zur Verfügung stehen.
+Unsere Energiewende: sicher, sauber, bezahlbar
+ZUM ARTIKEL
+MODERNE KRAFTWERKSTECHNOLOGIEN/KWK
+Hoch effizient und klimafreundlich
+Moderne Kraftwerke mit hohen Umweltstandards sind ein wichtiger Baustein für eine zuverlässige Versorgung mit Energie. Auf dem Weg des Umbaus der Energieversorgung zu immer höheren Anteilen erneuerbarer Energien werden konventionelle Kraftwerke weiterhin einen wesentlichen Beitrag leisten.
+Moderne Kraftwerke mit hohen Umweltstandards sind ein wichtiger Baustein für eine zuverlässige Versorgung mit Energie. Auf dem Weg des Umbaus der Energieversorgung zu immer höheren Anteilen erneuerbarer Energien werden regelbare Kraftwerke weiterhin einen wesentlichen Beitrag leisten.
+Kraft-Wärme-Kopplung
+Die Kraft-Wärme-Kopplung (KWK) ist ein wichtiger Baustein der Energiewende. Bei KWK handelt es sich um eine Kraftwerkstechnologie, die gleichzeitig Strom und Wärme erzeugt, und somit den eingesetzten Brennstoff deutlich effizienter und sparsamer verwendet. Die bei der Stromerzeugung entstehende Wärme wird als Wärmeenergie vor Ort oder über Wärmenetze genutzt. Mit der zunehmenden Verbreitung von klimaneutralen Erzeugungstechnologien für Strom und Wärme steigt der Anforderungsdruck auf die noch weitgehend fossil betriebene KWK, sich ebenfalls erneuerbaren Brennstoffen zuzuwenden.
+Grundlage der Förderung von Kraftwerken mit KWK-Technologie ist seit 2002 das Kraft-Wärme-Kopplungsgesetz (KWKG). Es regelt eine umlagefinanzierte Förderung für die gemeinsame und hocheffiziente Erzeugung von Strom und Wärme. Nach dem KWKG erhalten Betreiber geförderter Kraft-Wärme-Kopplungsanlagen zeitlich befristete Zuschlagszahlungen pro Kilowattstunde KWK-Strom.
+Novelle des Kraft-Wärme-Kopplungsgesetzes (KWKG)
+Um sicherzustellen, dass die KWK auch in Zukunft eine wichtige Rolle bei der weiteren Umsetzung der Energiewende in Deutschland spielt, wurde das KWKG mehrfach novelliert.
+Die Anfang 2016 in Kraft getretene Novelle hat das Ziel, die Nettostromerzeugung aus KWK-Anlagen zu erhöhen und Investitionen in besonders effiziente, flexible und CO2-arme Anlagen zu steigern.
+Das Anfang 2017 in Kraft getretene KWK-Änderungsgesetz öffnet die Förderung für mehr Wettbewerb: Die Förderhöhe für Strom aus KWK-Anlagen mit einer Leistung zwischen 1 und 50 Megawatt (MW) wird seit Ende 2017 per Ausschreibungen festgelegt. Eine zusätzliche Ausschreibung für innovative KWK-Systeme fördert besonders flexible und emissionssparende KWK-Systeme, die Wärme aus erneuerbaren Energien in ihren Betrieb integrieren. Diese neue Förderkategorie soll der KWK Zukunftsperspektiven eröffnen und notwendige Investitionen in flexible Technologien anreizen. Mehr erfahren Sie dazu im Artikel zu „Kraft-Wärme-Kopplung“.
+Die Gesetzesnovellierungen in den Jahren 2020 und 2022 setzen deutlich stärkere Signale in Richtung Flexibilisierung und Dekarbonisierung der KWK. So wurden mit dem überarbeiteten Kohle-Ersatzbonus die Anreize gestärkt, eine kohlebefeuerte Anlage durch ein gasbetriebenes Kraftwerk zu ersetzen. Für alle ab Juli 2023 zu genehmigenden neuen Gas-KWK-Anlagen gilt zudem eine neue Anforderung zur Wasserstofffähigkeit (H2-Readiness). Alle neuen Anlagen ab einer elektrischen Leistung von 10 Megawatt müssen nachweisen, dass sie zu einem späteren Zeitpunkt zu moderaten Mehrkosten auf den Betrieb mit 100% Wasserstoff umgerüstet werden können. Somit werden Lock-in-Effekte in ausschließlich fossile Technologien vermieden und eine graduelle Transformation des regelbaren Kraftwerksparks in Richtung klimaneutraler Brennstoffe ermöglicht.
+PLATTFORM STROMMARKT
+Gemeinsam den Strommarkt der Zukunft gestalten
+Um Fragen der Weiterentwicklung des Strommarkts zu diskutieren, hat das Bundeswirtschaftsministerium ein Dialogforum gegründet: Die Plattform Strommarkt.
+Die Plattform Strommarkt besteht aus dem Plenum sowie vier thematischen Arbeitsgruppen. Teilnehmende der Plattform sind Vertreterinnen und Vertreter von Behörden, Verbänden, Nicht-Regierungs-Organisationen und wissenschaftlichen Einrichtungen. In den regelmäßig stattfindenden Plenarsitzungen werden vor allen Dingen Themen diskutiert, die für alle Arbeitsgruppen relevant sind.
+Weiterführende Informationen
+01.02.2022
+DOWNLOAD
+Publikation:
+Umsetzungsplan für Deutschland („Marktreformplan“) nach Art. 20 Verordnung (EU) 2019/943 über den Elektrizitätsbinnenmarkt
+Januar 2022 (nicht barrierefrei)
+PDF, 1 MB
+Öffnet PDF "Umsetzungsplan für Deutschland („Marktreformplan“) nach Art. 20 Verordnung (EU) 2019/943 über den Elektrizitätsbinnenmarkt" in neuem Fenster.
+06.02.2024
+Monitoringbericht 2023 zum Umsetzungsplan für Deutschland („Marktreformplan“)
+nicht barrierefrei
+PDF, 991 KB
+Öffnet PDF "Monitoringbericht 2023 zum Umsetzungsplan für Deutschland („Marktreformplan“)" in neuem Fenster.
+21.12.2022
+Monitoringbericht 2022 zum Umsetzungsplan für Deutschland („Marktreformplan“)
+PDF, 716 KB
+Öffnet PDF "Monitoringbericht 2022 zum Umsetzungsplan für Deutschland („Marktreformplan“)" in neuem Fenster.
+20.12.2022
+PUBLIKATION
+Bericht des Bundesministeriums für Wirtschaft und Klimaschutz zur Netz- und Kapazitätsreserve
+nach § 63 Absatz 2a EnWG zur Wirksamkeit und Notwendigkeit der Maßnahmen nach den §§ 13a bis 13f sowie 13h bis 13j und § 16 Absatz 2a EnWG (PDF ist barrierefrei)
+Öffnet PDF "Bericht des Bundesministeriums für Wirtschaft und Klimaschutz zur Netz- und Kapazitätsreserve" in neuem Fenster.
+15.02.2023
+Energiedaten und -szenarien
+Versorgungssicherheit Strom Bericht 2022
+PDF ist barrierefrei
+Öffnet PDF "Versorgungssicherheit Strom Bericht 2022" in neuem Fenster.
+Energie
+Artikel:
+Berichte zu dem Forschungsvorhaben „Wissenschaftliche Unterstützung bei der methodischen Weiterentwicklung von Berichten zur Resource Adequacy im Pentalateralen Energieforum“
+Öffnet Einzelsicht
+31.01.2022
+Veröffentlichung des Zuverlässigkeitsstandard für die Stromversorgung in der deutsch-luxemburgischen Gebotszone gemäß Art. 25 der Verordnung (EU) 2019/943
+PDF, 211 KB
+Öffnet PDF "Veröffentlichung des Zuverlässigkeitsstandard für die Stromversorgung in der deutsch-luxemburgischen Gebotszone gemäß Art. 25 der Verordnung (EU) 2019/943" in neuem Fenster.
+05.09.2022
+Endbericht: Auswertung des Lastmanagement-Monitorings nach § 51a EnWG für die Erhebungsrunden 2017, 2018 und 2019
+Im Rahmen des Projektes „Auswertung der Daten des Lastmanagement-Monitoring der Erhebungsjahre 2017, 2018 und 2019“
+PDF, 2 MB
+Öffnet PDF "Endbericht: Auswertung des Lastmanagement-Monitorings nach § 51a EnWG für die Erhebungsrunden 2017, 2018 und 2019 " in neuem Fenster.
+Pressemitteilung
+07.10.2022
+PRESSEMITTEILUNG
+Klimaschutz
+Pressemitteilung:
+Neuer Förderaufruf des BMWK zur Beschleunigung der Wärmewende
+06.10.2022
+GEMEINSAME PRESSEMITTEILUNG
+Bundesministerien legen gemeinsame Eckpunkte für eine Nationale Biomassestrategie vor
+27.09.2022
+Erneuerbare Energien
+Bundesminister Habeck eröffnet die weltweit größte Windenergie-Messe „WindEnergy Hamburg“
+15.09.2022
+Booster für grüne Fernwärme: Bundesförderung für effiziente Wärmenetze (BEW) startet
+14.09.2022
+Habeck: „Weitere Stärkung der Vorsorge durch kurzfristige Erhöhung der Stromproduktion aus Erneuerbaren Energien und weitere Maßnahmen zur Senkung des Gasverbrauchs“
+29.07.2022
+Erste Regelungen des neuen EEG 2023 treten in Kraft: Vorfahrt für erneuerbare Energien und mehr Vergütung für Solarstrom
+Tracking-Einwilligung
+Einwilligung zum Videodienst JW-Player
+Das Ministerium präsentiert seine Arbeit auf dieser Webseite auch in Form von Videos. Diese werden vom deutschen Anbieter TV1 mit Hilfe des JW-Players mit Sitz in den USA ausgeliefert. Bitte willigen Sie in die Übertragung Ihrer IP-Adresse und anderer technischer Daten an den JW-Player ein, und erlauben Sie JW-Player, Cookies auf Ihrem Endgerät zu setzen, wenn Sie unser Video-Angebot nutzen wollen. Verantwortlich für diese Verarbeitung Ihrer Daten ist das Bundesministerium für Wirtschaft und Klimaschutz. Unsere Datenschutzbeauftragte erreichen Sie unter datenschutzbeauftragte@bmwk.bund.de. Als Rechtsgrundlage dient uns Ihre Einwilligung nach § 25 Abs. 1 TTDSG i. V. m. Artikel 6 Abs. 1 lit. a) DSGVO und § 3 Abs. 1 EGovG. Wir haben sichergestellt, dass Sie Ihre Einwilligung jederzeit für die Zukunft widerrufen können. Über die Einwilligungsverwaltung am Ende der Seite können Sie jederzeit steuern, ob Sie den Videodienst JW-Player zur Übertragung freigeben oder nicht.
+Einwilligen
+Link direkt zur Hauptnavigation und Suche
+Link direkt zum Inhalt
+Link direkt zur Servicenavigation
+Menü
+SUCHE STARTEN
+EN
+FR
+Suche
+Suche starten
+Themen
+Service
+Ministerium
+Medienraum
+Kontakt
+Pressekontakt
+Bürgerdialog
+BMWK A bis Z
+BMWK
+Leitbild
+Schwerpunkte
+Wirtschaft
+Wettbewerbs- und Ordnungspolitik
+Regionale Wirtschafts- und Strukturpolitik
+Konjunktur und Wachstum
+Öffentliche Aufträge und Vergabe
+Wirtschaftspolitische Forschung und Analyse
+Frauen in der Wirtschaft
+Wirtschaft verstehen, Zukunft gestalten!
+Nationale Klimaschutzpolitik
+Systementwicklungsstrategie
+Emissionshandel
+Europäische Klimaschutzpolitik
+Internationale Klimaschutzpolitik
+Klimaneutrale Bundesverwaltung
+Motive und Ziele
+Europa
+Das BMWK als Europaministerium
+Europäische Wirtschaftspolitik
+Beihilfen
+EU-Finanzen und Europäisches Semester
+Kompetenzzentrum Europarecht
+Bilaterale Beziehungen
+Ausfuhr- und Rüstungsexportkontrolle
+Sanktionen
+Energieeffizienz
+Energiewende
+Energiepreisbremsen
+Energiewende im Gebäudebereich
+Wasserstoffstrategie
+Energiespeicher
+Netze und Netzausbau
+Roadmap Systemstabilität
+Energieforschung und Innovation
+Europäische und internationale Energiepolitik
+Bilaterale Klima- und Energiepartnerschaften und Energiedialoge
+Industrie
+Moderne Industriepolitik
+Industrie 4.0
+Bündnis "Zukunft der Industrie"
+Elektromobilität
+Luft- und Raumfahrt
+Maritime Wirtschaft
+Rohstoffe und Ressourcen
+Industrielle Bioökonomie
+Mikroelektronik
+Gesundheitswirtschaft
+Außenwirtschaft
+Russland-Sanktionen: Fragen und Antworten
+Handelspolitik
+Investitionsschutz
+Außenwirtschaftsförderung
+Rüstungsexportkontrolle
+OECD-Leitsätze für multinationale Unternehmen
+Digitale Welt und Innovation
+Digitalisierung
+„Digital Jetzt“– Eine Förderung für die Digitalisierung des Mittelstands
+Mittelstand digitalisieren
+Innovationspolitik
+Transferinitiative
+Kultur- und Kreativwirtschaft
+Games
+Mittelstand
+Politik für den Mittelstand
+Bürokratieabbau
+Cybersicherheit im Mittelstand
+Mittelstandsfinanzierung
+Existenzgründung
+Fachkräftesicherung
+Handwerkspolitik und -förderung
+Tourismuspolitik
+Ausbildung &amp; Beruf
+Ausbildung und Beruf
+Publikationen
+Evaluationen
+Veranstaltungen
+Wettbewerbe
+Ausschreibungen
+Parlamentarische Anfragen
+Themenportale
+Presse
+Presseservice
+Pressemitteilungen
+Pressefotos
+Beratungsangebote
+Informationsfreiheit
+Soziale Netzwerke
+Gesetzesvorhaben
+Laufende Gesetzgebungsverfahren
+Gesetze und Verordnungen
+Informationsdienste
+Abo-Service: Newsletter hier abonnieren
+RSS-Newsfeed
+Open Data
+Hilfe und Support
+Benutzerhinweise
+Datenschutzerklärung
+Gebärdensprache
+Leichte Sprache
+Minister
+Die Staatssekretärinnen und Staatssekretäre
+Koordinatoren und Beauftragte
+Aufgaben und Struktur
+Geschäftsbereich
+Organigramm
+Haushalt
+Gremien
+Beiräte
+Initiativen
+Zuwendungsempfänger
+Willkommen im BMWK
+Besuch im BMWK
+Anfahrtsplan des BMWK
+BMWK als Arbeitgeber
+Gute Gründe für eine Bewerbung im BMWK
+Bewerbung
+Ausbildung
+Referendariat und Praktikum
+Stellenangebote und Ausbildungsplätze
+Fragen und Antworten
+Geschichte
+Wirtschaftspolitik 1949 bis heute
+Ministergalerie
+Geschichtskommission
+Architektur
+Geschichte des BMWK
+Schliessen
+Verwandte Themen
+Energiewende Energiedaten und -szenarien Netze und Netzausbau Versorgungssicherheit Erneuerbare Energien Kraft-Wärme-Kopplung Europäische und internationale Energiepolitik Energiespeicher EEG-Reform Energiepreise und Transparenz für Verbraucher Energieeffizienz Energiewende im Gebäudebereich
+weitere anzeigen
+facebook
+youtube
+x
+instagram
+linkedin
+threads
+tiktok
+© 2024 Bundesministerium für Wirtschaft und Klimaschutz
+Impressum
+Barrierefreiheit
+Datenschutz
+Einwilligungsverwaltung
+Zum Seitenanfang
+Einwilligung in Tracking und / oder Videodienste
+Wir bitten Sie an dieser Stelle um Ihre Einwilligung für verschiedene Zusatzdienste unserer Webseite: Wir möchten die Nutzeraktivität mit Hilfe datenschutzfreundlicher Statistiken verstehen, um unsere Öffentlichkeitsarbeit zu verbessern. Zusätzlich können Sie in die Nutzung zweier Videodienste einwilligen. Nähere Informationen zu allen Diensten finden Sie, wenn Sie die Pluszeichen rechts aufklappen. Sie können Ihre Einwilligungen jederzeit erteilen oder für die Zukunft widerrufen. Rufen Sie dazu bitte diese Einwilligungsverwaltung über den Link am Ende der Seite erneut auf.
+Auswahl bestätigenAlle bestätigen
+Technisch notwendig (nicht abwählbar)
+Statistik
+Einwilligung zum Videodienst Live-Pressekonferenzen über Vimeo
+Ausführliche Informationen über Ihre Betroffenenrechte und darüber, wie wir Ihre Privatsphäre schützen, entnehmen Sie bitte unserer Datenschutzerklärung.
+Diese Webseite setzt temporäre Session Cookies. Diese sind technisch notwendig und deshalb nicht abwählbar. Sie dienen ausschließlich dazu, Ihnen die Nutzung der Webseite zu ermöglichen.
+Unsere Datenerhebung zu statistischen Zwecken funktioniert so: Ihre Zustimmung vorausgesetzt, leitet ein Skript auf unserer Webseite automatisch Ihre IP-Adresse und den sog. User Agent an die etracker GmbH weiter. Hier wird Ihre IP-Adresse unmittelbar und automatisch gekürzt. Anschließend pseudonymisiert die Software die übermittelten Daten ausschließlich zu dem Zweck, Mehrfachnutzungen in der Sitzung feststellen zu können. Nach Ablauf von 7 Tagen wird jede Zuordnung zur Sitzung gelöscht, und Ihre statistischen Daten liegen gänzlich anonymisiert vor. Etracker ist ein deutsches Unternehmen, und verarbeitet Ihre Daten ausschließlich in unserem Auftrag auf geschützten Servern. An weitere Dritte werden sie nicht übermittelt. Verantwortlich für diese Verarbeitung Ihrer Daten ist das Bundesministerium für Wirtschaft und Klimaschutz. Unsere Datenschutzbeauftragte erreichen Sie unter datenschutzbeauftragte@bmwk.bund.de. Als Rechtsgrundlage dient uns Ihre Einwilligung nach § 25 Abs. 1 TTDSG i. V. m. Artikel 6 Abs. 1 lit. a) DSGVO und § 3 Abs. 1 EGovG. Wir haben sichergestellt, dass Sie Ihre Einwilligung jederzeit für die Zukunft widerrufen können. Rufen Sie dazu bitte diese Einwilligungsverwaltung über den Link am Ende der Seite erneut auf.
+Die Live-Übertragung von Pressekonferenzen des Ministeriums erfolgt über die Infrastruktur des amerikanischen Dienstleisters Vimeo.com. Bitte willigen Sie in die Übertragung Ihrer IP-Adresse und anderer technischer Daten an Vimeo ein, und erlauben Sie Vimeo, Cookies auf Ihrem Endgerät zu setzen, wenn Sie unseren Livestream-Videodienst nutzen wollen. Verantwortlich für diese Verarbeitung Ihrer Daten ist das Bundesministerium für Wirtschaft und Klimaschutz. Unsere Datenschutzbeauftragte erreichen Sie unter datenschutzbeauftragte@bmwk.bund.de. Als Rechtsgrundlage dient uns Ihre Einwilligung nach § 25 Abs. 1 TTDSG i. V. m. Artikel 6 Abs. 1 lit. a) DSGVO und § 3 Abs. 1 EGovG. Wir haben sichergestellt, dass Sie Ihre Einwilligung jederzeit für die Zukunft widerrufen können. Über die Einwilligungsverwaltung am Ende der Seite können Sie steuern, ob Sie den Videodienst Vimeo zur Live-Übertragung freigeben wird oder nicht.
+© ABB</t>
+        </is>
+      </c>
       <c r="E37" s="1" t="inlineStr">
         <is>
-          <t>There is a change</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
-        </is>
-      </c>
-      <c r="G37" s="1" t="inlineStr">
-        <is>
-          <t>- Zahlen und Fakten zum Strommarkt in Deutschland
-- 46,1
-- Prozent
-- der Stromerzeugung kam 2022 aus erneuerbaren Energien
-- 8,6
-- mehr Strom aus erneuerbaren Quellen – davon fast 19% aus Photovoltaik
-- 482,9
-- TWh
-- betrug der Stromverbrauch 2022 – etwa das Niveau von 2020
-- 26,3
-- umfasste der Netto-Export 2022 – ein Plus von fast 9 TWh gegenüber 2021
-- Bild vergrößern
-- © Kraftwerksliste der Bundesnetzagentur (BNetzA)
-- Aufgrund seiner zentralen geografischen Lage in Europa ist Deutschland ein wichtiger Partner im europäischen Strommarkt und eine Drehscheibe der europäischen Stromflüsse. Treibende Kraft für die Import- und Exportflüsse sind die Großhandelspreise an den nationalen Strombörsen. Sie werden von der jeweiligen Stromnachfrage, der Erzeugung von Strom aus erneuerbaren Energien und den Brennstoff- und Kohlenstoffkosten für fossile Kraftwerke bestimmt. Wie auch in den Jahren zuvor war Deutschland im Jahr 2022 erneut Netto-Stromexporteur. Der Nettoexport erreichte eine Höhe von 26,3 TWh und damit um fast 9 TWh mehr als 2021. Deutschland exportierte im Jahr 2022 gut 62 TWh, der Import sank auf 35,8 TWh.
-+ Aufgrund seiner zentralen geografischen Lage in Europa ist Deutschland ein wichtiger Partner im europäischen Strommarkt und eine Drehscheibe der europäischen Stromflüsse. Treibende Kraft für die Import- und Exportflüsse sind die Großhandelspreise an den nationalen Strombörsen. Sie werden von der jeweiligen Stromnachfrage, der Erzeugung von Strom aus erneuerbaren Energien und den Brennstoff- und Kohlenstoffkosten für fossile Kraftwerke bestimmt.
-- Stromerzeugung europäisch
-- Der physikalische Stromaustausch erfolgt mit elf Nachbarländern - Dänemark, Niederlande, Belgien, Luxemburg, Frankreich, Schweiz, Österreich, Tschechien, Polen und über Seekabel auch mit Schweden und Norwegen. Deutschland exportierte im Jahr 2021 57 Terrawattstunden (TWh) Strom in seine Nachbarländer, während 39,6 Milliarden TWh Strom importiert wurden.
-- Der Strommix verändert sich
-- In Deutschland wurden im Jahr 2021 nach vorläufigen Angaben rund 588,8 Terawattstunden (TWh) Strom erzeugt - das sind 588 Milliarden kWh. Bei einem stetig wachsenden Anteil von erneuerbaren Energien geht nicht nur entsprechend dem beschlossenen Atomausstieg der Anteil der Kernenergie, sondern auch der von Braun- und Steinkohle am Energieträgermix der deutschen Stromversorgung zurück.
-- © AG Energiebilanzen e.V.
-- 25.05.2020
-- INFOGRAFIK
-- Infografik:
-- Physikalischer Stromaustausch Deutschlands mit Nachbarländern
-- Öffnet Einzelsicht
-- EXTERNES ANGEBOT
-- Externes Angebot:
-- www.smard.de
-- Wir denken und verankern die Energiewende europäisch
-- Die Energiewende kann nur gelingen, wenn sie europäisch gedacht und EU-rechtskonform ausgestaltet wird. Der Strom macht nicht an nationalen Grenzen halt und Deutschland liegt inmitten eines vernetzten europäischen Stromsystems, reguliert durch einheitliche Regeln des Binnenmarktes.
-- Die Bundesregierung hat ihre energiepolitischen Maßnahmen europarechtlich abgesichert, intensive Gespräche mit der Europäischen Kommission geführt und sichauf ein Energiepaket verständigt. Am 15. Dezember 2016 hat der Bundestag das Gesetz beschlossen, mit dem die Verständigung zu den wichtigsten Energie-Beihilfedossiers umgesetzt wurde. Detaillierte Informationen zu dieser Verständigung mit der EU-Kommission und dem hieraus resultierenden Umsetzungsbedarf in nationales Recht finden Sie hier (PDF: 68 KB).
-- Mit unseren Nachbarländern sind wir in einem ständigen Austausch über die Weiterentwicklung des Strommarktes, da wir überzeugt sind, dass die Energiewende effizient nur im Rahmen des Binnenmarktes gelingen kann. Auf diese Weise verbinden wir zum Beispiel Wasserkraft in Skandinavien und den Alpenländern mit Windkraft und Photovoltaik in Deutschland.
-- In einer "Gemeinsamen Erklärung zu regionaler Kooperation" hatte das Bundeswirtschaftsministerium im Juni 2015 mit den Energieministerinnen und -ministern von elf Nachbarstaaten verabredet, dass weder in die freie Preisbildung noch in den grenzüberschreitenden Stromhandel eingegriffen wird - auch nicht in Zeiten von Knappheit und hohen Preisen an den Strombörsen. Deutschland und die Nachbarstaaten sehen große Vorteile im Binnenmarkt, weil mit ihm Versorgungssicherheit zu geringeren Kosten erreicht werden kann.
-- Rechtliche Grundlage dafür ist die sogenannte Marktstammdatenregisterverordnung (PDF, 132 KB), die am 1. Juli 2017 in Kraft getreten ist. Die Bundesnetzagentur betreibt das Marktstammdatenregister ab 31. Januar 2019 als online-basierte Datenbank. Nähere Informationen finden Sie bei der Bundesnetzagentur. Stellungnahmen zum Referentenentwurf der Verordnung finden Sie hier.
-+ ZUSAMMENSPIEL STROMMARKT UND STROMNETZ
-+ Strommarkt und Stromnetz verzahnen
-+ Deutschland verfügt über einen gut funktionierenden, modernen Strommarkt, auf dem noch bis kurz vor Lieferzeitpunkt Strom gekauft und verkauft werden kann. Damit können die steigenden Mengen von Strom aus wetterabhängigen Energiequellen wie Wind und Sonne effizient in das Stromsystem integriert werden. Nicht immer ist jedoch das Stromnetz in der Lage, den verkauften Strom zum Verbraucher zu transportieren. In diesem Fall sorgt Redispatch dafür, dass einerseits das Netz sicher bleibt und andererseits der Strom bei Verbraucherinnen und Verbrauchern ankommt.
-+ Redispatch als Schnittstelle zwischen Markt und Netz
-+ Können die auf dem Strommarkt verkauften Strommengen nicht vollständig durch das Stromnetz transportiert werden, führen die Übertragungsnetzbetreiber Redispatch durch. Das bedeutet, dass sie an bestimmten Stellen im Netz („vor dem Engpass“) Erzeugungsanlagen anweisen, die Einspeisung zu reduzieren. Damit werden die Stromflüsse über besonders belastete Leitungen reduziert, so dass das Netz sicher bleibt. Allerdings fehlen die abgeregelten Mengen dem Stromsystem, das heißt es wird weniger Strom erzeugt als zuvor verkauft wurde. Um dies auszugleichen, weisen die Übertragungsnetzbetreiber andere Erzeugungsanlagen („hinter dem Engpass“) an, ihre Einspeisung zu erhöhen.
-+ Redispatch bildet damit die Schnittstelle zwischen dem Handel mit Strom auf dem Strommarkt und der Infrastruktur Stromnetz, über welche die Handelsgeschäfte physikalisch erfüllt werden. In diesem Zusammenhang stellen sich eine Reihe von Fragen, zum Beispiel zur effizienten Durchführung von Redispatch. Eine sehr grundlegende Frage ist, wie die Übertragungsnetzbetreiber die benötigten Redispatch-Mengen beschaffen können. Die Wahl des Beschaffungskonzepts kann Auswirkungen auf den Handel am Strommarkt und auf Investitionsanreize für Marktakteure haben.
-+ Das BMWK arbeitet daran, die Organisation von Redispatch weiterzuentwickeln, auch in der oben genannten Plattform Klimaneutrales Stromssystem.
-+ Redispatch 2.0
-+ Mit der Novelle des Netzausbaubeschleunigungsgesetzes (NABEG) im Jahr 2019 wurden weitreichende Verbesserungen des Redispatch eingeführt. Ab Oktober 2021 können die Netzbetreiber wesentlich mehr Erzeugungs- und Speicheranlagen zur Behebung von Netzengpässen einsetzen. Es gilt dann nicht mehr die bisherige Schwelle von 10 MW installierter Leistung, ab der Anlagenbetreiber auf Anruf der Übertragungsnetzbetreiber am Redispatch teilnehmen müssen. Künftig gilt die Teilnahmepflicht bereits ab einer Größe von 100 kW sowie für alle steuerbare Anlagen auch unter dieser Schwelle. Auch der Strom aus EE- und KWK-Anlagen kann künftig planmäßig für Redispatch herangezogen werden, ohne dass der Einspeisevorrang aufgehoben wird.
-+ Mit dem Redispatch 2.0 werden die bislang unterschiedlichen Regelungen zur Beseitigung von Netzengpässen für Einspeisemanagement und Redispatch zu einem einheitlichen, „optimierten Redispatch“ zusammengeführt. Die Auswahl der Maßnahmen erfolgt nach der insgesamt kostengünstigsten Maßnahmenkombination. Die Optimierung umfasst künftig nicht nur die Übertragungsnetzebene, sondern auch die Verteilnetzebene. Alle Maßnahmen im Redispatch 2.0 werden energetisch-bilanziell ausgeglichen.
-+ Studie „Analyse der Ansteuerbarkeit von elektrischen Erzeugern und Verbrauchern“ von Fraunhofer IEE
-+ Im Juli 2024 hat Fraunhofer IEE im Auftrag des Bundeswirtschaftsministeriums die „Analyse der Ansteuerbarkeit von elektrischen Erzeugern und Verbrauchern“ (PDF, 10 MB) abgeschlossen. Hintergrund ist, dass bei der Bereitstellung von Systemdienstleistungen zukünftig nicht nur erneuerbare Erzeugungsanlagen, sondern auch Lasten und Speicher eine Rolle spielen.
-+ Damit die Versorgungssicherheit auch weiterhin jederzeit gewährleistet ist, spielt in einer von einem hohen Anteil Erneuerbarer Energien geprägten Energielandschaft die sog. Ansteuerbarkeit – also quasi die „Fernsteuerbarkeit“ – von Stromerzeugungsanlagen und Speichern eine immer wichtigere Rolle. Der jederzeit sichere Netzbetrieb steht dabei im Zentrum der Überlegungen. Wie kann beispielsweise sinnvoll auf Stromüberschuss-Situationen oder Netzengpässe reagiert werden?
-+ Die Studie findet sich hier. (PDF, 10 MB)
-+ VERSORGUNGSSICHERHEIT
-+ Zuverlässige Stromversorgung für Unternehmen und Haushalte
-+ Im internationalen Vergleich ist die Stromversorgung in Deutschland sehr zuverlässig. Stromausfälle sind äußert selten, im Schnitt waren es 2021 nur 13 Minuten. Der Strommarkt verändert sich aktuell – dank der größeren Bedeutung des Stroms aus sauberen Quellen wie Wind und Sonne sowie gleichzeitig den Wegfall der Atomenergie und dem Kohle-Ausstieg.
-+ Versorgungssicherheit und langfristig Klimaneutralität – das sind die beiden zentralen Ziele der deutschen Energiepolitik. Das gilt auch für den Strommarkt. Eine Schlüsselrolle spielen dabei die Netzbetreiber.
-+ Sie sind für den sicheren Netzbetrieb zuständig (Paragraph 12, 14 Energiewirtschaftsgesetz, EnWG). Die Unternehmen planen und warten das Netz, regeln den Netzbetrieb und stimmen Stromerzeugung und -nachfrage aufeinander ab.
-+ Als Maß für die Zuverlässigkeit der Stromversorgung für Endverbraucherinnen und -verbraucher dient der sogenannte SAIDI (System Average Interruption Duration Index). Dieser Index zeigt, wie lange jede Letztverbraucherin und jeder Letztverbraucher aus Netzgründen während eines Jahres durchschnittlich keinen Strom zur Verfügung hatte. Dieser Nichtverfügbarkeitswert wird in Deutschland durch die Bundesnetzagentur erfasst – er zeigt einen deutlich sinkenden Trend seit 2006. Das zeigt, dass die Versorgungssicherheit auch in einem Strommarkt mit einem hohen Anteil an erneuerbaren Energien nicht beeinträchtigt wird. Im Jahr 2021 waren die Menschen und Unternehmen bundesweit im Durchschnitt nur rund 13 Minuten ohne Strom, was ein im internationalen Vergleich sehr guter Wert ist. Hauptursache war damals ein Starkregenereignis im Westen und Südwesten Deutschlands.
-+ Zur Untersuchung der Versorgungssicherheit am Strommarkt wird die Kenngröße Lastüberhangswahrscheinlichkeit betrachtet. Diese sagt aus, ob jederzeit eine ausreichende Stromproduktion zur Deckung der Stromnachfrage zur Verfügung steht.
-+ Informationen zur Versorgungssicherheit beim Stromnetzbetrieb finden sie hier.
-+ Laufende Beobachtung der Versorgungssicherheit
-+ Die Bundesnetzagentur überwacht durchgehend die Versorgungssicherheit in Deutschland. Dabei berücksichtigen die zugrunde liegenden Untersuchungen auch Situationen mit geringer Einspeisung aus Wind- und Solaranlagen sowie den Ausstieg aus der Atom- und der Kohleverstromung. Die Untersuchungen zeigen, dass die Nachfrage am Strommarkt in Deutschland bis 2030 in allen untersuchten Szenarien gedeckt werden kann. Dabei ist eine höhere Nachfrage, unter anderem durch elektrisch betriebene Wärmepumpen und Elektromobilität, bereits berücksichtigt.
-+ Die Bundesnetzagentur legt nach Paragraph 51 des EnWG alle zwei Jahre einen Monitoringbericht zur Versorgungssicherheit im Bereich der leitungsgebundenen Versorgung mit Elektrizität vor. Der aktuelle Bericht (hier) basiert auf zwei Gutachten: Das erste wurde von consentec, IER und FfE (Gutachten consentec et al., Datenanhang) angefertigt, eine Aktualisierung wurde von r2b vorgelegt (Gutachten r2b, Datenhang).
-+ Unter dem Begriff Versorgungssicherheit wird im Rahmen dieses Monitoringberichts die angemessene Deckung des Strombedarfs verstanden. Diese umfasst die Aspekte Stromerzeugung, Stromtransport und die Verfügbarkeit von Energieträgern für die Stromerzeugung. Die Bundesregierung hat auf Basis des Berichtes der Bundesnetzagentur dem Bundestag Handlungsempfehlungen vorgelegt, diese finden Sie hier.
-+ Der Bericht stellt die bestehende Versorgungslage und deren Entwicklung unter Berücksichtigung der nationalen und internationalen Marktgegebenheiten dar. Im Bericht werden keine Risiken mit unvorhersehbarer Eintrittswahrscheinlichkeit untersucht, da der Strommarkt hierfür selbst keine Vorsorge treffen kann. Die Absicherung für diese Risiken fällt in den Bereich der staatlichen Risikovorsorge durch Reserven, die zusätzlich zum Strommarkt in Extremsituationen zur Verfügung stehen.
-+ Unsere Energiewende: sicher, sauber, bezahlbar
-+ ZUM ARTIKEL
-+ MODERNE KRAFTWERKSTECHNOLOGIEN/KWK
-+ Hoch effizient und klimafreundlich
-+ Moderne Kraftwerke mit hohen Umweltstandards sind ein wichtiger Baustein für eine zuverlässige Versorgung mit Energie. Auf dem Weg des Umbaus der Energieversorgung zu immer höheren Anteilen erneuerbarer Energien werden konventionelle Kraftwerke weiterhin einen wesentlichen Beitrag leisten.
-+ Moderne Kraftwerke mit hohen Umweltstandards sind ein wichtiger Baustein für eine zuverlässige Versorgung mit Energie. Auf dem Weg des Umbaus der Energieversorgung zu immer höheren Anteilen erneuerbarer Energien werden regelbare Kraftwerke weiterhin einen wesentlichen Beitrag leisten.
-+ Kraft-Wärme-Kopplung
-+ Die Kraft-Wärme-Kopplung (KWK) ist ein wichtiger Baustein der Energiewende. Bei KWK handelt es sich um eine Kraftwerkstechnologie, die gleichzeitig Strom und Wärme erzeugt, und somit den eingesetzten Brennstoff deutlich effizienter und sparsamer verwendet. Die bei der Stromerzeugung entstehende Wärme wird als Wärmeenergie vor Ort oder über Wärmenetze genutzt. Mit der zunehmenden Verbreitung von klimaneutralen Erzeugungstechnologien für Strom und Wärme steigt der Anforderungsdruck auf die noch weitgehend fossil betriebene KWK, sich ebenfalls erneuerbaren Brennstoffen zuzuwenden.
-+ Grundlage der Förderung von Kraftwerken mit KWK-Technologie ist seit 2002 das Kraft-Wärme-Kopplungsgesetz (KWKG). Es regelt eine umlagefinanzierte Förderung für die gemeinsame und hocheffiziente Erzeugung von Strom und Wärme. Nach dem KWKG erhalten Betreiber geförderter Kraft-Wärme-Kopplungsanlagen zeitlich befristete Zuschlagszahlungen pro Kilowattstunde KWK-Strom.
-+ Novelle des Kraft-Wärme-Kopplungsgesetzes (KWKG)
-+ Um sicherzustellen, dass die KWK auch in Zukunft eine wichtige Rolle bei der weiteren Umsetzung der Energiewende in Deutschland spielt, wurde das KWKG mehrfach novelliert.
-+ Die Anfang 2016 in Kraft getretene Novelle hat das Ziel, die Nettostromerzeugung aus KWK-Anlagen zu erhöhen und Investitionen in besonders effiziente, flexible und CO2-arme Anlagen zu steigern.
-+ Das Anfang 2017 in Kraft getretene KWK-Änderungsgesetz öffnet die Förderung für mehr Wettbewerb: Die Förderhöhe für Strom aus KWK-Anlagen mit einer Leistung zwischen 1 und 50 Megawatt (MW) wird seit Ende 2017 per Ausschreibungen festgelegt. Eine zusätzliche Ausschreibung für innovative KWK-Systeme fördert besonders flexible und emissionssparende KWK-Systeme, die Wärme aus erneuerbaren Energien in ihren Betrieb integrieren. Diese neue Förderkategorie soll der KWK Zukunftsperspektiven eröffnen und notwendige Investitionen in flexible Technologien anreizen. Mehr erfahren Sie dazu im Artikel zu „Kraft-Wärme-Kopplung“.
-+ Die Gesetzesnovellierungen in den Jahren 2020 und 2022 setzen deutlich stärkere Signale in Richtung Flexibilisierung und Dekarbonisierung der KWK. So wurden mit dem überarbeiteten Kohle-Ersatzbonus die Anreize gestärkt, eine kohlebefeuerte Anlage durch ein gasbetriebenes Kraftwerk zu ersetzen. Für alle ab Juli 2023 zu genehmigenden neuen Gas-KWK-Anlagen gilt zudem eine neue Anforderung zur Wasserstofffähigkeit (H2-Readiness). Alle neuen Anlagen ab einer elektrischen Leistung von 10 Megawatt müssen nachweisen, dass sie zu einem späteren Zeitpunkt zu moderaten Mehrkosten auf den Betrieb mit 100% Wasserstoff umgerüstet werden können. Somit werden Lock-in-Effekte in ausschließlich fossile Technologien vermieden und eine graduelle Transformation des regelbaren Kraftwerksparks in Richtung klimaneutraler Brennstoffe ermöglicht.
-+ PLATTFORM STROMMARKT
-+ Gemeinsam den Strommarkt der Zukunft gestalten
-+ Um Fragen der Weiterentwicklung des Strommarkts zu diskutieren, hat das Bundeswirtschaftsministerium ein Dialogforum gegründet: Die Plattform Strommarkt.
-+ Die Plattform Strommarkt besteht aus dem Plenum sowie vier thematischen Arbeitsgruppen. Teilnehmende der Plattform sind Vertreterinnen und Vertreter von Behörden, Verbänden, Nicht-Regierungs-Organisationen und wissenschaftlichen Einrichtungen. In den regelmäßig stattfindenden Plenarsitzungen werden vor allen Dingen Themen diskutiert, die für alle Arbeitsgruppen relevant sind.
-+ Weiterführende Informationen
-- 03.07.2015
-- Weißbuch
-- Öffnet PDF "Weißbuch" in neuem Fenster.
-- ZUSAMMENSPIEL STROMMARKT UND STROMNETZ
-- Strommarkt und Stromnetz verzahnen
-- Deutschland verfügt über einen gut funktionierenden, modernen Strommarkt, auf dem noch bis kurz vor Lieferzeitpunkt Strom gekauft und verkauft werden kann. Damit können die steigenden Mengen von Strom aus wetterabhängigen Energiequellen wie Wind und Sonne effizient in das Stromsystem integriert werden. Nicht immer ist jedoch das Stromnetz in der Lage, den verkauften Strom zum Verbraucher zu transportieren. In diesem Fall sorgt Redispatch dafür, dass einerseits das Netz sicher bleibt und andererseits der Strom bei Verbraucherinnen und Verbrauchern ankommt.
-- Redispatch als Schnittstelle zwischen Markt und Netz
-- Können die auf dem Strommarkt verkauften Strommengen nicht vollständig durch das Stromnetz transportiert werden, führen die Übertragungsnetzbetreiber Redispatch durch. Das bedeutet, dass sie an bestimmten Stellen im Netz („vor dem Engpass“) Erzeugungsanlagen anweisen, die Einspeisung zu reduzieren. Damit werden die Stromflüsse über besonders belastete Leitungen reduziert, so dass das Netz sicher bleibt. Allerdings fehlen die abgeregelten Mengen dem Stromsystem, das heißt es wird weniger Strom erzeugt als zuvor verkauft wurde. Um dies auszugleichen, weisen die Übertragungsnetzbetreiber andere Erzeugungsanlagen („hinter dem Engpass“) an, ihre Einspeisung zu erhöhen.
-- Redispatch bildet damit die Schnittstelle zwischen dem Handel mit Strom auf dem Strommarkt und der Infrastruktur Stromnetz, über welche die Handelsgeschäfte physikalisch erfüllt werden. In diesem Zusammenhang stellen sich eine Reihe von Fragen, zum Beispiel zur effizienten Durchführung von Redispatch. Eine sehr grundlegende Frage ist, wie die Übertragungsnetzbetreiber die benötigten Redispatch-Mengen beschaffen können. Die Wahl des Beschaffungskonzepts kann Auswirkungen auf den Handel am Strommarkt und auf Investitionsanreize für Marktakteure haben.
-- Das BMWK arbeitet daran, die Organisation von Redispatch weiterzuentwickeln, auch in der oben genannten Plattform Klimaneutrales Stromssystem.
-- Redispatch 2.0
-- Mit der Novelle des Netzausbaubeschleunigungsgesetzes (NABEG) im Jahr 2019 wurden weitreichende Verbesserungen des Redispatch eingeführt. Ab Oktober 2021 können die Netzbetreiber wesentlich mehr Erzeugungs- und Speicheranlagen zur Behebung von Netzengpässen einsetzen. Es gilt dann nicht mehr die bisherige Schwelle von 10 MW installierter Leistung, ab der Anlagenbetreiber auf Anruf der Übertragungsnetzbetreiber am Redispatch teilnehmen müssen. Künftig gilt die Teilnahmepflicht bereits ab einer Größe von 100 kW sowie für alle steuerbare Anlagen auch unter dieser Schwelle. Auch der Strom aus EE- und KWK-Anlagen kann künftig planmäßig für Redispatch herangezogen werden, ohne dass der Einspeisevorrang aufgehoben wird.
-- Mit dem Redispatch 2.0 werden die bislang unterschiedlichen Regelungen zur Beseitigung von Netzengpässen für Einspeisemanagement und Redispatch zu einem einheitlichen, „optimierten Redispatch“ zusammengeführt. Die Auswahl der Maßnahmen erfolgt nach der insgesamt kostengünstigsten Maßnahmenkombination. Die Optimierung umfasst künftig nicht nur die Übertragungsnetzebene, sondern auch die Verteilnetzebene. Alle Maßnahmen im Redispatch 2.0 werden energetisch-bilanziell ausgeglichen.
-- Das vergrößerte Potenzial erlaubt es den Netzbetreibern, effektiver und kostengünstiger das Netz zu betreiben. Aktuelle Festlegungen der Bundesnetzagentur zur Umsetzung der neuen Redispatch-Regelungen finden Sie hier.
-- Studie „Untersuchung zur Beschaffung von Redispatch“
-- Daher hat das Bundeswirtschaftsministerium 2017 die Studie „Untersuchung zur Beschaffung von Redispatch“ in Auftrag gegeben, die mit einem Abschlussbericht im November 2019 zum Abschluss kam. Gegenstand der Untersuchung war es, verschiedene Konzepte dazustellen und zu bewerten, mit denen die Übertragungsnetzbetreiber die notwendigen Redispatch-Mengen beschaffen können. Die nachfolgenden Berichte der Gutachter Neon, Consentec und Connect umfassen die Ergebnisse aus den verschiedenen Arbeitspaketen.
-- Der Abschlussbericht der Studie ist auf Deutsch und Englisch verfügbar. Darin fassen die Gutachterinnen und Gutachter die Ergebnisse des Gesamtprojekts zusammen und leiten Handlungsempfehlungen für das Bundeswirtschaftsministerium ab, wie die Beschaffung von Redispatch zukünftig ausgestaltet werden kann. Das Fazit: Es wird empfohlen, den kostenbasierten Redispatch beizubehalten und in Einzelaspekten weiterzuentwickeln. Auf die Einführung von Redispatch-Märkten auf Übertragungsnetzebene sollte wegen seiner gravierenden Nachteile verzichtet werden.
-- 08.01.2020
-- Aktionsplan Gebotszone
-- Öffnet PDF "Aktionsplan Gebotszone" in neuem Fenster.
-- alle ausgaben:
-- Schlaglichter der Wirtschaftspolitik
-- Netzausbau geht voran (Monatsbericht 08/2019)
-- ALLE AUSGABEN
-- Publikationen
-- Zurück blättern
-- 08.11.2019
-- Kosten- oder Marktbasiert? Zukünftige Redispatch-Beschaffung in Deutschland
-- Abschlussbericht: Schlussfolgerungen aus dem Vorhaben
-- Öffnet PDF "Kosten- oder Marktbasiert? Zukünftige Redispatch-Beschaffung in Deutschland" in neuem Fenster.
-- Cost- or market-based? Future redispatch procurement in Germany
-- Final report: Conclusions from the project
-- Öffnet PDF "Cost- or market-based? Future redispatch procurement in Germany" in neuem Fenster.
-- Untersuchung zur Beschaffung von Redispatch
-- Quantitative Analysen
-- Öffnet PDF "Untersuchung zur Beschaffung von Redispatch" in neuem Fenster.
-- 14.11.2018
-- Zusammenspiel von Markt und Netz im Stromsystem
-- Eine Systematisierung und Bewertung von Ausgestaltungen des Strommarkts
-- Öffnet PDF "Zusammenspiel von Markt und Netz im Stromsystem" in neuem Fenster.
-- 13.11.2018
-- Konzepte für Redispatch-Beschaffung und Bewertungskriterien
-- Im Auftrag des Bundesministeriums für Wirtschaft und Energie
-- Öffnet PDF "Konzepte für Redispatch-Beschaffung und Bewertungskriterien" in neuem Fenster.
-- Weiter blättern
-- VERSORGUNGSSICHERHEIT
-- Zuverlässige Stromversorgung für Unternehmen und Haushalte
-- Im internationalen Vergleich ist die Stromversorgung in Deutschland sehr zuverlässig. Stromausfälle sind äußert selten, im Schnitt waren es 2021 nur 13 Minuten. Der Strommarkt verändert sich aktuell – dank der größeren Bedeutung des Stroms aus sauberen Quellen wie Wind und Sonne sowie gleichzeitig den Wegfall der Atomenergie und dem Kohle-Ausstieg.
-- Versorgungssicherheit und langfristig Klimaneutralität – das sind die beiden zentralen Ziele der deutschen Energiepolitik. Das gilt auch für den Strommarkt. Eine Schlüsselrolle spielen dabei die Netzbetreiber.
-- Sie sind für den sicheren Netzbetrieb zuständig (Paragraph 12, 14 Energiewirtschaftsgesetz, EnWG). Die Unternehmen planen und warten das Netz, regeln den Netzbetrieb und stimmen Stromerzeugung und -nachfrage aufeinander ab.
-- Als Maß für die Zuverlässigkeit der Stromversorgung für Endverbraucherinnen und -verbraucher dient der sogenannte SAIDI (System Average Interruption Duration Index). Dieser Index zeigt, wie lange jede Letztverbraucherin und jeder Letztverbraucher aus Netzgründen während eines Jahres durchschnittlich keinen Strom zur Verfügung hatte. Dieser Nichtverfügbarkeitswert wird in Deutschland durch die Bundesnetzagentur erfasst – er zeigt einen deutlich sinkenden Trend seit 2006. Das zeigt, dass die Versorgungssicherheit auch in einem Strommarkt mit einem hohen Anteil an erneuerbaren Energien nicht beeinträchtigt wird. Im Jahr 2021 waren die Menschen und Unternehmen bundesweit im Durchschnitt nur rund 13 Minuten ohne Strom, was ein im internationalen Vergleich sehr guter Wert ist. Hauptursache war damals ein Starkregenereignis im Westen und Südwesten Deutschlands.
-- Zur Untersuchung der Versorgungssicherheit am Strommarkt wird die Kenngröße Lastüberhangswahrscheinlichkeit betrachtet. Diese sagt aus, ob jederzeit eine ausreichende Stromproduktion zur Deckung der Stromnachfrage zur Verfügung steht.
-- Informationen zur Versorgungssicherheit beim Stromnetzbetrieb finden sie hier.
-- Laufende Beobachtung der Versorgungssicherheit
-- Die Bundesnetzagentur überwacht durchgehend die Versorgungssicherheit in Deutschland. Dabei berücksichtigen die zugrunde liegenden Untersuchungen auch Situationen mit geringer Einspeisung aus Wind- und Solaranlagen sowie den Ausstieg aus der Atom- und der Kohleverstromung. Die Untersuchungen zeigen, dass die Nachfrage am Strommarkt in Deutschland bis 2030 in allen untersuchten Szenarien gedeckt werden kann. Dabei ist eine höhere Nachfrage, unter anderem durch elektrisch betriebene Wärmepumpen und Elektromobilität, bereits berücksichtigt.
-- Die Bundesnetzagentur legt nach Paragraph 51 des EnWG alle zwei Jahre einen Monitoringbericht zur Versorgungssicherheit im Bereich der leitungsgebundenen Versorgung mit Elektrizität vor. Der aktuelle Bericht (hier) basiert auf zwei Gutachten: Das erste wurde von consentec, IER und FfE (Gutachten consentec et al., Datenanhang) angefertigt, eine Aktualisierung wurde von r2b vorgelegt (Gutachten r2b, Datenhang).
-- Unter dem Begriff Versorgungssicherheit wird im Rahmen dieses Monitoringberichts die angemessene Deckung des Strombedarfs verstanden. Diese umfasst die Aspekte Stromerzeugung, Stromtransport und die Verfügbarkeit von Energieträgern für die Stromerzeugung. Die Bundesregierung hat auf Basis des Berichtes der Bundesnetzagentur dem Bundestag Handlungsempfehlungen vorgelegt, diese finden Sie hier.
-- Der Bericht stellt die bestehende Versorgungslage und deren Entwicklung unter Berücksichtigung der nationalen und internationalen Marktgegebenheiten dar. Im Bericht werden keine Risiken mit unvorhersehbarer Eintrittswahrscheinlichkeit untersucht, da der Strommarkt hierfür selbst keine Vorsorge treffen kann. Die Absicherung für diese Risiken fällt in den Bereich der staatlichen Risikovorsorge durch Reserven, die zusätzlich zum Strommarkt in Extremsituationen zur Verfügung stehen.
-+ Öffnet Einzelsicht
-- Unsere Energiewende: sicher, sauber, bezahlbar
-- ZUM ARTIKEL
-- MODERNE KRAFTWERKSTECHNOLOGIEN/KWK
-- Hoch effizient und klimafreundlich
-- Moderne Kraftwerke mit hohen Umweltstandards sind ein wichtiger Baustein für eine zuverlässige Versorgung mit Energie. Auf dem Weg des Umbaus der Energieversorgung zu immer höheren Anteilen erneuerbarer Energien werden konventionelle Kraftwerke weiterhin einen wesentlichen Beitrag leisten.
-- Moderne Kraftwerke mit hohen Umweltstandards sind ein wichtiger Baustein für eine zuverlässige Versorgung mit Energie. Auf dem Weg des Umbaus der Energieversorgung zu immer höheren Anteilen erneuerbarer Energien werden regelbare Kraftwerke weiterhin einen wesentlichen Beitrag leisten.
-- Kraft-Wärme-Kopplung
-- Die Kraft-Wärme-Kopplung (KWK) ist ein wichtiger Baustein der Energiewende. Bei KWK handelt es sich um eine Kraftwerkstechnologie, die gleichzeitig Strom und Wärme erzeugt, und somit den eingesetzten Brennstoff deutlich effizienter und sparsamer verwendet. Die bei der Stromerzeugung entstehende Wärme wird als Wärmeenergie vor Ort oder über Wärmenetze genutzt. Mit der zunehmenden Verbreitung von klimaneutralen Erzeugungstechnologien für Strom und Wärme steigt der Anforderungsdruck auf die noch weitgehend fossil betriebene KWK, sich ebenfalls erneuerbaren Brennstoffen zuzuwenden.
-- Grundlage der Förderung von Kraftwerken mit KWK-Technologie ist seit 2002 das Kraft-Wärme-Kopplungsgesetz (KWKG). Es regelt eine umlagefinanzierte Förderung für die gemeinsame und hocheffiziente Erzeugung von Strom und Wärme. Nach dem KWKG erhalten Betreiber geförderter Kraft-Wärme-Kopplungsanlagen zeitlich befristete Zuschlagszahlungen pro Kilowattstunde KWK-Strom.
-- Novelle des Kraft-Wärme-Kopplungsgesetzes (KWKG)
-- Um sicherzustellen, dass die KWK auch in Zukunft eine wichtige Rolle bei der weiteren Umsetzung der Energiewende in Deutschland spielt, wurde das KWKG mehrfach novelliert.
-- Die Anfang 2016 in Kraft getretene Novelle hat das Ziel, die Nettostromerzeugung aus KWK-Anlagen zu erhöhen und Investitionen in besonders effiziente, flexible und CO2-arme Anlagen zu steigern.
-- Das Anfang 2017 in Kraft getretene KWK-Änderungsgesetz öffnet die Förderung für mehr Wettbewerb: Die Förderhöhe für Strom aus KWK-Anlagen mit einer Leistung zwischen 1 und 50 Megawatt (MW) wird seit Ende 2017 per Ausschreibungen festgelegt. Eine zusätzliche Ausschreibung für innovative KWK-Systeme fördert besonders flexible und emissionssparende KWK-Systeme, die Wärme aus erneuerbaren Energien in ihren Betrieb integrieren. Diese neue Förderkategorie soll der KWK Zukunftsperspektiven eröffnen und notwendige Investitionen in flexible Technologien anreizen. Mehr erfahren Sie dazu im Artikel zu „Kraft-Wärme-Kopplung“.
-- Die Gesetzesnovellierungen in den Jahren 2020 und 2022 setzen deutlich stärkere Signale in Richtung Flexibilisierung und Dekarbonisierung der KWK. So wurden mit dem überarbeiteten Kohle-Ersatzbonus die Anreize gestärkt, eine kohlebefeuerte Anlage durch ein gasbetriebenes Kraftwerk zu ersetzen. Für alle ab Juli 2023 zu genehmigenden neuen Gas-KWK-Anlagen gilt zudem eine neue Anforderung zur Wasserstofffähigkeit (H2-Readiness). Alle neuen Anlagen ab einer elektrischen Leistung von 10 Megawatt müssen nachweisen, dass sie zu einem späteren Zeitpunkt zu moderaten Mehrkosten auf den Betrieb mit 100% Wasserstoff umgerüstet werden können. Somit werden Lock-in-Effekte in ausschließlich fossile Technologien vermieden und eine graduelle Transformation des regelbaren Kraftwerksparks in Richtung klimaneutraler Brennstoffe ermöglicht.
-- PLATTFORM STROMMARKT
-- Gemeinsam den Strommarkt der Zukunft gestalten
-- Um Fragen der Weiterentwicklung des Strommarkts zu diskutieren, hat das Bundeswirtschaftsministerium ein Dialogforum gegründet: Die Plattform Strommarkt.
-- Die Plattform Strommarkt besteht aus dem Plenum sowie vier thematischen Arbeitsgruppen. Teilnehmende der Plattform sind Vertreterinnen und Vertreter von Behörden, Verbänden, Nicht-Regierungs-Organisationen und wissenschaftlichen Einrichtungen. In den regelmäßig stattfindenden Plenarsitzungen werden vor allen Dingen Themen diskutiert, die für alle Arbeitsgruppen relevant sind.
-- Newsletter "Energiewende direkt"
-- Neue Regeln für Europas Strommarkt (Ausgabe 10/2023)
-- "Was sind eigentlich Netzreserve, Kapazitätsreserve und Sicherheitsbereitschaft?" (Ausgabe 09/2020)
-- "Wie funktioniert eigentlich der Strommarkt?" (Ausgabe 06/2020)
-- "Aktionsplan für den grenzübergreifenden Stromhandel" (Ausgabe 04/2020)
-- ABONNIEREN
-+ Publikationen
-- Energiewende Energiedaten und -szenarien Netze und Netzausbau Versorgungssicherheit Erneuerbare Energien Kraft-Wärme-Kopplung Europäische und internationale Energiepolitik Energiespeicher EEG-Reform Energiepreise und Transparenz für Verbraucher 
-+ Energiewende Energiedaten und -szenarien Netze und Netzausbau Versorgungssicherheit Erneuerbare Energien Kraft-Wärme-Kopplung Europäische und internationale Energiepolitik Energiespeicher EEG-Reform Energiepreise und Transparenz für Verbraucher Energieeffizienz Energiewende im Gebäudebereich
-+ weitere anzeigen
-+ facebook
-+ youtube
-+ x
-+ instagram
-+ linkedin
-+ threads
-+ tiktok
-+ © 2024 Bundesministerium für Wirtschaft und Klimaschutz
-+ Impressum
-+ Barrierefreiheit
-+ Datenschutz
-+ Einwilligungsverwaltung
-+ Zum Seitenanfang
-+ Einwilligung in Tracking und / oder Videodienste
-+ Wir bitten Sie an dieser Stelle um Ihre Einwilligung für verschiedene Zusatzdienste unserer Webseite: Wir möchten die Nutzeraktivität mit Hilfe datenschutzfreundlicher Statistiken verstehen, um unsere Öffentlichkeitsarbeit zu</t>
-        </is>
-      </c>
+          <t>2024-09-11 09:08:21</t>
+        </is>
+      </c>
+      <c r="G37" s="1" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
@@ -14302,7 +14031,7 @@
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G38" s="1" t="n"/>
@@ -14319,270 +14048,6 @@
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t>Energieregulierung
-Aktuelles zum EnWG
-Zu den Informationen
-Gasversorgung
-Aktuelle Lage der Gasversorgung und Hintergrundinformationen
-Aktuelle Lage der Gasversorgung
-Beschlusskammern
-In den Beschlusskammern werden Regulierungsentscheidungen getroffen.
-Zu den Beschlusskammern
-Insight Blog
-Der Blog der Netze - Lesenswertes zu den Themen der Zukunft und der Arbeit der BNetzA.
-Zum Blog
-Updates per E-Mail
-Mailadresse
-BNetzA Aktuell
-04.09.2024 Allgemeines
-Amtsblatt_17 (pdf, 2 MB)
-02.09.2024
-Kohleausstieg: Wir haben erstmals kein Kohleverfeuerungsverbot angeordnet, um die gesetzlichen Ziele zu erreichen. Zum Stichtag für das Zieljahr 2027 sind bereits ausreichend Kohlekraftwerke aus dem Markt ausgeschieden. #KVBG
-➡️ bundesnetzagentur.de/1026708
-Wir konsultieren ab heute die Entwürfe der #Szenariorahmen Strom sowie Gas/Wasserstoff - die Grundlagen für die #Netzentwicklungsplan­ungen. Zwei Online-Veranstaltungen bieten die Gelegenheit, sich zu den Szenariorahmen zu informieren. Mehr dazu unter
-👉bundesnetzagentur.de/szenarior
-02.09.2024 Pressemitteilung
-Kohleausstieg - für 2027 erstmals kein Kohleverfeuerungsverbot erforderlich
-Bundesnetzagentur beteiligt Öffentlichkeit zu den Szenariorahmen Strom und Gas/Wasserstoff 2025–2037/2045
-30.08.2024
-Die #Bundesnetzagentur hat heute die Festlegung zur Verteilung der Mehrkosten veröffentlicht, die in Verteilernetzen mit besonders viel erneuerbarer #Stromerzeugung entstehen. Die Entlastung wird damit zum 1. Januar 2025 wirken. Weitere Informationen unter bundesnetzagentur.de/1026194
-Die #Bundesnetzagentur hat heute die erfolgreichen Gebote der Ausschreibung für #PV-#Freiflächenanlagen und für #Solaranlagen des Gebotstermins 1. Juli 2024 bekanntgegeben. ➡️Pressemitteilung unter bundesnetzagentur.de/1026346
-30.08.2024 Pressemitteilung
-Ergebnisse der Ausschreibung für PV-Freiflächenanlagen zum Gebotstermin 1. Juli 2024
-Bundesnetzagentur entscheidet zur fairen Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
-29.08.2024 Telekommunikation
-Mobiles Breitband
-29.08.2024
-Können wir das Internet regulieren? In Folge 2 unseres Podcasts sprechen wir über den Digital Services Act. Dr. Julia Marquier erklärt unsere neue Aufgabe als #DSC. Hört selbst, wie wir den digitalen Raum sicherer gestalten 👉🎧 bnetza.de/podcast
-28.08.2024
-Kurze, düstere Tage: Die kalte Jahreszeit ist eine Herausforderung für die #Energiewende – oder etwa doch nicht? Ob beispielsweise Windkraft die geringere Einspeisung der Solaranlagen ausgleicht, beantworten wir auf SMARD: smard.de/sharing/page/6570
-27.08.2024 Elektrizität und Gas
-Ausschreibung Biomasse: Gebotstermin 1. Oktober 2024
-Ausschreibung Solaranlagen zweites Segment: Gebotstermin 1. Oktober 2024
-26.08.2024 Telekommunikation
-Termine für Amateurfunkprüfungen (Stand 3. September 2024) (pdf, 90 KB)
-23.08.2024
-Wir sind auf der #gamescom2024! Besucht uns im Bereich "Jobs &amp; Career" und entdeckt spannende Karrieremöglichkeiten in IT &amp; Verwaltung. Noch bis Sonntag, 25. August, könnt ihr uns besuchen. Startet mit uns ins nächste Level eurer Karriere!
-23.08.2024 Insight Blog
-Der Feuerteufel in der Steckdose
-Funksteckdose fängt in Abwesenheit Feuer: Manche Geräte sind brandgefährlich. Dennoch geraten sie in den Handel. Wie sich die Online-Kundschaft schützen kann und wie wir Verbraucherinnen und Verbraucher schützen, berichten wir im #Insight-Blog 👉bundesnetzagentur.de/1024670
-22.08.2024
-In manchen Teilen Deutschlands gibt es mehr Windkraftanlagen, in anderen mehr PV-Anlagen. Welche Energieträge in deiner Nähe zur Stromerzeugung genutzt werden, verraten wir auf #SMARD: smard.de/page/home/topic-artic
-21.08.2024 Pressemitteilung
-Fortschritt beim Netzausbau: Bundesnetzagentur legt zweiten Trassenabschnitt für A-Nord fest
-Fortschritt beim Netzausbau:Trassenkorridor für Fulda-Main-Leitung festgelegt
-21.08.2024 Allgemeines
-Amtsblatt_16 (pdf, 397 KB)
-20.08.2024 Pressemitteilung
-Bundesnetzagentur leitet Verfahren gegen Energielieferanten ein
-20.08.2024
-Wir haben ein #Aufsichtsverfahren gegen die Elektrizitätsversorgung Berlin ElVeBe GmbH eingeleitet. Es besteht der Verdacht, dass das Unternehmen einige gesetzliche Voraussetzungen nicht einhält. Worum es genau geht ➡️➡️➡️ bundesnetzagentur.de/1023924
-16.08.2024 Pressemitteilung
-Fortschritt beim Netzausbau: Bundesnetzagentur schließt das Genehmigungsverfahren für die Leitung von Grafenrheinfeld nach Großgartach ab
-14.08.2024 Pressemitteilung
-Bundesnetzagentur legt Trasse für einen Abschnitt der Leitung Vieselbach - Mecklar fest
-14.08.2024
-Wolkenloser Himmel und strahlender Sonnenschein: Das gute Wetter hat am Wochenende für besonders gute Ergebnisse bei der Einspeisung durch #Erneuerbare gesorgt. In 11,5 Stunden konnten die Erneuerbaren die gesamte Netzlast in 🇩🇪 decken: smard.de/sharing/page/6526
-#SMARD
-13.08.2024 Elektrizität und Gas
-Engpasserlösbericht
-13.08.2024 Pressemitteilung
-Bundesnetzagentur genehmigt Verstärkung der Leitung zwischen Wullenstetten und Niederwangen
-12.08.2024
-Die Ergebnisse der #Offshore-Ausschreibungen für zentral voruntersuchte Flächen zum Gebotstermin 1. August 2024 sind veröffentlicht. Es handelt sich um Flächen in der Nordsee mit einer Gesamtleistung von 5.500 MW. Details zur Bekanntgabe 👉 bundesnetzagentur.de/1021880
-Die erste außergerichtliche Streitbeilegungsstelle in 🇩🇪 nach dem #DSA ist zertifiziert: Es ist die User Rights GmbH mit Sitz in Berlin. Die Stelle konzentriert sich auf Streitschlichtungen bei Social-Media-Plattformen. ➡️➡️➡️bundesnetzagentur.de/1019662
-12.08.2024 Pressemitteilung
-Ergebnisse der Offshore-Ausschreibungen für zentral voruntersuchte Flächen
-09.08.2024
-Die Zahl der Beschwerden zu Rufnummernmissbrauch erreichte auch 2023 ein hohes Niveau. Ein großer Teil betraf Belästigungen über Kurznachrichten, insbesondere im Zusammenhang mit dem sog. #Enkeltrick.
-#JahresberichtTK
-➡️www.bundesnetzagentur.de/berichte
-12.08.2024 Elektrizität und Gas
-Biomethan: Gebotstermin 1. September 2024
-Verbraucherportal
-Der direkte Weg zu den häufigsten Verbraucherfragen.
-Wählen Sie Ihr Thema
-Bitte auswählen
-Entlastungen bei Energiepreisen
-Ärger mit Rufnummern und Anrufen
-Internet und Telefon
-Internetgeschwindigkeit
-Lieferantenwechsel / Kündigung
-Post
-Schlichtung
-Los
-Fachthemen
-Auswahl der Themenbereiche für unser Fachpublikum
-Energie
-Telekom­munikation
-Digitalisierung
-Eisenbahnen
-Datenportal
-Zahlen und Daten der Bundesnetzagentur
-Zum Datenportal
-Ausbildung &amp; Studium
-Eine solide Ausbildung, gute Aufstiegsmöglichkeiten, spannende Aufgaben und ein tolles Team warten auf dich!
-Zu den Informationen und Angeboten
-Karriere
-Expert*innen für die Netzentwicklungsplanung (w/m/d)
-Verwaltungstalente (w/m/d) für den Bereich "Koordinierung Internationales Energie"
-Alle 21 Einträge ansehen
-Mediathek
-In der Mediathek finden Sie Berichte, Interviews, Bilder, Videos und weitere Informationen der Bundesnetzagentur.
-Zur Mediathek
-Interessante Links
-Pfeil nach links
-Pfeil nach rechts
-Navigation und Service
-Springe direkt zu:
-Inhalt
-Hauptmenu
-Suche
-Service
-KONTAKT
-ENGLISH
-LEICHTE SPRACHE
-GEBÄRDENSPRACHE VIDEOS
-RSS
-Fachthemen Verbraucherportal Datenportal Bundesnetzagentur Presse
-Startseite der Bundesnetzagentur
-Episode 2
-Können wir das Internet regulieren?
-Wir sprechen mit Dr. Julia Marquier über den Digital Services Coordinator.
-Zurück und Pause
-5 / 6
-Vor und Pause
-Pause
-Seite drucken Seite teilen Kurzlink
-Folgen Sie uns
-© BUNDESNETZAGENTUR - 2024
-ServiceMenu
-IMPRESSUM
-BARRIEREFREIHEIT
-DATENSCHUTZ
-INHALTSVERZEICHNIS
-Breitbandversorgung
-Funk und Frequenzen
-Marktregulierung
-Nummerierung
-Unternehmenspflichten
-Technik und Produktsicherheit
-Öffentliche Sicherheit
-Marktdaten
-Grundversorgung
-Unterversorgungsfeststellung
-Resilienz der Netze
-Beschlusskammer 2
-Beschlusskammer 3
-Beschlusskammer 11
-Digital Services Coordinator
-Platform-to-Business-Verordnung
-Technologien und Geschäftsmodelle
-Blockchain Infoportal
-Künstliche Intelligenz
-Online-Kommunikationsdienste
-Digitale Transformation
-Internet
-Netzneutralität
-Geoblocking
-Bekämpfung terroristischer Inhalte
-Internet of Things
-Peering- und Transitmärkte
-Digitale Transformation Mittelstand
-Kennzahlen
-Anlaufstellen für KMU (Datenbank)
-Best-Practice Übersicht
-Förderprogramme Bund
-Daten
-Förderwettbewerb Gaia-X
-Datenökonomie
-Datennutzungsgesetz
-Nachhaltigkeit
-Digitale Geschäftsmodelle
-Anreizsysteme KMU
-Indikatorenstudie
-Veranstaltungen
-Aktuelles
-Anbieterverzeichnis
-Marktbeobachtung
-Jährliche Datenerhebung
-Marktuntersuchungen
-Internationaler Briefpreisvergleich
-Paketpreisvergleich
-Meldestelle für Hinweisgebende
-Postgeheimnis und Datenschutz
-Postmarktprüfungen
-Qualitätsmonitoring
-Regelungen zur Postversorgung
-Sicherstellung des Postwesens
-Standardisierung
-Teilleistungen - Zugang und Entgelte
-Digitales und Telekommunikation
-Anfragen und Beschwerden
-Verbraucher-Radar
-Bundesnetzagentur
-Über uns
-Präsidium
-Aufgaben und Struktur
-Ausbildung und Studium
-Podcast Akte Tulpenfeld
-Beiräte, Gremien, Beauftragte
-Beirat
-Eisenbahninfrastrukturbeirat
-Bundesfachplanungsbeirat
-Länderausschuss
-Wissenschaftlicher Arbeitskreis für Regulierungsfragen
-Korruptionsprävention
-Internationales und Europa
-Energie (Internationales)
-ACER
-CEER
-PCI
-Telekommunikation
-BEREC
-IRG
-CEPT
-ITU
-RSPG
-RSC
-ERGP
-CEPT - CERP
-CEN
-UPU
-ISO
-IRG-Rail
-ENRRB
-Qualifizierte elektronische Signatur
-Shared Service Center
-Ausschreibungen
-Standorte
-Öffentliche Zustellung
-Kontakt
-Presse
-Pressemitteilungen
-Pressekontakt
-Amtsblatt
-Navigation
-Szenariorahmen      Bundesnetzagentur beteiligt Öffentlichkeit zu den Szenariorahmen Strom und Gas/Wasserstoff 2025–2037/2045
-Kohleausstieg       ...für 2027 erstmals kein Kohleverfeuerungsverbot erforderlich
-Fachtagung am 8./9. Oktober 2024      Aktuelle Probleme des Eisenbahnrechts
-Erneuerbare Energien      Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
-Digital Services Coordinator      DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen
-Inhalte teilen
-per E-Mail schicken
-×
-Szenariorahmen
-Kohleausstieg
-...für 2027 erstmals kein Kohleverfeuerungsverbot erforderlich
-Fachtagung am 8./9. Oktober 2024
-Aktuelle Probleme des Eisenbahnrechts
-Erneuerbare Energien
-Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
-DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen</t>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
         <is>
           <t>Netzentwicklungsplanung
 Aktuelles zur Netzentwicklungsplanung Strom, Gas und Wasserstoff
@@ -14847,53 +14312,124 @@
 DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
-        <is>
-          <t>There is a change</t>
-        </is>
-      </c>
-      <c r="F39" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-10 06:48:27</t>
-        </is>
-      </c>
-      <c r="G39" s="1" t="inlineStr">
-        <is>
-          <t>- Energieregulierung
-- Aktuelles zum EnWG
-+ Netzentwicklungsplanung
-+ Aktuelles zur Netzentwicklungsplanung Strom, Gas und Wasserstoff
-+ 09.09.2024 Post
-+ Qualitätsmonitoring
-+ 04.09.2024
-+ Die Netzbetreiber informieren uns monatlich unter anderem über ihre Redispatch-Maßnahmen. Mit Redispatch werden Überlastungen im Stromnetz entgegengewirkt. Seht auf #SMARD, welche Mengen in Eurem Bundesland geregelt werden müssen ➡️ smard.de/sharing/page/6571
-- 12.08.2024 Elektrizität und Gas
-- Biomethan: Gebotstermin 1. September 2024
-- Expert*innen für die Netzentwicklungsplanung (w/m/d)
-- Verwaltungstalente (w/m/d) für den Bereich "Koordinierung Internationales Energie"
-+ Fachinformatiker*in (w/m/d)
-+ Studentische Aushilfskräfte (w/m/d)
-- Alle 21 Einträge ansehen
-+ Alle 24 Einträge ansehen
-- Qualitätsmonitoring</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.bundesnetzagentur.de/DE/Fachthemen/ElektrizitaetundGas/Aktuelles_enwg/start_verteiler.html</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t>Große Beschlusskammer Energie
-Aktuelles und Hintergrund
-Integration von steuerbaren Verbrauchseinrichtungen
-Wie Wallboxen, Wärmepumpen und Co kurzfristig, sicher und zügig in das Stromnetz integriert werden.
-Eigenkapitalzinssatz
-Hier finden Sie alle Informationen.
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>Netzentwicklungsplanung
+Aktuelles zur Netzentwicklungsplanung Strom, Gas und Wasserstoff
+Zu den Informationen
+Gasversorgung
+Aktuelle Lage der Gasversorgung und Hintergrundinformationen
+Aktuelle Lage der Gasversorgung
+Beschlusskammern
+In den Beschlusskammern werden Regulierungsentscheidungen getroffen.
+Zu den Beschlusskammern
+Insight Blog
+Der Blog der Netze - Lesenswertes zu den Themen der Zukunft und der Arbeit der BNetzA.
+Zum Blog
+Updates per E-Mail
+Mailadresse
+BNetzA Aktuell
+09.09.2024 Post
+Qualitätsmonitoring
+04.09.2024
+Die Netzbetreiber informieren uns monatlich unter anderem über ihre Redispatch-Maßnahmen. Mit Redispatch werden Überlastungen im Stromnetz entgegengewirkt. Seht auf #SMARD, welche Mengen in Eurem Bundesland geregelt werden müssen ➡️ smard.de/sharing/page/6571
+04.09.2024 Allgemeines
+Amtsblatt_17 (pdf, 2 MB)
+02.09.2024
+Kohleausstieg: Wir haben erstmals kein Kohleverfeuerungsverbot angeordnet, um die gesetzlichen Ziele zu erreichen. Zum Stichtag für das Zieljahr 2027 sind bereits ausreichend Kohlekraftwerke aus dem Markt ausgeschieden. #KVBG
+➡️ bundesnetzagentur.de/1026708
+Wir konsultieren ab heute die Entwürfe der #Szenariorahmen Strom sowie Gas/Wasserstoff - die Grundlagen für die #Netzentwicklungsplan­ungen. Zwei Online-Veranstaltungen bieten die Gelegenheit, sich zu den Szenariorahmen zu informieren. Mehr dazu unter
+👉bundesnetzagentur.de/szenarior
+02.09.2024 Pressemitteilung
+Kohleausstieg - für 2027 erstmals kein Kohleverfeuerungsverbot erforderlich
+Bundesnetzagentur beteiligt Öffentlichkeit zu den Szenariorahmen Strom und Gas/Wasserstoff 2025–2037/2045
+30.08.2024
+Die #Bundesnetzagentur hat heute die Festlegung zur Verteilung der Mehrkosten veröffentlicht, die in Verteilernetzen mit besonders viel erneuerbarer #Stromerzeugung entstehen. Die Entlastung wird damit zum 1. Januar 2025 wirken. Weitere Informationen unter bundesnetzagentur.de/1026194
+Die #Bundesnetzagentur hat heute die erfolgreichen Gebote der Ausschreibung für #PV-#Freiflächenanlagen und für #Solaranlagen des Gebotstermins 1. Juli 2024 bekanntgegeben. ➡️Pressemitteilung unter bundesnetzagentur.de/1026346
+30.08.2024 Pressemitteilung
+Ergebnisse der Ausschreibung für PV-Freiflächenanlagen zum Gebotstermin 1. Juli 2024
+Bundesnetzagentur entscheidet zur fairen Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
+29.08.2024 Telekommunikation
+Mobiles Breitband
+29.08.2024
+Können wir das Internet regulieren? In Folge 2 unseres Podcasts sprechen wir über den Digital Services Act. Dr. Julia Marquier erklärt unsere neue Aufgabe als #DSC. Hört selbst, wie wir den digitalen Raum sicherer gestalten 👉🎧 bnetza.de/podcast
+28.08.2024
+Kurze, düstere Tage: Die kalte Jahreszeit ist eine Herausforderung für die #Energiewende – oder etwa doch nicht? Ob beispielsweise Windkraft die geringere Einspeisung der Solaranlagen ausgleicht, beantworten wir auf SMARD: smard.de/sharing/page/6570
+27.08.2024 Elektrizität und Gas
+Ausschreibung Biomasse: Gebotstermin 1. Oktober 2024
+Ausschreibung Solaranlagen zweites Segment: Gebotstermin 1. Oktober 2024
+26.08.2024 Telekommunikation
+Termine für Amateurfunkprüfungen (Stand 3. September 2024) (pdf, 90 KB)
+23.08.2024
+Wir sind auf der #gamescom2024! Besucht uns im Bereich "Jobs &amp; Career" und entdeckt spannende Karrieremöglichkeiten in IT &amp; Verwaltung. Noch bis Sonntag, 25. August, könnt ihr uns besuchen. Startet mit uns ins nächste Level eurer Karriere!
+23.08.2024 Insight Blog
+Der Feuerteufel in der Steckdose
+Funksteckdose fängt in Abwesenheit Feuer: Manche Geräte sind brandgefährlich. Dennoch geraten sie in den Handel. Wie sich die Online-Kundschaft schützen kann und wie wir Verbraucherinnen und Verbraucher schützen, berichten wir im #Insight-Blog 👉bundesnetzagentur.de/1024670
+22.08.2024
+In manchen Teilen Deutschlands gibt es mehr Windkraftanlagen, in anderen mehr PV-Anlagen. Welche Energieträge in deiner Nähe zur Stromerzeugung genutzt werden, verraten wir auf #SMARD: smard.de/page/home/topic-artic
+21.08.2024 Pressemitteilung
+Fortschritt beim Netzausbau: Bundesnetzagentur legt zweiten Trassenabschnitt für A-Nord fest
+Fortschritt beim Netzausbau:Trassenkorridor für Fulda-Main-Leitung festgelegt
+21.08.2024 Allgemeines
+Amtsblatt_16 (pdf, 397 KB)
+20.08.2024 Pressemitteilung
+Bundesnetzagentur leitet Verfahren gegen Energielieferanten ein
+20.08.2024
+Wir haben ein #Aufsichtsverfahren gegen die Elektrizitätsversorgung Berlin ElVeBe GmbH eingeleitet. Es besteht der Verdacht, dass das Unternehmen einige gesetzliche Voraussetzungen nicht einhält. Worum es genau geht ➡️➡️➡️ bundesnetzagentur.de/1023924
+16.08.2024 Pressemitteilung
+Fortschritt beim Netzausbau: Bundesnetzagentur schließt das Genehmigungsverfahren für die Leitung von Grafenrheinfeld nach Großgartach ab
+14.08.2024 Pressemitteilung
+Bundesnetzagentur legt Trasse für einen Abschnitt der Leitung Vieselbach - Mecklar fest
+14.08.2024
+Wolkenloser Himmel und strahlender Sonnenschein: Das gute Wetter hat am Wochenende für besonders gute Ergebnisse bei der Einspeisung durch #Erneuerbare gesorgt. In 11,5 Stunden konnten die Erneuerbaren die gesamte Netzlast in 🇩🇪 decken: smard.de/sharing/page/6526
+#SMARD
+13.08.2024 Elektrizität und Gas
+Engpasserlösbericht
+13.08.2024 Pressemitteilung
+Bundesnetzagentur genehmigt Verstärkung der Leitung zwischen Wullenstetten und Niederwangen
+12.08.2024
+Die Ergebnisse der #Offshore-Ausschreibungen für zentral voruntersuchte Flächen zum Gebotstermin 1. August 2024 sind veröffentlicht. Es handelt sich um Flächen in der Nordsee mit einer Gesamtleistung von 5.500 MW. Details zur Bekanntgabe 👉 bundesnetzagentur.de/1021880
+Die erste außergerichtliche Streitbeilegungsstelle in 🇩🇪 nach dem #DSA ist zertifiziert: Es ist die User Rights GmbH mit Sitz in Berlin. Die Stelle konzentriert sich auf Streitschlichtungen bei Social-Media-Plattformen. ➡️➡️➡️bundesnetzagentur.de/1019662
+12.08.2024 Pressemitteilung
+Ergebnisse der Offshore-Ausschreibungen für zentral voruntersuchte Flächen
+09.08.2024
+Die Zahl der Beschwerden zu Rufnummernmissbrauch erreichte auch 2023 ein hohes Niveau. Ein großer Teil betraf Belästigungen über Kurznachrichten, insbesondere im Zusammenhang mit dem sog. #Enkeltrick.
+#JahresberichtTK
+➡️www.bundesnetzagentur.de/berichte
+Verbraucherportal
+Der direkte Weg zu den häufigsten Verbraucherfragen.
+Wählen Sie Ihr Thema
+Bitte auswählen
+Entlastungen bei Energiepreisen
+Ärger mit Rufnummern und Anrufen
+Internet und Telefon
+Internetgeschwindigkeit
+Lieferantenwechsel / Kündigung
+Post
+Schlichtung
+Los
+Fachthemen
+Auswahl der Themenbereiche für unser Fachpublikum
+Energie
+Telekom­munikation
+Digitalisierung
+Eisenbahnen
+Datenportal
+Zahlen und Daten der Bundesnetzagentur
+Zum Datenportal
+Ausbildung &amp; Studium
+Eine solide Ausbildung, gute Aufstiegsmöglichkeiten, spannende Aufgaben und ein tolles Team warten auf dich!
+Zu den Informationen und Angeboten
+Karriere
+Ökonom*in (w/m/d) für die Krisenvorsorge, Resilienz und Cybersicherheit
+Fachinformatiker*in (w/m/d)
+Alle 23 Einträge ansehen
+Mediathek
+In der Mediathek finden Sie Berichte, Interviews, Bilder, Videos und weitere Informationen der Bundesnetzagentur.
+Zur Mediathek
+Interessante Links
+Pfeil nach links
+Pfeil nach rechts
 Navigation und Service
 Springe direkt zu:
 Inhalt
@@ -14906,13 +14442,13 @@
 GEBÄRDENSPRACHE VIDEOS
 RSS
 Fachthemen Verbraucherportal Datenportal Bundesnetzagentur Presse
-Sie sind hier:
-Homepage
-Fachthemen
-UntermenuOeffnen
-Energieregulierung
-Aktuelle Energieregulierung
-Der Bundestag hat eine umfangreiche Reform des Energiewirtschaftsgesetzes (EnWG) beschlossen. Teil dieses Paketes sind neue Aufgaben der Bundesnetzagentur im Bereich der Energieregulierung. Hierzu wird die Behörde in den kommenden Monaten zahlreiche Festlegungen treffen müssen. Zu den wichtigen Festlegungsverfahren werden hier regelmäßig Informationen veröffentlicht.
+Startseite der Bundesnetzagentur
+Erneuerbare Energien
+Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
+Zurück und Pause
+4 / 6
+Vor und Pause
+Pause
 Seite drucken Seite teilen Kurzlink
 Folgen Sie uns
 © BUNDESNETZAGENTUR - 2024
@@ -14921,9 +14457,6 @@
 BARRIEREFREIHEIT
 DATENSCHUTZ
 INHALTSVERZEICHNIS
-Energie
-Gasversorgung
-Telekom­munikation
 Breitbandversorgung
 Funk und Frequenzen
 Marktregulierung
@@ -14935,11 +14468,9 @@
 Grundversorgung
 Unterversorgungsfeststellung
 Resilienz der Netze
-Beschlusskammern
 Beschlusskammer 2
 Beschlusskammer 3
 Beschlusskammer 11
-Digitalisierung
 Digital Services Coordinator
 Platform-to-Business-Verordnung
 Technologien und Geschäftsmodelle
@@ -14967,7 +14498,6 @@
 Anreizsysteme KMU
 Indikatorenstudie
 Veranstaltungen
-Post
 Aktuelles
 Anbieterverzeichnis
 Marktbeobachtung
@@ -14978,25 +14508,19 @@
 Meldestelle für Hinweisgebende
 Postgeheimnis und Datenschutz
 Postmarktprüfungen
-Qualitätsmonitoring
 Regelungen zur Postversorgung
 Sicherstellung des Postwesens
 Standardisierung
 Teilleistungen - Zugang und Entgelte
-Eisenbahnen
-Verbraucherportal
 Digitales und Telekommunikation
 Anfragen und Beschwerden
-Schlichtung
 Verbraucher-Radar
 Bundesnetzagentur
 Über uns
 Präsidium
 Aufgaben und Struktur
-Karriere
 Ausbildung und Studium
 Podcast Akte Tulpenfeld
-Insight Blog
 Beiräte, Gremien, Beauftragte
 Beirat
 Eisenbahninfrastrukturbeirat
@@ -15032,17 +14556,68 @@
 Presse
 Pressemitteilungen
 Pressekontakt
-Mediathek
 Amtsblatt
 Navigation
-EnergieGasversorgungTelekom­munikationDigitalisierungPostEisenbahnen
-Große Beschlusskammer EnergieIntegration von steuerbaren VerbrauchseinrichtungenEigenkapitalzinssatz
+Szenariorahmen      Bundesnetzagentur beteiligt Öffentlichkeit zu den Szenariorahmen Strom und Gas/Wasserstoff 2025–2037/2045
+Kohleausstieg       ...für 2027 erstmals kein Kohleverfeuerungsverbot erforderlich
+Fachtagung am 8./9. Oktober 2024      Aktuelle Probleme des Eisenbahnrechts
+Episode 2      Können wir das Internet regulieren?
+Wir sprechen mit Dr. Julia Marquier über den Digital Services Coordinator.
+Digital Services Coordinator      DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen
 Inhalte teilen
 per E-Mail schicken
-×</t>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+×
+Szenariorahmen
+Kohleausstieg
+...für 2027 erstmals kein Kohleverfeuerungsverbot erforderlich
+Fachtagung am 8./9. Oktober 2024
+Aktuelle Probleme des Eisenbahnrechts
+Episode 2
+Können wir das Internet regulieren?
+DSC zertifiziert erste nationale Streitbeilegungsstelle für Online-Plattformen</t>
+        </is>
+      </c>
+      <c r="E39" s="1" t="inlineStr">
+        <is>
+          <t>There is a change</t>
+        </is>
+      </c>
+      <c r="F39" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-11 09:08:21</t>
+        </is>
+      </c>
+      <c r="G39" s="1" t="inlineStr">
+        <is>
+          <t>+ Ökonom*in (w/m/d) für die Krisenvorsorge, Resilienz und Cybersicherheit
+- Studentische Aushilfskräfte (w/m/d)
+- Alle 24 Einträge ansehen
++ Alle 23 Einträge ansehen
++ Erneuerbare Energien
++ Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
+- Episode 2
+- Können wir das Internet regulieren?
+- Wir sprechen mit Dr. Julia Marquier über den Digital Services Coordinator.
+- 5 / 6
++ 4 / 6
+- Erneuerbare Energien      Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
++ Episode 2      Können wir das Internet regulieren?
++ Wir sprechen mit Dr. Julia Marquier über den Digital Services Coordinator.
+- Erneuerbare Energien
+- Faire Verteilung von Netzkosten aus der Integration Erneuerbarer Energien
++ Episode 2
++ Können wir das Internet regulieren?</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>https://www.bundesnetzagentur.de/DE/Fachthemen/ElektrizitaetundGas/Aktuelles_enwg/start_verteiler.html</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>Große Beschlusskammer Energie
 Aktuelles und Hintergrund
@@ -15197,100 +14772,14 @@
 ×</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
-        <is>
-          <t>There is a change</t>
-        </is>
-      </c>
-      <c r="F40" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-10 06:48:27</t>
-        </is>
-      </c>
-      <c r="G40" s="1" t="inlineStr">
-        <is>
-          <t>- Gasversorgung
-- EnergieGasversorgungTelekom­munikationDigitalisierungPostEisenbahnen
-+ EnergieTelekom­munikationDigitalisierungPostEisenbahnenBeschlusskammern</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.bundesnetzagentur.de/DE/Fachthemen/ElektrizitaetundGas/Aktuelles_enwg/GBK/start.html</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t>Große Be­schluss­kam­mer Ener­gie
-Aktuelles
-Eckpunktepapier zu Nachfolgeregelungen für ARegV, StromNEV und GasNEV
-Entscheidungen
-Besetzung der Großen Beschlusskammer Energie
-Gesetzliche Grundlagen
-Mit der Novelle des EnWG zum Jahreswechsel 2023/2024 wurde bei der
-Bundesnetzagentur eine „Große Beschlusskammer“ (GBK) eingerichtet.
-Sie besteht aus dem Präsidium, den sachlich zuständigen Vorsitzenden
-der Beschlusskammern 4, 6 bis 9 und den Abteilungsleitungen der
-Abteilungen 3 (Internationales), 6 (Energie) und 8 (Netzausbau).
-Die Große Beschlusskammer Energie trifft bundesweit einheitliche Festlegungen zu den Bedingungen und Methoden für den Netzzugang und zu den Bedingungen und Methoden zur Ermittlung der dafür erhobenen Entgelte, inklusive der Kosten- und Anreizregulierung.
-Zu den Konsultationen der einzelnen Festlegungen
-Konsultation zu Bestimmungen zur Bildung der für den Zugang zum Wasserstoff-Kernnetz zu erhebenden Netzentgelte und zur Einrichtung eines für eine gewisse Dauer wirksamen Amortisationsmechanismus (WANDA)
-Die Bundesnetzagentur hat am 9. April 2024 einen Festlegungsentwurf zur Konsultation veröffentlicht.
-Konsultation Eckpunkte zur Anpassung der Abschreibungsmodalitäten im Gassektor (KANU 2.0)
-Die Bundesnetzagentur hat am 6. März 2024 ein Eckpunktepapier veröffentlicht, in dem sie eine Anpassung der Abschreibungsmodalitäten für Anlagen im Gassektor vorschlägt. Das Eckpunktepapier bereitet eine Festlegung der Bundesnetzagentur hierzu vor.
-Die GasNEV wird zum 31. Dezember 2027, die ARegV und die StromNEV zum 31. Dezember 2028 außer Kraft treten. Der Prozess zur Entwicklung von Nachfolgeregelungen muss insofern kurzfristig begonnen werden.
-Die Bundesnetzagentur hat ihre ersten Überlegungen zu möglichen Anpassungen an der Regulierung in einem Eckpunktepapier zusammengefasst. Sie hat dieses Eckpunktepapier am 18. Januar 2024 veröffentlicht. Das Eckpunktepapier macht in Teilen konkrete Vorschläge zur Anpassung der Regulierung, stellt teilweise aber auch verschiedene Optionen vor.
-Netze. Effizient. Sicher. Transformiert. Eckpunktepapier (Stand 18.01.2024) (pdf / 320 KB)
-Networks. Efficient. Secure. Transforming. Key elements paper (as at 18 January 2024) (pdf / 532 KB)
-Auftaktveranstaltung
-Am 2. Februar 2024 fand zur Vorstellung des Eckpunktepapiers eine Auftaktveranstaltung statt. Zu dieser Veranstaltung hatte die Bundesnetzagentur Vertreterinnen und Vertreter der Netzbetreiber, der Energiebranche, der Wissenschaft, Behörden, Gerichtsbarkeit und Arbeitnehmervertreter nach Bonn eingeladen.
-Agenda zur Auftaktveranstaltung (pdf / 105 KB)
-Mitschnitt der Veranstaltung
-Vorträge
-Organisatorische Hinweise (pdf / 154 KB)
-Organisation der Großen Beschlusskammer - Barbie Haller (pdf / 450 KB)
-Rahmenfestlegung zur Regulierungssystematik - Achim Zerres (pdf / 1 MB)
-Bestimmung der Netzkosten - Karsten Bourwieg, Dr. Christian Schütte (pdf / 145 KB)
-WACC (Weighted Average Cost of Capital) - Wolfgang Wetzl, Stefan Tappe (pdf / 135 KB)
-Anpassung von OPEX - Stefan Albrecht (pdf / 235 KB)
-Eine umfassende Rückmeldung zur Veranstaltung wie zum Eckpunktepapier war in schriftlicher Form bis zum 29. Februar 2024 möglich. Die Stellungnahmen sind auf der folgenden Seite veröffentlicht: Eckpunktepapier zu Nachfolgeregelungen für ARegV, StromNEV und GasNEV
-Die Große Beschlusskammer Energie ist zunächst zuständig für alle bundesweit geltenden Festlegungen zu den Bedingungen und Methoden
-für den Netzzugang und
-zur Ermittlung der dafür erhobenen Entgelte, inklusive der Kosten- und Anreizregulierung.
-Für Entscheidungen der Großen Beschlusskammer Energie werden für eine zu treffende Festlegung aus dem Gremium neben dem Präsidium jeweils drei Beisitzenden und daraus ein Berichterstatter/eine Berichterstatterin benannt.
-Die Verfahren werden durch eine Koordinierungsstelle unterstützt.
-Die Große Beschlusskammer Energie hat die Möglichkeit, Festlegungen aus ihrem Zuständigkeitsbereich an eine der anderen Beschlusskammern zu delegieren.
-Zum aktuellen Stand sind Mitglieder:
-Herr Müller (Präsident und Vorsitzender der Großen Beschlusskammer Energie)
-Frau Haller (Vizepräsidentin)
-Frau Dr. Brönstrup (Vizepräsidentin)
-Frau Dr. Groebel (Abteilungsleiterin Abteilung 3)
-Herr Zerres (Abteilungsleiter Abteilung 6)
-Herr Otte (Abteilungsleiter Abteilung 8)
-Herr Lüdtke-Handjery (Vorsitzender Beschlusskammer 4)
-Herr Mielke (Vorsitzender Beschlusskammer 6)
-Frau Zeidler (Vorsitzende Beschlusskammer 7)
-Herr Bourwieg (Vorsitzender Beschlusskammer 8)
-Herr Dr. Schütte (Vorsitzender Beschlusskammer 9)
-§ 59 Abs. 3 EnWG - Einrichtung der Großen Beschlusskammer Energie bei der Bundesnetzagentur
-Das Gesetz beschränkt den Zuständigkeitsbereich auf die Regelungen nach den §§ 20 bis 23a, nach den §§ 24 bis 24b sowie nach § 28o Absatz 3 EnWG.
-Kontakt
-Bundesnetzagentur
-für Elektrizität, Gas, Telekommunikation, Post und Eisenbahnen
-Große Beschlusskammer Energie
-Tulpenfeld 4
-53113 Bonn
-Telefon: 0228 – 14 0
-Fax: 0228 – 14 8872
-E-Mail: gbk@bnetza.de
-Dokumente
-Pressemitteilung
-Zusatzinformationen
-Direkt zur GBK
-Große Beschlusskammer
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>Große Beschlusskammer Energie
+Aktuelles und Hintergrund
+Integration von steuerbaren Verbrauchseinrichtungen
+Wie Wallboxen, Wärmepumpen und Co kurzfristig, sicher und zügig in das Stromnetz integriert werden.
+Eigenkapitalzinssatz
+Hier finden Sie alle Informationen.
 Navigation und Service
 Springe direkt zu:
 Inhalt
@@ -15308,6 +14797,8 @@
 Fachthemen
 UntermenuOeffnen
 Energieregulierung
+Aktuelle Energieregulierung
+Der Bundestag hat eine umfangreiche Reform des Energiewirtschaftsgesetzes (EnWG) beschlossen. Teil dieses Paketes sind neue Aufgaben der Bundesnetzagentur im Bereich der Energieregulierung. Hierzu wird die Behörde in den kommenden Monaten zahlreiche Festlegungen treffen müssen. Zu den wichtigen Festlegungsverfahren werden hier regelmäßig Informationen veröffentlicht.
 Seite drucken Seite teilen Kurzlink
 Folgen Sie uns
 © BUNDESNETZAGENTUR - 2024
@@ -15317,7 +14808,6 @@
 DATENSCHUTZ
 INHALTSVERZEICHNIS
 Energie
-Gasversorgung
 Telekom­munikation
 Breitbandversorgung
 Funk und Frequenzen
@@ -15363,6 +14853,7 @@
 Indikatorenstudie
 Veranstaltungen
 Post
+Aktuelles
 Anbieterverzeichnis
 Marktbeobachtung
 Jährliche Datenerhebung
@@ -15383,6 +14874,7 @@
 Anfragen und Beschwerden
 Schlichtung
 Verbraucher-Radar
+Bundesnetzagentur
 Über uns
 Präsidium
 Aufgaben und Struktur
@@ -15421,20 +14913,40 @@
 Ausschreibungen
 Standorte
 Öffentliche Zustellung
+Kontakt
 Presse
 Pressemitteilungen
 Pressekontakt
 Mediathek
 Amtsblatt
 Navigation
-EnergieGasversorgungTelekom­munikationDigitalisierungPostEisenbahnen
+EnergieTelekom­munikationDigitalisierungPostEisenbahnenBeschlusskammern
 Große Beschlusskammer EnergieIntegration von steuerbaren VerbrauchseinrichtungenEigenkapitalzinssatz
 Inhalte teilen
 per E-Mail schicken
 ×</t>
         </is>
       </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="E40" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="F40" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-11 09:08:21</t>
+        </is>
+      </c>
+      <c r="G40" s="1" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>https://www.bundesnetzagentur.de/DE/Fachthemen/ElektrizitaetundGas/Aktuelles_enwg/GBK/start.html</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>Große Be­schluss­kam­mer Ener­gie
 Aktuelles
@@ -15645,66 +15157,75 @@
 ×</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
-        <is>
-          <t>There is a change</t>
-        </is>
-      </c>
-      <c r="F41" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-10 06:48:27</t>
-        </is>
-      </c>
-      <c r="G41" s="1" t="inlineStr">
-        <is>
-          <t>- Gasversorgung
-- EnergieGasversorgungTelekom­munikationDigitalisierungPostEisenbahnen
-+ EnergieTelekom­munikationDigitalisierungPostEisenbahnenBeschlusskammern</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n"/>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.bundesnetzagentur.de/DE/Fachthemen/ElektrizitaetundGas/Aktuelles_enwg/VerteilungNetzkosten/start.html</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t>Ver­tei­lung von Netz­kos­ten
-3-stufiges Modell
-Häufige Fragen und Antworten
-Festlegung
-Die Bundesnetzagentur hat ein Eckpunktepapier zur Verteilung der Mehrkosten veröffentlicht, die in Stromnetzen mit viel erneuerbarer Stromerzeugung entstehen. Netzbetreiber mit besonderen hohen Kosten durch den Ausbau der erneuerbaren Stromerzeugung sollen entlastet werden, indem die Mehrkosten bundesweit verteilt werden.
-In Regionen, die deutlich mehr Strom erzeugen sie als verbrauchen, entstehen für den Umbau der Netze erhebliche Kosten. Gleichzeitig versorgt der Strom nicht nur die Region, sondern ganz Deutschland. Die Netzentgelte in diesen Regionen sollen sinken. Dies führt auf der anderen Seite zu überschaubaren zusätzlichen Kosten für alle Stromverbraucher in Deutschland.
-Eckpunkte für eine Festlegung nach § 21 Abs. 3 S. 4 Nr. 3 g) und h) EnWG-E zur sachgerechten Verteilung von Mehrkosten aus der Integration von Anlagen zur Erzeugung von Strom aus erneuerbaren Energien (pdf / 3 MB)
-Entwicklung der Nettonetzentgelte für Haushaltskunden (2015/2023)
-Entwicklung der Nettonetzentgelte für Gewerbekunden (2015/2023)
-Der erste Schritt ist die Ermittlung, ob ein Netzbetreiber von einer besonderen Kostenbelastung aus dem Ausbau der Erneuerbaren betroffen ist. Hierzu schlägt die Bundesnetzagentur eine Kennzahl vor, deren Grundlage die ans Netz angeschlossene erneuerbare Erzeugungsleistung bildet. Wenn diese Kennzahl eines Netzbetreibers einen festzulegenden Schwellenwert überschreitet, kann die in einem zweiten Schritt ermittelte Mehrbelastung bundesweit verteilt werden. In den betroffenen Regionen sinken die Netzentgelte.
-Hätte das Modell für das Jahr 2023 Anwendung gefunden, wären 26 Netzbetreiber in Zuständigkeit der Bundesnetzagentur berechtigt, ihre Mehrkosten zu wälzen. Bei den betroffenen Netzbetreibern würden die Netzentgelte um bis zu 39 Prozent sinken. Sie lägen damit meist unter und nur zum Teil noch leicht über dem Bundesdurchschnitt. Ein durchschnittlicher Haushalt (3.500 kWh/a) in den betroffenen Netzgebieten spart dadurch bis zu 192 Euro im Jahr.
-Für eine erste Abschätzung des Wälzungsvolumens am 1. Dezember 2023 hat die Bundesnetzagentur teilweise Strukturparameter zugrunde gelegt, die sich auf die Regulierungsperiode bis 2023 beziehen. Mittlerweile stehen aktuellere Strukturparameter zur Verfügung, mit denen das Wälzungsvolumen erneut abgeschätzt wurde. Hiernach ergibt sich ein höheres beispielhaftes Wälzungsvolumen von insgesamt 1,55 Mrd. Euro.
-Zum einen erreichen einzelne Netzbetreiber nun erstmalig die erforderliche EE-Kennzahl in mindestens einer Netz- oder Umspannebene, die sie zu einer Wälzung berechtigt. Zum anderen erhöhen sich die Wälzungsbeträge solcher Netzbetreiber, die bereits zuvor, also auf Basis der älteren Strukturparameter, die EE-Kennzahl überschritten. Weitere Einzelheiten zu den aktualisierten Berechnungen können der nachfolgenden Übersicht sowie dem Anhang des Eckpunktepapiers entnommen werden.
-Bei sämtlichen veröffentlichten Beträgen handelt es sich weiterhin nicht um die ggf. für das Jahr 2025 zu bestimmenden Wälzungsbeträge und Wirkungen. Vielmehr sollen die Zahlen als Indikation dienen, wie die in den Eckpunkten niedergelegten Regelungen wirken würden. Diese können im weiteren Verfahren erheblichen Änderungen unterliegen.
-Brutto-Entlastung der einzelnen Bundesländer
-Die Darstellung enthält notwendige Vereinfachungen. Die Zuordnung der Wälzungsbeträge zu einem bestimmten Bundesland erfolgt in der Abbildung anhand des Firmen- bzw. Verwaltungssitzes des jeweiligen Netzbetreibers. So können Netzgebiete mit hohen EE-Integrationskosten von einem Netzbetreiber betrieben werden, dessen Firmen- oder Verwaltungssitz in einem (benachbarten) Bundesland liegt. Die Entlastungen werden dann dem Bundesland am Firmensitz zugeordnet, da eine kundenbezogene, geografische Darstellung der Entlastung nicht möglich ist.
-Es gibt noch weitere Effekte der Entlastung, die nicht dargestellt sind: So werden nachgelagerte Netzbetreiber bei einer Absenkung der vorgelagerten Netzentgelte mittelbar mit entlastet. Denn nachgelagerte, meist kleinere Netzbetreiber wie z. B. Stadtwerke zahlen ebenfalls Netzentgelte an die vorgelagerten Regionalversorger. So werden auch diese bei sinkenden Netzentgelten der Regionalversorger mittelbar entlastet, auch wenn sie keine eigenen Kosten in die Wälzung geben können, weil sie die EE-Kennzahl nicht überschreiten.
-Die Entlastung beträgt bezogen auf 2023 brutto rund 1,55 Mrd. Euro.
-Entlastet werden vor allem Netzbetreiber mit Sitz in Brandenburg (381 Mio. Euro), Bayern (345 Mio. Euro), Schleswig-Holstein (320 Mio. Euro) und Sachsen-Anhalt (205 Mio. Euro). Auch in Niedersachsen (126 Mio. Euro), Mecklenburg-Vorpommern (66 Mio. Euro), Baden-Württemberg (33 Mio. Euro), Thüringen (32 Mio. Euro), Nordrhein-Westfalen (21 Mio. Euro) und Hessen (12 Mio. Euro) kommt es zu spürbaren Entlastungen.
-Geringere Entlastungen ergeben sich auch für einzelne Netzbetreiber in Bremen, Rheinland-Pfalz und im Saarland. In den Ländern Berlin, Hamburg und Sachsen hat kein Netzbetreiber einen Firmensitz, der Kosten wälzen kann. Kunden in Sachsen werden dennoch merklich entlastet, da das Netzgebiet der Mitnetz Strom – ein nach derzeitigem Stand wälzungsberechtigter Netzbetreiber – auch große Gebiete in Sachsen umfasst. Auf Grund der Zuordnung über den Geschäftssitz (s. o.) werden die Wälzungsbeträge der Mitnetz Strom in der Darstellung jedoch vollständig Sachsen-Anhalt zugerechnet.
-Die begünstigten Netzbetreiber erhalten in einem dritten Schritt einen finanziellen Ausgleich für die Mehrbelastung.
-Alle Stromverbraucher in Deutschland finanzieren die Kosten solidarisch, indem diese bundesweit gleichmäßig verteilt werden.
-Konkret beabsichtigt die Bundesnetzagentur, den Mechanismus nach § 19 Abs. 2 StromNEV zu nutzen. Die Umlage ist ein etablierter Mechanismus zum Ausgleich bestimmter Netzkosten zwischen allen Netznutzern. Die § 19-Umlage ist schon heute Bestandteil des Strompreises. Sie dient dazu, entgangene Erlöse eines Netzbetreibers auszugleichen, die entstehen, weil bestimmte Verbraucher ein reduziertes Netzentgelt zahlen.
-Der deutlichen Entlastung der betroffenen Regionen stehen damit überschaubare zusätzliche Kosten für alle Stromverbraucher gegenüber. Die § 19-Umlage würde von 0,403 ct/kWh (für 2024) um 0,605 ct/kWh auf 1,008 ct/kWh steigen. Dies bedeutet für einen durchschnittlichen Haushalt (3.500 kWh/a) zusätzliche Kosten von etwa 21 Euro pro Jahr.
-1. Wie werden die Ermäßigung bzw. die Erhöhung berechnet?
-2. Welche Netzbetreiber werden entlastet?
-3. Wie erfahre ich, ob mein Netzbetreiber die Entgelte absenken kann?
-4. Wie hoch sind die zusätzlichen Kosten für alle Kunden?
-5. Warum sind die Netzentgelte in einigen Regionen höher als in anderen?
-6. Wie werden die Netzentgelte berechnet?
-7. Wie funktioniert die Regulierung der Netzentgelte durch die Bundesnetzagentur?
-Die Bundesnetzagentur beabsichtigt, eine Festlegung zur sachgerechten Verteilung der Mehrkosten im dritten Quartal 2024 zu erlassen. Sie tritt frühestens zum 1. Januar 2025 in Kraft.
-Einleitung eines Verfahrens zur Festlegung zur sachgerechten Verteilung von Mehrkosten aus der Integration von Anlagen zur Erzeugung von Strom aus erneuerbaren Energien (BK8-24/001-A)
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>Große Be­schluss­kam­mer Ener­gie
+Aktuelles
+Eckpunktepapier zu Nachfolgeregelungen für ARegV, StromNEV und GasNEV
+Entscheidungen
+Besetzung der Großen Beschlusskammer Energie
+Gesetzliche Grundlagen
+Mit der Novelle des EnWG zum Jahreswechsel 2023/2024 wurde bei der
+Bundesnetzagentur eine „Große Beschlusskammer“ (GBK) eingerichtet.
+Sie besteht aus dem Präsidium, den sachlich zuständigen Vorsitzenden
+der Beschlusskammern 4, 6 bis 9 und den Abteilungsleitungen der
+Abteilungen 3 (Internationales), 6 (Energie) und 8 (Netzausbau).
+Die Große Beschlusskammer Energie trifft bundesweit einheitliche Festlegungen zu den Bedingungen und Methoden für den Netzzugang und zu den Bedingungen und Methoden zur Ermittlung der dafür erhobenen Entgelte, inklusive der Kosten- und Anreizregulierung.
+Zu den Konsultationen der einzelnen Festlegungen
+Konsultation zu Bestimmungen zur Bildung der für den Zugang zum Wasserstoff-Kernnetz zu erhebenden Netzentgelte und zur Einrichtung eines für eine gewisse Dauer wirksamen Amortisationsmechanismus (WANDA)
+Die Bundesnetzagentur hat am 9. April 2024 einen Festlegungsentwurf zur Konsultation veröffentlicht.
+Konsultation Eckpunkte zur Anpassung der Abschreibungsmodalitäten im Gassektor (KANU 2.0)
+Die Bundesnetzagentur hat am 6. März 2024 ein Eckpunktepapier veröffentlicht, in dem sie eine Anpassung der Abschreibungsmodalitäten für Anlagen im Gassektor vorschlägt. Das Eckpunktepapier bereitet eine Festlegung der Bundesnetzagentur hierzu vor.
+Die GasNEV wird zum 31. Dezember 2027, die ARegV und die StromNEV zum 31. Dezember 2028 außer Kraft treten. Der Prozess zur Entwicklung von Nachfolgeregelungen muss insofern kurzfristig begonnen werden.
+Die Bundesnetzagentur hat ihre ersten Überlegungen zu möglichen Anpassungen an der Regulierung in einem Eckpunktepapier zusammengefasst. Sie hat dieses Eckpunktepapier am 18. Januar 2024 veröffentlicht. Das Eckpunktepapier macht in Teilen konkrete Vorschläge zur Anpassung der Regulierung, stellt teilweise aber auch verschiedene Optionen vor.
+Netze. Effizient. Sicher. Transformiert. Eckpunktepapier (Stand 18.01.2024) (pdf / 320 KB)
+Networks. Efficient. Secure. Transforming. Key elements paper (as at 18 January 2024) (pdf / 532 KB)
+Auftaktveranstaltung
+Am 2. Februar 2024 fand zur Vorstellung des Eckpunktepapiers eine Auftaktveranstaltung statt. Zu dieser Veranstaltung hatte die Bundesnetzagentur Vertreterinnen und Vertreter der Netzbetreiber, der Energiebranche, der Wissenschaft, Behörden, Gerichtsbarkeit und Arbeitnehmervertreter nach Bonn eingeladen.
+Agenda zur Auftaktveranstaltung (pdf / 105 KB)
+Mitschnitt der Veranstaltung
+Vorträge
+Organisatorische Hinweise (pdf / 154 KB)
+Organisation der Großen Beschlusskammer - Barbie Haller (pdf / 450 KB)
+Rahmenfestlegung zur Regulierungssystematik - Achim Zerres (pdf / 1 MB)
+Bestimmung der Netzkosten - Karsten Bourwieg, Dr. Christian Schütte (pdf / 145 KB)
+WACC (Weighted Average Cost of Capital) - Wolfgang Wetzl, Stefan Tappe (pdf / 135 KB)
+Anpassung von OPEX - Stefan Albrecht (pdf / 235 KB)
+Eine umfassende Rückmeldung zur Veranstaltung wie zum Eckpunktepapier war in schriftlicher Form bis zum 29. Februar 2024 möglich. Die Stellungnahmen sind auf der folgenden Seite veröffentlicht: Eckpunktepapier zu Nachfolgeregelungen für ARegV, StromNEV und GasNEV
+Die Große Beschlusskammer Energie ist zunächst zuständig für alle bundesweit geltenden Festlegungen zu den Bedingungen und Methoden
+für den Netzzugang und
+zur Ermittlung der dafür erhobenen Entgelte, inklusive der Kosten- und Anreizregulierung.
+Für Entscheidungen der Großen Beschlusskammer Energie werden für eine zu treffende Festlegung aus dem Gremium neben dem Präsidium jeweils drei Beisitzenden und daraus ein Berichterstatter/eine Berichterstatterin benannt.
+Die Verfahren werden durch eine Koordinierungsstelle unterstützt.
+Die Große Beschlusskammer Energie hat die Möglichkeit, Festlegungen aus ihrem Zuständigkeitsbereich an eine der anderen Beschlusskammern zu delegieren.
+Zum aktuellen Stand sind Mitglieder:
+Herr Müller (Präsident und Vorsitzender der Großen Beschlusskammer Energie)
+Frau Haller (Vizepräsidentin)
+Frau Dr. Brönstrup (Vizepräsidentin)
+Frau Dr. Groebel (Abteilungsleiterin Abteilung 3)
+Herr Zerres (Abteilungsleiter Abteilung 6)
+Herr Otte (Abteilungsleiter Abteilung 8)
+Herr Lüdtke-Handjery (Vorsitzender Beschlusskammer 4)
+Herr Mielke (Vorsitzender Beschlusskammer 6)
+Frau Zeidler (Vorsitzende Beschlusskammer 7)
+Herr Bourwieg (Vorsitzender Beschlusskammer 8)
+Herr Dr. Schütte (Vorsitzender Beschlusskammer 9)
+§ 59 Abs. 3 EnWG - Einrichtung der Großen Beschlusskammer Energie bei der Bundesnetzagentur
+Das Gesetz beschränkt den Zuständigkeitsbereich auf die Regelungen nach den §§ 20 bis 23a, nach den §§ 24 bis 24b sowie nach § 28o Absatz 3 EnWG.
+Kontakt
+Bundesnetzagentur
+für Elektrizität, Gas, Telekommunikation, Post und Eisenbahnen
+Große Beschlusskammer Energie
+Tulpenfeld 4
+53113 Bonn
+Telefon: 0228 – 14 0
+Fax: 0228 – 14 8872
+E-Mail: gbk@bnetza.de
+Dokumente
+Pressemitteilung
+Zusatzinformationen
+Direkt zur GBK
+Große Beschlusskammer
 Navigation und Service
 Springe direkt zu:
 Inhalt
@@ -15719,6 +15240,9 @@
 Fachthemen Verbraucherportal Datenportal Bundesnetzagentur Presse
 Sie sind hier:
 Homepage
+Fachthemen
+UntermenuOeffnen
+Energieregulierung
 Seite drucken Seite teilen Kurzlink
 Folgen Sie uns
 © BUNDESNETZAGENTUR - 2024
@@ -15727,9 +15251,7 @@
 BARRIEREFREIHEIT
 DATENSCHUTZ
 INHALTSVERZEICHNIS
-Fachthemen
 Energie
-Gasversorgung
 Telekom­munikation
 Breitbandversorgung
 Funk und Frequenzen
@@ -15775,7 +15297,6 @@
 Indikatorenstudie
 Veranstaltungen
 Post
-Aktuelles
 Anbieterverzeichnis
 Marktbeobachtung
 Jährliche Datenerhebung
@@ -15796,7 +15317,6 @@
 Anfragen und Beschwerden
 Schlichtung
 Verbraucher-Radar
-Bundesnetzagentur
 Über uns
 Präsidium
 Aufgaben und Struktur
@@ -15835,41 +15355,39 @@
 Ausschreibungen
 Standorte
 Öffentliche Zustellung
-Kontakt
 Presse
 Pressemitteilungen
 Pressekontakt
 Mediathek
 Amtsblatt
 Navigation
-Die Bundesnetzagentur schlägt ein gestuftes Modell vor. Der erste Schritt ist die Ermittlung, ob ein Netzbetreiber von einer besonderen Kostenbelastung aus dem Ausbau der Erneuerbaren betroffen ist. Hierzu schlägt die Bundesnetzagentur eine Kennzahl vor, deren Grundlage die ans Netz angeschlossene erneuerbare Erzeugungsleistung bildet. Wenn diese Kennzahl eines Netzbetreibers einen festzulegenden Schwellenwert überschreitet, kann die in einem zweiten Schritt ermittelte Mehrbelastung bundesweit verteilt werden. In den betroffenen Regionen sinken die Netzentgelte.
-Die begünstigten Netzbetreiber erhalten in einem dritten Schritt einen finanziellen Ausgleich für die Mehrbelastung. Alle Stromverbraucher in Deutschland finanzieren die Kosten solidarisch, indem diese bundesweit gleichmäßig verteilt werden.
-Aktuell wären 26 Netzbetreiber in Zuständigkeit der Bundesnetzagentur direkt berechtigt, ihre Mehrkosten zu wälzen. Bei den betroffenen Netzbetreibern würden die Netzentgelte um bis zu 39 Prozent sinken. Sie lägen damit meist unter und nur zum Teil noch leicht über dem Bundesdurchschnitt. Ein durchschnittlicher Haushalt (3.500 kWh/a) in den begünstigten Netzgebieten spart dadurch bis zu 192 Euro im Jahr.
-Es gibt noch weitere Effekte der Entlastung, die nicht dargestellt sind: so werden nachgelagerte Netzbetreiber bei einer Absenkung der vorgelagerten Netzentgelte mittelbar mit entlastet. Denn nachgelagerte, meist kleinere Netzbetreiber wie z. B. Stadtwerke zahlen ebenfalls Netzentgelte an die vorgelagerten Regionalversorger. So werden auch diese bei sinkenden Netzentgelten der Regionalversorger mittelbar entlastet, auch wenn sie keine eigenen Kosten in die Wälzung geben können, weil sie die EE-Kennzahl nicht überschreiten.
-Die folgende Tabelle stellt überblicksartig die derzeitigen, unmittelbaren Auswirkungen des beabsichtigten Modells auf die Netzentgelte für Haushaltskunden (mit 3.500 kWh/a) bei Berücksichtigung des Wälzungsbetrages dar. Es handelt sich um vorläufige Berechnungen, die im weiteren Verfahren erheblichen Änderungen unterliegen können. Den Berechnungen liegen Entgelt- und Kostendaten aus dem Jahr 2023 sowie Strukturdaten des Jahres 2021 zugrunde. Zudem wurden für diese vorläufigen Berechnungen ausschließlich Netzbetreiber in Zuständigkeit der Bundesnetzagentur betrachtet.
-Auswirkungen auf die Netzentgelte für Haushaltskunden (mit 3.500 kWh/a) bei Berücksichtigung des Wälzungsbetrages*Berechnung für EAM Netze GmbH konnte wegen fehlender Daten nicht durchgeführt werden.Netzbetreiber
-aktuelles Entgelt
-(ct/kWh)nach Berücksichtigung des Wälzungsbetrages
-(ct/kWh)Rückgang ggü. aktuellem Entgelt
-(in Prozent)Avacon Netz GmbH10,159,410,747,3Bayernwerk Netz GmbH8,626,871,7520,3Celle-Uelzen Netz GmbH7,296,920,375,1E.DIS Netz GmbH14,088,845,2437,2EAM Netz GmbH*8,78---ED Netze GmbH7,637,45 0,182,4Energie Waldeck-Frankenberg GmbH8,197,570,627,6energis-Netzgesellschaft mbH10,6710,160,514,8EWE Netz GmbH8,057,330,728,9FairNetz GmbH9,209,200,000,0Harz Energie Netz GmbH8,748,730,010,1LEW Verteilnetz GmbH9,166,272,8931,6LSW Netz GmbH &amp; Co. KG8,518,470,040,5Mitteldeut. Netzgesellschaft Strom mbH9,507,941,5616,4N-ERGIE Netz GmbH7,086,440,649,0Netzg. Ostwürttemberg DonauRies GmbH9,587,532,0521,4NEW Netz GmbH8,488,260,222,6Schleswig-Holstein Netz AG15,299,805,4935,9Stadtwerke Flensburg GmbH8,628,260,364,2Stadtwerke Schwäbisch Hall GmbH7,216,750,466,4TEN Thüringer Energienetze GmbH &amp; Co. KG8,627,970,657,5Thüga Energienetze GmbH9,168,620,54 5,9Überlandwerk Mittelbaden GmbH &amp; Co. KG8,098,010,081,0WEMAG Netz GmbH12,907,855,0539,2wesernetz Bremerhaven GmbH7,287,280,000,0Westfalen Weser Netz GmbH9,899,540,353,5
-Die Netzbetreiber veröffentlichen zum Ende jedes Jahres die Höhe des Netzentgeltes für das kommende Jahr, zum Beispiel auf ihrer Website. Im Herbst 2024 würde demnach eine Absenkung des Entgelts für das Jahr 2025 veröffentlicht.
-Die Bundesnetzagentur beabsichtigt, den Mechanismus der Umlage nach § 19 StromNEV zu nutzen. Die Umlage ist ein etablierter Mechanismus zum Ausgleich bestimmter Netzkosten zwischen allen Netznutzern. Die § 19-Umlage ist Bestandteil des Strompreises. Sie dient dazu, entgangene Erlöse eines Netzbetreibers auszugleichen, die entstehen, weil bestimmte Verbraucher ein reduziertes Netzentgelt zahlen.
-Der deutlichen Entlastung der betroffenen Regionen stehen damit überschaubare zusätzliche Kosten für alle Stromverbraucher gegenüber. Die § 19-Umlage würde von 0,403 ct/kWh (für 2024) um 0,605 auf 1,008 ct/kWh steigen. Dies bedeutet für einen durchschnittlichen Haushalt (3.500 kWh/a) zusätzliche Kosten von etwa 21 Euro pro Jahr. Großverbraucher profitieren weiterhin von einer Reduzierung der Umlage nach § 19 StromNEV, die unverändert erhalten bleibt.
-Demnach beträgt die Mehrbelastung für Industrie und sonstige Großverbraucher durch den Mechanismus nach § 19 Abs. 2 StromNEV maximal etwa 6.050 Euro.
-Viele Stromverteilernetze werden für die Aufnahme und den Weitertransport des regional erzeugten erneuerbaren Stroms ausgebaut und digitalisiert. Dies verursacht zusätzliche Kosten. Weitere Netzkosten entstehen aus dem sogenannten Redispatch, der für einen sicheren Netzbetrieb erforderlich ist, solange die Netze noch nicht ausgebaut sind. Die Kosten treten bundesweit in unterschiedlichem Maße auf. Grund dafür ist, dass Windenergie vorwiegend im Norden und großflächige Freiflächen-Photovoltaik in überwiegend ländlichen Regionen entsteht.
-Das Netzentgelt ist der Preis für die Nutzung, die jeder Netznutzer, der Strom durch das Versorgungsnetz leitet, an den Netzbetreiber zahlen muss (ähnlich wie eine Briefmarke als Porto für einen entfernungsunabhängigen Versand berechtigt). Die Netzentgelte sind entfernungsunabhängig, sie gewähren Zugang zum Stromtransport- und -verteilungssystem und nicht zu einer einzelnen Erzeugungsanlage. Die Netzentgelte werden vom Anschlussnetzbetreiber erhoben – enthalten sind die Kosten aller vorgelagerten Netzebenen. Die Abwicklung erfolgt durch die Zahlung von Netzentgelten des nachgelagerten an den jeweils vorgelagerten Netzbetreiber.
-Der Netzbetreiber bildet das Netzentgelt aus seiner Erlösobergrenze. Das heißt auch, dass der Netzbetreiber durch die Summe seiner Netzentgelte nicht mehr verdienen darf, als ihm von der Behörde als Gesamterlös vorgegeben wurde.
-Die Höhe des Netzentgelts wird separat in der Rechnung des Energielieferanten ausgewiesen. Das Netzentgelt aus Grundpreis in Euro/Monat und Arbeitspreis in ct/kWh wird von Lieferanten aber sehr unterschiedlich in die Strompreise umgerechnet. Die Höhe des Netzentgelts ist regional und bei jedem Verteilnetzbetreiber unterschiedlich hoch. Jeder Netzbetreiber hat nur ein Netzentgelt pro Spannungsebene.
-Die Bundesnetzagentur ist als Regulierungsbehörde zuständig für  Energieversorgungsunternehmen mit mehr als 100.000 angeschlossenen Kunden, Netzbetreiber, deren Netzgebiet sich über die Grenze eines Bundeslandes hinaus erstreckt (bestimmte VNB, alle FNB und ÜNB) und für bestimmte Themen wie z.B. Messwesen, Lieferantenwechselprozesse. Durch die Organleihe übernimmt die Bundesnetzagentur zusätzlich Regulierungsaufgaben bestimmter Bundesländer. Derzeit nehmen dies Berlin, Brandenburg, Bremen und Schleswig-Holstein in Anspruch.
-Alle anderen Bundesländer regulieren in eigenständigen Landesregulierungsbehörden und haben bestimmte, genau benannte Aufgaben diese Netzbetreiber betreffend, die in § 54 Abs. 2 EnWG genau beschrieben sind.
-Das Netzentgelt kann sich nicht im freien Wettbewerb bilden, weil Stromnetze natürliche Monopole sind. Daher wird das Netzentgelt reguliert und muss vom Netzbetreiber im Internet veröffentlicht werden. Diese regulierten Bestandteile (neben dem Netzentgelt auch die Entgelte für Messung und Messstellenbetrieb) machen für Haushaltskunden etwa ein Viertel des Strompreises aus. Die Netzentgelte basieren auf den durch die Regulierungsbehörden festgelegten zulässigen Erlösobergrenzen. Die zulässigen Erlösobergrenzen ergeben sich aus den von den Regulierungsbehörden geprüften Kosten für Betrieb, Unterhaltung und Ausbau des Netzes zuzüglich eines regulatorischen Gewinns (der sogenannten Eigenkapitalverzinsung) sowie jährlichen Anpassungen. Diese regulierten Kosten sind die Grundlage der Preise, die Netzbetreiber von den Netznutzern für den Transport und die Verteilung der Energie verlangen dürfen. Das heißt auch, dass der Netzbetreiber durch die Summe seiner Netzentgelte nicht mehr verdienen darf, als ihm von der Behörde als Gesamterlös vorgegeben wurde.
+EnergieTelekom­munikationDigitalisierungPostEisenbahnenBeschlusskammern
+Große Beschlusskammer EnergieIntegration von steuerbaren VerbrauchseinrichtungenEigenkapitalzinssatz
 Inhalte teilen
 per E-Mail schicken
-×
-Netzbetreiber</t>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+×</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="F41" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-11 09:08:21</t>
+        </is>
+      </c>
+      <c r="G41" s="1" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>https://www.bundesnetzagentur.de/DE/Fachthemen/ElektrizitaetundGas/Aktuelles_enwg/VerteilungNetzkosten/start.html</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>Ver­tei­lung von Netz­kos­ten
 3-stufiges Modell
@@ -16067,51 +15585,41 @@
 Netzbetreiber</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
-        <is>
-          <t>There is a change</t>
-        </is>
-      </c>
-      <c r="F42" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-10 06:48:27</t>
-        </is>
-      </c>
-      <c r="G42" s="1" t="inlineStr">
-        <is>
-          <t>- Gasversorgung</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n"/>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.bundesnetzagentur.de/DE/Fachthemen/ElektrizitaetundGas/start.html</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t>Aktuelles
-Stellungnahmen und Interessensbekundungen zur Anhörung hinsichtlich unabhängiger Vergleichsinstrumente im Telekommunikations- und Energiesektor
-Aktuelles zur Energieregulierung (Integration steuerbarer Verbrauchseinrichtungen, Eigenkapitalzinssatz, Regionale Netzentgelte)
-Statistiken ausgewählter erneuerbarer Energieträger zur Stromerzeugung – Juli 2024 (pdf / 237 KB)
-Ausschreibungen
-E-Mobilität: Öffentliche Ladeinfrastruktur
-Wasserstoff
-Erneuerbare Energien/ Kraft-Wärme-Kopplung
-Handel / Vertrieb
-Kohleausstieg
-LNG-Anlagen
-Monitoringberichte
-Netzanschluss
-Netzentgelte
-Netzentwicklungsplanung
-Netzzugang / Messwesen
-Versorgungssicherheit
-Veranstaltungen
-Entflechtung
-Energiedatenportal
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>Ver­tei­lung von Netz­kos­ten
+3-stufiges Modell
+Häufige Fragen und Antworten
+Festlegung
+Die Bundesnetzagentur hat ein Eckpunktepapier zur Verteilung der Mehrkosten veröffentlicht, die in Stromnetzen mit viel erneuerbarer Stromerzeugung entstehen. Netzbetreiber mit besonderen hohen Kosten durch den Ausbau der erneuerbaren Stromerzeugung sollen entlastet werden, indem die Mehrkosten bundesweit verteilt werden.
+In Regionen, die deutlich mehr Strom erzeugen sie als verbrauchen, entstehen für den Umbau der Netze erhebliche Kosten. Gleichzeitig versorgt der Strom nicht nur die Region, sondern ganz Deutschland. Die Netzentgelte in diesen Regionen sollen sinken. Dies führt auf der anderen Seite zu überschaubaren zusätzlichen Kosten für alle Stromverbraucher in Deutschland.
+Eckpunkte für eine Festlegung nach § 21 Abs. 3 S. 4 Nr. 3 g) und h) EnWG-E zur sachgerechten Verteilung von Mehrkosten aus der Integration von Anlagen zur Erzeugung von Strom aus erneuerbaren Energien (pdf / 3 MB)
+Entwicklung der Nettonetzentgelte für Haushaltskunden (2015/2023)
+Entwicklung der Nettonetzentgelte für Gewerbekunden (2015/2023)
+Der erste Schritt ist die Ermittlung, ob ein Netzbetreiber von einer besonderen Kostenbelastung aus dem Ausbau der Erneuerbaren betroffen ist. Hierzu schlägt die Bundesnetzagentur eine Kennzahl vor, deren Grundlage die ans Netz angeschlossene erneuerbare Erzeugungsleistung bildet. Wenn diese Kennzahl eines Netzbetreibers einen festzulegenden Schwellenwert überschreitet, kann die in einem zweiten Schritt ermittelte Mehrbelastung bundesweit verteilt werden. In den betroffenen Regionen sinken die Netzentgelte.
+Hätte das Modell für das Jahr 2023 Anwendung gefunden, wären 26 Netzbetreiber in Zuständigkeit der Bundesnetzagentur berechtigt, ihre Mehrkosten zu wälzen. Bei den betroffenen Netzbetreibern würden die Netzentgelte um bis zu 39 Prozent sinken. Sie lägen damit meist unter und nur zum Teil noch leicht über dem Bundesdurchschnitt. Ein durchschnittlicher Haushalt (3.500 kWh/a) in den betroffenen Netzgebieten spart dadurch bis zu 192 Euro im Jahr.
+Für eine erste Abschätzung des Wälzungsvolumens am 1. Dezember 2023 hat die Bundesnetzagentur teilweise Strukturparameter zugrunde gelegt, die sich auf die Regulierungsperiode bis 2023 beziehen. Mittlerweile stehen aktuellere Strukturparameter zur Verfügung, mit denen das Wälzungsvolumen erneut abgeschätzt wurde. Hiernach ergibt sich ein höheres beispielhaftes Wälzungsvolumen von insgesamt 1,55 Mrd. Euro.
+Zum einen erreichen einzelne Netzbetreiber nun erstmalig die erforderliche EE-Kennzahl in mindestens einer Netz- oder Umspannebene, die sie zu einer Wälzung berechtigt. Zum anderen erhöhen sich die Wälzungsbeträge solcher Netzbetreiber, die bereits zuvor, also auf Basis der älteren Strukturparameter, die EE-Kennzahl überschritten. Weitere Einzelheiten zu den aktualisierten Berechnungen können der nachfolgenden Übersicht sowie dem Anhang des Eckpunktepapiers entnommen werden.
+Bei sämtlichen veröffentlichten Beträgen handelt es sich weiterhin nicht um die ggf. für das Jahr 2025 zu bestimmenden Wälzungsbeträge und Wirkungen. Vielmehr sollen die Zahlen als Indikation dienen, wie die in den Eckpunkten niedergelegten Regelungen wirken würden. Diese können im weiteren Verfahren erheblichen Änderungen unterliegen.
+Brutto-Entlastung der einzelnen Bundesländer
+Die Darstellung enthält notwendige Vereinfachungen. Die Zuordnung der Wälzungsbeträge zu einem bestimmten Bundesland erfolgt in der Abbildung anhand des Firmen- bzw. Verwaltungssitzes des jeweiligen Netzbetreibers. So können Netzgebiete mit hohen EE-Integrationskosten von einem Netzbetreiber betrieben werden, dessen Firmen- oder Verwaltungssitz in einem (benachbarten) Bundesland liegt. Die Entlastungen werden dann dem Bundesland am Firmensitz zugeordnet, da eine kundenbezogene, geografische Darstellung der Entlastung nicht möglich ist.
+Es gibt noch weitere Effekte der Entlastung, die nicht dargestellt sind: So werden nachgelagerte Netzbetreiber bei einer Absenkung der vorgelagerten Netzentgelte mittelbar mit entlastet. Denn nachgelagerte, meist kleinere Netzbetreiber wie z. B. Stadtwerke zahlen ebenfalls Netzentgelte an die vorgelagerten Regionalversorger. So werden auch diese bei sinkenden Netzentgelten der Regionalversorger mittelbar entlastet, auch wenn sie keine eigenen Kosten in die Wälzung geben können, weil sie die EE-Kennzahl nicht überschreiten.
+Die Entlastung beträgt bezogen auf 2023 brutto rund 1,55 Mrd. Euro.
+Entlastet werden vor allem Netzbetreiber mit Sitz in Brandenburg (381 Mio. Euro), Bayern (345 Mio. Euro), Schleswig-Holstein (320 Mio. Euro) und Sachsen-Anhalt (205 Mio. Euro). Auch in Niedersachsen (126 Mio. Euro), Mecklenburg-Vorpommern (66 Mio. Euro), Baden-Württemberg (33 Mio. Euro), Thüringen (32 Mio. Euro), Nordrhein-Westfalen (21 Mio. Euro) und Hessen (12 Mio. Euro) kommt es zu spürbaren Entlastungen.
+Geringere Entlastungen ergeben sich auch für einzelne Netzbetreiber in Bremen, Rheinland-Pfalz und im Saarland. In den Ländern Berlin, Hamburg und Sachsen hat kein Netzbetreiber einen Firmensitz, der Kosten wälzen kann. Kunden in Sachsen werden dennoch merklich entlastet, da das Netzgebiet der Mitnetz Strom – ein nach derzeitigem Stand wälzungsberechtigter Netzbetreiber – auch große Gebiete in Sachsen umfasst. Auf Grund der Zuordnung über den Geschäftssitz (s. o.) werden die Wälzungsbeträge der Mitnetz Strom in der Darstellung jedoch vollständig Sachsen-Anhalt zugerechnet.
+Die begünstigten Netzbetreiber erhalten in einem dritten Schritt einen finanziellen Ausgleich für die Mehrbelastung.
+Alle Stromverbraucher in Deutschland finanzieren die Kosten solidarisch, indem diese bundesweit gleichmäßig verteilt werden.
+Konkret beabsichtigt die Bundesnetzagentur, den Mechanismus nach § 19 Abs. 2 StromNEV zu nutzen. Die Umlage ist ein etablierter Mechanismus zum Ausgleich bestimmter Netzkosten zwischen allen Netznutzern. Die § 19-Umlage ist schon heute Bestandteil des Strompreises. Sie dient dazu, entgangene Erlöse eines Netzbetreibers auszugleichen, die entstehen, weil bestimmte Verbraucher ein reduziertes Netzentgelt zahlen.
+Der deutlichen Entlastung der betroffenen Regionen stehen damit überschaubare zusätzliche Kosten für alle Stromverbraucher gegenüber. Die § 19-Umlage würde von 0,403 ct/kWh (für 2024) um 0,605 ct/kWh auf 1,008 ct/kWh steigen. Dies bedeutet für einen durchschnittlichen Haushalt (3.500 kWh/a) zusätzliche Kosten von etwa 21 Euro pro Jahr.
+1. Wie werden die Ermäßigung bzw. die Erhöhung berechnet?
+2. Welche Netzbetreiber werden entlastet?
+3. Wie erfahre ich, ob mein Netzbetreiber die Entgelte absenken kann?
+4. Wie hoch sind die zusätzlichen Kosten für alle Kunden?
+5. Warum sind die Netzentgelte in einigen Regionen höher als in anderen?
+6. Wie werden die Netzentgelte berechnet?
+7. Wie funktioniert die Regulierung der Netzentgelte durch die Bundesnetzagentur?
+Die Bundesnetzagentur beabsichtigt, eine Festlegung zur sachgerechten Verteilung der Mehrkosten im dritten Quartal 2024 zu erlassen. Sie tritt frühestens zum 1. Januar 2025 in Kraft.
+Einleitung eines Verfahrens zur Festlegung zur sachgerechten Verteilung von Mehrkosten aus der Integration von Anlagen zur Erzeugung von Strom aus erneuerbaren Energien (BK8-24/001-A)
 Navigation und Service
 Springe direkt zu:
 Inhalt
@@ -16126,10 +15634,6 @@
 Fachthemen Verbraucherportal Datenportal Bundesnetzagentur Presse
 Sie sind hier:
 Homepage
-Fachthemen
-UntermenuOeffnen
-Energie
-Aufgaben der Bundesnetzagentur im Energiemarkt sind die Ausgestaltung der Bedingungen, zu denen Strom- und Gasanbieter die Netze zur Belieferung nutzen können und die Regelung der Entgelte, die hierfür verlangt werden dürfen.
 Seite drucken Seite teilen Kurzlink
 Folgen Sie uns
 © BUNDESNETZAGENTUR - 2024
@@ -16138,7 +15642,8 @@
 BARRIEREFREIHEIT
 DATENSCHUTZ
 INHALTSVERZEICHNIS
-Gasversorgung
+Fachthemen
+Energie
 Telekom­munikation
 Breitbandversorgung
 Funk und Frequenzen
@@ -16182,7 +15687,9 @@
 Digitale Geschäftsmodelle
 Anreizsysteme KMU
 Indikatorenstudie
+Veranstaltungen
 Post
+Aktuelles
 Anbieterverzeichnis
 Marktbeobachtung
 Jährliche Datenerhebung
@@ -16239,6 +15746,7 @@
 ENRRB
 Qualifizierte elektronische Signatur
 Shared Service Center
+Ausschreibungen
 Standorte
 Öffentliche Zustellung
 Kontakt
@@ -16248,14 +15756,53 @@
 Mediathek
 Amtsblatt
 Navigation
-EnergieGasversorgungTelekom­munikationDigitalisierungPostEisenbahnen
-AusschreibungenE-Mobilität: Öffentliche LadeinfrastrukturWasserstoffErneuerbare Energien/ Kraft-Wärme-KopplungHandel / VertriebKohleausstiegLNG-AnlagenMonitoringberichteNetzanschlussNetzentgelteNetzentwicklungsplanungNetzzugang / MesswesenVersorgungssicherheitVeranstaltungenEntflechtungEnergiedatenportal
+Die Bundesnetzagentur schlägt ein gestuftes Modell vor. Der erste Schritt ist die Ermittlung, ob ein Netzbetreiber von einer besonderen Kostenbelastung aus dem Ausbau der Erneuerbaren betroffen ist. Hierzu schlägt die Bundesnetzagentur eine Kennzahl vor, deren Grundlage die ans Netz angeschlossene erneuerbare Erzeugungsleistung bildet. Wenn diese Kennzahl eines Netzbetreibers einen festzulegenden Schwellenwert überschreitet, kann die in einem zweiten Schritt ermittelte Mehrbelastung bundesweit verteilt werden. In den betroffenen Regionen sinken die Netzentgelte.
+Die begünstigten Netzbetreiber erhalten in einem dritten Schritt einen finanziellen Ausgleich für die Mehrbelastung. Alle Stromverbraucher in Deutschland finanzieren die Kosten solidarisch, indem diese bundesweit gleichmäßig verteilt werden.
+Aktuell wären 26 Netzbetreiber in Zuständigkeit der Bundesnetzagentur direkt berechtigt, ihre Mehrkosten zu wälzen. Bei den betroffenen Netzbetreibern würden die Netzentgelte um bis zu 39 Prozent sinken. Sie lägen damit meist unter und nur zum Teil noch leicht über dem Bundesdurchschnitt. Ein durchschnittlicher Haushalt (3.500 kWh/a) in den begünstigten Netzgebieten spart dadurch bis zu 192 Euro im Jahr.
+Es gibt noch weitere Effekte der Entlastung, die nicht dargestellt sind: so werden nachgelagerte Netzbetreiber bei einer Absenkung der vorgelagerten Netzentgelte mittelbar mit entlastet. Denn nachgelagerte, meist kleinere Netzbetreiber wie z. B. Stadtwerke zahlen ebenfalls Netzentgelte an die vorgelagerten Regionalversorger. So werden auch diese bei sinkenden Netzentgelten der Regionalversorger mittelbar entlastet, auch wenn sie keine eigenen Kosten in die Wälzung geben können, weil sie die EE-Kennzahl nicht überschreiten.
+Die folgende Tabelle stellt überblicksartig die derzeitigen, unmittelbaren Auswirkungen des beabsichtigten Modells auf die Netzentgelte für Haushaltskunden (mit 3.500 kWh/a) bei Berücksichtigung des Wälzungsbetrages dar. Es handelt sich um vorläufige Berechnungen, die im weiteren Verfahren erheblichen Änderungen unterliegen können. Den Berechnungen liegen Entgelt- und Kostendaten aus dem Jahr 2023 sowie Strukturdaten des Jahres 2021 zugrunde. Zudem wurden für diese vorläufigen Berechnungen ausschließlich Netzbetreiber in Zuständigkeit der Bundesnetzagentur betrachtet.
+Auswirkungen auf die Netzentgelte für Haushaltskunden (mit 3.500 kWh/a) bei Berücksichtigung des Wälzungsbetrages*Berechnung für EAM Netze GmbH konnte wegen fehlender Daten nicht durchgeführt werden.Netzbetreiber
+aktuelles Entgelt
+(ct/kWh)nach Berücksichtigung des Wälzungsbetrages
+(ct/kWh)Rückgang ggü. aktuellem Entgelt
+(in Prozent)Avacon Netz GmbH10,159,410,747,3Bayernwerk Netz GmbH8,626,871,7520,3Celle-Uelzen Netz GmbH7,296,920,375,1E.DIS Netz GmbH14,088,845,2437,2EAM Netz GmbH*8,78---ED Netze GmbH7,637,45 0,182,4Energie Waldeck-Frankenberg GmbH8,197,570,627,6energis-Netzgesellschaft mbH10,6710,160,514,8EWE Netz GmbH8,057,330,728,9FairNetz GmbH9,209,200,000,0Harz Energie Netz GmbH8,748,730,010,1LEW Verteilnetz GmbH9,166,272,8931,6LSW Netz GmbH &amp; Co. KG8,518,470,040,5Mitteldeut. Netzgesellschaft Strom mbH9,507,941,5616,4N-ERGIE Netz GmbH7,086,440,649,0Netzg. Ostwürttemberg DonauRies GmbH9,587,532,0521,4NEW Netz GmbH8,488,260,222,6Schleswig-Holstein Netz AG15,299,805,4935,9Stadtwerke Flensburg GmbH8,628,260,364,2Stadtwerke Schwäbisch Hall GmbH7,216,750,466,4TEN Thüringer Energienetze GmbH &amp; Co. KG8,627,970,657,5Thüga Energienetze GmbH9,168,620,54 5,9Überlandwerk Mittelbaden GmbH &amp; Co. KG8,098,010,081,0WEMAG Netz GmbH12,907,855,0539,2wesernetz Bremerhaven GmbH7,287,280,000,0Westfalen Weser Netz GmbH9,899,540,353,5
+Die Netzbetreiber veröffentlichen zum Ende jedes Jahres die Höhe des Netzentgeltes für das kommende Jahr, zum Beispiel auf ihrer Website. Im Herbst 2024 würde demnach eine Absenkung des Entgelts für das Jahr 2025 veröffentlicht.
+Die Bundesnetzagentur beabsichtigt, den Mechanismus der Umlage nach § 19 StromNEV zu nutzen. Die Umlage ist ein etablierter Mechanismus zum Ausgleich bestimmter Netzkosten zwischen allen Netznutzern. Die § 19-Umlage ist Bestandteil des Strompreises. Sie dient dazu, entgangene Erlöse eines Netzbetreibers auszugleichen, die entstehen, weil bestimmte Verbraucher ein reduziertes Netzentgelt zahlen.
+Der deutlichen Entlastung der betroffenen Regionen stehen damit überschaubare zusätzliche Kosten für alle Stromverbraucher gegenüber. Die § 19-Umlage würde von 0,403 ct/kWh (für 2024) um 0,605 auf 1,008 ct/kWh steigen. Dies bedeutet für einen durchschnittlichen Haushalt (3.500 kWh/a) zusätzliche Kosten von etwa 21 Euro pro Jahr. Großverbraucher profitieren weiterhin von einer Reduzierung der Umlage nach § 19 StromNEV, die unverändert erhalten bleibt.
+Demnach beträgt die Mehrbelastung für Industrie und sonstige Großverbraucher durch den Mechanismus nach § 19 Abs. 2 StromNEV maximal etwa 6.050 Euro.
+Viele Stromverteilernetze werden für die Aufnahme und den Weitertransport des regional erzeugten erneuerbaren Stroms ausgebaut und digitalisiert. Dies verursacht zusätzliche Kosten. Weitere Netzkosten entstehen aus dem sogenannten Redispatch, der für einen sicheren Netzbetrieb erforderlich ist, solange die Netze noch nicht ausgebaut sind. Die Kosten treten bundesweit in unterschiedlichem Maße auf. Grund dafür ist, dass Windenergie vorwiegend im Norden und großflächige Freiflächen-Photovoltaik in überwiegend ländlichen Regionen entsteht.
+Das Netzentgelt ist der Preis für die Nutzung, die jeder Netznutzer, der Strom durch das Versorgungsnetz leitet, an den Netzbetreiber zahlen muss (ähnlich wie eine Briefmarke als Porto für einen entfernungsunabhängigen Versand berechtigt). Die Netzentgelte sind entfernungsunabhängig, sie gewähren Zugang zum Stromtransport- und -verteilungssystem und nicht zu einer einzelnen Erzeugungsanlage. Die Netzentgelte werden vom Anschlussnetzbetreiber erhoben – enthalten sind die Kosten aller vorgelagerten Netzebenen. Die Abwicklung erfolgt durch die Zahlung von Netzentgelten des nachgelagerten an den jeweils vorgelagerten Netzbetreiber.
+Der Netzbetreiber bildet das Netzentgelt aus seiner Erlösobergrenze. Das heißt auch, dass der Netzbetreiber durch die Summe seiner Netzentgelte nicht mehr verdienen darf, als ihm von der Behörde als Gesamterlös vorgegeben wurde.
+Die Höhe des Netzentgelts wird separat in der Rechnung des Energielieferanten ausgewiesen. Das Netzentgelt aus Grundpreis in Euro/Monat und Arbeitspreis in ct/kWh wird von Lieferanten aber sehr unterschiedlich in die Strompreise umgerechnet. Die Höhe des Netzentgelts ist regional und bei jedem Verteilnetzbetreiber unterschiedlich hoch. Jeder Netzbetreiber hat nur ein Netzentgelt pro Spannungsebene.
+Die Bundesnetzagentur ist als Regulierungsbehörde zuständig für  Energieversorgungsunternehmen mit mehr als 100.000 angeschlossenen Kunden, Netzbetreiber, deren Netzgebiet sich über die Grenze eines Bundeslandes hinaus erstreckt (bestimmte VNB, alle FNB und ÜNB) und für bestimmte Themen wie z.B. Messwesen, Lieferantenwechselprozesse. Durch die Organleihe übernimmt die Bundesnetzagentur zusätzlich Regulierungsaufgaben bestimmter Bundesländer. Derzeit nehmen dies Berlin, Brandenburg, Bremen und Schleswig-Holstein in Anspruch.
+Alle anderen Bundesländer regulieren in eigenständigen Landesregulierungsbehörden und haben bestimmte, genau benannte Aufgaben diese Netzbetreiber betreffend, die in § 54 Abs. 2 EnWG genau beschrieben sind.
+Das Netzentgelt kann sich nicht im freien Wettbewerb bilden, weil Stromnetze natürliche Monopole sind. Daher wird das Netzentgelt reguliert und muss vom Netzbetreiber im Internet veröffentlicht werden. Diese regulierten Bestandteile (neben dem Netzentgelt auch die Entgelte für Messung und Messstellenbetrieb) machen für Haushaltskunden etwa ein Viertel des Strompreises aus. Die Netzentgelte basieren auf den durch die Regulierungsbehörden festgelegten zulässigen Erlösobergrenzen. Die zulässigen Erlösobergrenzen ergeben sich aus den von den Regulierungsbehörden geprüften Kosten für Betrieb, Unterhaltung und Ausbau des Netzes zuzüglich eines regulatorischen Gewinns (der sogenannten Eigenkapitalverzinsung) sowie jährlichen Anpassungen. Diese regulierten Kosten sind die Grundlage der Preise, die Netzbetreiber von den Netznutzern für den Transport und die Verteilung der Energie verlangen dürfen. Das heißt auch, dass der Netzbetreiber durch die Summe seiner Netzentgelte nicht mehr verdienen darf, als ihm von der Behörde als Gesamterlös vorgegeben wurde.
 Inhalte teilen
 per E-Mail schicken
-×</t>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+×
+Netzbetreiber</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="F42" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-11 09:08:21</t>
+        </is>
+      </c>
+      <c r="G42" s="1" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>https://www.bundesnetzagentur.de/DE/Fachthemen/ElektrizitaetundGas/start.html</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>Aktuelles
 Stellungnahmen und Interessensbekundungen zur Anhörung hinsichtlich unabhängiger Vergleichsinstrumente im Telekommunikations- und Energiesektor
@@ -16419,43 +15966,28 @@
 ×</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
-        <is>
-          <t>There is a change</t>
-        </is>
-      </c>
-      <c r="F43" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-10 06:48:27</t>
-        </is>
-      </c>
-      <c r="G43" s="1" t="inlineStr">
-        <is>
-          <t>- Gasversorgung
-- EnergieGasversorgungTelekom­munikationDigitalisierungPostEisenbahnen
-+ EnergieTelekom­munikationDigitalisierungPostEisenbahnenBeschlusskammern</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n"/>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.bundesnetzagentur.de/DE/Fachthemen/ElektrizitaetundGas/Netzentgelte/start.html</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t>Netzent­gel­te
-Mit Inkrafttreten der Anreizregulierungsverordnung zum 6. November 2007 erfolgte hinsichtlich der Entgeltbildung für die Nutzung der Strom- und Gasnetze ein grundlegender Paradigmenwechsel. Die bislang durchgeführte kostenbasierte Entgeltbildung wurde durch das System der Anreizregulierung abgelöst.
-Im Rahmen der Anreizregulierung werden Netzbetreibern seit dem Jahr 2009 individuelle, effizienzbasierte Erlösobergrenzen vorgegeben. Netzbetreiber, die die Effizienzvorgaben übererfüllen, erwirtschaften höhere Renditen als Netzbetreiber, die dies nicht schaffen. Im Fall der Übererfüllung entsteht ein Delta, das der Netzbetreiber als zusätzlichen Gewinn für sich verbuchen kann. Hierin liegt der Anreiz für Netzbetreiber, eigene Anstrengungen zu unternehmen, um ihre Effizienz zu steigern.
-In der nachfolgenden Regulierungsperiode wird die erreichte Effizienzverbesserung an die Netzkunden in Form von niedrigeren Netznutzungsentgelten weitergereicht. Somit beinhaltet die Anreizregulierung zugleich Vorteile für Netzbetreiber und Netznutzer.
-Aktuelles: Verteilung von Netzkosten
-Einleitung eines Verfahrens zur Festlegung zur sachgerechten Verteilung von Mehrkosten aus der Integration von Anlagen zur Erzeugung von Strom aus erneuerbaren Energien (BK8-24/001-A)
-Anreizregulierung
-Transparenz
-Stromnetzbetreiber
-Gasnetzbetreiber
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>Aktuelles
+Stellungnahmen und Interessensbekundungen zur Anhörung hinsichtlich unabhängiger Vergleichsinstrumente im Telekommunikations- und Energiesektor
+Aktuelles zur Energieregulierung (Integration steuerbarer Verbrauchseinrichtungen, Eigenkapitalzinssatz, Regionale Netzentgelte)
+Statistiken ausgewählter erneuerbarer Energieträger zur Stromerzeugung – Juli 2024 (pdf / 237 KB)
+Ausschreibungen
+E-Mobilität: Öffentliche Ladeinfrastruktur
+Wasserstoff
+Erneuerbare Energien/ Kraft-Wärme-Kopplung
+Handel / Vertrieb
+Kohleausstieg
+LNG-Anlagen
+Monitoringberichte
+Netzanschluss
+Netzentgelte
+Netzentwicklungsplanung
+Netzzugang / Messwesen
+Versorgungssicherheit
+Veranstaltungen
+Entflechtung
+Energiedatenportal
 Navigation und Service
 Springe direkt zu:
 Inhalt
@@ -16473,7 +16005,7 @@
 Fachthemen
 UntermenuOeffnen
 Energie
-Netzentgelte
+Aufgaben der Bundesnetzagentur im Energiemarkt sind die Ausgestaltung der Bedingungen, zu denen Strom- und Gasanbieter die Netze zur Belieferung nutzen können und die Regelung der Entgelte, die hierfür verlangt werden dürfen.
 Seite drucken Seite teilen Kurzlink
 Folgen Sie uns
 © BUNDESNETZAGENTUR - 2024
@@ -16482,7 +16014,6 @@
 BARRIEREFREIHEIT
 DATENSCHUTZ
 INHALTSVERZEICHNIS
-Gasversorgung
 Telekom­munikation
 Breitbandversorgung
 Funk und Frequenzen
@@ -16526,9 +16057,7 @@
 Digitale Geschäftsmodelle
 Anreizsysteme KMU
 Indikatorenstudie
-Veranstaltungen
 Post
-Aktuelles
 Anbieterverzeichnis
 Marktbeobachtung
 Jährliche Datenerhebung
@@ -16585,7 +16114,6 @@
 ENRRB
 Qualifizierte elektronische Signatur
 Shared Service Center
-Ausschreibungen
 Standorte
 Öffentliche Zustellung
 Kontakt
@@ -16595,15 +16123,33 @@
 Mediathek
 Amtsblatt
 Navigation
-EnergieGasversorgungTelekom­munikationDigitalisierungPostEisenbahnen
+EnergieTelekom­munikationDigitalisierungPostEisenbahnenBeschlusskammern
 AusschreibungenE-Mobilität: Öffentliche LadeinfrastrukturWasserstoffErneuerbare Energien/ Kraft-Wärme-KopplungHandel / VertriebKohleausstiegLNG-AnlagenMonitoringberichteNetzanschlussNetzentgelteNetzentwicklungsplanungNetzzugang / MesswesenVersorgungssicherheitVeranstaltungenEntflechtungEnergiedatenportal
-AnreizregulierungTransparenzStromnetzbetreiberGasnetzbetreiber
 Inhalte teilen
 per E-Mail schicken
 ×</t>
         </is>
       </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="E43" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="F43" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-11 09:08:21</t>
+        </is>
+      </c>
+      <c r="G43" s="1" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>https://www.bundesnetzagentur.de/DE/Fachthemen/ElektrizitaetundGas/Netzentgelte/start.html</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>Netzent­gel­te
 Mit Inkrafttreten der Anreizregulierungsverordnung zum 6. November 2007 erfolgte hinsichtlich der Entgeltbildung für die Nutzung der Strom- und Gasnetze ein grundlegender Paradigmenwechsel. Die bislang durchgeführte kostenbasierte Entgeltbildung wurde durch das System der Anreizregulierung abgelöst.
@@ -16761,78 +16307,18 @@
 ×</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
-        <is>
-          <t>There is a change</t>
-        </is>
-      </c>
-      <c r="F44" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-10 06:48:27</t>
-        </is>
-      </c>
-      <c r="G44" s="1" t="inlineStr">
-        <is>
-          <t>- Gasversorgung
-- EnergieGasversorgungTelekom­munikationDigitalisierungPostEisenbahnen
-+ EnergieTelekom­munikationDigitalisierungPostEisenbahnenBeschlusskammern</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.bundesnetzagentur.de/DE/Fachthemen/ElektrizitaetundGas/Netzanschluss/start.html</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t>Netzanschluss
-Regelungen für Ladeeinrichtungen in der Niederspannung
-Regelungen für bestimmte Erzeugungsanlagen
-Baukostenzuschüsse
-Die rein physikalisch technische Anbindung an das Energieversorgungsnetz wird über das Netzanschlussverhältnis zwischen Anschlussnehmer und Netzbetreiber geregelt.
-Aktuelle Einschätzung der Bundesnetzagentur zum Kapazitätsengpass in Oranienburg (pdf / 50 KB) (17. April 2024)
-Aktuelles: Integration steuerbarer Verbrauchseinrichtungen
-Die Betreiber von Energieversorgungsnetzen sind nach dem EnWG verpflichtet, Letztverbraucher, gleich- oder nachgelagerte Energieversorgungsnetze sowie Erzeugungs- und Speicheranlagen zu angemessenen, diskriminierungsfreien und transparenten Bedingungen an ihr Netz anzuschließen.
-Der Netzanschluss und dessen Nutzung ist eine Voraussetzung für den Netzzugang, der die Transportdienstleistung des Netzbetreibers ermöglicht.
-Hausanschlüsse sind nur für eine begrenzte Leistungsinanspruchnahme ausgelegt. Diese kann durch das Laden eines Elektrofahrzeuges in Kombination mit der gleichzeitigen Nutzung von weiteren Gebrauchsgeräten (z. B. Waschmaschine, Herd, Gefrierschrank) schnell überschritten sein.
-Daher ist beim Anschluss einer Ladeeinrichtung vorab der Hausanschluss auf die zukünftig benötigte Leistungsinanspruchnahme zu überprüfen. Eventuell bedarf es einer Verstärkung des Hausanschlusses bzw. dem Einsatz eines Leistungsmanagementsystems.
-Aus diesem Grund sind Ladeeinrichtungen vor deren Inbetriebnahme vom Anschlussnehmenden oder -nutzenden beim zuständigen Netzbetreiber nach § 19 Absatz 2 Satz 2 Niederspannungsanschlussverordnung (NAV) anzumelden. Ladeeinrichtungen mit einer Leistungsinanspruchnahme, die 12 kVA beziehungsweise 11 kW überschreiten, benötigen zudem die vorherige Zustimmung des Netzbetreibers (nach § 19 Absatz 2 Satz 3 NAV).
-Der Netzbetreiber muss innerhalb von zwei Monaten nach Eingang der Mitteilung gegenüber dem Anschlussnehmenden zustimmen oder die notwendigen Abhilfemaßnahmen und den dafür erforderlichen Zeitbedarf mitteilen.
-Hinweis
-Neben der Meldepflicht beim zuständigen Netzbetreiber besteht entsprechend der Ladesäulenverordnung auch eine weitere gesetzliche Meldepflicht für öffentlich zugängliche Ladeeinrichtungen bei der Bundesnetzagentur.
-FAQ zum Netzanschluss von Ladeeinrichtungen
-Welche Kosten muss ich für den Netzanschluss meiner Ladeeinrichtung in der Niederspannung bezahlen ?
-Wird für die Installation einer Ladeeinrichtung für Elektrofahrzeuge an einem bestehenden Niederspannungsanschluss ein Baukostenzuschuss fällig ?
-Es sind aufgrund der Installation meiner Ladeeinrichtung keine baulichen Maßnahmen in der Kundenanlage oder am Netzanschluss erforderlich. Kann mein Netzbetreiber trotzdem einen Baukostenzuschuss von mir fordern?
-Darf mein Netzbetreiber mir die Inbetriebnahme meiner Ladeeinrichtung in der Niederspannung verweigern, wenn die aktuelle Netzkapazität nicht ausreicht?
-Muss ich den Anschluss eines Elektrofahrzeugs an einer ein- beziehungsweise dreiphasigen Steckdose meinem Netzbetreiber mitteilen?
-Muss ich für das Stellen eines Netzanschlussbegehrens für eine Ladeeinrichtung in der Niederspannung einen eingetragenen Installateur beauftragen?
-Muss ich für die Installation meiner Ladeeinrichtung in der Niederspannung einen eingetragenen Installateur beauftragen?
-Ladeeinrichtungen sind vor deren Inbetriebnahme beim zuständigen Netzbetreiber nach § 19 Absatz 2 Satz 2 Niederspannungsanschlussverordnung (NAV) zu melden. Muss ich hierfür einen eingetragenen Installateur beauftragen?
-Kann ich vom Netzbetreiber einen zweiten Netzanschluss für meine Ladeeinrichtung verlangen?
-Muss ich meine Ladeeinrichtung in der Niederspannung über einen separaten Zähler anschließen lassen?
-Muss ich meine Ladeeinrichtung in der Niederspannung von meinem Netzbetreiber fernsteuern lassen?
-FAQ zum Netzanschluss von Wärmepumpen
-Ergeben sich für den Anschluss von Wärmepumpen von unter 50 kW während der Anwendungsdauer der EU-Notfallverordnung aus der Regelung nach Art. 7 Besonderheiten, die im Rahmen des Netzanschlusses zu beachten sind?
-Spezielle gesetzliche Regelungen bestehen für bestimmte Erzeugungsanlagen wie
-große Kraftwerke
-Anlagen zur Erzeugung von elektrischer Energie (Erzeugungsanlagen) mit einer Nennleistung ab 100 MW, die an Elektrizitätsversorgungsnetze mit einer Spannung von mindestens 110 Kilovolt angeschlossen sind. Der Netzanschluss von Kraftwerken ist in der Kraftwerks-Netzanschlussverordnung KraftNAV geregelt.
-Biogasanlagen
-Die Netzanschlusspflicht und das Verfahren zum Netzanschluss von Biogasanlagen wurden im April 2008 in § 33 GasNZV geregelt. Vorher existierten so gut wie keine praktischen Erfahrungen mit dem Anschluss von Biogaserzeugungs- und Aufbereitungsanlagen an das Gasnetz. Zahlreiche Auslegungsfragen der GasNZV sind daher zwischen den Biogasanlagenbetreibern und den Gasnetzbetreibern strittig. Die Beschlusskammer 7 hat sich daher bereits zweimal im Rahmen eines Missbrauchsverfahrens eines Anlagenbetreibers gegen einen Gasleitungsnetzbetreiber zu den Bedingungen des Netzanschlusses von Biogasaufbereitungsanlagen geäußert.
-Die Beschlüsse finden Sie hier: BK7-09-005 und BK7-10-191.
-EE-Anlagen
-Im Erneuerbare-Energien-Gesetz (EEG) ist eine Sonderregelung für den vorrangigen Anschluss von EE-Anlagen vorgesehen. Netzbetreiber müssen diese Anlagen „unverzüglich“, also ohne schuldhaftes Zögern, an das Netz anschließen (§ 8 EEG). Die Regelung fällt seit der Änderung des EEG 2021 Ende Juli 2022 in den Aufgabenbereich der EEG-Aufsicht der Bundesnetzagentur (§ 85 EEG).
-Hier finden Sie weitere Hinweise
-Betreiber von sogenannten „Netzen der allgemeinen Versorgung“ in Gemeindegebieten müssen allgemeine Bedingungen für den Netzanschluss und die Anschlussnutzung durch Letztverbraucher im Niederspannungs- und Niederdrucknetz veröffentlichen und zu diesen Bedingungen jeden an ihr Netz anschließen. Sie können dafür von den Anschlussnehmern angemessene Anschlusskosten und Baukostenzuschüsse (BKZ) verlangen.
-Mehr Informationen zu Baukostenzuschüssen
-Bei der Erhebung von Baukostenzuschüssen für Netzanschlüsse von Ebenen oberhalb der Niederspannung wird die Anwendung des Leistungspreismodells der Beschlusskammer 6 empfohlen:
-BKZ = Leistungspreis (&gt; 2.500 h/a) der Netzebene × bestellte Leistung
-Das Modell berücksichtigt die Transparenzanforderungen des Gesetzes und bietet die nötige Steuerungswirkung, um das Entstehen überdimensionierter und ineffizienter Netze zu verhindern.
-Das Kalkulationsmodell ist Teil eines Positionspapiers der Bundesnetzagentur zur Erhebung von Baukostenzuschüssen für Netzanschlüsse im Bereich von Netzebenen oberhalb der Niederspannung.
-Zum Positionspapier der Bundesnetzagentur
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>Netzent­gel­te
+Mit Inkrafttreten der Anreizregulierungsverordnung zum 6. November 2007 erfolgte hinsichtlich der Entgeltbildung für die Nutzung der Strom- und Gasnetze ein grundlegender Paradigmenwechsel. Die bislang durchgeführte kostenbasierte Entgeltbildung wurde durch das System der Anreizregulierung abgelöst.
+Im Rahmen der Anreizregulierung werden Netzbetreibern seit dem Jahr 2009 individuelle, effizienzbasierte Erlösobergrenzen vorgegeben. Netzbetreiber, die die Effizienzvorgaben übererfüllen, erwirtschaften höhere Renditen als Netzbetreiber, die dies nicht schaffen. Im Fall der Übererfüllung entsteht ein Delta, das der Netzbetreiber als zusätzlichen Gewinn für sich verbuchen kann. Hierin liegt der Anreiz für Netzbetreiber, eigene Anstrengungen zu unternehmen, um ihre Effizienz zu steigern.
+In der nachfolgenden Regulierungsperiode wird die erreichte Effizienzverbesserung an die Netzkunden in Form von niedrigeren Netznutzungsentgelten weitergereicht. Somit beinhaltet die Anreizregulierung zugleich Vorteile für Netzbetreiber und Netznutzer.
+Aktuelles: Verteilung von Netzkosten
+Einleitung eines Verfahrens zur Festlegung zur sachgerechten Verteilung von Mehrkosten aus der Integration von Anlagen zur Erzeugung von Strom aus erneuerbaren Energien (BK8-24/001-A)
+Anreizregulierung
+Transparenz
+Stromnetzbetreiber
+Gasnetzbetreiber
 Navigation und Service
 Springe direkt zu:
 Inhalt
@@ -16845,6 +16331,12 @@
 GEBÄRDENSPRACHE VIDEOS
 RSS
 Fachthemen Verbraucherportal Datenportal Bundesnetzagentur Presse
+Sie sind hier:
+Homepage
+Fachthemen
+UntermenuOeffnen
+Energie
+Netzentgelte
 Seite drucken Seite teilen Kurzlink
 Folgen Sie uns
 © BUNDESNETZAGENTUR - 2024
@@ -16853,9 +16345,6 @@
 BARRIEREFREIHEIT
 DATENSCHUTZ
 INHALTSVERZEICHNIS
-Fachthemen
-Energie
-Gasversorgung
 Telekom­munikation
 Breitbandversorgung
 Funk und Frequenzen
@@ -16968,50 +16457,34 @@
 Mediathek
 Amtsblatt
 Navigation
-Dem Anschlussnehmenden können Kosten für die Herstellung oder Änderung des Netzanschlusses und durch den Baukostenzuschuss entstehen.
-Netzanschlusskosten einer Ladeeinrichtung in der Niederspannung können sich sowohl bei einem neu zu errichtenden Netzanschluss als auch bei der Verstärkung eines bestehenden Netzanschlusses ergeben. So könnte möglicherweise ein neues Anschlussstromkabel mit größerem Querschnitt oder eine größere Anschlusssicherung erforderlich sein.
-Im Zuge der Herstellung oder einer Leistungserhöhung des Netzanschlusses für die Ladeeinrichtung in der Niederspannung kann der Netzbetreiber vom Anschlussnehmenden auch einen Baukostenzuschuss verlangen. Er ist einmalig für die dauerhafte Bereitstellung der Anschlussleistung aus dem Stromnetz zu entrichten.
-In der Niederspannung darf ein Baukostenzuschuss jedoch nur für den Teil der Leistungsanforderung erhoben werden, der eine Leistungsanforderung von 30 kW übersteigt.
-Die Erhebung eines Baukostenzuschusses ist nicht davon abhängig, ob tatsächliche bauliche Maßnahmen am Stromnetz oder am Netzanschluss durch die Installation der Ladeeinrichtung erforderlich geworden sind.
-Nicht unbedingt. Die Installation einer Ladeeinrichtung bedarf in der Regel einer Anschlusserweiterung (Leistungserhöhung). In einem solchen Fall kann für den Teil der Leistungsanforderung, der eine Leistungsanforderung von 30 kW übersteigt, ein Baukostenzuschuss erhoben werden [§ 11 Absatz 3 Niederspannungsanschlussverordnung (NAV)].
-Ob durch die Installation einer Ladeeinrichtung für Elektrofahrzeuge die Leistungsanforderung von 30 kW überstiegen wird, ist durch den Netzbetreiber festzustellen. Der Netzbetreiber trägt für die Voraussetzungen des § 11 NAV die Beweislast.
-Netzbetreiber dürfen im ersten Ansatz pauschale Annahmen zur Berechnung der Leistungsanforderung (beispielsweise auf Grundlage der technischen Regeln wie etwa der DIN 18015-1: Elektrische Anlagen in Wohngebäuden) treffen. Im Einzelfall ist ein entsprechender Nachweis beispielsweise über eine Lastgangmessung zu führen.
-Entsprechend § 11 Abs. 2 NAV kann der Baukostenzuschuss auf der Grundlage der durchschnittlich für vergleichbare Fälle entstehenden Kosten pauschal berechnet werden. Die Erhebung eines Baukostenzuschusses ist nicht davon abhängig, ob tatsächliche bauliche Maßnahmen am Stromnetz oder am Netzanschluss durch die Installation der Ladeeinrichtung erforderlich geworden sind.
-Der Baukostenzuschuss wird für die dauerhafte Bereitstellung der Anschlussleistung aus dem Stromnetz erhoben. Für jede Leistungserhöhung kann daher – sofern die Freigrenze überschritten ist – ein entsprechender Baukostenzuschuss verlangt werden.
-Ja. Die Installation einer Ladeeinrichtung stellt in der Regel eine Anschlusserweiterung (Leistungserhöhung) dar. In einem solchen Fall kann für den Teil der Leistungsanforderung, der eine Leistungsanforderung von 30 kW übersteigt, nach § 11 Absatz 3 Niederspannungsanschlussverordnung (NAV) ein Baukostenzuschuss erhoben werden. Dies gilt auch, wenn tatsächliche bauliche Maßnahmen am Netzanschluss durch die Installation der Ladeeinrichtung nicht erforderlich sind.
-Der Baukostenzuschuss wird für die dauerhafte Bereitstellung der Anschlussleistung aus dem Stromnetz erhoben. Eine höhere Netzanschlussleistung muss durch den Netzbetreiber bei der Prognose der Netzauslastung berücksichtigt werden.
-Im Sinne der Lenkungs- oder Steuerungswirkung wird durch den Baukostenzuschuss für eine Leistungserhöhung– unabhängig von baulichen Maßnahmen – eine bedarfsgerechte Nachfrage nach Netzanschlusskapazität angereizt. Das Ziel ist eine effiziente und damit auch für den Verbraucher kostengünstige Netzauslastung.
-Zumindest zeitweise. Falls die verfügbare Netzanschlusskapazität für den beabsichtigten Anschluss der Ladeeinrichtung in der Niederspannung nicht ausreicht und deshalb der Netzanschluss und/oder das Netz verstärkt werden müssen, ist dem Netzbetreiber ein sofortiger Anschluss nicht möglich. In diesem Fall ist der Netzbetreiber verpflichtet, sein Netz bedarfsgerecht auszubauen.
-Der Netzbetreiber hat dem Anschlussnehmenden den Hinderungsgrund, mögliche Abhilfemaßnahmen sowie den hierfür erforderlichen Zeitbedarf darzulegen [§ 19 Absatz 2 Satz 4 Niederspannungsanschlussverordnung (NAV)]. Eine fehlende Kapazität im Netz kann daher zu Verzögerungen beim Netzanschluss führen, ist jedoch kein Grund für eine endgültige Ablehnung eines Netzanschlusses.
-Ja.
-Die Verwendung zusätzlicher Verbrauchsgeräte und Ladeeinrichtungen für Elektrofahrzeuge sind dem Netzbetreiber mitzuteilen, sofern sich dadurch die vorzuhaltende Leistung erhöht oder mit Netzrückwirkungen zu rechnen ist [§ 19 Absatz 2 Satz 1 und 2 Niederspannungsanschlussverordnung (NAV)].
-Der Anschluss eines Elektrofahrzeuges an eine ein- beziehungsweise dreiphasige Steckdose ist damit mitteilungspflichtig.
-Nein.
-Ein Netzanschlussbegehren kann ohne Einbindung eines eingetragenen Installateurs direkt beim Netzbetreiber gestellt werden.
-Arbeiten (Errichtung, Erweiterung, Änderung und Instandhaltung) an einer elektrischen Anlage dürfen aus Sicherheitsgründen nach § 13 Absatz 2 Satz 4 Niederspannungsanschlussverordnung (NAV) außer durch den Netzbetreiber nur durch ein in ein Installateurverzeichnis eines Netzbetreibers eingetragenes Installationsunternehmen durchgeführt werden, um unzulässige Rückwirkungen auf das Netz auszuschließen.
-Diese Verpflichtung erstreckt sich jedoch nicht auf das bloße Stellen eines Netzanschlussbegehrens.
-Die Mitteilung der Ladeeinrichtung nach § 19 Absatz 2 Satz 2 NAV kann von jedermann vorgenommen werden. Zwar kann der Netzbetreiber Einzelheiten über den Inhalt und die Form der Mitteilungen regeln, er kann jedoch die Mitteilung nicht davon abhängig machen, dass diese durch einen eingetragenen Installateur erfolgen muss.
-In der Regel ist jedoch bei der Installation einer Ladeeinrichtung eine Erweiterung der elektrischen Kundenanlage notwendig, die nach § 13 Absatz 2 Satz 4 NAV außer durch den Netzbetreiber nur durch ein in ein Installateurverzeichnis eines Netzbetreibers eingetragenes Installationsunternehmen durchgeführt werden darf.
-Der Anspruch ist grundsätzlich nicht auf einen Netzanschluss begrenzt. Dabei ist allerdings zu beachten, dass für einen zweiten Netzanschluss im Vergleich zu der Erweiterung eines bestehenden Netzanschlusses auch höhere, vom Anschlussnehmenden zu tragende Kosten entstehen können.
-Zudem ist zu beachten, dass die Freigrenze von 30 kW nach § 11 Abs. 3 Niederspannungsanschlussverordnung (NAV) nicht ein zweites mal gewährt wird. Soweit mit der Leistungsanforderung des zweiten Netzanschlusses diese Freigrenze von 30 kW überschritten wird, wird für diesen Teil ein entsprechender Baukostenzuschuss fällig.
-Werden mehrere Netzanschlüsse in einem Gebäude oder auf einem Grundstück errichtet, müssen die Beteiligten durch geeignete Maßnahmen sicherstellen, dass die technische Sicherheit weiter gewährleistet bleibt.
-Nicht unbedingt.
-Sie können allerdings mit dem Netzbetreiber eine netzdienliche Steuerung der Verbrauchseinrichtung nach § 14a Satz 1 Energiewirtschaftsgesetz (EnWG) vereinbaren. Voraussetzung dafür ist dann, dass die steuerbare Verbrauchseinrichtung (Elektrofahrzeug, Wärmepumpe o. ä.) über einen separaten Zählpunkt verfügt.
-Im Gegenzug für die Möglichkeit der Steuerung erhalten Sie ein reduziertes Netzentgelt. In diesem Fall müssen die steuerbaren Verbrauchseinrichtungen zur separaten Abrechnung des reduzierten Netzentgelts auch über einen separaten Zähler gemessen werden.
-Wenn Sie keine solche Vereinbarung geschlossen haben, muss die Ladeeinrichtung auch nicht über einen separaten Zähler verfügen.
-Grundsätzlich kann der Netzbetreiber Anschlussnehmende nicht verpflichten, dass diese ihre Ladeeinrichtung in der Niederspannung fernsteuern lassen.
-Ladeeinrichtungen mit einer Leistungsinanspruchnahme über 12 kVA beziehungsweise 11 kW müssen aber eine Möglichkeit zur Steuerung/Regelung, eine intelligente zeitliche Steuerung oder eine Regeleinrichtung zur Netzintegration über eine Unterbrechbarkeit durch den Netzbetreiber aufweisen. Dies dient insbesondere zur Vermeidung von temporären Überlastungen des Netzes.
-Zudem muss in der Ladeeinrichtung bereits die Technik (ohne kommunikative Anbindung) für eine bidirektionale Steuerung, die Signale vom Netz zur Anlage und umgekehrt übertragen kann, durch den Netzbetreiber installiert sein.
-Für Ladeeinrichtungen mit einer Leistungsinanspruchnahme von 12 kVA beziehungsweise 11 kW oder weniger gibt es keine derartige Verpflichtung.
-Die EU-Notfallverordnung (VO 2022/2577) verlangt für bestimmte Konstellationen die Gewährung von Anschlüssen von Wärmepumpen mit einer maximalen Leistung von bis zu 50 kW an das Verteilnetz, sofern keine Sicherheitsbedenken oder technische Inkompatibilität der Netzkomponenten vorliegen (Art. 7 Abs. 2). Dies betrifft in Deutschland inhaltlich Netzanschlussverfahren bei den Verteilnetzbetreibern. Die Regelung entspricht in der Niederspannung dem bereits national geltenden Recht.
-Nach § 20 Satz 4 NAV darf ein Netzbetreiber seine Zustimmung zum Anschluss von Verbrauchsgeräten nur dann verweigern, wenn der Anschluss eine sichere und störungsfreie Versorgung gefährden würde.
-Netzbetreiber sind nach den bestehenden gesetzlichen Regelungen in Deutschland auch verpflichtet, in einer angemessenen Zeit auf Netzanschlussbegehren zu reagieren (§§ 17 und 18 EnWG, sowie §§ 6, 19 NAV für andere Begehren). Die Fristenregelung für die Genehmigungserteilung von Wärmepumpen nach Art. 7 Abs.1 der EU-Notfallverordnung können hierbei für Wärmepumpen mit einer installierten Leistung von unter 50 kW als Orientierung dienen.
+EnergieTelekom­munikationDigitalisierungPostEisenbahnenBeschlusskammern
+AusschreibungenE-Mobilität: Öffentliche LadeinfrastrukturWasserstoffErneuerbare Energien/ Kraft-Wärme-KopplungHandel / VertriebKohleausstiegLNG-AnlagenMonitoringberichteNetzanschlussNetzentgelteNetzentwicklungsplanungNetzzugang / MesswesenVersorgungssicherheitVeranstaltungenEntflechtungEnergiedatenportal
+AnreizregulierungTransparenzStromnetzbetreiberGasnetzbetreiber
 Inhalte teilen
 per E-Mail schicken
 ×</t>
         </is>
       </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="E44" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="F44" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-11 09:08:21</t>
+        </is>
+      </c>
+      <c r="G44" s="1" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>https://www.bundesnetzagentur.de/DE/Fachthemen/ElektrizitaetundGas/Netzanschluss/start.html</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>Netzanschluss
 Regelungen für Ladeeinrichtungen in der Niederspannung
@@ -17235,124 +16708,53 @@
 ×</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
-        <is>
-          <t>There is a change</t>
-        </is>
-      </c>
-      <c r="F45" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-10 06:48:27</t>
-        </is>
-      </c>
-      <c r="G45" s="1" t="inlineStr">
-        <is>
-          <t>- Gasversorgung</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n"/>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.bundesnetzagentur.de/DE/Fachthemen/ElektrizitaetundGas/Ausschreibungen/start.html</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t>Ausschreibungen für EE- und KWK-An­la­gen
-Ausschreibungen 2024
-Zurückliegende Ausschreibungen
-Die Bundesnetzagentur führt Ausschreibungen zur Ermittlung der finanziellen Förderung von Erneuerbaren-Energien- und Kraft-Wärme-Kopplungs-Anlagen durch. Alle Angaben sind unter Vorbehalt gesetzlicher Änderungen zu verstehen.
-Tabelle: Gebotstermine, Ausschreibungsvolumen und Zuschlagslisten der einzelnen Technologien
-1 Nach Verrechnung der Abzugs- und Zusatzmengen. Bei KWK-Anlagen und innovativen KWK-Systemen kann das tatsächliche Ausschreibungsvolumen nach den Bestimmungen des § 3 KWKAusV vom Regelausschreibungsvolumen abweichen. Für die Gebotstermine 1. Juni und 1. Dezember wurde jeweils das Ausschreibungsvolumen für KWK-Anlagen gem. § 3 Abs. 5 KWKAusV und für innovative KWK-Systeme gem. § 3 Abs. 3 S. 1 Nr. 1 KWKAusV angepasst.
-2 Das tatsächliche Ausschreibungsvolumen kann sich noch um die nach dem 31. Dezember 2022 bezuschlagten und vor der jeweiligen Bekanntmachung entwerteten Gebotsmengen erhöhen.
-3 Das tatsächliche Ausschreibungsvolumen kann sich noch verringern, wenn die Bundesnetzagentur das Volumen bei einer drohenden Unterzeichnung reduziert.
-Technologie
-Gebotstermine
-Ausschreibungs-
-volumen (MW)
-Tatsächliches Ausschreibungs-
-volumen1 (kW)
-Liste
-Solar Freifläche	1. März
-1. Juli
-1. Dezember	2.700
-2.700
-2.230.736
-2.147.784
-2.147.7842 3	03/2024
-07/2024
-Solar Aufdach	1. Februar
-1. Juni
-1. Oktober	300
-300
-300	263.236
-258.058
-258.059 3	02/2024
-06/2024
-Wind Onshore	1. Februar
-1. Mai
-1. August
-1. November	2.500
-2.500
-2.500	2.486.319
-2.795.480
-2.708.940
-4.093.5872 3	02/2024
-05/2024
-KWK-Anlagen	3. Juni
-1. Dezember	75
-75	52.549	06/2024
-Innovative KWK-Systeme	3. Juni
-1. Dezember	25
-25	25.000	06/2024
-Biomasse	1. April
-1. Oktober	250
-250	239.878
-233.784	01/2024
-Biomethan	1. April
-1. September	300
-300	250.870
-75.711	Entfällt
-Innovation	1. Mai
-1. September	583,25
-583,25	583.250
-583.250	05/2024
-Wind Offshore
-Nicht zentral voruntersuchte Flächen (Nordsee)	1. Juni	2.500
-Weiterführende Informationen	06/2024
-Zentral voruntersuchte Flächen (Nordsee)	1. August	5.500	Weiterführende Informationen
-08/2024
-Ausschreibungen 2023
-Ausschreibungen 2022
-Ausschreibungen 2021
-Ausschreibungen 2020
-Ausschreibungen 2019
-Ausschreibungen 2018
-Solar Freifläche
-Solar Aufdach
-Windenergieanlagen an Land
-KWK-Ausschreibungen
-Innovationsausschreibungen
-Biomasseanlagen
-Biomethananlagen
-Windenergieanlagen auf See
-Grenzüberschreitende Ausschreibungen
-Gemeinsame Ausschreibungen Wind/Solar
-Kontakt
-Ausschreibungen für EE-Anlagen
-E-Mail: ee-ausschreibungen@bnetza.de
-Ausschreibungen für KWK-Anlagen
-E-Mail: kwk-ausschreibungen@bnetza.de
-Ausschreibungen für Offshore-Anlagen
-E-Mail: poststelle.bk6@bnetza.de
-Gesetzliche Grundlagen
-EEG und GemAV
-KWKG und KWKAusV
-WindSeeG
-GEEV
-InnAusV
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>Netzanschluss
+Regelungen für Ladeeinrichtungen in der Niederspannung
+Regelungen für bestimmte Erzeugungsanlagen
+Baukostenzuschüsse
+Die rein physikalisch technische Anbindung an das Energieversorgungsnetz wird über das Netzanschlussverhältnis zwischen Anschlussnehmer und Netzbetreiber geregelt.
+Aktuelle Einschätzung der Bundesnetzagentur zum Kapazitätsengpass in Oranienburg (pdf / 50 KB) (17. April 2024)
+Aktuelles: Integration steuerbarer Verbrauchseinrichtungen
+Die Betreiber von Energieversorgungsnetzen sind nach dem EnWG verpflichtet, Letztverbraucher, gleich- oder nachgelagerte Energieversorgungsnetze sowie Erzeugungs- und Speicheranlagen zu angemessenen, diskriminierungsfreien und transparenten Bedingungen an ihr Netz anzuschließen.
+Der Netzanschluss und dessen Nutzung ist eine Voraussetzung für den Netzzugang, der die Transportdienstleistung des Netzbetreibers ermöglicht.
+Hausanschlüsse sind nur für eine begrenzte Leistungsinanspruchnahme ausgelegt. Diese kann durch das Laden eines Elektrofahrzeuges in Kombination mit der gleichzeitigen Nutzung von weiteren Gebrauchsgeräten (z. B. Waschmaschine, Herd, Gefrierschrank) schnell überschritten sein.
+Daher ist beim Anschluss einer Ladeeinrichtung vorab der Hausanschluss auf die zukünftig benötigte Leistungsinanspruchnahme zu überprüfen. Eventuell bedarf es einer Verstärkung des Hausanschlusses bzw. dem Einsatz eines Leistungsmanagementsystems.
+Aus diesem Grund sind Ladeeinrichtungen vor deren Inbetriebnahme vom Anschlussnehmenden oder -nutzenden beim zuständigen Netzbetreiber nach § 19 Absatz 2 Satz 2 Niederspannungsanschlussverordnung (NAV) anzumelden. Ladeeinrichtungen mit einer Leistungsinanspruchnahme, die 12 kVA beziehungsweise 11 kW überschreiten, benötigen zudem die vorherige Zustimmung des Netzbetreibers (nach § 19 Absatz 2 Satz 3 NAV).
+Der Netzbetreiber muss innerhalb von zwei Monaten nach Eingang der Mitteilung gegenüber dem Anschlussnehmenden zustimmen oder die notwendigen Abhilfemaßnahmen und den dafür erforderlichen Zeitbedarf mitteilen.
+Hinweis
+Neben der Meldepflicht beim zuständigen Netzbetreiber besteht entsprechend der Ladesäulenverordnung auch eine weitere gesetzliche Meldepflicht für öffentlich zugängliche Ladeeinrichtungen bei der Bundesnetzagentur.
+FAQ zum Netzanschluss von Ladeeinrichtungen
+Welche Kosten muss ich für den Netzanschluss meiner Ladeeinrichtung in der Niederspannung bezahlen ?
+Wird für die Installation einer Ladeeinrichtung für Elektrofahrzeuge an einem bestehenden Niederspannungsanschluss ein Baukostenzuschuss fällig ?
+Es sind aufgrund der Installation meiner Ladeeinrichtung keine baulichen Maßnahmen in der Kundenanlage oder am Netzanschluss erforderlich. Kann mein Netzbetreiber trotzdem einen Baukostenzuschuss von mir fordern?
+Darf mein Netzbetreiber mir die Inbetriebnahme meiner Ladeeinrichtung in der Niederspannung verweigern, wenn die aktuelle Netzkapazität nicht ausreicht?
+Muss ich den Anschluss eines Elektrofahrzeugs an einer ein- beziehungsweise dreiphasigen Steckdose meinem Netzbetreiber mitteilen?
+Muss ich für das Stellen eines Netzanschlussbegehrens für eine Ladeeinrichtung in der Niederspannung einen eingetragenen Installateur beauftragen?
+Muss ich für die Installation meiner Ladeeinrichtung in der Niederspannung einen eingetragenen Installateur beauftragen?
+Ladeeinrichtungen sind vor deren Inbetriebnahme beim zuständigen Netzbetreiber nach § 19 Absatz 2 Satz 2 Niederspannungsanschlussverordnung (NAV) zu melden. Muss ich hierfür einen eingetragenen Installateur beauftragen?
+Kann ich vom Netzbetreiber einen zweiten Netzanschluss für meine Ladeeinrichtung verlangen?
+Muss ich meine Ladeeinrichtung in der Niederspannung über einen separaten Zähler anschließen lassen?
+Muss ich meine Ladeeinrichtung in der Niederspannung von meinem Netzbetreiber fernsteuern lassen?
+FAQ zum Netzanschluss von Wärmepumpen
+Ergeben sich für den Anschluss von Wärmepumpen von unter 50 kW während der Anwendungsdauer der EU-Notfallverordnung aus der Regelung nach Art. 7 Besonderheiten, die im Rahmen des Netzanschlusses zu beachten sind?
+Spezielle gesetzliche Regelungen bestehen für bestimmte Erzeugungsanlagen wie
+große Kraftwerke
+Anlagen zur Erzeugung von elektrischer Energie (Erzeugungsanlagen) mit einer Nennleistung ab 100 MW, die an Elektrizitätsversorgungsnetze mit einer Spannung von mindestens 110 Kilovolt angeschlossen sind. Der Netzanschluss von Kraftwerken ist in der Kraftwerks-Netzanschlussverordnung KraftNAV geregelt.
+Biogasanlagen
+Die Netzanschlusspflicht und das Verfahren zum Netzanschluss von Biogasanlagen wurden im April 2008 in § 33 GasNZV geregelt. Vorher existierten so gut wie keine praktischen Erfahrungen mit dem Anschluss von Biogaserzeugungs- und Aufbereitungsanlagen an das Gasnetz. Zahlreiche Auslegungsfragen der GasNZV sind daher zwischen den Biogasanlagenbetreibern und den Gasnetzbetreibern strittig. Die Beschlusskammer 7 hat sich daher bereits zweimal im Rahmen eines Missbrauchsverfahrens eines Anlagenbetreibers gegen einen Gasleitungsnetzbetreiber zu den Bedingungen des Netzanschlusses von Biogasaufbereitungsanlagen geäußert.
+Die Beschlüsse finden Sie hier: BK7-09-005 und BK7-10-191.
+EE-Anlagen
+Im Erneuerbare-Energien-Gesetz (EEG) ist eine Sonderregelung für den vorrangigen Anschluss von EE-Anlagen vorgesehen. Netzbetreiber müssen diese Anlagen „unverzüglich“, also ohne schuldhaftes Zögern, an das Netz anschließen (§ 8 EEG). Die Regelung fällt seit der Änderung des EEG 2021 Ende Juli 2022 in den Aufgabenbereich der EEG-Aufsicht der Bundesnetzagentur (§ 85 EEG).
+Hier finden Sie weitere Hinweise
+Betreiber von sogenannten „Netzen der allgemeinen Versorgung“ in Gemeindegebieten müssen allgemeine Bedingungen für den Netzanschluss und die Anschlussnutzung durch Letztverbraucher im Niederspannungs- und Niederdrucknetz veröffentlichen und zu diesen Bedingungen jeden an ihr Netz anschließen. Sie können dafür von den Anschlussnehmern angemessene Anschlusskosten und Baukostenzuschüsse (BKZ) verlangen.
+Mehr Informationen zu Baukostenzuschüssen
+Bei der Erhebung von Baukostenzuschüssen für Netzanschlüsse von Ebenen oberhalb der Niederspannung wird die Anwendung des Leistungspreismodells der Beschlusskammer 6 empfohlen:
+BKZ = Leistungspreis (&gt; 2.500 h/a) der Netzebene × bestellte Leistung
+Das Modell berücksichtigt die Transparenzanforderungen des Gesetzes und bietet die nötige Steuerungswirkung, um das Entstehen überdimensionierter und ineffizienter Netze zu verhindern.
+Das Kalkulationsmodell ist Teil eines Positionspapiers der Bundesnetzagentur zur Erhebung von Baukostenzuschüssen für Netzanschlüsse im Bereich von Netzebenen oberhalb der Niederspannung.
+Zum Positionspapier der Bundesnetzagentur
 Navigation und Service
 Springe direkt zu:
 Inhalt
@@ -17365,12 +16767,6 @@
 GEBÄRDENSPRACHE VIDEOS
 RSS
 Fachthemen Verbraucherportal Datenportal Bundesnetzagentur Presse
-Sie sind hier:
-Homepage
-Fachthemen
-UntermenuOeffnen
-Energie
-Ausschreibungen
 Seite drucken Seite teilen Kurzlink
 Folgen Sie uns
 © BUNDESNETZAGENTUR - 2024
@@ -17379,7 +16775,8 @@
 BARRIEREFREIHEIT
 DATENSCHUTZ
 INHALTSVERZEICHNIS
-Gasversorgung
+Fachthemen
+Energie
 Telekom­munikation
 Breitbandversorgung
 Funk und Frequenzen
@@ -17482,300 +16879,79 @@
 ENRRB
 Qualifizierte elektronische Signatur
 Shared Service Center
+Ausschreibungen
 Standorte
 Öffentliche Zustellung
+Kontakt
 Presse
 Pressemitteilungen
 Pressekontakt
 Mediathek
 Amtsblatt
 Navigation
-EnergieGasversorgungTelekom­munikationDigitalisierungPostEisenbahnen
-AusschreibungenE-Mobilität: Öffentliche LadeinfrastrukturWasserstoffErneuerbare Energien/ Kraft-Wärme-KopplungHandel / VertriebKohleausstiegLNG-AnlagenMonitoringberichteNetzanschlussNetzentgelteNetzentwicklungsplanungNetzzugang / MesswesenVersorgungssicherheitVeranstaltungenEntflechtungEnergiedatenportal
-Solar FreiflächeSolar AufdachWindenergieanlagen an LandKWK-AusschreibungenInnovationsausschreibungenBiomasseanlagen BiomethananlagenWindenergieanlagen auf See Grenzüberschreitende AusschreibungenGemeinsame Ausschreibungen Wind/Solar
-Tabelle: Gebotstermine 2023
-1 Alle Angaben unter Vorbehalt potenzieller Gesetzesänderungen
-2  Nach Verrechnung der Abzugs- und Zusatzmengen. Bei KWK-Anlagen und innovativen KWK-Systemen kann das tatsächliche Ausschreibungsvolumen nach den Bestimmungen des § 3 KWKAusV vom Regelausschreibungsvolumen abweichen. Für die Gebotstermine 1. Juni und 1. Dezember wurde jeweils das Ausschreibungsvolumen für KWK-Anlagen gem. § 3 Abs. 5 KWKAusV und für innovative KWK-Systeme gem. § 3 Abs. 3 S. 1 Nr. 1 KWKAusV angepasst.
-3 Das tatsächliche Ausschreibungsvolumen erhöht sich noch um die nach dem 31. Dezember 2022 bezuschlagten und vor der jeweiligen Bekanntmachung entwerteten Gebotsmengen.
-4 Das tatsächliche Ausschreibungsvolumen kann sich noch verringern, wenn die Bundesnetzagentur das Volumen bei einer drohenden Unterzeichnung reduziert.Technologie
-volumen2 (kW)
-Solar Freifläche1. März
-1. Dezember1.950
-1.950
-1.950.000
-1.611.0873
-1.611.087303/2023
-07/2023
-12/2023Solar Aufdach1. Februar
-1. Oktober
-217
-217216.667
-190.1163
-190.115302/2023
-06/2023
-10/2023Wind Onshore1. Februar
-1. November3.210
-3.210
-3.2103.210.000
-2.865.910
-1.666.810
-2.086.63002/2023
-05/2023
-08/2023
-11/2023KWK-Anlagen1. Juni
-1.Dezember75
-7575.574
-77.000
-12/2023Innovative KWK-Systeme1. Juni
-1. Dezember
-25
-25 25.000
-31.38506/2023
-12/2023Biomasse1. April
-1. Oktober300
-300300.0003
-287.8523
-04/2023
-10/2023
-Biomethan1. April
-1. September300
-30019.477
-8.154Entfällt
-EntfälltInnovationsausschreibung1. Mai
-1. September400
-400400.0004
-400.000405/2023
-09/2023Wind Offshore
-Nicht zentral voruntersuchte Flächen (Nord- und Ostsee)1. Juni
-7.000
-Weiterführende Informationen06/2023Wind Offshore
-Zentral voruntersuchte Flächen (Nordsee)1. August 1.800Weiterführende Informationen
-Tabelle: Gebotstermine für 2022
-2  Nach Verrechnung der Abzugs- und Zusatzmengen.
-Bei KWK-Anlagen und innovativen KWK-Systemen kann das tatsächliche Ausschreibungsvolumen nach den Bestimmungen des § 3 KWKAusV vom Regelausschreibungsvolumen abweichen. Für den Gebotstermin 1. Juni wurde das Ausschreibungsvolumen für KWK-Anlagen gem. § 3 Abs. 5 KWKAusV und für innovative KWK-Systeme gem. § 3 Abs. 3 S. 1 Nr. 1 KWKAusV angepasst. Technologie
-Gebotstermine 2022/2023
-Tatsächliches Ausschreibungsvolumen2 (kW)
-Solar Freifläche1. März 2022
-1. Juni 2022
-1. November 20221.200
-1.200
-1.2001.107.729
-1.125.995
-890.118
-03/2022
-06/2022
-11/2022Solar Aufdach1. April 2022
-1. August 2022
-1. Dezember 2022
-767
-767766.667
-766.667
-202.292
-04/2022
-08/2022
-12/2022Wind Onshore1. Februar 2022
-1. Mai 2022
-1. September 2022
-1.333
-1.190
-1.328.191
-1.319.842
-603.870
-02/2022
-05/2022
-09/2022
-12/2022KWK-Anlagen1. Juni 2022
-1. Dezember 202275
-75
-84.240
-86.549
-12/2022Innovative KWK-Systeme1. Juni 2022
-1. Dezember 202225
-25.000
-25.00006/2022
-12/2022Biomasse1. März 2022
-1. September 2022300
-300274.860
-285.794
-09/2022Biomethan1. Oktober 2022150
-152.02010/2022Innovationsausschreibung1. April 2022
-1. Dezember 2022350
-350
-397.198
-397.19704/2022
-12/2022Wind Offshore1. September 2022
-980 (Nordsee)
-Informationen auf der Seite der Beschlusskammer 6
-Tabelle: Gebotstermine für 20211 Alle Angaben unter Vorbehalt potenzieller Gesetzesänderungen
-2 Nach Verrechnung der Abzugs- und Zusatzmengen.
-Gebotstermine 2021
-1. November617
-617
-616617.000
-510.347
-509.52003/2021
-06/2021
-11/2021Solar Aufdach1. Juni
-1. Dezember150
-150150.000
-150.00006/2021
-12/2021
-Wind Onshore1. Februar
-1. September1.500
-1.500
-1.5001.500.000
-1.243.230
-1.492.019
-02/2021
-05/2021
-09/2021
-KWK-Anlagen1. Juni
-1. Dezember75
-7558.533
-75.68406/2021
-12/2021Innovative KWK-Systeme1. Juni
-1. Dezember25
-2525.896
-25.52406/2021
-12/2021Biomasse1. März
-300300.000
-274.860
-03/2021
-09/2021Biomethan1. Dezember150150.00012/2021Innovationsausschreibung1. April
-250
-250250.000
-250.00004/2021
-08/2021Wind Offshore1. September658 (Nordsee)
-300 (Ostsee)09/2021
-* durchschnittlicher, mengengewichteter Wert
-**Anders als bei der Regelausschreibung wird diese Art der Förderung auf die Markterlöse aufgeschlagen, so dass die Werte nicht mit den Werten der Regelausschreibungen vergleichbar sind.
-1 alle Angaben unter Vorbehalt potenzieller Gesetzesänderungen
-2 nach Verrechnung der Abzugs- und Zusatzmengen, die entsprechend § 28 Abs. 1a, 2a, 3a EEG  ab dem 1. März für das restliche Kalenderjahr berechnet werden. Daher kommt es zu Abweichungen zu den in § 28  EEG aufgeführten Ausschreibungsvolumen. Bei innovativen KWK-Systemen kommt es zu Abweichungen gem. § 3 Abs. 3 Satz 1 Nr. 1 KWKAusV.TechnologieGebotstermine 2020Ausschreibungs-
-nach § 28  EEGTatsächliches Ausschreibungs-volumen2 (kW)Zuschlagswert* (ct/kWh)ListeSolar1. Februar
-1. März
-2. Juni
-1. September
-1. Dezember100
-150
-400
-400100.000
-300.000
-96.358
-192.716
-256.955
-256.9555,01
-5,18
-5,27
-5,22
-5,23
-5,1002/2020
-03/2020
-06/2020
-07/2020
-09/2020
-10/2020
-12/2020Wind Onshore1. Februar
-1. Dezember900
-900
-400900.000
-825.527
-275.176
-366.901
-366.9016,18
-6,07
-6,14
-6,20
-6,11
-5,9102/2020
-12/2020KWK-Anlagen2. Juni
-7575.000
-75.0006,23
-6,7506/2020
-12/2020innovative KWK-Systeme2. Juni
-2529.486
-28.24910,63
-10,8006/2020
-12/2020Biomasse1. April
-1. November100
-100167.770
-167.77013,99
-14,8504/2020
-11/2020Technologieübergreifend Wind Onshore und Solar1. April
-1. November200
-200200.000
-200.0005,33
-5,3304/2020
-11/2020Innovationsausschreibung1. September400650.0002,65/4,50**09/2020Offshore-----
-1 das tatsächliche Ausschreibungsvolumen ist auf der Seite des Gebotstermins angegebenTechnologieGebotstermine 2019Volumen1 (MW)Zuschlagswert* (ct/kWh)ListeSolar1. Februar
-3. Juni
-2. Dezember175
-500
-5004,80
-6,59
-5,47
-4,90
-5,6802/2019
-03/2019
-06/2019
-10/2019
-12/2019Onshore1. Februar
-2. September
-2. Dezember700
-650
-675
-5006,11
-6,13
-6,1102/2019
-05/2019
-08/2019
-09/2019
-12/2019KWK-Anlagen3. Juni
-2. Dezember75
-753,95
-5,1206/2019
-12/2019innovative KWK-Systeme3. Juni
-2. Dezember25
-2511,17
-10,2506/2019
-12/2019Biomasse1. April
-4. November75
-7512,34
-12,4704/2019
-11/2019Technologieübergreifend
-Onshore und Solar1. April
-4. November200
-2005,66
-5,4004/2019
-11/2019Offshorekeine Ausschreibung---
-* durchschnittlicher, mengengewichteter WertTechnologieGebotstermine 2018Zuschlagswert* (ct/kWh)ZuschlagslistenSolar1. Februar
-1. Oktober4,33
-4,59
-4,6902/2018
-06/2018
-10/2018Onshore1. Februar
-1. Oktober4,73
-5,73
-6,16
-6,2602/2018
-05/2018
-08/2018
-10/2018KWK1. Juni
-3. Dezember4,31
-4,7706/2018
-12/2018innovative KWK-Systeme1. Juni
-3. Dezember10,27
-11,3106/2018
-12/2018Biomasse1. September14,7309/2018Offshore1. April4,6604/2018Technologie-
-übergreifend Onshore und Solar1. April
-1. November4,67
-5,2704/2018
-11/2018
+Dem Anschlussnehmenden können Kosten für die Herstellung oder Änderung des Netzanschlusses und durch den Baukostenzuschuss entstehen.
+Netzanschlusskosten einer Ladeeinrichtung in der Niederspannung können sich sowohl bei einem neu zu errichtenden Netzanschluss als auch bei der Verstärkung eines bestehenden Netzanschlusses ergeben. So könnte möglicherweise ein neues Anschlussstromkabel mit größerem Querschnitt oder eine größere Anschlusssicherung erforderlich sein.
+Im Zuge der Herstellung oder einer Leistungserhöhung des Netzanschlusses für die Ladeeinrichtung in der Niederspannung kann der Netzbetreiber vom Anschlussnehmenden auch einen Baukostenzuschuss verlangen. Er ist einmalig für die dauerhafte Bereitstellung der Anschlussleistung aus dem Stromnetz zu entrichten.
+In der Niederspannung darf ein Baukostenzuschuss jedoch nur für den Teil der Leistungsanforderung erhoben werden, der eine Leistungsanforderung von 30 kW übersteigt.
+Die Erhebung eines Baukostenzuschusses ist nicht davon abhängig, ob tatsächliche bauliche Maßnahmen am Stromnetz oder am Netzanschluss durch die Installation der Ladeeinrichtung erforderlich geworden sind.
+Nicht unbedingt. Die Installation einer Ladeeinrichtung bedarf in der Regel einer Anschlusserweiterung (Leistungserhöhung). In einem solchen Fall kann für den Teil der Leistungsanforderung, der eine Leistungsanforderung von 30 kW übersteigt, ein Baukostenzuschuss erhoben werden [§ 11 Absatz 3 Niederspannungsanschlussverordnung (NAV)].
+Ob durch die Installation einer Ladeeinrichtung für Elektrofahrzeuge die Leistungsanforderung von 30 kW überstiegen wird, ist durch den Netzbetreiber festzustellen. Der Netzbetreiber trägt für die Voraussetzungen des § 11 NAV die Beweislast.
+Netzbetreiber dürfen im ersten Ansatz pauschale Annahmen zur Berechnung der Leistungsanforderung (beispielsweise auf Grundlage der technischen Regeln wie etwa der DIN 18015-1: Elektrische Anlagen in Wohngebäuden) treffen. Im Einzelfall ist ein entsprechender Nachweis beispielsweise über eine Lastgangmessung zu führen.
+Entsprechend § 11 Abs. 2 NAV kann der Baukostenzuschuss auf der Grundlage der durchschnittlich für vergleichbare Fälle entstehenden Kosten pauschal berechnet werden. Die Erhebung eines Baukostenzuschusses ist nicht davon abhängig, ob tatsächliche bauliche Maßnahmen am Stromnetz oder am Netzanschluss durch die Installation der Ladeeinrichtung erforderlich geworden sind.
+Der Baukostenzuschuss wird für die dauerhafte Bereitstellung der Anschlussleistung aus dem Stromnetz erhoben. Für jede Leistungserhöhung kann daher – sofern die Freigrenze überschritten ist – ein entsprechender Baukostenzuschuss verlangt werden.
+Ja. Die Installation einer Ladeeinrichtung stellt in der Regel eine Anschlusserweiterung (Leistungserhöhung) dar. In einem solchen Fall kann für den Teil der Leistungsanforderung, der eine Leistungsanforderung von 30 kW übersteigt, nach § 11 Absatz 3 Niederspannungsanschlussverordnung (NAV) ein Baukostenzuschuss erhoben werden. Dies gilt auch, wenn tatsächliche bauliche Maßnahmen am Netzanschluss durch die Installation der Ladeeinrichtung nicht erforderlich sind.
+Der Baukostenzuschuss wird für die dauerhafte Bereitstellung der Anschlussleistung aus dem Stromnetz erhoben. Eine höhere Netzanschlussleistung muss durch den Netzbetreiber bei der Prognose der Netzauslastung berücksichtigt werden.
+Im Sinne der Lenkungs- oder Steuerungswirkung wird durch den Baukostenzuschuss für eine Leistungserhöhung– unabhängig von baulichen Maßnahmen – eine bedarfsgerechte Nachfrage nach Netzanschlusskapazität angereizt. Das Ziel ist eine effiziente und damit auch für den Verbraucher kostengünstige Netzauslastung.
+Zumindest zeitweise. Falls die verfügbare Netzanschlusskapazität für den beabsichtigten Anschluss der Ladeeinrichtung in der Niederspannung nicht ausreicht und deshalb der Netzanschluss und/oder das Netz verstärkt werden müssen, ist dem Netzbetreiber ein sofortiger Anschluss nicht möglich. In diesem Fall ist der Netzbetreiber verpflichtet, sein Netz bedarfsgerecht auszubauen.
+Der Netzbetreiber hat dem Anschlussnehmenden den Hinderungsgrund, mögliche Abhilfemaßnahmen sowie den hierfür erforderlichen Zeitbedarf darzulegen [§ 19 Absatz 2 Satz 4 Niederspannungsanschlussverordnung (NAV)]. Eine fehlende Kapazität im Netz kann daher zu Verzögerungen beim Netzanschluss führen, ist jedoch kein Grund für eine endgültige Ablehnung eines Netzanschlusses.
+Ja.
+Die Verwendung zusätzlicher Verbrauchsgeräte und Ladeeinrichtungen für Elektrofahrzeuge sind dem Netzbetreiber mitzuteilen, sofern sich dadurch die vorzuhaltende Leistung erhöht oder mit Netzrückwirkungen zu rechnen ist [§ 19 Absatz 2 Satz 1 und 2 Niederspannungsanschlussverordnung (NAV)].
+Der Anschluss eines Elektrofahrzeuges an eine ein- beziehungsweise dreiphasige Steckdose ist damit mitteilungspflichtig.
+Nein.
+Ein Netzanschlussbegehren kann ohne Einbindung eines eingetragenen Installateurs direkt beim Netzbetreiber gestellt werden.
+Arbeiten (Errichtung, Erweiterung, Änderung und Instandhaltung) an einer elektrischen Anlage dürfen aus Sicherheitsgründen nach § 13 Absatz 2 Satz 4 Niederspannungsanschlussverordnung (NAV) außer durch den Netzbetreiber nur durch ein in ein Installateurverzeichnis eines Netzbetreibers eingetragenes Installationsunternehmen durchgeführt werden, um unzulässige Rückwirkungen auf das Netz auszuschließen.
+Diese Verpflichtung erstreckt sich jedoch nicht auf das bloße Stellen eines Netzanschlussbegehrens.
+Die Mitteilung der Ladeeinrichtung nach § 19 Absatz 2 Satz 2 NAV kann von jedermann vorgenommen werden. Zwar kann der Netzbetreiber Einzelheiten über den Inhalt und die Form der Mitteilungen regeln, er kann jedoch die Mitteilung nicht davon abhängig machen, dass diese durch einen eingetragenen Installateur erfolgen muss.
+In der Regel ist jedoch bei der Installation einer Ladeeinrichtung eine Erweiterung der elektrischen Kundenanlage notwendig, die nach § 13 Absatz 2 Satz 4 NAV außer durch den Netzbetreiber nur durch ein in ein Installateurverzeichnis eines Netzbetreibers eingetragenes Installationsunternehmen durchgeführt werden darf.
+Der Anspruch ist grundsätzlich nicht auf einen Netzanschluss begrenzt. Dabei ist allerdings zu beachten, dass für einen zweiten Netzanschluss im Vergleich zu der Erweiterung eines bestehenden Netzanschlusses auch höhere, vom Anschlussnehmenden zu tragende Kosten entstehen können.
+Zudem ist zu beachten, dass die Freigrenze von 30 kW nach § 11 Abs. 3 Niederspannungsanschlussverordnung (NAV) nicht ein zweites mal gewährt wird. Soweit mit der Leistungsanforderung des zweiten Netzanschlusses diese Freigrenze von 30 kW überschritten wird, wird für diesen Teil ein entsprechender Baukostenzuschuss fällig.
+Werden mehrere Netzanschlüsse in einem Gebäude oder auf einem Grundstück errichtet, müssen die Beteiligten durch geeignete Maßnahmen sicherstellen, dass die technische Sicherheit weiter gewährleistet bleibt.
+Nicht unbedingt.
+Sie können allerdings mit dem Netzbetreiber eine netzdienliche Steuerung der Verbrauchseinrichtung nach § 14a Satz 1 Energiewirtschaftsgesetz (EnWG) vereinbaren. Voraussetzung dafür ist dann, dass die steuerbare Verbrauchseinrichtung (Elektrofahrzeug, Wärmepumpe o. ä.) über einen separaten Zählpunkt verfügt.
+Im Gegenzug für die Möglichkeit der Steuerung erhalten Sie ein reduziertes Netzentgelt. In diesem Fall müssen die steuerbaren Verbrauchseinrichtungen zur separaten Abrechnung des reduzierten Netzentgelts auch über einen separaten Zähler gemessen werden.
+Wenn Sie keine solche Vereinbarung geschlossen haben, muss die Ladeeinrichtung auch nicht über einen separaten Zähler verfügen.
+Grundsätzlich kann der Netzbetreiber Anschlussnehmende nicht verpflichten, dass diese ihre Ladeeinrichtung in der Niederspannung fernsteuern lassen.
+Ladeeinrichtungen mit einer Leistungsinanspruchnahme über 12 kVA beziehungsweise 11 kW müssen aber eine Möglichkeit zur Steuerung/Regelung, eine intelligente zeitliche Steuerung oder eine Regeleinrichtung zur Netzintegration über eine Unterbrechbarkeit durch den Netzbetreiber aufweisen. Dies dient insbesondere zur Vermeidung von temporären Überlastungen des Netzes.
+Zudem muss in der Ladeeinrichtung bereits die Technik (ohne kommunikative Anbindung) für eine bidirektionale Steuerung, die Signale vom Netz zur Anlage und umgekehrt übertragen kann, durch den Netzbetreiber installiert sein.
+Für Ladeeinrichtungen mit einer Leistungsinanspruchnahme von 12 kVA beziehungsweise 11 kW oder weniger gibt es keine derartige Verpflichtung.
+Die EU-Notfallverordnung (VO 2022/2577) verlangt für bestimmte Konstellationen die Gewährung von Anschlüssen von Wärmepumpen mit einer maximalen Leistung von bis zu 50 kW an das Verteilnetz, sofern keine Sicherheitsbedenken oder technische Inkompatibilität der Netzkomponenten vorliegen (Art. 7 Abs. 2). Dies betrifft in Deutschland inhaltlich Netzanschlussverfahren bei den Verteilnetzbetreibern. Die Regelung entspricht in der Niederspannung dem bereits national geltenden Recht.
+Nach § 20 Satz 4 NAV darf ein Netzbetreiber seine Zustimmung zum Anschluss von Verbrauchsgeräten nur dann verweigern, wenn der Anschluss eine sichere und störungsfreie Versorgung gefährden würde.
+Netzbetreiber sind nach den bestehenden gesetzlichen Regelungen in Deutschland auch verpflichtet, in einer angemessenen Zeit auf Netzanschlussbegehren zu reagieren (§§ 17 und 18 EnWG, sowie §§ 6, 19 NAV für andere Begehren). Die Fristenregelung für die Genehmigungserteilung von Wärmepumpen nach Art. 7 Abs.1 der EU-Notfallverordnung können hierbei für Wärmepumpen mit einer installierten Leistung von unter 50 kW als Orientierung dienen.
 Inhalte teilen
 per E-Mail schicken
 ×</t>
         </is>
       </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="F45" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-11 09:08:21</t>
+        </is>
+      </c>
+      <c r="G45" s="1" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>https://www.bundesnetzagentur.de/DE/Fachthemen/ElektrizitaetundGas/Ausschreibungen/start.html</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>Ausschreibungen für EE- und KWK-An­la­gen
 Ausschreibungen 2024
@@ -18291,23 +17467,533 @@
 ×</t>
         </is>
       </c>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <t>Ausschreibungen für EE- und KWK-An­la­gen
+Ausschreibungen 2024
+Zurückliegende Ausschreibungen
+Die Bundesnetzagentur führt Ausschreibungen zur Ermittlung der finanziellen Förderung von Erneuerbaren-Energien- und Kraft-Wärme-Kopplungs-Anlagen durch. Alle Angaben sind unter Vorbehalt gesetzlicher Änderungen zu verstehen.
+Tabelle: Gebotstermine, Ausschreibungsvolumen und Zuschlagslisten der einzelnen Technologien
+1 Nach Verrechnung der Abzugs- und Zusatzmengen. Bei KWK-Anlagen und innovativen KWK-Systemen kann das tatsächliche Ausschreibungsvolumen nach den Bestimmungen des § 3 KWKAusV vom Regelausschreibungsvolumen abweichen. Für die Gebotstermine 1. Juni und 1. Dezember wurde jeweils das Ausschreibungsvolumen für KWK-Anlagen gem. § 3 Abs. 5 KWKAusV und für innovative KWK-Systeme gem. § 3 Abs. 3 S. 1 Nr. 1 KWKAusV angepasst.
+2 Das tatsächliche Ausschreibungsvolumen kann sich noch um die nach dem 31. Dezember 2022 bezuschlagten und vor der jeweiligen Bekanntmachung entwerteten Gebotsmengen erhöhen.
+3 Das tatsächliche Ausschreibungsvolumen kann sich noch verringern, wenn die Bundesnetzagentur das Volumen bei einer drohenden Unterzeichnung reduziert.
+Technologie
+Gebotstermine
+Ausschreibungs-
+volumen (MW)
+Tatsächliches Ausschreibungs-
+volumen1 (kW)
+Liste
+Solar Freifläche	1. März
+1. Juli
+1. Dezember	2.700
+2.700
+2.230.736
+2.147.784
+2.147.7842 3	03/2024
+07/2024
+Solar Aufdach	1. Februar
+1. Juni
+1. Oktober	300
+300
+300	263.236
+258.058
+258.059 3	02/2024
+06/2024
+Wind Onshore	1. Februar
+1. Mai
+1. August
+1. November	2.500
+2.500
+2.500	2.486.319
+2.795.480
+2.708.940
+4.093.5872 3	02/2024
+05/2024
+KWK-Anlagen	3. Juni
+1. Dezember	75
+75	52.549	06/2024
+Innovative KWK-Systeme	3. Juni
+1. Dezember	25
+25	25.000	06/2024
+Biomasse	1. April
+1. Oktober	250
+250	239.878
+233.784	01/2024
+Biomethan	1. April
+1. September	300
+300	250.870
+75.711	Entfällt
+Innovation	1. Mai
+1. September	583,25
+583,25	583.250
+583.250	05/2024
+Wind Offshore
+Nicht zentral voruntersuchte Flächen (Nordsee)	1. Juni	2.500
+Weiterführende Informationen	06/2024
+Zentral voruntersuchte Flächen (Nordsee)	1. August	5.500	Weiterführende Informationen
+08/2024
+Ausschreibungen 2023
+Ausschreibungen 2022
+Ausschreibungen 2021
+Ausschreibungen 2020
+Ausschreibungen 2019
+Ausschreibungen 2018
+Solar Freifläche
+Solar Aufdach
+Windenergieanlagen an Land
+KWK-Ausschreibungen
+Innovationsausschreibungen
+Biomasseanlagen
+Biomethananlagen
+Windenergieanlagen auf See
+Grenzüberschreitende Ausschreibungen
+Gemeinsame Ausschreibungen Wind/Solar
+Kontakt
+Ausschreibungen für EE-Anlagen
+E-Mail: ee-ausschreibungen@bnetza.de
+Ausschreibungen für KWK-Anlagen
+E-Mail: kwk-ausschreibungen@bnetza.de
+Ausschreibungen für Offshore-Anlagen
+E-Mail: poststelle.bk6@bnetza.de
+Gesetzliche Grundlagen
+EEG und GemAV
+KWKG und KWKAusV
+WindSeeG
+GEEV
+InnAusV
+Navigation und Service
+Springe direkt zu:
+Inhalt
+Hauptmenu
+Suche
+Service
+KONTAKT
+ENGLISH
+LEICHTE SPRACHE
+GEBÄRDENSPRACHE VIDEOS
+RSS
+Fachthemen Verbraucherportal Datenportal Bundesnetzagentur Presse
+Sie sind hier:
+Homepage
+Fachthemen
+UntermenuOeffnen
+Energie
+Ausschreibungen
+Seite drucken Seite teilen Kurzlink
+Folgen Sie uns
+© BUNDESNETZAGENTUR - 2024
+ServiceMenu
+IMPRESSUM
+BARRIEREFREIHEIT
+DATENSCHUTZ
+INHALTSVERZEICHNIS
+Telekom­munikation
+Breitbandversorgung
+Funk und Frequenzen
+Marktregulierung
+Nummerierung
+Unternehmenspflichten
+Technik und Produktsicherheit
+Öffentliche Sicherheit
+Marktdaten
+Grundversorgung
+Unterversorgungsfeststellung
+Resilienz der Netze
+Beschlusskammern
+Beschlusskammer 2
+Beschlusskammer 3
+Beschlusskammer 11
+Digitalisierung
+Digital Services Coordinator
+Platform-to-Business-Verordnung
+Technologien und Geschäftsmodelle
+Blockchain Infoportal
+Künstliche Intelligenz
+Online-Kommunikationsdienste
+Digitale Transformation
+Internet
+Netzneutralität
+Geoblocking
+Bekämpfung terroristischer Inhalte
+Internet of Things
+Peering- und Transitmärkte
+Digitale Transformation Mittelstand
+Kennzahlen
+Anlaufstellen für KMU (Datenbank)
+Best-Practice Übersicht
+Förderprogramme Bund
+Daten
+Förderwettbewerb Gaia-X
+Datenökonomie
+Datennutzungsgesetz
+Nachhaltigkeit
+Digitale Geschäftsmodelle
+Anreizsysteme KMU
+Indikatorenstudie
+Veranstaltungen
+Post
+Aktuelles
+Anbieterverzeichnis
+Marktbeobachtung
+Jährliche Datenerhebung
+Marktuntersuchungen
+Internationaler Briefpreisvergleich
+Paketpreisvergleich
+Meldestelle für Hinweisgebende
+Postgeheimnis und Datenschutz
+Postmarktprüfungen
+Qualitätsmonitoring
+Regelungen zur Postversorgung
+Sicherstellung des Postwesens
+Standardisierung
+Teilleistungen - Zugang und Entgelte
+Eisenbahnen
+Verbraucherportal
+Digitales und Telekommunikation
+Anfragen und Beschwerden
+Schlichtung
+Verbraucher-Radar
+Bundesnetzagentur
+Über uns
+Präsidium
+Aufgaben und Struktur
+Karriere
+Ausbildung und Studium
+Podcast Akte Tulpenfeld
+Insight Blog
+Beiräte, Gremien, Beauftragte
+Beirat
+Eisenbahninfrastrukturbeirat
+Bundesfachplanungsbeirat
+Länderausschuss
+Wissenschaftlicher Arbeitskreis für Regulierungsfragen
+Korruptionsprävention
+Internationales und Europa
+Energie (Internationales)
+ACER
+CEER
+PCI
+Telekommunikation
+BEREC
+IRG
+CEPT
+ITU
+RSPG
+RSC
+ERGP
+CEPT - CERP
+CEN
+UPU
+ISO
+IRG-Rail
+ENRRB
+Qualifizierte elektronische Signatur
+Shared Service Center
+Standorte
+Öffentliche Zustellung
+Presse
+Pressemitteilungen
+Pressekontakt
+Mediathek
+Amtsblatt
+Navigation
+EnergieTelekom­munikationDigitalisierungPostEisenbahnenBeschlusskammern
+AusschreibungenE-Mobilität: Öffentliche LadeinfrastrukturWasserstoffErneuerbare Energien/ Kraft-Wärme-KopplungHandel / VertriebKohleausstiegLNG-AnlagenMonitoringberichteNetzanschlussNetzentgelteNetzentwicklungsplanungNetzzugang / MesswesenVersorgungssicherheitVeranstaltungenEntflechtungEnergiedatenportal
+Solar FreiflächeSolar AufdachWindenergieanlagen an LandKWK-AusschreibungenInnovationsausschreibungenBiomasseanlagen BiomethananlagenWindenergieanlagen auf See Grenzüberschreitende AusschreibungenGemeinsame Ausschreibungen Wind/Solar
+Tabelle: Gebotstermine 2023
+1 Alle Angaben unter Vorbehalt potenzieller Gesetzesänderungen
+2  Nach Verrechnung der Abzugs- und Zusatzmengen. Bei KWK-Anlagen und innovativen KWK-Systemen kann das tatsächliche Ausschreibungsvolumen nach den Bestimmungen des § 3 KWKAusV vom Regelausschreibungsvolumen abweichen. Für die Gebotstermine 1. Juni und 1. Dezember wurde jeweils das Ausschreibungsvolumen für KWK-Anlagen gem. § 3 Abs. 5 KWKAusV und für innovative KWK-Systeme gem. § 3 Abs. 3 S. 1 Nr. 1 KWKAusV angepasst.
+3 Das tatsächliche Ausschreibungsvolumen erhöht sich noch um die nach dem 31. Dezember 2022 bezuschlagten und vor der jeweiligen Bekanntmachung entwerteten Gebotsmengen.
+4 Das tatsächliche Ausschreibungsvolumen kann sich noch verringern, wenn die Bundesnetzagentur das Volumen bei einer drohenden Unterzeichnung reduziert.Technologie
+volumen2 (kW)
+Solar Freifläche1. März
+1. Dezember1.950
+1.950
+1.950.000
+1.611.0873
+1.611.087303/2023
+07/2023
+12/2023Solar Aufdach1. Februar
+1. Oktober
+217
+217216.667
+190.1163
+190.115302/2023
+06/2023
+10/2023Wind Onshore1. Februar
+1. November3.210
+3.210
+3.2103.210.000
+2.865.910
+1.666.810
+2.086.63002/2023
+05/2023
+08/2023
+11/2023KWK-Anlagen1. Juni
+1.Dezember75
+7575.574
+77.000
+12/2023Innovative KWK-Systeme1. Juni
+1. Dezember
+25
+25 25.000
+31.38506/2023
+12/2023Biomasse1. April
+1. Oktober300
+300300.0003
+287.8523
+04/2023
+10/2023
+Biomethan1. April
+1. September300
+30019.477
+8.154Entfällt
+EntfälltInnovationsausschreibung1. Mai
+1. September400
+400400.0004
+400.000405/2023
+09/2023Wind Offshore
+Nicht zentral voruntersuchte Flächen (Nord- und Ostsee)1. Juni
+7.000
+Weiterführende Informationen06/2023Wind Offshore
+Zentral voruntersuchte Flächen (Nordsee)1. August 1.800Weiterführende Informationen
+Tabelle: Gebotstermine für 2022
+2  Nach Verrechnung der Abzugs- und Zusatzmengen.
+Bei KWK-Anlagen und innovativen KWK-Systemen kann das tatsächliche Ausschreibungsvolumen nach den Bestimmungen des § 3 KWKAusV vom Regelausschreibungsvolumen abweichen. Für den Gebotstermin 1. Juni wurde das Ausschreibungsvolumen für KWK-Anlagen gem. § 3 Abs. 5 KWKAusV und für innovative KWK-Systeme gem. § 3 Abs. 3 S. 1 Nr. 1 KWKAusV angepasst. Technologie
+Gebotstermine 2022/2023
+Tatsächliches Ausschreibungsvolumen2 (kW)
+Solar Freifläche1. März 2022
+1. Juni 2022
+1. November 20221.200
+1.200
+1.2001.107.729
+1.125.995
+890.118
+03/2022
+06/2022
+11/2022Solar Aufdach1. April 2022
+1. August 2022
+1. Dezember 2022
+767
+767766.667
+766.667
+202.292
+04/2022
+08/2022
+12/2022Wind Onshore1. Februar 2022
+1. Mai 2022
+1. September 2022
+1.333
+1.190
+1.328.191
+1.319.842
+603.870
+02/2022
+05/2022
+09/2022
+12/2022KWK-Anlagen1. Juni 2022
+1. Dezember 202275
+75
+84.240
+86.549
+12/2022Innovative KWK-Systeme1. Juni 2022
+1. Dezember 202225
+25.000
+25.00006/2022
+12/2022Biomasse1. März 2022
+1. September 2022300
+300274.860
+285.794
+09/2022Biomethan1. Oktober 2022150
+152.02010/2022Innovationsausschreibung1. April 2022
+1. Dezember 2022350
+350
+397.198
+397.19704/2022
+12/2022Wind Offshore1. September 2022
+980 (Nordsee)
+Informationen auf der Seite der Beschlusskammer 6
+Tabelle: Gebotstermine für 20211 Alle Angaben unter Vorbehalt potenzieller Gesetzesänderungen
+2 Nach Verrechnung der Abzugs- und Zusatzmengen.
+Gebotstermine 2021
+1. November617
+617
+616617.000
+510.347
+509.52003/2021
+06/2021
+11/2021Solar Aufdach1. Juni
+1. Dezember150
+150150.000
+150.00006/2021
+12/2021
+Wind Onshore1. Februar
+1. September1.500
+1.500
+1.5001.500.000
+1.243.230
+1.492.019
+02/2021
+05/2021
+09/2021
+KWK-Anlagen1. Juni
+1. Dezember75
+7558.533
+75.68406/2021
+12/2021Innovative KWK-Systeme1. Juni
+1. Dezember25
+2525.896
+25.52406/2021
+12/2021Biomasse1. März
+300300.000
+274.860
+03/2021
+09/2021Biomethan1. Dezember150150.00012/2021Innovationsausschreibung1. April
+250
+250250.000
+250.00004/2021
+08/2021Wind Offshore1. September658 (Nordsee)
+300 (Ostsee)09/2021
+* durchschnittlicher, mengengewichteter Wert
+**Anders als bei der Regelausschreibung wird diese Art der Förderung auf die Markterlöse aufgeschlagen, so dass die Werte nicht mit den Werten der Regelausschreibungen vergleichbar sind.
+1 alle Angaben unter Vorbehalt potenzieller Gesetzesänderungen
+2 nach Verrechnung der Abzugs- und Zusatzmengen, die entsprechend § 28 Abs. 1a, 2a, 3a EEG  ab dem 1. März für das restliche Kalenderjahr berechnet werden. Daher kommt es zu Abweichungen zu den in § 28  EEG aufgeführten Ausschreibungsvolumen. Bei innovativen KWK-Systemen kommt es zu Abweichungen gem. § 3 Abs. 3 Satz 1 Nr. 1 KWKAusV.TechnologieGebotstermine 2020Ausschreibungs-
+nach § 28  EEGTatsächliches Ausschreibungs-volumen2 (kW)Zuschlagswert* (ct/kWh)ListeSolar1. Februar
+1. März
+2. Juni
+1. September
+1. Dezember100
+150
+400
+400100.000
+300.000
+96.358
+192.716
+256.955
+256.9555,01
+5,18
+5,27
+5,22
+5,23
+5,1002/2020
+03/2020
+06/2020
+07/2020
+09/2020
+10/2020
+12/2020Wind Onshore1. Februar
+1. Dezember900
+900
+400900.000
+825.527
+275.176
+366.901
+366.9016,18
+6,07
+6,14
+6,20
+6,11
+5,9102/2020
+12/2020KWK-Anlagen2. Juni
+7575.000
+75.0006,23
+6,7506/2020
+12/2020innovative KWK-Systeme2. Juni
+2529.486
+28.24910,63
+10,8006/2020
+12/2020Biomasse1. April
+1. November100
+100167.770
+167.77013,99
+14,8504/2020
+11/2020Technologieübergreifend Wind Onshore und Solar1. April
+1. November200
+200200.000
+200.0005,33
+5,3304/2020
+11/2020Innovationsausschreibung1. September400650.0002,65/4,50**09/2020Offshore-----
+1 das tatsächliche Ausschreibungsvolumen ist auf der Seite des Gebotstermins angegebenTechnologieGebotstermine 2019Volumen1 (MW)Zuschlagswert* (ct/kWh)ListeSolar1. Februar
+3. Juni
+2. Dezember175
+500
+5004,80
+6,59
+5,47
+4,90
+5,6802/2019
+03/2019
+06/2019
+10/2019
+12/2019Onshore1. Februar
+2. September
+2. Dezember700
+650
+675
+5006,11
+6,13
+6,1102/2019
+05/2019
+08/2019
+09/2019
+12/2019KWK-Anlagen3. Juni
+2. Dezember75
+753,95
+5,1206/2019
+12/2019innovative KWK-Systeme3. Juni
+2. Dezember25
+2511,17
+10,2506/2019
+12/2019Biomasse1. April
+4. November75
+7512,34
+12,4704/2019
+11/2019Technologieübergreifend
+Onshore und Solar1. April
+4. November200
+2005,66
+5,4004/2019
+11/2019Offshorekeine Ausschreibung---
+* durchschnittlicher, mengengewichteter WertTechnologieGebotstermine 2018Zuschlagswert* (ct/kWh)ZuschlagslistenSolar1. Februar
+1. Oktober4,33
+4,59
+4,6902/2018
+06/2018
+10/2018Onshore1. Februar
+1. Oktober4,73
+5,73
+6,16
+6,2602/2018
+05/2018
+08/2018
+10/2018KWK1. Juni
+3. Dezember4,31
+4,7706/2018
+12/2018innovative KWK-Systeme1. Juni
+3. Dezember10,27
+11,3106/2018
+12/2018Biomasse1. September14,7309/2018Offshore1. April4,6604/2018Technologie-
+übergreifend Onshore und Solar1. April
+1. November4,67
+5,2704/2018
+11/2018
+Inhalte teilen
+per E-Mail schicken
+×</t>
+        </is>
+      </c>
       <c r="E46" s="1" t="inlineStr">
         <is>
-          <t>There is a change</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
-        </is>
-      </c>
-      <c r="G46" s="1" t="inlineStr">
-        <is>
-          <t>- Gasversorgung
-- EnergieGasversorgungTelekom­munikationDigitalisierungPostEisenbahnen
-+ EnergieTelekom­munikationDigitalisierungPostEisenbahnenBeschlusskammern</t>
-        </is>
-      </c>
+          <t>2024-09-11 09:08:21</t>
+        </is>
+      </c>
+      <c r="G46" s="1" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
@@ -18865,7 +18551,7 @@
       </c>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G47" s="1" t="n"/>
@@ -19420,7 +19106,7 @@
       </c>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G48" s="1" t="n"/>
@@ -19901,7 +19587,7 @@
       </c>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G49" s="1" t="n"/>
@@ -20398,7 +20084,7 @@
       </c>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G50" s="1" t="n"/>
@@ -20881,7 +20567,7 @@
       </c>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G51" s="1" t="n"/>
@@ -21400,7 +21086,7 @@
       </c>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G52" s="1" t="n"/>
@@ -21989,7 +21675,7 @@
       </c>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G53" s="1" t="n"/>
@@ -22393,6 +22079,7 @@
 BK6-23-333
 Vorschlag der Übertragungsnetzbetreiber (ÜNB) aus Deutschland und Tschechien gem. Art. 33 Abs. 1, Art. 58 Abs. 3 der Verordnung (EU) 2017/2195 (EB-Verordnung) für die Erstellung gemeinsamer harmonisierter Bestimmungen und Verfahren für den Austausch und die Beschaffung von Regelleistung für automatische Frequenzwiederherstellungsreserven an der Grenze zwischen Deutschland und Tschechien sowie Vorschlag der ÜNB aus Deutschland, Österreich und Tschechien gem. Art. 33 Abs. 6 EB-Verordnung für eine Methode der probabilistischen Bestimmung der Verfügbarkeit grenzüberschreitender Übertragungskapazität nach Schließung des zonenübergreifenden Intraday-Marktes
 Verfahrenseröffnung
+Abgeänderte Vorschläge
 ÜNB
 BK6-22-408
 Vorschlag aller Übertragungsnetzbetreiber der Kapazitätsberechnungsregion HANSA für eine Methode zur Berechnung der grenzüberschreitenden Übertragungskapazität innerhalb des für den Austausch von Regelarbeit oder die Durchführung des IN-Verfahrens relevanten Zeitbereichs gemäß Art. 37 Abs. 3 der Verordnung (EU) 2017/2195
@@ -22761,15 +22448,19 @@
       </c>
       <c r="E54" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
-        </is>
-      </c>
-      <c r="G54" s="1" t="n"/>
+          <t>2024-09-11 09:08:21</t>
+        </is>
+      </c>
+      <c r="G54" s="1" t="inlineStr">
+        <is>
+          <t>+ Abgeänderte Vorschläge</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
@@ -23269,7 +22960,7 @@
       </c>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G55" s="1" t="n"/>
@@ -23820,7 +23511,7 @@
       </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G56" s="1" t="n"/>
@@ -24305,7 +23996,7 @@
       </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G57" s="1" t="n"/>
@@ -24812,7 +24503,7 @@
       </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G58" s="1" t="n"/>
@@ -25301,7 +24992,7 @@
       </c>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G59" s="1" t="n"/>
@@ -25806,7 +25497,7 @@
       </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G60" s="1" t="n"/>
@@ -26303,7 +25994,7 @@
       </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G61" s="1" t="n"/>
@@ -26788,7 +26479,7 @@
       </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G62" s="1" t="n"/>
@@ -27062,6 +26753,7 @@
         <is>
           <t>Ak­tu­el­le Mit­tei­lun­gen der Be­schluss­kam­mer 6
 veröffentlicht am:
+Abgeänderter Vorschlag der Übertragungsnetzbetreiber (ÜNB) aus Deutschland und Tschechien gem. Art. 33 Abs. 1, Art. 58 Abs. 3 der Verordnung (EU) 2017/2195 (EB-Verordnung) für die Erstellung gemeinsamer harmonisierter Bestimmungen und Verfahren für den Austausch und die Beschaffung von Regelleistung für automatische Frequenzwiederherstellungsreserven an der Grenze zwischen Deutschland und Tschechien sowie Abgeänderter Vorschlag der ÜNB aus Deutschland, Österreich und Tschechien gem. Art. 33 Abs. 6 EB-Verordnung für eine Methode der probabilistischen Bestimmung der Verfügbarkeit grenzüberschreitender Übertragungskapazität nach Schließung des zonenübergreifenden Intraday-Marktes (Az. BK6-23-333)	11.09.2024
 Mitteilung Nr. 12 zum Bilanzkreisvertrag	02.08.2024
 Mitteilung Nr. 44 zu den Datenformaten zur Abwicklung der Marktkommunikation	01.08.2024
 Eröffnung eines Festlegungsverfahrens zur Anpassung der Marktkommunikation zur Realisierung der nach dem Messstellenbetriebsgesetz geforderten Übermittlung von Zählerstandsgängen (Datenübermittlung ZSG), Az. BK6-24-174	04.07.2024
@@ -27085,7 +26777,6 @@
 Mitteilung Nr. 39 zu den Datenformaten zur Abwicklung der Marktkommunikation	01.02.2024
 WindSeeG – Ausschreibungen nach § 16 WindSeeG für die nicht zentral voruntersuchten Flächen N-11.2 (Az. BK6-24-006) und N-12.3 (Az. BK6-24-007)	29.01.2024
 Mitteilung Nr. 38 zu den Datenformaten zur Abwicklung der Marktkommunikation	25.01.2024
-Vorschlag der Übertragungsnetzbetreiber (ÜNB) aus Deutschland und Tschechien gem. Art. 33 Abs. 1, Art. 58 Abs. 3 der Verordnung (EU) 2017/2195 (EB-Verordnung) für die Erstellung gemeinsamer harmonisierter Bestimmungen und Verfahren für den Austausch und die Beschaffung von Regelleistung für automatische Frequenzwiederherstellungsreserven an der Grenze zwischen Deutschland und Tschechien sowie Vorschlag der ÜNB aus Deutschland, Österreich und Tschechien gem. Art. 33 Abs. 6 EB-Verordnung für eine Methode der probabilistischen Bestimmung der Verfügbarkeit grenzüberschreitender Übertragungskapazität nach Schließung des zonenübergreifenden Intraday-Marktes (Az. BK6-23-333)	16.01.2024
 Mitteilung Nr. 3 zur Festlegung zur künftigen Absicherung der elektronischen Marktkommunikation Strom (Az. BK6-21-282)	15.01.2024
 Anhörung - Teilwiderruf des Beschlusses BK6-23-102 sowie Korrektur des Datums des Inkrafttretens	21.12.2023
 Abgeänderter Vorschlag aller Übertragungsnetzbetreiber der Kapazitätsberechnungsregion HANSA für eine Methode zur Berechnung der grenzüberschreitenden Übertragungskapazität innerhalb des für den Austausch von Regelarbeit oder die Durchführung des IN-Verfahrens relevanten Zeitbereichs gemäß Art. 37 Abs. 3 der Verordnung (EU) 2017/2195 (BK6-22-408)	14.12.2023
@@ -27318,15 +27009,20 @@
       </c>
       <c r="E63" s="1" t="inlineStr">
         <is>
-          <t>No change</t>
+          <t>There is a change</t>
         </is>
       </c>
       <c r="F63" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
-        </is>
-      </c>
-      <c r="G63" s="1" t="n"/>
+          <t>2024-09-11 09:08:21</t>
+        </is>
+      </c>
+      <c r="G63" s="1" t="inlineStr">
+        <is>
+          <t>+ Abgeänderter Vorschlag der Übertragungsnetzbetreiber (ÜNB) aus Deutschland und Tschechien gem. Art. 33 Abs. 1, Art. 58 Abs. 3 der Verordnung (EU) 2017/2195 (EB-Verordnung) für die Erstellung gemeinsamer harmonisierter Bestimmungen und Verfahren für den Austausch und die Beschaffung von Regelleistung für automatische Frequenzwiederherstellungsreserven an der Grenze zwischen Deutschland und Tschechien sowie Abgeänderter Vorschlag der ÜNB aus Deutschland, Österreich und Tschechien gem. Art. 33 Abs. 6 EB-Verordnung für eine Methode der probabilistischen Bestimmung der Verfügbarkeit grenzüberschreitender Übertragungskapazität nach Schließung des zonenübergreifenden Intraday-Marktes (Az. BK6-23-333)	11.09.2024
+- Vorschlag der Übertragungsnetzbetreiber (ÜNB) aus Deutschland und Tschechien gem. Art. 33 Abs. 1, Art. 58 Abs. 3 der Verordnung (EU) 2017/2195 (EB-Verordnung) für die Erstellung gemeinsamer harmonisierter Bestimmungen und Verfahren für den Austausch und die Beschaffung von Regelleistung für automatische Frequenzwiederherstellungsreserven an der Grenze zwischen Deutschland und Tschechien sowie Vorschlag der ÜNB aus Deutschland, Österreich und Tschechien gem. Art. 33 Abs. 6 EB-Verordnung für eine Methode der probabilistischen Bestimmung der Verfügbarkeit grenzüberschreitender Übertragungskapazität nach Schließung des zonenübergreifenden Intraday-Marktes (Az. BK6-23-333)	16.01.2024</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
@@ -27854,7 +27550,7 @@
       </c>
       <c r="F64" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G64" s="1" t="n"/>
@@ -27867,289 +27563,6 @@
         </is>
       </c>
       <c r="C65" s="1" t="inlineStr">
-        <is>
-          <t>Ak­tu­el­les
-Aktuelle Mitteilungen der Beschlusskammer 8 der letzten 6 Monate und zu laufenden Festlegungs- und Missbrauchsverfahren
-Fristenkalender für Netzbetreiber - Netzentgelte Elektrizität 2024 (pdf / 198 KB)
-30.08.2024	Festlegung zur Verteilung von Mehrkosten in Netzen aus der Integration von Anlagen zur Erzeugung von Strom aus erneuerbaren Energien (BK8-24-001-A) sowie Geltung verfahrensrechtlicher Bestimmungen (BK8-24-002-A, BK8-24-003-A, BK8-24-004-A, BK8-24-005-A)
-27.08.2024	Konsultation zur Festlegung der Kosten aus der marktgestützten Beschaffung der nicht frequenzgebundenen Systemdienstleistung „Dienstleistungen zur Spannungsregelung“ (Blindleistung) als volatile Kostenanteile nach § 11 Abs. 5 ARegV [BK8-24-006-A bis BK8-24-010-A]
-19.08.2024	Einleitung eines Verfahrens zur Geltung verfahrensrechtlicher Bestimmungen der Festlegung zur Verteilung von Mehrkosten in Netzen aus der Integration von Anlagen zur Erzeugung von Strom aus erneuerbaren Energien [BK8-24-002-A bis BK8-24-005-A]
-12.07.2024	Entscheidung im Rahmen der besonderen Missbrauchsaufsicht nach § 31 EnWG der eins energie in Sachsen GmbH &amp; Co. KG gegen die inetz GmbH unter dem Aktenzeichen BK8-22-01893-05#1 ergangen.
-08.07.2024	Mitteilung Nr. 1 zur Festlegung zur Bestimmung des angemessenen finanziellen Ausgleichs für Anpassungen der Wirkleistungserzeugung oder des Wirkleistungsbezugs [BK8-22-001-A]
-04.07.2024	Einleitung eines Aufsichtsverfahrens gemäß § 65 EnWG gegen die Reußenköge Netz &amp; Infrastruktur GmbH [BK8-24-13832-0601#1]
-01.07.2024	Festlegung zur regulatorischen Behandlung der beim Anschlussnetzbetreiber nach MsbG entstehenden Kosten (FL MsbG) [BK8-23-007-A]
-24.06.2024	Hinweispapier zum Kapitalkostenaufschlag 2025 nach § 10a ARegV
-05.06.2024	Redispatch-Vergütung - Festlegung zur Bestimmung des angemessenen finanziellen Ausgleichs für Anpassungen der Wirkleistungserzeugung oder des Wirkleistungsbezugs [BK8-22-001-A]
-05.06.2024
-Feststellung einer wirksamen Verfahrensregulierung der Aufwendungen und Erlöse bzw. Erträge aus dem finanziellen Ausgleich nach § 13a Abs. 2 S. 1 EnWG und aus den Maßnahmen zur Bewirtschaftung von Engpässen in den deutschen Regelzonen und auf den grenzüberschreitenden Verbindungsleitungen und
-Widerruf der Festlegungen der wirksamen Verfahrensregulierung betreffend die Aufwendungen und Erlöse bzw. Erträge aus den Maßnahmen zur Bewirtschaftung von Engpässen in den deutschen Regelzonen und auf den grenzüberschreitenden Verbindungsleitungen (BK6-08-260/262/264/269, in der Fassung BK6-15-118) [BK8-23-013-A]
-05.06.2024	Erhebungsbogen Kapitalkostenaufschlag VNB 2025 - Aufgrund von Anpassungen der Zinssätze musste der Erhebungsbogen aktualisiert werden. Dieser wurde nunmehr veröffentlicht und ist fortan zu verwenden
-28.05.2024	Festlegung einer wirksamen Verfahrensregulierung der Kosten systemrelevanter Gaskraftwerke nach § 13f EnWG („Festlegung FSV systemrelevante Gaskraftwerke“) [BK8-23-014-A]
-22.05.2024	Einwahldaten für das öffentliche Webinar (WebEx) im Rahmen der Konsultation zur Festlegung zur Verteilung von Mehrkosten der Netze aus der Integration von EE-Anlagen [BK8-24-001-A]
-15.05.2024	Festlegung zur Feststellung einer wirksamen Verfahrensregulierung, Festlegung eines verbindlichen Systems für die Nutzung der Flexibilitäten im Bahnstromnetz (Bahnflex) [BK8-23-012-A]
-15.05.2024	Konsultation zur Festlegung zur Verteilung von Mehrkosten der Netze aus der Integration von Anlagen zur Erzeugung von Strom aus erneuerbaren Energien [BK8-24-001-A]
-02.05.2024	Veröffentlichung des finalen Gutachtens zum Effizienzvergleich für Verteilernetzbetreiber Strom 4. Regulierungsperiode
-02.05.2024	Konsultation der Festlegung zur regulatorischen Behandlung der beim Anschlussnetzbetreiber nach MsbG entstehenden Kosten [BK8-23/007-A]
-24.04.2024	Hinweis zur Rückerstattung des Restwerts investiver Vorteile (§ 13c Abs. 2 Satz 2 und Satz 3, Abs. 4 Satz 2 und Satz 3 EnWG)
-Die Bildung der Netzreserve und der Einsatz von Energieerzeugungsanlagen erfolgt gemäß § 13d Abs. 3 Satz 1 EnWG auf Grundlage von Verträgen, die in Abstimmung mit der Bundesnetzagentur nach Maßgabe der Bestimmungen der Netzreserveverordnung zwischen dem Anlagenbetreiber und dem Übertragungsnetzbetreiber abzuschließen sind. In diesen Verträgen ist gemäß § 6 Abs. 2 Satz 1 NetzResV insbesondere der Umfang der Kostenerstattung für die Nutzung der Anlage in der Netzreserve festzulegen. Bestandteil der Vergütungsregelungen sind auch etwaige durch den Anlagenbetreiber am Ende der Vorhaltung in der Netzreserve gegenüber dem Übertragungsnetzbetreiber zu erstattende investive Vorteile. Der Hinweis dient dazu die praktische Anwendung und Auslegung zur Rückerstattung des Restwerts investiver Vorteile auszugestalten.
-05.04.2024	Konsultation der Festlegung zur Feststellung einer wirksamen Verfahrensregulierung der Kosten systemrelevanter Gaskraftwerke nach § 13f EnWG („Festlegung FSV systemrelevante Gaskraftwerke“) [BK8-23-014-A]
-03.04.2024	Festlegung zur Feststellung einer wirksamen Verfahrensregulierung der Kosten aus Europäischen Initiativen („Festlegung FSV KEI“) [BK8-23/008-A]
-15.03.2024	Erhebungsbogen Qualitätselement 2025
-13.03.2024	Festlegung zur Feststellung einer wirksamen Verfahrensregulierung eines verbindlichen Systems für die Beschaffung von Leistungen nach § 13 Abs. 6a i.V.m. 118 Abs. 22 EnWG n.F. (Nutzen statt Abregeln - Power to Heat) [BK8-23/011-A]
-13.03.2024	Festlegung zur Feststellung einer wirksamen Verfahrensregulierung der Kosten aus der Vorhaltung von Schwarzstartfähigkeit aufgrund einer marktgestützten Beschaffung
-(„Festlegung Refinanzierung Schwarzstart aufgrund einer marktgestützten Beschaffung“) [BK8-23/009-A]
-12.03.2024	Konsultation einer Festlegung zur wirksamen Verfahrensregulierung der Aufwendungen und Erlöse bzw. Erträge aus dem finanziellen Ausgleich nach § 13a Abs. 2 S. 1 EnWG und aus den Maßnahmen zur Bewirtschaftung von Engpässen in den deutschen Regelzonen und auf den grenzüberschreitenden Verbindungsleitungen und zum Widerruf der Festlegungen der wirksamen Verfahrensregulierung betreffend die Aufwendungen und Erlöse bzw. Erträge aus den Maßnahmen zur Bewirtschaftung von Engpässen in den deutschen Regelzonen und auf den grenzüberschreitenden Verbindungsleitungen (BK6-08-260/262/264/269, in der Fassung BK6-15-118) [BK8-23/013-A]
-11.03.2024	Veröffentlichung eines neuen Rundschreibens zur Information der Marktteilnehmer
-07.03.2024	Veröffentlichung und Konsultation des Gutachtenentwurfs zum Effizienzvergleich für Verteilernetzbetreiber Strom 4. Regulierungsperiode; Frist 28.03.2024
-11.12.2023	Einleitung eines Verfahren zur Feststellung einer wirksamen Verfahrensregulierung der Kosten und Erlöse aus dem finanziellen Ausgleich nach § 13a Abs. 2 Satz 1 EnWG und aus den Maßnahmen zur Bewirtschaftung von Engpässen in den deutschen Regelzonen und auf den grenzüberschreitenden Verbindungsleitungen (ReDEM)
-[BK8-23/013-A]
-11.12.2023	Einleitung eines Verfahrens zur Feststellung einer wirksamen Verfahrensregulierung, Festlegung eines verbindlichen Systems für die Nutzung der Flexibilitäten im Bahnstromnetz (Bahnflex)
-[BK8-23/012-A]
-11.12.2023	Einleitung eines Verfahrens zur Feststellung einer wirksamen Verfahrensregulierung, Festlegung eines verbindlichen Systems für die Beschaffung von Leistungen nach § 13 Abs. 6a i.V.m. 118 Abs. 22 EnWG n.F. (Nutzen statt Abregeln - Power to Heat)
-[BK8-23/011-A]
-11.12.2023	Einleitung eines Verfahrens zur Feststellung einer wirksamen Verfahrensregulierung, Festlegung eines verbindlichen Systems für die Durchführung des Pilotprojektes kurative Pilotierung eines Redispatches für die Übertragungsnetzregion Emsland (KuPilot)
-[BK8-23/010-A]
-01.12.2023	Eckpunkte einer Festlegung zur sachgerechten Verteilung von Mehrkosten aus der Integration von Anlagen zur Erzeugung von Strom aus erneuerbaren Energien
-29.11.2023	Festlegung über die nähere Ausgestaltung und das Verfahren zur Bestimmung des Qualitätselementes hinsichtlich der Netzzuverlässigkeit für Elektrizitätsverteilernetze nach den §§ 19 und 20 ARegV für die vierte Regulierungsperiode (Jahre 2024 bis einschließlich 2028 – Methodikbeschluss)
-[BK8-23/006-A]
-11.10.2023	Konsultation zur Festlegung der Bestimmung des angemessenen finanziellen Ausgleichs für Anpassungen der Wirkleistungserzeugung oder des Wirkleistungsbezuges nach § 13a Abs. 2 EnWG
-[BK8-22/001-A]
-04.10.2023	Festlegung der Feststellung einer wirksamen Verfahrensregulierung für die marktliche Beschaffung eines Systemdienstleistungsprodukts im Echtzeitbereich aus abschaltbaren Lasten nach § 11 Abs. 2 Satz 4 ARegV i.V.m. § 13 Abs. 6 EnWG („Festlegung FSV SEAL“)
-[BK8-22/002A]
-27.09.2023	Festlegung FSV Verlustenergie der Übertragungsnetzbetreiber
-[BK8-23/005-A]
-28.08.2023	Festlegung einer wirksamen Verfahrensregulierung der Kosten und Erlöse bzw. Erträge aus der Beschaffung und Vergütung von Regelleistung
-[BK8-23/004-A]
-23.08.2023	Feststellung einer wirksamen Verfahrensregulierung der Kosten aus der Kontrahierung von ausländischen Anlagen für die Netzreserve („Festlegung FSV IBV“)
-[BK8-23/003-A]
-31.07.2023	Festlegung einer wirksamen Verfahrensregulierung der Kosten aus der Vorhaltung von Schwarzstartfähigkeit aufgrund der durch die vertraglichen Modalitäten bedingten Umstellung gemäß Beschluss BK6-18-249 vom 20.05.2020 („Festlegung FSV Schwarzstart“)
-[BK8-22/009-A]
-02.05.2023	Festlegung volatiler Kosten nach § 11 Abs. 5 ARegV zur Berücksichtigung von Verlustenergiekosten bei Verteilernetzbetreibern in der vierten Regulierungsperiode
-[BK8-22/003-A bis BK8-22/007-A]
-Stand:  30.08.2024
-Navigation und Service
-Springe direkt zu:
-Inhalt
-Hauptmenu
-Suche
-Service
-KONTAKT
-ENGLISH
-LEICHTE SPRACHE
-GEBÄRDENSPRACHE VIDEOS
-RSS
-Beschlusskammern Beschlussdatenbank Termine Kontakt Einheitliche Informationsstelle (EIS)
-Sie sind hier:
-Homepage
-Beschlusskammern
-UntermenuOeffnen
-Beschlusskammer 8
-Aktuelles
-Seite drucken Seite teilen Kurzlink
-Folgen Sie uns
-© BUNDESNETZAGENTUR - 2024
-ServiceMenu
-IMPRESSUM
-BARRIEREFREIHEIT
-DATENSCHUTZ
-INHALTSVERZEICHNIS
-Große Beschlusskammer Energie
-Termine
-Verfahrensübersicht
-Rahmenfestlegungen (Ebene 1)
-Methodenfestlegungen (Ebene 2)
-KANU 2.0
-Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor
-Perioden- oder unternehmensbezogene Festlegungen (Ebene 3)
-Zeitplanung
-Eckpunktepapier zu Nachfolgeregelungen für ARegV, StromNEV und GasNEV
-Transparenz
-Über die Große Beschlusskammer Energie
-Beschlusskammer 1
-Aktuelle Verfahren
-Abgeschlossene Verfahren
-Einheitliche Informationsstelle (EIS)
-Beschlusskammer 2
-Laufende Verfahren
-EIS Regulierungsverfügungen
-EIS Entgeltregulierung
-EIS Zugangsregulierung
-EIS Nationale Konsultationen
-Beschlusskammer 3
-Beschlusskammer 4
-EEG-Umlage
-Investitionsmaßnahmen
-Wegweiser Antrag
-Berechnung der Kapital- und Betriebskosten
-Übersicht der Verfahren gemäß § 23 ARegV
-Sonderformen Netznutzung
-Ind. Netzentgelte Strom
-Freistellung von den Netzentgelten §118 Abs. 6 EnWG
-SINTEG
-AbLaV
-EK-Zins (§7 Abs.6 StromNEV bzw. GasNEV)
-Produktivitätsfaktor (§ 9 Abs. 3 ARegV)
-Strompreisbremse nach dem Strompreisbremsegesetz
-Funktionsweise der Strompreisbremse
-Einmalige Registrierung für die Abgabe von Preissicherungsmeldungen
-Start des Wirkbetriebs der IT-Schnittstelle am 30.12.2022
-Erhebungsbogen nach § 32 StromPBG
-Fristenregelungen im Strombreisbremsegesetz (StromPBG)
-Prüfhinweis zur Testierung nach § 34 Satz 2 StromPBG
-Abgeschlossene Verfahren
-Weitere Themen
-Anspruch nach § 39 GasNZV
-Leitungswettbewerbs-verfahren
-Missbrauchsverfahren gemäß § 31 EnWG
-Grenzüberschreitende Kostenaufteilung
-Anreize gemäß Artikel 17 der Verordnung (EU) 22/869
-Genehmigungsverfahren - Übersicht weitere Verfahren
-Beschlusskammer 5
-Entgeltregulierung
-Missbrauchsaufsicht
-Netzzugangsregulierung
-BK5 Verfahren
-Beschlusskammer 6
-Verfahren 2023
-Verfahren 2022
-Verfahren 2021
-Verfahren 2020
-Verfahren 2019
-Verfahren 2018
-Verfahren 2017
-Verfahren 2016
-Verfahren 2015
-Verfahren 2014
-Verfahren 2013
-Verfahren 2012
-Verfahren 2011
-Verfahren 2010
-Verfahren 2009
-Verfahren 2008
-Verfahren 2007
-Verfahren 2006
-Netzanschluss
-EU-Verordnungen zu Netzanschlussbedingungen
-BKZ-Positionspapier
-Erdungsanlagen-Positionspapier
-Netzebenenwahl
-BK6-23-037
-Sonstiges
-Netzzugang / Messwesen
-Lieferantenwechsel (GPKE)
-Wechselprozesse für Erzeuger (MPES)
-Bilanzkreisabrechnung (MaBiS)
-Wechselprozesse im Messwesen (WiM)
-Marktkommunikation 2020
-Marktkommunikation 2022
-Universalbestellprozess
-Gemeinsame Mitteilungen zu Datenformaten
-Lieferantenwechsel 24h
-§14a EnWG Steuerbare Verbrauchseinrichtungen
-Positionspapiere zum Netzzugang
-Lieferantenrahmenvertrag / Netznutzungsvertrag
-Messstellenbetreiber-Rahmenvertag
-Bilanzkreisvertrag
-CACM-Verordnung
-FCA-Verordnung
-Offshore-Windenergie / EEG
-Systemdienstleistungen / -sicherheit
-Regelenergie/Ausgleichsenergie
-Übertragungsnetzbetrieb
-Notzustand/Netzwiederaufbau
-Redispatch/Einspeisemanagement
-Verlustenergie
-Nicht frequenzgebundene Systemdienstleistungen
-Energieinformationsnetz
-Entflechtung/Zertifizierung
-Hinweispapier Antragstellung
-Internationaler Stromhandel
-Sonstige Veröffentlichungen
-Beschlusskammer 7
-Verfahrenshinweise
-Bilanzierung (GaBi)
-Freistellung von der Regulierung
-GPKE und GeLi Gas
-Kapazitätsmanagement
-Rechtsgrundlagen
-Festlegungen und Genehmigungen
-Konvertierungssystem
-Messwesen Energie
-Zertifizierung / Entflechtung
-Zugang zu LNG-Anlagen
-Festlegungsverfahren gem. § 26 Abs. 1 EnWG
-Gasspeicher
-Zertifizierung
-Stilllegung
-Formulare / Erhebungsbögen
-Informationen / Rundschreiben
-Rundschreiben
-Hinweise
-Leitfäden
-Zuständigkeiten / Organleihe
-Erlösobergrenzen
-Übergangssockel
-Unternehmensbezogene FL
-Kostenprüfung
-Regulierungskonto
-Effizienzvergleich
-Kapitalkostenabgleich
-Netzübergänge
-Qualitätselement
-Forschung und Entwicklung
-Besonderheiten ÜNB
-Netzentgelte
-Entgeltgenehmigungen nach  § 23a EnWG
-Geschlossene Verteilernetze
-§ 19 StromNEV
-Vermiedene Netzentgelte
-§ 14a EnWG - Steuerbare Verbrauchseinrichtungen
-Festlegung zur Verteilung von Mehrkosten der Netze aus der Integration von EE-Anlagen
-Kraftwerksthemen
-Karte der nationalen Reserveanlagen
-Inländische Netzreserve
-Ausländische Netzreserve
-Sicherheitsbereitschaft
-Redispatchkosten
-Missbrauchsverfahren
-Messstellenbetrieb
-Jahres-/ Tätigkeitsabschlüsse § 6b EnWG
-Über die BK8
-Beschlusskammer 9
-Hinweise zur Schwärzung
-Änderung des Kommunikationsbevollmächtigten
-Übersicht Strom- und Gasnetzbetreiber
-An- und Abmeldung als Lieferant
-Gasnetzbetreiber
-Erlösobergrenze
-Netzentgeltbildung
-Umlagen
-Erhebungsbögen / Leitfäden
-Festlegungen
-Wasserstoffnetzbetreiber
-LNG-Anlagenbetreiber
-2024
-2023
-2022
-Beschlusskammer 10
-Verfahren der BK10
-Allgemeinverfügungen
-Eisenbahnen
-Beschlusskammer 11
-Laufende Verfahren
-Weitere Informationen
-Grundsätze Mitverlegung
-Mitnutzungsverträge und Vereinbarungen
-Spruchpraxis
-Navigation
-BeschlusskammernBeschlussdatenbankTermineKontaktEinheitliche Informationsstelle (EIS)
-AktuellesFormulare / ErhebungsbögenTransparenzInformationen / RundschreibenErlösobergrenzenNetzentgelteKraftwerksthemenRedispatchkostenMissbrauchsverfahrenMessstellenbetriebJahres-/ Tätigkeitsabschlüsse § 6b EnWGÜber die BK8
-Inhalte teilen
-per E-Mail schicken
-×</t>
-        </is>
-      </c>
-      <c r="D65" s="1" t="inlineStr">
         <is>
           <t>Ak­tu­el­les
 Aktuelle Mitteilungen der Beschlusskammer 8 der letzten 6 Monate und zu laufenden Festlegungs- und Missbrauchsverfahren
@@ -28436,6 +27849,295 @@
 ×</t>
         </is>
       </c>
+      <c r="D65" s="1" t="inlineStr">
+        <is>
+          <t>Ak­tu­el­les
+Aktuelle Mitteilungen der Beschlusskammer 8 der letzten 6 Monate und zu laufenden Festlegungs- und Missbrauchsverfahren
+Fristenkalender für Netzbetreiber - Netzentgelte Elektrizität 2024 (pdf / 198 KB)
+09.09.2024	Erhebungsbogen Anpassung EOG VNB – 2025
+09.09.2024	Erhebungsbogen Verprobung VNB – 2025
+09.09.2024	Einleitung eines Verfahrens zur Teilaufhebung von Vorgaben von zusätzlichen Bestimmungen für die Erstellung und Prüfung von Jahresabschlüssen und Tätigkeitsabschlüssen gegenüber vertikal integrierten Energieversorgungsunternehmen und rechtlich selbstständigen Netzbetreibern [BK8-24-011-A, BK8-24-012-A, BK8-24-0013-A, BK8-24-014, BK8-24-015-A]
+04.09.2024
+Hinweise für VNB zur Anpassung der EOG für das Kalenderjahr 2025
+Die Hinweise zur Anpassung der Erlösobergrenze (EOG) und zur Kalkulation der Netzentgelte geben die Rechtsauffassung der BK8 wieder und berücksichtigen das Netzentgeltmodernisierungsgesetz (NEMoG)
+30.08.2024	Festlegung zur Verteilung von Mehrkosten in Netzen aus der Integration von Anlagen zur Erzeugung von Strom aus erneuerbaren Energien [BK8-24-001-A] sowie Geltung verfahrensrechtlicher Bestimmungen [BK8-24-002-A, BK8-24-003-A, BK8-24-004-A, BK8-24-005-A]
+27.08.2024	Konsultation zur Festlegung der Kosten aus der marktgestützten Beschaffung der nicht frequenzgebundenen Systemdienstleistung „Dienstleistungen zur Spannungsregelung“ (Blindleistung) als volatile Kostenanteile nach § 11 Abs. 5 ARegV [BK8-24-006-A bis BK8-24-010-A]
+19.08.2024	Einleitung eines Verfahrens zur Geltung verfahrensrechtlicher Bestimmungen der Festlegung zur Verteilung von Mehrkosten in Netzen aus der Integration von Anlagen zur Erzeugung von Strom aus erneuerbaren Energien [BK8-24-002-A bis BK8-24-005-A]
+12.07.2024	Entscheidung im Rahmen der besonderen Missbrauchsaufsicht nach § 31 EnWG der eins energie in Sachsen GmbH &amp; Co. KG gegen die inetz GmbH unter dem Aktenzeichen BK8-22-01893-05#1 ergangen.
+08.07.2024	Mitteilung Nr. 1 zur Festlegung zur Bestimmung des angemessenen finanziellen Ausgleichs für Anpassungen der Wirkleistungserzeugung oder des Wirkleistungsbezugs [BK8-22-001-A]
+04.07.2024	Einleitung eines Aufsichtsverfahrens gemäß § 65 EnWG gegen die Reußenköge Netz &amp; Infrastruktur GmbH [BK8-24-13832-0601#1]
+01.07.2024	Festlegung zur regulatorischen Behandlung der beim Anschlussnetzbetreiber nach MsbG entstehenden Kosten (FL MsbG) [BK8-23-007-A]
+24.06.2024	Hinweispapier zum Kapitalkostenaufschlag 2025 nach § 10a ARegV
+05.06.2024	Redispatch-Vergütung - Festlegung zur Bestimmung des angemessenen finanziellen Ausgleichs für Anpassungen der Wirkleistungserzeugung oder des Wirkleistungsbezugs [BK8-22-001-A]
+05.06.2024
+Feststellung einer wirksamen Verfahrensregulierung der Aufwendungen und Erlöse bzw. Erträge aus dem finanziellen Ausgleich nach § 13a Abs. 2 S. 1 EnWG und aus den Maßnahmen zur Bewirtschaftung von Engpässen in den deutschen Regelzonen und auf den grenzüberschreitenden Verbindungsleitungen und
+Widerruf der Festlegungen der wirksamen Verfahrensregulierung betreffend die Aufwendungen und Erlöse bzw. Erträge aus den Maßnahmen zur Bewirtschaftung von Engpässen in den deutschen Regelzonen und auf den grenzüberschreitenden Verbindungsleitungen (BK6-08-260/262/264/269, in der Fassung BK6-15-118) [BK8-23-013-A]
+05.06.2024	Erhebungsbogen Kapitalkostenaufschlag VNB 2025 - Aufgrund von Anpassungen der Zinssätze musste der Erhebungsbogen aktualisiert werden. Dieser wurde nunmehr veröffentlicht und ist fortan zu verwenden
+28.05.2024	Festlegung einer wirksamen Verfahrensregulierung der Kosten systemrelevanter Gaskraftwerke nach § 13f EnWG („Festlegung FSV systemrelevante Gaskraftwerke“) [BK8-23-014-A]
+22.05.2024	Einwahldaten für das öffentliche Webinar (WebEx) im Rahmen der Konsultation zur Festlegung zur Verteilung von Mehrkosten der Netze aus der Integration von EE-Anlagen [BK8-24-001-A]
+15.05.2024	Festlegung zur Feststellung einer wirksamen Verfahrensregulierung, Festlegung eines verbindlichen Systems für die Nutzung der Flexibilitäten im Bahnstromnetz (Bahnflex) [BK8-23-012-A]
+15.05.2024	Konsultation zur Festlegung zur Verteilung von Mehrkosten der Netze aus der Integration von Anlagen zur Erzeugung von Strom aus erneuerbaren Energien [BK8-24-001-A]
+02.05.2024	Veröffentlichung des finalen Gutachtens zum Effizienzvergleich für Verteilernetzbetreiber Strom 4. Regulierungsperiode
+02.05.2024	Konsultation der Festlegung zur regulatorischen Behandlung der beim Anschlussnetzbetreiber nach MsbG entstehenden Kosten [BK8-23/007-A]
+24.04.2024	Hinweis zur Rückerstattung des Restwerts investiver Vorteile (§ 13c Abs. 2 Satz 2 und Satz 3, Abs. 4 Satz 2 und Satz 3 EnWG)
+Die Bildung der Netzreserve und der Einsatz von Energieerzeugungsanlagen erfolgt gemäß § 13d Abs. 3 Satz 1 EnWG auf Grundlage von Verträgen, die in Abstimmung mit der Bundesnetzagentur nach Maßgabe der Bestimmungen der Netzreserveverordnung zwischen dem Anlagenbetreiber und dem Übertragungsnetzbetreiber abzuschließen sind. In diesen Verträgen ist gemäß § 6 Abs. 2 Satz 1 NetzResV insbesondere der Umfang der Kostenerstattung für die Nutzung der Anlage in der Netzreserve festzulegen. Bestandteil der Vergütungsregelungen sind auch etwaige durch den Anlagenbetreiber am Ende der Vorhaltung in der Netzreserve gegenüber dem Übertragungsnetzbetreiber zu erstattende investive Vorteile. Der Hinweis dient dazu die praktische Anwendung und Auslegung zur Rückerstattung des Restwerts investiver Vorteile auszugestalten.
+05.04.2024	Konsultation der Festlegung zur Feststellung einer wirksamen Verfahrensregulierung der Kosten systemrelevanter Gaskraftwerke nach § 13f EnWG („Festlegung FSV systemrelevante Gaskraftwerke“) [BK8-23-014-A]
+03.04.2024	Festlegung zur Feststellung einer wirksamen Verfahrensregulierung der Kosten aus Europäischen Initiativen („Festlegung FSV KEI“) [BK8-23/008-A]
+15.03.2024	Erhebungsbogen Qualitätselement 2025
+13.03.2024	Festlegung zur Feststellung einer wirksamen Verfahrensregulierung eines verbindlichen Systems für die Beschaffung von Leistungen nach § 13 Abs. 6a i.V.m. 118 Abs. 22 EnWG n.F. (Nutzen statt Abregeln - Power to Heat) [BK8-23/011-A]
+13.03.2024	Festlegung zur Feststellung einer wirksamen Verfahrensregulierung der Kosten aus der Vorhaltung von Schwarzstartfähigkeit aufgrund einer marktgestützten Beschaffung
+(„Festlegung Refinanzierung Schwarzstart aufgrund einer marktgestützten Beschaffung“) [BK8-23/009-A]
+12.03.2024	Konsultation einer Festlegung zur wirksamen Verfahrensregulierung der Aufwendungen und Erlöse bzw. Erträge aus dem finanziellen Ausgleich nach § 13a Abs. 2 S. 1 EnWG und aus den Maßnahmen zur Bewirtschaftung von Engpässen in den deutschen Regelzonen und auf den grenzüberschreitenden Verbindungsleitungen und zum Widerruf der Festlegungen der wirksamen Verfahrensregulierung betreffend die Aufwendungen und Erlöse bzw. Erträge aus den Maßnahmen zur Bewirtschaftung von Engpässen in den deutschen Regelzonen und auf den grenzüberschreitenden Verbindungsleitungen (BK6-08-260/262/264/269, in der Fassung BK6-15-118) [BK8-23/013-A]
+11.03.2024	Veröffentlichung eines neuen Rundschreibens zur Information der Marktteilnehmer
+07.03.2024	Veröffentlichung und Konsultation des Gutachtenentwurfs zum Effizienzvergleich für Verteilernetzbetreiber Strom 4. Regulierungsperiode; Frist 28.03.2024
+11.12.2023	Einleitung eines Verfahren zur Feststellung einer wirksamen Verfahrensregulierung der Kosten und Erlöse aus dem finanziellen Ausgleich nach § 13a Abs. 2 Satz 1 EnWG und aus den Maßnahmen zur Bewirtschaftung von Engpässen in den deutschen Regelzonen und auf den grenzüberschreitenden Verbindungsleitungen (ReDEM)
+[BK8-23/013-A]
+11.12.2023	Einleitung eines Verfahrens zur Feststellung einer wirksamen Verfahrensregulierung, Festlegung eines verbindlichen Systems für die Nutzung der Flexibilitäten im Bahnstromnetz (Bahnflex)
+[BK8-23/012-A]
+11.12.2023	Einleitung eines Verfahrens zur Feststellung einer wirksamen Verfahrensregulierung, Festlegung eines verbindlichen Systems für die Beschaffung von Leistungen nach § 13 Abs. 6a i.V.m. 118 Abs. 22 EnWG n.F. (Nutzen statt Abregeln - Power to Heat)
+[BK8-23/011-A]
+11.12.2023	Einleitung eines Verfahrens zur Feststellung einer wirksamen Verfahrensregulierung, Festlegung eines verbindlichen Systems für die Durchführung des Pilotprojektes kurative Pilotierung eines Redispatches für die Übertragungsnetzregion Emsland (KuPilot)
+[BK8-23/010-A]
+01.12.2023	Eckpunkte einer Festlegung zur sachgerechten Verteilung von Mehrkosten aus der Integration von Anlagen zur Erzeugung von Strom aus erneuerbaren Energien
+29.11.2023	Festlegung über die nähere Ausgestaltung und das Verfahren zur Bestimmung des Qualitätselementes hinsichtlich der Netzzuverlässigkeit für Elektrizitätsverteilernetze nach den §§ 19 und 20 ARegV für die vierte Regulierungsperiode (Jahre 2024 bis einschließlich 2028 – Methodikbeschluss)
+[BK8-23/006-A]
+11.10.2023	Konsultation zur Festlegung der Bestimmung des angemessenen finanziellen Ausgleichs für Anpassungen der Wirkleistungserzeugung oder des Wirkleistungsbezuges nach § 13a Abs. 2 EnWG
+[BK8-22/001-A]
+04.10.2023	Festlegung der Feststellung einer wirksamen Verfahrensregulierung für die marktliche Beschaffung eines Systemdienstleistungsprodukts im Echtzeitbereich aus abschaltbaren Lasten nach § 11 Abs. 2 Satz 4 ARegV i.V.m. § 13 Abs. 6 EnWG („Festlegung FSV SEAL“)
+[BK8-22/002A]
+27.09.2023	Festlegung FSV Verlustenergie der Übertragungsnetzbetreiber
+[BK8-23/005-A]
+28.08.2023	Festlegung einer wirksamen Verfahrensregulierung der Kosten und Erlöse bzw. Erträge aus der Beschaffung und Vergütung von Regelleistung
+[BK8-23/004-A]
+23.08.2023	Feststellung einer wirksamen Verfahrensregulierung der Kosten aus der Kontrahierung von ausländischen Anlagen für die Netzreserve („Festlegung FSV IBV“)
+[BK8-23/003-A]
+31.07.2023	Festlegung einer wirksamen Verfahrensregulierung der Kosten aus der Vorhaltung von Schwarzstartfähigkeit aufgrund der durch die vertraglichen Modalitäten bedingten Umstellung gemäß Beschluss BK6-18-249 vom 20.05.2020 („Festlegung FSV Schwarzstart“)
+[BK8-22/009-A]
+02.05.2023	Festlegung volatiler Kosten nach § 11 Abs. 5 ARegV zur Berücksichtigung von Verlustenergiekosten bei Verteilernetzbetreibern in der vierten Regulierungsperiode
+[BK8-22/003-A bis BK8-22/007-A]
+Stand:  09.09.2024
+Navigation und Service
+Springe direkt zu:
+Inhalt
+Hauptmenu
+Suche
+Service
+KONTAKT
+ENGLISH
+LEICHTE SPRACHE
+GEBÄRDENSPRACHE VIDEOS
+RSS
+Beschlusskammern Beschlussdatenbank Termine Kontakt Einheitliche Informationsstelle (EIS)
+Sie sind hier:
+Homepage
+Beschlusskammern
+UntermenuOeffnen
+Beschlusskammer 8
+Aktuelles
+Seite drucken Seite teilen Kurzlink
+Folgen Sie uns
+© BUNDESNETZAGENTUR - 2024
+ServiceMenu
+IMPRESSUM
+BARRIEREFREIHEIT
+DATENSCHUTZ
+INHALTSVERZEICHNIS
+Große Beschlusskammer Energie
+Termine
+Verfahrensübersicht
+Rahmenfestlegungen (Ebene 1)
+Methodenfestlegungen (Ebene 2)
+KANU 2.0
+Methodenfestlegung Genereller Sektoraler Produktivitätsfaktor
+Perioden- oder unternehmensbezogene Festlegungen (Ebene 3)
+Zeitplanung
+Eckpunktepapier zu Nachfolgeregelungen für ARegV, StromNEV und GasNEV
+Transparenz
+Über die Große Beschlusskammer Energie
+Beschlusskammer 1
+Aktuelle Verfahren
+Abgeschlossene Verfahren
+Einheitliche Informationsstelle (EIS)
+Beschlusskammer 2
+Laufende Verfahren
+EIS Regulierungsverfügungen
+EIS Entgeltregulierung
+EIS Zugangsregulierung
+EIS Nationale Konsultationen
+Beschlusskammer 3
+Beschlusskammer 4
+EEG-Umlage
+Investitionsmaßnahmen
+Wegweiser Antrag
+Berechnung der Kapital- und Betriebskosten
+Übersicht der Verfahren gemäß § 23 ARegV
+Sonderformen Netznutzung
+Ind. Netzentgelte Strom
+Freistellung von den Netzentgelten §118 Abs. 6 EnWG
+SINTEG
+AbLaV
+EK-Zins (§7 Abs.6 StromNEV bzw. GasNEV)
+Produktivitätsfaktor (§ 9 Abs. 3 ARegV)
+Strompreisbremse nach dem Strompreisbremsegesetz
+Funktionsweise der Strompreisbremse
+Einmalige Registrierung für die Abgabe von Preissicherungsmeldungen
+Start des Wirkbetriebs der IT-Schnittstelle am 30.12.2022
+Erhebungsbogen nach § 32 StromPBG
+Fristenregelungen im Strombreisbremsegesetz (StromPBG)
+Prüfhinweis zur Testierung nach § 34 Satz 2 StromPBG
+Abgeschlossene Verfahren
+Weitere Themen
+Anspruch nach § 39 GasNZV
+Leitungswettbewerbs-verfahren
+Missbrauchsverfahren gemäß § 31 EnWG
+Grenzüberschreitende Kostenaufteilung
+Anreize gemäß Artikel 17 der Verordnung (EU) 22/869
+Genehmigungsverfahren - Übersicht weitere Verfahren
+Beschlusskammer 5
+Entgeltregulierung
+Missbrauchsaufsicht
+Netzzugangsregulierung
+BK5 Verfahren
+Beschlusskammer 6
+Verfahren 2023
+Verfahren 2022
+Verfahren 2021
+Verfahren 2020
+Verfahren 2019
+Verfahren 2018
+Verfahren 2017
+Verfahren 2016
+Verfahren 2015
+Verfahren 2014
+Verfahren 2013
+Verfahren 2012
+Verfahren 2011
+Verfahren 2010
+Verfahren 2009
+Verfahren 2008
+Verfahren 2007
+Verfahren 2006
+Netzanschluss
+EU-Verordnungen zu Netzanschlussbedingungen
+BKZ-Positionspapier
+Erdungsanlagen-Positionspapier
+Netzebenenwahl
+BK6-23-037
+Sonstiges
+Netzzugang / Messwesen
+Lieferantenwechsel (GPKE)
+Wechselprozesse für Erzeuger (MPES)
+Bilanzkreisabrechnung (MaBiS)
+Wechselprozesse im Messwesen (WiM)
+Marktkommunikation 2020
+Marktkommunikation 2022
+Universalbestellprozess
+Gemeinsame Mitteilungen zu Datenformaten
+Lieferantenwechsel 24h
+§14a EnWG Steuerbare Verbrauchseinrichtungen
+Positionspapiere zum Netzzugang
+Lieferantenrahmenvertrag / Netznutzungsvertrag
+Messstellenbetreiber-Rahmenvertag
+Bilanzkreisvertrag
+CACM-Verordnung
+FCA-Verordnung
+Offshore-Windenergie / EEG
+Systemdienstleistungen / -sicherheit
+Regelenergie/Ausgleichsenergie
+Übertragungsnetzbetrieb
+Notzustand/Netzwiederaufbau
+Redispatch/Einspeisemanagement
+Verlustenergie
+Nicht frequenzgebundene Systemdienstleistungen
+Energieinformationsnetz
+Entflechtung/Zertifizierung
+Hinweispapier Antragstellung
+Internationaler Stromhandel
+Sonstige Veröffentlichungen
+Beschlusskammer 7
+Verfahrenshinweise
+Bilanzierung (GaBi)
+Freistellung von der Regulierung
+GPKE und GeLi Gas
+Kapazitätsmanagement
+Rechtsgrundlagen
+Festlegungen und Genehmigungen
+Konvertierungssystem
+Messwesen Energie
+Zertifizierung / Entflechtung
+Zugang zu LNG-Anlagen
+Festlegungsverfahren gem. § 26 Abs. 1 EnWG
+Gasspeicher
+Zertifizierung
+Stilllegung
+Formulare / Erhebungsbögen
+Informationen / Rundschreiben
+Rundschreiben
+Hinweise
+Leitfäden
+Zuständigkeiten / Organleihe
+Erlösobergrenzen
+Übergangssockel
+Unternehmensbezogene FL
+Kostenprüfung
+Regulierungskonto
+Effizienzvergleich
+Kapitalkostenabgleich
+Netzübergänge
+Qualitätselement
+Forschung und Entwicklung
+Besonderheiten ÜNB
+Netzentgelte
+Entgeltgenehmigungen nach  § 23a EnWG
+Geschlossene Verteilernetze
+§ 19 StromNEV
+Vermiedene Netzentgelte
+§ 14a EnWG - Steuerbare Verbrauchseinrichtungen
+Festlegung zur Verteilung von Mehrkosten der Netze aus der Integration von EE-Anlagen
+Kraftwerksthemen
+Karte der nationalen Reserveanlagen
+Inländische Netzreserve
+Ausländische Netzreserve
+Sicherheitsbereitschaft
+Redispatchkosten
+Missbrauchsverfahren
+Messstellenbetrieb
+Jahres-/ Tätigkeitsabschlüsse § 6b EnWG
+Über die BK8
+Beschlusskammer 9
+Hinweise zur Schwärzung
+Änderung des Kommunikationsbevollmächtigten
+Übersicht Strom- und Gasnetzbetreiber
+An- und Abmeldung als Lieferant
+Gasnetzbetreiber
+Erlösobergrenze
+Netzentgeltbildung
+Umlagen
+Erhebungsbögen / Leitfäden
+Festlegungen
+Wasserstoffnetzbetreiber
+LNG-Anlagenbetreiber
+2024
+2023
+2022
+Beschlusskammer 10
+Verfahren der BK10
+Allgemeinverfügungen
+Eisenbahnen
+Beschlusskammer 11
+Laufende Verfahren
+Weitere Informationen
+Grundsätze Mitverlegung
+Mitnutzungsverträge und Vereinbarungen
+Spruchpraxis
+Navigation
+BeschlusskammernBeschlussdatenbankTermineKontaktEinheitliche Informationsstelle (EIS)
+AktuellesFormulare / ErhebungsbögenTransparenzInformationen / RundschreibenErlösobergrenzenNetzentgelteKraftwerksthemenRedispatchkostenMissbrauchsverfahrenMessstellenbetriebJahres-/ Tätigkeitsabschlüsse § 6b EnWGÜber die BK8
+Inhalte teilen
+per E-Mail schicken
+×</t>
+        </is>
+      </c>
       <c r="E65" s="1" t="inlineStr">
         <is>
           <t>There is a change</t>
@@ -28443,19 +28145,13 @@
       </c>
       <c r="F65" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G65" s="1" t="inlineStr">
         <is>
-          <t>+ 09.09.2024	Einleitung eines Verfahrens zur Teilaufhebung von Vorgaben von zusätzlichen Bestimmungen für die Erstellung und Prüfung von Jahresabschlüssen und Tätigkeitsabschlüssen gegenüber vertikal integrierten Energieversorgungsunternehmen und rechtlich selbstständigen Netzbetreibern [BK8-24-011-A, BK8-24-012-A, BK8-24-0013-A, BK8-24-014, BK8-24-015-A]
-+ 04.09.2024
-+ Hinweise für VNB zur Anpassung der EOG für das Kalenderjahr 2025
-+ Die Hinweise zur Anpassung der Erlösobergrenze (EOG) und zur Kalkulation der Netzentgelte geben die Rechtsauffassung der BK8 wieder und berücksichtigen das Netzentgeltmodernisierungsgesetz (NEMoG)
-- 30.08.2024	Festlegung zur Verteilung von Mehrkosten in Netzen aus der Integration von Anlagen zur Erzeugung von Strom aus erneuerbaren Energien (BK8-24-001-A) sowie Geltung verfahrensrechtlicher Bestimmungen (BK8-24-002-A, BK8-24-003-A, BK8-24-004-A, BK8-24-005-A)
-+ 30.08.2024	Festlegung zur Verteilung von Mehrkosten in Netzen aus der Integration von Anlagen zur Erzeugung von Strom aus erneuerbaren Energien [BK8-24-001-A] sowie Geltung verfahrensrechtlicher Bestimmungen [BK8-24-002-A, BK8-24-003-A, BK8-24-004-A, BK8-24-005-A]
-- Stand:  30.08.2024
-+ Stand:  09.09.2024</t>
+          <t>+ 09.09.2024	Erhebungsbogen Anpassung EOG VNB – 2025
++ 09.09.2024	Erhebungsbogen Verprobung VNB – 2025</t>
         </is>
       </c>
     </row>
@@ -28973,7 +28669,7 @@
       </c>
       <c r="F66" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G66" s="1" t="n"/>
@@ -29462,7 +29158,7 @@
       </c>
       <c r="F67" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G67" s="1" t="n"/>
@@ -30001,7 +29697,7 @@
       </c>
       <c r="F68" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G68" s="1" t="n"/>
@@ -30524,7 +30220,7 @@
       </c>
       <c r="F69" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G69" s="1" t="n"/>
@@ -30541,136 +30237,6 @@
         </is>
       </c>
       <c r="C70" s="1" t="inlineStr">
-        <is>
-          <t>Der BVES
-AUFGABEN &amp;
-MISSION DES BVES
-Der Bundesverband Energiespeicher Systeme e.V. (BVES) vertritt die Interessen von Unternehmen und Institutionen mit dem gemeinsamen Ziel der Entwicklung, Vermarktung und dem Einsatz von Energiespeichersystemen in den Sektoren Strom, Wärme und Mobilität. Als technologieoffener Industrie-Verband ist der BVES Dialogpartner für Politik, Verwaltung, Wissenschaft und die breite Öffentlichkeit.
-Mehr erfahren
-Energiespeicher
-ENERGIESPEICHER
-UND IHRE MÄRKTE
-HAUSHALTE
-SELBSTVERSORGUNG UND KOSTENREDUKTION
-INDUSTRIE &amp; GEWERBE
-DEKARBONISIERUNG UND STEIGERUNG DER ENERGIEEFFIZIENZ
-SYSTEMINFRASTRUKTUR
-NETZSTABILITÄT UND VERSORGUNGSSICHERHEIT
-Aktuelles
-BVES
-BRANCHENNEWS
-Wir behalten den Markt, die Forschung und die Politik für Sie im Auge. Und fassen unsere Beobachtungen für Sie zusammen! In unseren Branchennews informieren wir Sie über die aktuellsten Entwicklungen.
-Alle Branchennews
-Verbandsnachricht
-AwSV-Hin­weis­pa­pier: Aus­wir­kun­gen auf Lithium-Ionen-Bat­te­rien
-BVES bei EEW-Stake­hol­der­kon­sul­ta­tion: Strom­ba­sierte Pro­zess­wär­me­er­zeu­gung mit­den­ken!
-KOMMENDE
-TERMINE
-17.09.2024
-BVES AG Finan­zen
-Online — Nur für BVES-Mit­glie­der
-18.09.2024
-BVES Brand­schutz­leit­fa­den Über­ar­bei­tung 2024
-BVES AG Ener­gie­recht
-19.09.2024
-BVES AG Was­ser­stoff &amp; PtX
-Event in Ber­lin — Nur für BVES-Mit­glie­der
-24.09.2024
-BVES Policy Recap
-Alle Termine
-Mitglieder
-WER IST SCHON DABEI?
-Mitglied werden
-WERDEN SIE TEIL DES NETZWERKS NUMMER 1
-Kontakt
-WIR SIND FÜR SIE DA
-Name
-E-Mail-Adresse
-Telefon
-Nachricht
-Ich akzeptiere die Datenschutzbedingungen
-Nach oben
-Ener­gie­spei­cher
-Aktu­el­les
-Mit­glied wer­den
-EN
-Leitfaden
-BVES IN BRUSSEL
-WORKSHOP ZUR FÖRDERUNG DER NET-ZERO-TECHNOLOGIEHERSTELLUNG DER EU
-1
-2
-3
-4
-5
-BRAN­CHEN­NEWS
-PUBLI­KA­TIO­NEN
-PRES­SE­MIT­TEI­LUN­GEN
-VER­AN­STAL­TUN­GEN
-Auf­ga­ben &amp; Arbeit
-Per­so­nen &amp; Posi­tio­nen
-Bei­räte &amp; Fach­be­rei­che
-Haus­halte
-Indus­trie &amp; Gewerbe
-Sys­tem­in­fra­struk­tur
-Presse
-Kon­takt
-Daten­schutz
-Impres­sum
-© 2012 – 2023 • BVES – Bun­des­ver­band Ener­gie­spei­cher Sys­teme e.V.
-MITGLIED WERDEN
-GESTALTEN SIE AKTIV DIE ZUKUNFT DER ENERGIESPEICHER­BRANCHE MIT
-Veranstaltung
-BVES STATUSKONFERENZ
-STANDARDS &amp; NORMUNG 2024
-AWSV-HINWEISPAPIER:
-AUSWIRKUNGEN AUF LITHIUM-IONEN-BATTERIEN
-Pressemitteilung
-BVES STATUSKONFERENZ:
-WÄRMEWENDE BRAUCHT SPEICHER -  BREITER APPEL FÜR EINE SCHNELLE WÄRMESPEICHERSTRATEGIE
-×
-Datenschutzeinstellungen
-↓
-Wir benötigen Ihre Zustimmung, bevor Sie unsere Website weiter besuchen können.
-Wir verwenden Cookies und andere Technologien auf unserer Website. Einige von ihnen sind essenziell, während andere uns helfen, diese Website und Ihre Erfahrung zu verbessern. Personenbezogene Daten können verarbeitet werden (z. B. IP-Adressen), z. B. für personalisierte Anzeigen und Inhalte oder Anzeigen- und Inhaltsmessung. Weitere Informationen über die Verwendung Ihrer Daten finden Sie in unserer Datenschutzerklärung. Sie können Ihre Auswahl jederzeit unter Einstellungen widerrufen oder anpassen.
-Essenziell
-Statistiken
-Ich akzeptiere
-Nur essenzielle Cookies akzeptieren
-Individuelle Datenschutzeinstellungen
-Cookie-Details  Datenschutzerklärung  Impressum
-Wir verwenden Cookies und andere Technologien auf unserer Website. Einige von ihnen sind essenziell, während andere uns helfen, diese Website und Ihre Erfahrung zu verbessern. Personenbezogene Daten können verarbeitet werden (z. B. IP-Adressen), z. B. für personalisierte Anzeigen und Inhalte oder Anzeigen- und Inhaltsmessung. Weitere Informationen über die Verwendung Ihrer Daten finden Sie in unserer Datenschutzerklärung.
-Hier finden Sie eine Übersicht über alle verwendeten Cookies. Sie können Ihre Einwilligung zu ganzen Kategorien geben oder sich weitere Informationen anzeigen lassen und so nur bestimmte Cookies auswählen.
-Alle akzeptieren Speichern Nur essenzielle Cookies akzeptieren
-Zurück
-Essenziell (1)
-Essenzielle Cookies ermöglichen grundlegende Funktionen und sind für die einwandfreie Funktion der Website erforderlich.
-Cookie-Informationen anzeigen
-Statistiken (1)
-Statistik Cookies erfassen Informationen anonym. Diese Informationen helfen uns zu verstehen, wie unsere Besucher unsere Website nutzen.
-Datenschutzerklärung  Impressum
-Borlabs Cookie
-Anbieter
-Eigentümer dieser Website, Impressum
-Zweck
-Speichert die Einstellungen der Besucher, die in der Cookie Box von Borlabs Cookie ausgewählt wurden.
-Cookie Name
-borlabs-cookie
-Cookie Laufzeit
-1 Jahr
-Akzeptieren
-Matomo
-Cookie von Matomo für Website-Analysen. Erzeugt statistische Daten darüber, wie der Besucher die Website nutzt.
-Datenschutzerklärung
-https://www.bves.de/datenschutz/
-_pk_*.*
-13 Monate
-This website uses cookies and third party services.
-OK
-DE
-previousnextslideshow</t>
-        </is>
-      </c>
-      <c r="D70" s="1" t="inlineStr">
         <is>
           <t>Der BVES
 AUFGABEN &amp;
@@ -30798,108 +30364,69 @@
 previousnextslideshow</t>
         </is>
       </c>
-      <c r="E70" s="1" t="inlineStr">
-        <is>
-          <t>There is a change</t>
-        </is>
-      </c>
-      <c r="F70" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-10 06:48:27</t>
-        </is>
-      </c>
-      <c r="G70" s="1" t="inlineStr">
-        <is>
-          <t>- This website uses cookies and third party services.
-- OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n"/>
-      <c r="B71" s="1" t="inlineStr">
-        <is>
-          <t>https://www.bves.de/aktuelles/branchennews/</t>
-        </is>
-      </c>
-      <c r="C71" s="1" t="inlineStr">
-        <is>
-          <t>Aktu­el­les
-BRAN­CHEN­NEWS
-Kate­go­rien
-Alle
-Ver­öf­fent­li­chung
-Ver­bands­nach­richt
-Ver­bands­nach­richt – 5. August 2024
-AwSV-Hin­­weis­­pa­­pier: Aus­wir­kun­gen auf Lithium-Ionen-Bat­­te­rien
-Ver­bands­nach­richt – 18. Juli 2024
-BVES bei EEW-Sta­ke­hol­­der­­kon­­­sul­­ta­­tion: Strom­ba­sierte Pro­zess­wär­me­er­zeu­gung mit­den­ken!
-Ver­bands­nach­richt – 12. Juli 2024
-BVES beim Work­shop zur För­de­rung der Net-Zero-Tech­­no­­lo­­gie­her­s­tel­­lung der EU: Erkennt­nisse aus Brussel
-Ver­bands­nach­richt – 10. Juli 2024
-Sta­tus­kon­fe­renz Ther­mi­sche Spei­cher: Appel für eine Schnelle Wär­me­spei­cher­stra­te­gie
-Ver­bands­nach­richt – 11. Juni 2024
-Über­schwem­mun­gen und Was­ser­schä­den: BVES-Sicher­heits­­­lei­t­­fa­­den zum Umgang mit Strom­spei­chern
-Ver­bands­nach­richt – 6. Juni 2024
-BVES-Fach­­fo­rum bei der Woche der Umwelt: Ener­gie­spei­cher im Fokus
-Ver­bands­nach­richt – 29. April 2024
-BVES: Solar­pa­ket I bringt posi­tive Aus­wir­kun­gen auf Ener­gie­spei­cher
-Ver­bands­nach­richt – 27. April 2024
-IEA Bat­tery Report: Bat­te­rien als Schlüs­sel zur Ener­gie­wende
-Ver­bands­nach­richt – 24. April 2024
-Erfolg­rei­ches Work­shop im Rah­men des Pro­jekts DABESI in Ber­lin
-Ver­bands­nach­richt – 12. April 2024
-BEE-Stu­­die: Gemein­same Nut­zung von NVP ent­fes­selt das Poten­zial der Ener­gie­wende
-Ver­bands­nach­richt – 18. März 2024
-Rück­blick auf die Volta-Xch­ange Fach­kon­fe­renz 2024: Zukunfts­im­pulse für die Ener­gie­wende
-Ver­bands­nach­richt – 28. Februar 2024
-BVES beim High-Level Work­shop des IEA zum Bat­tery Spe­cial Report in Paris
-Ver­bands­nach­richt – 7. Februar 2024
-Groß­spei­cher­kon­fe­renz: Die Zukunft mit Fokus auf Spei­cher
-Ver­bands­nach­richt – 19. Januar 2024
-BVES for­dert Über­ar­bei­tung der BMWK Strom­spei­cher­stra­te­gie für Effi­zi­enz und Tech­no­lo­gie­of­fen­heit
-Ver­bands­nach­richt – 7. Dezem­ber 2023
-BVES-Stel­­lun­g­­nahme zur Momen­t­an­re­serve: Markt­be­tei­li­gung und Tech­no­lo­gie­of­fen­heit im Fokus
-Ver­bands­nach­richt – 27. Novem­ber 2023
-BVES-Jah­­res­­ta­­gung: Posi­ti­ves Resü­mee der Bran­che trotz regu­la­to­ri­scher Hin­der­nisse
-Ver­bands­nach­richt – 22. Novem­ber 2023
-Erfolg­rei­ches 96. Tref­fen des IEA Energy Sto­rage Tech­ni­cal Col­la­bo­ra­tion Pro­gramme in Ber­lin
-Ver­bands­nach­richt – 14. Novem­ber 2023
-Redis­­patch-Kos­­ten: Die Rolle von neuem Markt­de­sign und Ener­gie­spei­chern
-Ver­bands­nach­richt – 3. Novem­ber 2023
-Aus­tausch mit Par­la­men­ta­ri­schem Staats­se­kre­tär Ben­ja­min Stras­ser zum Thema Groß­spei­cher
-Ver­bands­nach­richt – 26. Okto­ber 2023
-Ver­bände rufen zur Über­prü­fung und Dia­log bei neuen Ener­gie­ver­ord­nungs­be­fug­nis­sen auf
-Ver­bands­nach­richt – 11. Okto­ber 2023
-Das PFAS-Ver­­­bot und seine Kon­se­quen­zen für die Ener­gie­spei­cher­bran­che
-Ver­bands­nach­richt – 4. Okto­ber 2023
-Erfolg­rei­cher Work­shop zu Bat­te­rie­spei­chern für mit­tel­stän­di­sche Unter­neh­men im Rah­men des DABESI-Pro­­jekts
-Ver­bands­nach­richt – 19. Sep­tem­ber 2023
-Ener­gie­spei­cher für Lade­infra­struk­tur jetzt dis­kri­mi­nie­rungs­frei för­der­fä­hig
-Ver­bands­nach­richt – 29. August 2023
-BVES for­dert klare Rege­lung zur Netz­ent­gelt­be­frei­ung für Ener­gie­spei­cher
-Ver­bands­nach­richt – 24. August 2023
-Neue Ener­gie­spei­cher bauen – Bestehende Ener­gie­spei­cher erhal­ten!
-Ver­bands­nach­richt – 17. August 2023
-WPG-Ent­­wurf: Spei­cher als vierte Säule auch in der Wär­me­infra­struk­tur
-Ver­bands­nach­richt – 31. Juli 2023
-Was­ser­stoff­stra­te­gie: Was­ser­stoff für Fle­xi­bi­li­tät und Sek­to­ren­kopp­lung
-Ver­bands­nach­richt – 1. Juli 2023
-Eine neue Ära für Ener­gie­spei­cher: Die Speich­er­de­fi­ni­tion tritt in Kraft
-Ver­bands­nach­richt – 22. Juni 2023
-BVES prä­sen­tiert neue prak­ti­sche Spei­cher­stra­te­gie
-Ver­bands­nach­richt – 21. Juni 2023
-Ener­gie­spei­cher im Fokus: BVES und GP Joule tref­fen Abge­ord­nete beim Früh­stücks­tref­fen
-Ver­bands­nach­richt – 12. Juni 2023
-Wär­me­gip­fel setzt auf Ener­gie­spei­cher als Schlüs­sel­ele­ment der Wär­me­wende
-Ver­öf­fent­li­chung – 30. März 2023
-Volta‑X Messe begeis­tert über 4.000 Fach­be­su­che­rIn­nen mit intel­li­gen­ten Ener­gie­lö­sun­gen für die Zukunft
-Unsere neu­es­ten Pres­se­mit­tei­lun­gen fin­den Sie hier
+      <c r="D70" s="1" t="inlineStr">
+        <is>
+          <t>Der BVES
+AUFGABEN &amp;
+MISSION DES BVES
+Der Bundesverband Energiespeicher Systeme e.V. (BVES) vertritt die Interessen von Unternehmen und Institutionen mit dem gemeinsamen Ziel der Entwicklung, Vermarktung und dem Einsatz von Energiespeichersystemen in den Sektoren Strom, Wärme und Mobilität. Als technologieoffener Industrie-Verband ist der BVES Dialogpartner für Politik, Verwaltung, Wissenschaft und die breite Öffentlichkeit.
+Mehr erfahren
+Energiespeicher
+ENERGIESPEICHER
+UND IHRE MÄRKTE
+HAUSHALTE
+SELBSTVERSORGUNG UND KOSTENREDUKTION
+INDUSTRIE &amp; GEWERBE
+DEKARBONISIERUNG UND STEIGERUNG DER ENERGIEEFFIZIENZ
+SYSTEMINFRASTRUKTUR
+NETZSTABILITÄT UND VERSORGUNGSSICHERHEIT
+Aktuelles
+BVES
+BRANCHENNEWS
+Wir behalten den Markt, die Forschung und die Politik für Sie im Auge. Und fassen unsere Beobachtungen für Sie zusammen! In unseren Branchennews informieren wir Sie über die aktuellsten Entwicklungen.
+Alle Branchennews
+Verbandsnachricht
+AwSV-Hin­weis­pa­pier: Aus­wir­kun­gen auf Lithium-Ionen-Bat­te­rien
+BVES bei EEW-Stake­hol­der­kon­sul­ta­tion: Strom­ba­sierte Pro­zess­wär­me­er­zeu­gung mit­den­ken!
+KOMMENDE
+TERMINE
+17.09.2024
+BVES AG Finan­zen
+Online — Nur für BVES-Mit­glie­der
+18.09.2024
+BVES Brand­schutz­leit­fa­den Über­ar­bei­tung 2024
+BVES AG Ener­gie­recht
+19.09.2024
+BVES AG Was­ser­stoff &amp; PtX
+Event in Ber­lin — Nur für BVES-Mit­glie­der
+24.09.2024
+BVES Policy Recap
+Alle Termine
+Mitglieder
+WER IST SCHON DABEI?
+Mitglied werden
+WERDEN SIE TEIL DES NETZWERKS NUMMER 1
+Kontakt
+WIR SIND FÜR SIE DA
+Name
+E-Mail-Adresse
+Telefon
+Nachricht
+Ich akzeptiere die Datenschutzbedingungen
 Nach oben
-Der BVES
 Ener­gie­spei­cher
+Aktu­el­les
 Mit­glied wer­den
 EN
+Leitfaden
+BVES IN BRUSSEL
+WORKSHOP ZUR FÖRDERUNG DER NET-ZERO-TECHNOLOGIEHERSTELLUNG DER EU
+1
+2
+3
+4
+5
+BRAN­CHEN­NEWS
 PUBLI­KA­TIO­NEN
 PRES­SE­MIT­TEI­LUN­GEN
 VER­AN­STAL­TUN­GEN
@@ -30914,6 +30441,17 @@
 Daten­schutz
 Impres­sum
 © 2012 – 2023 • BVES – Bun­des­ver­band Ener­gie­spei­cher Sys­teme e.V.
+MITGLIED WERDEN
+GESTALTEN SIE AKTIV DIE ZUKUNFT DER ENERGIESPEICHER­BRANCHE MIT
+Veranstaltung
+BVES STATUSKONFERENZ
+STANDARDS &amp; NORMUNG 2024
+AWSV-HINWEISPAPIER:
+AUSWIRKUNGEN AUF LITHIUM-IONEN-BATTERIEN
+Pressemitteilung
+BVES STATUSKONFERENZ:
+WÄRMEWENDE BRAUCHT SPEICHER -  BREITER APPEL FÜR EINE SCHNELLE WÄRMESPEICHERSTRATEGIE
+×
 Datenschutzeinstellungen
 ↓
 Wir benötigen Ihre Zustimmung, bevor Sie unsere Website weiter besuchen können.
@@ -30934,7 +30472,6 @@
 Statistiken (1)
 Statistik Cookies erfassen Informationen anonym. Diese Informationen helfen uns zu verstehen, wie unsere Besucher unsere Website nutzen.
 Datenschutzerklärung  Impressum
-Name
 Borlabs Cookie
 Anbieter
 Eigentümer dieser Website, Impressum
@@ -30946,19 +30483,35 @@
 1 Jahr
 Akzeptieren
 Matomo
-BVES
 Cookie von Matomo für Website-Analysen. Erzeugt statistische Daten darüber, wie der Besucher die Website nutzt.
 Datenschutzerklärung
 https://www.bves.de/datenschutz/
 _pk_*.*
 13 Monate
-This website uses cookies and third party services.
-OK
 DE
 previousnextslideshow</t>
         </is>
       </c>
-      <c r="D71" s="1" t="inlineStr">
+      <c r="E70" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="F70" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-11 09:08:21</t>
+        </is>
+      </c>
+      <c r="G70" s="1" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>https://www.bves.de/aktuelles/branchennews/</t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="inlineStr">
         <is>
           <t>Aktu­el­les
 BRAN­CHEN­NEWS
@@ -31092,219 +30645,85 @@
 previousnextslideshow</t>
         </is>
       </c>
-      <c r="E71" s="1" t="inlineStr">
-        <is>
-          <t>There is a change</t>
-        </is>
-      </c>
-      <c r="F71" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-10 06:48:27</t>
-        </is>
-      </c>
-      <c r="G71" s="1" t="inlineStr">
-        <is>
-          <t>- This website uses cookies and third party services.
-- OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n"/>
-      <c r="B72" s="1" t="inlineStr">
-        <is>
-          <t>https://www.bves.de/aktuelles/publikationen/</t>
-        </is>
-      </c>
-      <c r="C72" s="1" t="inlineStr">
+      <c r="D71" s="1" t="inlineStr">
         <is>
           <t>Aktu­el­les
-PUBLI­KA­TIO­NEN
+BRAN­CHEN­NEWS
 Kate­go­rien
 Alle
-Stel­lung­nahme
-Posi­ti­ons­pa­pier
-Markt­ana­lyse
-Leit­fa­den
-Grund­satz­pa­pier
-Stel­lung­nahme – 30. Mai 2024
-Stel­lung­nahme zur Fest­le­gung „Nut­zen statt Abre­geln 2.0“ (§13k EnWG)
-BVES begrüßt die Ein­be­zie­hung von Ener­gie­spei­chern in die Rege­lung, genauso wie die Dis­kus­sio­nen zu Power-to-Heat Anla­gen sowie zu Elek­tro­lyse und
-Stel­lung­nahme – 8. Mai 2024
-Stel­lung­nahme zur Novelle des Strom- und Ener­gie­steu­er­rechts
-BVES begrüßt grund­sätz­lich die Novelle des Strom- und Ener­gie­steu­er­rechts.
-Markt­ana­lyse – 14. März 2024
-BVES Bran­chen­ana­lyse 2024
-Ent­wick­lung und Per­spek­ti­ven der Ener­gie­spei­cher­bran­che in Deutsch­land im Jahr 2024. Die jähr­li­che Bran­chen­ana­lyse des BVES zu Markt­ent­wick­lung und Trends für
-Stel­lung­nahme – 9. Februar 2024
-Stel­lung­nahme zur Novelle der För­der­richt­li­nie für Ener­­gie- und Res­sour­cen­ef­fi­zi­enz in der Wirt­schaft
-BVES gibt Anmer­kun­gen für die Wei­ter­ent­wick­lung der För­der­richt­li­nie für Ener­gie- und Res­sour­cen­ef­fi­zi­enz in der Wirt­schaft ab.
-Posi­ti­ons­pa­pier – 23. Januar 2024
-Berück­sich­ti­gung von elek­tri­schen Ener­gie­spei­chern in der Elt­BauVO
-Aktu­el­ler Stand der Umset­zung und mög­li­che Aus­wir­kun­gen für die Ener­gie­spei­cher­bran­che.
-Stel­lung­nahme – 18. Januar 2024
-Stel­lung­nahme zum Ent­wurf der Strom­spei­cher­stra­te­gie des BMWK
-Der BVES begrüßt gründ­sätz­lich den Ent­wurf als wich­ti­gen Schritt, um die Her­aus­for­de­run­gen der Spei­cher­bran­che zu adres­sie­ren.
-Stel­lung­nahme – 21. Dezem­ber 2023
-Stel­lung­nahme zum BMWK Zwi­schen­be­richt der Sys­­te­m­en­t­­wick­­lungs-Stra­­te­­gie
-Die Sze­na­rien der Sys­tem­ent­wick­lungs­stra­te­gie unter­schät­zen die Rolle der Ener­gie­spei­chern deut­lich.
-Stel­lung­nahme – 14. Dezem­ber 2023
-BVES Posi­tion Paper on High Pri­ces Miti­ga­tion Mea­su­res
-BVES posi­tion paper for the ENTSO‑E open con­sul­ta­tion on high pri­ces miti­ga­tion mea­su­res
-Posi­ti­ons­pa­pier – 1. Dezem­ber 2023
-Stel­lung­nahme zum Rege­lungs­ent­wurf zur TAB Ver­ein­heit­li­chung des BMWK — § 19 ENWG
-Der BVES bie­tet seine Anmer­kun­gen zum Rege­lungs­ent­wurf des BMWK zur Ver­ein­heit­li­chung der tech­ni­schen Anschluss­be­din­gun­gen (TAB) an.
-Stel­lung­nahme – 20. Novem­ber 2023
-Stel­lung­nahme zum 2. Ent­wurf vom Netz­ent­wick­lungs­plan Strom
-Der BVES bie­tet seine Anmer­kun­gen zum 2. Ent­wurf für den Netz­ent­wick­lungs­plan Strom 2037 mit Aus­blick 2045.
-Posi­ti­ons­pa­pier – 14. Novem­ber 2023
-Stel­lung­nahme zur Bun­des­för­der­richt­li­nie Dekar­bo­ni­sie­rung der Indus­trie
-Die Bun­des­för­de­rung Indus­trie und Kli­ma­schutz sollte das Poten­zial von Ener­gie­spei­chern zur Dekar­bo­ni­sie­rung der Indus­trie ange­mes­sen berück­sich­ti­gen.
-Stel­lung­nahme – 14. Novem­ber 2023
-Stel­lung­nahme zur ange­mes­se­nen finan­zi­el­len Ver­gü­tung von Redis­­patch-Maß­­nah­­men
-Wie Ener­gie­spei­cher den Bedarf an Redis­patch-Maß­nah­men redu­zie­ren kön­nen
-Stel­lung­nahme – 4. Novem­ber 2023
-Stel­lung­nahme zur Momen­t­an­re­serve: Markt­be­tei­li­gung und Tech­no­lo­gie­of­fen­heit im Fokus
-BVES betei­ligt sich an Kon­sul­ta­ti­ons­ver­fah­ren der BNetzA zur Beschaf­fung von Momen­t­an­re­serve.
-Posi­ti­ons­pa­pier – 11. Okto­ber 2023
-Ver­bot von Per- und Poly­fluo­rierte Che­mi­ka­lien (PFAS): Bedeu­tung für Ener­gie­spei­cher­sys­teme
-Aktu­el­ler Stand der Dis­kus­sion und wirt­schaft­li­che Bewer­tun­gen des Ver­bots von PFAS für die Ener­gie­spei­cher­bran­che.
-Stel­lung­nahme – 7. Okto­ber 2023
-Stel­lung­nahme zur Aus­ge­stal­tung des Leit­fa­dens Wär­me­pla­nung und des Tech­nik­ka­ta­logs
-Der BVES unter­stützt die Inte­gra­tion von Ener­gie­spei­chern in den Leit­fa­den und Tech­nik­ka­ta­log und schlägt hier eine umfas­sen­dere und tech­no­lo­gie­of­fene Aus­ge­stal­tung
-Posi­ti­ons­pa­pier – 6. Okto­ber 2023
-Posi­ti­ons­pa­pier “Sai­so­nale Wär­me­spei­cher für die Ener­gie­wende”
-Sai­so­nale Wär­me­spei­cher sind eine Schlüs­sel­kom­po­nente, um erneu­er­bare Wärme effi­zi­ent zu spei­chern und zu nut­zen. Der Ein­satz sai­so­na­ler Wär­me­spei­cher ist viel­sei­tig
-Stel­lung­nahme – 27. Sep­tem­ber 2023
-Posi­tion zur Exper­ten­an­hö­rung im Aus­schuss für Kli­ma­schutz und Ener­gie im Bun­des­tag
-Die neue Posi­tion des BVES unter­streicht die Dring­lich­keit gesetz­li­cher Ände­run­gen für den Aus­bau von Fle­xi­bi­li­tät durch Ener­gie­spei­cher.
-Stel­lung­nahme – 29. August 2023
-Netz­ent­gelt­be­las­tung für Strom­spei­che­rung end­lich dau­er­haft besei­ti­gen
-Der BVES setzt sich für klare Regeln ein, um Netz­ent­gelte für zwi­schen­ge­spei­cher­ten Strom aus­zu­schlie­ßen und die Inves­ti­tio­nen in Spei­cher­pro­jekte zu
-Stel­lung­nahme – 5. Juli 2023
-Stel­lung­nahme zum Refe­ren­ten­ent­wurf (BMWK) für das Solar­pa­ket I
-In sei­ner Posi­tion for­dert der BVES for­dert die Sys­tem­in­te­gra­tion sola­rer Ener­gie­er­zeu­gung unter Berück­sich­ti­gung von Ener­gie­spei­cher­sys­te­men.
-Posi­ti­ons­pa­pier – 20. Juni 2023
-Von der Speich­er­de­fi­ni­tion zur Spei­cher­stra­te­gie
-Der mit der Ener­gie­speich­er­de­fi­ni­tion aus­ge­drückte poli­ti­sche Wille, die eigen­stän­dige Rolle von Ener­gie­spei­chern in den Ener­gie­märk­ten anzu­er­ken­nen, erfor­dert in der Pra­xis
-Stel­lung­nahme – 14. Juni 2023
-Stel­lung­nahme zum Refe­ren­ten­ent­wurf der Bun­des­re­gie­rung – Gesetz für die Wär­me­pla­nung und zur Dekar­bo­ni­sie­rung der Wär­me­netze
-Für das Gelin­gen der Wär­me­wende sind ther­mi­sche Ener­gie­spei­cher als eigen­stän­di­ger Teil der Wär­me­infra­struk­tur uner­läss­lich, die alle bereits heute vor­han­de­nen tech­ni­schen
-Posi­ti­ons­pa­pier – 9. Juni 2023
-Mehr Tempo bei der Trans­for­ma­tion der Wär­me­ver­sor­gung — Gemein­same Erklä­rung zum Fern­wär­me­gip­fel
-Für den kli­ma­neu­tra­len Um- und Aus­bau der Wär­me­netze sind Ener­gie­spei­cher eines der Schlüs­sel­ele­mente. Die Abschluss­erklä­rung zum Fern­wär­me­gip­fel am 12. Juni
-Grund­satz­pa­pier – 4. Mai 2023
-Green Energy To The Point
-We believe in energy sto­rage sys­tems as an indis­pensable part of the car­bon-free future energy sys­tem. Get to know our
-Posi­ti­ons­pa­pier – 4. April 2023
-Stel­lung­nahme zur Novelle der Richt­li­nie für die Bun­des­för­de­rung für Ener­­gie- und Res­sour­cen­ef­fi­ziez in der Wirt­schaft – Zuschuss und Kre­dit
-Indus­trie und Gewerbe suchen drin­gend pas­sende Lösun­gen, um lang­fris­tig in Deutsch­land pro­du­zie­ren zu kön­nen. Der BVES begrüßt daher die ste­tige
-Posi­ti­ons­pa­pier – 2. April 2023
-Die schöns­ten Bat­te­rien der Welt
-Pump­spei­cher sind die Groß­spei­cher­tech­no­lo­gie mit dem weit­aus größ­ten Anteil an den welt­wei­ten Kapa­zi­tä­ten zur Strom­spei­che­rung.
-Markt­ana­lyse – 28. März 2023
-BVES Sec­tor Ana­ly­sis 2023
-Deve­lo­p­ment and per­spec­ti­ves for the Ger­man Energy Sto­rage Sec­tor in 2023.
-BVES Bran­chen­ana­lyse 2023
-Ent­wick­lung und Per­spek­ti­ven der Ener­gie­spei­cher­bran­che in Deutsch­land im Jahr 2023.
-Grund­satz­pa­pier – 13. März 2023
-Ther­mi­sche Ener­gie­spei­cher
-Ener­gie­wende braucht Wär­me­wende — Wär­me­wende braucht Ener­gie­spei­cher. Für die Umset­zung der Wär­me­wende sind ther­mi­sche Ener­gie­spei­cher­tech­no­lo­gien zen­tral. Sie rea­li­sie­ren die Sek­to­ren­kopp­lung
-Grund­satz­pa­pier – 1. Januar 2023
-För­der­pro­gramme für Ener­gie­spei­cher in Deutsch­land.
-Der BVES stellt sei­nen Mit­glie­dern regel­mä­ßig einen Über­blick über die För­der­pro­gramme mit Ener­gie­spei­cher­be­zug zur Ver­fü­gung. Das Doku­ment wird regel­mä­ßig aktua­li­siert
-Stel­lung­nahme – 20. Dezem­ber 2022
-Stel­lung­nahme zum Ent­wurf eines Geset­zes zum Neu­start der Digi­ta­li­sie­rung der Ener­gie­wende (GNDEW)
-Stel­lung­nahme – 26. August 2022
-BVES Stel­lung­nahme zum Refe­ren­ten­ent­wurf des BMWK für die Ver­ord­nung zur Ände­rung der Ver­ord­nung über All­ge­meine Bedin­gun­gen für die Ver­sor­gung mit Fern­wärme. Vor­lie­gen­der Refe­ren­ten­ent­wurf vom 25. Juli 2022
-Fle­xi­bi­li­tät, Abwär­me­nut­zung und Ener­gie­ef­fi­zi­enz sind not­wen­dig für eine sichere Ver­sor­gung mit Fern­wärme. Der Refe­ren­ten­ent­wurf des BMWK vom 25. Juli 2022
-Stel­lung­nahme – 22. August 2022
-BVES Stel­lung­nahme zum Dis­kus­si­ons­pa­pier des BMWK: Kon­zept für die Umset­zung einer flä­chen­de­cken­den kom­mu­na­len Wär­me­pla­nung als zen­tra­les Koor­di­nie­rungs­in­stru­ment für lokale, effi­zi­ente Wär­me­nut­zung vom 28. Juli 2022
-Ener­gie­wende braucht Wär­me­wende. Die kom­mu­nale Wär­me­pla­nung ist dafür ein wich­ti­ger Schritt, in den alle rele­van­ten Akteure von Netz­be­trei­bern bis zu
-Posi­ti­ons­pa­pier – 1. Juli 2022
-Mas­ter­plan Lade­infra­struk­tur II
-Der Mas­ter­plan Lade­infra­struk­tur II soll die Ziele und die Maß­nah­men für den Aus­bau der Lade­infra­struk­tur defi­nie­ren. Der BVES for­dert u.
-Markt­ana­lyse – 6. April 2022
-BVES Sec­tor Ana­ly­sis 2022
-Deve­lo­p­ment and per­spec­ti­ves for the Ger­man Energy Sto­rage Sec­tor in 2022.
-BVES Bran­chen­ana­lyse 2022
-Ent­wick­lung und Per­spek­ti­ven der Ener­gie­spei­cher­bran­che in Deutsch­land im Jahr 2022. Die jähr­li­che Bran­chen­ana­lyse des BVES zu Markt­ent­wick­lung und Trends für
-Stel­lung­nahme – 22. März 2022
-Refe­ren­ten­ent­wurf zum Gesetz über die Elek­­tri­­zi­­täts- und Gas­ver­sor­gung (Ener­gie­wirt­schafts­ge­setz – EnWG)
-Fle­xi­bi­li­tät muss eine zen­trale Eigen­schaft des Ener­gie­sys­tems wer­den. Dafür muss das volle Poten­zial von Spei­cher­tech­no­lo­gien aus­ge­schöpft und im Ver­hält­nis zu
-Posi­ti­ons­pa­pier – 21. März 2022
-Schnelle und fle­xi­ble Errich­tung von Lade­stand­or­ten ohne Netz­aus­bau durch Lade­sta­tio­nen mit Puf­fer­spei­cher – Vor­teile für Deutsch­land­netz und wei­tere Pro­gramme
-Der Aus­bau der Lade­infra­struk­tur muss schnell erfol­gen und attrak­tive Lade­leis­tun­gen bie­ten.
-Stel­lung­nahme – 16. März 2022
-Refe­ren­ten­ent­wurf eines Geset­zes zu Sofort­maß­nah­men für einen beschleu­nig­ten Aus­bau der erneu­er­ba­ren Ener­gien und wei­te­ren Maß­nah­men im Strom­sek­tor
-Der Aus­bau erneu­er­ba­rer Ener­gien ist essen­zi­ell. Allein die Erzeu­gungs­spit­zen wei­ter zu erhö­hen wird nicht zu einem sta­bi­len Ener­gie­sys­tem füh­ren.
-Leit­fa­den – 12. Novem­ber 2021
-Gui­de­line for Fire Safety and Secu­rity for Large Scale Li-Ion Sto­rage Sys­tems
-This gui­de­line for pre­ven­tive and pro­tec­tive fire secu­rity with large scale lithium ion sto­rage sys­tems pro­vi­des ins­truc­tions and infor­ma­tion for
-Leit­fa­den zum vor­beu­gen­den und abweh­ren­den Brand­schutz für Li-Ionen Groß­spei­cher­sys­teme
-Die­ser Leit­fa­den zum vor­beu­gen­den und abweh­ren­den Brand­schutz bei Liti­hium-Ionen Groß­spei­cher­sys­te­men bie­tet Hin­weise und Infor­ma­tio­nen für Pla­ner, Bau­her­ren, Ein­satz­kräfte, Ver­si­che­run­gen und
-Posi­ti­ons­pa­pier – 8. Novem­ber 2021
-BVES Posi­tio­nie­rung zu den Ampel-Son­­die­run­­gen 2021
-Das Ergeb­nis der „Ampel-Son­die­run­gen“ kon­sta­tiert: „Für ener­gie­po­li­ti­sche Pro­jekte auch in Deutsch­land gilt das euro­päi­sche Ener­gie­recht“. Das ist in der Tat
-Leit­fa­den – 31. Okto­ber 2021
-Kom­pen­dium: Li-Ionen-Bat­te­rien
-Das Kom­pen­dium vom VDE Ver­band der Elek­tro­tech­nik Elek­tro­nik Infor­ma­ti­ons­tech­nik e.V. gibt einen Über­blick der Grund­la­gen, Merk­male sowie aktu­el­ler Gesetze und
-Stel­lung­nahme – 21. Sep­tem­ber 2021
-Stel­lung­nahme zum Ent­wurf der Elek­tri­schen Betriebs­raum Ver­ord­nung Elt­BauVO
-Der Ent­wurf sieht vor, dass Ener­gie­spei­cher­an­la­gen &gt;20 kWh in das Anwen­dungs­spek­trum der Ver­ord­nung über den Bau von Betrie­bräu­men für elek­tri­sche
-Leit­fa­den – 27. Juli 2021
-Sicher­heits­hin­weise für Anwen­der von Bat­te­rie­spei­chern bei Was­ser­schä­den und Hoch­was­ser
-Stel­lung­nahme – 25. Juli 2021
-BVES-Stel­­lun­g­­nahme zum Ent­wurf der »För­der­richt­li­nie für die Bun­des­för­de­rung für effi­zi­ente Wär­me­netze (BEW)« vom 16. Juli 2021
-Für den schnel­len Auf­bau effi­zi­en­ter Wär­me­netze sind ther­mi­sche Spei­cher uner­läss­lich.
-Grund­satz­pa­pier – 20. Juni 2021
-Facts­heet – Sen­si­bler (Wärme-)Wasserspeicher
-Facts­heet – Nie­­der­­te­m­­pe­ra­­tur-Laten­t­­wär­­me­s­pei­­cher
-Facts­heet – Hoch­­­te­m­­pe­ra­­tur-Laten­t­­wär­­me­s­pei­­cher
-Facts­heet – Fest­stoff­spei­cher für Hoch­tem­pe­ra­tur­wärme
-Grund­satz­pa­pier – 1. Juni 2021
-Facts­heet – Hoch­tem­pe­ra­tur Flüssigsalzspeicher
-Markt­ana­lyse – 15. März 2021
-BVES Bran­chen­ana­lyse 2021
-Ent­wick­lung und Per­spek­ti­ven der Ener­gie­spei­cher­bran­che in Deutsch­land im Jahr 2021.
-Posi­ti­ons­pa­pier, Stel­lung­nahme – 26. Januar 2021
-Stel­lung­nahme zum BMVI Refe­ren­ten­ent­wurf für das Schnell-Lade-Gesetz
-Der BVES begrüßt aus­drück­lich, dass die Bun­des­re­gie­rung sich dem zen­tra­len Thema Lade­infra­struk­tur ver­tieft annimmt. Im Rah­men der Stel­lung­nahme setzt sich
-Markt­ana­lyse – 12. Mai 2020
-BVES Bran­chen­ana­lyse 2020
-Ent­wick­lung und Per­spek­ti­ven der Ener­gie­spei­cher­bran­che in Deutsch­land im Jahr 2020.
-Leit­fa­den, Posi­ti­ons­pa­pier – 15. April 2019
-Effi­zi­enz­leit­fa­den für PV-Spei­­cher­­sys­­teme
-Der Effi­zi­enz­leit­fa­den Ver­bände BSW und BVES dient zur Cha­rak­te­ri­sie­rung der Wir­kungs­grade, des Standby-Ver­brauchs und der Rege­lungs­ef­fi­zi­enz von sta­tio­nä­ren Bat­te­rie­spei­cher­sys­te­men. Er
-Grund­satz­pa­pier – 19. Februar 2019
-Facts­heet – Vana­dium Redox-Flow Bat­te­rien
-Grund­satz­pa­pier – 19. Januar 2019
-Facts­heet – Orga­­nic-Flow-Bat­­te­rien
-Grund­satz­pa­pier – 20. Februar 2016
-Facts­heet – Sorp­ti­ons­spei­cher
-Facts­heet – Ther­mo­che­mi­sche Spei­cher
-Grund­satz­pa­pier – 19. Februar 2016
-Facts­heet – Schwun­g­rad-Ener­­gie­s­pei­­cher
-Facts­heet – Pump­spei­cher­werke (PSW)
-Facts­heet – Flüs­­si­g­­luft-Ener­­gie­s­pei­­cher (LAES)
-Facts­heet – Druck­luft­ener­gie­spei­cher (CAES)
-Facts­heet – Hoch­tem­pe­ra­tur­bat­te­rien
-Facts­heet – Blei-Säure Strom­spei­cher
-Facts­heet – Methan-Spei­­che­rung
-Grund­satz­pa­pier – 1. Februar 2016
-Facts­heet – Was­­ser­­stoff-Spei­­che­rung
-Grund­satz­pa­pier – 19. Januar 2016
-Facts­heet – Schwer­­kraft-Spei­­cher
-Facts­heet – Li-Ionen
-Leit­fa­den – 30. Novem­ber 2014
-Sicher­heits­leit­fa­den Li-Ionen-Haus­s­pei­­cher
-Der Leit­fa­den zielt dar­auf ab, die Sicher­heit bei der Ver­wen­dung der Lithium-Ionen-Bat­te­rie­spei­cher­sys­teme in Wohn­ge­bäu­den zu ver­bes­sern und auf ein ein­heit­li­ches
+Ver­öf­fent­li­chung
+Ver­bands­nach­richt
+Ver­bands­nach­richt – 5. August 2024
+AwSV-Hin­­weis­­pa­­pier: Aus­wir­kun­gen auf Lithium-Ionen-Bat­­te­rien
+Ver­bands­nach­richt – 18. Juli 2024
+BVES bei EEW-Sta­ke­hol­­der­­kon­­­sul­­ta­­tion: Strom­ba­sierte Pro­zess­wär­me­er­zeu­gung mit­den­ken!
+Ver­bands­nach­richt – 12. Juli 2024
+BVES beim Work­shop zur För­de­rung der Net-Zero-Tech­­no­­lo­­gie­her­s­tel­­lung der EU: Erkennt­nisse aus Brussel
+Ver­bands­nach­richt – 10. Juli 2024
+Sta­tus­kon­fe­renz Ther­mi­sche Spei­cher: Appel für eine Schnelle Wär­me­spei­cher­stra­te­gie
+Ver­bands­nach­richt – 11. Juni 2024
+Über­schwem­mun­gen und Was­ser­schä­den: BVES-Sicher­heits­­­lei­t­­fa­­den zum Umgang mit Strom­spei­chern
+Ver­bands­nach­richt – 6. Juni 2024
+BVES-Fach­­fo­rum bei der Woche der Umwelt: Ener­gie­spei­cher im Fokus
+Ver­bands­nach­richt – 29. April 2024
+BVES: Solar­pa­ket I bringt posi­tive Aus­wir­kun­gen auf Ener­gie­spei­cher
+Ver­bands­nach­richt – 27. April 2024
+IEA Bat­tery Report: Bat­te­rien als Schlüs­sel zur Ener­gie­wende
+Ver­bands­nach­richt – 24. April 2024
+Erfolg­rei­ches Work­shop im Rah­men des Pro­jekts DABESI in Ber­lin
+Ver­bands­nach­richt – 12. April 2024
+BEE-Stu­­die: Gemein­same Nut­zung von NVP ent­fes­selt das Poten­zial der Ener­gie­wende
+Ver­bands­nach­richt – 18. März 2024
+Rück­blick auf die Volta-Xch­ange Fach­kon­fe­renz 2024: Zukunfts­im­pulse für die Ener­gie­wende
+Ver­bands­nach­richt – 28. Februar 2024
+BVES beim High-Level Work­shop des IEA zum Bat­tery Spe­cial Report in Paris
+Ver­bands­nach­richt – 7. Februar 2024
+Groß­spei­cher­kon­fe­renz: Die Zukunft mit Fokus auf Spei­cher
+Ver­bands­nach­richt – 19. Januar 2024
+BVES for­dert Über­ar­bei­tung der BMWK Strom­spei­cher­stra­te­gie für Effi­zi­enz und Tech­no­lo­gie­of­fen­heit
+Ver­bands­nach­richt – 7. Dezem­ber 2023
+BVES-Stel­­lun­g­­nahme zur Momen­t­an­re­serve: Markt­be­tei­li­gung und Tech­no­lo­gie­of­fen­heit im Fokus
+Ver­bands­nach­richt – 27. Novem­ber 2023
+BVES-Jah­­res­­ta­­gung: Posi­ti­ves Resü­mee der Bran­che trotz regu­la­to­ri­scher Hin­der­nisse
+Ver­bands­nach­richt – 22. Novem­ber 2023
+Erfolg­rei­ches 96. Tref­fen des IEA Energy Sto­rage Tech­ni­cal Col­la­bo­ra­tion Pro­gramme in Ber­lin
+Ver­bands­nach­richt – 14. Novem­ber 2023
+Redis­­patch-Kos­­ten: Die Rolle von neuem Markt­de­sign und Ener­gie­spei­chern
+Ver­bands­nach­richt – 3. Novem­ber 2023
+Aus­tausch mit Par­la­men­ta­ri­schem Staats­se­kre­tär Ben­ja­min Stras­ser zum Thema Groß­spei­cher
+Ver­bands­nach­richt – 26. Okto­ber 2023
+Ver­bände rufen zur Über­prü­fung und Dia­log bei neuen Ener­gie­ver­ord­nungs­be­fug­nis­sen auf
+Ver­bands­nach­richt – 11. Okto­ber 2023
+Das PFAS-Ver­­­bot und seine Kon­se­quen­zen für die Ener­gie­spei­cher­bran­che
+Ver­bands­nach­richt – 4. Okto­ber 2023
+Erfolg­rei­cher Work­shop zu Bat­te­rie­spei­chern für mit­tel­stän­di­sche Unter­neh­men im Rah­men des DABESI-Pro­­jekts
+Ver­bands­nach­richt – 19. Sep­tem­ber 2023
+Ener­gie­spei­cher für Lade­infra­struk­tur jetzt dis­kri­mi­nie­rungs­frei för­der­fä­hig
+Ver­bands­nach­richt – 29. August 2023
+BVES for­dert klare Rege­lung zur Netz­ent­gelt­be­frei­ung für Ener­gie­spei­cher
+Ver­bands­nach­richt – 24. August 2023
+Neue Ener­gie­spei­cher bauen – Bestehende Ener­gie­spei­cher erhal­ten!
+Ver­bands­nach­richt – 17. August 2023
+WPG-Ent­­wurf: Spei­cher als vierte Säule auch in der Wär­me­infra­struk­tur
+Ver­bands­nach­richt – 31. Juli 2023
+Was­ser­stoff­stra­te­gie: Was­ser­stoff für Fle­xi­bi­li­tät und Sek­to­ren­kopp­lung
+Ver­bands­nach­richt – 1. Juli 2023
+Eine neue Ära für Ener­gie­spei­cher: Die Speich­er­de­fi­ni­tion tritt in Kraft
+Ver­bands­nach­richt – 22. Juni 2023
+BVES prä­sen­tiert neue prak­ti­sche Spei­cher­stra­te­gie
+Ver­bands­nach­richt – 21. Juni 2023
+Ener­gie­spei­cher im Fokus: BVES und GP Joule tref­fen Abge­ord­nete beim Früh­stücks­tref­fen
+Ver­bands­nach­richt – 12. Juni 2023
+Wär­me­gip­fel setzt auf Ener­gie­spei­cher als Schlüs­sel­ele­ment der Wär­me­wende
+Ver­öf­fent­li­chung – 30. März 2023
+Volta‑X Messe begeis­tert über 4.000 Fach­be­su­che­rIn­nen mit intel­li­gen­ten Ener­gie­lö­sun­gen für die Zukunft
+Unsere neu­es­ten Pres­se­mit­tei­lun­gen fin­den Sie hier
 Nach oben
 Der BVES
 Ener­gie­spei­cher
 Mit­glied wer­den
 EN
-BRAN­CHEN­NEWS
+PUBLI­KA­TIO­NEN
 PRES­SE­MIT­TEI­LUN­GEN
 VER­AN­STAL­TUN­GEN
 Auf­ga­ben &amp; Arbeit
@@ -31356,13 +30775,30 @@
 https://www.bves.de/datenschutz/
 _pk_*.*
 13 Monate
-This website uses cookies and third party services.
-OK
 DE
 previousnextslideshow</t>
         </is>
       </c>
-      <c r="D72" s="1" t="inlineStr">
+      <c r="E71" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="F71" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-11 09:08:21</t>
+        </is>
+      </c>
+      <c r="G71" s="1" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <t>https://www.bves.de/aktuelles/publikationen/</t>
+        </is>
+      </c>
+      <c r="C72" s="1" t="inlineStr">
         <is>
           <t>Aktu­el­les
 PUBLI­KA­TIO­NEN
@@ -31606,74 +31042,196 @@
 previousnextslideshow</t>
         </is>
       </c>
-      <c r="E72" s="1" t="inlineStr">
-        <is>
-          <t>There is a change</t>
-        </is>
-      </c>
-      <c r="F72" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-10 06:48:27</t>
-        </is>
-      </c>
-      <c r="G72" s="1" t="inlineStr">
-        <is>
-          <t>- This website uses cookies and third party services.
-- OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n"/>
-      <c r="B73" s="1" t="inlineStr">
-        <is>
-          <t>https://www.bves.de/aktuelles/pressemitteilungen/</t>
-        </is>
-      </c>
-      <c r="C73" s="1" t="inlineStr">
+      <c r="D72" s="1" t="inlineStr">
         <is>
           <t>Aktu­el­les
-PRES­SE­MIT­TEI­LUN­GEN
-2. Juli 2024
-BVES Sta­tus­kon­fe­renz: Wär­me­wende braucht Spei­cher — Brei­ter Appel für eine schnelle Wär­me­spei­cher­stra­te­gie
-Die Sta­tus­kon­fe­renz des BVES ver­deut­lichte einen brei­ten Appell für eine schnelle Ent­wick­lung der Wär­me­spei­cher­stra­te­gie …
-16. April 2024
-BVES: Netz­an­schluss­gip­fel schnell in die Pra­xis brin­gen!
-Der BVES unter­stützt den Netz­an­schluss­gip­fel und die Foku­sagenda des BMWK zur Beschleu­ni­gung von Netz­an­schlüs­sen …
-14. März 2024
-Bran­chen­zah­len 2024: Die Ener­gie­spei­cher­bran­che ebnet den Weg in die Erneu­er­bare Zukunft
-Ener­gie­spei­cher­bran­che boomt wei­ter: Mit einem Umsatz von 15,7 Mil­li­ar­den Euro hat die Bran­che ihre Erwar­tun­gen über­trof­fen und ver­zeich­net ein Wachs­tum …
-29. Februar 2024
-Netz­werk­platt­form Volta-Xch­ange geht an den Start
-Exklu­sive High-Level-Busi­ness-Platt­form lädt im Zwi­schen­jahr der Volta‑X zum Aus­tausch rund um eine nach­hal­tige Ener­gie­zu­kunft ein …
-5. Februar 2024
-BVES Groß­spei­cher­kon­fe­renz zeigt: Ohne Spei­cher keine Ener­gie­wende, ohne Regu­la­to­rik keine Spei­cher
-Auf der Kon­fe­renz “Groß­spei­cher für das Strom­netz” des BVES for­dert die Bran­che eine zügige Umset­zung der Strom­spei­cher­stra­te­gie und wei­tere Maß­nah­men …
-19. Dezem­ber 2023
-BVES: Vor­lage einer Strom­spei­cher­stra­te­gie der Bun­des­re­gie­rung ist ein Schritt in die rich­tige Rich­tung
-BVES begrüßt Vor­lage einer Strom­spei­cher­stra­te­gie der Bun­des­re­gie­rung …
-10. Novem­ber 2023
-BVES begrüßt Ver­län­ge­rung der Netz­ent­gel­ten­be­frei­ung für Spei­cher und for­dert lang­fris­tige Rechts­si­cher­heit
-Der BVES begrüßt die heute im Bun­des­tag beschlos­sene Ver­län­ge­rung der Netz­ent­gel­ten­be­frei­ung um wei­tere 3 Jahre …
-23. Juni 2023
-Volta‑X trifft Nerv der Zeit
-Erst­ver­an­stal­tung über­zeugt: Über 4.000 Fach­be­su­che­rIn­nen unter­strei­chen Rele­vanz der Volta‑X, der neuen Platt­form für intel­li­gente Ener­gie­lö­sun­gen. Indus­trie, Wis­sen­schaft und Poli­tik dis­ku­tier­ten …
-20. Juni 2023
-BVES prä­sen­tiert prak­ti­sche Spei­cher­stra­te­gie
-Im Rah­men eines par­la­men­ta­ri­schen Früh­stücks zum Thema “Ener­gie­sys­tem mit Zukunft — inte­grierte Betrach­tung von Erneu­er­ba­ren Ener­gien, Net­zen, Spei­chern &amp; Fle­xi­bi­li­tä­ten” …
-21. April 2023
-Bran­chen­zah­len 2023: Die Spei­cher­bran­che ist voll im Schwung
-Ener­gie­spei­cher­bran­che im Auf­wind: Mit einem Umsatz von 12,1 Mil­li­ar­den Euro hat die Bran­che ihre Erwar­tun­gen über­trof­fen und ver­zeich­net ein Wachs­tum …
-20. März 2023
-Volta‑X 2023 in Stutt­gart
-Die Fach­messe Volta‑X in Stutt­gart zeigt vom 28. bis 30. März die neu­es­ten Inno­va­tio­nen und Anwen­dungs­bei­spiele für eine nach­hal­tige Ener­gie­ver­sor­gung …
+PUBLI­KA­TIO­NEN
+Kate­go­rien
+Alle
+Stel­lung­nahme
+Posi­ti­ons­pa­pier
+Markt­ana­lyse
+Leit­fa­den
+Grund­satz­pa­pier
+Stel­lung­nahme – 30. Mai 2024
+Stel­lung­nahme zur Fest­le­gung „Nut­zen statt Abre­geln 2.0“ (§13k EnWG)
+BVES begrüßt die Ein­be­zie­hung von Ener­gie­spei­chern in die Rege­lung, genauso wie die Dis­kus­sio­nen zu Power-to-Heat Anla­gen sowie zu Elek­tro­lyse und
+Stel­lung­nahme – 8. Mai 2024
+Stel­lung­nahme zur Novelle des Strom- und Ener­gie­steu­er­rechts
+BVES begrüßt grund­sätz­lich die Novelle des Strom- und Ener­gie­steu­er­rechts.
+Markt­ana­lyse – 14. März 2024
+BVES Bran­chen­ana­lyse 2024
+Ent­wick­lung und Per­spek­ti­ven der Ener­gie­spei­cher­bran­che in Deutsch­land im Jahr 2024. Die jähr­li­che Bran­chen­ana­lyse des BVES zu Markt­ent­wick­lung und Trends für
+Stel­lung­nahme – 9. Februar 2024
+Stel­lung­nahme zur Novelle der För­der­richt­li­nie für Ener­­gie- und Res­sour­cen­ef­fi­zi­enz in der Wirt­schaft
+BVES gibt Anmer­kun­gen für die Wei­ter­ent­wick­lung der För­der­richt­li­nie für Ener­gie- und Res­sour­cen­ef­fi­zi­enz in der Wirt­schaft ab.
+Posi­ti­ons­pa­pier – 23. Januar 2024
+Berück­sich­ti­gung von elek­tri­schen Ener­gie­spei­chern in der Elt­BauVO
+Aktu­el­ler Stand der Umset­zung und mög­li­che Aus­wir­kun­gen für die Ener­gie­spei­cher­bran­che.
+Stel­lung­nahme – 18. Januar 2024
+Stel­lung­nahme zum Ent­wurf der Strom­spei­cher­stra­te­gie des BMWK
+Der BVES begrüßt gründ­sätz­lich den Ent­wurf als wich­ti­gen Schritt, um die Her­aus­for­de­run­gen der Spei­cher­bran­che zu adres­sie­ren.
+Stel­lung­nahme – 21. Dezem­ber 2023
+Stel­lung­nahme zum BMWK Zwi­schen­be­richt der Sys­­te­m­en­t­­wick­­lungs-Stra­­te­­gie
+Die Sze­na­rien der Sys­tem­ent­wick­lungs­stra­te­gie unter­schät­zen die Rolle der Ener­gie­spei­chern deut­lich.
+Stel­lung­nahme – 14. Dezem­ber 2023
+BVES Posi­tion Paper on High Pri­ces Miti­ga­tion Mea­su­res
+BVES posi­tion paper for the ENTSO‑E open con­sul­ta­tion on high pri­ces miti­ga­tion mea­su­res
+Posi­ti­ons­pa­pier – 1. Dezem­ber 2023
+Stel­lung­nahme zum Rege­lungs­ent­wurf zur TAB Ver­ein­heit­li­chung des BMWK — § 19 ENWG
+Der BVES bie­tet seine Anmer­kun­gen zum Rege­lungs­ent­wurf des BMWK zur Ver­ein­heit­li­chung der tech­ni­schen Anschluss­be­din­gun­gen (TAB) an.
+Stel­lung­nahme – 20. Novem­ber 2023
+Stel­lung­nahme zum 2. Ent­wurf vom Netz­ent­wick­lungs­plan Strom
+Der BVES bie­tet seine Anmer­kun­gen zum 2. Ent­wurf für den Netz­ent­wick­lungs­plan Strom 2037 mit Aus­blick 2045.
+Posi­ti­ons­pa­pier – 14. Novem­ber 2023
+Stel­lung­nahme zur Bun­des­för­der­richt­li­nie Dekar­bo­ni­sie­rung der Indus­trie
+Die Bun­des­för­de­rung Indus­trie und Kli­ma­schutz sollte das Poten­zial von Ener­gie­spei­chern zur Dekar­bo­ni­sie­rung der Indus­trie ange­mes­sen berück­sich­ti­gen.
+Stel­lung­nahme – 14. Novem­ber 2023
+Stel­lung­nahme zur ange­mes­se­nen finan­zi­el­len Ver­gü­tung von Redis­­patch-Maß­­nah­­men
+Wie Ener­gie­spei­cher den Bedarf an Redis­patch-Maß­nah­men redu­zie­ren kön­nen
+Stel­lung­nahme – 4. Novem­ber 2023
+Stel­lung­nahme zur Momen­t­an­re­serve: Markt­be­tei­li­gung und Tech­no­lo­gie­of­fen­heit im Fokus
+BVES betei­ligt sich an Kon­sul­ta­ti­ons­ver­fah­ren der BNetzA zur Beschaf­fung von Momen­t­an­re­serve.
+Posi­ti­ons­pa­pier – 11. Okto­ber 2023
+Ver­bot von Per- und Poly­fluo­rierte Che­mi­ka­lien (PFAS): Bedeu­tung für Ener­gie­spei­cher­sys­teme
+Aktu­el­ler Stand der Dis­kus­sion und wirt­schaft­li­che Bewer­tun­gen des Ver­bots von PFAS für die Ener­gie­spei­cher­bran­che.
+Stel­lung­nahme – 7. Okto­ber 2023
+Stel­lung­nahme zur Aus­ge­stal­tung des Leit­fa­dens Wär­me­pla­nung und des Tech­nik­ka­ta­logs
+Der BVES unter­stützt die Inte­gra­tion von Ener­gie­spei­chern in den Leit­fa­den und Tech­nik­ka­ta­log und schlägt hier eine umfas­sen­dere und tech­no­lo­gie­of­fene Aus­ge­stal­tung
+Posi­ti­ons­pa­pier – 6. Okto­ber 2023
+Posi­ti­ons­pa­pier “Sai­so­nale Wär­me­spei­cher für die Ener­gie­wende”
+Sai­so­nale Wär­me­spei­cher sind eine Schlüs­sel­kom­po­nente, um erneu­er­bare Wärme effi­zi­ent zu spei­chern und zu nut­zen. Der Ein­satz sai­so­na­ler Wär­me­spei­cher ist viel­sei­tig
+Stel­lung­nahme – 27. Sep­tem­ber 2023
+Posi­tion zur Exper­ten­an­hö­rung im Aus­schuss für Kli­ma­schutz und Ener­gie im Bun­des­tag
+Die neue Posi­tion des BVES unter­streicht die Dring­lich­keit gesetz­li­cher Ände­run­gen für den Aus­bau von Fle­xi­bi­li­tät durch Ener­gie­spei­cher.
+Stel­lung­nahme – 29. August 2023
+Netz­ent­gelt­be­las­tung für Strom­spei­che­rung end­lich dau­er­haft besei­ti­gen
+Der BVES setzt sich für klare Regeln ein, um Netz­ent­gelte für zwi­schen­ge­spei­cher­ten Strom aus­zu­schlie­ßen und die Inves­ti­tio­nen in Spei­cher­pro­jekte zu
+Stel­lung­nahme – 5. Juli 2023
+Stel­lung­nahme zum Refe­ren­ten­ent­wurf (BMWK) für das Solar­pa­ket I
+In sei­ner Posi­tion for­dert der BVES for­dert die Sys­tem­in­te­gra­tion sola­rer Ener­gie­er­zeu­gung unter Berück­sich­ti­gung von Ener­gie­spei­cher­sys­te­men.
+Posi­ti­ons­pa­pier – 20. Juni 2023
+Von der Speich­er­de­fi­ni­tion zur Spei­cher­stra­te­gie
+Der mit der Ener­gie­speich­er­de­fi­ni­tion aus­ge­drückte poli­ti­sche Wille, die eigen­stän­dige Rolle von Ener­gie­spei­chern in den Ener­gie­märk­ten anzu­er­ken­nen, erfor­dert in der Pra­xis
+Stel­lung­nahme – 14. Juni 2023
+Stel­lung­nahme zum Refe­ren­ten­ent­wurf der Bun­des­re­gie­rung – Gesetz für die Wär­me­pla­nung und zur Dekar­bo­ni­sie­rung der Wär­me­netze
+Für das Gelin­gen der Wär­me­wende sind ther­mi­sche Ener­gie­spei­cher als eigen­stän­di­ger Teil der Wär­me­infra­struk­tur uner­läss­lich, die alle bereits heute vor­han­de­nen tech­ni­schen
+Posi­ti­ons­pa­pier – 9. Juni 2023
+Mehr Tempo bei der Trans­for­ma­tion der Wär­me­ver­sor­gung — Gemein­same Erklä­rung zum Fern­wär­me­gip­fel
+Für den kli­ma­neu­tra­len Um- und Aus­bau der Wär­me­netze sind Ener­gie­spei­cher eines der Schlüs­sel­ele­mente. Die Abschluss­erklä­rung zum Fern­wär­me­gip­fel am 12. Juni
+Grund­satz­pa­pier – 4. Mai 2023
+Green Energy To The Point
+We believe in energy sto­rage sys­tems as an indis­pensable part of the car­bon-free future energy sys­tem. Get to know our
+Posi­ti­ons­pa­pier – 4. April 2023
+Stel­lung­nahme zur Novelle der Richt­li­nie für die Bun­des­för­de­rung für Ener­­gie- und Res­sour­cen­ef­fi­ziez in der Wirt­schaft – Zuschuss und Kre­dit
+Indus­trie und Gewerbe suchen drin­gend pas­sende Lösun­gen, um lang­fris­tig in Deutsch­land pro­du­zie­ren zu kön­nen. Der BVES begrüßt daher die ste­tige
+Posi­ti­ons­pa­pier – 2. April 2023
+Die schöns­ten Bat­te­rien der Welt
+Pump­spei­cher sind die Groß­spei­cher­tech­no­lo­gie mit dem weit­aus größ­ten Anteil an den welt­wei­ten Kapa­zi­tä­ten zur Strom­spei­che­rung.
+Markt­ana­lyse – 28. März 2023
+BVES Sec­tor Ana­ly­sis 2023
+Deve­lo­p­ment and per­spec­ti­ves for the Ger­man Energy Sto­rage Sec­tor in 2023.
+BVES Bran­chen­ana­lyse 2023
+Ent­wick­lung und Per­spek­ti­ven der Ener­gie­spei­cher­bran­che in Deutsch­land im Jahr 2023.
+Grund­satz­pa­pier – 13. März 2023
+Ther­mi­sche Ener­gie­spei­cher
+Ener­gie­wende braucht Wär­me­wende — Wär­me­wende braucht Ener­gie­spei­cher. Für die Umset­zung der Wär­me­wende sind ther­mi­sche Ener­gie­spei­cher­tech­no­lo­gien zen­tral. Sie rea­li­sie­ren die Sek­to­ren­kopp­lung
+Grund­satz­pa­pier – 1. Januar 2023
+För­der­pro­gramme für Ener­gie­spei­cher in Deutsch­land.
+Der BVES stellt sei­nen Mit­glie­dern regel­mä­ßig einen Über­blick über die För­der­pro­gramme mit Ener­gie­spei­cher­be­zug zur Ver­fü­gung. Das Doku­ment wird regel­mä­ßig aktua­li­siert
+Stel­lung­nahme – 20. Dezem­ber 2022
+Stel­lung­nahme zum Ent­wurf eines Geset­zes zum Neu­start der Digi­ta­li­sie­rung der Ener­gie­wende (GNDEW)
+Stel­lung­nahme – 26. August 2022
+BVES Stel­lung­nahme zum Refe­ren­ten­ent­wurf des BMWK für die Ver­ord­nung zur Ände­rung der Ver­ord­nung über All­ge­meine Bedin­gun­gen für die Ver­sor­gung mit Fern­wärme. Vor­lie­gen­der Refe­ren­ten­ent­wurf vom 25. Juli 2022
+Fle­xi­bi­li­tät, Abwär­me­nut­zung und Ener­gie­ef­fi­zi­enz sind not­wen­dig für eine sichere Ver­sor­gung mit Fern­wärme. Der Refe­ren­ten­ent­wurf des BMWK vom 25. Juli 2022
+Stel­lung­nahme – 22. August 2022
+BVES Stel­lung­nahme zum Dis­kus­si­ons­pa­pier des BMWK: Kon­zept für die Umset­zung einer flä­chen­de­cken­den kom­mu­na­len Wär­me­pla­nung als zen­tra­les Koor­di­nie­rungs­in­stru­ment für lokale, effi­zi­ente Wär­me­nut­zung vom 28. Juli 2022
+Ener­gie­wende braucht Wär­me­wende. Die kom­mu­nale Wär­me­pla­nung ist dafür ein wich­ti­ger Schritt, in den alle rele­van­ten Akteure von Netz­be­trei­bern bis zu
+Posi­ti­ons­pa­pier – 1. Juli 2022
+Mas­ter­plan Lade­infra­struk­tur II
+Der Mas­ter­plan Lade­infra­struk­tur II soll die Ziele und die Maß­nah­men für den Aus­bau der Lade­infra­struk­tur defi­nie­ren. Der BVES for­dert u.
+Markt­ana­lyse – 6. April 2022
+BVES Sec­tor Ana­ly­sis 2022
+Deve­lo­p­ment and per­spec­ti­ves for the Ger­man Energy Sto­rage Sec­tor in 2022.
+BVES Bran­chen­ana­lyse 2022
+Ent­wick­lung und Per­spek­ti­ven der Ener­gie­spei­cher­bran­che in Deutsch­land im Jahr 2022. Die jähr­li­che Bran­chen­ana­lyse des BVES zu Markt­ent­wick­lung und Trends für
+Stel­lung­nahme – 22. März 2022
+Refe­ren­ten­ent­wurf zum Gesetz über die Elek­­tri­­zi­­täts- und Gas­ver­sor­gung (Ener­gie­wirt­schafts­ge­setz – EnWG)
+Fle­xi­bi­li­tät muss eine zen­trale Eigen­schaft des Ener­gie­sys­tems wer­den. Dafür muss das volle Poten­zial von Spei­cher­tech­no­lo­gien aus­ge­schöpft und im Ver­hält­nis zu
+Posi­ti­ons­pa­pier – 21. März 2022
+Schnelle und fle­xi­ble Errich­tung von Lade­stand­or­ten ohne Netz­aus­bau durch Lade­sta­tio­nen mit Puf­fer­spei­cher – Vor­teile für Deutsch­land­netz und wei­tere Pro­gramme
+Der Aus­bau der Lade­infra­struk­tur muss schnell erfol­gen und attrak­tive Lade­leis­tun­gen bie­ten.
+Stel­lung­nahme – 16. März 2022
+Refe­ren­ten­ent­wurf eines Geset­zes zu Sofort­maß­nah­men für einen beschleu­nig­ten Aus­bau der erneu­er­ba­ren Ener­gien und wei­te­ren Maß­nah­men im Strom­sek­tor
+Der Aus­bau erneu­er­ba­rer Ener­gien ist essen­zi­ell. Allein die Erzeu­gungs­spit­zen wei­ter zu erhö­hen wird nicht zu einem sta­bi­len Ener­gie­sys­tem füh­ren.
+Leit­fa­den – 12. Novem­ber 2021
+Gui­de­line for Fire Safety and Secu­rity for Large Scale Li-Ion Sto­rage Sys­tems
+This gui­de­line for pre­ven­tive and pro­tec­tive fire secu­rity with large scale lithium ion sto­rage sys­tems pro­vi­des ins­truc­tions and infor­ma­tion for
+Leit­fa­den zum vor­beu­gen­den und abweh­ren­den Brand­schutz für Li-Ionen Groß­spei­cher­sys­teme
+Die­ser Leit­fa­den zum vor­beu­gen­den und abweh­ren­den Brand­schutz bei Liti­hium-Ionen Groß­spei­cher­sys­te­men bie­tet Hin­weise und Infor­ma­tio­nen für Pla­ner, Bau­her­ren, Ein­satz­kräfte, Ver­si­che­run­gen und
+Posi­ti­ons­pa­pier – 8. Novem­ber 2021
+BVES Posi­tio­nie­rung zu den Ampel-Son­­die­run­­gen 2021
+Das Ergeb­nis der „Ampel-Son­die­run­gen“ kon­sta­tiert: „Für ener­gie­po­li­ti­sche Pro­jekte auch in Deutsch­land gilt das euro­päi­sche Ener­gie­recht“. Das ist in der Tat
+Leit­fa­den – 31. Okto­ber 2021
+Kom­pen­dium: Li-Ionen-Bat­te­rien
+Das Kom­pen­dium vom VDE Ver­band der Elek­tro­tech­nik Elek­tro­nik Infor­ma­ti­ons­tech­nik e.V. gibt einen Über­blick der Grund­la­gen, Merk­male sowie aktu­el­ler Gesetze und
+Stel­lung­nahme – 21. Sep­tem­ber 2021
+Stel­lung­nahme zum Ent­wurf der Elek­tri­schen Betriebs­raum Ver­ord­nung Elt­BauVO
+Der Ent­wurf sieht vor, dass Ener­gie­spei­cher­an­la­gen &gt;20 kWh in das Anwen­dungs­spek­trum der Ver­ord­nung über den Bau von Betrie­bräu­men für elek­tri­sche
+Leit­fa­den – 27. Juli 2021
+Sicher­heits­hin­weise für Anwen­der von Bat­te­rie­spei­chern bei Was­ser­schä­den und Hoch­was­ser
+Stel­lung­nahme – 25. Juli 2021
+BVES-Stel­­lun­g­­nahme zum Ent­wurf der »För­der­richt­li­nie für die Bun­des­för­de­rung für effi­zi­ente Wär­me­netze (BEW)« vom 16. Juli 2021
+Für den schnel­len Auf­bau effi­zi­en­ter Wär­me­netze sind ther­mi­sche Spei­cher uner­läss­lich.
+Grund­satz­pa­pier – 20. Juni 2021
+Facts­heet – Sen­si­bler (Wärme-)Wasserspeicher
+Facts­heet – Nie­­der­­te­m­­pe­ra­­tur-Laten­t­­wär­­me­s­pei­­cher
+Facts­heet – Hoch­­­te­m­­pe­ra­­tur-Laten­t­­wär­­me­s­pei­­cher
+Facts­heet – Fest­stoff­spei­cher für Hoch­tem­pe­ra­tur­wärme
+Grund­satz­pa­pier – 1. Juni 2021
+Facts­heet – Hoch­tem­pe­ra­tur Flüssigsalzspeicher
+Markt­ana­lyse – 15. März 2021
+BVES Bran­chen­ana­lyse 2021
+Ent­wick­lung und Per­spek­ti­ven der Ener­gie­spei­cher­bran­che in Deutsch­land im Jahr 2021.
+Posi­ti­ons­pa­pier, Stel­lung­nahme – 26. Januar 2021
+Stel­lung­nahme zum BMVI Refe­ren­ten­ent­wurf für das Schnell-Lade-Gesetz
+Der BVES begrüßt aus­drück­lich, dass die Bun­des­re­gie­rung sich dem zen­tra­len Thema Lade­infra­struk­tur ver­tieft annimmt. Im Rah­men der Stel­lung­nahme setzt sich
+Markt­ana­lyse – 12. Mai 2020
+BVES Bran­chen­ana­lyse 2020
+Ent­wick­lung und Per­spek­ti­ven der Ener­gie­spei­cher­bran­che in Deutsch­land im Jahr 2020.
+Leit­fa­den, Posi­ti­ons­pa­pier – 15. April 2019
+Effi­zi­enz­leit­fa­den für PV-Spei­­cher­­sys­­teme
+Der Effi­zi­enz­leit­fa­den Ver­bände BSW und BVES dient zur Cha­rak­te­ri­sie­rung der Wir­kungs­grade, des Standby-Ver­brauchs und der Rege­lungs­ef­fi­zi­enz von sta­tio­nä­ren Bat­te­rie­spei­cher­sys­te­men. Er
+Grund­satz­pa­pier – 19. Februar 2019
+Facts­heet – Vana­dium Redox-Flow Bat­te­rien
+Grund­satz­pa­pier – 19. Januar 2019
+Facts­heet – Orga­­nic-Flow-Bat­­te­rien
+Grund­satz­pa­pier – 20. Februar 2016
+Facts­heet – Sorp­ti­ons­spei­cher
+Facts­heet – Ther­mo­che­mi­sche Spei­cher
+Grund­satz­pa­pier – 19. Februar 2016
+Facts­heet – Schwun­g­rad-Ener­­gie­s­pei­­cher
+Facts­heet – Pump­spei­cher­werke (PSW)
+Facts­heet – Flüs­­si­g­­luft-Ener­­gie­s­pei­­cher (LAES)
+Facts­heet – Druck­luft­ener­gie­spei­cher (CAES)
+Facts­heet – Hoch­tem­pe­ra­tur­bat­te­rien
+Facts­heet – Blei-Säure Strom­spei­cher
+Facts­heet – Methan-Spei­­che­rung
+Grund­satz­pa­pier – 1. Februar 2016
+Facts­heet – Was­­ser­­stoff-Spei­­che­rung
+Grund­satz­pa­pier – 19. Januar 2016
+Facts­heet – Schwer­­kraft-Spei­­cher
+Facts­heet – Li-Ionen
+Leit­fa­den – 30. Novem­ber 2014
+Sicher­heits­leit­fa­den Li-Ionen-Haus­s­pei­­cher
+Der Leit­fa­den zielt dar­auf ab, die Sicher­heit bei der Ver­wen­dung der Lithium-Ionen-Bat­te­rie­spei­cher­sys­teme in Wohn­ge­bäu­den zu ver­bes­sern und auf ein ein­heit­li­ches
 Nach oben
 Der BVES
 Ener­gie­spei­cher
 Mit­glied wer­den
 EN
 BRAN­CHEN­NEWS
-PUBLI­KA­TIO­NEN
+PRES­SE­MIT­TEI­LUN­GEN
 VER­AN­STAL­TUN­GEN
 Auf­ga­ben &amp; Arbeit
 Per­so­nen &amp; Posi­tio­nen
@@ -31724,13 +31282,30 @@
 https://www.bves.de/datenschutz/
 _pk_*.*
 13 Monate
-This website uses cookies and third party services.
-OK
 DE
 previousnextslideshow</t>
         </is>
       </c>
-      <c r="D73" s="1" t="inlineStr">
+      <c r="E72" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="F72" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-11 09:08:21</t>
+        </is>
+      </c>
+      <c r="G72" s="1" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>https://www.bves.de/aktuelles/pressemitteilungen/</t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
         <is>
           <t>Aktu­el­les
 PRES­SE­MIT­TEI­LUN­GEN
@@ -31828,22 +31403,115 @@
 previousnextslideshow</t>
         </is>
       </c>
+      <c r="D73" s="1" t="inlineStr">
+        <is>
+          <t>Aktu­el­les
+PRES­SE­MIT­TEI­LUN­GEN
+2. Juli 2024
+BVES Sta­tus­kon­fe­renz: Wär­me­wende braucht Spei­cher — Brei­ter Appel für eine schnelle Wär­me­spei­cher­stra­te­gie
+Die Sta­tus­kon­fe­renz des BVES ver­deut­lichte einen brei­ten Appell für eine schnelle Ent­wick­lung der Wär­me­spei­cher­stra­te­gie …
+16. April 2024
+BVES: Netz­an­schluss­gip­fel schnell in die Pra­xis brin­gen!
+Der BVES unter­stützt den Netz­an­schluss­gip­fel und die Foku­sagenda des BMWK zur Beschleu­ni­gung von Netz­an­schlüs­sen …
+14. März 2024
+Bran­chen­zah­len 2024: Die Ener­gie­spei­cher­bran­che ebnet den Weg in die Erneu­er­bare Zukunft
+Ener­gie­spei­cher­bran­che boomt wei­ter: Mit einem Umsatz von 15,7 Mil­li­ar­den Euro hat die Bran­che ihre Erwar­tun­gen über­trof­fen und ver­zeich­net ein Wachs­tum …
+29. Februar 2024
+Netz­werk­platt­form Volta-Xch­ange geht an den Start
+Exklu­sive High-Level-Busi­ness-Platt­form lädt im Zwi­schen­jahr der Volta‑X zum Aus­tausch rund um eine nach­hal­tige Ener­gie­zu­kunft ein …
+5. Februar 2024
+BVES Groß­spei­cher­kon­fe­renz zeigt: Ohne Spei­cher keine Ener­gie­wende, ohne Regu­la­to­rik keine Spei­cher
+Auf der Kon­fe­renz “Groß­spei­cher für das Strom­netz” des BVES for­dert die Bran­che eine zügige Umset­zung der Strom­spei­cher­stra­te­gie und wei­tere Maß­nah­men …
+19. Dezem­ber 2023
+BVES: Vor­lage einer Strom­spei­cher­stra­te­gie der Bun­des­re­gie­rung ist ein Schritt in die rich­tige Rich­tung
+BVES begrüßt Vor­lage einer Strom­spei­cher­stra­te­gie der Bun­des­re­gie­rung …
+10. Novem­ber 2023
+BVES begrüßt Ver­län­ge­rung der Netz­ent­gel­ten­be­frei­ung für Spei­cher und for­dert lang­fris­tige Rechts­si­cher­heit
+Der BVES begrüßt die heute im Bun­des­tag beschlos­sene Ver­län­ge­rung der Netz­ent­gel­ten­be­frei­ung um wei­tere 3 Jahre …
+23. Juni 2023
+Volta‑X trifft Nerv der Zeit
+Erst­ver­an­stal­tung über­zeugt: Über 4.000 Fach­be­su­che­rIn­nen unter­strei­chen Rele­vanz der Volta‑X, der neuen Platt­form für intel­li­gente Ener­gie­lö­sun­gen. Indus­trie, Wis­sen­schaft und Poli­tik dis­ku­tier­ten …
+20. Juni 2023
+BVES prä­sen­tiert prak­ti­sche Spei­cher­stra­te­gie
+Im Rah­men eines par­la­men­ta­ri­schen Früh­stücks zum Thema “Ener­gie­sys­tem mit Zukunft — inte­grierte Betrach­tung von Erneu­er­ba­ren Ener­gien, Net­zen, Spei­chern &amp; Fle­xi­bi­li­tä­ten” …
+21. April 2023
+Bran­chen­zah­len 2023: Die Spei­cher­bran­che ist voll im Schwung
+Ener­gie­spei­cher­bran­che im Auf­wind: Mit einem Umsatz von 12,1 Mil­li­ar­den Euro hat die Bran­che ihre Erwar­tun­gen über­trof­fen und ver­zeich­net ein Wachs­tum …
+20. März 2023
+Volta‑X 2023 in Stutt­gart
+Die Fach­messe Volta‑X in Stutt­gart zeigt vom 28. bis 30. März die neu­es­ten Inno­va­tio­nen und Anwen­dungs­bei­spiele für eine nach­hal­tige Ener­gie­ver­sor­gung …
+Nach oben
+Der BVES
+Ener­gie­spei­cher
+Mit­glied wer­den
+EN
+BRAN­CHEN­NEWS
+PUBLI­KA­TIO­NEN
+VER­AN­STAL­TUN­GEN
+Auf­ga­ben &amp; Arbeit
+Per­so­nen &amp; Posi­tio­nen
+Bei­räte &amp; Fach­be­rei­che
+Haus­halte
+Indus­trie &amp; Gewerbe
+Sys­tem­in­fra­struk­tur
+Presse
+Kon­takt
+Daten­schutz
+Impres­sum
+© 2012 – 2023 • BVES – Bun­des­ver­band Ener­gie­spei­cher Sys­teme e.V.
+Datenschutzeinstellungen
+↓
+Wir benötigen Ihre Zustimmung, bevor Sie unsere Website weiter besuchen können.
+Wir verwenden Cookies und andere Technologien auf unserer Website. Einige von ihnen sind essenziell, während andere uns helfen, diese Website und Ihre Erfahrung zu verbessern. Personenbezogene Daten können verarbeitet werden (z. B. IP-Adressen), z. B. für personalisierte Anzeigen und Inhalte oder Anzeigen- und Inhaltsmessung. Weitere Informationen über die Verwendung Ihrer Daten finden Sie in unserer Datenschutzerklärung. Sie können Ihre Auswahl jederzeit unter Einstellungen widerrufen oder anpassen.
+Essenziell
+Statistiken
+Ich akzeptiere
+Nur essenzielle Cookies akzeptieren
+Individuelle Datenschutzeinstellungen
+Cookie-Details  Datenschutzerklärung  Impressum
+Wir verwenden Cookies und andere Technologien auf unserer Website. Einige von ihnen sind essenziell, während andere uns helfen, diese Website und Ihre Erfahrung zu verbessern. Personenbezogene Daten können verarbeitet werden (z. B. IP-Adressen), z. B. für personalisierte Anzeigen und Inhalte oder Anzeigen- und Inhaltsmessung. Weitere Informationen über die Verwendung Ihrer Daten finden Sie in unserer Datenschutzerklärung.
+Hier finden Sie eine Übersicht über alle verwendeten Cookies. Sie können Ihre Einwilligung zu ganzen Kategorien geben oder sich weitere Informationen anzeigen lassen und so nur bestimmte Cookies auswählen.
+Alle akzeptieren Speichern Nur essenzielle Cookies akzeptieren
+Zurück
+Essenziell (1)
+Essenzielle Cookies ermöglichen grundlegende Funktionen und sind für die einwandfreie Funktion der Website erforderlich.
+Cookie-Informationen anzeigen
+Statistiken (1)
+Statistik Cookies erfassen Informationen anonym. Diese Informationen helfen uns zu verstehen, wie unsere Besucher unsere Website nutzen.
+Datenschutzerklärung  Impressum
+Name
+Borlabs Cookie
+Anbieter
+Eigentümer dieser Website, Impressum
+Zweck
+Speichert die Einstellungen der Besucher, die in der Cookie Box von Borlabs Cookie ausgewählt wurden.
+Cookie Name
+borlabs-cookie
+Cookie Laufzeit
+1 Jahr
+Akzeptieren
+Matomo
+BVES
+Cookie von Matomo für Website-Analysen. Erzeugt statistische Daten darüber, wie der Besucher die Website nutzt.
+Datenschutzerklärung
+https://www.bves.de/datenschutz/
+_pk_*.*
+13 Monate
+DE
+previousnextslideshow</t>
+        </is>
+      </c>
       <c r="E73" s="1" t="inlineStr">
         <is>
-          <t>There is a change</t>
+          <t>No change</t>
         </is>
       </c>
       <c r="F73" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
-        </is>
-      </c>
-      <c r="G73" s="1" t="inlineStr">
-        <is>
-          <t>- This website uses cookies and third party services.
-- OK</t>
-        </is>
-      </c>
+          <t>2024-09-11 09:08:21</t>
+        </is>
+      </c>
+      <c r="G73" s="1" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -31857,152 +31525,6 @@
         </is>
       </c>
       <c r="C74" s="1" t="inlineStr">
-        <is>
-          <t>Menu
-Verband
-Energie
-Wasser/Abwasser
-Presse
-MAGAZIN
-Service
-Übersicht
-Erdgas, Strom und Heizwärme sowie Wasser und Abwasser. Der BDEW vertritt über 2000 Unternehmen.
-Zum Verband
-Über uns
-KMU-Vertretung
-BDEW-Vertretung bei der EU
-Landesorganisationen
-Mitglieder
-Mitglied werden
-Karriere
-Kontakt und Anfahrt
-Zum Magazin
-Dossiers
-Ausgewählte Themen der Energiewirtschaft auf einen Blick.
-Wasserstoff
-Digitalisierung
-Gas
-Themen
-Elektromobilität
-Energieeffizienz
-Energiepolitik
-Erneuerbare Energien
-Sektorkopplung
-Stromerzeugung
-Wärme
-Weitere Energiethemen
-Ausführliche Informationen und Hintergründe zu aktuellen Entwicklungen in der Trinkwasser- und Abwasserwirtschaft.
-Spurenstoffe in Gewässern
-Nitrat im Grundwasser
-Abwasser
-Benchmarking und Branchenbild
-Digitalisierung der Wasserwirtschaft
-Entgelte/Gebühren
-Kommunikation
-Ordnungspolitik
-Trinkwasser
-Weitere Wasser-/Abwasserthemen
-Informationen für Journalisten
-Zum Pressecenter
-Presseinformationen
-Pressemappen
-Pressefotos
-Ansprechpartner
-"Zweitausend50" - das Online-Magazin
-STARTSEITE
-Schnittstelle
-Schulden bremsen?
-Asia Calling
-Mobilität
-ZUR ÜBERSICHT
-Der BDEW erarbeitet Branchenpositionen, findet Lösungen, erstellt Zahlenmaterial und Grafiken und bereitet diverse Informationen rund um die Themen der Energie- und Wasserwirtschaft auf.
-Anwendungshilfen
-BDEW Codes
-Bildung und Schule
-Datenplattform Stromkennzeichnung
-EDI@Energy
-Standardverträge
-Stellungnahmen
-Veranstaltungen
-Marktprozesse im Überblick
-Zu Daten und Grafiken
-Suche
-Anmelden
-BDEW-Anwendungshilfen im Überblick
-Gewusst wie: Aktuelle Leitfäden und Umsetzungshilfen des BDEW zu den Themen der Energie- und Wasserwirtschaft.
-MEHR ERFAHREN
-BDEW-Strompreisanalyse Juli 2024
-Detallierte Infos zu Steuern, Abgaben und Umlagen: So haben sich die Preise für Haushalte und Industrie entwickelt.
-ZUR ANALYSE
-Trinkwassergebrauch in Hitzeperioden:
-BDEW-Tipps für einen schonenden Umgang mit Trinkwasser in Hitzeperioden
-ZUR PRESSEINFORMATION
-BDEW-Gaspreisanalyse
-Einfamilien- und Mehrfamilienhäuser: Aktuelle Entwicklung der Gaspreise für Haushaltskunden in Deutschland.
-Der BDEW in Zahlen 2024
-38
-51
-165
-Fachartikel
-&gt;2000
-In­stal­la­teur­ver­zeich­nis Strom/ Gas/ Wasser
-So gelangen Sie zu Ihren AnsprechpartnerInnen in den Landesinstallateurausschüssen
-Die wichtigsten Themen der Energie- und Wasserwirtschaft im Überblick.
-Elek­tro­mo­bi­li­tät
-Wir bringen die En­er­gie­wen­de in den Ver­kehrs­sek­tor
-En­er­gie­ef­fi­zi­enz
-Eine wichtige Säule der En­er­gie­wen­de und Zu­kunfts­bran­che der En­er­gie­wirt­schaft.
-EU DSO Entity (EUDE)
-EUDE wird neue VNB-Or­ga­ni­sa­ti­on in der Eu­ro­päi­schen Union
-Di­gi­ta­li­sie­rung
-Eine Branche erfindet sich neu. Im Fokus der di­gi­ta­li­sier­ten En­er­gie­welt steht der Kunde.
-Der Wär­me­markt ist mit rund 59 Prozent größte End­ener­gie­ver­brauchs­sek­tor Deutsch­lands.
-Mul­ti­ta­lent für die En­er­gie­wen­de und Partner der Er­neu­er­ba­ren Energien
-Trink­was­ser­schutz
-For­de­run­gen der Was­ser­wirt­schaft zum richtigen Umgang mit Me­di­ka­men­ten.
-Re­dis­patch 2.0
-Ziel ist das ef­fi­zi­en­te Beheben von Net­z­eng­päs­sen über alle Netz­ebe­nen hinweg - Die Bran­chen­lö­sung im BDEW
-Der Verband
-Strom, Erdgas und Wärme sowie Wasser und Abwasser. Der BDEW vertritt über 2.000 Unternehmen der Branche.
-Services des Verbandes
-Daten und Grafiken
-BDEW-Magazin
-ÜBER UNS
-NEUE MITGLIEDER
-LANDESORGANISATIONEN
-Der BDEW ist die "eine Stimme" der Energie- und Wasserwirtschaft
-Wir gestalten die Energiewende und sind verlässlicher Partner für Politik, Kunden und Gesellschaft.
-Daten/Grafiken
-Bereiche und Abteilungen
-Der BDEW in den sozialen Netzwerken:
-Zum Mitgliederbereich
-LOGIN
-2024 BDEW
-Rechtliches | Impressum | Datenschutz
-0
-BDEW-Ver­an­stal­tun­gen
-BDEW Kongress, Treffpunkt Netze und mehr – Seien Sie dabei!
-Mehr erfahren
-An­bie­ter­lis­te Dienst­leis­ter Re­dis­patch 2.0
-Auf der Website des BDEW finden Sie eine offene Liste mit Unternehmen, die Dienstleistungen für Anlagenbetreiber im Rahmen des neuen Redispatchregimes erbringen.
-Zur Anbieterliste
-Unterrichtsmaterialien zu aktuellen Energie- und Wasser/Abwasser-Themen
-Mehr
-BDEW-We­bi­na­re
-Die aktuellen Themen der Energie- und Wasserwirtschaft - kostenfrei für Mitgliedsunternehmen.
-Zu den Webinaren
-VN­Bdi­gi­tal
-Netzanschluss, Netzausbaupläne und Regionalszenarien: Das Netzportal der Verteilnetzbetreiber
-Zum Portal
-Alles Wasser Volt
-Deine Zukunft für eine nachhaltige Zukunft: Bewirb Dich jetzt in der Energie- und Wasserwirtschaft
-Der BDEW begrüßt seine neuen Mitglieder
-Verstärkung für den BDEW: Erfahren Sie mehr über unsere neuen Mitglieder.
-Für Sie vor Ort: Die Landesorganisationen sind Ihr regionaler Ansprechpartner.
-Sie übernehmen die  Interessenvertretung und bearbeiten länderspezifische Themen.</t>
-        </is>
-      </c>
-      <c r="D74" s="1" t="inlineStr">
         <is>
           <t>Menu
 Verband
@@ -32149,54 +31671,7 @@
 Sie übernehmen die  Interessenvertretung und bearbeiten länderspezifische Themen.</t>
         </is>
       </c>
-      <c r="E74" s="1" t="inlineStr">
-        <is>
-          <t>There is a change</t>
-        </is>
-      </c>
-      <c r="F74" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-10 06:48:27</t>
-        </is>
-      </c>
-      <c r="G74" s="1" t="inlineStr">
-        <is>
-          <t>+ Marktprozesse im Überblick
-- Marktprozesse im Überblick
-- BDEW-Anwendungshilfen im Überblick
-- Gewusst wie: Aktuelle Leitfäden und Umsetzungshilfen des BDEW zu den Themen der Energie- und Wasserwirtschaft.
-- MEHR ERFAHREN
-+ BDEW fordert „Integrierten Kapazitätsmarkt“
-+ „Strommarktdesign der Zukunft“ - BDEW-Stellungnahme zu aktuellem BMWK-Papier.
-+ ZUR STELLUNGNAHME
-- Trinkwassergebrauch in Hitzeperioden:
-- BDEW-Tipps für einen schonenden Umgang mit Trinkwasser in Hitzeperioden
-- ZUR PRESSEINFORMATION
-+ Anwendungshilfen im Überblick
-+ Gewusst wie: Aktuelle Leitfäden und Umsetzungshilfen des BDEW zu den Themen der Energie- und Wasserwirtschaft.
-+ MEHR ERFAHREN
-- In­stal­la­teur­ver­zeich­nis Strom/ Gas/ Wasser
-- So gelangen Sie zu Ihren AnsprechpartnerInnen in den Landesinstallateurausschüssen
-+ BDEW-We­bi­na­re
-+ Die aktuellen Themen der Energie- und Wasserwirtschaft - kostenfrei für Mitgliedsunternehmen.
-+ ZU DEN WEBINAREN
-- BDEW-We­bi­na­re
-- Die aktuellen Themen der Energie- und Wasserwirtschaft - kostenfrei für Mitgliedsunternehmen.
-- Zu den Webinaren
-+ In­stal­la­teur­ver­zeich­nis Strom/ Gas/ Wasser
-+ So gelangen Sie zu Ihren AnsprechpartnerInnen in den Landesinstallateurausschüssen
-+ Zur Übersicht</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n"/>
-      <c r="B75" s="1" t="inlineStr">
-        <is>
-          <t>https://www.bdew.de/energie/erneuerbare-energien/</t>
-        </is>
-      </c>
-      <c r="C75" s="1" t="inlineStr">
+      <c r="D74" s="1" t="inlineStr">
         <is>
           <t>Menu
 Verband
@@ -32263,62 +31738,106 @@
 EDI@Energy
 Standardverträge
 Stellungnahmen
+Marktprozesse im Überblick
 Veranstaltungen
-Marktprozesse im Überblick
 Zu Daten und Grafiken
 Suche
 Anmelden
-Energie  Erneuerbare Energien
-Art des Inhalts
-Typ
-ZURÜCKSETZEN SUCHEN
-GRAFIK
-30.08.2024
-Wind­ener­gie­an­la­gen in Deutsch­land
-Anzahl und in­stal­lier­te Leistung nach Bun­des­län­dern bzw. Nord-und Ostsee
-STEL­LUNG­NAH­ME
-BDEW-Stel­lung­nah­me zum Re­fe­ren­ten­ent­wurf eines Gesetzes zur Umsetzung der RED III für Zu­las­sungs­verf ...
-PRES­SE­INFOR­MA­TI­ON
-Wichtige Ent­las­tung für Regionen mit besonders hohem Er­neu­er­ba­ren-Aus­bau
-Die Bun­des­netz­agen­tur (BNetzA) hat heute eine Fest­le­gung zur Ver­tei­lung der Mehr­kos­ten ver­öf­fent­licht, die in Strom­ver­tei­ler­net­zen mit besonders...
-29.08.2024
-BDEW-Stel­lung­nah­me zu den na­tur­schutz­fach­li­chen Min­dest­kri­te­ri­en bei PV-Frei­flä­chen­an­la­gen in Verbin ...
-20.08.2024
-Mo­nat­li­che Strom­er­zeu­gung in Deutsch­land
-Mo­nat­li­che Strom­er­zeu­gung aus Er­neu­er­ba­ren Energien
-Brut­to­strom­er­zeu­gung, Ver­än­de­rung zum Vor­jah­res­zeit­raum in Prozent
-Was­ser­kraft in Deutsch­land
-Nutzung der Was­ser­kraft in Deutsch­land – in­stal­lier­te Leistung und Strom­er­zeu­gung
-Mo­nat­li­che Strom­er­zeu­gung aus So­lar­ener­gie in Deutsch­land
-19.08.2024
-Kerstin Andreae zum Bun­des­haus­halt 2025 und zum KTF
-+ Globale Min­der­aus­ga­be ist deutlich zu groß bemessen und schürt Un­si­cher­heit + Wär­me­net­ze brauchen starke Förderung + Um­schich­tung des...
-16.08.2024
-Kerstin Andreae zur Einigung auf den Bun­des­haus­halt 2025
-Am heutigen Freitag hat sich die Am­pel-Ko­ali­ti­on auf den Bun­des­haus­halt 2025 geeinigt. Hierzu erklärt Kerstin Andreae, Vor­sit­zen­de der...
-602 Ergebnisse | Seite
-1
-2
-3
-4
-5
-6
-›
-»
+BDEW fordert „Integrierten Kapazitätsmarkt“
+„Strommarktdesign der Zukunft“ - BDEW-Stellungnahme zu aktuellem BMWK-Papier.
+ZUR STELLUNGNAHME
+BDEW-Strompreisanalyse Juli 2024
+Detallierte Infos zu Steuern, Abgaben und Umlagen: So haben sich die Preise für Haushalte und Industrie entwickelt.
+ZUR ANALYSE
+Anwendungshilfen im Überblick
+Gewusst wie: Aktuelle Leitfäden und Umsetzungshilfen des BDEW zu den Themen der Energie- und Wasserwirtschaft.
+MEHR ERFAHREN
+BDEW-Gaspreisanalyse
+Einfamilien- und Mehrfamilienhäuser: Aktuelle Entwicklung der Gaspreise für Haushaltskunden in Deutschland.
+Der BDEW in Zahlen 2024
+38
+51
+165
+Fachartikel
+&gt;2000
+BDEW-We­bi­na­re
+Die aktuellen Themen der Energie- und Wasserwirtschaft - kostenfrei für Mitgliedsunternehmen.
+ZU DEN WEBINAREN
+Die wichtigsten Themen der Energie- und Wasserwirtschaft im Überblick.
+Elek­tro­mo­bi­li­tät
+Wir bringen die En­er­gie­wen­de in den Ver­kehrs­sek­tor
+En­er­gie­ef­fi­zi­enz
+Eine wichtige Säule der En­er­gie­wen­de und Zu­kunfts­bran­che der En­er­gie­wirt­schaft.
+EU DSO Entity (EUDE)
+EUDE wird neue VNB-Or­ga­ni­sa­ti­on in der Eu­ro­päi­schen Union
+Di­gi­ta­li­sie­rung
+Eine Branche erfindet sich neu. Im Fokus der di­gi­ta­li­sier­ten En­er­gie­welt steht der Kunde.
+Der Wär­me­markt ist mit rund 59 Prozent größte End­ener­gie­ver­brauchs­sek­tor Deutsch­lands.
+Mul­ti­ta­lent für die En­er­gie­wen­de und Partner der Er­neu­er­ba­ren Energien
+Trink­was­ser­schutz
+For­de­run­gen der Was­ser­wirt­schaft zum richtigen Umgang mit Me­di­ka­men­ten.
+Re­dis­patch 2.0
+Ziel ist das ef­fi­zi­en­te Beheben von Net­z­eng­päs­sen über alle Netz­ebe­nen hinweg - Die Bran­chen­lö­sung im BDEW
+Der Verband
+Strom, Erdgas und Wärme sowie Wasser und Abwasser. Der BDEW vertritt über 2.000 Unternehmen der Branche.
+Services des Verbandes
+Daten und Grafiken
+BDEW-Magazin
+ÜBER UNS
+NEUE MITGLIEDER
+LANDESORGANISATIONEN
+Der BDEW ist die "eine Stimme" der Energie- und Wasserwirtschaft
+Wir gestalten die Energiewende und sind verlässlicher Partner für Politik, Kunden und Gesellschaft.
 Daten/Grafiken
 Bereiche und Abteilungen
-BDEW-Magazin
 Der BDEW in den sozialen Netzwerken:
 Zum Mitgliederbereich
 LOGIN
 2024 BDEW
 Rechtliches | Impressum | Datenschutz
 0
-StellungnahmenPresseinformationDossierVeranstaltungenArtikelAnwendungshilfenMagazinGrafikPublikationKeine Ergebnisse gefunden
-Erneuerbare EnergienAbfallAbsatz und VerbrauchAbwasserAnreizregulierungArzneimittelrückständeAus dem VerbandAusschreibungenAVVBafaBatteriespeicherBetriebswirtschaftBildung und SchuleBiogas / BiomethanBiomasseBNetzABNKBürokratieabbauCO2ContractingCorona-VirusDaten und AnalysenDaten/GrafikenDekarbonisierungDezentrale ErzeugungDigitalisierungDirektvermarktungDownloadcenter GasEEGEffizienzEigenerzeugungEigenkapitalverzinsungEigenverbrauchElektromobilitätEmissionsgrenzwerteEmissionszertifikatehandelEnergieEnergie allgemeinEnergie- und KlimapolitikEnergie- und Wasserdaten interaktivEnergieberatungEnergiebinnenmarktEnergiedienstleistungenEnergieeffizienzEnergieeinsparungEnergiehandelEnergieinfrastrukturEnergienetze und RegulierungEnergiepolitikEnergiepreiseEnergiepreiskriseEnergiespeicherEnergieversorgungEnergievertriebEnergiewendeEnergiewirtschaftEntflechtungEntgelte / GebührenEnWGErdgasErzeugungErzeugung und SystemintegrationEuropaEuropäische BeihilfepolitikFachkräfteFernwärmeFinanzierungFlexibilitätFörderungForschung und EntwicklungGasGas-MarketingGasanwendungenGasmarktGasmobilitätGasspeicherGebührenGenehmigungsverfahrenGeschäftsmodelleGesetzeGesetze und VerordnungenGrafikenGrünes GasHandelHeizkostenHeizungHeizungsmarktImmissionsschutzrechtImportIndustrieInfrastrukturInnovationInternationalesInvestitionenITIT-SicherheitKapazitätKennzahlenklimaneutrales GasKlimaschutzKlimawandelKMUKohleKohleausstiegKommunikationKonventionelle EnergienKraft-Wärme-KopplungKraftwerkeKritische InfrastrukturenKWKKWK-GLadeinfrastrukturLeitungs- und WegerechtLNGMagazin Asia CallingMagazin AufbruchMagazin DynamikMagazin EuropaMagazin GeldMagazin Generation NeuMagazin InfrastrukturMagazin MobilitätMagazin PerspektiveMagazin RisikoMagazin SchnittstelleMagazin Schulden bremsen?Magazin Stadt Land FlussMagazin StoffwechselMagazin WachstumMagazin Wer rettet den Markt?Markt- und SystemintegrationMarktdesignMarktpartnerMarktstammdatenMediathek GasMieterstromMobilitätModernisierungNaturschutzNetwork CodesNetzanschlussNetzausbauNetzbetreiberNetzeNetzentgelteNetzwirtschaftNetzzugangoffshoreOffshore-AusbauonshorePhotovoltaikPlusPower-to-GasPower-to-XPreisePressegrafikPrimärenergiePumpspeicherRechtRedispatchRegulierungsbehördeSektorkopplungSmart CitySmart GridsSmart MeterSolarthermieSpeicherStadtwerkeStart-upStatistikStromStromerzeugungStromkennzeichnungStromsteuerStudienSystemstabilitätTechnologienTelekommunikationTrinkwasserÜbertragungsnetzbetreiberUkraineUkraine-KriegUmlageUmwelt und KlimaUmweltpolitikUmweltschutzVerbrauchVerbraucherVerkehrVersorgungssicherheitVerteilnetzbetreiberVertriebWärmeWärmemarktWärmenetzWärmewendeWasserWasser/AbwasserWasserkraftWasserrechtWasserstoffWasserwirtschaftWettbewerbWindenergieWohnungswirtschaftZahl der WocheKeine Ergebnisse gefunden</t>
-        </is>
-      </c>
-      <c r="D75" s="1" t="inlineStr">
+BDEW-Ver­an­stal­tun­gen
+BDEW Kongress, Treffpunkt Netze und mehr – Seien Sie dabei!
+Mehr erfahren
+An­bie­ter­lis­te Dienst­leis­ter Re­dis­patch 2.0
+Auf der Website des BDEW finden Sie eine offene Liste mit Unternehmen, die Dienstleistungen für Anlagenbetreiber im Rahmen des neuen Redispatchregimes erbringen.
+Zur Anbieterliste
+Unterrichtsmaterialien zu aktuellen Energie- und Wasser/Abwasser-Themen
+Mehr
+In­stal­la­teur­ver­zeich­nis Strom/ Gas/ Wasser
+So gelangen Sie zu Ihren AnsprechpartnerInnen in den Landesinstallateurausschüssen
+Zur Übersicht
+VN­Bdi­gi­tal
+Netzanschluss, Netzausbaupläne und Regionalszenarien: Das Netzportal der Verteilnetzbetreiber
+Zum Portal
+Alles Wasser Volt
+Deine Zukunft für eine nachhaltige Zukunft: Bewirb Dich jetzt in der Energie- und Wasserwirtschaft
+Der BDEW begrüßt seine neuen Mitglieder
+Verstärkung für den BDEW: Erfahren Sie mehr über unsere neuen Mitglieder.
+Für Sie vor Ort: Die Landesorganisationen sind Ihr regionaler Ansprechpartner.
+Sie übernehmen die  Interessenvertretung und bearbeiten länderspezifische Themen.</t>
+        </is>
+      </c>
+      <c r="E74" s="1" t="inlineStr">
+        <is>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="F74" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-11 09:08:21</t>
+        </is>
+      </c>
+      <c r="G74" s="1" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>https://www.bdew.de/energie/erneuerbare-energien/</t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="inlineStr">
         <is>
           <t>Menu
 Verband
@@ -32441,6 +31960,129 @@
 Erneuerbare EnergienAbfallAbsatz und VerbrauchAbwasserAnreizregulierungArzneimittelrückständeAus dem VerbandAusschreibungenAVVBafaBatteriespeicherBetriebswirtschaftBildung und SchuleBiogas / BiomethanBiomasseBNetzABNKBürokratieabbauCO2ContractingCorona-VirusDaten und AnalysenDaten/GrafikenDekarbonisierungDezentrale ErzeugungDigitalisierungDirektvermarktungDownloadcenter GasEEGEffizienzEigenerzeugungEigenkapitalverzinsungEigenverbrauchElektromobilitätEmissionsgrenzwerteEmissionszertifikatehandelEnergieEnergie allgemeinEnergie- und KlimapolitikEnergie- und Wasserdaten interaktivEnergieberatungEnergiebinnenmarktEnergiedienstleistungenEnergieeffizienzEnergieeinsparungEnergiehandelEnergieinfrastrukturEnergienetze und RegulierungEnergiepolitikEnergiepreiseEnergiepreiskriseEnergiespeicherEnergieversorgungEnergievertriebEnergiewendeEnergiewirtschaftEntflechtungEntgelte / GebührenEnWGErdgasErzeugungErzeugung und SystemintegrationEuropaEuropäische BeihilfepolitikFachkräfteFernwärmeFinanzierungFlexibilitätFörderungForschung und EntwicklungGasGas-MarketingGasanwendungenGasmarktGasmobilitätGasspeicherGebührenGenehmigungsverfahrenGeschäftsmodelleGesetzeGesetze und VerordnungenGrafikenGrünes GasHandelHeizkostenHeizungHeizungsmarktImmissionsschutzrechtImportIndustrieInfrastrukturInnovationInternationalesInvestitionenITIT-SicherheitKapazitätKennzahlenklimaneutrales GasKlimaschutzKlimawandelKMUKohleKohleausstiegKommunikationKonventionelle EnergienKraft-Wärme-KopplungKraftwerkeKritische InfrastrukturenKWKKWK-GLadeinfrastrukturLeitungs- und WegerechtLNGMagazin Asia CallingMagazin AufbruchMagazin DynamikMagazin EuropaMagazin FokusMagazin GeldMagazin Generation NeuMagazin InfrastrukturMagazin MobilitätMagazin PerspektiveMagazin RisikoMagazin SchnittstelleMagazin Schulden bremsen?Magazin Stadt Land FlussMagazin StoffwechselMagazin WachstumMagazin Wer rettet den Markt?Markt- und SystemintegrationMarktdesignMarktpartnerMarktstammdatenMediathek GasMieterstromMobilitätModernisierungNaturschutzNetwork CodesNetzanschlussNetzausbauNetzbetreiberNetzeNetzentgelteNetzwirtschaftNetzzugangoffshoreOffshore-AusbauonshorePhotovoltaikPlusPower-to-GasPower-to-XPreisePressegrafikPrimärenergiePumpspeicherRechtRedispatchRegulierungsbehördeSektorkopplungSmart CitySmart GridsSmart MeterSolarthermieSpeicherStadtwerkeStart-upStatistikStromStromerzeugungStromkennzeichnungStromsteuerStudienSystemstabilitätTechnologienTelekommunikationTrinkwasserÜbertragungsnetzbetreiberUkraineUkraine-KriegUmlageUmwelt und KlimaUmweltpolitikUmweltschutzVerbrauchVerbraucherVerkehrVersorgungssicherheitVerteilnetzbetreiberVertriebWärmeWärmemarktWärmenetzWärmewendeWasserWasser/AbwasserWasserkraftWasserrechtWasserstoffWasserwirtschaftWettbewerbWindenergieWohnungswirtschaftZahl der WocheKeine Ergebnisse gefunden</t>
         </is>
       </c>
+      <c r="D75" s="1" t="inlineStr">
+        <is>
+          <t>Menu
+Verband
+Energie
+Wasser/Abwasser
+Presse
+MAGAZIN
+Service
+Übersicht
+Erdgas, Strom und Heizwärme sowie Wasser und Abwasser. Der BDEW vertritt über 2000 Unternehmen.
+Zum Verband
+Über uns
+KMU-Vertretung
+BDEW-Vertretung bei der EU
+Landesorganisationen
+Mitglieder
+Mitglied werden
+Karriere
+Kontakt und Anfahrt
+Zum Magazin
+Dossiers
+Ausgewählte Themen der Energiewirtschaft auf einen Blick.
+Wasserstoff
+Digitalisierung
+Gas
+Themen
+Elektromobilität
+Energieeffizienz
+Energiepolitik
+Erneuerbare Energien
+Sektorkopplung
+Stromerzeugung
+Wärme
+Weitere Energiethemen
+Ausführliche Informationen und Hintergründe zu aktuellen Entwicklungen in der Trinkwasser- und Abwasserwirtschaft.
+Spurenstoffe in Gewässern
+Nitrat im Grundwasser
+Abwasser
+Benchmarking und Branchenbild
+Digitalisierung der Wasserwirtschaft
+Entgelte/Gebühren
+Kommunikation
+Ordnungspolitik
+Trinkwasser
+Weitere Wasser-/Abwasserthemen
+Informationen für Journalisten
+Zum Pressecenter
+Presseinformationen
+Pressemappen
+Pressefotos
+Ansprechpartner
+"Zweitausend50" - das Online-Magazin
+STARTSEITE
+Schnittstelle
+Schulden bremsen?
+Asia Calling
+Mobilität
+ZUR ÜBERSICHT
+Der BDEW erarbeitet Branchenpositionen, findet Lösungen, erstellt Zahlenmaterial und Grafiken und bereitet diverse Informationen rund um die Themen der Energie- und Wasserwirtschaft auf.
+Anwendungshilfen
+BDEW Codes
+Bildung und Schule
+Datenplattform Stromkennzeichnung
+EDI@Energy
+Standardverträge
+Stellungnahmen
+Marktprozesse im Überblick
+Veranstaltungen
+Zu Daten und Grafiken
+Suche
+Anmelden
+Energie  Erneuerbare Energien
+Art des Inhalts
+Typ
+ZURÜCKSETZEN SUCHEN
+STEL­LUNG­NAH­ME
+10.09.2024
+BDEW-Po­si­ti­ons­pa­pier zur Anpassung der Off­shore-Rea­li­sie­rungs­fris­ten nach § 81 WindSeeG und § 17 EnW ...
+PRES­SE­INFOR­MA­TI­ON
+06.09.2024
+BDEW fordert In­te­grier­ten Ka­pa­zi­täts­markt
+Der BDEW hat heute seine Stel­lung­nah­me zum Papier „Strom­markt der Zukunft“ des Bun­des­wirt­schafts­mi­nis­te­ri­ums ein­ge­reicht. Hierzu erklärt Kerstin...
+BDEW-Stel­lung­nah­me zum BMWK-Pa­pier „Strom­markt­de­sign der Zukunft“
+Ausbau der Er­neu­er­ba­ren nicht gefährden, Anreize für Fle­xi­bi­li­tät bei­be­hal­ten, Vertrauen in In­ves­ti­ons­stand­ort ge­währ­leis­ten.
+05.09.2024
+Größere Be­schleu­ni­gungs­ef­fek­te nicht in Sicht
+Das Bun­des­ka­bi­nett hat gestern hat ein Gesetz zur Be­schleu­ni­gung von Ge­neh­mi­gungs­ver­fah­ren für Geo­ther­mie­an­la­gen, Wär­me­pum­pen und Wär­me­spei­chern...
+GRAFIK
+30.08.2024
+Wind­ener­gie­an­la­gen in Deutsch­land
+Anzahl und in­stal­lier­te Leistung nach Bun­des­län­dern bzw. Nord-und Ostsee
+BDEW-Stel­lung­nah­me zum Re­fe­ren­ten­ent­wurf eines Gesetzes zur Umsetzung der RED III für Zu­las­sungs­verf ...
+Wichtige Ent­las­tung für Regionen mit besonders hohem Er­neu­er­ba­ren-Aus­bau
+Die Bun­des­netz­agen­tur (BNetzA) hat heute eine Fest­le­gung zur Ver­tei­lung der Mehr­kos­ten ver­öf­fent­licht, die in Strom­ver­tei­ler­net­zen mit besonders...
+29.08.2024
+BDEW-Stel­lung­nah­me zu den na­tur­schutz­fach­li­chen Min­dest­kri­te­ri­en bei PV-Frei­flä­chen­an­la­gen in Verbin ...
+20.08.2024
+Mo­nat­li­che Strom­er­zeu­gung in Deutsch­land
+Mo­nat­li­che Strom­er­zeu­gung aus Er­neu­er­ba­ren Energien
+Brut­to­strom­er­zeu­gung, Ver­än­de­rung zum Vor­jah­res­zeit­raum in Prozent
+607 Ergebnisse | Seite
+1
+2
+3
+4
+5
+6
+›
+»
+Daten/Grafiken
+Bereiche und Abteilungen
+BDEW-Magazin
+Der BDEW in den sozialen Netzwerken:
+Zum Mitgliederbereich
+LOGIN
+2024 BDEW
+Rechtliches | Impressum | Datenschutz
+0
+StellungnahmenPresseinformationDossierVeranstaltungenArtikelAnwendungshilfenMagazinGrafikPublikationKeine Ergebnisse gefunden
+Erneuerbare EnergienAbfallAbsatz und VerbrauchAbwasserAnreizregulierungArzneimittelrückständeAus dem VerbandAusschreibungenAVVBafaBatteriespeicherBetriebswirtschaftBildung und SchuleBiogas / BiomethanBiomasseBNetzABNKBürokratieabbauCO2ContractingCorona-VirusDaten und AnalysenDaten/GrafikenDekarbonisierungDezentrale ErzeugungDigitalisierungDirektvermarktungDownloadcenter GasEEGEffizienzEigenerzeugungEigenkapitalverzinsungEigenverbrauchElektromobilitätEmissionsgrenzwerteEmissionszertifikatehandelEnergieEnergie allgemeinEnergie- und KlimapolitikEnergie- und Wasserdaten interaktivEnergieberatungEnergiebinnenmarktEnergiedienstleistungenEnergieeffizienzEnergieeinsparungEnergiehandelEnergieinfrastrukturEnergienetze und RegulierungEnergiepolitikEnergiepreiseEnergiepreiskriseEnergiespeicherEnergieversorgungEnergievertriebEnergiewendeEnergiewirtschaftEntflechtungEntgelte / GebührenEnWGErdgasErzeugungErzeugung und SystemintegrationEuropaEuropäische BeihilfepolitikFachkräfteFernwärmeFinanzierungFlexibilitätFörderungForschung und EntwicklungGasGas-MarketingGasanwendungenGasmarktGasmobilitätGasspeicherGebührenGenehmigungsverfahrenGeschäftsmodelleGesetzeGesetze und VerordnungenGrafikenGrünes GasHandelHeizkostenHeizungHeizungsmarktImmissionsschutzrechtImportIndustrieInfrastrukturInnovationInternationalesInvestitionenITIT-SicherheitKapazitätKennzahlenklimaneutrales GasKlimaschutzKlimawandelKMUKohleKohleausstiegKommunikationKonventionelle EnergienKraft-Wärme-KopplungKraftwerkeKritische InfrastrukturenKWKKWK-GLadeinfrastrukturLeitungs- und WegerechtLNGMagazin Asia CallingMagazin AufbruchMagazin DynamikMagazin EuropaMagazin FokusMagazin GeldMagazin Generation NeuMagazin InfrastrukturMagazin MobilitätMagazin PerspektiveMagazin RisikoMagazin SchnittstelleMagazin Schulden bremsen?Magazin Stadt Land FlussMagazin StoffwechselMagazin WachstumMagazin Wer rettet den Markt?Markt- und SystemintegrationMarktdesignMarktpartnerMarktstammdatenMediathek GasMieterstromMobilitätModernisierungNaturschutzNetwork CodesNetzanschlussNetzausbauNetzbetreiberNetzeNetzentgelteNetzwirtschaftNetzzugangoffshoreOffshore-AusbauonshorePhotovoltaikPlusPower-to-GasPower-to-XPreisePressegrafikPrimärenergiePumpspeicherRechtRedispatchRegulierungsbehördeSektorkopplungSmart CitySmart GridsSmart MeterSolarthermieSpeicherStadtwerkeStart-upStatistikStromStromerzeugungStromkennzeichnungStromsteuerStudienSystemstabilitätTechnologienTelekommunikationTrinkwasserÜbertragungsnetzbetreiberUkraineUkraine-KriegUmlageUmwelt und KlimaUmweltpolitikUmweltschutzVerbrauchVerbraucherVerkehrVersorgungssicherheitVerteilnetzbetreiberVertriebWärmeWärmemarktWärmenetzWärmewendeWasserWasser/AbwasserWasserkraftWasserrechtWasserstoffWasserwirtschaftWettbewerbWindenergieWohnungswirtschaftZahl der WocheKeine Ergebnisse gefunden</t>
+        </is>
+      </c>
       <c r="E75" s="1" t="inlineStr">
         <is>
           <t>There is a change</t>
@@ -32448,36 +32090,19 @@
       </c>
       <c r="F75" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10 06:48:27</t>
+          <t>2024-09-11 09:08:21</t>
         </is>
       </c>
       <c r="G75" s="1" t="inlineStr">
         <is>
-          <t>+ Marktprozesse im Überblick
-- Marktprozesse im Überblick
-+ PRES­SE­INFOR­MA­TI­ON
-+ 06.09.2024
-+ BDEW fordert In­te­grier­ten Ka­pa­zi­täts­markt
-+ Der BDEW hat heute seine Stel­lung­nah­me zum Papier „Strom­markt der Zukunft“ des Bun­des­wirt­schafts­mi­nis­te­ri­ums ein­ge­reicht. Hierzu erklärt Kerstin...
-+ STEL­LUNG­NAH­ME
-+ BDEW-Stel­lung­nah­me zum BMWK-Pa­pier „Strom­markt­de­sign der Zukunft“
-+ Ausbau der Er­neu­er­ba­ren nicht gefährden, Anreize für Fle­xi­bi­li­tät bei­be­hal­ten, Vertrauen in In­ves­ti­ons­stand­ort ge­währ­leis­ten.
-+ 05.09.2024
-+ Größere Be­schleu­ni­gungs­ef­fek­te nicht in Sicht
-+ Das Bun­des­ka­bi­nett hat gestern hat ein Gesetz zur Be­schleu­ni­gung von Ge­neh­mi­gungs­ver­fah­ren für Geo­ther­mie­an­la­gen, Wär­me­pum­pen und Wär­me­spei­chern...
+          <t>+ STEL­LUNG­NAH­ME
++ 10.09.2024
++ BDEW-Po­si­ti­ons­pa­pier zur Anpassung der Off­shore-Rea­li­sie­rungs­fris­ten nach § 81 WindSeeG und § 17 EnW ...
 - STEL­LUNG­NAH­ME
-- PRES­SE­INFOR­MA­TI­ON
-- Mo­nat­li­che Strom­er­zeu­gung aus So­lar­ener­gie in Deutsch­land
-- 19.08.2024
-- Kerstin Andreae zum Bun­des­haus­halt 2025 und zum KTF
-- + Globale Min­der­aus­ga­be ist deutlich zu groß bemessen und schürt Un­si­cher­heit + Wär­me­net­ze brauchen starke Förderung + Um­schich­tung des...
-- 16.08.2024
-- Kerstin Andreae zur Einigung auf den Bun­des­haus­halt 2025
-- Am heutigen Freitag hat sich die Am­pel-Ko­ali­ti­on auf den Bun­des­haus­halt 2025 geeinigt. Hierzu erklärt Kerstin Andreae, Vor­sit­zen­de der...
-- 602 Ergebnisse | Seite
-+ 606 Ergebnisse | Seite
-- Erneuerbare EnergienAbfallAbsatz und VerbrauchAbwasserAnreizregulierungArzneimittelrückständeAus dem VerbandAusschreibungenAVVBafaBatteriespeicherBetriebswirtschaftBildung und SchuleBiogas / BiomethanBiomasseBNetzABNKBürokratieabbauCO2ContractingCorona-VirusDaten und AnalysenDaten/GrafikenDekarbonisierungDezentrale ErzeugungDigitalisierungDirektvermarktungDownloadcenter GasEEGEffizienzEigenerzeugungEigenkapitalverzinsungEigenverbrauchElektromobilitätEmissionsgrenzwerteEmissionszertifikatehandelEnergieEnergie allgemeinEnergie- und KlimapolitikEnergie- und Wasserdaten interaktivEnergieberatungEnergiebinnenmarktEnergiedienstleistungenEnergieeffizienzEnergieeinsparungEnergiehandelEnergieinfrastrukturEnergienetze und RegulierungEnergiepolitikEnergiepreiseEnergiepreiskriseEnergiespeicherEnergieversorgungEnergievertriebEnergiewendeEnergiewirtschaftEntflechtungEntgelte / GebührenEnWGErdgasErzeugungErzeugung und SystemintegrationEuropaEuropäische BeihilfepolitikFachkräfteFernwärmeFinanzierungFlexibilitätFörderungForschung und EntwicklungGasGas-MarketingGasanwendungenGasmarktGasmobilitätGasspeicherGebührenGenehmigungsverfahrenGeschäftsmodelleGesetzeGesetze und VerordnungenGrafikenGrünes GasHandelHeizkostenHeizungHeizungsmarktImmissionsschutzrechtImportIndustrieInfrastrukturInnovationInternationalesInvestitionenITIT-SicherheitKapazitätKennzahlenklimaneutrales GasKlimaschutzKlimawandelKMUKohleKohleausstiegKommunikationKonventionelle EnergienKraft-Wärme-KopplungKraftwerkeKritische InfrastrukturenKWKKWK-GLadeinfrastrukturLeitungs- und WegerechtLNGMagazin Asia CallingMagazin AufbruchMagazin DynamikMagazin EuropaMagazin GeldMagazin Generation NeuMagazin InfrastrukturMagazin MobilitätMagazin PerspektiveMagazin RisikoMagazin SchnittstelleMagazin Schulden bremsen?Magazin Stadt Land FlussMagazin StoffwechselMagazin WachstumMagazin Wer rettet den Markt?Markt- und SystemintegrationMarktdesignMarktpartnerMarktstammdatenMediathek GasMieterstromMobilitätModernisierungNaturschutzNetwork CodesNetzanschlussNetzausbauNetzbetreiberNetzeNetzentgelteNetzwirtschaftNetzzugangoffshoreOffshore-AusbauonshorePhotovoltaikPlusPower-to-GasPower-to-XPreisePressegrafikPrimärenergiePumpspeicherRechtRedispatchRegulierungsbehördeSektorkopplungSmart CitySmart GridsSmart MeterSolarthermieSpeicherStadtwerkeStart-upStatistikStromStromerzeugungStromkennzeichnungStromsteuerStudienSystemstabilitätTechnologienTelekommunikationTrinkwasserÜbertragungsnetzbetreiberUkraineUkraine-KriegUmlageUmwelt und KlimaUmweltpolitikUmweltschutzVerbrauchVerbraucherVerkehrVersorgungssicherheitVerteilnetzbetreiberVertriebWärmeWärmemarktWärmenetzWärmewendeWasserWasser/AbwasserWasserkraftWasserrechtWasserstoffWasserwirtschaftWettbewerbWindenergieWohnungswirtschaftZahl der WocheKeine Ergebnisse gefunden
-+ Erneuerbare EnergienAbfallAbsatz und VerbrauchAbwasserAnreizregulierungArzneimittelrückständeAus dem VerbandAusschreibungenAVVBafaBatteriespeicherBetriebswirtschaftBildung und SchuleBiogas / BiomethanBiomasseBNetzABNKBürokratieabbauCO2ContractingCorona-VirusDaten und AnalysenDaten/GrafikenDekarbonisierungDezentrale ErzeugungDigitalisierungDirektvermarktungDownloadcenter GasEEGEffizienzEigenerzeugungEigenkapitalverzinsungEigenverbrauchElektromobilitätEmissionsgrenzwerteEmissionszertifikatehandelEnergieEnergie allgemeinEnergie- und KlimapolitikEnergie- und Wasserdaten interaktivEnergieberatungEnergiebinnenmarktEnergiedienstleistungenEnergieeffizienzEnergieeinsparungEnergiehandelEnergieinfrastrukturEnergienetze und RegulierungEnergiepolitikEnergiepreiseEnergiepreiskriseEnergiespeicherEnergieversorgungEnergievertriebEnergiewendeEnergiewirtschaftEntflechtungEntgelte / GebührenEnWGErdgasErzeugungErzeugung und SystemintegrationEuropaEuropäische BeihilfepolitikFachkräfteFernwärmeFinanzierungFlexibilitätFörderungForschung und EntwicklungGasGas-MarketingGasanwendungenGasmarktGasmobilitätGasspeicherGebührenGenehmigungsverfahrenGeschäftsmodelleGesetzeGesetze und VerordnungenGrafikenGrünes GasHandelHeizkostenHeizungHeizungsmarktImmissionsschutzrechtImportIndustrieInfrastrukturInnovationInternationalesInvestitionenITIT-SicherheitKapazitätKennzahlenklimaneutrales GasKlimaschutzKlimawandelKMUKohleKohleausstiegKommunikationKonventionelle EnergienKraft-Wärme-KopplungKraftwerkeKritische InfrastrukturenKWKKWK-GLadeinfrastrukturLeitungs- und WegerechtLNGMagazin Asia CallingMagazin AufbruchMagazin DynamikMagazin EuropaMagazin FokusMagazin GeldMagazin Generation NeuMagazin InfrastrukturMagazin MobilitätMagazin PerspektiveMagazin RisikoMagazin SchnittstelleMagazin Schulden bremsen?Magazin Stadt Land FlussMagazin StoffwechselMagazin WachstumMagazin Wer rettet den Markt?Markt- und SystemintegrationMarktdesignMarktpartnerMarktstammdatenMediathek GasMieterstromMobilitätModernisierungNaturschutzNetwork CodesNetzanschlussNetzausbauNetzbetreiberNetzeNetzentgelteNetzwirtschaftNetzzugangoffshoreOffshore-AusbauonshorePhotovoltaikPlusPower-to-GasPower-to-XPreisePressegrafikPrimärenergiePumpspeicherRechtRedispatchRegulierungsbehördeSektorkopplungSmart CitySmart GridsSmart MeterSolarthermieSpeicherStadtwerkeStart-upStatistikStromStromerzeugungStromkennzeichnungStromsteuerStudienSystemstabilitätTechnologienTelekommunikationTrinkwasserÜbertragungsnetzbetreiberUkraineUkraine-KriegUmlageUmwelt und KlimaUmweltpolitikUmweltschutzVerbrauchVerbraucherVerkehrVersorgungssicherheitVerteilnetzbetreiberVertriebWärmeWärmemarktWärmenetzWärmewendeWasserWasser/AbwasserWasserkraftWasserrechtWasserstoffWasserwirtschaftWettbewerbWindenergieWohnungswirtschaftZahl der WocheKeine Ergebnisse gefunden</t>
+- Was­ser­kraft in Deutsch­land
+- Nutzung der Was­ser­kraft in Deutsch­land – in­stal­lier­te Leistung und Strom­er­zeu­gung
+- 606 Ergebnisse | Seite
++ 607 Ergebnisse | Seite</t>
         </is>
       </c>
     </row>
